--- a/Carto/POI/PDS_Category_Assignment.xlsx
+++ b/Carto/POI/PDS_Category_Assignment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hmcs-my.sharepoint.com/personal/alvaro_lauragarcia_here_com/Documents/iconography/HDS/Repository folder structure/Carto/POI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauragar/icons-by-here-technologies/Carto/POI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{459F9A56-0631-9546-9D28-ECDB8EA4810D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0798118-C111-E243-B17B-077787C3D2A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27600" xr2:uid="{C64EB798-04F6-AE43-9DCC-0EA02E11247A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="1005">
   <si>
     <t>PDS Category name</t>
   </si>
@@ -3546,6 +3546,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3555,28 +3573,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8657,7 +8657,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18209054" y="175260000"/>
+          <a:off x="18186400" y="174625000"/>
           <a:ext cx="457200" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12236,6 +12236,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>546100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="193" name="Graphic 192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E79AF16A-49D9-CB48-8CA1-0657F36540EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId24"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18199100" y="174078900"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12538,8 +12588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693BBA9B-95F3-BD4A-928B-DD81DFE8C409}">
   <dimension ref="A1:XFD422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="E394" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="D275" sqref="D275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="50" customHeight="1" outlineLevelCol="1"/>
@@ -12596,10 +12646,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="50" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>826</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="48" t="s">
         <v>833</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -12617,8 +12667,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="50" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
@@ -12634,8 +12684,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="50" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
@@ -12651,8 +12701,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="50" customHeight="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
@@ -12668,8 +12718,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="50" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
@@ -12685,8 +12735,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="50" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
@@ -12702,8 +12752,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50" customHeight="1">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
@@ -12719,8 +12769,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="50" customHeight="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
@@ -12736,8 +12786,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="50" customHeight="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
@@ -12753,8 +12803,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="50" customHeight="1">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="48" t="s">
         <v>834</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -12772,8 +12822,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="50" customHeight="1">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
@@ -12789,8 +12839,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="50" customHeight="1">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="8" t="s">
         <v>25</v>
       </c>
@@ -12806,8 +12856,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="50" customHeight="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="8" t="s">
         <v>27</v>
       </c>
@@ -12823,10 +12873,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="50" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="47" t="s">
         <v>831</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="47" t="s">
         <v>836</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -12844,8 +12894,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="50" customHeight="1">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
@@ -12861,8 +12911,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="50" customHeight="1">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="8" t="s">
         <v>33</v>
       </c>
@@ -12878,8 +12928,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="50" customHeight="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="8" t="s">
         <v>35</v>
       </c>
@@ -12895,8 +12945,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="50" customHeight="1">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="8" t="s">
         <v>37</v>
       </c>
@@ -12912,8 +12962,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="50" customHeight="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="8" t="s">
         <v>39</v>
       </c>
@@ -12929,8 +12979,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="50" customHeight="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="8" t="s">
         <v>41</v>
       </c>
@@ -12946,8 +12996,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="50" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="8" t="s">
         <v>43</v>
       </c>
@@ -12963,8 +13013,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="50" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="8" t="s">
         <v>45</v>
       </c>
@@ -12980,8 +13030,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="50" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>47</v>
       </c>
@@ -12996,8 +13046,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="50" customHeight="1">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="8" t="s">
         <v>49</v>
       </c>
@@ -13013,8 +13063,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="50" customHeight="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="8" t="s">
         <v>51</v>
       </c>
@@ -13030,7 +13080,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="50" customHeight="1">
-      <c r="A28" s="44"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="14" t="s">
         <v>837</v>
       </c>
@@ -13049,8 +13099,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="50" customHeight="1">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44" t="s">
+      <c r="A29" s="47"/>
+      <c r="B29" s="47" t="s">
         <v>838</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -13068,8 +13118,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="50" customHeight="1">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="8" t="s">
         <v>57</v>
       </c>
@@ -13085,8 +13135,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="50" customHeight="1">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="47" t="s">
         <v>839</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -13104,8 +13154,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="50" customHeight="1">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="8" t="s">
         <v>61</v>
       </c>
@@ -13121,8 +13171,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="50" customHeight="1">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="8" t="s">
         <v>63</v>
       </c>
@@ -13138,10 +13188,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="50" customHeight="1">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="38" t="s">
         <v>835</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="47" t="s">
         <v>843</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -13159,8 +13209,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="50" customHeight="1">
-      <c r="A35" s="42"/>
-      <c r="B35" s="44"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="8" t="s">
         <v>67</v>
       </c>
@@ -13176,8 +13226,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="50" customHeight="1">
-      <c r="A36" s="42"/>
-      <c r="B36" s="44"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="8" t="s">
         <v>69</v>
       </c>
@@ -13193,8 +13243,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="50" customHeight="1">
-      <c r="A37" s="42"/>
-      <c r="B37" s="44"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="8" t="s">
         <v>71</v>
       </c>
@@ -13210,8 +13260,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="50" customHeight="1">
-      <c r="A38" s="42"/>
-      <c r="B38" s="44"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="8" t="s">
         <v>73</v>
       </c>
@@ -13225,8 +13275,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="50" customHeight="1">
-      <c r="A39" s="42"/>
-      <c r="B39" s="44"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="8" t="s">
         <v>75</v>
       </c>
@@ -13240,8 +13290,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="50" customHeight="1">
-      <c r="A40" s="42"/>
-      <c r="B40" s="44"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="8" t="s">
         <v>77</v>
       </c>
@@ -13255,8 +13305,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="50" customHeight="1">
-      <c r="A41" s="42"/>
-      <c r="B41" s="44"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="8" t="s">
         <v>79</v>
       </c>
@@ -13272,8 +13322,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="50" customHeight="1">
-      <c r="A42" s="42"/>
-      <c r="B42" s="44" t="s">
+      <c r="A42" s="39"/>
+      <c r="B42" s="47" t="s">
         <v>844</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -13291,8 +13341,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="50" customHeight="1">
-      <c r="A43" s="42"/>
-      <c r="B43" s="44"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="8" t="s">
         <v>83</v>
       </c>
@@ -13308,8 +13358,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="50" customHeight="1">
-      <c r="A44" s="42"/>
-      <c r="B44" s="44"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="8" t="s">
         <v>85</v>
       </c>
@@ -13325,8 +13375,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="50" customHeight="1">
-      <c r="A45" s="42"/>
-      <c r="B45" s="44"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="8" t="s">
         <v>87</v>
       </c>
@@ -13342,8 +13392,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="50" customHeight="1">
-      <c r="A46" s="42"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="8" t="s">
         <v>89</v>
       </c>
@@ -13359,8 +13409,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="50" customHeight="1">
-      <c r="A47" s="42"/>
-      <c r="B47" s="38" t="s">
+      <c r="A47" s="39"/>
+      <c r="B47" s="44" t="s">
         <v>845</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -13378,8 +13428,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="50" customHeight="1">
-      <c r="A48" s="42"/>
-      <c r="B48" s="39"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="8" t="s">
         <v>93</v>
       </c>
@@ -13395,8 +13445,8 @@
       </c>
     </row>
     <row r="49" spans="1:16384" ht="50" customHeight="1">
-      <c r="A49" s="42"/>
-      <c r="B49" s="39"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="8" t="s">
         <v>95</v>
       </c>
@@ -13412,8 +13462,8 @@
       </c>
     </row>
     <row r="50" spans="1:16384" ht="50" customHeight="1">
-      <c r="A50" s="42"/>
-      <c r="B50" s="39"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="8" t="s">
         <v>97</v>
       </c>
@@ -13429,8 +13479,8 @@
       </c>
     </row>
     <row r="51" spans="1:16384" ht="50" customHeight="1">
-      <c r="A51" s="42"/>
-      <c r="B51" s="39"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="8" t="s">
         <v>99</v>
       </c>
@@ -13446,8 +13496,8 @@
       </c>
     </row>
     <row r="52" spans="1:16384" ht="50" customHeight="1">
-      <c r="A52" s="42"/>
-      <c r="B52" s="39"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="8" t="s">
         <v>101</v>
       </c>
@@ -13463,8 +13513,8 @@
       </c>
     </row>
     <row r="53" spans="1:16384" ht="50" customHeight="1">
-      <c r="A53" s="42"/>
-      <c r="B53" s="39"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="8" t="s">
         <v>101</v>
       </c>
@@ -29855,8 +29905,8 @@
       <c r="XFD53" s="34"/>
     </row>
     <row r="54" spans="1:16384" ht="50" customHeight="1">
-      <c r="A54" s="42"/>
-      <c r="B54" s="39"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="8" t="s">
         <v>103</v>
       </c>
@@ -29872,8 +29922,8 @@
       </c>
     </row>
     <row r="55" spans="1:16384" ht="50" customHeight="1">
-      <c r="A55" s="42"/>
-      <c r="B55" s="39"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="8" t="s">
         <v>105</v>
       </c>
@@ -29889,8 +29939,8 @@
       </c>
     </row>
     <row r="56" spans="1:16384" ht="50" customHeight="1">
-      <c r="A56" s="43"/>
-      <c r="B56" s="40"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="35" t="s">
         <v>920</v>
       </c>
@@ -29904,10 +29954,10 @@
       </c>
     </row>
     <row r="57" spans="1:16384" ht="50" customHeight="1">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="38" t="s">
         <v>846</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="38" t="s">
         <v>847</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -29925,8 +29975,8 @@
       </c>
     </row>
     <row r="58" spans="1:16384" ht="50" customHeight="1">
-      <c r="A58" s="42"/>
-      <c r="B58" s="42"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="8" t="s">
         <v>109</v>
       </c>
@@ -29940,8 +29990,8 @@
       </c>
     </row>
     <row r="59" spans="1:16384" ht="50" customHeight="1">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
       <c r="C59" s="8" t="s">
         <v>111</v>
       </c>
@@ -29955,8 +30005,8 @@
       </c>
     </row>
     <row r="60" spans="1:16384" ht="50" customHeight="1">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
       <c r="C60" s="8" t="s">
         <v>113</v>
       </c>
@@ -29972,8 +30022,8 @@
       </c>
     </row>
     <row r="61" spans="1:16384" ht="50" customHeight="1">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
       <c r="C61" s="8" t="s">
         <v>115</v>
       </c>
@@ -29987,8 +30037,8 @@
       </c>
     </row>
     <row r="62" spans="1:16384" ht="50" customHeight="1">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
       <c r="C62" s="8" t="s">
         <v>117</v>
       </c>
@@ -30002,8 +30052,8 @@
       </c>
     </row>
     <row r="63" spans="1:16384" ht="50" customHeight="1">
-      <c r="A63" s="42"/>
-      <c r="B63" s="43"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="8" t="s">
         <v>119</v>
       </c>
@@ -30017,8 +30067,8 @@
       </c>
     </row>
     <row r="64" spans="1:16384" ht="50" customHeight="1">
-      <c r="A64" s="42"/>
-      <c r="B64" s="41" t="s">
+      <c r="A64" s="39"/>
+      <c r="B64" s="38" t="s">
         <v>848</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -30036,8 +30086,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="50" customHeight="1">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
       <c r="C65" s="8" t="s">
         <v>123</v>
       </c>
@@ -30053,8 +30103,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="50" customHeight="1">
-      <c r="A66" s="42"/>
-      <c r="B66" s="43"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="8" t="s">
         <v>125</v>
       </c>
@@ -30070,7 +30120,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="50" customHeight="1">
-      <c r="A67" s="42"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="14" t="s">
         <v>849</v>
       </c>
@@ -30087,7 +30137,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="50" customHeight="1">
-      <c r="A68" s="42"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="14" t="s">
         <v>850</v>
       </c>
@@ -30106,7 +30156,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="50" customHeight="1">
-      <c r="A69" s="43"/>
+      <c r="A69" s="40"/>
       <c r="B69" s="14" t="s">
         <v>851</v>
       </c>
@@ -30125,10 +30175,10 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="50" customHeight="1">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="38" t="s">
         <v>854</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="38" t="s">
         <v>856</v>
       </c>
       <c r="C70" s="8" t="s">
@@ -30146,8 +30196,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="50" customHeight="1">
-      <c r="A71" s="42"/>
-      <c r="B71" s="42"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
       <c r="C71" s="8" t="s">
         <v>135</v>
       </c>
@@ -30163,8 +30213,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="50" customHeight="1">
-      <c r="A72" s="42"/>
-      <c r="B72" s="43"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="40"/>
       <c r="C72" s="8" t="s">
         <v>137</v>
       </c>
@@ -30180,8 +30230,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="50" customHeight="1">
-      <c r="A73" s="42"/>
-      <c r="B73" s="41" t="s">
+      <c r="A73" s="39"/>
+      <c r="B73" s="38" t="s">
         <v>855</v>
       </c>
       <c r="C73" s="8" t="s">
@@ -30199,8 +30249,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="50" customHeight="1">
-      <c r="A74" s="42"/>
-      <c r="B74" s="42"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
       <c r="C74" s="8" t="s">
         <v>141</v>
       </c>
@@ -30216,8 +30266,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="50" customHeight="1">
-      <c r="A75" s="42"/>
-      <c r="B75" s="42"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="8" t="s">
         <v>143</v>
       </c>
@@ -30233,8 +30283,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="50" customHeight="1">
-      <c r="A76" s="42"/>
-      <c r="B76" s="42"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
       <c r="C76" s="8" t="s">
         <v>145</v>
       </c>
@@ -30250,8 +30300,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="50" customHeight="1">
-      <c r="A77" s="42"/>
-      <c r="B77" s="42"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
       <c r="C77" s="8" t="s">
         <v>147</v>
       </c>
@@ -30267,8 +30317,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="50" customHeight="1">
-      <c r="A78" s="42"/>
-      <c r="B78" s="42"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="8" t="s">
         <v>149</v>
       </c>
@@ -30282,8 +30332,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="50" customHeight="1">
-      <c r="A79" s="42"/>
-      <c r="B79" s="42"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="8" t="s">
         <v>151</v>
       </c>
@@ -30297,8 +30347,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="50" customHeight="1">
-      <c r="A80" s="42"/>
-      <c r="B80" s="42"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
       <c r="C80" s="8" t="s">
         <v>153</v>
       </c>
@@ -30314,8 +30364,8 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="50" customHeight="1">
-      <c r="A81" s="42"/>
-      <c r="B81" s="42"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="8" t="s">
         <v>155</v>
       </c>
@@ -30329,8 +30379,8 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="50" customHeight="1">
-      <c r="A82" s="42"/>
-      <c r="B82" s="42"/>
+      <c r="A82" s="39"/>
+      <c r="B82" s="39"/>
       <c r="C82" s="8" t="s">
         <v>157</v>
       </c>
@@ -30346,8 +30396,8 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="50" customHeight="1">
-      <c r="A83" s="42"/>
-      <c r="B83" s="42"/>
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
       <c r="C83" s="8" t="s">
         <v>159</v>
       </c>
@@ -30363,8 +30413,8 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="50" customHeight="1">
-      <c r="A84" s="42"/>
-      <c r="B84" s="42"/>
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
       <c r="C84" s="8" t="s">
         <v>161</v>
       </c>
@@ -30380,8 +30430,8 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="50" customHeight="1">
-      <c r="A85" s="42"/>
-      <c r="B85" s="42"/>
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
       <c r="C85" s="8" t="s">
         <v>163</v>
       </c>
@@ -30400,8 +30450,8 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="50" customHeight="1">
-      <c r="A86" s="42"/>
-      <c r="B86" s="42"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
       <c r="C86" s="8" t="s">
         <v>165</v>
       </c>
@@ -30415,8 +30465,8 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="50" customHeight="1">
-      <c r="A87" s="42"/>
-      <c r="B87" s="42"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="39"/>
       <c r="C87" s="8" t="s">
         <v>167</v>
       </c>
@@ -30432,8 +30482,8 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="50" customHeight="1">
-      <c r="A88" s="42"/>
-      <c r="B88" s="42"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
       <c r="C88" s="8" t="s">
         <v>169</v>
       </c>
@@ -30449,8 +30499,8 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="50" customHeight="1">
-      <c r="A89" s="42"/>
-      <c r="B89" s="42"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="39"/>
       <c r="C89" s="8" t="s">
         <v>171</v>
       </c>
@@ -30464,8 +30514,8 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="50" customHeight="1">
-      <c r="A90" s="42"/>
-      <c r="B90" s="42"/>
+      <c r="A90" s="39"/>
+      <c r="B90" s="39"/>
       <c r="C90" s="8" t="s">
         <v>173</v>
       </c>
@@ -30481,8 +30531,8 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="50" customHeight="1">
-      <c r="A91" s="42"/>
-      <c r="B91" s="42"/>
+      <c r="A91" s="39"/>
+      <c r="B91" s="39"/>
       <c r="C91" s="8" t="s">
         <v>175</v>
       </c>
@@ -30498,8 +30548,8 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="50" customHeight="1">
-      <c r="A92" s="42"/>
-      <c r="B92" s="42"/>
+      <c r="A92" s="39"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="8" t="s">
         <v>177</v>
       </c>
@@ -30513,8 +30563,8 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="50" customHeight="1">
-      <c r="A93" s="42"/>
-      <c r="B93" s="42"/>
+      <c r="A93" s="39"/>
+      <c r="B93" s="39"/>
       <c r="C93" s="8" t="s">
         <v>179</v>
       </c>
@@ -30530,8 +30580,8 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="50" customHeight="1">
-      <c r="A94" s="42"/>
-      <c r="B94" s="42"/>
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="8" t="s">
         <v>181</v>
       </c>
@@ -30545,8 +30595,8 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="50" customHeight="1">
-      <c r="A95" s="42"/>
-      <c r="B95" s="43"/>
+      <c r="A95" s="39"/>
+      <c r="B95" s="40"/>
       <c r="C95" s="8" t="s">
         <v>183</v>
       </c>
@@ -30560,8 +30610,8 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="50" customHeight="1">
-      <c r="A96" s="42"/>
-      <c r="B96" s="41" t="s">
+      <c r="A96" s="39"/>
+      <c r="B96" s="38" t="s">
         <v>857</v>
       </c>
       <c r="C96" s="8" t="s">
@@ -30577,8 +30627,8 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="50" customHeight="1">
-      <c r="A97" s="42"/>
-      <c r="B97" s="42"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="39"/>
       <c r="C97" s="8" t="s">
         <v>187</v>
       </c>
@@ -30592,8 +30642,8 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="50" customHeight="1">
-      <c r="A98" s="42"/>
-      <c r="B98" s="42"/>
+      <c r="A98" s="39"/>
+      <c r="B98" s="39"/>
       <c r="C98" s="8" t="s">
         <v>189</v>
       </c>
@@ -30607,8 +30657,8 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="50" customHeight="1">
-      <c r="A99" s="42"/>
-      <c r="B99" s="42"/>
+      <c r="A99" s="39"/>
+      <c r="B99" s="39"/>
       <c r="C99" s="8" t="s">
         <v>191</v>
       </c>
@@ -30622,8 +30672,8 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="50" customHeight="1">
-      <c r="A100" s="42"/>
-      <c r="B100" s="42"/>
+      <c r="A100" s="39"/>
+      <c r="B100" s="39"/>
       <c r="C100" s="8" t="s">
         <v>193</v>
       </c>
@@ -30637,8 +30687,8 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="50" customHeight="1">
-      <c r="A101" s="42"/>
-      <c r="B101" s="42"/>
+      <c r="A101" s="39"/>
+      <c r="B101" s="39"/>
       <c r="C101" s="8" t="s">
         <v>195</v>
       </c>
@@ -30652,8 +30702,8 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="50" customHeight="1">
-      <c r="A102" s="42"/>
-      <c r="B102" s="42"/>
+      <c r="A102" s="39"/>
+      <c r="B102" s="39"/>
       <c r="C102" s="8" t="s">
         <v>197</v>
       </c>
@@ -30667,8 +30717,8 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="50" customHeight="1">
-      <c r="A103" s="42"/>
-      <c r="B103" s="42"/>
+      <c r="A103" s="39"/>
+      <c r="B103" s="39"/>
       <c r="C103" s="8" t="s">
         <v>199</v>
       </c>
@@ -30682,8 +30732,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="50" customHeight="1">
-      <c r="A104" s="42"/>
-      <c r="B104" s="42"/>
+      <c r="A104" s="39"/>
+      <c r="B104" s="39"/>
       <c r="C104" s="8" t="s">
         <v>201</v>
       </c>
@@ -30697,8 +30747,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="50" customHeight="1">
-      <c r="A105" s="42"/>
-      <c r="B105" s="43"/>
+      <c r="A105" s="39"/>
+      <c r="B105" s="40"/>
       <c r="C105" s="8" t="s">
         <v>203</v>
       </c>
@@ -30712,8 +30762,8 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="50" customHeight="1">
-      <c r="A106" s="42"/>
-      <c r="B106" s="41" t="s">
+      <c r="A106" s="39"/>
+      <c r="B106" s="38" t="s">
         <v>858</v>
       </c>
       <c r="C106" s="8" t="s">
@@ -30731,8 +30781,8 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="50" customHeight="1">
-      <c r="A107" s="42"/>
-      <c r="B107" s="42"/>
+      <c r="A107" s="39"/>
+      <c r="B107" s="39"/>
       <c r="C107" s="8" t="s">
         <v>207</v>
       </c>
@@ -30748,8 +30798,8 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="50" customHeight="1">
-      <c r="A108" s="42"/>
-      <c r="B108" s="42"/>
+      <c r="A108" s="39"/>
+      <c r="B108" s="39"/>
       <c r="C108" s="8" t="s">
         <v>209</v>
       </c>
@@ -30765,8 +30815,8 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="50" customHeight="1">
-      <c r="A109" s="42"/>
-      <c r="B109" s="42"/>
+      <c r="A109" s="39"/>
+      <c r="B109" s="39"/>
       <c r="C109" s="8" t="s">
         <v>211</v>
       </c>
@@ -30782,8 +30832,8 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="50" customHeight="1">
-      <c r="A110" s="42"/>
-      <c r="B110" s="42"/>
+      <c r="A110" s="39"/>
+      <c r="B110" s="39"/>
       <c r="C110" s="8" t="s">
         <v>213</v>
       </c>
@@ -30799,8 +30849,8 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="50" customHeight="1">
-      <c r="A111" s="43"/>
-      <c r="B111" s="43"/>
+      <c r="A111" s="40"/>
+      <c r="B111" s="40"/>
       <c r="C111" s="8" t="s">
         <v>215</v>
       </c>
@@ -30816,10 +30866,10 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="50" customHeight="1">
-      <c r="A112" s="41" t="s">
+      <c r="A112" s="38" t="s">
         <v>859</v>
       </c>
-      <c r="B112" s="41" t="s">
+      <c r="B112" s="38" t="s">
         <v>860</v>
       </c>
       <c r="C112" s="8" t="s">
@@ -30837,8 +30887,8 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="50" customHeight="1">
-      <c r="A113" s="42"/>
-      <c r="B113" s="42"/>
+      <c r="A113" s="39"/>
+      <c r="B113" s="39"/>
       <c r="C113" s="8" t="s">
         <v>219</v>
       </c>
@@ -30854,8 +30904,8 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="50" customHeight="1">
-      <c r="A114" s="42"/>
-      <c r="B114" s="43"/>
+      <c r="A114" s="39"/>
+      <c r="B114" s="40"/>
       <c r="C114" s="8" t="s">
         <v>221</v>
       </c>
@@ -30871,8 +30921,8 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="50" customHeight="1">
-      <c r="A115" s="42"/>
-      <c r="B115" s="38" t="s">
+      <c r="A115" s="39"/>
+      <c r="B115" s="44" t="s">
         <v>861</v>
       </c>
       <c r="C115" s="8" t="s">
@@ -30890,8 +30940,8 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="50" customHeight="1">
-      <c r="A116" s="42"/>
-      <c r="B116" s="39"/>
+      <c r="A116" s="39"/>
+      <c r="B116" s="45"/>
       <c r="C116" s="8" t="s">
         <v>225</v>
       </c>
@@ -30907,8 +30957,8 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="50" customHeight="1">
-      <c r="A117" s="42"/>
-      <c r="B117" s="39"/>
+      <c r="A117" s="39"/>
+      <c r="B117" s="45"/>
       <c r="C117" s="8" t="s">
         <v>227</v>
       </c>
@@ -30924,8 +30974,8 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="50" customHeight="1">
-      <c r="A118" s="42"/>
-      <c r="B118" s="39"/>
+      <c r="A118" s="39"/>
+      <c r="B118" s="45"/>
       <c r="C118" s="8" t="s">
         <v>229</v>
       </c>
@@ -30941,8 +30991,8 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="50" customHeight="1">
-      <c r="A119" s="42"/>
-      <c r="B119" s="39"/>
+      <c r="A119" s="39"/>
+      <c r="B119" s="45"/>
       <c r="C119" s="8" t="s">
         <v>231</v>
       </c>
@@ -30958,8 +31008,8 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="50" customHeight="1">
-      <c r="A120" s="42"/>
-      <c r="B120" s="39"/>
+      <c r="A120" s="39"/>
+      <c r="B120" s="45"/>
       <c r="C120" s="8" t="s">
         <v>233</v>
       </c>
@@ -30975,8 +31025,8 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="50" customHeight="1">
-      <c r="A121" s="42"/>
-      <c r="B121" s="39"/>
+      <c r="A121" s="39"/>
+      <c r="B121" s="45"/>
       <c r="C121" s="8" t="s">
         <v>235</v>
       </c>
@@ -30993,7 +31043,7 @@
     </row>
     <row r="122" spans="1:7" ht="50" customHeight="1">
       <c r="A122" s="17"/>
-      <c r="B122" s="39"/>
+      <c r="B122" s="45"/>
       <c r="C122" s="35" t="s">
         <v>917</v>
       </c>
@@ -31007,10 +31057,10 @@
       </c>
     </row>
     <row r="123" spans="1:7" ht="50" customHeight="1">
-      <c r="A123" s="42" t="s">
+      <c r="A123" s="39" t="s">
         <v>865</v>
       </c>
-      <c r="B123" s="42" t="s">
+      <c r="B123" s="39" t="s">
         <v>866</v>
       </c>
       <c r="C123" s="8" t="s">
@@ -31028,8 +31078,8 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="50" customHeight="1">
-      <c r="A124" s="42"/>
-      <c r="B124" s="42"/>
+      <c r="A124" s="39"/>
+      <c r="B124" s="39"/>
       <c r="C124" s="8" t="s">
         <v>239</v>
       </c>
@@ -31045,8 +31095,8 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="50" customHeight="1">
-      <c r="A125" s="42"/>
-      <c r="B125" s="42"/>
+      <c r="A125" s="39"/>
+      <c r="B125" s="39"/>
       <c r="C125" s="8" t="s">
         <v>241</v>
       </c>
@@ -31060,8 +31110,8 @@
       </c>
     </row>
     <row r="126" spans="1:7" ht="50" customHeight="1">
-      <c r="A126" s="42"/>
-      <c r="B126" s="42"/>
+      <c r="A126" s="39"/>
+      <c r="B126" s="39"/>
       <c r="C126" s="8" t="s">
         <v>243</v>
       </c>
@@ -31077,8 +31127,8 @@
       </c>
     </row>
     <row r="127" spans="1:7" ht="50" customHeight="1">
-      <c r="A127" s="42"/>
-      <c r="B127" s="42"/>
+      <c r="A127" s="39"/>
+      <c r="B127" s="39"/>
       <c r="C127" s="8" t="s">
         <v>245</v>
       </c>
@@ -31094,8 +31144,8 @@
       </c>
     </row>
     <row r="128" spans="1:7" ht="50" customHeight="1">
-      <c r="A128" s="42"/>
-      <c r="B128" s="42"/>
+      <c r="A128" s="39"/>
+      <c r="B128" s="39"/>
       <c r="C128" s="8" t="s">
         <v>247</v>
       </c>
@@ -31109,8 +31159,8 @@
       </c>
     </row>
     <row r="129" spans="1:7" ht="50" customHeight="1">
-      <c r="A129" s="42"/>
-      <c r="B129" s="42"/>
+      <c r="A129" s="39"/>
+      <c r="B129" s="39"/>
       <c r="C129" s="8" t="s">
         <v>249</v>
       </c>
@@ -31124,8 +31174,8 @@
       </c>
     </row>
     <row r="130" spans="1:7" ht="50" customHeight="1">
-      <c r="A130" s="42"/>
-      <c r="B130" s="42"/>
+      <c r="A130" s="39"/>
+      <c r="B130" s="39"/>
       <c r="C130" s="8" t="s">
         <v>251</v>
       </c>
@@ -31141,8 +31191,8 @@
       </c>
     </row>
     <row r="131" spans="1:7" ht="50" customHeight="1">
-      <c r="A131" s="42"/>
-      <c r="B131" s="42"/>
+      <c r="A131" s="39"/>
+      <c r="B131" s="39"/>
       <c r="C131" s="8" t="s">
         <v>253</v>
       </c>
@@ -31156,8 +31206,8 @@
       </c>
     </row>
     <row r="132" spans="1:7" ht="50" customHeight="1">
-      <c r="A132" s="42"/>
-      <c r="B132" s="42"/>
+      <c r="A132" s="39"/>
+      <c r="B132" s="39"/>
       <c r="C132" s="8" t="s">
         <v>255</v>
       </c>
@@ -31171,8 +31221,8 @@
       </c>
     </row>
     <row r="133" spans="1:7" ht="50" customHeight="1">
-      <c r="A133" s="42"/>
-      <c r="B133" s="42"/>
+      <c r="A133" s="39"/>
+      <c r="B133" s="39"/>
       <c r="C133" s="8" t="s">
         <v>257</v>
       </c>
@@ -31186,8 +31236,8 @@
       </c>
     </row>
     <row r="134" spans="1:7" ht="50" customHeight="1">
-      <c r="A134" s="42"/>
-      <c r="B134" s="42"/>
+      <c r="A134" s="39"/>
+      <c r="B134" s="39"/>
       <c r="C134" s="8" t="s">
         <v>259</v>
       </c>
@@ -31203,8 +31253,8 @@
       </c>
     </row>
     <row r="135" spans="1:7" ht="50" customHeight="1">
-      <c r="A135" s="42"/>
-      <c r="B135" s="42"/>
+      <c r="A135" s="39"/>
+      <c r="B135" s="39"/>
       <c r="C135" s="8" t="s">
         <v>261</v>
       </c>
@@ -31218,8 +31268,8 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="50" customHeight="1">
-      <c r="A136" s="42"/>
-      <c r="B136" s="42"/>
+      <c r="A136" s="39"/>
+      <c r="B136" s="39"/>
       <c r="C136" s="8" t="s">
         <v>263</v>
       </c>
@@ -31233,8 +31283,8 @@
       </c>
     </row>
     <row r="137" spans="1:7" ht="50" customHeight="1">
-      <c r="A137" s="42"/>
-      <c r="B137" s="43"/>
+      <c r="A137" s="39"/>
+      <c r="B137" s="40"/>
       <c r="C137" s="8" t="s">
         <v>265</v>
       </c>
@@ -31248,8 +31298,8 @@
       </c>
     </row>
     <row r="138" spans="1:7" ht="50" customHeight="1">
-      <c r="A138" s="42"/>
-      <c r="B138" s="41" t="s">
+      <c r="A138" s="39"/>
+      <c r="B138" s="38" t="s">
         <v>867</v>
       </c>
       <c r="C138" s="8" t="s">
@@ -31267,8 +31317,8 @@
       </c>
     </row>
     <row r="139" spans="1:7" ht="50" customHeight="1">
-      <c r="A139" s="42"/>
-      <c r="B139" s="42"/>
+      <c r="A139" s="39"/>
+      <c r="B139" s="39"/>
       <c r="C139" s="8" t="s">
         <v>269</v>
       </c>
@@ -31284,8 +31334,8 @@
       </c>
     </row>
     <row r="140" spans="1:7" ht="50" customHeight="1">
-      <c r="A140" s="42"/>
-      <c r="B140" s="42"/>
+      <c r="A140" s="39"/>
+      <c r="B140" s="39"/>
       <c r="C140" s="8" t="s">
         <v>271</v>
       </c>
@@ -31301,8 +31351,8 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="50" customHeight="1">
-      <c r="A141" s="42"/>
-      <c r="B141" s="42"/>
+      <c r="A141" s="39"/>
+      <c r="B141" s="39"/>
       <c r="C141" s="8" t="s">
         <v>273</v>
       </c>
@@ -31316,8 +31366,8 @@
       </c>
     </row>
     <row r="142" spans="1:7" ht="50" customHeight="1">
-      <c r="A142" s="42"/>
-      <c r="B142" s="42"/>
+      <c r="A142" s="39"/>
+      <c r="B142" s="39"/>
       <c r="C142" s="8" t="s">
         <v>275</v>
       </c>
@@ -31331,8 +31381,8 @@
       </c>
     </row>
     <row r="143" spans="1:7" ht="50" customHeight="1">
-      <c r="A143" s="42"/>
-      <c r="B143" s="42"/>
+      <c r="A143" s="39"/>
+      <c r="B143" s="39"/>
       <c r="C143" s="8" t="s">
         <v>277</v>
       </c>
@@ -31346,8 +31396,8 @@
       </c>
     </row>
     <row r="144" spans="1:7" ht="50" customHeight="1">
-      <c r="A144" s="42"/>
-      <c r="B144" s="42"/>
+      <c r="A144" s="39"/>
+      <c r="B144" s="39"/>
       <c r="C144" s="8" t="s">
         <v>279</v>
       </c>
@@ -31363,8 +31413,8 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="50" customHeight="1">
-      <c r="A145" s="42"/>
-      <c r="B145" s="42"/>
+      <c r="A145" s="39"/>
+      <c r="B145" s="39"/>
       <c r="C145" s="8" t="s">
         <v>281</v>
       </c>
@@ -31380,8 +31430,8 @@
       </c>
     </row>
     <row r="146" spans="1:7" ht="50" customHeight="1">
-      <c r="A146" s="43"/>
-      <c r="B146" s="43"/>
+      <c r="A146" s="40"/>
+      <c r="B146" s="40"/>
       <c r="C146" s="8" t="s">
         <v>283</v>
       </c>
@@ -31394,7 +31444,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" ht="50" customHeight="1">
-      <c r="A147" s="41" t="s">
+      <c r="A147" s="38" t="s">
         <v>868</v>
       </c>
       <c r="B147" s="14" t="s">
@@ -31415,7 +31465,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" ht="50" customHeight="1">
-      <c r="A148" s="42"/>
+      <c r="A148" s="39"/>
       <c r="B148" s="14" t="s">
         <v>880</v>
       </c>
@@ -31434,7 +31484,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" ht="50" customHeight="1">
-      <c r="A149" s="42"/>
+      <c r="A149" s="39"/>
       <c r="B149" s="14" t="s">
         <v>881</v>
       </c>
@@ -31453,8 +31503,8 @@
       </c>
     </row>
     <row r="150" spans="1:7" ht="50" customHeight="1">
-      <c r="A150" s="42"/>
-      <c r="B150" s="46" t="s">
+      <c r="A150" s="39"/>
+      <c r="B150" s="41" t="s">
         <v>882</v>
       </c>
       <c r="C150" s="8" t="s">
@@ -31470,8 +31520,8 @@
       </c>
     </row>
     <row r="151" spans="1:7" ht="50" customHeight="1">
-      <c r="A151" s="42"/>
-      <c r="B151" s="47"/>
+      <c r="A151" s="39"/>
+      <c r="B151" s="42"/>
       <c r="C151" s="8" t="s">
         <v>293</v>
       </c>
@@ -31487,8 +31537,8 @@
       </c>
     </row>
     <row r="152" spans="1:7" ht="50" customHeight="1">
-      <c r="A152" s="42"/>
-      <c r="B152" s="47"/>
+      <c r="A152" s="39"/>
+      <c r="B152" s="42"/>
       <c r="C152" s="8" t="s">
         <v>295</v>
       </c>
@@ -31502,8 +31552,8 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="50" customHeight="1">
-      <c r="A153" s="42"/>
-      <c r="B153" s="47"/>
+      <c r="A153" s="39"/>
+      <c r="B153" s="42"/>
       <c r="C153" s="8" t="s">
         <v>297</v>
       </c>
@@ -31517,8 +31567,8 @@
       </c>
     </row>
     <row r="154" spans="1:7" ht="50" customHeight="1">
-      <c r="A154" s="42"/>
-      <c r="B154" s="47"/>
+      <c r="A154" s="39"/>
+      <c r="B154" s="42"/>
       <c r="C154" s="8" t="s">
         <v>299</v>
       </c>
@@ -31532,8 +31582,8 @@
       </c>
     </row>
     <row r="155" spans="1:7" ht="50" customHeight="1">
-      <c r="A155" s="42"/>
-      <c r="B155" s="47"/>
+      <c r="A155" s="39"/>
+      <c r="B155" s="42"/>
       <c r="C155" s="8" t="s">
         <v>301</v>
       </c>
@@ -31547,8 +31597,8 @@
       </c>
     </row>
     <row r="156" spans="1:7" ht="50" customHeight="1">
-      <c r="A156" s="42"/>
-      <c r="B156" s="47"/>
+      <c r="A156" s="39"/>
+      <c r="B156" s="42"/>
       <c r="C156" s="35" t="s">
         <v>915</v>
       </c>
@@ -31562,8 +31612,8 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="50" customHeight="1">
-      <c r="A157" s="42"/>
-      <c r="B157" s="47"/>
+      <c r="A157" s="39"/>
+      <c r="B157" s="42"/>
       <c r="C157" s="8" t="s">
         <v>303</v>
       </c>
@@ -31577,8 +31627,8 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="50" customHeight="1">
-      <c r="A158" s="42"/>
-      <c r="B158" s="48"/>
+      <c r="A158" s="39"/>
+      <c r="B158" s="43"/>
       <c r="C158" s="8" t="s">
         <v>305</v>
       </c>
@@ -31594,8 +31644,8 @@
       </c>
     </row>
     <row r="159" spans="1:7" ht="50" customHeight="1">
-      <c r="A159" s="42"/>
-      <c r="B159" s="41" t="s">
+      <c r="A159" s="39"/>
+      <c r="B159" s="38" t="s">
         <v>883</v>
       </c>
       <c r="C159" s="8" t="s">
@@ -31613,8 +31663,8 @@
       </c>
     </row>
     <row r="160" spans="1:7" ht="50" customHeight="1">
-      <c r="A160" s="42"/>
-      <c r="B160" s="42"/>
+      <c r="A160" s="39"/>
+      <c r="B160" s="39"/>
       <c r="C160" s="8" t="s">
         <v>309</v>
       </c>
@@ -31630,8 +31680,8 @@
       </c>
     </row>
     <row r="161" spans="1:7" ht="50" customHeight="1">
-      <c r="A161" s="42"/>
-      <c r="B161" s="43"/>
+      <c r="A161" s="39"/>
+      <c r="B161" s="40"/>
       <c r="C161" s="8" t="s">
         <v>311</v>
       </c>
@@ -31647,8 +31697,8 @@
       </c>
     </row>
     <row r="162" spans="1:7" ht="50" customHeight="1">
-      <c r="A162" s="42"/>
-      <c r="B162" s="41" t="s">
+      <c r="A162" s="39"/>
+      <c r="B162" s="38" t="s">
         <v>884</v>
       </c>
       <c r="C162" s="8" t="s">
@@ -31664,8 +31714,8 @@
       </c>
     </row>
     <row r="163" spans="1:7" ht="50" customHeight="1">
-      <c r="A163" s="42"/>
-      <c r="B163" s="42"/>
+      <c r="A163" s="39"/>
+      <c r="B163" s="39"/>
       <c r="C163" s="8" t="s">
         <v>315</v>
       </c>
@@ -31679,8 +31729,8 @@
       </c>
     </row>
     <row r="164" spans="1:7" ht="50" customHeight="1">
-      <c r="A164" s="42"/>
-      <c r="B164" s="42"/>
+      <c r="A164" s="39"/>
+      <c r="B164" s="39"/>
       <c r="C164" s="8" t="s">
         <v>317</v>
       </c>
@@ -31694,8 +31744,8 @@
       </c>
     </row>
     <row r="165" spans="1:7" ht="50" customHeight="1">
-      <c r="A165" s="42"/>
-      <c r="B165" s="42"/>
+      <c r="A165" s="39"/>
+      <c r="B165" s="39"/>
       <c r="C165" s="8" t="s">
         <v>319</v>
       </c>
@@ -31709,8 +31759,8 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="50" customHeight="1">
-      <c r="A166" s="42"/>
-      <c r="B166" s="43"/>
+      <c r="A166" s="39"/>
+      <c r="B166" s="40"/>
       <c r="C166" s="13" t="s">
         <v>321</v>
       </c>
@@ -31722,8 +31772,8 @@
       </c>
     </row>
     <row r="167" spans="1:7" ht="50" customHeight="1">
-      <c r="A167" s="42"/>
-      <c r="B167" s="41" t="s">
+      <c r="A167" s="39"/>
+      <c r="B167" s="38" t="s">
         <v>885</v>
       </c>
       <c r="C167" s="8" t="s">
@@ -31739,8 +31789,8 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="50" customHeight="1">
-      <c r="A168" s="42"/>
-      <c r="B168" s="42"/>
+      <c r="A168" s="39"/>
+      <c r="B168" s="39"/>
       <c r="C168" s="8" t="s">
         <v>325</v>
       </c>
@@ -31754,8 +31804,8 @@
       </c>
     </row>
     <row r="169" spans="1:7" ht="50" customHeight="1">
-      <c r="A169" s="42"/>
-      <c r="B169" s="42"/>
+      <c r="A169" s="39"/>
+      <c r="B169" s="39"/>
       <c r="C169" s="8" t="s">
         <v>326</v>
       </c>
@@ -31769,8 +31819,8 @@
       </c>
     </row>
     <row r="170" spans="1:7" ht="50" customHeight="1">
-      <c r="A170" s="42"/>
-      <c r="B170" s="42"/>
+      <c r="A170" s="39"/>
+      <c r="B170" s="39"/>
       <c r="C170" s="8" t="s">
         <v>328</v>
       </c>
@@ -31784,8 +31834,8 @@
       </c>
     </row>
     <row r="171" spans="1:7" ht="50" customHeight="1">
-      <c r="A171" s="42"/>
-      <c r="B171" s="42"/>
+      <c r="A171" s="39"/>
+      <c r="B171" s="39"/>
       <c r="C171" s="8" t="s">
         <v>330</v>
       </c>
@@ -31799,8 +31849,8 @@
       </c>
     </row>
     <row r="172" spans="1:7" ht="50" customHeight="1">
-      <c r="A172" s="42"/>
-      <c r="B172" s="42"/>
+      <c r="A172" s="39"/>
+      <c r="B172" s="39"/>
       <c r="C172" s="8" t="s">
         <v>332</v>
       </c>
@@ -31814,8 +31864,8 @@
       </c>
     </row>
     <row r="173" spans="1:7" ht="50" customHeight="1">
-      <c r="A173" s="42"/>
-      <c r="B173" s="42"/>
+      <c r="A173" s="39"/>
+      <c r="B173" s="39"/>
       <c r="C173" s="8" t="s">
         <v>334</v>
       </c>
@@ -31829,8 +31879,8 @@
       </c>
     </row>
     <row r="174" spans="1:7" ht="50" customHeight="1">
-      <c r="A174" s="42"/>
-      <c r="B174" s="42"/>
+      <c r="A174" s="39"/>
+      <c r="B174" s="39"/>
       <c r="C174" s="8" t="s">
         <v>336</v>
       </c>
@@ -31844,8 +31894,8 @@
       </c>
     </row>
     <row r="175" spans="1:7" ht="50" customHeight="1">
-      <c r="A175" s="42"/>
-      <c r="B175" s="42"/>
+      <c r="A175" s="39"/>
+      <c r="B175" s="39"/>
       <c r="C175" s="8" t="s">
         <v>338</v>
       </c>
@@ -31859,8 +31909,8 @@
       </c>
     </row>
     <row r="176" spans="1:7" ht="50" customHeight="1">
-      <c r="A176" s="42"/>
-      <c r="B176" s="42"/>
+      <c r="A176" s="39"/>
+      <c r="B176" s="39"/>
       <c r="C176" s="8" t="s">
         <v>340</v>
       </c>
@@ -31874,8 +31924,8 @@
       </c>
     </row>
     <row r="177" spans="1:7" ht="50" customHeight="1">
-      <c r="A177" s="42"/>
-      <c r="B177" s="43"/>
+      <c r="A177" s="39"/>
+      <c r="B177" s="40"/>
       <c r="C177" s="8" t="s">
         <v>342</v>
       </c>
@@ -31889,8 +31939,8 @@
       </c>
     </row>
     <row r="178" spans="1:7" ht="50" customHeight="1">
-      <c r="A178" s="42"/>
-      <c r="B178" s="41" t="s">
+      <c r="A178" s="39"/>
+      <c r="B178" s="38" t="s">
         <v>886</v>
       </c>
       <c r="C178" s="8" t="s">
@@ -31908,8 +31958,8 @@
       </c>
     </row>
     <row r="179" spans="1:7" ht="50" customHeight="1">
-      <c r="A179" s="42"/>
-      <c r="B179" s="43"/>
+      <c r="A179" s="39"/>
+      <c r="B179" s="40"/>
       <c r="C179" s="8" t="s">
         <v>346</v>
       </c>
@@ -31925,8 +31975,8 @@
       </c>
     </row>
     <row r="180" spans="1:7" ht="50" customHeight="1">
-      <c r="A180" s="42"/>
-      <c r="B180" s="41" t="s">
+      <c r="A180" s="39"/>
+      <c r="B180" s="38" t="s">
         <v>887</v>
       </c>
       <c r="C180" s="8" t="s">
@@ -31942,8 +31992,8 @@
       </c>
     </row>
     <row r="181" spans="1:7" ht="50" customHeight="1">
-      <c r="A181" s="42"/>
-      <c r="B181" s="42"/>
+      <c r="A181" s="39"/>
+      <c r="B181" s="39"/>
       <c r="C181" s="8" t="s">
         <v>350</v>
       </c>
@@ -31957,8 +32007,8 @@
       </c>
     </row>
     <row r="182" spans="1:7" ht="50" customHeight="1">
-      <c r="A182" s="42"/>
-      <c r="B182" s="42"/>
+      <c r="A182" s="39"/>
+      <c r="B182" s="39"/>
       <c r="C182" s="8" t="s">
         <v>352</v>
       </c>
@@ -31972,8 +32022,8 @@
       </c>
     </row>
     <row r="183" spans="1:7" ht="50" customHeight="1">
-      <c r="A183" s="42"/>
-      <c r="B183" s="42"/>
+      <c r="A183" s="39"/>
+      <c r="B183" s="39"/>
       <c r="C183" s="8" t="s">
         <v>354</v>
       </c>
@@ -31987,8 +32037,8 @@
       </c>
     </row>
     <row r="184" spans="1:7" ht="50" customHeight="1">
-      <c r="A184" s="42"/>
-      <c r="B184" s="42"/>
+      <c r="A184" s="39"/>
+      <c r="B184" s="39"/>
       <c r="C184" s="8" t="s">
         <v>356</v>
       </c>
@@ -32002,8 +32052,8 @@
       </c>
     </row>
     <row r="185" spans="1:7" ht="50" customHeight="1">
-      <c r="A185" s="42"/>
-      <c r="B185" s="43"/>
+      <c r="A185" s="39"/>
+      <c r="B185" s="40"/>
       <c r="C185" s="8" t="s">
         <v>358</v>
       </c>
@@ -32017,8 +32067,8 @@
       </c>
     </row>
     <row r="186" spans="1:7" ht="50" customHeight="1">
-      <c r="A186" s="42"/>
-      <c r="B186" s="41" t="s">
+      <c r="A186" s="39"/>
+      <c r="B186" s="38" t="s">
         <v>888</v>
       </c>
       <c r="C186" s="8" t="s">
@@ -32036,8 +32086,8 @@
       </c>
     </row>
     <row r="187" spans="1:7" ht="50" customHeight="1">
-      <c r="A187" s="42"/>
-      <c r="B187" s="42"/>
+      <c r="A187" s="39"/>
+      <c r="B187" s="39"/>
       <c r="C187" s="8" t="s">
         <v>362</v>
       </c>
@@ -32051,8 +32101,8 @@
       </c>
     </row>
     <row r="188" spans="1:7" ht="50" customHeight="1">
-      <c r="A188" s="42"/>
-      <c r="B188" s="42"/>
+      <c r="A188" s="39"/>
+      <c r="B188" s="39"/>
       <c r="C188" s="8" t="s">
         <v>364</v>
       </c>
@@ -32068,8 +32118,8 @@
       </c>
     </row>
     <row r="189" spans="1:7" ht="50" customHeight="1">
-      <c r="A189" s="42"/>
-      <c r="B189" s="42"/>
+      <c r="A189" s="39"/>
+      <c r="B189" s="39"/>
       <c r="C189" s="8" t="s">
         <v>366</v>
       </c>
@@ -32085,8 +32135,8 @@
       </c>
     </row>
     <row r="190" spans="1:7" ht="50" customHeight="1">
-      <c r="A190" s="42"/>
-      <c r="B190" s="42"/>
+      <c r="A190" s="39"/>
+      <c r="B190" s="39"/>
       <c r="C190" s="8" t="s">
         <v>368</v>
       </c>
@@ -32100,8 +32150,8 @@
       </c>
     </row>
     <row r="191" spans="1:7" ht="50" customHeight="1">
-      <c r="A191" s="42"/>
-      <c r="B191" s="42"/>
+      <c r="A191" s="39"/>
+      <c r="B191" s="39"/>
       <c r="C191" s="8" t="s">
         <v>370</v>
       </c>
@@ -32117,8 +32167,8 @@
       </c>
     </row>
     <row r="192" spans="1:7" ht="50" customHeight="1">
-      <c r="A192" s="42"/>
-      <c r="B192" s="42"/>
+      <c r="A192" s="39"/>
+      <c r="B192" s="39"/>
       <c r="C192" s="8" t="s">
         <v>372</v>
       </c>
@@ -32134,8 +32184,8 @@
       </c>
     </row>
     <row r="193" spans="1:16384" ht="50" customHeight="1">
-      <c r="A193" s="42"/>
-      <c r="B193" s="42"/>
+      <c r="A193" s="39"/>
+      <c r="B193" s="39"/>
       <c r="C193" s="8" t="s">
         <v>374</v>
       </c>
@@ -32151,8 +32201,8 @@
       </c>
     </row>
     <row r="194" spans="1:16384" ht="50" customHeight="1">
-      <c r="A194" s="42"/>
-      <c r="B194" s="42"/>
+      <c r="A194" s="39"/>
+      <c r="B194" s="39"/>
       <c r="C194" s="8" t="s">
         <v>376</v>
       </c>
@@ -32166,8 +32216,8 @@
       </c>
     </row>
     <row r="195" spans="1:16384" ht="50" customHeight="1">
-      <c r="A195" s="42"/>
-      <c r="B195" s="42"/>
+      <c r="A195" s="39"/>
+      <c r="B195" s="39"/>
       <c r="C195" s="8" t="s">
         <v>378</v>
       </c>
@@ -32183,8 +32233,8 @@
       </c>
     </row>
     <row r="196" spans="1:16384" ht="50" customHeight="1">
-      <c r="A196" s="42"/>
-      <c r="B196" s="42"/>
+      <c r="A196" s="39"/>
+      <c r="B196" s="39"/>
       <c r="C196" s="8" t="s">
         <v>380</v>
       </c>
@@ -32198,8 +32248,8 @@
       </c>
     </row>
     <row r="197" spans="1:16384" ht="50" customHeight="1">
-      <c r="A197" s="42"/>
-      <c r="B197" s="42"/>
+      <c r="A197" s="39"/>
+      <c r="B197" s="39"/>
       <c r="C197" s="8" t="s">
         <v>382</v>
       </c>
@@ -32213,8 +32263,8 @@
       </c>
     </row>
     <row r="198" spans="1:16384" ht="50" customHeight="1">
-      <c r="A198" s="42"/>
-      <c r="B198" s="42"/>
+      <c r="A198" s="39"/>
+      <c r="B198" s="39"/>
       <c r="C198" s="8" t="s">
         <v>384</v>
       </c>
@@ -32228,8 +32278,8 @@
       </c>
     </row>
     <row r="199" spans="1:16384" ht="50" customHeight="1">
-      <c r="A199" s="42"/>
-      <c r="B199" s="42"/>
+      <c r="A199" s="39"/>
+      <c r="B199" s="39"/>
       <c r="C199" s="35" t="s">
         <v>911</v>
       </c>
@@ -32243,8 +32293,8 @@
       </c>
     </row>
     <row r="200" spans="1:16384" ht="50" customHeight="1">
-      <c r="A200" s="42"/>
-      <c r="B200" s="42"/>
+      <c r="A200" s="39"/>
+      <c r="B200" s="39"/>
       <c r="C200" s="35" t="s">
         <v>913</v>
       </c>
@@ -48635,8 +48685,8 @@
       <c r="XFD200" s="35"/>
     </row>
     <row r="201" spans="1:16384" ht="50" customHeight="1">
-      <c r="A201" s="42"/>
-      <c r="B201" s="42"/>
+      <c r="A201" s="39"/>
+      <c r="B201" s="39"/>
       <c r="C201" s="8" t="s">
         <v>386</v>
       </c>
@@ -48650,8 +48700,8 @@
       </c>
     </row>
     <row r="202" spans="1:16384" ht="50" customHeight="1">
-      <c r="A202" s="42"/>
-      <c r="B202" s="42"/>
+      <c r="A202" s="39"/>
+      <c r="B202" s="39"/>
       <c r="C202" s="8" t="s">
         <v>388</v>
       </c>
@@ -48667,8 +48717,8 @@
       </c>
     </row>
     <row r="203" spans="1:16384" ht="50" customHeight="1">
-      <c r="A203" s="42"/>
-      <c r="B203" s="42"/>
+      <c r="A203" s="39"/>
+      <c r="B203" s="39"/>
       <c r="C203" s="8" t="s">
         <v>390</v>
       </c>
@@ -48682,8 +48732,8 @@
       </c>
     </row>
     <row r="204" spans="1:16384" ht="50" customHeight="1">
-      <c r="A204" s="42"/>
-      <c r="B204" s="42"/>
+      <c r="A204" s="39"/>
+      <c r="B204" s="39"/>
       <c r="C204" s="8" t="s">
         <v>392</v>
       </c>
@@ -48699,8 +48749,8 @@
       </c>
     </row>
     <row r="205" spans="1:16384" ht="50" customHeight="1">
-      <c r="A205" s="42"/>
-      <c r="B205" s="42"/>
+      <c r="A205" s="39"/>
+      <c r="B205" s="39"/>
       <c r="C205" s="8" t="s">
         <v>394</v>
       </c>
@@ -48714,8 +48764,8 @@
       </c>
     </row>
     <row r="206" spans="1:16384" ht="50" customHeight="1">
-      <c r="A206" s="42"/>
-      <c r="B206" s="42"/>
+      <c r="A206" s="39"/>
+      <c r="B206" s="39"/>
       <c r="C206" s="8" t="s">
         <v>396</v>
       </c>
@@ -48729,8 +48779,8 @@
       </c>
     </row>
     <row r="207" spans="1:16384" ht="50" customHeight="1">
-      <c r="A207" s="42"/>
-      <c r="B207" s="42"/>
+      <c r="A207" s="39"/>
+      <c r="B207" s="39"/>
       <c r="C207" s="8" t="s">
         <v>398</v>
       </c>
@@ -48744,8 +48794,8 @@
       </c>
     </row>
     <row r="208" spans="1:16384" ht="50" customHeight="1">
-      <c r="A208" s="42"/>
-      <c r="B208" s="42"/>
+      <c r="A208" s="39"/>
+      <c r="B208" s="39"/>
       <c r="C208" s="8" t="s">
         <v>400</v>
       </c>
@@ -48759,8 +48809,8 @@
       </c>
     </row>
     <row r="209" spans="1:7" ht="50" customHeight="1">
-      <c r="A209" s="42"/>
-      <c r="B209" s="42"/>
+      <c r="A209" s="39"/>
+      <c r="B209" s="39"/>
       <c r="C209" s="8" t="s">
         <v>402</v>
       </c>
@@ -48774,8 +48824,8 @@
       </c>
     </row>
     <row r="210" spans="1:7" ht="50" customHeight="1">
-      <c r="A210" s="42"/>
-      <c r="B210" s="42"/>
+      <c r="A210" s="39"/>
+      <c r="B210" s="39"/>
       <c r="C210" s="8" t="s">
         <v>404</v>
       </c>
@@ -48789,8 +48839,8 @@
       </c>
     </row>
     <row r="211" spans="1:7" ht="50" customHeight="1">
-      <c r="A211" s="42"/>
-      <c r="B211" s="42"/>
+      <c r="A211" s="39"/>
+      <c r="B211" s="39"/>
       <c r="C211" s="8" t="s">
         <v>406</v>
       </c>
@@ -48804,8 +48854,8 @@
       </c>
     </row>
     <row r="212" spans="1:7" ht="50" customHeight="1">
-      <c r="A212" s="42"/>
-      <c r="B212" s="42"/>
+      <c r="A212" s="39"/>
+      <c r="B212" s="39"/>
       <c r="C212" s="8" t="s">
         <v>408</v>
       </c>
@@ -48819,8 +48869,8 @@
       </c>
     </row>
     <row r="213" spans="1:7" ht="50" customHeight="1">
-      <c r="A213" s="42"/>
-      <c r="B213" s="42"/>
+      <c r="A213" s="39"/>
+      <c r="B213" s="39"/>
       <c r="C213" s="8" t="s">
         <v>410</v>
       </c>
@@ -48834,8 +48884,8 @@
       </c>
     </row>
     <row r="214" spans="1:7" ht="50" customHeight="1">
-      <c r="A214" s="42"/>
-      <c r="B214" s="42"/>
+      <c r="A214" s="39"/>
+      <c r="B214" s="39"/>
       <c r="C214" s="8" t="s">
         <v>412</v>
       </c>
@@ -48849,8 +48899,8 @@
       </c>
     </row>
     <row r="215" spans="1:7" ht="50" customHeight="1">
-      <c r="A215" s="42"/>
-      <c r="B215" s="42"/>
+      <c r="A215" s="39"/>
+      <c r="B215" s="39"/>
       <c r="C215" s="8" t="s">
         <v>414</v>
       </c>
@@ -48864,8 +48914,8 @@
       </c>
     </row>
     <row r="216" spans="1:7" ht="50" customHeight="1">
-      <c r="A216" s="42"/>
-      <c r="B216" s="42"/>
+      <c r="A216" s="39"/>
+      <c r="B216" s="39"/>
       <c r="C216" s="8" t="s">
         <v>416</v>
       </c>
@@ -48879,8 +48929,8 @@
       </c>
     </row>
     <row r="217" spans="1:7" ht="50" customHeight="1">
-      <c r="A217" s="42"/>
-      <c r="B217" s="42"/>
+      <c r="A217" s="39"/>
+      <c r="B217" s="39"/>
       <c r="C217" s="8" t="s">
         <v>418</v>
       </c>
@@ -48894,8 +48944,8 @@
       </c>
     </row>
     <row r="218" spans="1:7" ht="50" customHeight="1">
-      <c r="A218" s="42"/>
-      <c r="B218" s="42"/>
+      <c r="A218" s="39"/>
+      <c r="B218" s="39"/>
       <c r="C218" s="8" t="s">
         <v>420</v>
       </c>
@@ -48909,8 +48959,8 @@
       </c>
     </row>
     <row r="219" spans="1:7" ht="50" customHeight="1">
-      <c r="A219" s="42"/>
-      <c r="B219" s="42"/>
+      <c r="A219" s="39"/>
+      <c r="B219" s="39"/>
       <c r="C219" s="8" t="s">
         <v>422</v>
       </c>
@@ -48924,8 +48974,8 @@
       </c>
     </row>
     <row r="220" spans="1:7" ht="50" customHeight="1">
-      <c r="A220" s="42"/>
-      <c r="B220" s="42"/>
+      <c r="A220" s="39"/>
+      <c r="B220" s="39"/>
       <c r="C220" s="8" t="s">
         <v>424</v>
       </c>
@@ -48939,8 +48989,8 @@
       </c>
     </row>
     <row r="221" spans="1:7" ht="50" customHeight="1">
-      <c r="A221" s="42"/>
-      <c r="B221" s="42"/>
+      <c r="A221" s="39"/>
+      <c r="B221" s="39"/>
       <c r="C221" s="8" t="s">
         <v>426</v>
       </c>
@@ -48954,8 +49004,8 @@
       </c>
     </row>
     <row r="222" spans="1:7" ht="50" customHeight="1">
-      <c r="A222" s="42"/>
-      <c r="B222" s="43"/>
+      <c r="A222" s="39"/>
+      <c r="B222" s="40"/>
       <c r="C222" s="8" t="s">
         <v>428</v>
       </c>
@@ -48969,8 +49019,8 @@
       </c>
     </row>
     <row r="223" spans="1:7" ht="50" customHeight="1">
-      <c r="A223" s="42"/>
-      <c r="B223" s="41" t="s">
+      <c r="A223" s="39"/>
+      <c r="B223" s="38" t="s">
         <v>889</v>
       </c>
       <c r="C223" s="13" t="s">
@@ -48984,8 +49034,8 @@
       </c>
     </row>
     <row r="224" spans="1:7" ht="50" customHeight="1">
-      <c r="A224" s="42"/>
-      <c r="B224" s="42"/>
+      <c r="A224" s="39"/>
+      <c r="B224" s="39"/>
       <c r="C224" s="13" t="s">
         <v>432</v>
       </c>
@@ -49000,8 +49050,8 @@
       </c>
     </row>
     <row r="225" spans="1:7" ht="50" customHeight="1">
-      <c r="A225" s="42"/>
-      <c r="B225" s="42"/>
+      <c r="A225" s="39"/>
+      <c r="B225" s="39"/>
       <c r="C225" s="13" t="s">
         <v>434</v>
       </c>
@@ -49013,8 +49063,8 @@
       </c>
     </row>
     <row r="226" spans="1:7" ht="50" customHeight="1">
-      <c r="A226" s="43"/>
-      <c r="B226" s="43"/>
+      <c r="A226" s="40"/>
+      <c r="B226" s="40"/>
       <c r="C226" s="13" t="s">
         <v>436</v>
       </c>
@@ -49026,7 +49076,7 @@
       </c>
     </row>
     <row r="227" spans="1:7" ht="50" customHeight="1">
-      <c r="A227" s="41" t="s">
+      <c r="A227" s="38" t="s">
         <v>870</v>
       </c>
       <c r="B227" s="14" t="s">
@@ -49047,7 +49097,7 @@
       </c>
     </row>
     <row r="228" spans="1:7" ht="50" customHeight="1">
-      <c r="A228" s="42"/>
+      <c r="A228" s="39"/>
       <c r="B228" s="14" t="s">
         <v>892</v>
       </c>
@@ -49066,8 +49116,8 @@
       </c>
     </row>
     <row r="229" spans="1:7" ht="50" customHeight="1">
-      <c r="A229" s="42"/>
-      <c r="B229" s="41" t="s">
+      <c r="A229" s="39"/>
+      <c r="B229" s="38" t="s">
         <v>893</v>
       </c>
       <c r="C229" s="8" t="s">
@@ -49085,8 +49135,8 @@
       </c>
     </row>
     <row r="230" spans="1:7" ht="50" customHeight="1">
-      <c r="A230" s="42"/>
-      <c r="B230" s="43"/>
+      <c r="A230" s="39"/>
+      <c r="B230" s="40"/>
       <c r="C230" s="8" t="s">
         <v>444</v>
       </c>
@@ -49102,8 +49152,8 @@
       </c>
     </row>
     <row r="231" spans="1:7" ht="50" customHeight="1">
-      <c r="A231" s="42"/>
-      <c r="B231" s="41" t="s">
+      <c r="A231" s="39"/>
+      <c r="B231" s="38" t="s">
         <v>894</v>
       </c>
       <c r="C231" s="8" t="s">
@@ -49119,8 +49169,8 @@
       </c>
     </row>
     <row r="232" spans="1:7" ht="50" customHeight="1">
-      <c r="A232" s="42"/>
-      <c r="B232" s="43"/>
+      <c r="A232" s="39"/>
+      <c r="B232" s="40"/>
       <c r="C232" s="8" t="s">
         <v>448</v>
       </c>
@@ -49134,8 +49184,8 @@
       </c>
     </row>
     <row r="233" spans="1:7" ht="50" customHeight="1">
-      <c r="A233" s="42"/>
-      <c r="B233" s="41" t="s">
+      <c r="A233" s="39"/>
+      <c r="B233" s="38" t="s">
         <v>895</v>
       </c>
       <c r="C233" s="8" t="s">
@@ -49151,8 +49201,8 @@
       </c>
     </row>
     <row r="234" spans="1:7" ht="50" customHeight="1">
-      <c r="A234" s="42"/>
-      <c r="B234" s="42"/>
+      <c r="A234" s="39"/>
+      <c r="B234" s="39"/>
       <c r="C234" s="8" t="s">
         <v>452</v>
       </c>
@@ -49166,8 +49216,8 @@
       </c>
     </row>
     <row r="235" spans="1:7" ht="50" customHeight="1">
-      <c r="A235" s="42"/>
-      <c r="B235" s="42"/>
+      <c r="A235" s="39"/>
+      <c r="B235" s="39"/>
       <c r="C235" s="8" t="s">
         <v>454</v>
       </c>
@@ -49181,8 +49231,8 @@
       </c>
     </row>
     <row r="236" spans="1:7" ht="50" customHeight="1">
-      <c r="A236" s="42"/>
-      <c r="B236" s="42"/>
+      <c r="A236" s="39"/>
+      <c r="B236" s="39"/>
       <c r="C236" s="8" t="s">
         <v>456</v>
       </c>
@@ -49196,8 +49246,8 @@
       </c>
     </row>
     <row r="237" spans="1:7" ht="50" customHeight="1">
-      <c r="A237" s="42"/>
-      <c r="B237" s="42"/>
+      <c r="A237" s="39"/>
+      <c r="B237" s="39"/>
       <c r="C237" s="8" t="s">
         <v>458</v>
       </c>
@@ -49211,8 +49261,8 @@
       </c>
     </row>
     <row r="238" spans="1:7" ht="50" customHeight="1">
-      <c r="A238" s="42"/>
-      <c r="B238" s="42"/>
+      <c r="A238" s="39"/>
+      <c r="B238" s="39"/>
       <c r="C238" s="8" t="s">
         <v>460</v>
       </c>
@@ -49226,8 +49276,8 @@
       </c>
     </row>
     <row r="239" spans="1:7" ht="50" customHeight="1">
-      <c r="A239" s="42"/>
-      <c r="B239" s="42"/>
+      <c r="A239" s="39"/>
+      <c r="B239" s="39"/>
       <c r="C239" s="8" t="s">
         <v>462</v>
       </c>
@@ -49241,8 +49291,8 @@
       </c>
     </row>
     <row r="240" spans="1:7" ht="50" customHeight="1">
-      <c r="A240" s="42"/>
-      <c r="B240" s="42"/>
+      <c r="A240" s="39"/>
+      <c r="B240" s="39"/>
       <c r="C240" s="8" t="s">
         <v>464</v>
       </c>
@@ -49256,8 +49306,8 @@
       </c>
     </row>
     <row r="241" spans="1:7" ht="50" customHeight="1">
-      <c r="A241" s="42"/>
-      <c r="B241" s="42"/>
+      <c r="A241" s="39"/>
+      <c r="B241" s="39"/>
       <c r="C241" s="8" t="s">
         <v>466</v>
       </c>
@@ -49271,8 +49321,8 @@
       </c>
     </row>
     <row r="242" spans="1:7" ht="50" customHeight="1">
-      <c r="A242" s="42"/>
-      <c r="B242" s="42"/>
+      <c r="A242" s="39"/>
+      <c r="B242" s="39"/>
       <c r="C242" s="8" t="s">
         <v>468</v>
       </c>
@@ -49286,8 +49336,8 @@
       </c>
     </row>
     <row r="243" spans="1:7" ht="50" customHeight="1">
-      <c r="A243" s="42"/>
-      <c r="B243" s="42"/>
+      <c r="A243" s="39"/>
+      <c r="B243" s="39"/>
       <c r="C243" s="8" t="s">
         <v>470</v>
       </c>
@@ -49301,8 +49351,8 @@
       </c>
     </row>
     <row r="244" spans="1:7" ht="50" customHeight="1">
-      <c r="A244" s="42"/>
-      <c r="B244" s="42"/>
+      <c r="A244" s="39"/>
+      <c r="B244" s="39"/>
       <c r="C244" s="8" t="s">
         <v>472</v>
       </c>
@@ -49316,8 +49366,8 @@
       </c>
     </row>
     <row r="245" spans="1:7" ht="50" customHeight="1">
-      <c r="A245" s="42"/>
-      <c r="B245" s="42"/>
+      <c r="A245" s="39"/>
+      <c r="B245" s="39"/>
       <c r="C245" s="8" t="s">
         <v>474</v>
       </c>
@@ -49331,8 +49381,8 @@
       </c>
     </row>
     <row r="246" spans="1:7" ht="50" customHeight="1">
-      <c r="A246" s="42"/>
-      <c r="B246" s="42"/>
+      <c r="A246" s="39"/>
+      <c r="B246" s="39"/>
       <c r="C246" s="8" t="s">
         <v>476</v>
       </c>
@@ -49346,8 +49396,8 @@
       </c>
     </row>
     <row r="247" spans="1:7" ht="50" customHeight="1">
-      <c r="A247" s="42"/>
-      <c r="B247" s="42"/>
+      <c r="A247" s="39"/>
+      <c r="B247" s="39"/>
       <c r="C247" s="8" t="s">
         <v>478</v>
       </c>
@@ -49361,8 +49411,8 @@
       </c>
     </row>
     <row r="248" spans="1:7" ht="50" customHeight="1">
-      <c r="A248" s="42"/>
-      <c r="B248" s="42"/>
+      <c r="A248" s="39"/>
+      <c r="B248" s="39"/>
       <c r="C248" s="8" t="s">
         <v>480</v>
       </c>
@@ -49376,8 +49426,8 @@
       </c>
     </row>
     <row r="249" spans="1:7" ht="50" customHeight="1">
-      <c r="A249" s="42"/>
-      <c r="B249" s="42"/>
+      <c r="A249" s="39"/>
+      <c r="B249" s="39"/>
       <c r="C249" s="8" t="s">
         <v>482</v>
       </c>
@@ -49391,8 +49441,8 @@
       </c>
     </row>
     <row r="250" spans="1:7" ht="50" customHeight="1">
-      <c r="A250" s="42"/>
-      <c r="B250" s="42"/>
+      <c r="A250" s="39"/>
+      <c r="B250" s="39"/>
       <c r="C250" s="8" t="s">
         <v>484</v>
       </c>
@@ -49406,8 +49456,8 @@
       </c>
     </row>
     <row r="251" spans="1:7" ht="50" customHeight="1">
-      <c r="A251" s="42"/>
-      <c r="B251" s="42"/>
+      <c r="A251" s="39"/>
+      <c r="B251" s="39"/>
       <c r="C251" s="8" t="s">
         <v>486</v>
       </c>
@@ -49421,8 +49471,8 @@
       </c>
     </row>
     <row r="252" spans="1:7" ht="50" customHeight="1">
-      <c r="A252" s="42"/>
-      <c r="B252" s="42"/>
+      <c r="A252" s="39"/>
+      <c r="B252" s="39"/>
       <c r="C252" s="8" t="s">
         <v>488</v>
       </c>
@@ -49436,8 +49486,8 @@
       </c>
     </row>
     <row r="253" spans="1:7" ht="50" customHeight="1">
-      <c r="A253" s="42"/>
-      <c r="B253" s="42"/>
+      <c r="A253" s="39"/>
+      <c r="B253" s="39"/>
       <c r="C253" s="8" t="s">
         <v>490</v>
       </c>
@@ -49451,8 +49501,8 @@
       </c>
     </row>
     <row r="254" spans="1:7" ht="50" customHeight="1">
-      <c r="A254" s="42"/>
-      <c r="B254" s="42"/>
+      <c r="A254" s="39"/>
+      <c r="B254" s="39"/>
       <c r="C254" s="8" t="s">
         <v>492</v>
       </c>
@@ -49466,8 +49516,8 @@
       </c>
     </row>
     <row r="255" spans="1:7" ht="50" customHeight="1">
-      <c r="A255" s="42"/>
-      <c r="B255" s="42"/>
+      <c r="A255" s="39"/>
+      <c r="B255" s="39"/>
       <c r="C255" s="8" t="s">
         <v>494</v>
       </c>
@@ -49481,8 +49531,8 @@
       </c>
     </row>
     <row r="256" spans="1:7" ht="50" customHeight="1">
-      <c r="A256" s="42"/>
-      <c r="B256" s="42"/>
+      <c r="A256" s="39"/>
+      <c r="B256" s="39"/>
       <c r="C256" s="8" t="s">
         <v>496</v>
       </c>
@@ -49496,8 +49546,8 @@
       </c>
     </row>
     <row r="257" spans="1:7" ht="50" customHeight="1">
-      <c r="A257" s="42"/>
-      <c r="B257" s="42"/>
+      <c r="A257" s="39"/>
+      <c r="B257" s="39"/>
       <c r="C257" s="8" t="s">
         <v>498</v>
       </c>
@@ -49511,8 +49561,8 @@
       </c>
     </row>
     <row r="258" spans="1:7" ht="50" customHeight="1">
-      <c r="A258" s="42"/>
-      <c r="B258" s="42"/>
+      <c r="A258" s="39"/>
+      <c r="B258" s="39"/>
       <c r="C258" s="8" t="s">
         <v>500</v>
       </c>
@@ -49526,8 +49576,8 @@
       </c>
     </row>
     <row r="259" spans="1:7" ht="50" customHeight="1">
-      <c r="A259" s="42"/>
-      <c r="B259" s="42"/>
+      <c r="A259" s="39"/>
+      <c r="B259" s="39"/>
       <c r="C259" s="8" t="s">
         <v>502</v>
       </c>
@@ -49541,8 +49591,8 @@
       </c>
     </row>
     <row r="260" spans="1:7" ht="50" customHeight="1">
-      <c r="A260" s="42"/>
-      <c r="B260" s="42"/>
+      <c r="A260" s="39"/>
+      <c r="B260" s="39"/>
       <c r="C260" s="8" t="s">
         <v>504</v>
       </c>
@@ -49556,8 +49606,8 @@
       </c>
     </row>
     <row r="261" spans="1:7" ht="50" customHeight="1">
-      <c r="A261" s="42"/>
-      <c r="B261" s="42"/>
+      <c r="A261" s="39"/>
+      <c r="B261" s="39"/>
       <c r="C261" s="8" t="s">
         <v>506</v>
       </c>
@@ -49571,8 +49621,8 @@
       </c>
     </row>
     <row r="262" spans="1:7" ht="50" customHeight="1">
-      <c r="A262" s="42"/>
-      <c r="B262" s="42"/>
+      <c r="A262" s="39"/>
+      <c r="B262" s="39"/>
       <c r="C262" s="8" t="s">
         <v>508</v>
       </c>
@@ -49586,8 +49636,8 @@
       </c>
     </row>
     <row r="263" spans="1:7" ht="50" customHeight="1">
-      <c r="A263" s="42"/>
-      <c r="B263" s="42"/>
+      <c r="A263" s="39"/>
+      <c r="B263" s="39"/>
       <c r="C263" s="8" t="s">
         <v>510</v>
       </c>
@@ -49601,8 +49651,8 @@
       </c>
     </row>
     <row r="264" spans="1:7" ht="50" customHeight="1">
-      <c r="A264" s="42"/>
-      <c r="B264" s="42"/>
+      <c r="A264" s="39"/>
+      <c r="B264" s="39"/>
       <c r="C264" s="8" t="s">
         <v>512</v>
       </c>
@@ -49616,8 +49666,8 @@
       </c>
     </row>
     <row r="265" spans="1:7" ht="50" customHeight="1">
-      <c r="A265" s="42"/>
-      <c r="B265" s="42"/>
+      <c r="A265" s="39"/>
+      <c r="B265" s="39"/>
       <c r="C265" s="8" t="s">
         <v>514</v>
       </c>
@@ -49631,8 +49681,8 @@
       </c>
     </row>
     <row r="266" spans="1:7" ht="50" customHeight="1">
-      <c r="A266" s="42"/>
-      <c r="B266" s="42"/>
+      <c r="A266" s="39"/>
+      <c r="B266" s="39"/>
       <c r="C266" s="8" t="s">
         <v>516</v>
       </c>
@@ -49646,8 +49696,8 @@
       </c>
     </row>
     <row r="267" spans="1:7" ht="50" customHeight="1">
-      <c r="A267" s="42"/>
-      <c r="B267" s="43"/>
+      <c r="A267" s="39"/>
+      <c r="B267" s="40"/>
       <c r="C267" s="8" t="s">
         <v>518</v>
       </c>
@@ -49661,7 +49711,7 @@
       </c>
     </row>
     <row r="268" spans="1:7" ht="50" customHeight="1">
-      <c r="A268" s="42"/>
+      <c r="A268" s="39"/>
       <c r="B268" s="14" t="s">
         <v>896</v>
       </c>
@@ -49678,8 +49728,8 @@
       </c>
     </row>
     <row r="269" spans="1:7" ht="50" customHeight="1">
-      <c r="A269" s="42"/>
-      <c r="B269" s="41" t="s">
+      <c r="A269" s="39"/>
+      <c r="B269" s="38" t="s">
         <v>897</v>
       </c>
       <c r="C269" s="35" t="s">
@@ -49695,8 +49745,8 @@
       </c>
     </row>
     <row r="270" spans="1:7" ht="50" customHeight="1">
-      <c r="A270" s="42"/>
-      <c r="B270" s="42"/>
+      <c r="A270" s="39"/>
+      <c r="B270" s="39"/>
       <c r="C270" s="8" t="s">
         <v>522</v>
       </c>
@@ -49712,8 +49762,8 @@
       </c>
     </row>
     <row r="271" spans="1:7" ht="50" customHeight="1">
-      <c r="A271" s="42"/>
-      <c r="B271" s="42"/>
+      <c r="A271" s="39"/>
+      <c r="B271" s="39"/>
       <c r="C271" s="8" t="s">
         <v>524</v>
       </c>
@@ -49727,8 +49777,8 @@
       </c>
     </row>
     <row r="272" spans="1:7" ht="50" customHeight="1">
-      <c r="A272" s="42"/>
-      <c r="B272" s="42"/>
+      <c r="A272" s="39"/>
+      <c r="B272" s="39"/>
       <c r="C272" s="8" t="s">
         <v>526</v>
       </c>
@@ -49742,8 +49792,8 @@
       </c>
     </row>
     <row r="273" spans="1:7" ht="50" customHeight="1">
-      <c r="A273" s="42"/>
-      <c r="B273" s="43"/>
+      <c r="A273" s="39"/>
+      <c r="B273" s="40"/>
       <c r="C273" s="8" t="s">
         <v>528</v>
       </c>
@@ -49757,8 +49807,8 @@
       </c>
     </row>
     <row r="274" spans="1:7" ht="50" customHeight="1">
-      <c r="A274" s="42"/>
-      <c r="B274" s="41" t="s">
+      <c r="A274" s="39"/>
+      <c r="B274" s="38" t="s">
         <v>898</v>
       </c>
       <c r="C274" s="8" t="s">
@@ -49774,23 +49824,25 @@
       </c>
     </row>
     <row r="275" spans="1:7" ht="50" customHeight="1">
-      <c r="A275" s="42"/>
-      <c r="B275" s="42"/>
+      <c r="A275" s="39"/>
+      <c r="B275" s="39"/>
       <c r="C275" s="8" t="s">
         <v>532</v>
       </c>
       <c r="D275" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="E275" s="10"/>
+      <c r="E275" s="10" t="s">
+        <v>940</v>
+      </c>
       <c r="F275" s="10"/>
       <c r="G275" s="28" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="50" customHeight="1">
-      <c r="A276" s="42"/>
-      <c r="B276" s="42"/>
+      <c r="A276" s="39"/>
+      <c r="B276" s="39"/>
       <c r="C276" s="8" t="s">
         <v>534</v>
       </c>
@@ -49806,8 +49858,8 @@
       </c>
     </row>
     <row r="277" spans="1:7" ht="50" customHeight="1">
-      <c r="A277" s="42"/>
-      <c r="B277" s="42"/>
+      <c r="A277" s="39"/>
+      <c r="B277" s="39"/>
       <c r="C277" s="8" t="s">
         <v>536</v>
       </c>
@@ -49821,8 +49873,8 @@
       </c>
     </row>
     <row r="278" spans="1:7" ht="50" customHeight="1">
-      <c r="A278" s="42"/>
-      <c r="B278" s="42"/>
+      <c r="A278" s="39"/>
+      <c r="B278" s="39"/>
       <c r="C278" s="8" t="s">
         <v>538</v>
       </c>
@@ -49836,8 +49888,8 @@
       </c>
     </row>
     <row r="279" spans="1:7" ht="50" customHeight="1">
-      <c r="A279" s="42"/>
-      <c r="B279" s="42"/>
+      <c r="A279" s="39"/>
+      <c r="B279" s="39"/>
       <c r="C279" s="8" t="s">
         <v>540</v>
       </c>
@@ -49853,8 +49905,8 @@
       </c>
     </row>
     <row r="280" spans="1:7" ht="50" customHeight="1">
-      <c r="A280" s="42"/>
-      <c r="B280" s="42"/>
+      <c r="A280" s="39"/>
+      <c r="B280" s="39"/>
       <c r="C280" s="8" t="s">
         <v>542</v>
       </c>
@@ -49868,8 +49920,8 @@
       </c>
     </row>
     <row r="281" spans="1:7" ht="50" customHeight="1">
-      <c r="A281" s="42"/>
-      <c r="B281" s="42"/>
+      <c r="A281" s="39"/>
+      <c r="B281" s="39"/>
       <c r="C281" s="8" t="s">
         <v>544</v>
       </c>
@@ -49883,8 +49935,8 @@
       </c>
     </row>
     <row r="282" spans="1:7" ht="50" customHeight="1">
-      <c r="A282" s="42"/>
-      <c r="B282" s="42"/>
+      <c r="A282" s="39"/>
+      <c r="B282" s="39"/>
       <c r="C282" s="8" t="s">
         <v>546</v>
       </c>
@@ -49898,8 +49950,8 @@
       </c>
     </row>
     <row r="283" spans="1:7" ht="50" customHeight="1">
-      <c r="A283" s="42"/>
-      <c r="B283" s="42"/>
+      <c r="A283" s="39"/>
+      <c r="B283" s="39"/>
       <c r="C283" s="8" t="s">
         <v>548</v>
       </c>
@@ -49913,8 +49965,8 @@
       </c>
     </row>
     <row r="284" spans="1:7" ht="50" customHeight="1">
-      <c r="A284" s="42"/>
-      <c r="B284" s="42"/>
+      <c r="A284" s="39"/>
+      <c r="B284" s="39"/>
       <c r="C284" s="8" t="s">
         <v>550</v>
       </c>
@@ -49928,8 +49980,8 @@
       </c>
     </row>
     <row r="285" spans="1:7" ht="50" customHeight="1">
-      <c r="A285" s="42"/>
-      <c r="B285" s="42"/>
+      <c r="A285" s="39"/>
+      <c r="B285" s="39"/>
       <c r="C285" s="8" t="s">
         <v>552</v>
       </c>
@@ -49943,8 +49995,8 @@
       </c>
     </row>
     <row r="286" spans="1:7" ht="50" customHeight="1">
-      <c r="A286" s="42"/>
-      <c r="B286" s="42"/>
+      <c r="A286" s="39"/>
+      <c r="B286" s="39"/>
       <c r="C286" s="8" t="s">
         <v>554</v>
       </c>
@@ -49958,8 +50010,8 @@
       </c>
     </row>
     <row r="287" spans="1:7" ht="50" customHeight="1">
-      <c r="A287" s="42"/>
-      <c r="B287" s="42"/>
+      <c r="A287" s="39"/>
+      <c r="B287" s="39"/>
       <c r="C287" s="8" t="s">
         <v>556</v>
       </c>
@@ -49973,8 +50025,8 @@
       </c>
     </row>
     <row r="288" spans="1:7" ht="50" customHeight="1">
-      <c r="A288" s="42"/>
-      <c r="B288" s="42"/>
+      <c r="A288" s="39"/>
+      <c r="B288" s="39"/>
       <c r="C288" s="8" t="s">
         <v>558</v>
       </c>
@@ -49988,8 +50040,8 @@
       </c>
     </row>
     <row r="289" spans="1:7" ht="50" customHeight="1">
-      <c r="A289" s="42"/>
-      <c r="B289" s="42"/>
+      <c r="A289" s="39"/>
+      <c r="B289" s="39"/>
       <c r="C289" s="8" t="s">
         <v>560</v>
       </c>
@@ -50003,8 +50055,8 @@
       </c>
     </row>
     <row r="290" spans="1:7" ht="50" customHeight="1">
-      <c r="A290" s="42"/>
-      <c r="B290" s="42"/>
+      <c r="A290" s="39"/>
+      <c r="B290" s="39"/>
       <c r="C290" s="8" t="s">
         <v>562</v>
       </c>
@@ -50018,8 +50070,8 @@
       </c>
     </row>
     <row r="291" spans="1:7" ht="50" customHeight="1">
-      <c r="A291" s="42"/>
-      <c r="B291" s="42"/>
+      <c r="A291" s="39"/>
+      <c r="B291" s="39"/>
       <c r="C291" s="8" t="s">
         <v>564</v>
       </c>
@@ -50033,8 +50085,8 @@
       </c>
     </row>
     <row r="292" spans="1:7" ht="50" customHeight="1">
-      <c r="A292" s="42"/>
-      <c r="B292" s="42"/>
+      <c r="A292" s="39"/>
+      <c r="B292" s="39"/>
       <c r="C292" s="8" t="s">
         <v>566</v>
       </c>
@@ -50048,8 +50100,8 @@
       </c>
     </row>
     <row r="293" spans="1:7" ht="50" customHeight="1">
-      <c r="A293" s="42"/>
-      <c r="B293" s="42"/>
+      <c r="A293" s="39"/>
+      <c r="B293" s="39"/>
       <c r="C293" s="8" t="s">
         <v>568</v>
       </c>
@@ -50063,8 +50115,8 @@
       </c>
     </row>
     <row r="294" spans="1:7" ht="50" customHeight="1">
-      <c r="A294" s="42"/>
-      <c r="B294" s="42"/>
+      <c r="A294" s="39"/>
+      <c r="B294" s="39"/>
       <c r="C294" s="8" t="s">
         <v>570</v>
       </c>
@@ -50078,8 +50130,8 @@
       </c>
     </row>
     <row r="295" spans="1:7" ht="50" customHeight="1">
-      <c r="A295" s="42"/>
-      <c r="B295" s="42"/>
+      <c r="A295" s="39"/>
+      <c r="B295" s="39"/>
       <c r="C295" s="8" t="s">
         <v>572</v>
       </c>
@@ -50093,8 +50145,8 @@
       </c>
     </row>
     <row r="296" spans="1:7" ht="50" customHeight="1">
-      <c r="A296" s="42"/>
-      <c r="B296" s="42"/>
+      <c r="A296" s="39"/>
+      <c r="B296" s="39"/>
       <c r="C296" s="8" t="s">
         <v>574</v>
       </c>
@@ -50108,8 +50160,8 @@
       </c>
     </row>
     <row r="297" spans="1:7" ht="50" customHeight="1">
-      <c r="A297" s="42"/>
-      <c r="B297" s="42"/>
+      <c r="A297" s="39"/>
+      <c r="B297" s="39"/>
       <c r="C297" s="8" t="s">
         <v>576</v>
       </c>
@@ -50123,8 +50175,8 @@
       </c>
     </row>
     <row r="298" spans="1:7" ht="50" customHeight="1">
-      <c r="A298" s="42"/>
-      <c r="B298" s="42"/>
+      <c r="A298" s="39"/>
+      <c r="B298" s="39"/>
       <c r="C298" s="8" t="s">
         <v>578</v>
       </c>
@@ -50138,8 +50190,8 @@
       </c>
     </row>
     <row r="299" spans="1:7" ht="50" customHeight="1">
-      <c r="A299" s="42"/>
-      <c r="B299" s="42"/>
+      <c r="A299" s="39"/>
+      <c r="B299" s="39"/>
       <c r="C299" s="8" t="s">
         <v>580</v>
       </c>
@@ -50153,8 +50205,8 @@
       </c>
     </row>
     <row r="300" spans="1:7" ht="50" customHeight="1">
-      <c r="A300" s="42"/>
-      <c r="B300" s="42"/>
+      <c r="A300" s="39"/>
+      <c r="B300" s="39"/>
       <c r="C300" s="8" t="s">
         <v>582</v>
       </c>
@@ -50168,8 +50220,8 @@
       </c>
     </row>
     <row r="301" spans="1:7" ht="50" customHeight="1">
-      <c r="A301" s="42"/>
-      <c r="B301" s="42"/>
+      <c r="A301" s="39"/>
+      <c r="B301" s="39"/>
       <c r="C301" s="8" t="s">
         <v>584</v>
       </c>
@@ -50183,8 +50235,8 @@
       </c>
     </row>
     <row r="302" spans="1:7" ht="50" customHeight="1">
-      <c r="A302" s="42"/>
-      <c r="B302" s="42"/>
+      <c r="A302" s="39"/>
+      <c r="B302" s="39"/>
       <c r="C302" s="8" t="s">
         <v>586</v>
       </c>
@@ -50198,8 +50250,8 @@
       </c>
     </row>
     <row r="303" spans="1:7" ht="50" customHeight="1">
-      <c r="A303" s="42"/>
-      <c r="B303" s="42"/>
+      <c r="A303" s="39"/>
+      <c r="B303" s="39"/>
       <c r="C303" s="8" t="s">
         <v>588</v>
       </c>
@@ -50213,8 +50265,8 @@
       </c>
     </row>
     <row r="304" spans="1:7" ht="50" customHeight="1">
-      <c r="A304" s="42"/>
-      <c r="B304" s="42"/>
+      <c r="A304" s="39"/>
+      <c r="B304" s="39"/>
       <c r="C304" s="8" t="s">
         <v>590</v>
       </c>
@@ -50228,8 +50280,8 @@
       </c>
     </row>
     <row r="305" spans="1:7" ht="50" customHeight="1">
-      <c r="A305" s="42"/>
-      <c r="B305" s="42"/>
+      <c r="A305" s="39"/>
+      <c r="B305" s="39"/>
       <c r="C305" s="8" t="s">
         <v>592</v>
       </c>
@@ -50243,8 +50295,8 @@
       </c>
     </row>
     <row r="306" spans="1:7" ht="50" customHeight="1">
-      <c r="A306" s="42"/>
-      <c r="B306" s="43"/>
+      <c r="A306" s="39"/>
+      <c r="B306" s="40"/>
       <c r="C306" s="8" t="s">
         <v>594</v>
       </c>
@@ -50258,7 +50310,7 @@
       </c>
     </row>
     <row r="307" spans="1:7" ht="50" customHeight="1">
-      <c r="A307" s="42"/>
+      <c r="A307" s="39"/>
       <c r="B307" s="14" t="s">
         <v>899</v>
       </c>
@@ -50277,7 +50329,7 @@
       </c>
     </row>
     <row r="308" spans="1:7" ht="50" customHeight="1">
-      <c r="A308" s="42"/>
+      <c r="A308" s="39"/>
       <c r="B308" s="14" t="s">
         <v>900</v>
       </c>
@@ -50296,8 +50348,8 @@
       </c>
     </row>
     <row r="309" spans="1:7" ht="50" customHeight="1">
-      <c r="A309" s="42"/>
-      <c r="B309" s="41" t="s">
+      <c r="A309" s="39"/>
+      <c r="B309" s="38" t="s">
         <v>901</v>
       </c>
       <c r="C309" s="8" t="s">
@@ -50315,8 +50367,8 @@
       </c>
     </row>
     <row r="310" spans="1:7" ht="50" customHeight="1">
-      <c r="A310" s="42"/>
-      <c r="B310" s="42"/>
+      <c r="A310" s="39"/>
+      <c r="B310" s="39"/>
       <c r="C310" s="8" t="s">
         <v>602</v>
       </c>
@@ -50332,8 +50384,8 @@
       </c>
     </row>
     <row r="311" spans="1:7" ht="50" customHeight="1">
-      <c r="A311" s="42"/>
-      <c r="B311" s="42"/>
+      <c r="A311" s="39"/>
+      <c r="B311" s="39"/>
       <c r="C311" s="8" t="s">
         <v>604</v>
       </c>
@@ -50349,8 +50401,8 @@
       </c>
     </row>
     <row r="312" spans="1:7" ht="50" customHeight="1">
-      <c r="A312" s="42"/>
-      <c r="B312" s="42"/>
+      <c r="A312" s="39"/>
+      <c r="B312" s="39"/>
       <c r="C312" s="35" t="s">
         <v>907</v>
       </c>
@@ -50364,8 +50416,8 @@
       </c>
     </row>
     <row r="313" spans="1:7" ht="50" customHeight="1">
-      <c r="A313" s="42"/>
-      <c r="B313" s="43"/>
+      <c r="A313" s="39"/>
+      <c r="B313" s="40"/>
       <c r="C313" s="35" t="s">
         <v>909</v>
       </c>
@@ -50379,8 +50431,8 @@
       </c>
     </row>
     <row r="314" spans="1:7" ht="50" customHeight="1">
-      <c r="A314" s="42"/>
-      <c r="B314" s="41" t="s">
+      <c r="A314" s="39"/>
+      <c r="B314" s="38" t="s">
         <v>902</v>
       </c>
       <c r="C314" s="8" t="s">
@@ -50398,8 +50450,8 @@
       </c>
     </row>
     <row r="315" spans="1:7" ht="50" customHeight="1">
-      <c r="A315" s="42"/>
-      <c r="B315" s="42"/>
+      <c r="A315" s="39"/>
+      <c r="B315" s="39"/>
       <c r="C315" s="8" t="s">
         <v>608</v>
       </c>
@@ -50415,8 +50467,8 @@
       </c>
     </row>
     <row r="316" spans="1:7" ht="50" customHeight="1">
-      <c r="A316" s="42"/>
-      <c r="B316" s="43"/>
+      <c r="A316" s="39"/>
+      <c r="B316" s="40"/>
       <c r="C316" s="8" t="s">
         <v>610</v>
       </c>
@@ -50430,8 +50482,8 @@
       </c>
     </row>
     <row r="317" spans="1:7" ht="50" customHeight="1">
-      <c r="A317" s="42"/>
-      <c r="B317" s="41" t="s">
+      <c r="A317" s="39"/>
+      <c r="B317" s="38" t="s">
         <v>903</v>
       </c>
       <c r="C317" s="8" t="s">
@@ -50449,8 +50501,8 @@
       </c>
     </row>
     <row r="318" spans="1:7" ht="50" customHeight="1">
-      <c r="A318" s="42"/>
-      <c r="B318" s="42"/>
+      <c r="A318" s="39"/>
+      <c r="B318" s="39"/>
       <c r="C318" s="8" t="s">
         <v>614</v>
       </c>
@@ -50466,8 +50518,8 @@
       </c>
     </row>
     <row r="319" spans="1:7" ht="50" customHeight="1">
-      <c r="A319" s="42"/>
-      <c r="B319" s="42"/>
+      <c r="A319" s="39"/>
+      <c r="B319" s="39"/>
       <c r="C319" s="8" t="s">
         <v>616</v>
       </c>
@@ -50483,8 +50535,8 @@
       </c>
     </row>
     <row r="320" spans="1:7" ht="50" customHeight="1">
-      <c r="A320" s="42"/>
-      <c r="B320" s="42"/>
+      <c r="A320" s="39"/>
+      <c r="B320" s="39"/>
       <c r="C320" s="8" t="s">
         <v>618</v>
       </c>
@@ -50498,8 +50550,8 @@
       </c>
     </row>
     <row r="321" spans="1:7" ht="50" customHeight="1">
-      <c r="A321" s="42"/>
-      <c r="B321" s="42"/>
+      <c r="A321" s="39"/>
+      <c r="B321" s="39"/>
       <c r="C321" s="8" t="s">
         <v>620</v>
       </c>
@@ -50513,8 +50565,8 @@
       </c>
     </row>
     <row r="322" spans="1:7" ht="50" customHeight="1">
-      <c r="A322" s="42"/>
-      <c r="B322" s="42"/>
+      <c r="A322" s="39"/>
+      <c r="B322" s="39"/>
       <c r="C322" s="8" t="s">
         <v>622</v>
       </c>
@@ -50528,8 +50580,8 @@
       </c>
     </row>
     <row r="323" spans="1:7" ht="50" customHeight="1">
-      <c r="A323" s="42"/>
-      <c r="B323" s="42"/>
+      <c r="A323" s="39"/>
+      <c r="B323" s="39"/>
       <c r="C323" s="8" t="s">
         <v>624</v>
       </c>
@@ -50543,8 +50595,8 @@
       </c>
     </row>
     <row r="324" spans="1:7" ht="50" customHeight="1">
-      <c r="A324" s="42"/>
-      <c r="B324" s="42"/>
+      <c r="A324" s="39"/>
+      <c r="B324" s="39"/>
       <c r="C324" s="8" t="s">
         <v>626</v>
       </c>
@@ -50558,8 +50610,8 @@
       </c>
     </row>
     <row r="325" spans="1:7" ht="50" customHeight="1">
-      <c r="A325" s="42"/>
-      <c r="B325" s="42"/>
+      <c r="A325" s="39"/>
+      <c r="B325" s="39"/>
       <c r="C325" s="8" t="s">
         <v>628</v>
       </c>
@@ -50573,8 +50625,8 @@
       </c>
     </row>
     <row r="326" spans="1:7" ht="50" customHeight="1">
-      <c r="A326" s="42"/>
-      <c r="B326" s="43"/>
+      <c r="A326" s="39"/>
+      <c r="B326" s="40"/>
       <c r="C326" s="8" t="s">
         <v>630</v>
       </c>
@@ -50588,7 +50640,7 @@
       </c>
     </row>
     <row r="327" spans="1:7" ht="50" customHeight="1">
-      <c r="A327" s="42"/>
+      <c r="A327" s="39"/>
       <c r="B327" s="14" t="s">
         <v>904</v>
       </c>
@@ -50607,8 +50659,8 @@
       </c>
     </row>
     <row r="328" spans="1:7" ht="50" customHeight="1">
-      <c r="A328" s="42"/>
-      <c r="B328" s="41" t="s">
+      <c r="A328" s="39"/>
+      <c r="B328" s="38" t="s">
         <v>905</v>
       </c>
       <c r="C328" s="8" t="s">
@@ -50624,8 +50676,8 @@
       </c>
     </row>
     <row r="329" spans="1:7" ht="50" customHeight="1">
-      <c r="A329" s="42"/>
-      <c r="B329" s="42"/>
+      <c r="A329" s="39"/>
+      <c r="B329" s="39"/>
       <c r="C329" s="8" t="s">
         <v>636</v>
       </c>
@@ -50639,8 +50691,8 @@
       </c>
     </row>
     <row r="330" spans="1:7" ht="50" customHeight="1">
-      <c r="A330" s="42"/>
-      <c r="B330" s="42"/>
+      <c r="A330" s="39"/>
+      <c r="B330" s="39"/>
       <c r="C330" s="8" t="s">
         <v>638</v>
       </c>
@@ -50654,8 +50706,8 @@
       </c>
     </row>
     <row r="331" spans="1:7" ht="50" customHeight="1">
-      <c r="A331" s="42"/>
-      <c r="B331" s="42"/>
+      <c r="A331" s="39"/>
+      <c r="B331" s="39"/>
       <c r="C331" s="8" t="s">
         <v>640</v>
       </c>
@@ -50669,8 +50721,8 @@
       </c>
     </row>
     <row r="332" spans="1:7" ht="50" customHeight="1">
-      <c r="A332" s="43"/>
-      <c r="B332" s="43"/>
+      <c r="A332" s="40"/>
+      <c r="B332" s="40"/>
       <c r="C332" s="8" t="s">
         <v>642</v>
       </c>
@@ -50684,7 +50736,7 @@
       </c>
     </row>
     <row r="333" spans="1:7" ht="50" customHeight="1">
-      <c r="A333" s="41" t="s">
+      <c r="A333" s="38" t="s">
         <v>871</v>
       </c>
       <c r="C333" s="8" t="s">
@@ -50702,7 +50754,7 @@
       </c>
     </row>
     <row r="334" spans="1:7" ht="50" customHeight="1">
-      <c r="A334" s="42"/>
+      <c r="A334" s="39"/>
       <c r="C334" s="8" t="s">
         <v>646</v>
       </c>
@@ -50716,7 +50768,7 @@
       </c>
     </row>
     <row r="335" spans="1:7" ht="50" customHeight="1">
-      <c r="A335" s="42"/>
+      <c r="A335" s="39"/>
       <c r="C335" s="8" t="s">
         <v>648</v>
       </c>
@@ -50730,7 +50782,7 @@
       </c>
     </row>
     <row r="336" spans="1:7" ht="50" customHeight="1">
-      <c r="A336" s="42"/>
+      <c r="A336" s="39"/>
       <c r="C336" s="8" t="s">
         <v>650</v>
       </c>
@@ -50744,7 +50796,7 @@
       </c>
     </row>
     <row r="337" spans="1:7" ht="50" customHeight="1">
-      <c r="A337" s="42"/>
+      <c r="A337" s="39"/>
       <c r="C337" s="8" t="s">
         <v>652</v>
       </c>
@@ -50758,7 +50810,7 @@
       </c>
     </row>
     <row r="338" spans="1:7" ht="50" customHeight="1">
-      <c r="A338" s="42"/>
+      <c r="A338" s="39"/>
       <c r="C338" s="8" t="s">
         <v>654</v>
       </c>
@@ -50772,7 +50824,7 @@
       </c>
     </row>
     <row r="339" spans="1:7" ht="50" customHeight="1">
-      <c r="A339" s="42"/>
+      <c r="A339" s="39"/>
       <c r="C339" s="8" t="s">
         <v>656</v>
       </c>
@@ -50788,7 +50840,7 @@
       </c>
     </row>
     <row r="340" spans="1:7" ht="50" customHeight="1">
-      <c r="A340" s="42"/>
+      <c r="A340" s="39"/>
       <c r="C340" s="8" t="s">
         <v>658</v>
       </c>
@@ -50802,7 +50854,7 @@
       </c>
     </row>
     <row r="341" spans="1:7" ht="50" customHeight="1">
-      <c r="A341" s="42"/>
+      <c r="A341" s="39"/>
       <c r="C341" s="8" t="s">
         <v>660</v>
       </c>
@@ -50816,7 +50868,7 @@
       </c>
     </row>
     <row r="342" spans="1:7" ht="50" customHeight="1">
-      <c r="A342" s="42"/>
+      <c r="A342" s="39"/>
       <c r="C342" s="8" t="s">
         <v>662</v>
       </c>
@@ -50832,7 +50884,7 @@
       </c>
     </row>
     <row r="343" spans="1:7" ht="50" customHeight="1">
-      <c r="A343" s="42"/>
+      <c r="A343" s="39"/>
       <c r="C343" s="8" t="s">
         <v>664</v>
       </c>
@@ -50846,7 +50898,7 @@
       </c>
     </row>
     <row r="344" spans="1:7" ht="50" customHeight="1">
-      <c r="A344" s="42"/>
+      <c r="A344" s="39"/>
       <c r="C344" s="8" t="s">
         <v>666</v>
       </c>
@@ -50860,7 +50912,7 @@
       </c>
     </row>
     <row r="345" spans="1:7" ht="50" customHeight="1">
-      <c r="A345" s="42"/>
+      <c r="A345" s="39"/>
       <c r="C345" s="8" t="s">
         <v>668</v>
       </c>
@@ -50874,7 +50926,7 @@
       </c>
     </row>
     <row r="346" spans="1:7" ht="50" customHeight="1">
-      <c r="A346" s="42"/>
+      <c r="A346" s="39"/>
       <c r="C346" s="35" t="s">
         <v>924</v>
       </c>
@@ -50888,7 +50940,7 @@
       </c>
     </row>
     <row r="347" spans="1:7" ht="50" customHeight="1">
-      <c r="A347" s="42"/>
+      <c r="A347" s="39"/>
       <c r="C347" s="8" t="s">
         <v>670</v>
       </c>
@@ -50904,7 +50956,7 @@
       </c>
     </row>
     <row r="348" spans="1:7" ht="50" customHeight="1">
-      <c r="A348" s="42"/>
+      <c r="A348" s="39"/>
       <c r="C348" s="8" t="s">
         <v>672</v>
       </c>
@@ -50920,7 +50972,7 @@
       </c>
     </row>
     <row r="349" spans="1:7" ht="50" customHeight="1">
-      <c r="A349" s="42"/>
+      <c r="A349" s="39"/>
       <c r="C349" s="8" t="s">
         <v>674</v>
       </c>
@@ -50934,7 +50986,7 @@
       </c>
     </row>
     <row r="350" spans="1:7" ht="50" customHeight="1">
-      <c r="A350" s="42"/>
+      <c r="A350" s="39"/>
       <c r="C350" s="8" t="s">
         <v>676</v>
       </c>
@@ -50948,7 +51000,7 @@
       </c>
     </row>
     <row r="351" spans="1:7" ht="50" customHeight="1">
-      <c r="A351" s="42"/>
+      <c r="A351" s="39"/>
       <c r="C351" s="8" t="s">
         <v>678</v>
       </c>
@@ -50964,7 +51016,7 @@
       </c>
     </row>
     <row r="352" spans="1:7" ht="50" customHeight="1">
-      <c r="A352" s="42"/>
+      <c r="A352" s="39"/>
       <c r="C352" s="8" t="s">
         <v>680</v>
       </c>
@@ -50978,7 +51030,7 @@
       </c>
     </row>
     <row r="353" spans="1:7" ht="50" customHeight="1">
-      <c r="A353" s="42"/>
+      <c r="A353" s="39"/>
       <c r="C353" s="8" t="s">
         <v>682</v>
       </c>
@@ -50994,7 +51046,7 @@
       </c>
     </row>
     <row r="354" spans="1:7" ht="50" customHeight="1">
-      <c r="A354" s="42"/>
+      <c r="A354" s="39"/>
       <c r="C354" s="8" t="s">
         <v>684</v>
       </c>
@@ -51008,7 +51060,7 @@
       </c>
     </row>
     <row r="355" spans="1:7" ht="50" customHeight="1">
-      <c r="A355" s="42"/>
+      <c r="A355" s="39"/>
       <c r="C355" s="8" t="s">
         <v>686</v>
       </c>
@@ -51024,7 +51076,7 @@
       </c>
     </row>
     <row r="356" spans="1:7" ht="50" customHeight="1">
-      <c r="A356" s="42"/>
+      <c r="A356" s="39"/>
       <c r="C356" s="8" t="s">
         <v>688</v>
       </c>
@@ -51040,7 +51092,7 @@
       </c>
     </row>
     <row r="357" spans="1:7" ht="50" customHeight="1">
-      <c r="A357" s="42"/>
+      <c r="A357" s="39"/>
       <c r="C357" s="8" t="s">
         <v>690</v>
       </c>
@@ -51056,7 +51108,7 @@
       </c>
     </row>
     <row r="358" spans="1:7" ht="50" customHeight="1">
-      <c r="A358" s="42"/>
+      <c r="A358" s="39"/>
       <c r="C358" s="8" t="s">
         <v>692</v>
       </c>
@@ -51072,7 +51124,7 @@
       </c>
     </row>
     <row r="359" spans="1:7" ht="50" customHeight="1">
-      <c r="A359" s="42"/>
+      <c r="A359" s="39"/>
       <c r="C359" s="8" t="s">
         <v>694</v>
       </c>
@@ -51086,7 +51138,7 @@
       </c>
     </row>
     <row r="360" spans="1:7" ht="50" customHeight="1">
-      <c r="A360" s="42"/>
+      <c r="A360" s="39"/>
       <c r="C360" s="8" t="s">
         <v>696</v>
       </c>
@@ -51100,7 +51152,7 @@
       </c>
     </row>
     <row r="361" spans="1:7" ht="50" customHeight="1">
-      <c r="A361" s="42"/>
+      <c r="A361" s="39"/>
       <c r="C361" s="8" t="s">
         <v>698</v>
       </c>
@@ -51114,7 +51166,7 @@
       </c>
     </row>
     <row r="362" spans="1:7" ht="50" customHeight="1">
-      <c r="A362" s="42"/>
+      <c r="A362" s="39"/>
       <c r="C362" s="8" t="s">
         <v>700</v>
       </c>
@@ -51128,7 +51180,7 @@
       </c>
     </row>
     <row r="363" spans="1:7" ht="50" customHeight="1">
-      <c r="A363" s="42"/>
+      <c r="A363" s="39"/>
       <c r="C363" s="8" t="s">
         <v>702</v>
       </c>
@@ -51142,7 +51194,7 @@
       </c>
     </row>
     <row r="364" spans="1:7" ht="50" customHeight="1">
-      <c r="A364" s="42"/>
+      <c r="A364" s="39"/>
       <c r="C364" s="8" t="s">
         <v>704</v>
       </c>
@@ -51158,7 +51210,7 @@
       </c>
     </row>
     <row r="365" spans="1:7" ht="50" customHeight="1">
-      <c r="A365" s="42"/>
+      <c r="A365" s="39"/>
       <c r="C365" s="8" t="s">
         <v>706</v>
       </c>
@@ -51174,7 +51226,7 @@
       </c>
     </row>
     <row r="366" spans="1:7" ht="50" customHeight="1">
-      <c r="A366" s="42"/>
+      <c r="A366" s="39"/>
       <c r="C366" s="8" t="s">
         <v>708</v>
       </c>
@@ -51188,7 +51240,7 @@
       </c>
     </row>
     <row r="367" spans="1:7" ht="50" customHeight="1">
-      <c r="A367" s="42"/>
+      <c r="A367" s="39"/>
       <c r="C367" s="8" t="s">
         <v>710</v>
       </c>
@@ -51204,7 +51256,7 @@
       </c>
     </row>
     <row r="368" spans="1:7" ht="50" customHeight="1">
-      <c r="A368" s="42"/>
+      <c r="A368" s="39"/>
       <c r="C368" s="8" t="s">
         <v>712</v>
       </c>
@@ -51220,7 +51272,7 @@
       </c>
     </row>
     <row r="369" spans="1:7" ht="50" customHeight="1">
-      <c r="A369" s="42"/>
+      <c r="A369" s="39"/>
       <c r="C369" s="8" t="s">
         <v>714</v>
       </c>
@@ -51236,7 +51288,7 @@
       </c>
     </row>
     <row r="370" spans="1:7" ht="50" customHeight="1">
-      <c r="A370" s="42"/>
+      <c r="A370" s="39"/>
       <c r="C370" s="8" t="s">
         <v>716</v>
       </c>
@@ -51252,7 +51304,7 @@
       </c>
     </row>
     <row r="371" spans="1:7" ht="50" customHeight="1">
-      <c r="A371" s="42"/>
+      <c r="A371" s="39"/>
       <c r="C371" s="8" t="s">
         <v>718</v>
       </c>
@@ -51268,7 +51320,7 @@
       </c>
     </row>
     <row r="372" spans="1:7" ht="50" customHeight="1">
-      <c r="A372" s="42"/>
+      <c r="A372" s="39"/>
       <c r="C372" s="8" t="s">
         <v>720</v>
       </c>
@@ -51284,7 +51336,7 @@
       </c>
     </row>
     <row r="373" spans="1:7" ht="50" customHeight="1">
-      <c r="A373" s="42"/>
+      <c r="A373" s="39"/>
       <c r="C373" s="8" t="s">
         <v>722</v>
       </c>
@@ -51300,7 +51352,7 @@
       </c>
     </row>
     <row r="374" spans="1:7" ht="50" customHeight="1">
-      <c r="A374" s="42"/>
+      <c r="A374" s="39"/>
       <c r="C374" s="8" t="s">
         <v>724</v>
       </c>
@@ -51316,7 +51368,7 @@
       </c>
     </row>
     <row r="375" spans="1:7" ht="50" customHeight="1">
-      <c r="A375" s="42"/>
+      <c r="A375" s="39"/>
       <c r="C375" s="8" t="s">
         <v>726</v>
       </c>
@@ -51332,7 +51384,7 @@
       </c>
     </row>
     <row r="376" spans="1:7" ht="50" customHeight="1">
-      <c r="A376" s="42"/>
+      <c r="A376" s="39"/>
       <c r="C376" s="8" t="s">
         <v>728</v>
       </c>
@@ -51348,7 +51400,7 @@
       </c>
     </row>
     <row r="377" spans="1:7" ht="50" customHeight="1">
-      <c r="A377" s="42"/>
+      <c r="A377" s="39"/>
       <c r="C377" s="8" t="s">
         <v>730</v>
       </c>
@@ -51362,7 +51414,7 @@
       </c>
     </row>
     <row r="378" spans="1:7" ht="50" customHeight="1">
-      <c r="A378" s="42"/>
+      <c r="A378" s="39"/>
       <c r="C378" s="8" t="s">
         <v>732</v>
       </c>
@@ -51378,7 +51430,7 @@
       </c>
     </row>
     <row r="379" spans="1:7" ht="50" customHeight="1">
-      <c r="A379" s="42"/>
+      <c r="A379" s="39"/>
       <c r="C379" s="8" t="s">
         <v>734</v>
       </c>
@@ -51392,7 +51444,7 @@
       </c>
     </row>
     <row r="380" spans="1:7" ht="50" customHeight="1">
-      <c r="A380" s="42"/>
+      <c r="A380" s="39"/>
       <c r="C380" s="8" t="s">
         <v>736</v>
       </c>
@@ -51406,7 +51458,7 @@
       </c>
     </row>
     <row r="381" spans="1:7" ht="50" customHeight="1">
-      <c r="A381" s="42"/>
+      <c r="A381" s="39"/>
       <c r="C381" s="8" t="s">
         <v>738</v>
       </c>
@@ -51420,7 +51472,7 @@
       </c>
     </row>
     <row r="382" spans="1:7" ht="50" customHeight="1">
-      <c r="A382" s="42"/>
+      <c r="A382" s="39"/>
       <c r="C382" s="8" t="s">
         <v>740</v>
       </c>
@@ -51434,7 +51486,7 @@
       </c>
     </row>
     <row r="383" spans="1:7" ht="50" customHeight="1">
-      <c r="A383" s="42"/>
+      <c r="A383" s="39"/>
       <c r="C383" s="8" t="s">
         <v>742</v>
       </c>
@@ -51448,7 +51500,7 @@
       </c>
     </row>
     <row r="384" spans="1:7" ht="50" customHeight="1">
-      <c r="A384" s="42"/>
+      <c r="A384" s="39"/>
       <c r="C384" s="8" t="s">
         <v>744</v>
       </c>
@@ -51462,7 +51514,7 @@
       </c>
     </row>
     <row r="385" spans="1:7" ht="50" customHeight="1">
-      <c r="A385" s="42"/>
+      <c r="A385" s="39"/>
       <c r="C385" s="8" t="s">
         <v>746</v>
       </c>
@@ -51478,7 +51530,7 @@
       </c>
     </row>
     <row r="386" spans="1:7" ht="50" customHeight="1">
-      <c r="A386" s="42"/>
+      <c r="A386" s="39"/>
       <c r="C386" s="8" t="s">
         <v>748</v>
       </c>
@@ -51492,7 +51544,7 @@
       </c>
     </row>
     <row r="387" spans="1:7" ht="50" customHeight="1">
-      <c r="A387" s="42"/>
+      <c r="A387" s="39"/>
       <c r="C387" s="8" t="s">
         <v>750</v>
       </c>
@@ -51508,7 +51560,7 @@
       </c>
     </row>
     <row r="388" spans="1:7" ht="50" customHeight="1">
-      <c r="A388" s="42"/>
+      <c r="A388" s="39"/>
       <c r="C388" s="8" t="s">
         <v>752</v>
       </c>
@@ -51522,7 +51574,7 @@
       </c>
     </row>
     <row r="389" spans="1:7" ht="50" customHeight="1">
-      <c r="A389" s="42"/>
+      <c r="A389" s="39"/>
       <c r="C389" s="8" t="s">
         <v>754</v>
       </c>
@@ -51536,7 +51588,7 @@
       </c>
     </row>
     <row r="390" spans="1:7" ht="50" customHeight="1">
-      <c r="A390" s="42"/>
+      <c r="A390" s="39"/>
       <c r="C390" s="8" t="s">
         <v>756</v>
       </c>
@@ -51550,7 +51602,7 @@
       </c>
     </row>
     <row r="391" spans="1:7" ht="50" customHeight="1">
-      <c r="A391" s="42"/>
+      <c r="A391" s="39"/>
       <c r="C391" s="8" t="s">
         <v>758</v>
       </c>
@@ -51564,7 +51616,7 @@
       </c>
     </row>
     <row r="392" spans="1:7" ht="50" customHeight="1">
-      <c r="A392" s="42"/>
+      <c r="A392" s="39"/>
       <c r="C392" s="8" t="s">
         <v>760</v>
       </c>
@@ -51578,7 +51630,7 @@
       </c>
     </row>
     <row r="393" spans="1:7" ht="50" customHeight="1">
-      <c r="A393" s="42"/>
+      <c r="A393" s="39"/>
       <c r="C393" s="8" t="s">
         <v>762</v>
       </c>
@@ -51592,7 +51644,7 @@
       </c>
     </row>
     <row r="394" spans="1:7" ht="50" customHeight="1">
-      <c r="A394" s="42"/>
+      <c r="A394" s="39"/>
       <c r="C394" s="8" t="s">
         <v>764</v>
       </c>
@@ -51606,7 +51658,7 @@
       </c>
     </row>
     <row r="395" spans="1:7" ht="50" customHeight="1">
-      <c r="A395" s="42"/>
+      <c r="A395" s="39"/>
       <c r="C395" s="8" t="s">
         <v>766</v>
       </c>
@@ -51620,7 +51672,7 @@
       </c>
     </row>
     <row r="396" spans="1:7" ht="50" customHeight="1">
-      <c r="A396" s="42"/>
+      <c r="A396" s="39"/>
       <c r="C396" s="8" t="s">
         <v>768</v>
       </c>
@@ -51636,7 +51688,7 @@
       </c>
     </row>
     <row r="397" spans="1:7" ht="50" customHeight="1">
-      <c r="A397" s="42"/>
+      <c r="A397" s="39"/>
       <c r="C397" s="8" t="s">
         <v>770</v>
       </c>
@@ -51650,7 +51702,7 @@
       </c>
     </row>
     <row r="398" spans="1:7" ht="50" customHeight="1">
-      <c r="A398" s="42"/>
+      <c r="A398" s="39"/>
       <c r="C398" s="8" t="s">
         <v>772</v>
       </c>
@@ -51664,7 +51716,7 @@
       </c>
     </row>
     <row r="399" spans="1:7" ht="50" customHeight="1">
-      <c r="A399" s="42"/>
+      <c r="A399" s="39"/>
       <c r="C399" s="8" t="s">
         <v>774</v>
       </c>
@@ -51678,7 +51730,7 @@
       </c>
     </row>
     <row r="400" spans="1:7" ht="50" customHeight="1">
-      <c r="A400" s="42"/>
+      <c r="A400" s="39"/>
       <c r="C400" s="8" t="s">
         <v>776</v>
       </c>
@@ -51694,7 +51746,7 @@
       </c>
     </row>
     <row r="401" spans="1:7" ht="50" customHeight="1">
-      <c r="A401" s="42"/>
+      <c r="A401" s="39"/>
       <c r="C401" s="8" t="s">
         <v>778</v>
       </c>
@@ -51708,7 +51760,7 @@
       </c>
     </row>
     <row r="402" spans="1:7" ht="50" customHeight="1">
-      <c r="A402" s="42"/>
+      <c r="A402" s="39"/>
       <c r="C402" s="8" t="s">
         <v>780</v>
       </c>
@@ -51724,7 +51776,7 @@
       </c>
     </row>
     <row r="403" spans="1:7" ht="50" customHeight="1">
-      <c r="A403" s="42"/>
+      <c r="A403" s="39"/>
       <c r="C403" s="8" t="s">
         <v>782</v>
       </c>
@@ -51738,7 +51790,7 @@
       </c>
     </row>
     <row r="404" spans="1:7" ht="50" customHeight="1">
-      <c r="A404" s="43"/>
+      <c r="A404" s="40"/>
       <c r="C404" s="8" t="s">
         <v>784</v>
       </c>
@@ -51752,10 +51804,10 @@
       </c>
     </row>
     <row r="405" spans="1:7" ht="50" customHeight="1">
-      <c r="A405" s="41" t="s">
+      <c r="A405" s="38" t="s">
         <v>872</v>
       </c>
-      <c r="B405" s="41" t="s">
+      <c r="B405" s="38" t="s">
         <v>873</v>
       </c>
       <c r="C405" s="26" t="s">
@@ -51772,8 +51824,8 @@
       </c>
     </row>
     <row r="406" spans="1:7" ht="50" customHeight="1">
-      <c r="A406" s="42"/>
-      <c r="B406" s="42"/>
+      <c r="A406" s="39"/>
+      <c r="B406" s="39"/>
       <c r="C406" s="27" t="s">
         <v>788</v>
       </c>
@@ -51787,8 +51839,8 @@
       </c>
     </row>
     <row r="407" spans="1:7" ht="50" customHeight="1">
-      <c r="A407" s="42"/>
-      <c r="B407" s="42"/>
+      <c r="A407" s="39"/>
+      <c r="B407" s="39"/>
       <c r="C407" s="27" t="s">
         <v>790</v>
       </c>
@@ -51802,8 +51854,8 @@
       </c>
     </row>
     <row r="408" spans="1:7" ht="50" customHeight="1">
-      <c r="A408" s="42"/>
-      <c r="B408" s="43"/>
+      <c r="A408" s="39"/>
+      <c r="B408" s="40"/>
       <c r="C408" s="27" t="s">
         <v>792</v>
       </c>
@@ -51817,8 +51869,8 @@
       </c>
     </row>
     <row r="409" spans="1:7" ht="50" customHeight="1">
-      <c r="A409" s="42"/>
-      <c r="B409" s="41" t="s">
+      <c r="A409" s="39"/>
+      <c r="B409" s="38" t="s">
         <v>874</v>
       </c>
       <c r="C409" s="27" t="s">
@@ -51834,8 +51886,8 @@
       </c>
     </row>
     <row r="410" spans="1:7" ht="50" customHeight="1">
-      <c r="A410" s="42"/>
-      <c r="B410" s="42"/>
+      <c r="A410" s="39"/>
+      <c r="B410" s="39"/>
       <c r="C410" s="27" t="s">
         <v>796</v>
       </c>
@@ -51849,8 +51901,8 @@
       </c>
     </row>
     <row r="411" spans="1:7" ht="50" customHeight="1">
-      <c r="A411" s="42"/>
-      <c r="B411" s="42"/>
+      <c r="A411" s="39"/>
+      <c r="B411" s="39"/>
       <c r="C411" s="27" t="s">
         <v>798</v>
       </c>
@@ -51866,8 +51918,8 @@
       </c>
     </row>
     <row r="412" spans="1:7" ht="50" customHeight="1">
-      <c r="A412" s="42"/>
-      <c r="B412" s="42"/>
+      <c r="A412" s="39"/>
+      <c r="B412" s="39"/>
       <c r="C412" s="27" t="s">
         <v>800</v>
       </c>
@@ -51881,8 +51933,8 @@
       </c>
     </row>
     <row r="413" spans="1:7" ht="50" customHeight="1">
-      <c r="A413" s="42"/>
-      <c r="B413" s="42"/>
+      <c r="A413" s="39"/>
+      <c r="B413" s="39"/>
       <c r="C413" s="27" t="s">
         <v>802</v>
       </c>
@@ -51896,8 +51948,8 @@
       </c>
     </row>
     <row r="414" spans="1:7" ht="50" customHeight="1">
-      <c r="A414" s="42"/>
-      <c r="B414" s="42"/>
+      <c r="A414" s="39"/>
+      <c r="B414" s="39"/>
       <c r="C414" s="27" t="s">
         <v>804</v>
       </c>
@@ -51911,8 +51963,8 @@
       </c>
     </row>
     <row r="415" spans="1:7" ht="50" customHeight="1">
-      <c r="A415" s="42"/>
-      <c r="B415" s="43"/>
+      <c r="A415" s="39"/>
+      <c r="B415" s="40"/>
       <c r="C415" s="27" t="s">
         <v>806</v>
       </c>
@@ -51926,8 +51978,8 @@
       </c>
     </row>
     <row r="416" spans="1:7" ht="50" customHeight="1">
-      <c r="A416" s="42"/>
-      <c r="B416" s="41" t="s">
+      <c r="A416" s="39"/>
+      <c r="B416" s="38" t="s">
         <v>875</v>
       </c>
       <c r="C416" s="26" t="s">
@@ -51944,8 +51996,8 @@
       </c>
     </row>
     <row r="417" spans="1:7" ht="50" customHeight="1">
-      <c r="A417" s="42"/>
-      <c r="B417" s="43"/>
+      <c r="A417" s="39"/>
+      <c r="B417" s="40"/>
       <c r="C417" s="27" t="s">
         <v>810</v>
       </c>
@@ -51960,8 +52012,8 @@
       </c>
     </row>
     <row r="418" spans="1:7" ht="50" customHeight="1">
-      <c r="A418" s="42"/>
-      <c r="B418" s="41" t="s">
+      <c r="A418" s="39"/>
+      <c r="B418" s="38" t="s">
         <v>876</v>
       </c>
       <c r="C418" s="26" t="s">
@@ -51975,8 +52027,8 @@
       </c>
     </row>
     <row r="419" spans="1:7" ht="50" customHeight="1">
-      <c r="A419" s="42"/>
-      <c r="B419" s="42"/>
+      <c r="A419" s="39"/>
+      <c r="B419" s="39"/>
       <c r="C419" s="26" t="s">
         <v>814</v>
       </c>
@@ -51988,8 +52040,8 @@
       </c>
     </row>
     <row r="420" spans="1:7" ht="50" customHeight="1">
-      <c r="A420" s="42"/>
-      <c r="B420" s="42"/>
+      <c r="A420" s="39"/>
+      <c r="B420" s="39"/>
       <c r="C420" s="26" t="s">
         <v>816</v>
       </c>
@@ -52001,8 +52053,8 @@
       </c>
     </row>
     <row r="421" spans="1:7" ht="50" customHeight="1">
-      <c r="A421" s="42"/>
-      <c r="B421" s="42"/>
+      <c r="A421" s="39"/>
+      <c r="B421" s="39"/>
       <c r="C421" s="26" t="s">
         <v>818</v>
       </c>
@@ -52014,8 +52066,8 @@
       </c>
     </row>
     <row r="422" spans="1:7" ht="50" customHeight="1">
-      <c r="A422" s="43"/>
-      <c r="B422" s="43"/>
+      <c r="A422" s="40"/>
+      <c r="B422" s="40"/>
       <c r="C422" s="26" t="s">
         <v>820</v>
       </c>
@@ -52028,15 +52080,31 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B314:B316"/>
-    <mergeCell ref="B317:B326"/>
-    <mergeCell ref="B328:B332"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="B233:B267"/>
-    <mergeCell ref="B274:B306"/>
-    <mergeCell ref="B309:B313"/>
-    <mergeCell ref="B269:B273"/>
+    <mergeCell ref="B47:B56"/>
+    <mergeCell ref="A34:A56"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A16:A33"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A57:A69"/>
+    <mergeCell ref="B57:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="A70:A111"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B73:B95"/>
+    <mergeCell ref="B96:B105"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="A112:A121"/>
+    <mergeCell ref="A123:A146"/>
+    <mergeCell ref="B123:B137"/>
+    <mergeCell ref="B138:B146"/>
+    <mergeCell ref="B115:B122"/>
     <mergeCell ref="A147:A226"/>
     <mergeCell ref="A227:A332"/>
     <mergeCell ref="A333:A404"/>
@@ -52053,31 +52121,15 @@
     <mergeCell ref="B180:B185"/>
     <mergeCell ref="B186:B222"/>
     <mergeCell ref="B223:B226"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="A112:A121"/>
-    <mergeCell ref="A123:A146"/>
-    <mergeCell ref="B123:B137"/>
-    <mergeCell ref="B138:B146"/>
-    <mergeCell ref="B115:B122"/>
-    <mergeCell ref="A57:A69"/>
-    <mergeCell ref="B57:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="A70:A111"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B73:B95"/>
-    <mergeCell ref="B96:B105"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B47:B56"/>
-    <mergeCell ref="A34:A56"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="A16:A33"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B314:B316"/>
+    <mergeCell ref="B317:B326"/>
+    <mergeCell ref="B328:B332"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="B233:B267"/>
+    <mergeCell ref="B274:B306"/>
+    <mergeCell ref="B309:B313"/>
+    <mergeCell ref="B269:B273"/>
   </mergeCells>
   <conditionalFormatting sqref="E328:F328 E306:F307 E322:F326 E125:F125">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -52091,18 +52143,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -52309,6 +52361,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E6096D8-1CD1-477D-852D-41029505002A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1765E8E-7B87-4E57-AE04-80D6CA061ADD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -52321,14 +52381,6 @@
     <ds:schemaRef ds:uri="1750c493-bee6-4013-b7a9-faed7d1eacd9"/>
     <ds:schemaRef ds:uri="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E6096D8-1CD1-477D-852D-41029505002A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Carto/POI/PDS_Category_Assignment.xlsx
+++ b/Carto/POI/PDS_Category_Assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauragar/icons-by-here-technologies/Carto/POI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0798118-C111-E243-B17B-077787C3D2A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B15DEA-55EF-994E-87F3-6FF04B3766DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27600" xr2:uid="{C64EB798-04F6-AE43-9DCC-0EA02E11247A}"/>
   </bookViews>
@@ -3546,6 +3546,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3555,6 +3564,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3562,21 +3577,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12646,10 +12646,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="50" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="45" t="s">
         <v>826</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="45" t="s">
         <v>833</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -12667,8 +12667,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="50" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
@@ -12684,8 +12684,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="50" customHeight="1">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
@@ -12701,8 +12701,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="50" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
@@ -12718,8 +12718,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="50" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
@@ -12735,8 +12735,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="50" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
@@ -12752,8 +12752,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
@@ -12769,8 +12769,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="50" customHeight="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
@@ -12786,8 +12786,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="50" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
@@ -12803,8 +12803,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="50" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45" t="s">
         <v>834</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -12822,8 +12822,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="50" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
@@ -12839,8 +12839,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="50" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="8" t="s">
         <v>25</v>
       </c>
@@ -12856,8 +12856,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="50" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="8" t="s">
         <v>27</v>
       </c>
@@ -12873,10 +12873,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="50" customHeight="1">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="44" t="s">
         <v>831</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="44" t="s">
         <v>836</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -12894,8 +12894,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="50" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
@@ -12911,8 +12911,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="50" customHeight="1">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="8" t="s">
         <v>33</v>
       </c>
@@ -12928,8 +12928,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="50" customHeight="1">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="8" t="s">
         <v>35</v>
       </c>
@@ -12945,8 +12945,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="50" customHeight="1">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="8" t="s">
         <v>37</v>
       </c>
@@ -12962,8 +12962,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="50" customHeight="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="8" t="s">
         <v>39</v>
       </c>
@@ -12979,8 +12979,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="50" customHeight="1">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="8" t="s">
         <v>41</v>
       </c>
@@ -12996,8 +12996,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="50" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="8" t="s">
         <v>43</v>
       </c>
@@ -13013,8 +13013,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="50" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="8" t="s">
         <v>45</v>
       </c>
@@ -13030,8 +13030,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="50" customHeight="1">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="13" t="s">
         <v>47</v>
       </c>
@@ -13046,8 +13046,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="50" customHeight="1">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="8" t="s">
         <v>49</v>
       </c>
@@ -13063,8 +13063,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="50" customHeight="1">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="8" t="s">
         <v>51</v>
       </c>
@@ -13080,7 +13080,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="50" customHeight="1">
-      <c r="A28" s="47"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="14" t="s">
         <v>837</v>
       </c>
@@ -13099,8 +13099,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="50" customHeight="1">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44" t="s">
         <v>838</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -13118,8 +13118,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="50" customHeight="1">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="8" t="s">
         <v>57</v>
       </c>
@@ -13135,8 +13135,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="50" customHeight="1">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44" t="s">
         <v>839</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -13154,8 +13154,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="50" customHeight="1">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="8" t="s">
         <v>61</v>
       </c>
@@ -13171,8 +13171,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="50" customHeight="1">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="8" t="s">
         <v>63</v>
       </c>
@@ -13188,10 +13188,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="50" customHeight="1">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="41" t="s">
         <v>835</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="44" t="s">
         <v>843</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -13209,8 +13209,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="50" customHeight="1">
-      <c r="A35" s="39"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="8" t="s">
         <v>67</v>
       </c>
@@ -13226,8 +13226,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="50" customHeight="1">
-      <c r="A36" s="39"/>
-      <c r="B36" s="47"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="8" t="s">
         <v>69</v>
       </c>
@@ -13243,8 +13243,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="50" customHeight="1">
-      <c r="A37" s="39"/>
-      <c r="B37" s="47"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="8" t="s">
         <v>71</v>
       </c>
@@ -13260,8 +13260,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="50" customHeight="1">
-      <c r="A38" s="39"/>
-      <c r="B38" s="47"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="8" t="s">
         <v>73</v>
       </c>
@@ -13275,8 +13275,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="50" customHeight="1">
-      <c r="A39" s="39"/>
-      <c r="B39" s="47"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="8" t="s">
         <v>75</v>
       </c>
@@ -13290,8 +13290,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="50" customHeight="1">
-      <c r="A40" s="39"/>
-      <c r="B40" s="47"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="8" t="s">
         <v>77</v>
       </c>
@@ -13305,8 +13305,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="50" customHeight="1">
-      <c r="A41" s="39"/>
-      <c r="B41" s="47"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="8" t="s">
         <v>79</v>
       </c>
@@ -13322,8 +13322,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="50" customHeight="1">
-      <c r="A42" s="39"/>
-      <c r="B42" s="47" t="s">
+      <c r="A42" s="42"/>
+      <c r="B42" s="44" t="s">
         <v>844</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -13341,8 +13341,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="50" customHeight="1">
-      <c r="A43" s="39"/>
-      <c r="B43" s="47"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="8" t="s">
         <v>83</v>
       </c>
@@ -13358,8 +13358,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="50" customHeight="1">
-      <c r="A44" s="39"/>
-      <c r="B44" s="47"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="8" t="s">
         <v>85</v>
       </c>
@@ -13375,8 +13375,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="50" customHeight="1">
-      <c r="A45" s="39"/>
-      <c r="B45" s="47"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="8" t="s">
         <v>87</v>
       </c>
@@ -13392,8 +13392,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="50" customHeight="1">
-      <c r="A46" s="39"/>
-      <c r="B46" s="47"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="8" t="s">
         <v>89</v>
       </c>
@@ -13409,8 +13409,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="50" customHeight="1">
-      <c r="A47" s="39"/>
-      <c r="B47" s="44" t="s">
+      <c r="A47" s="42"/>
+      <c r="B47" s="38" t="s">
         <v>845</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -13428,8 +13428,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="50" customHeight="1">
-      <c r="A48" s="39"/>
-      <c r="B48" s="45"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="8" t="s">
         <v>93</v>
       </c>
@@ -13445,8 +13445,8 @@
       </c>
     </row>
     <row r="49" spans="1:16384" ht="50" customHeight="1">
-      <c r="A49" s="39"/>
-      <c r="B49" s="45"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="8" t="s">
         <v>95</v>
       </c>
@@ -13462,8 +13462,8 @@
       </c>
     </row>
     <row r="50" spans="1:16384" ht="50" customHeight="1">
-      <c r="A50" s="39"/>
-      <c r="B50" s="45"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="8" t="s">
         <v>97</v>
       </c>
@@ -13479,8 +13479,8 @@
       </c>
     </row>
     <row r="51" spans="1:16384" ht="50" customHeight="1">
-      <c r="A51" s="39"/>
-      <c r="B51" s="45"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="8" t="s">
         <v>99</v>
       </c>
@@ -13496,8 +13496,8 @@
       </c>
     </row>
     <row r="52" spans="1:16384" ht="50" customHeight="1">
-      <c r="A52" s="39"/>
-      <c r="B52" s="45"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="8" t="s">
         <v>101</v>
       </c>
@@ -13513,8 +13513,8 @@
       </c>
     </row>
     <row r="53" spans="1:16384" ht="50" customHeight="1">
-      <c r="A53" s="39"/>
-      <c r="B53" s="45"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="39"/>
       <c r="C53" s="8" t="s">
         <v>101</v>
       </c>
@@ -29905,8 +29905,8 @@
       <c r="XFD53" s="34"/>
     </row>
     <row r="54" spans="1:16384" ht="50" customHeight="1">
-      <c r="A54" s="39"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="39"/>
       <c r="C54" s="8" t="s">
         <v>103</v>
       </c>
@@ -29922,8 +29922,8 @@
       </c>
     </row>
     <row r="55" spans="1:16384" ht="50" customHeight="1">
-      <c r="A55" s="39"/>
-      <c r="B55" s="45"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="39"/>
       <c r="C55" s="8" t="s">
         <v>105</v>
       </c>
@@ -29939,8 +29939,8 @@
       </c>
     </row>
     <row r="56" spans="1:16384" ht="50" customHeight="1">
-      <c r="A56" s="40"/>
-      <c r="B56" s="46"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="40"/>
       <c r="C56" s="35" t="s">
         <v>920</v>
       </c>
@@ -29954,10 +29954,10 @@
       </c>
     </row>
     <row r="57" spans="1:16384" ht="50" customHeight="1">
-      <c r="A57" s="38" t="s">
+      <c r="A57" s="41" t="s">
         <v>846</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="41" t="s">
         <v>847</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -29975,8 +29975,8 @@
       </c>
     </row>
     <row r="58" spans="1:16384" ht="50" customHeight="1">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="8" t="s">
         <v>109</v>
       </c>
@@ -29990,8 +29990,8 @@
       </c>
     </row>
     <row r="59" spans="1:16384" ht="50" customHeight="1">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="8" t="s">
         <v>111</v>
       </c>
@@ -30005,8 +30005,8 @@
       </c>
     </row>
     <row r="60" spans="1:16384" ht="50" customHeight="1">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="8" t="s">
         <v>113</v>
       </c>
@@ -30022,8 +30022,8 @@
       </c>
     </row>
     <row r="61" spans="1:16384" ht="50" customHeight="1">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
       <c r="C61" s="8" t="s">
         <v>115</v>
       </c>
@@ -30037,8 +30037,8 @@
       </c>
     </row>
     <row r="62" spans="1:16384" ht="50" customHeight="1">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="8" t="s">
         <v>117</v>
       </c>
@@ -30052,8 +30052,8 @@
       </c>
     </row>
     <row r="63" spans="1:16384" ht="50" customHeight="1">
-      <c r="A63" s="39"/>
-      <c r="B63" s="40"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="8" t="s">
         <v>119</v>
       </c>
@@ -30067,8 +30067,8 @@
       </c>
     </row>
     <row r="64" spans="1:16384" ht="50" customHeight="1">
-      <c r="A64" s="39"/>
-      <c r="B64" s="38" t="s">
+      <c r="A64" s="42"/>
+      <c r="B64" s="41" t="s">
         <v>848</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -30086,8 +30086,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="50" customHeight="1">
-      <c r="A65" s="39"/>
-      <c r="B65" s="39"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="42"/>
       <c r="C65" s="8" t="s">
         <v>123</v>
       </c>
@@ -30103,8 +30103,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="50" customHeight="1">
-      <c r="A66" s="39"/>
-      <c r="B66" s="40"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="8" t="s">
         <v>125</v>
       </c>
@@ -30120,7 +30120,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="50" customHeight="1">
-      <c r="A67" s="39"/>
+      <c r="A67" s="42"/>
       <c r="B67" s="14" t="s">
         <v>849</v>
       </c>
@@ -30137,7 +30137,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="50" customHeight="1">
-      <c r="A68" s="39"/>
+      <c r="A68" s="42"/>
       <c r="B68" s="14" t="s">
         <v>850</v>
       </c>
@@ -30156,7 +30156,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="50" customHeight="1">
-      <c r="A69" s="40"/>
+      <c r="A69" s="43"/>
       <c r="B69" s="14" t="s">
         <v>851</v>
       </c>
@@ -30175,10 +30175,10 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="50" customHeight="1">
-      <c r="A70" s="38" t="s">
+      <c r="A70" s="41" t="s">
         <v>854</v>
       </c>
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="41" t="s">
         <v>856</v>
       </c>
       <c r="C70" s="8" t="s">
@@ -30196,8 +30196,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="50" customHeight="1">
-      <c r="A71" s="39"/>
-      <c r="B71" s="39"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="42"/>
       <c r="C71" s="8" t="s">
         <v>135</v>
       </c>
@@ -30213,8 +30213,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="50" customHeight="1">
-      <c r="A72" s="39"/>
-      <c r="B72" s="40"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="43"/>
       <c r="C72" s="8" t="s">
         <v>137</v>
       </c>
@@ -30230,8 +30230,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="50" customHeight="1">
-      <c r="A73" s="39"/>
-      <c r="B73" s="38" t="s">
+      <c r="A73" s="42"/>
+      <c r="B73" s="41" t="s">
         <v>855</v>
       </c>
       <c r="C73" s="8" t="s">
@@ -30249,8 +30249,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="50" customHeight="1">
-      <c r="A74" s="39"/>
-      <c r="B74" s="39"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="42"/>
       <c r="C74" s="8" t="s">
         <v>141</v>
       </c>
@@ -30266,8 +30266,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="50" customHeight="1">
-      <c r="A75" s="39"/>
-      <c r="B75" s="39"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="8" t="s">
         <v>143</v>
       </c>
@@ -30283,8 +30283,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="50" customHeight="1">
-      <c r="A76" s="39"/>
-      <c r="B76" s="39"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="42"/>
       <c r="C76" s="8" t="s">
         <v>145</v>
       </c>
@@ -30300,8 +30300,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="50" customHeight="1">
-      <c r="A77" s="39"/>
-      <c r="B77" s="39"/>
+      <c r="A77" s="42"/>
+      <c r="B77" s="42"/>
       <c r="C77" s="8" t="s">
         <v>147</v>
       </c>
@@ -30317,8 +30317,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="50" customHeight="1">
-      <c r="A78" s="39"/>
-      <c r="B78" s="39"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="42"/>
       <c r="C78" s="8" t="s">
         <v>149</v>
       </c>
@@ -30332,8 +30332,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="50" customHeight="1">
-      <c r="A79" s="39"/>
-      <c r="B79" s="39"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="8" t="s">
         <v>151</v>
       </c>
@@ -30347,8 +30347,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="50" customHeight="1">
-      <c r="A80" s="39"/>
-      <c r="B80" s="39"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="8" t="s">
         <v>153</v>
       </c>
@@ -30364,8 +30364,8 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="50" customHeight="1">
-      <c r="A81" s="39"/>
-      <c r="B81" s="39"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="8" t="s">
         <v>155</v>
       </c>
@@ -30379,8 +30379,8 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="50" customHeight="1">
-      <c r="A82" s="39"/>
-      <c r="B82" s="39"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="42"/>
       <c r="C82" s="8" t="s">
         <v>157</v>
       </c>
@@ -30396,8 +30396,8 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="50" customHeight="1">
-      <c r="A83" s="39"/>
-      <c r="B83" s="39"/>
+      <c r="A83" s="42"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="8" t="s">
         <v>159</v>
       </c>
@@ -30413,8 +30413,8 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="50" customHeight="1">
-      <c r="A84" s="39"/>
-      <c r="B84" s="39"/>
+      <c r="A84" s="42"/>
+      <c r="B84" s="42"/>
       <c r="C84" s="8" t="s">
         <v>161</v>
       </c>
@@ -30430,8 +30430,8 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="50" customHeight="1">
-      <c r="A85" s="39"/>
-      <c r="B85" s="39"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="42"/>
       <c r="C85" s="8" t="s">
         <v>163</v>
       </c>
@@ -30450,8 +30450,8 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="50" customHeight="1">
-      <c r="A86" s="39"/>
-      <c r="B86" s="39"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="42"/>
       <c r="C86" s="8" t="s">
         <v>165</v>
       </c>
@@ -30465,8 +30465,8 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="50" customHeight="1">
-      <c r="A87" s="39"/>
-      <c r="B87" s="39"/>
+      <c r="A87" s="42"/>
+      <c r="B87" s="42"/>
       <c r="C87" s="8" t="s">
         <v>167</v>
       </c>
@@ -30482,8 +30482,8 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="50" customHeight="1">
-      <c r="A88" s="39"/>
-      <c r="B88" s="39"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="42"/>
       <c r="C88" s="8" t="s">
         <v>169</v>
       </c>
@@ -30499,8 +30499,8 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="50" customHeight="1">
-      <c r="A89" s="39"/>
-      <c r="B89" s="39"/>
+      <c r="A89" s="42"/>
+      <c r="B89" s="42"/>
       <c r="C89" s="8" t="s">
         <v>171</v>
       </c>
@@ -30514,8 +30514,8 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="50" customHeight="1">
-      <c r="A90" s="39"/>
-      <c r="B90" s="39"/>
+      <c r="A90" s="42"/>
+      <c r="B90" s="42"/>
       <c r="C90" s="8" t="s">
         <v>173</v>
       </c>
@@ -30531,8 +30531,8 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="50" customHeight="1">
-      <c r="A91" s="39"/>
-      <c r="B91" s="39"/>
+      <c r="A91" s="42"/>
+      <c r="B91" s="42"/>
       <c r="C91" s="8" t="s">
         <v>175</v>
       </c>
@@ -30548,8 +30548,8 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="50" customHeight="1">
-      <c r="A92" s="39"/>
-      <c r="B92" s="39"/>
+      <c r="A92" s="42"/>
+      <c r="B92" s="42"/>
       <c r="C92" s="8" t="s">
         <v>177</v>
       </c>
@@ -30563,8 +30563,8 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="50" customHeight="1">
-      <c r="A93" s="39"/>
-      <c r="B93" s="39"/>
+      <c r="A93" s="42"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="8" t="s">
         <v>179</v>
       </c>
@@ -30580,8 +30580,8 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="50" customHeight="1">
-      <c r="A94" s="39"/>
-      <c r="B94" s="39"/>
+      <c r="A94" s="42"/>
+      <c r="B94" s="42"/>
       <c r="C94" s="8" t="s">
         <v>181</v>
       </c>
@@ -30595,8 +30595,8 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="50" customHeight="1">
-      <c r="A95" s="39"/>
-      <c r="B95" s="40"/>
+      <c r="A95" s="42"/>
+      <c r="B95" s="43"/>
       <c r="C95" s="8" t="s">
         <v>183</v>
       </c>
@@ -30610,8 +30610,8 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="50" customHeight="1">
-      <c r="A96" s="39"/>
-      <c r="B96" s="38" t="s">
+      <c r="A96" s="42"/>
+      <c r="B96" s="41" t="s">
         <v>857</v>
       </c>
       <c r="C96" s="8" t="s">
@@ -30627,8 +30627,8 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="50" customHeight="1">
-      <c r="A97" s="39"/>
-      <c r="B97" s="39"/>
+      <c r="A97" s="42"/>
+      <c r="B97" s="42"/>
       <c r="C97" s="8" t="s">
         <v>187</v>
       </c>
@@ -30642,8 +30642,8 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="50" customHeight="1">
-      <c r="A98" s="39"/>
-      <c r="B98" s="39"/>
+      <c r="A98" s="42"/>
+      <c r="B98" s="42"/>
       <c r="C98" s="8" t="s">
         <v>189</v>
       </c>
@@ -30657,8 +30657,8 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="50" customHeight="1">
-      <c r="A99" s="39"/>
-      <c r="B99" s="39"/>
+      <c r="A99" s="42"/>
+      <c r="B99" s="42"/>
       <c r="C99" s="8" t="s">
         <v>191</v>
       </c>
@@ -30672,8 +30672,8 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="50" customHeight="1">
-      <c r="A100" s="39"/>
-      <c r="B100" s="39"/>
+      <c r="A100" s="42"/>
+      <c r="B100" s="42"/>
       <c r="C100" s="8" t="s">
         <v>193</v>
       </c>
@@ -30687,8 +30687,8 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="50" customHeight="1">
-      <c r="A101" s="39"/>
-      <c r="B101" s="39"/>
+      <c r="A101" s="42"/>
+      <c r="B101" s="42"/>
       <c r="C101" s="8" t="s">
         <v>195</v>
       </c>
@@ -30702,8 +30702,8 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="50" customHeight="1">
-      <c r="A102" s="39"/>
-      <c r="B102" s="39"/>
+      <c r="A102" s="42"/>
+      <c r="B102" s="42"/>
       <c r="C102" s="8" t="s">
         <v>197</v>
       </c>
@@ -30717,8 +30717,8 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="50" customHeight="1">
-      <c r="A103" s="39"/>
-      <c r="B103" s="39"/>
+      <c r="A103" s="42"/>
+      <c r="B103" s="42"/>
       <c r="C103" s="8" t="s">
         <v>199</v>
       </c>
@@ -30732,8 +30732,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="50" customHeight="1">
-      <c r="A104" s="39"/>
-      <c r="B104" s="39"/>
+      <c r="A104" s="42"/>
+      <c r="B104" s="42"/>
       <c r="C104" s="8" t="s">
         <v>201</v>
       </c>
@@ -30747,8 +30747,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="50" customHeight="1">
-      <c r="A105" s="39"/>
-      <c r="B105" s="40"/>
+      <c r="A105" s="42"/>
+      <c r="B105" s="43"/>
       <c r="C105" s="8" t="s">
         <v>203</v>
       </c>
@@ -30762,8 +30762,8 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="50" customHeight="1">
-      <c r="A106" s="39"/>
-      <c r="B106" s="38" t="s">
+      <c r="A106" s="42"/>
+      <c r="B106" s="41" t="s">
         <v>858</v>
       </c>
       <c r="C106" s="8" t="s">
@@ -30781,8 +30781,8 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="50" customHeight="1">
-      <c r="A107" s="39"/>
-      <c r="B107" s="39"/>
+      <c r="A107" s="42"/>
+      <c r="B107" s="42"/>
       <c r="C107" s="8" t="s">
         <v>207</v>
       </c>
@@ -30798,8 +30798,8 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="50" customHeight="1">
-      <c r="A108" s="39"/>
-      <c r="B108" s="39"/>
+      <c r="A108" s="42"/>
+      <c r="B108" s="42"/>
       <c r="C108" s="8" t="s">
         <v>209</v>
       </c>
@@ -30815,8 +30815,8 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="50" customHeight="1">
-      <c r="A109" s="39"/>
-      <c r="B109" s="39"/>
+      <c r="A109" s="42"/>
+      <c r="B109" s="42"/>
       <c r="C109" s="8" t="s">
         <v>211</v>
       </c>
@@ -30832,8 +30832,8 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="50" customHeight="1">
-      <c r="A110" s="39"/>
-      <c r="B110" s="39"/>
+      <c r="A110" s="42"/>
+      <c r="B110" s="42"/>
       <c r="C110" s="8" t="s">
         <v>213</v>
       </c>
@@ -30849,8 +30849,8 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="50" customHeight="1">
-      <c r="A111" s="40"/>
-      <c r="B111" s="40"/>
+      <c r="A111" s="43"/>
+      <c r="B111" s="43"/>
       <c r="C111" s="8" t="s">
         <v>215</v>
       </c>
@@ -30866,10 +30866,10 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="50" customHeight="1">
-      <c r="A112" s="38" t="s">
+      <c r="A112" s="41" t="s">
         <v>859</v>
       </c>
-      <c r="B112" s="38" t="s">
+      <c r="B112" s="41" t="s">
         <v>860</v>
       </c>
       <c r="C112" s="8" t="s">
@@ -30887,8 +30887,8 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="50" customHeight="1">
-      <c r="A113" s="39"/>
-      <c r="B113" s="39"/>
+      <c r="A113" s="42"/>
+      <c r="B113" s="42"/>
       <c r="C113" s="8" t="s">
         <v>219</v>
       </c>
@@ -30904,8 +30904,8 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="50" customHeight="1">
-      <c r="A114" s="39"/>
-      <c r="B114" s="40"/>
+      <c r="A114" s="42"/>
+      <c r="B114" s="43"/>
       <c r="C114" s="8" t="s">
         <v>221</v>
       </c>
@@ -30921,8 +30921,8 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="50" customHeight="1">
-      <c r="A115" s="39"/>
-      <c r="B115" s="44" t="s">
+      <c r="A115" s="42"/>
+      <c r="B115" s="38" t="s">
         <v>861</v>
       </c>
       <c r="C115" s="8" t="s">
@@ -30940,8 +30940,8 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="50" customHeight="1">
-      <c r="A116" s="39"/>
-      <c r="B116" s="45"/>
+      <c r="A116" s="42"/>
+      <c r="B116" s="39"/>
       <c r="C116" s="8" t="s">
         <v>225</v>
       </c>
@@ -30957,8 +30957,8 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="50" customHeight="1">
-      <c r="A117" s="39"/>
-      <c r="B117" s="45"/>
+      <c r="A117" s="42"/>
+      <c r="B117" s="39"/>
       <c r="C117" s="8" t="s">
         <v>227</v>
       </c>
@@ -30974,8 +30974,8 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="50" customHeight="1">
-      <c r="A118" s="39"/>
-      <c r="B118" s="45"/>
+      <c r="A118" s="42"/>
+      <c r="B118" s="39"/>
       <c r="C118" s="8" t="s">
         <v>229</v>
       </c>
@@ -30991,8 +30991,8 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="50" customHeight="1">
-      <c r="A119" s="39"/>
-      <c r="B119" s="45"/>
+      <c r="A119" s="42"/>
+      <c r="B119" s="39"/>
       <c r="C119" s="8" t="s">
         <v>231</v>
       </c>
@@ -31008,8 +31008,8 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="50" customHeight="1">
-      <c r="A120" s="39"/>
-      <c r="B120" s="45"/>
+      <c r="A120" s="42"/>
+      <c r="B120" s="39"/>
       <c r="C120" s="8" t="s">
         <v>233</v>
       </c>
@@ -31025,8 +31025,8 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="50" customHeight="1">
-      <c r="A121" s="39"/>
-      <c r="B121" s="45"/>
+      <c r="A121" s="42"/>
+      <c r="B121" s="39"/>
       <c r="C121" s="8" t="s">
         <v>235</v>
       </c>
@@ -31043,7 +31043,7 @@
     </row>
     <row r="122" spans="1:7" ht="50" customHeight="1">
       <c r="A122" s="17"/>
-      <c r="B122" s="45"/>
+      <c r="B122" s="39"/>
       <c r="C122" s="35" t="s">
         <v>917</v>
       </c>
@@ -31057,10 +31057,10 @@
       </c>
     </row>
     <row r="123" spans="1:7" ht="50" customHeight="1">
-      <c r="A123" s="39" t="s">
+      <c r="A123" s="42" t="s">
         <v>865</v>
       </c>
-      <c r="B123" s="39" t="s">
+      <c r="B123" s="42" t="s">
         <v>866</v>
       </c>
       <c r="C123" s="8" t="s">
@@ -31078,8 +31078,8 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="50" customHeight="1">
-      <c r="A124" s="39"/>
-      <c r="B124" s="39"/>
+      <c r="A124" s="42"/>
+      <c r="B124" s="42"/>
       <c r="C124" s="8" t="s">
         <v>239</v>
       </c>
@@ -31095,8 +31095,8 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="50" customHeight="1">
-      <c r="A125" s="39"/>
-      <c r="B125" s="39"/>
+      <c r="A125" s="42"/>
+      <c r="B125" s="42"/>
       <c r="C125" s="8" t="s">
         <v>241</v>
       </c>
@@ -31110,8 +31110,8 @@
       </c>
     </row>
     <row r="126" spans="1:7" ht="50" customHeight="1">
-      <c r="A126" s="39"/>
-      <c r="B126" s="39"/>
+      <c r="A126" s="42"/>
+      <c r="B126" s="42"/>
       <c r="C126" s="8" t="s">
         <v>243</v>
       </c>
@@ -31127,8 +31127,8 @@
       </c>
     </row>
     <row r="127" spans="1:7" ht="50" customHeight="1">
-      <c r="A127" s="39"/>
-      <c r="B127" s="39"/>
+      <c r="A127" s="42"/>
+      <c r="B127" s="42"/>
       <c r="C127" s="8" t="s">
         <v>245</v>
       </c>
@@ -31144,8 +31144,8 @@
       </c>
     </row>
     <row r="128" spans="1:7" ht="50" customHeight="1">
-      <c r="A128" s="39"/>
-      <c r="B128" s="39"/>
+      <c r="A128" s="42"/>
+      <c r="B128" s="42"/>
       <c r="C128" s="8" t="s">
         <v>247</v>
       </c>
@@ -31159,8 +31159,8 @@
       </c>
     </row>
     <row r="129" spans="1:7" ht="50" customHeight="1">
-      <c r="A129" s="39"/>
-      <c r="B129" s="39"/>
+      <c r="A129" s="42"/>
+      <c r="B129" s="42"/>
       <c r="C129" s="8" t="s">
         <v>249</v>
       </c>
@@ -31174,8 +31174,8 @@
       </c>
     </row>
     <row r="130" spans="1:7" ht="50" customHeight="1">
-      <c r="A130" s="39"/>
-      <c r="B130" s="39"/>
+      <c r="A130" s="42"/>
+      <c r="B130" s="42"/>
       <c r="C130" s="8" t="s">
         <v>251</v>
       </c>
@@ -31191,8 +31191,8 @@
       </c>
     </row>
     <row r="131" spans="1:7" ht="50" customHeight="1">
-      <c r="A131" s="39"/>
-      <c r="B131" s="39"/>
+      <c r="A131" s="42"/>
+      <c r="B131" s="42"/>
       <c r="C131" s="8" t="s">
         <v>253</v>
       </c>
@@ -31206,8 +31206,8 @@
       </c>
     </row>
     <row r="132" spans="1:7" ht="50" customHeight="1">
-      <c r="A132" s="39"/>
-      <c r="B132" s="39"/>
+      <c r="A132" s="42"/>
+      <c r="B132" s="42"/>
       <c r="C132" s="8" t="s">
         <v>255</v>
       </c>
@@ -31221,8 +31221,8 @@
       </c>
     </row>
     <row r="133" spans="1:7" ht="50" customHeight="1">
-      <c r="A133" s="39"/>
-      <c r="B133" s="39"/>
+      <c r="A133" s="42"/>
+      <c r="B133" s="42"/>
       <c r="C133" s="8" t="s">
         <v>257</v>
       </c>
@@ -31236,8 +31236,8 @@
       </c>
     </row>
     <row r="134" spans="1:7" ht="50" customHeight="1">
-      <c r="A134" s="39"/>
-      <c r="B134" s="39"/>
+      <c r="A134" s="42"/>
+      <c r="B134" s="42"/>
       <c r="C134" s="8" t="s">
         <v>259</v>
       </c>
@@ -31253,8 +31253,8 @@
       </c>
     </row>
     <row r="135" spans="1:7" ht="50" customHeight="1">
-      <c r="A135" s="39"/>
-      <c r="B135" s="39"/>
+      <c r="A135" s="42"/>
+      <c r="B135" s="42"/>
       <c r="C135" s="8" t="s">
         <v>261</v>
       </c>
@@ -31268,8 +31268,8 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="50" customHeight="1">
-      <c r="A136" s="39"/>
-      <c r="B136" s="39"/>
+      <c r="A136" s="42"/>
+      <c r="B136" s="42"/>
       <c r="C136" s="8" t="s">
         <v>263</v>
       </c>
@@ -31283,8 +31283,8 @@
       </c>
     </row>
     <row r="137" spans="1:7" ht="50" customHeight="1">
-      <c r="A137" s="39"/>
-      <c r="B137" s="40"/>
+      <c r="A137" s="42"/>
+      <c r="B137" s="43"/>
       <c r="C137" s="8" t="s">
         <v>265</v>
       </c>
@@ -31298,8 +31298,8 @@
       </c>
     </row>
     <row r="138" spans="1:7" ht="50" customHeight="1">
-      <c r="A138" s="39"/>
-      <c r="B138" s="38" t="s">
+      <c r="A138" s="42"/>
+      <c r="B138" s="41" t="s">
         <v>867</v>
       </c>
       <c r="C138" s="8" t="s">
@@ -31317,8 +31317,8 @@
       </c>
     </row>
     <row r="139" spans="1:7" ht="50" customHeight="1">
-      <c r="A139" s="39"/>
-      <c r="B139" s="39"/>
+      <c r="A139" s="42"/>
+      <c r="B139" s="42"/>
       <c r="C139" s="8" t="s">
         <v>269</v>
       </c>
@@ -31334,8 +31334,8 @@
       </c>
     </row>
     <row r="140" spans="1:7" ht="50" customHeight="1">
-      <c r="A140" s="39"/>
-      <c r="B140" s="39"/>
+      <c r="A140" s="42"/>
+      <c r="B140" s="42"/>
       <c r="C140" s="8" t="s">
         <v>271</v>
       </c>
@@ -31351,8 +31351,8 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="50" customHeight="1">
-      <c r="A141" s="39"/>
-      <c r="B141" s="39"/>
+      <c r="A141" s="42"/>
+      <c r="B141" s="42"/>
       <c r="C141" s="8" t="s">
         <v>273</v>
       </c>
@@ -31366,8 +31366,8 @@
       </c>
     </row>
     <row r="142" spans="1:7" ht="50" customHeight="1">
-      <c r="A142" s="39"/>
-      <c r="B142" s="39"/>
+      <c r="A142" s="42"/>
+      <c r="B142" s="42"/>
       <c r="C142" s="8" t="s">
         <v>275</v>
       </c>
@@ -31381,8 +31381,8 @@
       </c>
     </row>
     <row r="143" spans="1:7" ht="50" customHeight="1">
-      <c r="A143" s="39"/>
-      <c r="B143" s="39"/>
+      <c r="A143" s="42"/>
+      <c r="B143" s="42"/>
       <c r="C143" s="8" t="s">
         <v>277</v>
       </c>
@@ -31396,8 +31396,8 @@
       </c>
     </row>
     <row r="144" spans="1:7" ht="50" customHeight="1">
-      <c r="A144" s="39"/>
-      <c r="B144" s="39"/>
+      <c r="A144" s="42"/>
+      <c r="B144" s="42"/>
       <c r="C144" s="8" t="s">
         <v>279</v>
       </c>
@@ -31413,8 +31413,8 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="50" customHeight="1">
-      <c r="A145" s="39"/>
-      <c r="B145" s="39"/>
+      <c r="A145" s="42"/>
+      <c r="B145" s="42"/>
       <c r="C145" s="8" t="s">
         <v>281</v>
       </c>
@@ -31430,8 +31430,8 @@
       </c>
     </row>
     <row r="146" spans="1:7" ht="50" customHeight="1">
-      <c r="A146" s="40"/>
-      <c r="B146" s="40"/>
+      <c r="A146" s="43"/>
+      <c r="B146" s="43"/>
       <c r="C146" s="8" t="s">
         <v>283</v>
       </c>
@@ -31444,7 +31444,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" ht="50" customHeight="1">
-      <c r="A147" s="38" t="s">
+      <c r="A147" s="41" t="s">
         <v>868</v>
       </c>
       <c r="B147" s="14" t="s">
@@ -31465,7 +31465,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" ht="50" customHeight="1">
-      <c r="A148" s="39"/>
+      <c r="A148" s="42"/>
       <c r="B148" s="14" t="s">
         <v>880</v>
       </c>
@@ -31484,7 +31484,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" ht="50" customHeight="1">
-      <c r="A149" s="39"/>
+      <c r="A149" s="42"/>
       <c r="B149" s="14" t="s">
         <v>881</v>
       </c>
@@ -31503,8 +31503,8 @@
       </c>
     </row>
     <row r="150" spans="1:7" ht="50" customHeight="1">
-      <c r="A150" s="39"/>
-      <c r="B150" s="41" t="s">
+      <c r="A150" s="42"/>
+      <c r="B150" s="46" t="s">
         <v>882</v>
       </c>
       <c r="C150" s="8" t="s">
@@ -31520,8 +31520,8 @@
       </c>
     </row>
     <row r="151" spans="1:7" ht="50" customHeight="1">
-      <c r="A151" s="39"/>
-      <c r="B151" s="42"/>
+      <c r="A151" s="42"/>
+      <c r="B151" s="47"/>
       <c r="C151" s="8" t="s">
         <v>293</v>
       </c>
@@ -31537,8 +31537,8 @@
       </c>
     </row>
     <row r="152" spans="1:7" ht="50" customHeight="1">
-      <c r="A152" s="39"/>
-      <c r="B152" s="42"/>
+      <c r="A152" s="42"/>
+      <c r="B152" s="47"/>
       <c r="C152" s="8" t="s">
         <v>295</v>
       </c>
@@ -31552,8 +31552,8 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="50" customHeight="1">
-      <c r="A153" s="39"/>
-      <c r="B153" s="42"/>
+      <c r="A153" s="42"/>
+      <c r="B153" s="47"/>
       <c r="C153" s="8" t="s">
         <v>297</v>
       </c>
@@ -31567,8 +31567,8 @@
       </c>
     </row>
     <row r="154" spans="1:7" ht="50" customHeight="1">
-      <c r="A154" s="39"/>
-      <c r="B154" s="42"/>
+      <c r="A154" s="42"/>
+      <c r="B154" s="47"/>
       <c r="C154" s="8" t="s">
         <v>299</v>
       </c>
@@ -31582,8 +31582,8 @@
       </c>
     </row>
     <row r="155" spans="1:7" ht="50" customHeight="1">
-      <c r="A155" s="39"/>
-      <c r="B155" s="42"/>
+      <c r="A155" s="42"/>
+      <c r="B155" s="47"/>
       <c r="C155" s="8" t="s">
         <v>301</v>
       </c>
@@ -31597,8 +31597,8 @@
       </c>
     </row>
     <row r="156" spans="1:7" ht="50" customHeight="1">
-      <c r="A156" s="39"/>
-      <c r="B156" s="42"/>
+      <c r="A156" s="42"/>
+      <c r="B156" s="47"/>
       <c r="C156" s="35" t="s">
         <v>915</v>
       </c>
@@ -31612,8 +31612,8 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="50" customHeight="1">
-      <c r="A157" s="39"/>
-      <c r="B157" s="42"/>
+      <c r="A157" s="42"/>
+      <c r="B157" s="47"/>
       <c r="C157" s="8" t="s">
         <v>303</v>
       </c>
@@ -31627,8 +31627,8 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="50" customHeight="1">
-      <c r="A158" s="39"/>
-      <c r="B158" s="43"/>
+      <c r="A158" s="42"/>
+      <c r="B158" s="48"/>
       <c r="C158" s="8" t="s">
         <v>305</v>
       </c>
@@ -31644,8 +31644,8 @@
       </c>
     </row>
     <row r="159" spans="1:7" ht="50" customHeight="1">
-      <c r="A159" s="39"/>
-      <c r="B159" s="38" t="s">
+      <c r="A159" s="42"/>
+      <c r="B159" s="41" t="s">
         <v>883</v>
       </c>
       <c r="C159" s="8" t="s">
@@ -31663,8 +31663,8 @@
       </c>
     </row>
     <row r="160" spans="1:7" ht="50" customHeight="1">
-      <c r="A160" s="39"/>
-      <c r="B160" s="39"/>
+      <c r="A160" s="42"/>
+      <c r="B160" s="42"/>
       <c r="C160" s="8" t="s">
         <v>309</v>
       </c>
@@ -31680,8 +31680,8 @@
       </c>
     </row>
     <row r="161" spans="1:7" ht="50" customHeight="1">
-      <c r="A161" s="39"/>
-      <c r="B161" s="40"/>
+      <c r="A161" s="42"/>
+      <c r="B161" s="43"/>
       <c r="C161" s="8" t="s">
         <v>311</v>
       </c>
@@ -31697,8 +31697,8 @@
       </c>
     </row>
     <row r="162" spans="1:7" ht="50" customHeight="1">
-      <c r="A162" s="39"/>
-      <c r="B162" s="38" t="s">
+      <c r="A162" s="42"/>
+      <c r="B162" s="41" t="s">
         <v>884</v>
       </c>
       <c r="C162" s="8" t="s">
@@ -31714,8 +31714,8 @@
       </c>
     </row>
     <row r="163" spans="1:7" ht="50" customHeight="1">
-      <c r="A163" s="39"/>
-      <c r="B163" s="39"/>
+      <c r="A163" s="42"/>
+      <c r="B163" s="42"/>
       <c r="C163" s="8" t="s">
         <v>315</v>
       </c>
@@ -31729,8 +31729,8 @@
       </c>
     </row>
     <row r="164" spans="1:7" ht="50" customHeight="1">
-      <c r="A164" s="39"/>
-      <c r="B164" s="39"/>
+      <c r="A164" s="42"/>
+      <c r="B164" s="42"/>
       <c r="C164" s="8" t="s">
         <v>317</v>
       </c>
@@ -31744,8 +31744,8 @@
       </c>
     </row>
     <row r="165" spans="1:7" ht="50" customHeight="1">
-      <c r="A165" s="39"/>
-      <c r="B165" s="39"/>
+      <c r="A165" s="42"/>
+      <c r="B165" s="42"/>
       <c r="C165" s="8" t="s">
         <v>319</v>
       </c>
@@ -31759,8 +31759,8 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="50" customHeight="1">
-      <c r="A166" s="39"/>
-      <c r="B166" s="40"/>
+      <c r="A166" s="42"/>
+      <c r="B166" s="43"/>
       <c r="C166" s="13" t="s">
         <v>321</v>
       </c>
@@ -31772,8 +31772,8 @@
       </c>
     </row>
     <row r="167" spans="1:7" ht="50" customHeight="1">
-      <c r="A167" s="39"/>
-      <c r="B167" s="38" t="s">
+      <c r="A167" s="42"/>
+      <c r="B167" s="41" t="s">
         <v>885</v>
       </c>
       <c r="C167" s="8" t="s">
@@ -31789,8 +31789,8 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="50" customHeight="1">
-      <c r="A168" s="39"/>
-      <c r="B168" s="39"/>
+      <c r="A168" s="42"/>
+      <c r="B168" s="42"/>
       <c r="C168" s="8" t="s">
         <v>325</v>
       </c>
@@ -31804,8 +31804,8 @@
       </c>
     </row>
     <row r="169" spans="1:7" ht="50" customHeight="1">
-      <c r="A169" s="39"/>
-      <c r="B169" s="39"/>
+      <c r="A169" s="42"/>
+      <c r="B169" s="42"/>
       <c r="C169" s="8" t="s">
         <v>326</v>
       </c>
@@ -31819,8 +31819,8 @@
       </c>
     </row>
     <row r="170" spans="1:7" ht="50" customHeight="1">
-      <c r="A170" s="39"/>
-      <c r="B170" s="39"/>
+      <c r="A170" s="42"/>
+      <c r="B170" s="42"/>
       <c r="C170" s="8" t="s">
         <v>328</v>
       </c>
@@ -31834,8 +31834,8 @@
       </c>
     </row>
     <row r="171" spans="1:7" ht="50" customHeight="1">
-      <c r="A171" s="39"/>
-      <c r="B171" s="39"/>
+      <c r="A171" s="42"/>
+      <c r="B171" s="42"/>
       <c r="C171" s="8" t="s">
         <v>330</v>
       </c>
@@ -31849,8 +31849,8 @@
       </c>
     </row>
     <row r="172" spans="1:7" ht="50" customHeight="1">
-      <c r="A172" s="39"/>
-      <c r="B172" s="39"/>
+      <c r="A172" s="42"/>
+      <c r="B172" s="42"/>
       <c r="C172" s="8" t="s">
         <v>332</v>
       </c>
@@ -31864,8 +31864,8 @@
       </c>
     </row>
     <row r="173" spans="1:7" ht="50" customHeight="1">
-      <c r="A173" s="39"/>
-      <c r="B173" s="39"/>
+      <c r="A173" s="42"/>
+      <c r="B173" s="42"/>
       <c r="C173" s="8" t="s">
         <v>334</v>
       </c>
@@ -31879,8 +31879,8 @@
       </c>
     </row>
     <row r="174" spans="1:7" ht="50" customHeight="1">
-      <c r="A174" s="39"/>
-      <c r="B174" s="39"/>
+      <c r="A174" s="42"/>
+      <c r="B174" s="42"/>
       <c r="C174" s="8" t="s">
         <v>336</v>
       </c>
@@ -31894,8 +31894,8 @@
       </c>
     </row>
     <row r="175" spans="1:7" ht="50" customHeight="1">
-      <c r="A175" s="39"/>
-      <c r="B175" s="39"/>
+      <c r="A175" s="42"/>
+      <c r="B175" s="42"/>
       <c r="C175" s="8" t="s">
         <v>338</v>
       </c>
@@ -31909,8 +31909,8 @@
       </c>
     </row>
     <row r="176" spans="1:7" ht="50" customHeight="1">
-      <c r="A176" s="39"/>
-      <c r="B176" s="39"/>
+      <c r="A176" s="42"/>
+      <c r="B176" s="42"/>
       <c r="C176" s="8" t="s">
         <v>340</v>
       </c>
@@ -31924,8 +31924,8 @@
       </c>
     </row>
     <row r="177" spans="1:7" ht="50" customHeight="1">
-      <c r="A177" s="39"/>
-      <c r="B177" s="40"/>
+      <c r="A177" s="42"/>
+      <c r="B177" s="43"/>
       <c r="C177" s="8" t="s">
         <v>342</v>
       </c>
@@ -31939,8 +31939,8 @@
       </c>
     </row>
     <row r="178" spans="1:7" ht="50" customHeight="1">
-      <c r="A178" s="39"/>
-      <c r="B178" s="38" t="s">
+      <c r="A178" s="42"/>
+      <c r="B178" s="41" t="s">
         <v>886</v>
       </c>
       <c r="C178" s="8" t="s">
@@ -31958,8 +31958,8 @@
       </c>
     </row>
     <row r="179" spans="1:7" ht="50" customHeight="1">
-      <c r="A179" s="39"/>
-      <c r="B179" s="40"/>
+      <c r="A179" s="42"/>
+      <c r="B179" s="43"/>
       <c r="C179" s="8" t="s">
         <v>346</v>
       </c>
@@ -31975,8 +31975,8 @@
       </c>
     </row>
     <row r="180" spans="1:7" ht="50" customHeight="1">
-      <c r="A180" s="39"/>
-      <c r="B180" s="38" t="s">
+      <c r="A180" s="42"/>
+      <c r="B180" s="41" t="s">
         <v>887</v>
       </c>
       <c r="C180" s="8" t="s">
@@ -31992,8 +31992,8 @@
       </c>
     </row>
     <row r="181" spans="1:7" ht="50" customHeight="1">
-      <c r="A181" s="39"/>
-      <c r="B181" s="39"/>
+      <c r="A181" s="42"/>
+      <c r="B181" s="42"/>
       <c r="C181" s="8" t="s">
         <v>350</v>
       </c>
@@ -32007,8 +32007,8 @@
       </c>
     </row>
     <row r="182" spans="1:7" ht="50" customHeight="1">
-      <c r="A182" s="39"/>
-      <c r="B182" s="39"/>
+      <c r="A182" s="42"/>
+      <c r="B182" s="42"/>
       <c r="C182" s="8" t="s">
         <v>352</v>
       </c>
@@ -32022,8 +32022,8 @@
       </c>
     </row>
     <row r="183" spans="1:7" ht="50" customHeight="1">
-      <c r="A183" s="39"/>
-      <c r="B183" s="39"/>
+      <c r="A183" s="42"/>
+      <c r="B183" s="42"/>
       <c r="C183" s="8" t="s">
         <v>354</v>
       </c>
@@ -32037,8 +32037,8 @@
       </c>
     </row>
     <row r="184" spans="1:7" ht="50" customHeight="1">
-      <c r="A184" s="39"/>
-      <c r="B184" s="39"/>
+      <c r="A184" s="42"/>
+      <c r="B184" s="42"/>
       <c r="C184" s="8" t="s">
         <v>356</v>
       </c>
@@ -32052,8 +32052,8 @@
       </c>
     </row>
     <row r="185" spans="1:7" ht="50" customHeight="1">
-      <c r="A185" s="39"/>
-      <c r="B185" s="40"/>
+      <c r="A185" s="42"/>
+      <c r="B185" s="43"/>
       <c r="C185" s="8" t="s">
         <v>358</v>
       </c>
@@ -32067,8 +32067,8 @@
       </c>
     </row>
     <row r="186" spans="1:7" ht="50" customHeight="1">
-      <c r="A186" s="39"/>
-      <c r="B186" s="38" t="s">
+      <c r="A186" s="42"/>
+      <c r="B186" s="41" t="s">
         <v>888</v>
       </c>
       <c r="C186" s="8" t="s">
@@ -32086,8 +32086,8 @@
       </c>
     </row>
     <row r="187" spans="1:7" ht="50" customHeight="1">
-      <c r="A187" s="39"/>
-      <c r="B187" s="39"/>
+      <c r="A187" s="42"/>
+      <c r="B187" s="42"/>
       <c r="C187" s="8" t="s">
         <v>362</v>
       </c>
@@ -32101,8 +32101,8 @@
       </c>
     </row>
     <row r="188" spans="1:7" ht="50" customHeight="1">
-      <c r="A188" s="39"/>
-      <c r="B188" s="39"/>
+      <c r="A188" s="42"/>
+      <c r="B188" s="42"/>
       <c r="C188" s="8" t="s">
         <v>364</v>
       </c>
@@ -32118,8 +32118,8 @@
       </c>
     </row>
     <row r="189" spans="1:7" ht="50" customHeight="1">
-      <c r="A189" s="39"/>
-      <c r="B189" s="39"/>
+      <c r="A189" s="42"/>
+      <c r="B189" s="42"/>
       <c r="C189" s="8" t="s">
         <v>366</v>
       </c>
@@ -32135,8 +32135,8 @@
       </c>
     </row>
     <row r="190" spans="1:7" ht="50" customHeight="1">
-      <c r="A190" s="39"/>
-      <c r="B190" s="39"/>
+      <c r="A190" s="42"/>
+      <c r="B190" s="42"/>
       <c r="C190" s="8" t="s">
         <v>368</v>
       </c>
@@ -32150,8 +32150,8 @@
       </c>
     </row>
     <row r="191" spans="1:7" ht="50" customHeight="1">
-      <c r="A191" s="39"/>
-      <c r="B191" s="39"/>
+      <c r="A191" s="42"/>
+      <c r="B191" s="42"/>
       <c r="C191" s="8" t="s">
         <v>370</v>
       </c>
@@ -32167,8 +32167,8 @@
       </c>
     </row>
     <row r="192" spans="1:7" ht="50" customHeight="1">
-      <c r="A192" s="39"/>
-      <c r="B192" s="39"/>
+      <c r="A192" s="42"/>
+      <c r="B192" s="42"/>
       <c r="C192" s="8" t="s">
         <v>372</v>
       </c>
@@ -32184,8 +32184,8 @@
       </c>
     </row>
     <row r="193" spans="1:16384" ht="50" customHeight="1">
-      <c r="A193" s="39"/>
-      <c r="B193" s="39"/>
+      <c r="A193" s="42"/>
+      <c r="B193" s="42"/>
       <c r="C193" s="8" t="s">
         <v>374</v>
       </c>
@@ -32201,8 +32201,8 @@
       </c>
     </row>
     <row r="194" spans="1:16384" ht="50" customHeight="1">
-      <c r="A194" s="39"/>
-      <c r="B194" s="39"/>
+      <c r="A194" s="42"/>
+      <c r="B194" s="42"/>
       <c r="C194" s="8" t="s">
         <v>376</v>
       </c>
@@ -32216,8 +32216,8 @@
       </c>
     </row>
     <row r="195" spans="1:16384" ht="50" customHeight="1">
-      <c r="A195" s="39"/>
-      <c r="B195" s="39"/>
+      <c r="A195" s="42"/>
+      <c r="B195" s="42"/>
       <c r="C195" s="8" t="s">
         <v>378</v>
       </c>
@@ -32233,8 +32233,8 @@
       </c>
     </row>
     <row r="196" spans="1:16384" ht="50" customHeight="1">
-      <c r="A196" s="39"/>
-      <c r="B196" s="39"/>
+      <c r="A196" s="42"/>
+      <c r="B196" s="42"/>
       <c r="C196" s="8" t="s">
         <v>380</v>
       </c>
@@ -32248,8 +32248,8 @@
       </c>
     </row>
     <row r="197" spans="1:16384" ht="50" customHeight="1">
-      <c r="A197" s="39"/>
-      <c r="B197" s="39"/>
+      <c r="A197" s="42"/>
+      <c r="B197" s="42"/>
       <c r="C197" s="8" t="s">
         <v>382</v>
       </c>
@@ -32263,8 +32263,8 @@
       </c>
     </row>
     <row r="198" spans="1:16384" ht="50" customHeight="1">
-      <c r="A198" s="39"/>
-      <c r="B198" s="39"/>
+      <c r="A198" s="42"/>
+      <c r="B198" s="42"/>
       <c r="C198" s="8" t="s">
         <v>384</v>
       </c>
@@ -32278,8 +32278,8 @@
       </c>
     </row>
     <row r="199" spans="1:16384" ht="50" customHeight="1">
-      <c r="A199" s="39"/>
-      <c r="B199" s="39"/>
+      <c r="A199" s="42"/>
+      <c r="B199" s="42"/>
       <c r="C199" s="35" t="s">
         <v>911</v>
       </c>
@@ -32293,8 +32293,8 @@
       </c>
     </row>
     <row r="200" spans="1:16384" ht="50" customHeight="1">
-      <c r="A200" s="39"/>
-      <c r="B200" s="39"/>
+      <c r="A200" s="42"/>
+      <c r="B200" s="42"/>
       <c r="C200" s="35" t="s">
         <v>913</v>
       </c>
@@ -48685,8 +48685,8 @@
       <c r="XFD200" s="35"/>
     </row>
     <row r="201" spans="1:16384" ht="50" customHeight="1">
-      <c r="A201" s="39"/>
-      <c r="B201" s="39"/>
+      <c r="A201" s="42"/>
+      <c r="B201" s="42"/>
       <c r="C201" s="8" t="s">
         <v>386</v>
       </c>
@@ -48700,8 +48700,8 @@
       </c>
     </row>
     <row r="202" spans="1:16384" ht="50" customHeight="1">
-      <c r="A202" s="39"/>
-      <c r="B202" s="39"/>
+      <c r="A202" s="42"/>
+      <c r="B202" s="42"/>
       <c r="C202" s="8" t="s">
         <v>388</v>
       </c>
@@ -48717,8 +48717,8 @@
       </c>
     </row>
     <row r="203" spans="1:16384" ht="50" customHeight="1">
-      <c r="A203" s="39"/>
-      <c r="B203" s="39"/>
+      <c r="A203" s="42"/>
+      <c r="B203" s="42"/>
       <c r="C203" s="8" t="s">
         <v>390</v>
       </c>
@@ -48732,8 +48732,8 @@
       </c>
     </row>
     <row r="204" spans="1:16384" ht="50" customHeight="1">
-      <c r="A204" s="39"/>
-      <c r="B204" s="39"/>
+      <c r="A204" s="42"/>
+      <c r="B204" s="42"/>
       <c r="C204" s="8" t="s">
         <v>392</v>
       </c>
@@ -48749,8 +48749,8 @@
       </c>
     </row>
     <row r="205" spans="1:16384" ht="50" customHeight="1">
-      <c r="A205" s="39"/>
-      <c r="B205" s="39"/>
+      <c r="A205" s="42"/>
+      <c r="B205" s="42"/>
       <c r="C205" s="8" t="s">
         <v>394</v>
       </c>
@@ -48764,8 +48764,8 @@
       </c>
     </row>
     <row r="206" spans="1:16384" ht="50" customHeight="1">
-      <c r="A206" s="39"/>
-      <c r="B206" s="39"/>
+      <c r="A206" s="42"/>
+      <c r="B206" s="42"/>
       <c r="C206" s="8" t="s">
         <v>396</v>
       </c>
@@ -48779,8 +48779,8 @@
       </c>
     </row>
     <row r="207" spans="1:16384" ht="50" customHeight="1">
-      <c r="A207" s="39"/>
-      <c r="B207" s="39"/>
+      <c r="A207" s="42"/>
+      <c r="B207" s="42"/>
       <c r="C207" s="8" t="s">
         <v>398</v>
       </c>
@@ -48794,8 +48794,8 @@
       </c>
     </row>
     <row r="208" spans="1:16384" ht="50" customHeight="1">
-      <c r="A208" s="39"/>
-      <c r="B208" s="39"/>
+      <c r="A208" s="42"/>
+      <c r="B208" s="42"/>
       <c r="C208" s="8" t="s">
         <v>400</v>
       </c>
@@ -48809,8 +48809,8 @@
       </c>
     </row>
     <row r="209" spans="1:7" ht="50" customHeight="1">
-      <c r="A209" s="39"/>
-      <c r="B209" s="39"/>
+      <c r="A209" s="42"/>
+      <c r="B209" s="42"/>
       <c r="C209" s="8" t="s">
         <v>402</v>
       </c>
@@ -48824,8 +48824,8 @@
       </c>
     </row>
     <row r="210" spans="1:7" ht="50" customHeight="1">
-      <c r="A210" s="39"/>
-      <c r="B210" s="39"/>
+      <c r="A210" s="42"/>
+      <c r="B210" s="42"/>
       <c r="C210" s="8" t="s">
         <v>404</v>
       </c>
@@ -48839,8 +48839,8 @@
       </c>
     </row>
     <row r="211" spans="1:7" ht="50" customHeight="1">
-      <c r="A211" s="39"/>
-      <c r="B211" s="39"/>
+      <c r="A211" s="42"/>
+      <c r="B211" s="42"/>
       <c r="C211" s="8" t="s">
         <v>406</v>
       </c>
@@ -48854,8 +48854,8 @@
       </c>
     </row>
     <row r="212" spans="1:7" ht="50" customHeight="1">
-      <c r="A212" s="39"/>
-      <c r="B212" s="39"/>
+      <c r="A212" s="42"/>
+      <c r="B212" s="42"/>
       <c r="C212" s="8" t="s">
         <v>408</v>
       </c>
@@ -48869,8 +48869,8 @@
       </c>
     </row>
     <row r="213" spans="1:7" ht="50" customHeight="1">
-      <c r="A213" s="39"/>
-      <c r="B213" s="39"/>
+      <c r="A213" s="42"/>
+      <c r="B213" s="42"/>
       <c r="C213" s="8" t="s">
         <v>410</v>
       </c>
@@ -48884,8 +48884,8 @@
       </c>
     </row>
     <row r="214" spans="1:7" ht="50" customHeight="1">
-      <c r="A214" s="39"/>
-      <c r="B214" s="39"/>
+      <c r="A214" s="42"/>
+      <c r="B214" s="42"/>
       <c r="C214" s="8" t="s">
         <v>412</v>
       </c>
@@ -48899,8 +48899,8 @@
       </c>
     </row>
     <row r="215" spans="1:7" ht="50" customHeight="1">
-      <c r="A215" s="39"/>
-      <c r="B215" s="39"/>
+      <c r="A215" s="42"/>
+      <c r="B215" s="42"/>
       <c r="C215" s="8" t="s">
         <v>414</v>
       </c>
@@ -48914,8 +48914,8 @@
       </c>
     </row>
     <row r="216" spans="1:7" ht="50" customHeight="1">
-      <c r="A216" s="39"/>
-      <c r="B216" s="39"/>
+      <c r="A216" s="42"/>
+      <c r="B216" s="42"/>
       <c r="C216" s="8" t="s">
         <v>416</v>
       </c>
@@ -48929,8 +48929,8 @@
       </c>
     </row>
     <row r="217" spans="1:7" ht="50" customHeight="1">
-      <c r="A217" s="39"/>
-      <c r="B217" s="39"/>
+      <c r="A217" s="42"/>
+      <c r="B217" s="42"/>
       <c r="C217" s="8" t="s">
         <v>418</v>
       </c>
@@ -48944,8 +48944,8 @@
       </c>
     </row>
     <row r="218" spans="1:7" ht="50" customHeight="1">
-      <c r="A218" s="39"/>
-      <c r="B218" s="39"/>
+      <c r="A218" s="42"/>
+      <c r="B218" s="42"/>
       <c r="C218" s="8" t="s">
         <v>420</v>
       </c>
@@ -48959,8 +48959,8 @@
       </c>
     </row>
     <row r="219" spans="1:7" ht="50" customHeight="1">
-      <c r="A219" s="39"/>
-      <c r="B219" s="39"/>
+      <c r="A219" s="42"/>
+      <c r="B219" s="42"/>
       <c r="C219" s="8" t="s">
         <v>422</v>
       </c>
@@ -48974,8 +48974,8 @@
       </c>
     </row>
     <row r="220" spans="1:7" ht="50" customHeight="1">
-      <c r="A220" s="39"/>
-      <c r="B220" s="39"/>
+      <c r="A220" s="42"/>
+      <c r="B220" s="42"/>
       <c r="C220" s="8" t="s">
         <v>424</v>
       </c>
@@ -48989,8 +48989,8 @@
       </c>
     </row>
     <row r="221" spans="1:7" ht="50" customHeight="1">
-      <c r="A221" s="39"/>
-      <c r="B221" s="39"/>
+      <c r="A221" s="42"/>
+      <c r="B221" s="42"/>
       <c r="C221" s="8" t="s">
         <v>426</v>
       </c>
@@ -49004,8 +49004,8 @@
       </c>
     </row>
     <row r="222" spans="1:7" ht="50" customHeight="1">
-      <c r="A222" s="39"/>
-      <c r="B222" s="40"/>
+      <c r="A222" s="42"/>
+      <c r="B222" s="43"/>
       <c r="C222" s="8" t="s">
         <v>428</v>
       </c>
@@ -49019,8 +49019,8 @@
       </c>
     </row>
     <row r="223" spans="1:7" ht="50" customHeight="1">
-      <c r="A223" s="39"/>
-      <c r="B223" s="38" t="s">
+      <c r="A223" s="42"/>
+      <c r="B223" s="41" t="s">
         <v>889</v>
       </c>
       <c r="C223" s="13" t="s">
@@ -49034,8 +49034,8 @@
       </c>
     </row>
     <row r="224" spans="1:7" ht="50" customHeight="1">
-      <c r="A224" s="39"/>
-      <c r="B224" s="39"/>
+      <c r="A224" s="42"/>
+      <c r="B224" s="42"/>
       <c r="C224" s="13" t="s">
         <v>432</v>
       </c>
@@ -49050,8 +49050,8 @@
       </c>
     </row>
     <row r="225" spans="1:7" ht="50" customHeight="1">
-      <c r="A225" s="39"/>
-      <c r="B225" s="39"/>
+      <c r="A225" s="42"/>
+      <c r="B225" s="42"/>
       <c r="C225" s="13" t="s">
         <v>434</v>
       </c>
@@ -49063,8 +49063,8 @@
       </c>
     </row>
     <row r="226" spans="1:7" ht="50" customHeight="1">
-      <c r="A226" s="40"/>
-      <c r="B226" s="40"/>
+      <c r="A226" s="43"/>
+      <c r="B226" s="43"/>
       <c r="C226" s="13" t="s">
         <v>436</v>
       </c>
@@ -49076,7 +49076,7 @@
       </c>
     </row>
     <row r="227" spans="1:7" ht="50" customHeight="1">
-      <c r="A227" s="38" t="s">
+      <c r="A227" s="41" t="s">
         <v>870</v>
       </c>
       <c r="B227" s="14" t="s">
@@ -49097,7 +49097,7 @@
       </c>
     </row>
     <row r="228" spans="1:7" ht="50" customHeight="1">
-      <c r="A228" s="39"/>
+      <c r="A228" s="42"/>
       <c r="B228" s="14" t="s">
         <v>892</v>
       </c>
@@ -49116,8 +49116,8 @@
       </c>
     </row>
     <row r="229" spans="1:7" ht="50" customHeight="1">
-      <c r="A229" s="39"/>
-      <c r="B229" s="38" t="s">
+      <c r="A229" s="42"/>
+      <c r="B229" s="41" t="s">
         <v>893</v>
       </c>
       <c r="C229" s="8" t="s">
@@ -49135,8 +49135,8 @@
       </c>
     </row>
     <row r="230" spans="1:7" ht="50" customHeight="1">
-      <c r="A230" s="39"/>
-      <c r="B230" s="40"/>
+      <c r="A230" s="42"/>
+      <c r="B230" s="43"/>
       <c r="C230" s="8" t="s">
         <v>444</v>
       </c>
@@ -49152,8 +49152,8 @@
       </c>
     </row>
     <row r="231" spans="1:7" ht="50" customHeight="1">
-      <c r="A231" s="39"/>
-      <c r="B231" s="38" t="s">
+      <c r="A231" s="42"/>
+      <c r="B231" s="41" t="s">
         <v>894</v>
       </c>
       <c r="C231" s="8" t="s">
@@ -49169,8 +49169,8 @@
       </c>
     </row>
     <row r="232" spans="1:7" ht="50" customHeight="1">
-      <c r="A232" s="39"/>
-      <c r="B232" s="40"/>
+      <c r="A232" s="42"/>
+      <c r="B232" s="43"/>
       <c r="C232" s="8" t="s">
         <v>448</v>
       </c>
@@ -49184,8 +49184,8 @@
       </c>
     </row>
     <row r="233" spans="1:7" ht="50" customHeight="1">
-      <c r="A233" s="39"/>
-      <c r="B233" s="38" t="s">
+      <c r="A233" s="42"/>
+      <c r="B233" s="41" t="s">
         <v>895</v>
       </c>
       <c r="C233" s="8" t="s">
@@ -49201,8 +49201,8 @@
       </c>
     </row>
     <row r="234" spans="1:7" ht="50" customHeight="1">
-      <c r="A234" s="39"/>
-      <c r="B234" s="39"/>
+      <c r="A234" s="42"/>
+      <c r="B234" s="42"/>
       <c r="C234" s="8" t="s">
         <v>452</v>
       </c>
@@ -49216,8 +49216,8 @@
       </c>
     </row>
     <row r="235" spans="1:7" ht="50" customHeight="1">
-      <c r="A235" s="39"/>
-      <c r="B235" s="39"/>
+      <c r="A235" s="42"/>
+      <c r="B235" s="42"/>
       <c r="C235" s="8" t="s">
         <v>454</v>
       </c>
@@ -49231,8 +49231,8 @@
       </c>
     </row>
     <row r="236" spans="1:7" ht="50" customHeight="1">
-      <c r="A236" s="39"/>
-      <c r="B236" s="39"/>
+      <c r="A236" s="42"/>
+      <c r="B236" s="42"/>
       <c r="C236" s="8" t="s">
         <v>456</v>
       </c>
@@ -49246,8 +49246,8 @@
       </c>
     </row>
     <row r="237" spans="1:7" ht="50" customHeight="1">
-      <c r="A237" s="39"/>
-      <c r="B237" s="39"/>
+      <c r="A237" s="42"/>
+      <c r="B237" s="42"/>
       <c r="C237" s="8" t="s">
         <v>458</v>
       </c>
@@ -49261,8 +49261,8 @@
       </c>
     </row>
     <row r="238" spans="1:7" ht="50" customHeight="1">
-      <c r="A238" s="39"/>
-      <c r="B238" s="39"/>
+      <c r="A238" s="42"/>
+      <c r="B238" s="42"/>
       <c r="C238" s="8" t="s">
         <v>460</v>
       </c>
@@ -49276,8 +49276,8 @@
       </c>
     </row>
     <row r="239" spans="1:7" ht="50" customHeight="1">
-      <c r="A239" s="39"/>
-      <c r="B239" s="39"/>
+      <c r="A239" s="42"/>
+      <c r="B239" s="42"/>
       <c r="C239" s="8" t="s">
         <v>462</v>
       </c>
@@ -49291,8 +49291,8 @@
       </c>
     </row>
     <row r="240" spans="1:7" ht="50" customHeight="1">
-      <c r="A240" s="39"/>
-      <c r="B240" s="39"/>
+      <c r="A240" s="42"/>
+      <c r="B240" s="42"/>
       <c r="C240" s="8" t="s">
         <v>464</v>
       </c>
@@ -49306,8 +49306,8 @@
       </c>
     </row>
     <row r="241" spans="1:7" ht="50" customHeight="1">
-      <c r="A241" s="39"/>
-      <c r="B241" s="39"/>
+      <c r="A241" s="42"/>
+      <c r="B241" s="42"/>
       <c r="C241" s="8" t="s">
         <v>466</v>
       </c>
@@ -49321,8 +49321,8 @@
       </c>
     </row>
     <row r="242" spans="1:7" ht="50" customHeight="1">
-      <c r="A242" s="39"/>
-      <c r="B242" s="39"/>
+      <c r="A242" s="42"/>
+      <c r="B242" s="42"/>
       <c r="C242" s="8" t="s">
         <v>468</v>
       </c>
@@ -49336,8 +49336,8 @@
       </c>
     </row>
     <row r="243" spans="1:7" ht="50" customHeight="1">
-      <c r="A243" s="39"/>
-      <c r="B243" s="39"/>
+      <c r="A243" s="42"/>
+      <c r="B243" s="42"/>
       <c r="C243" s="8" t="s">
         <v>470</v>
       </c>
@@ -49351,8 +49351,8 @@
       </c>
     </row>
     <row r="244" spans="1:7" ht="50" customHeight="1">
-      <c r="A244" s="39"/>
-      <c r="B244" s="39"/>
+      <c r="A244" s="42"/>
+      <c r="B244" s="42"/>
       <c r="C244" s="8" t="s">
         <v>472</v>
       </c>
@@ -49366,8 +49366,8 @@
       </c>
     </row>
     <row r="245" spans="1:7" ht="50" customHeight="1">
-      <c r="A245" s="39"/>
-      <c r="B245" s="39"/>
+      <c r="A245" s="42"/>
+      <c r="B245" s="42"/>
       <c r="C245" s="8" t="s">
         <v>474</v>
       </c>
@@ -49381,8 +49381,8 @@
       </c>
     </row>
     <row r="246" spans="1:7" ht="50" customHeight="1">
-      <c r="A246" s="39"/>
-      <c r="B246" s="39"/>
+      <c r="A246" s="42"/>
+      <c r="B246" s="42"/>
       <c r="C246" s="8" t="s">
         <v>476</v>
       </c>
@@ -49396,8 +49396,8 @@
       </c>
     </row>
     <row r="247" spans="1:7" ht="50" customHeight="1">
-      <c r="A247" s="39"/>
-      <c r="B247" s="39"/>
+      <c r="A247" s="42"/>
+      <c r="B247" s="42"/>
       <c r="C247" s="8" t="s">
         <v>478</v>
       </c>
@@ -49411,8 +49411,8 @@
       </c>
     </row>
     <row r="248" spans="1:7" ht="50" customHeight="1">
-      <c r="A248" s="39"/>
-      <c r="B248" s="39"/>
+      <c r="A248" s="42"/>
+      <c r="B248" s="42"/>
       <c r="C248" s="8" t="s">
         <v>480</v>
       </c>
@@ -49426,8 +49426,8 @@
       </c>
     </row>
     <row r="249" spans="1:7" ht="50" customHeight="1">
-      <c r="A249" s="39"/>
-      <c r="B249" s="39"/>
+      <c r="A249" s="42"/>
+      <c r="B249" s="42"/>
       <c r="C249" s="8" t="s">
         <v>482</v>
       </c>
@@ -49441,8 +49441,8 @@
       </c>
     </row>
     <row r="250" spans="1:7" ht="50" customHeight="1">
-      <c r="A250" s="39"/>
-      <c r="B250" s="39"/>
+      <c r="A250" s="42"/>
+      <c r="B250" s="42"/>
       <c r="C250" s="8" t="s">
         <v>484</v>
       </c>
@@ -49456,8 +49456,8 @@
       </c>
     </row>
     <row r="251" spans="1:7" ht="50" customHeight="1">
-      <c r="A251" s="39"/>
-      <c r="B251" s="39"/>
+      <c r="A251" s="42"/>
+      <c r="B251" s="42"/>
       <c r="C251" s="8" t="s">
         <v>486</v>
       </c>
@@ -49471,8 +49471,8 @@
       </c>
     </row>
     <row r="252" spans="1:7" ht="50" customHeight="1">
-      <c r="A252" s="39"/>
-      <c r="B252" s="39"/>
+      <c r="A252" s="42"/>
+      <c r="B252" s="42"/>
       <c r="C252" s="8" t="s">
         <v>488</v>
       </c>
@@ -49486,8 +49486,8 @@
       </c>
     </row>
     <row r="253" spans="1:7" ht="50" customHeight="1">
-      <c r="A253" s="39"/>
-      <c r="B253" s="39"/>
+      <c r="A253" s="42"/>
+      <c r="B253" s="42"/>
       <c r="C253" s="8" t="s">
         <v>490</v>
       </c>
@@ -49501,8 +49501,8 @@
       </c>
     </row>
     <row r="254" spans="1:7" ht="50" customHeight="1">
-      <c r="A254" s="39"/>
-      <c r="B254" s="39"/>
+      <c r="A254" s="42"/>
+      <c r="B254" s="42"/>
       <c r="C254" s="8" t="s">
         <v>492</v>
       </c>
@@ -49516,8 +49516,8 @@
       </c>
     </row>
     <row r="255" spans="1:7" ht="50" customHeight="1">
-      <c r="A255" s="39"/>
-      <c r="B255" s="39"/>
+      <c r="A255" s="42"/>
+      <c r="B255" s="42"/>
       <c r="C255" s="8" t="s">
         <v>494</v>
       </c>
@@ -49531,8 +49531,8 @@
       </c>
     </row>
     <row r="256" spans="1:7" ht="50" customHeight="1">
-      <c r="A256" s="39"/>
-      <c r="B256" s="39"/>
+      <c r="A256" s="42"/>
+      <c r="B256" s="42"/>
       <c r="C256" s="8" t="s">
         <v>496</v>
       </c>
@@ -49546,8 +49546,8 @@
       </c>
     </row>
     <row r="257" spans="1:7" ht="50" customHeight="1">
-      <c r="A257" s="39"/>
-      <c r="B257" s="39"/>
+      <c r="A257" s="42"/>
+      <c r="B257" s="42"/>
       <c r="C257" s="8" t="s">
         <v>498</v>
       </c>
@@ -49561,8 +49561,8 @@
       </c>
     </row>
     <row r="258" spans="1:7" ht="50" customHeight="1">
-      <c r="A258" s="39"/>
-      <c r="B258" s="39"/>
+      <c r="A258" s="42"/>
+      <c r="B258" s="42"/>
       <c r="C258" s="8" t="s">
         <v>500</v>
       </c>
@@ -49576,8 +49576,8 @@
       </c>
     </row>
     <row r="259" spans="1:7" ht="50" customHeight="1">
-      <c r="A259" s="39"/>
-      <c r="B259" s="39"/>
+      <c r="A259" s="42"/>
+      <c r="B259" s="42"/>
       <c r="C259" s="8" t="s">
         <v>502</v>
       </c>
@@ -49591,8 +49591,8 @@
       </c>
     </row>
     <row r="260" spans="1:7" ht="50" customHeight="1">
-      <c r="A260" s="39"/>
-      <c r="B260" s="39"/>
+      <c r="A260" s="42"/>
+      <c r="B260" s="42"/>
       <c r="C260" s="8" t="s">
         <v>504</v>
       </c>
@@ -49606,8 +49606,8 @@
       </c>
     </row>
     <row r="261" spans="1:7" ht="50" customHeight="1">
-      <c r="A261" s="39"/>
-      <c r="B261" s="39"/>
+      <c r="A261" s="42"/>
+      <c r="B261" s="42"/>
       <c r="C261" s="8" t="s">
         <v>506</v>
       </c>
@@ -49621,8 +49621,8 @@
       </c>
     </row>
     <row r="262" spans="1:7" ht="50" customHeight="1">
-      <c r="A262" s="39"/>
-      <c r="B262" s="39"/>
+      <c r="A262" s="42"/>
+      <c r="B262" s="42"/>
       <c r="C262" s="8" t="s">
         <v>508</v>
       </c>
@@ -49636,8 +49636,8 @@
       </c>
     </row>
     <row r="263" spans="1:7" ht="50" customHeight="1">
-      <c r="A263" s="39"/>
-      <c r="B263" s="39"/>
+      <c r="A263" s="42"/>
+      <c r="B263" s="42"/>
       <c r="C263" s="8" t="s">
         <v>510</v>
       </c>
@@ -49651,8 +49651,8 @@
       </c>
     </row>
     <row r="264" spans="1:7" ht="50" customHeight="1">
-      <c r="A264" s="39"/>
-      <c r="B264" s="39"/>
+      <c r="A264" s="42"/>
+      <c r="B264" s="42"/>
       <c r="C264" s="8" t="s">
         <v>512</v>
       </c>
@@ -49666,8 +49666,8 @@
       </c>
     </row>
     <row r="265" spans="1:7" ht="50" customHeight="1">
-      <c r="A265" s="39"/>
-      <c r="B265" s="39"/>
+      <c r="A265" s="42"/>
+      <c r="B265" s="42"/>
       <c r="C265" s="8" t="s">
         <v>514</v>
       </c>
@@ -49681,8 +49681,8 @@
       </c>
     </row>
     <row r="266" spans="1:7" ht="50" customHeight="1">
-      <c r="A266" s="39"/>
-      <c r="B266" s="39"/>
+      <c r="A266" s="42"/>
+      <c r="B266" s="42"/>
       <c r="C266" s="8" t="s">
         <v>516</v>
       </c>
@@ -49696,8 +49696,8 @@
       </c>
     </row>
     <row r="267" spans="1:7" ht="50" customHeight="1">
-      <c r="A267" s="39"/>
-      <c r="B267" s="40"/>
+      <c r="A267" s="42"/>
+      <c r="B267" s="43"/>
       <c r="C267" s="8" t="s">
         <v>518</v>
       </c>
@@ -49711,7 +49711,7 @@
       </c>
     </row>
     <row r="268" spans="1:7" ht="50" customHeight="1">
-      <c r="A268" s="39"/>
+      <c r="A268" s="42"/>
       <c r="B268" s="14" t="s">
         <v>896</v>
       </c>
@@ -49728,8 +49728,8 @@
       </c>
     </row>
     <row r="269" spans="1:7" ht="50" customHeight="1">
-      <c r="A269" s="39"/>
-      <c r="B269" s="38" t="s">
+      <c r="A269" s="42"/>
+      <c r="B269" s="41" t="s">
         <v>897</v>
       </c>
       <c r="C269" s="35" t="s">
@@ -49745,8 +49745,8 @@
       </c>
     </row>
     <row r="270" spans="1:7" ht="50" customHeight="1">
-      <c r="A270" s="39"/>
-      <c r="B270" s="39"/>
+      <c r="A270" s="42"/>
+      <c r="B270" s="42"/>
       <c r="C270" s="8" t="s">
         <v>522</v>
       </c>
@@ -49762,8 +49762,8 @@
       </c>
     </row>
     <row r="271" spans="1:7" ht="50" customHeight="1">
-      <c r="A271" s="39"/>
-      <c r="B271" s="39"/>
+      <c r="A271" s="42"/>
+      <c r="B271" s="42"/>
       <c r="C271" s="8" t="s">
         <v>524</v>
       </c>
@@ -49777,8 +49777,8 @@
       </c>
     </row>
     <row r="272" spans="1:7" ht="50" customHeight="1">
-      <c r="A272" s="39"/>
-      <c r="B272" s="39"/>
+      <c r="A272" s="42"/>
+      <c r="B272" s="42"/>
       <c r="C272" s="8" t="s">
         <v>526</v>
       </c>
@@ -49792,8 +49792,8 @@
       </c>
     </row>
     <row r="273" spans="1:7" ht="50" customHeight="1">
-      <c r="A273" s="39"/>
-      <c r="B273" s="40"/>
+      <c r="A273" s="42"/>
+      <c r="B273" s="43"/>
       <c r="C273" s="8" t="s">
         <v>528</v>
       </c>
@@ -49807,8 +49807,8 @@
       </c>
     </row>
     <row r="274" spans="1:7" ht="50" customHeight="1">
-      <c r="A274" s="39"/>
-      <c r="B274" s="38" t="s">
+      <c r="A274" s="42"/>
+      <c r="B274" s="41" t="s">
         <v>898</v>
       </c>
       <c r="C274" s="8" t="s">
@@ -49824,8 +49824,8 @@
       </c>
     </row>
     <row r="275" spans="1:7" ht="50" customHeight="1">
-      <c r="A275" s="39"/>
-      <c r="B275" s="39"/>
+      <c r="A275" s="42"/>
+      <c r="B275" s="42"/>
       <c r="C275" s="8" t="s">
         <v>532</v>
       </c>
@@ -49841,8 +49841,8 @@
       </c>
     </row>
     <row r="276" spans="1:7" ht="50" customHeight="1">
-      <c r="A276" s="39"/>
-      <c r="B276" s="39"/>
+      <c r="A276" s="42"/>
+      <c r="B276" s="42"/>
       <c r="C276" s="8" t="s">
         <v>534</v>
       </c>
@@ -49858,8 +49858,8 @@
       </c>
     </row>
     <row r="277" spans="1:7" ht="50" customHeight="1">
-      <c r="A277" s="39"/>
-      <c r="B277" s="39"/>
+      <c r="A277" s="42"/>
+      <c r="B277" s="42"/>
       <c r="C277" s="8" t="s">
         <v>536</v>
       </c>
@@ -49873,8 +49873,8 @@
       </c>
     </row>
     <row r="278" spans="1:7" ht="50" customHeight="1">
-      <c r="A278" s="39"/>
-      <c r="B278" s="39"/>
+      <c r="A278" s="42"/>
+      <c r="B278" s="42"/>
       <c r="C278" s="8" t="s">
         <v>538</v>
       </c>
@@ -49888,8 +49888,8 @@
       </c>
     </row>
     <row r="279" spans="1:7" ht="50" customHeight="1">
-      <c r="A279" s="39"/>
-      <c r="B279" s="39"/>
+      <c r="A279" s="42"/>
+      <c r="B279" s="42"/>
       <c r="C279" s="8" t="s">
         <v>540</v>
       </c>
@@ -49905,8 +49905,8 @@
       </c>
     </row>
     <row r="280" spans="1:7" ht="50" customHeight="1">
-      <c r="A280" s="39"/>
-      <c r="B280" s="39"/>
+      <c r="A280" s="42"/>
+      <c r="B280" s="42"/>
       <c r="C280" s="8" t="s">
         <v>542</v>
       </c>
@@ -49920,8 +49920,8 @@
       </c>
     </row>
     <row r="281" spans="1:7" ht="50" customHeight="1">
-      <c r="A281" s="39"/>
-      <c r="B281" s="39"/>
+      <c r="A281" s="42"/>
+      <c r="B281" s="42"/>
       <c r="C281" s="8" t="s">
         <v>544</v>
       </c>
@@ -49935,8 +49935,8 @@
       </c>
     </row>
     <row r="282" spans="1:7" ht="50" customHeight="1">
-      <c r="A282" s="39"/>
-      <c r="B282" s="39"/>
+      <c r="A282" s="42"/>
+      <c r="B282" s="42"/>
       <c r="C282" s="8" t="s">
         <v>546</v>
       </c>
@@ -49950,8 +49950,8 @@
       </c>
     </row>
     <row r="283" spans="1:7" ht="50" customHeight="1">
-      <c r="A283" s="39"/>
-      <c r="B283" s="39"/>
+      <c r="A283" s="42"/>
+      <c r="B283" s="42"/>
       <c r="C283" s="8" t="s">
         <v>548</v>
       </c>
@@ -49965,8 +49965,8 @@
       </c>
     </row>
     <row r="284" spans="1:7" ht="50" customHeight="1">
-      <c r="A284" s="39"/>
-      <c r="B284" s="39"/>
+      <c r="A284" s="42"/>
+      <c r="B284" s="42"/>
       <c r="C284" s="8" t="s">
         <v>550</v>
       </c>
@@ -49980,8 +49980,8 @@
       </c>
     </row>
     <row r="285" spans="1:7" ht="50" customHeight="1">
-      <c r="A285" s="39"/>
-      <c r="B285" s="39"/>
+      <c r="A285" s="42"/>
+      <c r="B285" s="42"/>
       <c r="C285" s="8" t="s">
         <v>552</v>
       </c>
@@ -49995,8 +49995,8 @@
       </c>
     </row>
     <row r="286" spans="1:7" ht="50" customHeight="1">
-      <c r="A286" s="39"/>
-      <c r="B286" s="39"/>
+      <c r="A286" s="42"/>
+      <c r="B286" s="42"/>
       <c r="C286" s="8" t="s">
         <v>554</v>
       </c>
@@ -50010,8 +50010,8 @@
       </c>
     </row>
     <row r="287" spans="1:7" ht="50" customHeight="1">
-      <c r="A287" s="39"/>
-      <c r="B287" s="39"/>
+      <c r="A287" s="42"/>
+      <c r="B287" s="42"/>
       <c r="C287" s="8" t="s">
         <v>556</v>
       </c>
@@ -50025,8 +50025,8 @@
       </c>
     </row>
     <row r="288" spans="1:7" ht="50" customHeight="1">
-      <c r="A288" s="39"/>
-      <c r="B288" s="39"/>
+      <c r="A288" s="42"/>
+      <c r="B288" s="42"/>
       <c r="C288" s="8" t="s">
         <v>558</v>
       </c>
@@ -50040,8 +50040,8 @@
       </c>
     </row>
     <row r="289" spans="1:7" ht="50" customHeight="1">
-      <c r="A289" s="39"/>
-      <c r="B289" s="39"/>
+      <c r="A289" s="42"/>
+      <c r="B289" s="42"/>
       <c r="C289" s="8" t="s">
         <v>560</v>
       </c>
@@ -50055,8 +50055,8 @@
       </c>
     </row>
     <row r="290" spans="1:7" ht="50" customHeight="1">
-      <c r="A290" s="39"/>
-      <c r="B290" s="39"/>
+      <c r="A290" s="42"/>
+      <c r="B290" s="42"/>
       <c r="C290" s="8" t="s">
         <v>562</v>
       </c>
@@ -50070,8 +50070,8 @@
       </c>
     </row>
     <row r="291" spans="1:7" ht="50" customHeight="1">
-      <c r="A291" s="39"/>
-      <c r="B291" s="39"/>
+      <c r="A291" s="42"/>
+      <c r="B291" s="42"/>
       <c r="C291" s="8" t="s">
         <v>564</v>
       </c>
@@ -50085,8 +50085,8 @@
       </c>
     </row>
     <row r="292" spans="1:7" ht="50" customHeight="1">
-      <c r="A292" s="39"/>
-      <c r="B292" s="39"/>
+      <c r="A292" s="42"/>
+      <c r="B292" s="42"/>
       <c r="C292" s="8" t="s">
         <v>566</v>
       </c>
@@ -50100,8 +50100,8 @@
       </c>
     </row>
     <row r="293" spans="1:7" ht="50" customHeight="1">
-      <c r="A293" s="39"/>
-      <c r="B293" s="39"/>
+      <c r="A293" s="42"/>
+      <c r="B293" s="42"/>
       <c r="C293" s="8" t="s">
         <v>568</v>
       </c>
@@ -50115,8 +50115,8 @@
       </c>
     </row>
     <row r="294" spans="1:7" ht="50" customHeight="1">
-      <c r="A294" s="39"/>
-      <c r="B294" s="39"/>
+      <c r="A294" s="42"/>
+      <c r="B294" s="42"/>
       <c r="C294" s="8" t="s">
         <v>570</v>
       </c>
@@ -50130,8 +50130,8 @@
       </c>
     </row>
     <row r="295" spans="1:7" ht="50" customHeight="1">
-      <c r="A295" s="39"/>
-      <c r="B295" s="39"/>
+      <c r="A295" s="42"/>
+      <c r="B295" s="42"/>
       <c r="C295" s="8" t="s">
         <v>572</v>
       </c>
@@ -50145,8 +50145,8 @@
       </c>
     </row>
     <row r="296" spans="1:7" ht="50" customHeight="1">
-      <c r="A296" s="39"/>
-      <c r="B296" s="39"/>
+      <c r="A296" s="42"/>
+      <c r="B296" s="42"/>
       <c r="C296" s="8" t="s">
         <v>574</v>
       </c>
@@ -50160,8 +50160,8 @@
       </c>
     </row>
     <row r="297" spans="1:7" ht="50" customHeight="1">
-      <c r="A297" s="39"/>
-      <c r="B297" s="39"/>
+      <c r="A297" s="42"/>
+      <c r="B297" s="42"/>
       <c r="C297" s="8" t="s">
         <v>576</v>
       </c>
@@ -50175,8 +50175,8 @@
       </c>
     </row>
     <row r="298" spans="1:7" ht="50" customHeight="1">
-      <c r="A298" s="39"/>
-      <c r="B298" s="39"/>
+      <c r="A298" s="42"/>
+      <c r="B298" s="42"/>
       <c r="C298" s="8" t="s">
         <v>578</v>
       </c>
@@ -50190,8 +50190,8 @@
       </c>
     </row>
     <row r="299" spans="1:7" ht="50" customHeight="1">
-      <c r="A299" s="39"/>
-      <c r="B299" s="39"/>
+      <c r="A299" s="42"/>
+      <c r="B299" s="42"/>
       <c r="C299" s="8" t="s">
         <v>580</v>
       </c>
@@ -50205,8 +50205,8 @@
       </c>
     </row>
     <row r="300" spans="1:7" ht="50" customHeight="1">
-      <c r="A300" s="39"/>
-      <c r="B300" s="39"/>
+      <c r="A300" s="42"/>
+      <c r="B300" s="42"/>
       <c r="C300" s="8" t="s">
         <v>582</v>
       </c>
@@ -50220,8 +50220,8 @@
       </c>
     </row>
     <row r="301" spans="1:7" ht="50" customHeight="1">
-      <c r="A301" s="39"/>
-      <c r="B301" s="39"/>
+      <c r="A301" s="42"/>
+      <c r="B301" s="42"/>
       <c r="C301" s="8" t="s">
         <v>584</v>
       </c>
@@ -50235,8 +50235,8 @@
       </c>
     </row>
     <row r="302" spans="1:7" ht="50" customHeight="1">
-      <c r="A302" s="39"/>
-      <c r="B302" s="39"/>
+      <c r="A302" s="42"/>
+      <c r="B302" s="42"/>
       <c r="C302" s="8" t="s">
         <v>586</v>
       </c>
@@ -50250,8 +50250,8 @@
       </c>
     </row>
     <row r="303" spans="1:7" ht="50" customHeight="1">
-      <c r="A303" s="39"/>
-      <c r="B303" s="39"/>
+      <c r="A303" s="42"/>
+      <c r="B303" s="42"/>
       <c r="C303" s="8" t="s">
         <v>588</v>
       </c>
@@ -50265,8 +50265,8 @@
       </c>
     </row>
     <row r="304" spans="1:7" ht="50" customHeight="1">
-      <c r="A304" s="39"/>
-      <c r="B304" s="39"/>
+      <c r="A304" s="42"/>
+      <c r="B304" s="42"/>
       <c r="C304" s="8" t="s">
         <v>590</v>
       </c>
@@ -50280,8 +50280,8 @@
       </c>
     </row>
     <row r="305" spans="1:7" ht="50" customHeight="1">
-      <c r="A305" s="39"/>
-      <c r="B305" s="39"/>
+      <c r="A305" s="42"/>
+      <c r="B305" s="42"/>
       <c r="C305" s="8" t="s">
         <v>592</v>
       </c>
@@ -50295,8 +50295,8 @@
       </c>
     </row>
     <row r="306" spans="1:7" ht="50" customHeight="1">
-      <c r="A306" s="39"/>
-      <c r="B306" s="40"/>
+      <c r="A306" s="42"/>
+      <c r="B306" s="43"/>
       <c r="C306" s="8" t="s">
         <v>594</v>
       </c>
@@ -50310,7 +50310,7 @@
       </c>
     </row>
     <row r="307" spans="1:7" ht="50" customHeight="1">
-      <c r="A307" s="39"/>
+      <c r="A307" s="42"/>
       <c r="B307" s="14" t="s">
         <v>899</v>
       </c>
@@ -50329,7 +50329,7 @@
       </c>
     </row>
     <row r="308" spans="1:7" ht="50" customHeight="1">
-      <c r="A308" s="39"/>
+      <c r="A308" s="42"/>
       <c r="B308" s="14" t="s">
         <v>900</v>
       </c>
@@ -50348,8 +50348,8 @@
       </c>
     </row>
     <row r="309" spans="1:7" ht="50" customHeight="1">
-      <c r="A309" s="39"/>
-      <c r="B309" s="38" t="s">
+      <c r="A309" s="42"/>
+      <c r="B309" s="41" t="s">
         <v>901</v>
       </c>
       <c r="C309" s="8" t="s">
@@ -50367,8 +50367,8 @@
       </c>
     </row>
     <row r="310" spans="1:7" ht="50" customHeight="1">
-      <c r="A310" s="39"/>
-      <c r="B310" s="39"/>
+      <c r="A310" s="42"/>
+      <c r="B310" s="42"/>
       <c r="C310" s="8" t="s">
         <v>602</v>
       </c>
@@ -50384,8 +50384,8 @@
       </c>
     </row>
     <row r="311" spans="1:7" ht="50" customHeight="1">
-      <c r="A311" s="39"/>
-      <c r="B311" s="39"/>
+      <c r="A311" s="42"/>
+      <c r="B311" s="42"/>
       <c r="C311" s="8" t="s">
         <v>604</v>
       </c>
@@ -50401,8 +50401,8 @@
       </c>
     </row>
     <row r="312" spans="1:7" ht="50" customHeight="1">
-      <c r="A312" s="39"/>
-      <c r="B312" s="39"/>
+      <c r="A312" s="42"/>
+      <c r="B312" s="42"/>
       <c r="C312" s="35" t="s">
         <v>907</v>
       </c>
@@ -50416,8 +50416,8 @@
       </c>
     </row>
     <row r="313" spans="1:7" ht="50" customHeight="1">
-      <c r="A313" s="39"/>
-      <c r="B313" s="40"/>
+      <c r="A313" s="42"/>
+      <c r="B313" s="43"/>
       <c r="C313" s="35" t="s">
         <v>909</v>
       </c>
@@ -50431,8 +50431,8 @@
       </c>
     </row>
     <row r="314" spans="1:7" ht="50" customHeight="1">
-      <c r="A314" s="39"/>
-      <c r="B314" s="38" t="s">
+      <c r="A314" s="42"/>
+      <c r="B314" s="41" t="s">
         <v>902</v>
       </c>
       <c r="C314" s="8" t="s">
@@ -50450,8 +50450,8 @@
       </c>
     </row>
     <row r="315" spans="1:7" ht="50" customHeight="1">
-      <c r="A315" s="39"/>
-      <c r="B315" s="39"/>
+      <c r="A315" s="42"/>
+      <c r="B315" s="42"/>
       <c r="C315" s="8" t="s">
         <v>608</v>
       </c>
@@ -50467,8 +50467,8 @@
       </c>
     </row>
     <row r="316" spans="1:7" ht="50" customHeight="1">
-      <c r="A316" s="39"/>
-      <c r="B316" s="40"/>
+      <c r="A316" s="42"/>
+      <c r="B316" s="43"/>
       <c r="C316" s="8" t="s">
         <v>610</v>
       </c>
@@ -50482,8 +50482,8 @@
       </c>
     </row>
     <row r="317" spans="1:7" ht="50" customHeight="1">
-      <c r="A317" s="39"/>
-      <c r="B317" s="38" t="s">
+      <c r="A317" s="42"/>
+      <c r="B317" s="41" t="s">
         <v>903</v>
       </c>
       <c r="C317" s="8" t="s">
@@ -50501,8 +50501,8 @@
       </c>
     </row>
     <row r="318" spans="1:7" ht="50" customHeight="1">
-      <c r="A318" s="39"/>
-      <c r="B318" s="39"/>
+      <c r="A318" s="42"/>
+      <c r="B318" s="42"/>
       <c r="C318" s="8" t="s">
         <v>614</v>
       </c>
@@ -50518,8 +50518,8 @@
       </c>
     </row>
     <row r="319" spans="1:7" ht="50" customHeight="1">
-      <c r="A319" s="39"/>
-      <c r="B319" s="39"/>
+      <c r="A319" s="42"/>
+      <c r="B319" s="42"/>
       <c r="C319" s="8" t="s">
         <v>616</v>
       </c>
@@ -50535,8 +50535,8 @@
       </c>
     </row>
     <row r="320" spans="1:7" ht="50" customHeight="1">
-      <c r="A320" s="39"/>
-      <c r="B320" s="39"/>
+      <c r="A320" s="42"/>
+      <c r="B320" s="42"/>
       <c r="C320" s="8" t="s">
         <v>618</v>
       </c>
@@ -50550,8 +50550,8 @@
       </c>
     </row>
     <row r="321" spans="1:7" ht="50" customHeight="1">
-      <c r="A321" s="39"/>
-      <c r="B321" s="39"/>
+      <c r="A321" s="42"/>
+      <c r="B321" s="42"/>
       <c r="C321" s="8" t="s">
         <v>620</v>
       </c>
@@ -50565,8 +50565,8 @@
       </c>
     </row>
     <row r="322" spans="1:7" ht="50" customHeight="1">
-      <c r="A322" s="39"/>
-      <c r="B322" s="39"/>
+      <c r="A322" s="42"/>
+      <c r="B322" s="42"/>
       <c r="C322" s="8" t="s">
         <v>622</v>
       </c>
@@ -50580,8 +50580,8 @@
       </c>
     </row>
     <row r="323" spans="1:7" ht="50" customHeight="1">
-      <c r="A323" s="39"/>
-      <c r="B323" s="39"/>
+      <c r="A323" s="42"/>
+      <c r="B323" s="42"/>
       <c r="C323" s="8" t="s">
         <v>624</v>
       </c>
@@ -50595,8 +50595,8 @@
       </c>
     </row>
     <row r="324" spans="1:7" ht="50" customHeight="1">
-      <c r="A324" s="39"/>
-      <c r="B324" s="39"/>
+      <c r="A324" s="42"/>
+      <c r="B324" s="42"/>
       <c r="C324" s="8" t="s">
         <v>626</v>
       </c>
@@ -50610,8 +50610,8 @@
       </c>
     </row>
     <row r="325" spans="1:7" ht="50" customHeight="1">
-      <c r="A325" s="39"/>
-      <c r="B325" s="39"/>
+      <c r="A325" s="42"/>
+      <c r="B325" s="42"/>
       <c r="C325" s="8" t="s">
         <v>628</v>
       </c>
@@ -50625,8 +50625,8 @@
       </c>
     </row>
     <row r="326" spans="1:7" ht="50" customHeight="1">
-      <c r="A326" s="39"/>
-      <c r="B326" s="40"/>
+      <c r="A326" s="42"/>
+      <c r="B326" s="43"/>
       <c r="C326" s="8" t="s">
         <v>630</v>
       </c>
@@ -50640,7 +50640,7 @@
       </c>
     </row>
     <row r="327" spans="1:7" ht="50" customHeight="1">
-      <c r="A327" s="39"/>
+      <c r="A327" s="42"/>
       <c r="B327" s="14" t="s">
         <v>904</v>
       </c>
@@ -50659,8 +50659,8 @@
       </c>
     </row>
     <row r="328" spans="1:7" ht="50" customHeight="1">
-      <c r="A328" s="39"/>
-      <c r="B328" s="38" t="s">
+      <c r="A328" s="42"/>
+      <c r="B328" s="41" t="s">
         <v>905</v>
       </c>
       <c r="C328" s="8" t="s">
@@ -50676,8 +50676,8 @@
       </c>
     </row>
     <row r="329" spans="1:7" ht="50" customHeight="1">
-      <c r="A329" s="39"/>
-      <c r="B329" s="39"/>
+      <c r="A329" s="42"/>
+      <c r="B329" s="42"/>
       <c r="C329" s="8" t="s">
         <v>636</v>
       </c>
@@ -50691,8 +50691,8 @@
       </c>
     </row>
     <row r="330" spans="1:7" ht="50" customHeight="1">
-      <c r="A330" s="39"/>
-      <c r="B330" s="39"/>
+      <c r="A330" s="42"/>
+      <c r="B330" s="42"/>
       <c r="C330" s="8" t="s">
         <v>638</v>
       </c>
@@ -50706,8 +50706,8 @@
       </c>
     </row>
     <row r="331" spans="1:7" ht="50" customHeight="1">
-      <c r="A331" s="39"/>
-      <c r="B331" s="39"/>
+      <c r="A331" s="42"/>
+      <c r="B331" s="42"/>
       <c r="C331" s="8" t="s">
         <v>640</v>
       </c>
@@ -50721,8 +50721,8 @@
       </c>
     </row>
     <row r="332" spans="1:7" ht="50" customHeight="1">
-      <c r="A332" s="40"/>
-      <c r="B332" s="40"/>
+      <c r="A332" s="43"/>
+      <c r="B332" s="43"/>
       <c r="C332" s="8" t="s">
         <v>642</v>
       </c>
@@ -50736,7 +50736,7 @@
       </c>
     </row>
     <row r="333" spans="1:7" ht="50" customHeight="1">
-      <c r="A333" s="38" t="s">
+      <c r="A333" s="41" t="s">
         <v>871</v>
       </c>
       <c r="C333" s="8" t="s">
@@ -50754,7 +50754,7 @@
       </c>
     </row>
     <row r="334" spans="1:7" ht="50" customHeight="1">
-      <c r="A334" s="39"/>
+      <c r="A334" s="42"/>
       <c r="C334" s="8" t="s">
         <v>646</v>
       </c>
@@ -50768,7 +50768,7 @@
       </c>
     </row>
     <row r="335" spans="1:7" ht="50" customHeight="1">
-      <c r="A335" s="39"/>
+      <c r="A335" s="42"/>
       <c r="C335" s="8" t="s">
         <v>648</v>
       </c>
@@ -50782,7 +50782,7 @@
       </c>
     </row>
     <row r="336" spans="1:7" ht="50" customHeight="1">
-      <c r="A336" s="39"/>
+      <c r="A336" s="42"/>
       <c r="C336" s="8" t="s">
         <v>650</v>
       </c>
@@ -50796,7 +50796,7 @@
       </c>
     </row>
     <row r="337" spans="1:7" ht="50" customHeight="1">
-      <c r="A337" s="39"/>
+      <c r="A337" s="42"/>
       <c r="C337" s="8" t="s">
         <v>652</v>
       </c>
@@ -50810,7 +50810,7 @@
       </c>
     </row>
     <row r="338" spans="1:7" ht="50" customHeight="1">
-      <c r="A338" s="39"/>
+      <c r="A338" s="42"/>
       <c r="C338" s="8" t="s">
         <v>654</v>
       </c>
@@ -50824,7 +50824,7 @@
       </c>
     </row>
     <row r="339" spans="1:7" ht="50" customHeight="1">
-      <c r="A339" s="39"/>
+      <c r="A339" s="42"/>
       <c r="C339" s="8" t="s">
         <v>656</v>
       </c>
@@ -50840,7 +50840,7 @@
       </c>
     </row>
     <row r="340" spans="1:7" ht="50" customHeight="1">
-      <c r="A340" s="39"/>
+      <c r="A340" s="42"/>
       <c r="C340" s="8" t="s">
         <v>658</v>
       </c>
@@ -50854,7 +50854,7 @@
       </c>
     </row>
     <row r="341" spans="1:7" ht="50" customHeight="1">
-      <c r="A341" s="39"/>
+      <c r="A341" s="42"/>
       <c r="C341" s="8" t="s">
         <v>660</v>
       </c>
@@ -50868,7 +50868,7 @@
       </c>
     </row>
     <row r="342" spans="1:7" ht="50" customHeight="1">
-      <c r="A342" s="39"/>
+      <c r="A342" s="42"/>
       <c r="C342" s="8" t="s">
         <v>662</v>
       </c>
@@ -50884,7 +50884,7 @@
       </c>
     </row>
     <row r="343" spans="1:7" ht="50" customHeight="1">
-      <c r="A343" s="39"/>
+      <c r="A343" s="42"/>
       <c r="C343" s="8" t="s">
         <v>664</v>
       </c>
@@ -50898,7 +50898,7 @@
       </c>
     </row>
     <row r="344" spans="1:7" ht="50" customHeight="1">
-      <c r="A344" s="39"/>
+      <c r="A344" s="42"/>
       <c r="C344" s="8" t="s">
         <v>666</v>
       </c>
@@ -50912,7 +50912,7 @@
       </c>
     </row>
     <row r="345" spans="1:7" ht="50" customHeight="1">
-      <c r="A345" s="39"/>
+      <c r="A345" s="42"/>
       <c r="C345" s="8" t="s">
         <v>668</v>
       </c>
@@ -50926,7 +50926,7 @@
       </c>
     </row>
     <row r="346" spans="1:7" ht="50" customHeight="1">
-      <c r="A346" s="39"/>
+      <c r="A346" s="42"/>
       <c r="C346" s="35" t="s">
         <v>924</v>
       </c>
@@ -50940,7 +50940,7 @@
       </c>
     </row>
     <row r="347" spans="1:7" ht="50" customHeight="1">
-      <c r="A347" s="39"/>
+      <c r="A347" s="42"/>
       <c r="C347" s="8" t="s">
         <v>670</v>
       </c>
@@ -50956,7 +50956,7 @@
       </c>
     </row>
     <row r="348" spans="1:7" ht="50" customHeight="1">
-      <c r="A348" s="39"/>
+      <c r="A348" s="42"/>
       <c r="C348" s="8" t="s">
         <v>672</v>
       </c>
@@ -50972,7 +50972,7 @@
       </c>
     </row>
     <row r="349" spans="1:7" ht="50" customHeight="1">
-      <c r="A349" s="39"/>
+      <c r="A349" s="42"/>
       <c r="C349" s="8" t="s">
         <v>674</v>
       </c>
@@ -50986,7 +50986,7 @@
       </c>
     </row>
     <row r="350" spans="1:7" ht="50" customHeight="1">
-      <c r="A350" s="39"/>
+      <c r="A350" s="42"/>
       <c r="C350" s="8" t="s">
         <v>676</v>
       </c>
@@ -51000,7 +51000,7 @@
       </c>
     </row>
     <row r="351" spans="1:7" ht="50" customHeight="1">
-      <c r="A351" s="39"/>
+      <c r="A351" s="42"/>
       <c r="C351" s="8" t="s">
         <v>678</v>
       </c>
@@ -51016,7 +51016,7 @@
       </c>
     </row>
     <row r="352" spans="1:7" ht="50" customHeight="1">
-      <c r="A352" s="39"/>
+      <c r="A352" s="42"/>
       <c r="C352" s="8" t="s">
         <v>680</v>
       </c>
@@ -51030,7 +51030,7 @@
       </c>
     </row>
     <row r="353" spans="1:7" ht="50" customHeight="1">
-      <c r="A353" s="39"/>
+      <c r="A353" s="42"/>
       <c r="C353" s="8" t="s">
         <v>682</v>
       </c>
@@ -51046,7 +51046,7 @@
       </c>
     </row>
     <row r="354" spans="1:7" ht="50" customHeight="1">
-      <c r="A354" s="39"/>
+      <c r="A354" s="42"/>
       <c r="C354" s="8" t="s">
         <v>684</v>
       </c>
@@ -51060,7 +51060,7 @@
       </c>
     </row>
     <row r="355" spans="1:7" ht="50" customHeight="1">
-      <c r="A355" s="39"/>
+      <c r="A355" s="42"/>
       <c r="C355" s="8" t="s">
         <v>686</v>
       </c>
@@ -51076,7 +51076,7 @@
       </c>
     </row>
     <row r="356" spans="1:7" ht="50" customHeight="1">
-      <c r="A356" s="39"/>
+      <c r="A356" s="42"/>
       <c r="C356" s="8" t="s">
         <v>688</v>
       </c>
@@ -51092,7 +51092,7 @@
       </c>
     </row>
     <row r="357" spans="1:7" ht="50" customHeight="1">
-      <c r="A357" s="39"/>
+      <c r="A357" s="42"/>
       <c r="C357" s="8" t="s">
         <v>690</v>
       </c>
@@ -51108,7 +51108,7 @@
       </c>
     </row>
     <row r="358" spans="1:7" ht="50" customHeight="1">
-      <c r="A358" s="39"/>
+      <c r="A358" s="42"/>
       <c r="C358" s="8" t="s">
         <v>692</v>
       </c>
@@ -51124,7 +51124,7 @@
       </c>
     </row>
     <row r="359" spans="1:7" ht="50" customHeight="1">
-      <c r="A359" s="39"/>
+      <c r="A359" s="42"/>
       <c r="C359" s="8" t="s">
         <v>694</v>
       </c>
@@ -51138,7 +51138,7 @@
       </c>
     </row>
     <row r="360" spans="1:7" ht="50" customHeight="1">
-      <c r="A360" s="39"/>
+      <c r="A360" s="42"/>
       <c r="C360" s="8" t="s">
         <v>696</v>
       </c>
@@ -51152,7 +51152,7 @@
       </c>
     </row>
     <row r="361" spans="1:7" ht="50" customHeight="1">
-      <c r="A361" s="39"/>
+      <c r="A361" s="42"/>
       <c r="C361" s="8" t="s">
         <v>698</v>
       </c>
@@ -51166,7 +51166,7 @@
       </c>
     </row>
     <row r="362" spans="1:7" ht="50" customHeight="1">
-      <c r="A362" s="39"/>
+      <c r="A362" s="42"/>
       <c r="C362" s="8" t="s">
         <v>700</v>
       </c>
@@ -51180,7 +51180,7 @@
       </c>
     </row>
     <row r="363" spans="1:7" ht="50" customHeight="1">
-      <c r="A363" s="39"/>
+      <c r="A363" s="42"/>
       <c r="C363" s="8" t="s">
         <v>702</v>
       </c>
@@ -51194,7 +51194,7 @@
       </c>
     </row>
     <row r="364" spans="1:7" ht="50" customHeight="1">
-      <c r="A364" s="39"/>
+      <c r="A364" s="42"/>
       <c r="C364" s="8" t="s">
         <v>704</v>
       </c>
@@ -51210,7 +51210,7 @@
       </c>
     </row>
     <row r="365" spans="1:7" ht="50" customHeight="1">
-      <c r="A365" s="39"/>
+      <c r="A365" s="42"/>
       <c r="C365" s="8" t="s">
         <v>706</v>
       </c>
@@ -51226,7 +51226,7 @@
       </c>
     </row>
     <row r="366" spans="1:7" ht="50" customHeight="1">
-      <c r="A366" s="39"/>
+      <c r="A366" s="42"/>
       <c r="C366" s="8" t="s">
         <v>708</v>
       </c>
@@ -51240,7 +51240,7 @@
       </c>
     </row>
     <row r="367" spans="1:7" ht="50" customHeight="1">
-      <c r="A367" s="39"/>
+      <c r="A367" s="42"/>
       <c r="C367" s="8" t="s">
         <v>710</v>
       </c>
@@ -51256,7 +51256,7 @@
       </c>
     </row>
     <row r="368" spans="1:7" ht="50" customHeight="1">
-      <c r="A368" s="39"/>
+      <c r="A368" s="42"/>
       <c r="C368" s="8" t="s">
         <v>712</v>
       </c>
@@ -51272,7 +51272,7 @@
       </c>
     </row>
     <row r="369" spans="1:7" ht="50" customHeight="1">
-      <c r="A369" s="39"/>
+      <c r="A369" s="42"/>
       <c r="C369" s="8" t="s">
         <v>714</v>
       </c>
@@ -51288,7 +51288,7 @@
       </c>
     </row>
     <row r="370" spans="1:7" ht="50" customHeight="1">
-      <c r="A370" s="39"/>
+      <c r="A370" s="42"/>
       <c r="C370" s="8" t="s">
         <v>716</v>
       </c>
@@ -51304,7 +51304,7 @@
       </c>
     </row>
     <row r="371" spans="1:7" ht="50" customHeight="1">
-      <c r="A371" s="39"/>
+      <c r="A371" s="42"/>
       <c r="C371" s="8" t="s">
         <v>718</v>
       </c>
@@ -51320,7 +51320,7 @@
       </c>
     </row>
     <row r="372" spans="1:7" ht="50" customHeight="1">
-      <c r="A372" s="39"/>
+      <c r="A372" s="42"/>
       <c r="C372" s="8" t="s">
         <v>720</v>
       </c>
@@ -51336,7 +51336,7 @@
       </c>
     </row>
     <row r="373" spans="1:7" ht="50" customHeight="1">
-      <c r="A373" s="39"/>
+      <c r="A373" s="42"/>
       <c r="C373" s="8" t="s">
         <v>722</v>
       </c>
@@ -51352,7 +51352,7 @@
       </c>
     </row>
     <row r="374" spans="1:7" ht="50" customHeight="1">
-      <c r="A374" s="39"/>
+      <c r="A374" s="42"/>
       <c r="C374" s="8" t="s">
         <v>724</v>
       </c>
@@ -51368,7 +51368,7 @@
       </c>
     </row>
     <row r="375" spans="1:7" ht="50" customHeight="1">
-      <c r="A375" s="39"/>
+      <c r="A375" s="42"/>
       <c r="C375" s="8" t="s">
         <v>726</v>
       </c>
@@ -51384,7 +51384,7 @@
       </c>
     </row>
     <row r="376" spans="1:7" ht="50" customHeight="1">
-      <c r="A376" s="39"/>
+      <c r="A376" s="42"/>
       <c r="C376" s="8" t="s">
         <v>728</v>
       </c>
@@ -51400,7 +51400,7 @@
       </c>
     </row>
     <row r="377" spans="1:7" ht="50" customHeight="1">
-      <c r="A377" s="39"/>
+      <c r="A377" s="42"/>
       <c r="C377" s="8" t="s">
         <v>730</v>
       </c>
@@ -51414,7 +51414,7 @@
       </c>
     </row>
     <row r="378" spans="1:7" ht="50" customHeight="1">
-      <c r="A378" s="39"/>
+      <c r="A378" s="42"/>
       <c r="C378" s="8" t="s">
         <v>732</v>
       </c>
@@ -51430,7 +51430,7 @@
       </c>
     </row>
     <row r="379" spans="1:7" ht="50" customHeight="1">
-      <c r="A379" s="39"/>
+      <c r="A379" s="42"/>
       <c r="C379" s="8" t="s">
         <v>734</v>
       </c>
@@ -51444,7 +51444,7 @@
       </c>
     </row>
     <row r="380" spans="1:7" ht="50" customHeight="1">
-      <c r="A380" s="39"/>
+      <c r="A380" s="42"/>
       <c r="C380" s="8" t="s">
         <v>736</v>
       </c>
@@ -51458,7 +51458,7 @@
       </c>
     </row>
     <row r="381" spans="1:7" ht="50" customHeight="1">
-      <c r="A381" s="39"/>
+      <c r="A381" s="42"/>
       <c r="C381" s="8" t="s">
         <v>738</v>
       </c>
@@ -51472,7 +51472,7 @@
       </c>
     </row>
     <row r="382" spans="1:7" ht="50" customHeight="1">
-      <c r="A382" s="39"/>
+      <c r="A382" s="42"/>
       <c r="C382" s="8" t="s">
         <v>740</v>
       </c>
@@ -51486,7 +51486,7 @@
       </c>
     </row>
     <row r="383" spans="1:7" ht="50" customHeight="1">
-      <c r="A383" s="39"/>
+      <c r="A383" s="42"/>
       <c r="C383" s="8" t="s">
         <v>742</v>
       </c>
@@ -51500,7 +51500,7 @@
       </c>
     </row>
     <row r="384" spans="1:7" ht="50" customHeight="1">
-      <c r="A384" s="39"/>
+      <c r="A384" s="42"/>
       <c r="C384" s="8" t="s">
         <v>744</v>
       </c>
@@ -51514,7 +51514,7 @@
       </c>
     </row>
     <row r="385" spans="1:7" ht="50" customHeight="1">
-      <c r="A385" s="39"/>
+      <c r="A385" s="42"/>
       <c r="C385" s="8" t="s">
         <v>746</v>
       </c>
@@ -51530,7 +51530,7 @@
       </c>
     </row>
     <row r="386" spans="1:7" ht="50" customHeight="1">
-      <c r="A386" s="39"/>
+      <c r="A386" s="42"/>
       <c r="C386" s="8" t="s">
         <v>748</v>
       </c>
@@ -51544,7 +51544,7 @@
       </c>
     </row>
     <row r="387" spans="1:7" ht="50" customHeight="1">
-      <c r="A387" s="39"/>
+      <c r="A387" s="42"/>
       <c r="C387" s="8" t="s">
         <v>750</v>
       </c>
@@ -51560,7 +51560,7 @@
       </c>
     </row>
     <row r="388" spans="1:7" ht="50" customHeight="1">
-      <c r="A388" s="39"/>
+      <c r="A388" s="42"/>
       <c r="C388" s="8" t="s">
         <v>752</v>
       </c>
@@ -51574,7 +51574,7 @@
       </c>
     </row>
     <row r="389" spans="1:7" ht="50" customHeight="1">
-      <c r="A389" s="39"/>
+      <c r="A389" s="42"/>
       <c r="C389" s="8" t="s">
         <v>754</v>
       </c>
@@ -51588,7 +51588,7 @@
       </c>
     </row>
     <row r="390" spans="1:7" ht="50" customHeight="1">
-      <c r="A390" s="39"/>
+      <c r="A390" s="42"/>
       <c r="C390" s="8" t="s">
         <v>756</v>
       </c>
@@ -51602,7 +51602,7 @@
       </c>
     </row>
     <row r="391" spans="1:7" ht="50" customHeight="1">
-      <c r="A391" s="39"/>
+      <c r="A391" s="42"/>
       <c r="C391" s="8" t="s">
         <v>758</v>
       </c>
@@ -51616,7 +51616,7 @@
       </c>
     </row>
     <row r="392" spans="1:7" ht="50" customHeight="1">
-      <c r="A392" s="39"/>
+      <c r="A392" s="42"/>
       <c r="C392" s="8" t="s">
         <v>760</v>
       </c>
@@ -51630,7 +51630,7 @@
       </c>
     </row>
     <row r="393" spans="1:7" ht="50" customHeight="1">
-      <c r="A393" s="39"/>
+      <c r="A393" s="42"/>
       <c r="C393" s="8" t="s">
         <v>762</v>
       </c>
@@ -51644,7 +51644,7 @@
       </c>
     </row>
     <row r="394" spans="1:7" ht="50" customHeight="1">
-      <c r="A394" s="39"/>
+      <c r="A394" s="42"/>
       <c r="C394" s="8" t="s">
         <v>764</v>
       </c>
@@ -51658,7 +51658,7 @@
       </c>
     </row>
     <row r="395" spans="1:7" ht="50" customHeight="1">
-      <c r="A395" s="39"/>
+      <c r="A395" s="42"/>
       <c r="C395" s="8" t="s">
         <v>766</v>
       </c>
@@ -51672,7 +51672,7 @@
       </c>
     </row>
     <row r="396" spans="1:7" ht="50" customHeight="1">
-      <c r="A396" s="39"/>
+      <c r="A396" s="42"/>
       <c r="C396" s="8" t="s">
         <v>768</v>
       </c>
@@ -51688,7 +51688,7 @@
       </c>
     </row>
     <row r="397" spans="1:7" ht="50" customHeight="1">
-      <c r="A397" s="39"/>
+      <c r="A397" s="42"/>
       <c r="C397" s="8" t="s">
         <v>770</v>
       </c>
@@ -51702,7 +51702,7 @@
       </c>
     </row>
     <row r="398" spans="1:7" ht="50" customHeight="1">
-      <c r="A398" s="39"/>
+      <c r="A398" s="42"/>
       <c r="C398" s="8" t="s">
         <v>772</v>
       </c>
@@ -51716,7 +51716,7 @@
       </c>
     </row>
     <row r="399" spans="1:7" ht="50" customHeight="1">
-      <c r="A399" s="39"/>
+      <c r="A399" s="42"/>
       <c r="C399" s="8" t="s">
         <v>774</v>
       </c>
@@ -51730,7 +51730,7 @@
       </c>
     </row>
     <row r="400" spans="1:7" ht="50" customHeight="1">
-      <c r="A400" s="39"/>
+      <c r="A400" s="42"/>
       <c r="C400" s="8" t="s">
         <v>776</v>
       </c>
@@ -51746,7 +51746,7 @@
       </c>
     </row>
     <row r="401" spans="1:7" ht="50" customHeight="1">
-      <c r="A401" s="39"/>
+      <c r="A401" s="42"/>
       <c r="C401" s="8" t="s">
         <v>778</v>
       </c>
@@ -51760,7 +51760,7 @@
       </c>
     </row>
     <row r="402" spans="1:7" ht="50" customHeight="1">
-      <c r="A402" s="39"/>
+      <c r="A402" s="42"/>
       <c r="C402" s="8" t="s">
         <v>780</v>
       </c>
@@ -51776,7 +51776,7 @@
       </c>
     </row>
     <row r="403" spans="1:7" ht="50" customHeight="1">
-      <c r="A403" s="39"/>
+      <c r="A403" s="42"/>
       <c r="C403" s="8" t="s">
         <v>782</v>
       </c>
@@ -51790,7 +51790,7 @@
       </c>
     </row>
     <row r="404" spans="1:7" ht="50" customHeight="1">
-      <c r="A404" s="40"/>
+      <c r="A404" s="43"/>
       <c r="C404" s="8" t="s">
         <v>784</v>
       </c>
@@ -51804,10 +51804,10 @@
       </c>
     </row>
     <row r="405" spans="1:7" ht="50" customHeight="1">
-      <c r="A405" s="38" t="s">
+      <c r="A405" s="41" t="s">
         <v>872</v>
       </c>
-      <c r="B405" s="38" t="s">
+      <c r="B405" s="41" t="s">
         <v>873</v>
       </c>
       <c r="C405" s="26" t="s">
@@ -51824,8 +51824,8 @@
       </c>
     </row>
     <row r="406" spans="1:7" ht="50" customHeight="1">
-      <c r="A406" s="39"/>
-      <c r="B406" s="39"/>
+      <c r="A406" s="42"/>
+      <c r="B406" s="42"/>
       <c r="C406" s="27" t="s">
         <v>788</v>
       </c>
@@ -51839,8 +51839,8 @@
       </c>
     </row>
     <row r="407" spans="1:7" ht="50" customHeight="1">
-      <c r="A407" s="39"/>
-      <c r="B407" s="39"/>
+      <c r="A407" s="42"/>
+      <c r="B407" s="42"/>
       <c r="C407" s="27" t="s">
         <v>790</v>
       </c>
@@ -51854,8 +51854,8 @@
       </c>
     </row>
     <row r="408" spans="1:7" ht="50" customHeight="1">
-      <c r="A408" s="39"/>
-      <c r="B408" s="40"/>
+      <c r="A408" s="42"/>
+      <c r="B408" s="43"/>
       <c r="C408" s="27" t="s">
         <v>792</v>
       </c>
@@ -51869,8 +51869,8 @@
       </c>
     </row>
     <row r="409" spans="1:7" ht="50" customHeight="1">
-      <c r="A409" s="39"/>
-      <c r="B409" s="38" t="s">
+      <c r="A409" s="42"/>
+      <c r="B409" s="41" t="s">
         <v>874</v>
       </c>
       <c r="C409" s="27" t="s">
@@ -51886,8 +51886,8 @@
       </c>
     </row>
     <row r="410" spans="1:7" ht="50" customHeight="1">
-      <c r="A410" s="39"/>
-      <c r="B410" s="39"/>
+      <c r="A410" s="42"/>
+      <c r="B410" s="42"/>
       <c r="C410" s="27" t="s">
         <v>796</v>
       </c>
@@ -51901,8 +51901,8 @@
       </c>
     </row>
     <row r="411" spans="1:7" ht="50" customHeight="1">
-      <c r="A411" s="39"/>
-      <c r="B411" s="39"/>
+      <c r="A411" s="42"/>
+      <c r="B411" s="42"/>
       <c r="C411" s="27" t="s">
         <v>798</v>
       </c>
@@ -51918,8 +51918,8 @@
       </c>
     </row>
     <row r="412" spans="1:7" ht="50" customHeight="1">
-      <c r="A412" s="39"/>
-      <c r="B412" s="39"/>
+      <c r="A412" s="42"/>
+      <c r="B412" s="42"/>
       <c r="C412" s="27" t="s">
         <v>800</v>
       </c>
@@ -51933,8 +51933,8 @@
       </c>
     </row>
     <row r="413" spans="1:7" ht="50" customHeight="1">
-      <c r="A413" s="39"/>
-      <c r="B413" s="39"/>
+      <c r="A413" s="42"/>
+      <c r="B413" s="42"/>
       <c r="C413" s="27" t="s">
         <v>802</v>
       </c>
@@ -51948,8 +51948,8 @@
       </c>
     </row>
     <row r="414" spans="1:7" ht="50" customHeight="1">
-      <c r="A414" s="39"/>
-      <c r="B414" s="39"/>
+      <c r="A414" s="42"/>
+      <c r="B414" s="42"/>
       <c r="C414" s="27" t="s">
         <v>804</v>
       </c>
@@ -51963,8 +51963,8 @@
       </c>
     </row>
     <row r="415" spans="1:7" ht="50" customHeight="1">
-      <c r="A415" s="39"/>
-      <c r="B415" s="40"/>
+      <c r="A415" s="42"/>
+      <c r="B415" s="43"/>
       <c r="C415" s="27" t="s">
         <v>806</v>
       </c>
@@ -51978,8 +51978,8 @@
       </c>
     </row>
     <row r="416" spans="1:7" ht="50" customHeight="1">
-      <c r="A416" s="39"/>
-      <c r="B416" s="38" t="s">
+      <c r="A416" s="42"/>
+      <c r="B416" s="41" t="s">
         <v>875</v>
       </c>
       <c r="C416" s="26" t="s">
@@ -51996,8 +51996,8 @@
       </c>
     </row>
     <row r="417" spans="1:7" ht="50" customHeight="1">
-      <c r="A417" s="39"/>
-      <c r="B417" s="40"/>
+      <c r="A417" s="42"/>
+      <c r="B417" s="43"/>
       <c r="C417" s="27" t="s">
         <v>810</v>
       </c>
@@ -52012,8 +52012,8 @@
       </c>
     </row>
     <row r="418" spans="1:7" ht="50" customHeight="1">
-      <c r="A418" s="39"/>
-      <c r="B418" s="38" t="s">
+      <c r="A418" s="42"/>
+      <c r="B418" s="41" t="s">
         <v>876</v>
       </c>
       <c r="C418" s="26" t="s">
@@ -52027,8 +52027,8 @@
       </c>
     </row>
     <row r="419" spans="1:7" ht="50" customHeight="1">
-      <c r="A419" s="39"/>
-      <c r="B419" s="39"/>
+      <c r="A419" s="42"/>
+      <c r="B419" s="42"/>
       <c r="C419" s="26" t="s">
         <v>814</v>
       </c>
@@ -52040,8 +52040,8 @@
       </c>
     </row>
     <row r="420" spans="1:7" ht="50" customHeight="1">
-      <c r="A420" s="39"/>
-      <c r="B420" s="39"/>
+      <c r="A420" s="42"/>
+      <c r="B420" s="42"/>
       <c r="C420" s="26" t="s">
         <v>816</v>
       </c>
@@ -52053,8 +52053,8 @@
       </c>
     </row>
     <row r="421" spans="1:7" ht="50" customHeight="1">
-      <c r="A421" s="39"/>
-      <c r="B421" s="39"/>
+      <c r="A421" s="42"/>
+      <c r="B421" s="42"/>
       <c r="C421" s="26" t="s">
         <v>818</v>
       </c>
@@ -52066,8 +52066,8 @@
       </c>
     </row>
     <row r="422" spans="1:7" ht="50" customHeight="1">
-      <c r="A422" s="40"/>
-      <c r="B422" s="40"/>
+      <c r="A422" s="43"/>
+      <c r="B422" s="43"/>
       <c r="C422" s="26" t="s">
         <v>820</v>
       </c>
@@ -52080,31 +52080,15 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B47:B56"/>
-    <mergeCell ref="A34:A56"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="A16:A33"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A57:A69"/>
-    <mergeCell ref="B57:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="A70:A111"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B73:B95"/>
-    <mergeCell ref="B96:B105"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="A112:A121"/>
-    <mergeCell ref="A123:A146"/>
-    <mergeCell ref="B123:B137"/>
-    <mergeCell ref="B138:B146"/>
-    <mergeCell ref="B115:B122"/>
+    <mergeCell ref="B314:B316"/>
+    <mergeCell ref="B317:B326"/>
+    <mergeCell ref="B328:B332"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="B233:B267"/>
+    <mergeCell ref="B274:B306"/>
+    <mergeCell ref="B309:B313"/>
+    <mergeCell ref="B269:B273"/>
     <mergeCell ref="A147:A226"/>
     <mergeCell ref="A227:A332"/>
     <mergeCell ref="A333:A404"/>
@@ -52121,15 +52105,31 @@
     <mergeCell ref="B180:B185"/>
     <mergeCell ref="B186:B222"/>
     <mergeCell ref="B223:B226"/>
-    <mergeCell ref="B314:B316"/>
-    <mergeCell ref="B317:B326"/>
-    <mergeCell ref="B328:B332"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="B233:B267"/>
-    <mergeCell ref="B274:B306"/>
-    <mergeCell ref="B309:B313"/>
-    <mergeCell ref="B269:B273"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="A112:A121"/>
+    <mergeCell ref="A123:A146"/>
+    <mergeCell ref="B123:B137"/>
+    <mergeCell ref="B138:B146"/>
+    <mergeCell ref="B115:B122"/>
+    <mergeCell ref="A57:A69"/>
+    <mergeCell ref="B57:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="A70:A111"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B73:B95"/>
+    <mergeCell ref="B96:B105"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="B47:B56"/>
+    <mergeCell ref="A34:A56"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A16:A33"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B33"/>
   </mergeCells>
   <conditionalFormatting sqref="E328:F328 E306:F307 E322:F326 E125:F125">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -52143,21 +52143,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F414E67DA4490F438DF7F839DDD88F54" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="968179862b391a59b7f67eb3e7667402">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fddf207-9565-4c1d-88a2-78ac3eb02019" xmlns:ns3="1750c493-bee6-4013-b7a9-faed7d1eacd9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fc6ea6213b4ec21afdfc08f0704f67a" ns2:_="" ns3:_="">
     <xsd:import namespace="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
@@ -52360,10 +52345,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E6096D8-1CD1-477D-852D-41029505002A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD5FE2FF-FFA2-4AC8-B9A7-6009CF780188}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
+    <ds:schemaRef ds:uri="1750c493-bee6-4013-b7a9-faed7d1eacd9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -52386,20 +52397,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD5FE2FF-FFA2-4AC8-B9A7-6009CF780188}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E6096D8-1CD1-477D-852D-41029505002A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
-    <ds:schemaRef ds:uri="1750c493-bee6-4013-b7a9-faed7d1eacd9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Carto/POI/PDS_Category_Assignment.xlsx
+++ b/Carto/POI/PDS_Category_Assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauragar/icons-by-here-technologies/Carto/POI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B15DEA-55EF-994E-87F3-6FF04B3766DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C99C1B-6754-4E4E-8F95-DE6C094E652C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27600" xr2:uid="{C64EB798-04F6-AE43-9DCC-0EA02E11247A}"/>
   </bookViews>
@@ -2829,18 +2829,9 @@
     <t>Home Improvement</t>
   </si>
   <si>
-    <t>restaurant_solid_24px.svg</t>
-  </si>
-  <si>
     <t>fast-food_solid_24px.svg</t>
   </si>
   <si>
-    <t xml:space="preserve"> coffee-tea_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>coffee-tea_solid_24px.svg</t>
-  </si>
-  <si>
     <t>night-club_solid_24px.svg</t>
   </si>
   <si>
@@ -3061,6 +3052,15 @@
   </si>
   <si>
     <t>business-main_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>eatdrink-main_solid_24px.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eatdrink-coffee_solid_24px</t>
+  </si>
+  <si>
+    <t>eatdrink-coffee_solid_24px</t>
   </si>
 </sst>
 </file>
@@ -3546,6 +3546,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3555,28 +3573,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12588,8 +12588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693BBA9B-95F3-BD4A-928B-DD81DFE8C409}">
   <dimension ref="A1:XFD422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="D275" sqref="D275"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="50" customHeight="1" outlineLevelCol="1"/>
@@ -12646,10 +12646,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="50" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>826</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="48" t="s">
         <v>833</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -12659,7 +12659,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>927</v>
+        <v>1002</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="11" t="s">
@@ -12667,8 +12667,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="50" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>927</v>
+        <v>1002</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="11" t="s">
@@ -12684,8 +12684,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="50" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>927</v>
+        <v>1002</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="11" t="s">
@@ -12701,8 +12701,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="50" customHeight="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>927</v>
+        <v>1002</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11" t="s">
@@ -12718,8 +12718,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="50" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>927</v>
+        <v>1002</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="11" t="s">
@@ -12735,8 +12735,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="50" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>927</v>
+        <v>1002</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="11" t="s">
@@ -12752,8 +12752,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50" customHeight="1">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
@@ -12761,7 +12761,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>927</v>
+        <v>1002</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="11" t="s">
@@ -12769,8 +12769,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="50" customHeight="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
@@ -12778,7 +12778,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>927</v>
+        <v>1002</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11" t="s">
@@ -12786,8 +12786,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="50" customHeight="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>927</v>
+        <v>1002</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="11" t="s">
@@ -12803,8 +12803,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="50" customHeight="1">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="48" t="s">
         <v>834</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -12814,7 +12814,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11" t="s">
@@ -12822,8 +12822,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="50" customHeight="1">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>929</v>
+        <v>1003</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="11" t="s">
@@ -12839,8 +12839,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="50" customHeight="1">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="8" t="s">
         <v>25</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>930</v>
+        <v>1004</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="11" t="s">
@@ -12856,8 +12856,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="50" customHeight="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="8" t="s">
         <v>27</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>929</v>
+        <v>1003</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="11" t="s">
@@ -12873,10 +12873,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="50" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="47" t="s">
         <v>831</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="47" t="s">
         <v>836</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -12886,7 +12886,7 @@
         <v>30</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="12" t="s">
@@ -12894,8 +12894,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="50" customHeight="1">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="12" t="s">
@@ -12911,8 +12911,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="50" customHeight="1">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="8" t="s">
         <v>33</v>
       </c>
@@ -12920,7 +12920,7 @@
         <v>34</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="12" t="s">
@@ -12928,8 +12928,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="50" customHeight="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="8" t="s">
         <v>35</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>36</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="12" t="s">
@@ -12945,8 +12945,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="50" customHeight="1">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="8" t="s">
         <v>37</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="12" t="s">
@@ -12962,8 +12962,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="50" customHeight="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="8" t="s">
         <v>39</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>40</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="12" t="s">
@@ -12979,8 +12979,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="50" customHeight="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="8" t="s">
         <v>41</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>42</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="12" t="s">
@@ -12996,8 +12996,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="50" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="8" t="s">
         <v>43</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>44</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="12" t="s">
@@ -13013,8 +13013,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="50" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="8" t="s">
         <v>45</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>46</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="12" t="s">
@@ -13030,8 +13030,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="50" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>47</v>
       </c>
@@ -13039,15 +13039,15 @@
         <v>48</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="50" customHeight="1">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="8" t="s">
         <v>49</v>
       </c>
@@ -13055,7 +13055,7 @@
         <v>50</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="12" t="s">
@@ -13063,8 +13063,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="50" customHeight="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="8" t="s">
         <v>51</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>52</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="12" t="s">
@@ -13080,7 +13080,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="50" customHeight="1">
-      <c r="A28" s="44"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="14" t="s">
         <v>837</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>54</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="12" t="s">
@@ -13099,8 +13099,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="50" customHeight="1">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44" t="s">
+      <c r="A29" s="47"/>
+      <c r="B29" s="47" t="s">
         <v>838</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -13110,7 +13110,7 @@
         <v>56</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="12" t="s">
@@ -13118,8 +13118,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="50" customHeight="1">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="8" t="s">
         <v>57</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>58</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="12" t="s">
@@ -13135,8 +13135,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="50" customHeight="1">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="47" t="s">
         <v>839</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -13146,7 +13146,7 @@
         <v>60</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="12" t="s">
@@ -13154,8 +13154,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="50" customHeight="1">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="8" t="s">
         <v>61</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>62</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="12" t="s">
@@ -13171,8 +13171,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="50" customHeight="1">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="8" t="s">
         <v>63</v>
       </c>
@@ -13180,7 +13180,7 @@
         <v>64</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="12" t="s">
@@ -13188,10 +13188,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="50" customHeight="1">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="38" t="s">
         <v>835</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="47" t="s">
         <v>843</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -13201,7 +13201,7 @@
         <v>66</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="18" t="s">
@@ -13209,8 +13209,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="50" customHeight="1">
-      <c r="A35" s="42"/>
-      <c r="B35" s="44"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="8" t="s">
         <v>67</v>
       </c>
@@ -13218,7 +13218,7 @@
         <v>68</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="18" t="s">
@@ -13226,8 +13226,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="50" customHeight="1">
-      <c r="A36" s="42"/>
-      <c r="B36" s="44"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="8" t="s">
         <v>69</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>70</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="18" t="s">
@@ -13243,8 +13243,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="50" customHeight="1">
-      <c r="A37" s="42"/>
-      <c r="B37" s="44"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="8" t="s">
         <v>71</v>
       </c>
@@ -13252,7 +13252,7 @@
         <v>72</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="18" t="s">
@@ -13260,8 +13260,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="50" customHeight="1">
-      <c r="A38" s="42"/>
-      <c r="B38" s="44"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="8" t="s">
         <v>73</v>
       </c>
@@ -13275,8 +13275,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="50" customHeight="1">
-      <c r="A39" s="42"/>
-      <c r="B39" s="44"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="8" t="s">
         <v>75</v>
       </c>
@@ -13290,8 +13290,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="50" customHeight="1">
-      <c r="A40" s="42"/>
-      <c r="B40" s="44"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="8" t="s">
         <v>77</v>
       </c>
@@ -13305,8 +13305,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="50" customHeight="1">
-      <c r="A41" s="42"/>
-      <c r="B41" s="44"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="8" t="s">
         <v>79</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>80</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="18" t="s">
@@ -13322,8 +13322,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="50" customHeight="1">
-      <c r="A42" s="42"/>
-      <c r="B42" s="44" t="s">
+      <c r="A42" s="39"/>
+      <c r="B42" s="47" t="s">
         <v>844</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -13333,7 +13333,7 @@
         <v>82</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="18" t="s">
@@ -13341,8 +13341,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="50" customHeight="1">
-      <c r="A43" s="42"/>
-      <c r="B43" s="44"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="8" t="s">
         <v>83</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>84</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="18" t="s">
@@ -13358,8 +13358,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="50" customHeight="1">
-      <c r="A44" s="42"/>
-      <c r="B44" s="44"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="8" t="s">
         <v>85</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>86</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="18" t="s">
@@ -13375,8 +13375,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="50" customHeight="1">
-      <c r="A45" s="42"/>
-      <c r="B45" s="44"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="8" t="s">
         <v>87</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>88</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="18" t="s">
@@ -13392,8 +13392,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="50" customHeight="1">
-      <c r="A46" s="42"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="8" t="s">
         <v>89</v>
       </c>
@@ -13401,7 +13401,7 @@
         <v>90</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="18" t="s">
@@ -13409,8 +13409,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="50" customHeight="1">
-      <c r="A47" s="42"/>
-      <c r="B47" s="38" t="s">
+      <c r="A47" s="39"/>
+      <c r="B47" s="44" t="s">
         <v>845</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -13420,7 +13420,7 @@
         <v>92</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="18" t="s">
@@ -13428,8 +13428,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="50" customHeight="1">
-      <c r="A48" s="42"/>
-      <c r="B48" s="39"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="8" t="s">
         <v>93</v>
       </c>
@@ -13437,7 +13437,7 @@
         <v>94</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="18" t="s">
@@ -13445,8 +13445,8 @@
       </c>
     </row>
     <row r="49" spans="1:16384" ht="50" customHeight="1">
-      <c r="A49" s="42"/>
-      <c r="B49" s="39"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="8" t="s">
         <v>95</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>96</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="18" t="s">
@@ -13462,8 +13462,8 @@
       </c>
     </row>
     <row r="50" spans="1:16384" ht="50" customHeight="1">
-      <c r="A50" s="42"/>
-      <c r="B50" s="39"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="8" t="s">
         <v>97</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>98</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="18" t="s">
@@ -13479,8 +13479,8 @@
       </c>
     </row>
     <row r="51" spans="1:16384" ht="50" customHeight="1">
-      <c r="A51" s="42"/>
-      <c r="B51" s="39"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="8" t="s">
         <v>99</v>
       </c>
@@ -13488,7 +13488,7 @@
         <v>100</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="18" t="s">
@@ -13496,8 +13496,8 @@
       </c>
     </row>
     <row r="52" spans="1:16384" ht="50" customHeight="1">
-      <c r="A52" s="42"/>
-      <c r="B52" s="39"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="8" t="s">
         <v>101</v>
       </c>
@@ -13505,7 +13505,7 @@
         <v>102</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="18" t="s">
@@ -13513,8 +13513,8 @@
       </c>
     </row>
     <row r="53" spans="1:16384" ht="50" customHeight="1">
-      <c r="A53" s="42"/>
-      <c r="B53" s="39"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="8" t="s">
         <v>101</v>
       </c>
@@ -29905,8 +29905,8 @@
       <c r="XFD53" s="34"/>
     </row>
     <row r="54" spans="1:16384" ht="50" customHeight="1">
-      <c r="A54" s="42"/>
-      <c r="B54" s="39"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="8" t="s">
         <v>103</v>
       </c>
@@ -29914,7 +29914,7 @@
         <v>104</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="18" t="s">
@@ -29922,8 +29922,8 @@
       </c>
     </row>
     <row r="55" spans="1:16384" ht="50" customHeight="1">
-      <c r="A55" s="42"/>
-      <c r="B55" s="39"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="8" t="s">
         <v>105</v>
       </c>
@@ -29931,7 +29931,7 @@
         <v>106</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="18" t="s">
@@ -29939,8 +29939,8 @@
       </c>
     </row>
     <row r="56" spans="1:16384" ht="50" customHeight="1">
-      <c r="A56" s="43"/>
-      <c r="B56" s="40"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="35" t="s">
         <v>920</v>
       </c>
@@ -29954,10 +29954,10 @@
       </c>
     </row>
     <row r="57" spans="1:16384" ht="50" customHeight="1">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="38" t="s">
         <v>846</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="38" t="s">
         <v>847</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -29967,7 +29967,7 @@
         <v>108</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="19" t="s">
@@ -29975,8 +29975,8 @@
       </c>
     </row>
     <row r="58" spans="1:16384" ht="50" customHeight="1">
-      <c r="A58" s="42"/>
-      <c r="B58" s="42"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="8" t="s">
         <v>109</v>
       </c>
@@ -29990,8 +29990,8 @@
       </c>
     </row>
     <row r="59" spans="1:16384" ht="50" customHeight="1">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
       <c r="C59" s="8" t="s">
         <v>111</v>
       </c>
@@ -30005,8 +30005,8 @@
       </c>
     </row>
     <row r="60" spans="1:16384" ht="50" customHeight="1">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
       <c r="C60" s="8" t="s">
         <v>113</v>
       </c>
@@ -30014,7 +30014,7 @@
         <v>114</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="19" t="s">
@@ -30022,8 +30022,8 @@
       </c>
     </row>
     <row r="61" spans="1:16384" ht="50" customHeight="1">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
       <c r="C61" s="8" t="s">
         <v>115</v>
       </c>
@@ -30037,8 +30037,8 @@
       </c>
     </row>
     <row r="62" spans="1:16384" ht="50" customHeight="1">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
       <c r="C62" s="8" t="s">
         <v>117</v>
       </c>
@@ -30052,8 +30052,8 @@
       </c>
     </row>
     <row r="63" spans="1:16384" ht="50" customHeight="1">
-      <c r="A63" s="42"/>
-      <c r="B63" s="43"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="8" t="s">
         <v>119</v>
       </c>
@@ -30067,8 +30067,8 @@
       </c>
     </row>
     <row r="64" spans="1:16384" ht="50" customHeight="1">
-      <c r="A64" s="42"/>
-      <c r="B64" s="41" t="s">
+      <c r="A64" s="39"/>
+      <c r="B64" s="38" t="s">
         <v>848</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -30078,7 +30078,7 @@
         <v>122</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="19" t="s">
@@ -30086,8 +30086,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="50" customHeight="1">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
       <c r="C65" s="8" t="s">
         <v>123</v>
       </c>
@@ -30095,7 +30095,7 @@
         <v>124</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="19" t="s">
@@ -30103,8 +30103,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="50" customHeight="1">
-      <c r="A66" s="42"/>
-      <c r="B66" s="43"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="8" t="s">
         <v>125</v>
       </c>
@@ -30112,7 +30112,7 @@
         <v>126</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="19" t="s">
@@ -30120,7 +30120,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="50" customHeight="1">
-      <c r="A67" s="42"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="14" t="s">
         <v>849</v>
       </c>
@@ -30137,7 +30137,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="50" customHeight="1">
-      <c r="A68" s="42"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="14" t="s">
         <v>850</v>
       </c>
@@ -30148,7 +30148,7 @@
         <v>130</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="19" t="s">
@@ -30156,7 +30156,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="50" customHeight="1">
-      <c r="A69" s="43"/>
+      <c r="A69" s="40"/>
       <c r="B69" s="14" t="s">
         <v>851</v>
       </c>
@@ -30167,7 +30167,7 @@
         <v>132</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="19" t="s">
@@ -30175,10 +30175,10 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="50" customHeight="1">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="38" t="s">
         <v>854</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="38" t="s">
         <v>856</v>
       </c>
       <c r="C70" s="8" t="s">
@@ -30188,7 +30188,7 @@
         <v>134</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="21" t="s">
@@ -30196,8 +30196,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="50" customHeight="1">
-      <c r="A71" s="42"/>
-      <c r="B71" s="42"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
       <c r="C71" s="8" t="s">
         <v>135</v>
       </c>
@@ -30205,7 +30205,7 @@
         <v>136</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="21" t="s">
@@ -30213,8 +30213,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="50" customHeight="1">
-      <c r="A72" s="42"/>
-      <c r="B72" s="43"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="40"/>
       <c r="C72" s="8" t="s">
         <v>137</v>
       </c>
@@ -30222,7 +30222,7 @@
         <v>138</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="21" t="s">
@@ -30230,8 +30230,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="50" customHeight="1">
-      <c r="A73" s="42"/>
-      <c r="B73" s="41" t="s">
+      <c r="A73" s="39"/>
+      <c r="B73" s="38" t="s">
         <v>855</v>
       </c>
       <c r="C73" s="8" t="s">
@@ -30241,7 +30241,7 @@
         <v>140</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="21" t="s">
@@ -30249,8 +30249,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="50" customHeight="1">
-      <c r="A74" s="42"/>
-      <c r="B74" s="42"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
       <c r="C74" s="8" t="s">
         <v>141</v>
       </c>
@@ -30258,7 +30258,7 @@
         <v>142</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="21" t="s">
@@ -30266,8 +30266,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="50" customHeight="1">
-      <c r="A75" s="42"/>
-      <c r="B75" s="42"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="8" t="s">
         <v>143</v>
       </c>
@@ -30275,7 +30275,7 @@
         <v>144</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="21" t="s">
@@ -30283,8 +30283,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="50" customHeight="1">
-      <c r="A76" s="42"/>
-      <c r="B76" s="42"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
       <c r="C76" s="8" t="s">
         <v>145</v>
       </c>
@@ -30292,7 +30292,7 @@
         <v>146</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="21" t="s">
@@ -30300,8 +30300,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="50" customHeight="1">
-      <c r="A77" s="42"/>
-      <c r="B77" s="42"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
       <c r="C77" s="8" t="s">
         <v>147</v>
       </c>
@@ -30309,7 +30309,7 @@
         <v>148</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="21" t="s">
@@ -30317,8 +30317,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="50" customHeight="1">
-      <c r="A78" s="42"/>
-      <c r="B78" s="42"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="8" t="s">
         <v>149</v>
       </c>
@@ -30332,8 +30332,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="50" customHeight="1">
-      <c r="A79" s="42"/>
-      <c r="B79" s="42"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="8" t="s">
         <v>151</v>
       </c>
@@ -30347,8 +30347,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="50" customHeight="1">
-      <c r="A80" s="42"/>
-      <c r="B80" s="42"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
       <c r="C80" s="8" t="s">
         <v>153</v>
       </c>
@@ -30356,7 +30356,7 @@
         <v>154</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="21" t="s">
@@ -30364,8 +30364,8 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="50" customHeight="1">
-      <c r="A81" s="42"/>
-      <c r="B81" s="42"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="8" t="s">
         <v>155</v>
       </c>
@@ -30379,8 +30379,8 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="50" customHeight="1">
-      <c r="A82" s="42"/>
-      <c r="B82" s="42"/>
+      <c r="A82" s="39"/>
+      <c r="B82" s="39"/>
       <c r="C82" s="8" t="s">
         <v>157</v>
       </c>
@@ -30388,7 +30388,7 @@
         <v>158</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="21" t="s">
@@ -30396,8 +30396,8 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="50" customHeight="1">
-      <c r="A83" s="42"/>
-      <c r="B83" s="42"/>
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
       <c r="C83" s="8" t="s">
         <v>159</v>
       </c>
@@ -30405,7 +30405,7 @@
         <v>160</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="21" t="s">
@@ -30413,8 +30413,8 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="50" customHeight="1">
-      <c r="A84" s="42"/>
-      <c r="B84" s="42"/>
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
       <c r="C84" s="8" t="s">
         <v>161</v>
       </c>
@@ -30422,7 +30422,7 @@
         <v>162</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="21" t="s">
@@ -30430,8 +30430,8 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="50" customHeight="1">
-      <c r="A85" s="42"/>
-      <c r="B85" s="42"/>
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
       <c r="C85" s="8" t="s">
         <v>163</v>
       </c>
@@ -30439,7 +30439,7 @@
         <v>164</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="21" t="s">
@@ -30450,8 +30450,8 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="50" customHeight="1">
-      <c r="A86" s="42"/>
-      <c r="B86" s="42"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
       <c r="C86" s="8" t="s">
         <v>165</v>
       </c>
@@ -30465,8 +30465,8 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="50" customHeight="1">
-      <c r="A87" s="42"/>
-      <c r="B87" s="42"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="39"/>
       <c r="C87" s="8" t="s">
         <v>167</v>
       </c>
@@ -30474,7 +30474,7 @@
         <v>168</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="21" t="s">
@@ -30482,8 +30482,8 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="50" customHeight="1">
-      <c r="A88" s="42"/>
-      <c r="B88" s="42"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
       <c r="C88" s="8" t="s">
         <v>169</v>
       </c>
@@ -30491,7 +30491,7 @@
         <v>170</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="21" t="s">
@@ -30499,8 +30499,8 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="50" customHeight="1">
-      <c r="A89" s="42"/>
-      <c r="B89" s="42"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="39"/>
       <c r="C89" s="8" t="s">
         <v>171</v>
       </c>
@@ -30514,8 +30514,8 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="50" customHeight="1">
-      <c r="A90" s="42"/>
-      <c r="B90" s="42"/>
+      <c r="A90" s="39"/>
+      <c r="B90" s="39"/>
       <c r="C90" s="8" t="s">
         <v>173</v>
       </c>
@@ -30523,7 +30523,7 @@
         <v>174</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="21" t="s">
@@ -30531,8 +30531,8 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="50" customHeight="1">
-      <c r="A91" s="42"/>
-      <c r="B91" s="42"/>
+      <c r="A91" s="39"/>
+      <c r="B91" s="39"/>
       <c r="C91" s="8" t="s">
         <v>175</v>
       </c>
@@ -30540,7 +30540,7 @@
         <v>176</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="21" t="s">
@@ -30548,8 +30548,8 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="50" customHeight="1">
-      <c r="A92" s="42"/>
-      <c r="B92" s="42"/>
+      <c r="A92" s="39"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="8" t="s">
         <v>177</v>
       </c>
@@ -30563,8 +30563,8 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="50" customHeight="1">
-      <c r="A93" s="42"/>
-      <c r="B93" s="42"/>
+      <c r="A93" s="39"/>
+      <c r="B93" s="39"/>
       <c r="C93" s="8" t="s">
         <v>179</v>
       </c>
@@ -30572,7 +30572,7 @@
         <v>180</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="21" t="s">
@@ -30580,8 +30580,8 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="50" customHeight="1">
-      <c r="A94" s="42"/>
-      <c r="B94" s="42"/>
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="8" t="s">
         <v>181</v>
       </c>
@@ -30595,8 +30595,8 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="50" customHeight="1">
-      <c r="A95" s="42"/>
-      <c r="B95" s="43"/>
+      <c r="A95" s="39"/>
+      <c r="B95" s="40"/>
       <c r="C95" s="8" t="s">
         <v>183</v>
       </c>
@@ -30610,8 +30610,8 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="50" customHeight="1">
-      <c r="A96" s="42"/>
-      <c r="B96" s="41" t="s">
+      <c r="A96" s="39"/>
+      <c r="B96" s="38" t="s">
         <v>857</v>
       </c>
       <c r="C96" s="8" t="s">
@@ -30627,8 +30627,8 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="50" customHeight="1">
-      <c r="A97" s="42"/>
-      <c r="B97" s="42"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="39"/>
       <c r="C97" s="8" t="s">
         <v>187</v>
       </c>
@@ -30642,8 +30642,8 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="50" customHeight="1">
-      <c r="A98" s="42"/>
-      <c r="B98" s="42"/>
+      <c r="A98" s="39"/>
+      <c r="B98" s="39"/>
       <c r="C98" s="8" t="s">
         <v>189</v>
       </c>
@@ -30657,8 +30657,8 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="50" customHeight="1">
-      <c r="A99" s="42"/>
-      <c r="B99" s="42"/>
+      <c r="A99" s="39"/>
+      <c r="B99" s="39"/>
       <c r="C99" s="8" t="s">
         <v>191</v>
       </c>
@@ -30672,8 +30672,8 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="50" customHeight="1">
-      <c r="A100" s="42"/>
-      <c r="B100" s="42"/>
+      <c r="A100" s="39"/>
+      <c r="B100" s="39"/>
       <c r="C100" s="8" t="s">
         <v>193</v>
       </c>
@@ -30687,8 +30687,8 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="50" customHeight="1">
-      <c r="A101" s="42"/>
-      <c r="B101" s="42"/>
+      <c r="A101" s="39"/>
+      <c r="B101" s="39"/>
       <c r="C101" s="8" t="s">
         <v>195</v>
       </c>
@@ -30702,8 +30702,8 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="50" customHeight="1">
-      <c r="A102" s="42"/>
-      <c r="B102" s="42"/>
+      <c r="A102" s="39"/>
+      <c r="B102" s="39"/>
       <c r="C102" s="8" t="s">
         <v>197</v>
       </c>
@@ -30717,8 +30717,8 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="50" customHeight="1">
-      <c r="A103" s="42"/>
-      <c r="B103" s="42"/>
+      <c r="A103" s="39"/>
+      <c r="B103" s="39"/>
       <c r="C103" s="8" t="s">
         <v>199</v>
       </c>
@@ -30732,8 +30732,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="50" customHeight="1">
-      <c r="A104" s="42"/>
-      <c r="B104" s="42"/>
+      <c r="A104" s="39"/>
+      <c r="B104" s="39"/>
       <c r="C104" s="8" t="s">
         <v>201</v>
       </c>
@@ -30747,8 +30747,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="50" customHeight="1">
-      <c r="A105" s="42"/>
-      <c r="B105" s="43"/>
+      <c r="A105" s="39"/>
+      <c r="B105" s="40"/>
       <c r="C105" s="8" t="s">
         <v>203</v>
       </c>
@@ -30762,8 +30762,8 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="50" customHeight="1">
-      <c r="A106" s="42"/>
-      <c r="B106" s="41" t="s">
+      <c r="A106" s="39"/>
+      <c r="B106" s="38" t="s">
         <v>858</v>
       </c>
       <c r="C106" s="8" t="s">
@@ -30773,7 +30773,7 @@
         <v>206</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F106" s="10"/>
       <c r="G106" s="20" t="s">
@@ -30781,8 +30781,8 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="50" customHeight="1">
-      <c r="A107" s="42"/>
-      <c r="B107" s="42"/>
+      <c r="A107" s="39"/>
+      <c r="B107" s="39"/>
       <c r="C107" s="8" t="s">
         <v>207</v>
       </c>
@@ -30790,7 +30790,7 @@
         <v>208</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F107" s="10"/>
       <c r="G107" s="20" t="s">
@@ -30798,8 +30798,8 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="50" customHeight="1">
-      <c r="A108" s="42"/>
-      <c r="B108" s="42"/>
+      <c r="A108" s="39"/>
+      <c r="B108" s="39"/>
       <c r="C108" s="8" t="s">
         <v>209</v>
       </c>
@@ -30807,7 +30807,7 @@
         <v>210</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="20" t="s">
@@ -30815,8 +30815,8 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="50" customHeight="1">
-      <c r="A109" s="42"/>
-      <c r="B109" s="42"/>
+      <c r="A109" s="39"/>
+      <c r="B109" s="39"/>
       <c r="C109" s="8" t="s">
         <v>211</v>
       </c>
@@ -30824,7 +30824,7 @@
         <v>212</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F109" s="10"/>
       <c r="G109" s="20" t="s">
@@ -30832,8 +30832,8 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="50" customHeight="1">
-      <c r="A110" s="42"/>
-      <c r="B110" s="42"/>
+      <c r="A110" s="39"/>
+      <c r="B110" s="39"/>
       <c r="C110" s="8" t="s">
         <v>213</v>
       </c>
@@ -30841,7 +30841,7 @@
         <v>214</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F110" s="10"/>
       <c r="G110" s="20" t="s">
@@ -30849,8 +30849,8 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="50" customHeight="1">
-      <c r="A111" s="43"/>
-      <c r="B111" s="43"/>
+      <c r="A111" s="40"/>
+      <c r="B111" s="40"/>
       <c r="C111" s="8" t="s">
         <v>215</v>
       </c>
@@ -30858,7 +30858,7 @@
         <v>216</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="F111" s="10"/>
       <c r="G111" s="20" t="s">
@@ -30866,10 +30866,10 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="50" customHeight="1">
-      <c r="A112" s="41" t="s">
+      <c r="A112" s="38" t="s">
         <v>859</v>
       </c>
-      <c r="B112" s="41" t="s">
+      <c r="B112" s="38" t="s">
         <v>860</v>
       </c>
       <c r="C112" s="8" t="s">
@@ -30879,7 +30879,7 @@
         <v>218</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F112" s="10"/>
       <c r="G112" s="22" t="s">
@@ -30887,8 +30887,8 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="50" customHeight="1">
-      <c r="A113" s="42"/>
-      <c r="B113" s="42"/>
+      <c r="A113" s="39"/>
+      <c r="B113" s="39"/>
       <c r="C113" s="8" t="s">
         <v>219</v>
       </c>
@@ -30896,7 +30896,7 @@
         <v>220</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F113" s="10"/>
       <c r="G113" s="22" t="s">
@@ -30904,8 +30904,8 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="50" customHeight="1">
-      <c r="A114" s="42"/>
-      <c r="B114" s="43"/>
+      <c r="A114" s="39"/>
+      <c r="B114" s="40"/>
       <c r="C114" s="8" t="s">
         <v>221</v>
       </c>
@@ -30913,7 +30913,7 @@
         <v>222</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="22" t="s">
@@ -30921,8 +30921,8 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="50" customHeight="1">
-      <c r="A115" s="42"/>
-      <c r="B115" s="38" t="s">
+      <c r="A115" s="39"/>
+      <c r="B115" s="44" t="s">
         <v>861</v>
       </c>
       <c r="C115" s="8" t="s">
@@ -30932,7 +30932,7 @@
         <v>224</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F115" s="10"/>
       <c r="G115" s="22" t="s">
@@ -30940,8 +30940,8 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="50" customHeight="1">
-      <c r="A116" s="42"/>
-      <c r="B116" s="39"/>
+      <c r="A116" s="39"/>
+      <c r="B116" s="45"/>
       <c r="C116" s="8" t="s">
         <v>225</v>
       </c>
@@ -30949,7 +30949,7 @@
         <v>226</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F116" s="10"/>
       <c r="G116" s="22" t="s">
@@ -30957,8 +30957,8 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="50" customHeight="1">
-      <c r="A117" s="42"/>
-      <c r="B117" s="39"/>
+      <c r="A117" s="39"/>
+      <c r="B117" s="45"/>
       <c r="C117" s="8" t="s">
         <v>227</v>
       </c>
@@ -30966,7 +30966,7 @@
         <v>228</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F117" s="10"/>
       <c r="G117" s="22" t="s">
@@ -30974,8 +30974,8 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="50" customHeight="1">
-      <c r="A118" s="42"/>
-      <c r="B118" s="39"/>
+      <c r="A118" s="39"/>
+      <c r="B118" s="45"/>
       <c r="C118" s="8" t="s">
         <v>229</v>
       </c>
@@ -30983,7 +30983,7 @@
         <v>230</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="22" t="s">
@@ -30991,8 +30991,8 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="50" customHeight="1">
-      <c r="A119" s="42"/>
-      <c r="B119" s="39"/>
+      <c r="A119" s="39"/>
+      <c r="B119" s="45"/>
       <c r="C119" s="8" t="s">
         <v>231</v>
       </c>
@@ -31000,7 +31000,7 @@
         <v>232</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="22" t="s">
@@ -31008,8 +31008,8 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="50" customHeight="1">
-      <c r="A120" s="42"/>
-      <c r="B120" s="39"/>
+      <c r="A120" s="39"/>
+      <c r="B120" s="45"/>
       <c r="C120" s="8" t="s">
         <v>233</v>
       </c>
@@ -31017,7 +31017,7 @@
         <v>234</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="22" t="s">
@@ -31025,8 +31025,8 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="50" customHeight="1">
-      <c r="A121" s="42"/>
-      <c r="B121" s="39"/>
+      <c r="A121" s="39"/>
+      <c r="B121" s="45"/>
       <c r="C121" s="8" t="s">
         <v>235</v>
       </c>
@@ -31034,7 +31034,7 @@
         <v>236</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="22" t="s">
@@ -31043,7 +31043,7 @@
     </row>
     <row r="122" spans="1:7" ht="50" customHeight="1">
       <c r="A122" s="17"/>
-      <c r="B122" s="39"/>
+      <c r="B122" s="45"/>
       <c r="C122" s="35" t="s">
         <v>917</v>
       </c>
@@ -31057,10 +31057,10 @@
       </c>
     </row>
     <row r="123" spans="1:7" ht="50" customHeight="1">
-      <c r="A123" s="42" t="s">
+      <c r="A123" s="39" t="s">
         <v>865</v>
       </c>
-      <c r="B123" s="42" t="s">
+      <c r="B123" s="39" t="s">
         <v>866</v>
       </c>
       <c r="C123" s="8" t="s">
@@ -31070,7 +31070,7 @@
         <v>238</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="F123" s="10"/>
       <c r="G123" s="23" t="s">
@@ -31078,8 +31078,8 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="50" customHeight="1">
-      <c r="A124" s="42"/>
-      <c r="B124" s="42"/>
+      <c r="A124" s="39"/>
+      <c r="B124" s="39"/>
       <c r="C124" s="8" t="s">
         <v>239</v>
       </c>
@@ -31087,7 +31087,7 @@
         <v>240</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="23" t="s">
@@ -31095,8 +31095,8 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="50" customHeight="1">
-      <c r="A125" s="42"/>
-      <c r="B125" s="42"/>
+      <c r="A125" s="39"/>
+      <c r="B125" s="39"/>
       <c r="C125" s="8" t="s">
         <v>241</v>
       </c>
@@ -31110,8 +31110,8 @@
       </c>
     </row>
     <row r="126" spans="1:7" ht="50" customHeight="1">
-      <c r="A126" s="42"/>
-      <c r="B126" s="42"/>
+      <c r="A126" s="39"/>
+      <c r="B126" s="39"/>
       <c r="C126" s="8" t="s">
         <v>243</v>
       </c>
@@ -31119,7 +31119,7 @@
         <v>244</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="F126" s="10"/>
       <c r="G126" s="23" t="s">
@@ -31127,8 +31127,8 @@
       </c>
     </row>
     <row r="127" spans="1:7" ht="50" customHeight="1">
-      <c r="A127" s="42"/>
-      <c r="B127" s="42"/>
+      <c r="A127" s="39"/>
+      <c r="B127" s="39"/>
       <c r="C127" s="8" t="s">
         <v>245</v>
       </c>
@@ -31136,7 +31136,7 @@
         <v>246</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="F127" s="10"/>
       <c r="G127" s="23" t="s">
@@ -31144,8 +31144,8 @@
       </c>
     </row>
     <row r="128" spans="1:7" ht="50" customHeight="1">
-      <c r="A128" s="42"/>
-      <c r="B128" s="42"/>
+      <c r="A128" s="39"/>
+      <c r="B128" s="39"/>
       <c r="C128" s="8" t="s">
         <v>247</v>
       </c>
@@ -31159,8 +31159,8 @@
       </c>
     </row>
     <row r="129" spans="1:7" ht="50" customHeight="1">
-      <c r="A129" s="42"/>
-      <c r="B129" s="42"/>
+      <c r="A129" s="39"/>
+      <c r="B129" s="39"/>
       <c r="C129" s="8" t="s">
         <v>249</v>
       </c>
@@ -31174,8 +31174,8 @@
       </c>
     </row>
     <row r="130" spans="1:7" ht="50" customHeight="1">
-      <c r="A130" s="42"/>
-      <c r="B130" s="42"/>
+      <c r="A130" s="39"/>
+      <c r="B130" s="39"/>
       <c r="C130" s="8" t="s">
         <v>251</v>
       </c>
@@ -31183,7 +31183,7 @@
         <v>252</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="F130" s="10"/>
       <c r="G130" s="23" t="s">
@@ -31191,8 +31191,8 @@
       </c>
     </row>
     <row r="131" spans="1:7" ht="50" customHeight="1">
-      <c r="A131" s="42"/>
-      <c r="B131" s="42"/>
+      <c r="A131" s="39"/>
+      <c r="B131" s="39"/>
       <c r="C131" s="8" t="s">
         <v>253</v>
       </c>
@@ -31206,8 +31206,8 @@
       </c>
     </row>
     <row r="132" spans="1:7" ht="50" customHeight="1">
-      <c r="A132" s="42"/>
-      <c r="B132" s="42"/>
+      <c r="A132" s="39"/>
+      <c r="B132" s="39"/>
       <c r="C132" s="8" t="s">
         <v>255</v>
       </c>
@@ -31221,8 +31221,8 @@
       </c>
     </row>
     <row r="133" spans="1:7" ht="50" customHeight="1">
-      <c r="A133" s="42"/>
-      <c r="B133" s="42"/>
+      <c r="A133" s="39"/>
+      <c r="B133" s="39"/>
       <c r="C133" s="8" t="s">
         <v>257</v>
       </c>
@@ -31236,8 +31236,8 @@
       </c>
     </row>
     <row r="134" spans="1:7" ht="50" customHeight="1">
-      <c r="A134" s="42"/>
-      <c r="B134" s="42"/>
+      <c r="A134" s="39"/>
+      <c r="B134" s="39"/>
       <c r="C134" s="8" t="s">
         <v>259</v>
       </c>
@@ -31245,7 +31245,7 @@
         <v>260</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="23" t="s">
@@ -31253,8 +31253,8 @@
       </c>
     </row>
     <row r="135" spans="1:7" ht="50" customHeight="1">
-      <c r="A135" s="42"/>
-      <c r="B135" s="42"/>
+      <c r="A135" s="39"/>
+      <c r="B135" s="39"/>
       <c r="C135" s="8" t="s">
         <v>261</v>
       </c>
@@ -31268,8 +31268,8 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="50" customHeight="1">
-      <c r="A136" s="42"/>
-      <c r="B136" s="42"/>
+      <c r="A136" s="39"/>
+      <c r="B136" s="39"/>
       <c r="C136" s="8" t="s">
         <v>263</v>
       </c>
@@ -31283,8 +31283,8 @@
       </c>
     </row>
     <row r="137" spans="1:7" ht="50" customHeight="1">
-      <c r="A137" s="42"/>
-      <c r="B137" s="43"/>
+      <c r="A137" s="39"/>
+      <c r="B137" s="40"/>
       <c r="C137" s="8" t="s">
         <v>265</v>
       </c>
@@ -31298,8 +31298,8 @@
       </c>
     </row>
     <row r="138" spans="1:7" ht="50" customHeight="1">
-      <c r="A138" s="42"/>
-      <c r="B138" s="41" t="s">
+      <c r="A138" s="39"/>
+      <c r="B138" s="38" t="s">
         <v>867</v>
       </c>
       <c r="C138" s="8" t="s">
@@ -31309,7 +31309,7 @@
         <v>268</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="F138" s="10"/>
       <c r="G138" s="23" t="s">
@@ -31317,8 +31317,8 @@
       </c>
     </row>
     <row r="139" spans="1:7" ht="50" customHeight="1">
-      <c r="A139" s="42"/>
-      <c r="B139" s="42"/>
+      <c r="A139" s="39"/>
+      <c r="B139" s="39"/>
       <c r="C139" s="8" t="s">
         <v>269</v>
       </c>
@@ -31326,7 +31326,7 @@
         <v>270</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="F139" s="10"/>
       <c r="G139" s="23" t="s">
@@ -31334,8 +31334,8 @@
       </c>
     </row>
     <row r="140" spans="1:7" ht="50" customHeight="1">
-      <c r="A140" s="42"/>
-      <c r="B140" s="42"/>
+      <c r="A140" s="39"/>
+      <c r="B140" s="39"/>
       <c r="C140" s="8" t="s">
         <v>271</v>
       </c>
@@ -31343,7 +31343,7 @@
         <v>272</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" s="23" t="s">
@@ -31351,8 +31351,8 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="50" customHeight="1">
-      <c r="A141" s="42"/>
-      <c r="B141" s="42"/>
+      <c r="A141" s="39"/>
+      <c r="B141" s="39"/>
       <c r="C141" s="8" t="s">
         <v>273</v>
       </c>
@@ -31366,8 +31366,8 @@
       </c>
     </row>
     <row r="142" spans="1:7" ht="50" customHeight="1">
-      <c r="A142" s="42"/>
-      <c r="B142" s="42"/>
+      <c r="A142" s="39"/>
+      <c r="B142" s="39"/>
       <c r="C142" s="8" t="s">
         <v>275</v>
       </c>
@@ -31381,8 +31381,8 @@
       </c>
     </row>
     <row r="143" spans="1:7" ht="50" customHeight="1">
-      <c r="A143" s="42"/>
-      <c r="B143" s="42"/>
+      <c r="A143" s="39"/>
+      <c r="B143" s="39"/>
       <c r="C143" s="8" t="s">
         <v>277</v>
       </c>
@@ -31396,8 +31396,8 @@
       </c>
     </row>
     <row r="144" spans="1:7" ht="50" customHeight="1">
-      <c r="A144" s="42"/>
-      <c r="B144" s="42"/>
+      <c r="A144" s="39"/>
+      <c r="B144" s="39"/>
       <c r="C144" s="8" t="s">
         <v>279</v>
       </c>
@@ -31405,7 +31405,7 @@
         <v>280</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="F144" s="10"/>
       <c r="G144" s="23" t="s">
@@ -31413,8 +31413,8 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="50" customHeight="1">
-      <c r="A145" s="42"/>
-      <c r="B145" s="42"/>
+      <c r="A145" s="39"/>
+      <c r="B145" s="39"/>
       <c r="C145" s="8" t="s">
         <v>281</v>
       </c>
@@ -31422,7 +31422,7 @@
         <v>282</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="23" t="s">
@@ -31430,8 +31430,8 @@
       </c>
     </row>
     <row r="146" spans="1:7" ht="50" customHeight="1">
-      <c r="A146" s="43"/>
-      <c r="B146" s="43"/>
+      <c r="A146" s="40"/>
+      <c r="B146" s="40"/>
       <c r="C146" s="8" t="s">
         <v>283</v>
       </c>
@@ -31444,7 +31444,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" ht="50" customHeight="1">
-      <c r="A147" s="41" t="s">
+      <c r="A147" s="38" t="s">
         <v>868</v>
       </c>
       <c r="B147" s="14" t="s">
@@ -31457,7 +31457,7 @@
         <v>286</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F147" s="10"/>
       <c r="G147" s="29" t="s">
@@ -31465,7 +31465,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" ht="50" customHeight="1">
-      <c r="A148" s="42"/>
+      <c r="A148" s="39"/>
       <c r="B148" s="14" t="s">
         <v>880</v>
       </c>
@@ -31476,7 +31476,7 @@
         <v>288</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F148" s="10"/>
       <c r="G148" s="29" t="s">
@@ -31484,7 +31484,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" ht="50" customHeight="1">
-      <c r="A149" s="42"/>
+      <c r="A149" s="39"/>
       <c r="B149" s="14" t="s">
         <v>881</v>
       </c>
@@ -31495,7 +31495,7 @@
         <v>290</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F149" s="10"/>
       <c r="G149" s="29" t="s">
@@ -31503,8 +31503,8 @@
       </c>
     </row>
     <row r="150" spans="1:7" ht="50" customHeight="1">
-      <c r="A150" s="42"/>
-      <c r="B150" s="46" t="s">
+      <c r="A150" s="39"/>
+      <c r="B150" s="41" t="s">
         <v>882</v>
       </c>
       <c r="C150" s="8" t="s">
@@ -31520,8 +31520,8 @@
       </c>
     </row>
     <row r="151" spans="1:7" ht="50" customHeight="1">
-      <c r="A151" s="42"/>
-      <c r="B151" s="47"/>
+      <c r="A151" s="39"/>
+      <c r="B151" s="42"/>
       <c r="C151" s="8" t="s">
         <v>293</v>
       </c>
@@ -31529,7 +31529,7 @@
         <v>294</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F151" s="10"/>
       <c r="G151" s="29" t="s">
@@ -31537,8 +31537,8 @@
       </c>
     </row>
     <row r="152" spans="1:7" ht="50" customHeight="1">
-      <c r="A152" s="42"/>
-      <c r="B152" s="47"/>
+      <c r="A152" s="39"/>
+      <c r="B152" s="42"/>
       <c r="C152" s="8" t="s">
         <v>295</v>
       </c>
@@ -31552,8 +31552,8 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="50" customHeight="1">
-      <c r="A153" s="42"/>
-      <c r="B153" s="47"/>
+      <c r="A153" s="39"/>
+      <c r="B153" s="42"/>
       <c r="C153" s="8" t="s">
         <v>297</v>
       </c>
@@ -31567,8 +31567,8 @@
       </c>
     </row>
     <row r="154" spans="1:7" ht="50" customHeight="1">
-      <c r="A154" s="42"/>
-      <c r="B154" s="47"/>
+      <c r="A154" s="39"/>
+      <c r="B154" s="42"/>
       <c r="C154" s="8" t="s">
         <v>299</v>
       </c>
@@ -31582,8 +31582,8 @@
       </c>
     </row>
     <row r="155" spans="1:7" ht="50" customHeight="1">
-      <c r="A155" s="42"/>
-      <c r="B155" s="47"/>
+      <c r="A155" s="39"/>
+      <c r="B155" s="42"/>
       <c r="C155" s="8" t="s">
         <v>301</v>
       </c>
@@ -31597,8 +31597,8 @@
       </c>
     </row>
     <row r="156" spans="1:7" ht="50" customHeight="1">
-      <c r="A156" s="42"/>
-      <c r="B156" s="47"/>
+      <c r="A156" s="39"/>
+      <c r="B156" s="42"/>
       <c r="C156" s="35" t="s">
         <v>915</v>
       </c>
@@ -31612,8 +31612,8 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="50" customHeight="1">
-      <c r="A157" s="42"/>
-      <c r="B157" s="47"/>
+      <c r="A157" s="39"/>
+      <c r="B157" s="42"/>
       <c r="C157" s="8" t="s">
         <v>303</v>
       </c>
@@ -31627,8 +31627,8 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="50" customHeight="1">
-      <c r="A158" s="42"/>
-      <c r="B158" s="48"/>
+      <c r="A158" s="39"/>
+      <c r="B158" s="43"/>
       <c r="C158" s="8" t="s">
         <v>305</v>
       </c>
@@ -31636,7 +31636,7 @@
         <v>306</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="29" t="s">
@@ -31644,8 +31644,8 @@
       </c>
     </row>
     <row r="159" spans="1:7" ht="50" customHeight="1">
-      <c r="A159" s="42"/>
-      <c r="B159" s="41" t="s">
+      <c r="A159" s="39"/>
+      <c r="B159" s="38" t="s">
         <v>883</v>
       </c>
       <c r="C159" s="8" t="s">
@@ -31655,7 +31655,7 @@
         <v>308</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="F159" s="10"/>
       <c r="G159" s="29" t="s">
@@ -31663,8 +31663,8 @@
       </c>
     </row>
     <row r="160" spans="1:7" ht="50" customHeight="1">
-      <c r="A160" s="42"/>
-      <c r="B160" s="42"/>
+      <c r="A160" s="39"/>
+      <c r="B160" s="39"/>
       <c r="C160" s="8" t="s">
         <v>309</v>
       </c>
@@ -31672,7 +31672,7 @@
         <v>310</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="F160" s="10"/>
       <c r="G160" s="29" t="s">
@@ -31680,8 +31680,8 @@
       </c>
     </row>
     <row r="161" spans="1:7" ht="50" customHeight="1">
-      <c r="A161" s="42"/>
-      <c r="B161" s="43"/>
+      <c r="A161" s="39"/>
+      <c r="B161" s="40"/>
       <c r="C161" s="8" t="s">
         <v>311</v>
       </c>
@@ -31689,7 +31689,7 @@
         <v>312</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="F161" s="10"/>
       <c r="G161" s="30" t="s">
@@ -31697,8 +31697,8 @@
       </c>
     </row>
     <row r="162" spans="1:7" ht="50" customHeight="1">
-      <c r="A162" s="42"/>
-      <c r="B162" s="41" t="s">
+      <c r="A162" s="39"/>
+      <c r="B162" s="38" t="s">
         <v>884</v>
       </c>
       <c r="C162" s="8" t="s">
@@ -31714,8 +31714,8 @@
       </c>
     </row>
     <row r="163" spans="1:7" ht="50" customHeight="1">
-      <c r="A163" s="42"/>
-      <c r="B163" s="42"/>
+      <c r="A163" s="39"/>
+      <c r="B163" s="39"/>
       <c r="C163" s="8" t="s">
         <v>315</v>
       </c>
@@ -31729,8 +31729,8 @@
       </c>
     </row>
     <row r="164" spans="1:7" ht="50" customHeight="1">
-      <c r="A164" s="42"/>
-      <c r="B164" s="42"/>
+      <c r="A164" s="39"/>
+      <c r="B164" s="39"/>
       <c r="C164" s="8" t="s">
         <v>317</v>
       </c>
@@ -31744,8 +31744,8 @@
       </c>
     </row>
     <row r="165" spans="1:7" ht="50" customHeight="1">
-      <c r="A165" s="42"/>
-      <c r="B165" s="42"/>
+      <c r="A165" s="39"/>
+      <c r="B165" s="39"/>
       <c r="C165" s="8" t="s">
         <v>319</v>
       </c>
@@ -31759,8 +31759,8 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="50" customHeight="1">
-      <c r="A166" s="42"/>
-      <c r="B166" s="43"/>
+      <c r="A166" s="39"/>
+      <c r="B166" s="40"/>
       <c r="C166" s="13" t="s">
         <v>321</v>
       </c>
@@ -31772,8 +31772,8 @@
       </c>
     </row>
     <row r="167" spans="1:7" ht="50" customHeight="1">
-      <c r="A167" s="42"/>
-      <c r="B167" s="41" t="s">
+      <c r="A167" s="39"/>
+      <c r="B167" s="38" t="s">
         <v>885</v>
       </c>
       <c r="C167" s="8" t="s">
@@ -31789,8 +31789,8 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="50" customHeight="1">
-      <c r="A168" s="42"/>
-      <c r="B168" s="42"/>
+      <c r="A168" s="39"/>
+      <c r="B168" s="39"/>
       <c r="C168" s="8" t="s">
         <v>325</v>
       </c>
@@ -31804,8 +31804,8 @@
       </c>
     </row>
     <row r="169" spans="1:7" ht="50" customHeight="1">
-      <c r="A169" s="42"/>
-      <c r="B169" s="42"/>
+      <c r="A169" s="39"/>
+      <c r="B169" s="39"/>
       <c r="C169" s="8" t="s">
         <v>326</v>
       </c>
@@ -31819,8 +31819,8 @@
       </c>
     </row>
     <row r="170" spans="1:7" ht="50" customHeight="1">
-      <c r="A170" s="42"/>
-      <c r="B170" s="42"/>
+      <c r="A170" s="39"/>
+      <c r="B170" s="39"/>
       <c r="C170" s="8" t="s">
         <v>328</v>
       </c>
@@ -31834,8 +31834,8 @@
       </c>
     </row>
     <row r="171" spans="1:7" ht="50" customHeight="1">
-      <c r="A171" s="42"/>
-      <c r="B171" s="42"/>
+      <c r="A171" s="39"/>
+      <c r="B171" s="39"/>
       <c r="C171" s="8" t="s">
         <v>330</v>
       </c>
@@ -31849,8 +31849,8 @@
       </c>
     </row>
     <row r="172" spans="1:7" ht="50" customHeight="1">
-      <c r="A172" s="42"/>
-      <c r="B172" s="42"/>
+      <c r="A172" s="39"/>
+      <c r="B172" s="39"/>
       <c r="C172" s="8" t="s">
         <v>332</v>
       </c>
@@ -31864,8 +31864,8 @@
       </c>
     </row>
     <row r="173" spans="1:7" ht="50" customHeight="1">
-      <c r="A173" s="42"/>
-      <c r="B173" s="42"/>
+      <c r="A173" s="39"/>
+      <c r="B173" s="39"/>
       <c r="C173" s="8" t="s">
         <v>334</v>
       </c>
@@ -31879,8 +31879,8 @@
       </c>
     </row>
     <row r="174" spans="1:7" ht="50" customHeight="1">
-      <c r="A174" s="42"/>
-      <c r="B174" s="42"/>
+      <c r="A174" s="39"/>
+      <c r="B174" s="39"/>
       <c r="C174" s="8" t="s">
         <v>336</v>
       </c>
@@ -31894,8 +31894,8 @@
       </c>
     </row>
     <row r="175" spans="1:7" ht="50" customHeight="1">
-      <c r="A175" s="42"/>
-      <c r="B175" s="42"/>
+      <c r="A175" s="39"/>
+      <c r="B175" s="39"/>
       <c r="C175" s="8" t="s">
         <v>338</v>
       </c>
@@ -31909,8 +31909,8 @@
       </c>
     </row>
     <row r="176" spans="1:7" ht="50" customHeight="1">
-      <c r="A176" s="42"/>
-      <c r="B176" s="42"/>
+      <c r="A176" s="39"/>
+      <c r="B176" s="39"/>
       <c r="C176" s="8" t="s">
         <v>340</v>
       </c>
@@ -31924,8 +31924,8 @@
       </c>
     </row>
     <row r="177" spans="1:7" ht="50" customHeight="1">
-      <c r="A177" s="42"/>
-      <c r="B177" s="43"/>
+      <c r="A177" s="39"/>
+      <c r="B177" s="40"/>
       <c r="C177" s="8" t="s">
         <v>342</v>
       </c>
@@ -31939,8 +31939,8 @@
       </c>
     </row>
     <row r="178" spans="1:7" ht="50" customHeight="1">
-      <c r="A178" s="42"/>
-      <c r="B178" s="41" t="s">
+      <c r="A178" s="39"/>
+      <c r="B178" s="38" t="s">
         <v>886</v>
       </c>
       <c r="C178" s="8" t="s">
@@ -31950,7 +31950,7 @@
         <v>345</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F178" s="10"/>
       <c r="G178" s="29" t="s">
@@ -31958,8 +31958,8 @@
       </c>
     </row>
     <row r="179" spans="1:7" ht="50" customHeight="1">
-      <c r="A179" s="42"/>
-      <c r="B179" s="43"/>
+      <c r="A179" s="39"/>
+      <c r="B179" s="40"/>
       <c r="C179" s="8" t="s">
         <v>346</v>
       </c>
@@ -31967,7 +31967,7 @@
         <v>347</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F179" s="10"/>
       <c r="G179" s="29" t="s">
@@ -31975,8 +31975,8 @@
       </c>
     </row>
     <row r="180" spans="1:7" ht="50" customHeight="1">
-      <c r="A180" s="42"/>
-      <c r="B180" s="41" t="s">
+      <c r="A180" s="39"/>
+      <c r="B180" s="38" t="s">
         <v>887</v>
       </c>
       <c r="C180" s="8" t="s">
@@ -31992,8 +31992,8 @@
       </c>
     </row>
     <row r="181" spans="1:7" ht="50" customHeight="1">
-      <c r="A181" s="42"/>
-      <c r="B181" s="42"/>
+      <c r="A181" s="39"/>
+      <c r="B181" s="39"/>
       <c r="C181" s="8" t="s">
         <v>350</v>
       </c>
@@ -32007,8 +32007,8 @@
       </c>
     </row>
     <row r="182" spans="1:7" ht="50" customHeight="1">
-      <c r="A182" s="42"/>
-      <c r="B182" s="42"/>
+      <c r="A182" s="39"/>
+      <c r="B182" s="39"/>
       <c r="C182" s="8" t="s">
         <v>352</v>
       </c>
@@ -32022,8 +32022,8 @@
       </c>
     </row>
     <row r="183" spans="1:7" ht="50" customHeight="1">
-      <c r="A183" s="42"/>
-      <c r="B183" s="42"/>
+      <c r="A183" s="39"/>
+      <c r="B183" s="39"/>
       <c r="C183" s="8" t="s">
         <v>354</v>
       </c>
@@ -32037,8 +32037,8 @@
       </c>
     </row>
     <row r="184" spans="1:7" ht="50" customHeight="1">
-      <c r="A184" s="42"/>
-      <c r="B184" s="42"/>
+      <c r="A184" s="39"/>
+      <c r="B184" s="39"/>
       <c r="C184" s="8" t="s">
         <v>356</v>
       </c>
@@ -32052,8 +32052,8 @@
       </c>
     </row>
     <row r="185" spans="1:7" ht="50" customHeight="1">
-      <c r="A185" s="42"/>
-      <c r="B185" s="43"/>
+      <c r="A185" s="39"/>
+      <c r="B185" s="40"/>
       <c r="C185" s="8" t="s">
         <v>358</v>
       </c>
@@ -32067,8 +32067,8 @@
       </c>
     </row>
     <row r="186" spans="1:7" ht="50" customHeight="1">
-      <c r="A186" s="42"/>
-      <c r="B186" s="41" t="s">
+      <c r="A186" s="39"/>
+      <c r="B186" s="38" t="s">
         <v>888</v>
       </c>
       <c r="C186" s="8" t="s">
@@ -32078,7 +32078,7 @@
         <v>361</v>
       </c>
       <c r="E186" s="32" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F186" s="33"/>
       <c r="G186" s="29" t="s">
@@ -32086,8 +32086,8 @@
       </c>
     </row>
     <row r="187" spans="1:7" ht="50" customHeight="1">
-      <c r="A187" s="42"/>
-      <c r="B187" s="42"/>
+      <c r="A187" s="39"/>
+      <c r="B187" s="39"/>
       <c r="C187" s="8" t="s">
         <v>362</v>
       </c>
@@ -32101,8 +32101,8 @@
       </c>
     </row>
     <row r="188" spans="1:7" ht="50" customHeight="1">
-      <c r="A188" s="42"/>
-      <c r="B188" s="42"/>
+      <c r="A188" s="39"/>
+      <c r="B188" s="39"/>
       <c r="C188" s="8" t="s">
         <v>364</v>
       </c>
@@ -32110,7 +32110,7 @@
         <v>365</v>
       </c>
       <c r="E188" s="32" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="29" t="s">
@@ -32118,8 +32118,8 @@
       </c>
     </row>
     <row r="189" spans="1:7" ht="50" customHeight="1">
-      <c r="A189" s="42"/>
-      <c r="B189" s="42"/>
+      <c r="A189" s="39"/>
+      <c r="B189" s="39"/>
       <c r="C189" s="8" t="s">
         <v>366</v>
       </c>
@@ -32127,7 +32127,7 @@
         <v>367</v>
       </c>
       <c r="E189" s="32" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="29" t="s">
@@ -32135,8 +32135,8 @@
       </c>
     </row>
     <row r="190" spans="1:7" ht="50" customHeight="1">
-      <c r="A190" s="42"/>
-      <c r="B190" s="42"/>
+      <c r="A190" s="39"/>
+      <c r="B190" s="39"/>
       <c r="C190" s="8" t="s">
         <v>368</v>
       </c>
@@ -32150,8 +32150,8 @@
       </c>
     </row>
     <row r="191" spans="1:7" ht="50" customHeight="1">
-      <c r="A191" s="42"/>
-      <c r="B191" s="42"/>
+      <c r="A191" s="39"/>
+      <c r="B191" s="39"/>
       <c r="C191" s="8" t="s">
         <v>370</v>
       </c>
@@ -32159,7 +32159,7 @@
         <v>371</v>
       </c>
       <c r="E191" s="32" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F191" s="33"/>
       <c r="G191" s="29" t="s">
@@ -32167,8 +32167,8 @@
       </c>
     </row>
     <row r="192" spans="1:7" ht="50" customHeight="1">
-      <c r="A192" s="42"/>
-      <c r="B192" s="42"/>
+      <c r="A192" s="39"/>
+      <c r="B192" s="39"/>
       <c r="C192" s="8" t="s">
         <v>372</v>
       </c>
@@ -32176,7 +32176,7 @@
         <v>373</v>
       </c>
       <c r="E192" s="32" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="29" t="s">
@@ -32184,8 +32184,8 @@
       </c>
     </row>
     <row r="193" spans="1:16384" ht="50" customHeight="1">
-      <c r="A193" s="42"/>
-      <c r="B193" s="42"/>
+      <c r="A193" s="39"/>
+      <c r="B193" s="39"/>
       <c r="C193" s="8" t="s">
         <v>374</v>
       </c>
@@ -32193,7 +32193,7 @@
         <v>375</v>
       </c>
       <c r="E193" s="32" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F193" s="33"/>
       <c r="G193" s="29" t="s">
@@ -32201,8 +32201,8 @@
       </c>
     </row>
     <row r="194" spans="1:16384" ht="50" customHeight="1">
-      <c r="A194" s="42"/>
-      <c r="B194" s="42"/>
+      <c r="A194" s="39"/>
+      <c r="B194" s="39"/>
       <c r="C194" s="8" t="s">
         <v>376</v>
       </c>
@@ -32216,8 +32216,8 @@
       </c>
     </row>
     <row r="195" spans="1:16384" ht="50" customHeight="1">
-      <c r="A195" s="42"/>
-      <c r="B195" s="42"/>
+      <c r="A195" s="39"/>
+      <c r="B195" s="39"/>
       <c r="C195" s="8" t="s">
         <v>378</v>
       </c>
@@ -32225,7 +32225,7 @@
         <v>379</v>
       </c>
       <c r="E195" s="32" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F195" s="33"/>
       <c r="G195" s="29" t="s">
@@ -32233,8 +32233,8 @@
       </c>
     </row>
     <row r="196" spans="1:16384" ht="50" customHeight="1">
-      <c r="A196" s="42"/>
-      <c r="B196" s="42"/>
+      <c r="A196" s="39"/>
+      <c r="B196" s="39"/>
       <c r="C196" s="8" t="s">
         <v>380</v>
       </c>
@@ -32248,8 +32248,8 @@
       </c>
     </row>
     <row r="197" spans="1:16384" ht="50" customHeight="1">
-      <c r="A197" s="42"/>
-      <c r="B197" s="42"/>
+      <c r="A197" s="39"/>
+      <c r="B197" s="39"/>
       <c r="C197" s="8" t="s">
         <v>382</v>
       </c>
@@ -32263,8 +32263,8 @@
       </c>
     </row>
     <row r="198" spans="1:16384" ht="50" customHeight="1">
-      <c r="A198" s="42"/>
-      <c r="B198" s="42"/>
+      <c r="A198" s="39"/>
+      <c r="B198" s="39"/>
       <c r="C198" s="8" t="s">
         <v>384</v>
       </c>
@@ -32278,8 +32278,8 @@
       </c>
     </row>
     <row r="199" spans="1:16384" ht="50" customHeight="1">
-      <c r="A199" s="42"/>
-      <c r="B199" s="42"/>
+      <c r="A199" s="39"/>
+      <c r="B199" s="39"/>
       <c r="C199" s="35" t="s">
         <v>911</v>
       </c>
@@ -32293,8 +32293,8 @@
       </c>
     </row>
     <row r="200" spans="1:16384" ht="50" customHeight="1">
-      <c r="A200" s="42"/>
-      <c r="B200" s="42"/>
+      <c r="A200" s="39"/>
+      <c r="B200" s="39"/>
       <c r="C200" s="35" t="s">
         <v>913</v>
       </c>
@@ -48685,8 +48685,8 @@
       <c r="XFD200" s="35"/>
     </row>
     <row r="201" spans="1:16384" ht="50" customHeight="1">
-      <c r="A201" s="42"/>
-      <c r="B201" s="42"/>
+      <c r="A201" s="39"/>
+      <c r="B201" s="39"/>
       <c r="C201" s="8" t="s">
         <v>386</v>
       </c>
@@ -48700,8 +48700,8 @@
       </c>
     </row>
     <row r="202" spans="1:16384" ht="50" customHeight="1">
-      <c r="A202" s="42"/>
-      <c r="B202" s="42"/>
+      <c r="A202" s="39"/>
+      <c r="B202" s="39"/>
       <c r="C202" s="8" t="s">
         <v>388</v>
       </c>
@@ -48709,7 +48709,7 @@
         <v>389</v>
       </c>
       <c r="E202" s="32" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F202" s="33"/>
       <c r="G202" s="29" t="s">
@@ -48717,8 +48717,8 @@
       </c>
     </row>
     <row r="203" spans="1:16384" ht="50" customHeight="1">
-      <c r="A203" s="42"/>
-      <c r="B203" s="42"/>
+      <c r="A203" s="39"/>
+      <c r="B203" s="39"/>
       <c r="C203" s="8" t="s">
         <v>390</v>
       </c>
@@ -48732,8 +48732,8 @@
       </c>
     </row>
     <row r="204" spans="1:16384" ht="50" customHeight="1">
-      <c r="A204" s="42"/>
-      <c r="B204" s="42"/>
+      <c r="A204" s="39"/>
+      <c r="B204" s="39"/>
       <c r="C204" s="8" t="s">
         <v>392</v>
       </c>
@@ -48741,7 +48741,7 @@
         <v>393</v>
       </c>
       <c r="E204" s="32" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F204" s="33"/>
       <c r="G204" s="29" t="s">
@@ -48749,8 +48749,8 @@
       </c>
     </row>
     <row r="205" spans="1:16384" ht="50" customHeight="1">
-      <c r="A205" s="42"/>
-      <c r="B205" s="42"/>
+      <c r="A205" s="39"/>
+      <c r="B205" s="39"/>
       <c r="C205" s="8" t="s">
         <v>394</v>
       </c>
@@ -48764,8 +48764,8 @@
       </c>
     </row>
     <row r="206" spans="1:16384" ht="50" customHeight="1">
-      <c r="A206" s="42"/>
-      <c r="B206" s="42"/>
+      <c r="A206" s="39"/>
+      <c r="B206" s="39"/>
       <c r="C206" s="8" t="s">
         <v>396</v>
       </c>
@@ -48779,8 +48779,8 @@
       </c>
     </row>
     <row r="207" spans="1:16384" ht="50" customHeight="1">
-      <c r="A207" s="42"/>
-      <c r="B207" s="42"/>
+      <c r="A207" s="39"/>
+      <c r="B207" s="39"/>
       <c r="C207" s="8" t="s">
         <v>398</v>
       </c>
@@ -48794,8 +48794,8 @@
       </c>
     </row>
     <row r="208" spans="1:16384" ht="50" customHeight="1">
-      <c r="A208" s="42"/>
-      <c r="B208" s="42"/>
+      <c r="A208" s="39"/>
+      <c r="B208" s="39"/>
       <c r="C208" s="8" t="s">
         <v>400</v>
       </c>
@@ -48809,8 +48809,8 @@
       </c>
     </row>
     <row r="209" spans="1:7" ht="50" customHeight="1">
-      <c r="A209" s="42"/>
-      <c r="B209" s="42"/>
+      <c r="A209" s="39"/>
+      <c r="B209" s="39"/>
       <c r="C209" s="8" t="s">
         <v>402</v>
       </c>
@@ -48824,8 +48824,8 @@
       </c>
     </row>
     <row r="210" spans="1:7" ht="50" customHeight="1">
-      <c r="A210" s="42"/>
-      <c r="B210" s="42"/>
+      <c r="A210" s="39"/>
+      <c r="B210" s="39"/>
       <c r="C210" s="8" t="s">
         <v>404</v>
       </c>
@@ -48839,8 +48839,8 @@
       </c>
     </row>
     <row r="211" spans="1:7" ht="50" customHeight="1">
-      <c r="A211" s="42"/>
-      <c r="B211" s="42"/>
+      <c r="A211" s="39"/>
+      <c r="B211" s="39"/>
       <c r="C211" s="8" t="s">
         <v>406</v>
       </c>
@@ -48854,8 +48854,8 @@
       </c>
     </row>
     <row r="212" spans="1:7" ht="50" customHeight="1">
-      <c r="A212" s="42"/>
-      <c r="B212" s="42"/>
+      <c r="A212" s="39"/>
+      <c r="B212" s="39"/>
       <c r="C212" s="8" t="s">
         <v>408</v>
       </c>
@@ -48869,8 +48869,8 @@
       </c>
     </row>
     <row r="213" spans="1:7" ht="50" customHeight="1">
-      <c r="A213" s="42"/>
-      <c r="B213" s="42"/>
+      <c r="A213" s="39"/>
+      <c r="B213" s="39"/>
       <c r="C213" s="8" t="s">
         <v>410</v>
       </c>
@@ -48884,8 +48884,8 @@
       </c>
     </row>
     <row r="214" spans="1:7" ht="50" customHeight="1">
-      <c r="A214" s="42"/>
-      <c r="B214" s="42"/>
+      <c r="A214" s="39"/>
+      <c r="B214" s="39"/>
       <c r="C214" s="8" t="s">
         <v>412</v>
       </c>
@@ -48899,8 +48899,8 @@
       </c>
     </row>
     <row r="215" spans="1:7" ht="50" customHeight="1">
-      <c r="A215" s="42"/>
-      <c r="B215" s="42"/>
+      <c r="A215" s="39"/>
+      <c r="B215" s="39"/>
       <c r="C215" s="8" t="s">
         <v>414</v>
       </c>
@@ -48914,8 +48914,8 @@
       </c>
     </row>
     <row r="216" spans="1:7" ht="50" customHeight="1">
-      <c r="A216" s="42"/>
-      <c r="B216" s="42"/>
+      <c r="A216" s="39"/>
+      <c r="B216" s="39"/>
       <c r="C216" s="8" t="s">
         <v>416</v>
       </c>
@@ -48929,8 +48929,8 @@
       </c>
     </row>
     <row r="217" spans="1:7" ht="50" customHeight="1">
-      <c r="A217" s="42"/>
-      <c r="B217" s="42"/>
+      <c r="A217" s="39"/>
+      <c r="B217" s="39"/>
       <c r="C217" s="8" t="s">
         <v>418</v>
       </c>
@@ -48944,8 +48944,8 @@
       </c>
     </row>
     <row r="218" spans="1:7" ht="50" customHeight="1">
-      <c r="A218" s="42"/>
-      <c r="B218" s="42"/>
+      <c r="A218" s="39"/>
+      <c r="B218" s="39"/>
       <c r="C218" s="8" t="s">
         <v>420</v>
       </c>
@@ -48959,8 +48959,8 @@
       </c>
     </row>
     <row r="219" spans="1:7" ht="50" customHeight="1">
-      <c r="A219" s="42"/>
-      <c r="B219" s="42"/>
+      <c r="A219" s="39"/>
+      <c r="B219" s="39"/>
       <c r="C219" s="8" t="s">
         <v>422</v>
       </c>
@@ -48974,8 +48974,8 @@
       </c>
     </row>
     <row r="220" spans="1:7" ht="50" customHeight="1">
-      <c r="A220" s="42"/>
-      <c r="B220" s="42"/>
+      <c r="A220" s="39"/>
+      <c r="B220" s="39"/>
       <c r="C220" s="8" t="s">
         <v>424</v>
       </c>
@@ -48989,8 +48989,8 @@
       </c>
     </row>
     <row r="221" spans="1:7" ht="50" customHeight="1">
-      <c r="A221" s="42"/>
-      <c r="B221" s="42"/>
+      <c r="A221" s="39"/>
+      <c r="B221" s="39"/>
       <c r="C221" s="8" t="s">
         <v>426</v>
       </c>
@@ -49004,8 +49004,8 @@
       </c>
     </row>
     <row r="222" spans="1:7" ht="50" customHeight="1">
-      <c r="A222" s="42"/>
-      <c r="B222" s="43"/>
+      <c r="A222" s="39"/>
+      <c r="B222" s="40"/>
       <c r="C222" s="8" t="s">
         <v>428</v>
       </c>
@@ -49019,8 +49019,8 @@
       </c>
     </row>
     <row r="223" spans="1:7" ht="50" customHeight="1">
-      <c r="A223" s="42"/>
-      <c r="B223" s="41" t="s">
+      <c r="A223" s="39"/>
+      <c r="B223" s="38" t="s">
         <v>889</v>
       </c>
       <c r="C223" s="13" t="s">
@@ -49034,8 +49034,8 @@
       </c>
     </row>
     <row r="224" spans="1:7" ht="50" customHeight="1">
-      <c r="A224" s="42"/>
-      <c r="B224" s="42"/>
+      <c r="A224" s="39"/>
+      <c r="B224" s="39"/>
       <c r="C224" s="13" t="s">
         <v>432</v>
       </c>
@@ -49050,8 +49050,8 @@
       </c>
     </row>
     <row r="225" spans="1:7" ht="50" customHeight="1">
-      <c r="A225" s="42"/>
-      <c r="B225" s="42"/>
+      <c r="A225" s="39"/>
+      <c r="B225" s="39"/>
       <c r="C225" s="13" t="s">
         <v>434</v>
       </c>
@@ -49063,8 +49063,8 @@
       </c>
     </row>
     <row r="226" spans="1:7" ht="50" customHeight="1">
-      <c r="A226" s="43"/>
-      <c r="B226" s="43"/>
+      <c r="A226" s="40"/>
+      <c r="B226" s="40"/>
       <c r="C226" s="13" t="s">
         <v>436</v>
       </c>
@@ -49076,7 +49076,7 @@
       </c>
     </row>
     <row r="227" spans="1:7" ht="50" customHeight="1">
-      <c r="A227" s="41" t="s">
+      <c r="A227" s="38" t="s">
         <v>870</v>
       </c>
       <c r="B227" s="14" t="s">
@@ -49089,7 +49089,7 @@
         <v>439</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="F227" s="10"/>
       <c r="G227" s="28" t="s">
@@ -49097,7 +49097,7 @@
       </c>
     </row>
     <row r="228" spans="1:7" ht="50" customHeight="1">
-      <c r="A228" s="42"/>
+      <c r="A228" s="39"/>
       <c r="B228" s="14" t="s">
         <v>892</v>
       </c>
@@ -49108,7 +49108,7 @@
         <v>441</v>
       </c>
       <c r="E228" s="10" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F228" s="10"/>
       <c r="G228" s="28" t="s">
@@ -49116,8 +49116,8 @@
       </c>
     </row>
     <row r="229" spans="1:7" ht="50" customHeight="1">
-      <c r="A229" s="42"/>
-      <c r="B229" s="41" t="s">
+      <c r="A229" s="39"/>
+      <c r="B229" s="38" t="s">
         <v>893</v>
       </c>
       <c r="C229" s="8" t="s">
@@ -49127,7 +49127,7 @@
         <v>443</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="F229" s="10"/>
       <c r="G229" s="28" t="s">
@@ -49135,8 +49135,8 @@
       </c>
     </row>
     <row r="230" spans="1:7" ht="50" customHeight="1">
-      <c r="A230" s="42"/>
-      <c r="B230" s="43"/>
+      <c r="A230" s="39"/>
+      <c r="B230" s="40"/>
       <c r="C230" s="8" t="s">
         <v>444</v>
       </c>
@@ -49144,7 +49144,7 @@
         <v>445</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F230" s="10"/>
       <c r="G230" s="28" t="s">
@@ -49152,8 +49152,8 @@
       </c>
     </row>
     <row r="231" spans="1:7" ht="50" customHeight="1">
-      <c r="A231" s="42"/>
-      <c r="B231" s="41" t="s">
+      <c r="A231" s="39"/>
+      <c r="B231" s="38" t="s">
         <v>894</v>
       </c>
       <c r="C231" s="8" t="s">
@@ -49169,8 +49169,8 @@
       </c>
     </row>
     <row r="232" spans="1:7" ht="50" customHeight="1">
-      <c r="A232" s="42"/>
-      <c r="B232" s="43"/>
+      <c r="A232" s="39"/>
+      <c r="B232" s="40"/>
       <c r="C232" s="8" t="s">
         <v>448</v>
       </c>
@@ -49184,8 +49184,8 @@
       </c>
     </row>
     <row r="233" spans="1:7" ht="50" customHeight="1">
-      <c r="A233" s="42"/>
-      <c r="B233" s="41" t="s">
+      <c r="A233" s="39"/>
+      <c r="B233" s="38" t="s">
         <v>895</v>
       </c>
       <c r="C233" s="8" t="s">
@@ -49201,8 +49201,8 @@
       </c>
     </row>
     <row r="234" spans="1:7" ht="50" customHeight="1">
-      <c r="A234" s="42"/>
-      <c r="B234" s="42"/>
+      <c r="A234" s="39"/>
+      <c r="B234" s="39"/>
       <c r="C234" s="8" t="s">
         <v>452</v>
       </c>
@@ -49216,8 +49216,8 @@
       </c>
     </row>
     <row r="235" spans="1:7" ht="50" customHeight="1">
-      <c r="A235" s="42"/>
-      <c r="B235" s="42"/>
+      <c r="A235" s="39"/>
+      <c r="B235" s="39"/>
       <c r="C235" s="8" t="s">
         <v>454</v>
       </c>
@@ -49231,8 +49231,8 @@
       </c>
     </row>
     <row r="236" spans="1:7" ht="50" customHeight="1">
-      <c r="A236" s="42"/>
-      <c r="B236" s="42"/>
+      <c r="A236" s="39"/>
+      <c r="B236" s="39"/>
       <c r="C236" s="8" t="s">
         <v>456</v>
       </c>
@@ -49246,8 +49246,8 @@
       </c>
     </row>
     <row r="237" spans="1:7" ht="50" customHeight="1">
-      <c r="A237" s="42"/>
-      <c r="B237" s="42"/>
+      <c r="A237" s="39"/>
+      <c r="B237" s="39"/>
       <c r="C237" s="8" t="s">
         <v>458</v>
       </c>
@@ -49261,8 +49261,8 @@
       </c>
     </row>
     <row r="238" spans="1:7" ht="50" customHeight="1">
-      <c r="A238" s="42"/>
-      <c r="B238" s="42"/>
+      <c r="A238" s="39"/>
+      <c r="B238" s="39"/>
       <c r="C238" s="8" t="s">
         <v>460</v>
       </c>
@@ -49276,8 +49276,8 @@
       </c>
     </row>
     <row r="239" spans="1:7" ht="50" customHeight="1">
-      <c r="A239" s="42"/>
-      <c r="B239" s="42"/>
+      <c r="A239" s="39"/>
+      <c r="B239" s="39"/>
       <c r="C239" s="8" t="s">
         <v>462</v>
       </c>
@@ -49291,8 +49291,8 @@
       </c>
     </row>
     <row r="240" spans="1:7" ht="50" customHeight="1">
-      <c r="A240" s="42"/>
-      <c r="B240" s="42"/>
+      <c r="A240" s="39"/>
+      <c r="B240" s="39"/>
       <c r="C240" s="8" t="s">
         <v>464</v>
       </c>
@@ -49306,8 +49306,8 @@
       </c>
     </row>
     <row r="241" spans="1:7" ht="50" customHeight="1">
-      <c r="A241" s="42"/>
-      <c r="B241" s="42"/>
+      <c r="A241" s="39"/>
+      <c r="B241" s="39"/>
       <c r="C241" s="8" t="s">
         <v>466</v>
       </c>
@@ -49321,8 +49321,8 @@
       </c>
     </row>
     <row r="242" spans="1:7" ht="50" customHeight="1">
-      <c r="A242" s="42"/>
-      <c r="B242" s="42"/>
+      <c r="A242" s="39"/>
+      <c r="B242" s="39"/>
       <c r="C242" s="8" t="s">
         <v>468</v>
       </c>
@@ -49336,8 +49336,8 @@
       </c>
     </row>
     <row r="243" spans="1:7" ht="50" customHeight="1">
-      <c r="A243" s="42"/>
-      <c r="B243" s="42"/>
+      <c r="A243" s="39"/>
+      <c r="B243" s="39"/>
       <c r="C243" s="8" t="s">
         <v>470</v>
       </c>
@@ -49351,8 +49351,8 @@
       </c>
     </row>
     <row r="244" spans="1:7" ht="50" customHeight="1">
-      <c r="A244" s="42"/>
-      <c r="B244" s="42"/>
+      <c r="A244" s="39"/>
+      <c r="B244" s="39"/>
       <c r="C244" s="8" t="s">
         <v>472</v>
       </c>
@@ -49366,8 +49366,8 @@
       </c>
     </row>
     <row r="245" spans="1:7" ht="50" customHeight="1">
-      <c r="A245" s="42"/>
-      <c r="B245" s="42"/>
+      <c r="A245" s="39"/>
+      <c r="B245" s="39"/>
       <c r="C245" s="8" t="s">
         <v>474</v>
       </c>
@@ -49381,8 +49381,8 @@
       </c>
     </row>
     <row r="246" spans="1:7" ht="50" customHeight="1">
-      <c r="A246" s="42"/>
-      <c r="B246" s="42"/>
+      <c r="A246" s="39"/>
+      <c r="B246" s="39"/>
       <c r="C246" s="8" t="s">
         <v>476</v>
       </c>
@@ -49396,8 +49396,8 @@
       </c>
     </row>
     <row r="247" spans="1:7" ht="50" customHeight="1">
-      <c r="A247" s="42"/>
-      <c r="B247" s="42"/>
+      <c r="A247" s="39"/>
+      <c r="B247" s="39"/>
       <c r="C247" s="8" t="s">
         <v>478</v>
       </c>
@@ -49411,8 +49411,8 @@
       </c>
     </row>
     <row r="248" spans="1:7" ht="50" customHeight="1">
-      <c r="A248" s="42"/>
-      <c r="B248" s="42"/>
+      <c r="A248" s="39"/>
+      <c r="B248" s="39"/>
       <c r="C248" s="8" t="s">
         <v>480</v>
       </c>
@@ -49426,8 +49426,8 @@
       </c>
     </row>
     <row r="249" spans="1:7" ht="50" customHeight="1">
-      <c r="A249" s="42"/>
-      <c r="B249" s="42"/>
+      <c r="A249" s="39"/>
+      <c r="B249" s="39"/>
       <c r="C249" s="8" t="s">
         <v>482</v>
       </c>
@@ -49441,8 +49441,8 @@
       </c>
     </row>
     <row r="250" spans="1:7" ht="50" customHeight="1">
-      <c r="A250" s="42"/>
-      <c r="B250" s="42"/>
+      <c r="A250" s="39"/>
+      <c r="B250" s="39"/>
       <c r="C250" s="8" t="s">
         <v>484</v>
       </c>
@@ -49456,8 +49456,8 @@
       </c>
     </row>
     <row r="251" spans="1:7" ht="50" customHeight="1">
-      <c r="A251" s="42"/>
-      <c r="B251" s="42"/>
+      <c r="A251" s="39"/>
+      <c r="B251" s="39"/>
       <c r="C251" s="8" t="s">
         <v>486</v>
       </c>
@@ -49471,8 +49471,8 @@
       </c>
     </row>
     <row r="252" spans="1:7" ht="50" customHeight="1">
-      <c r="A252" s="42"/>
-      <c r="B252" s="42"/>
+      <c r="A252" s="39"/>
+      <c r="B252" s="39"/>
       <c r="C252" s="8" t="s">
         <v>488</v>
       </c>
@@ -49486,8 +49486,8 @@
       </c>
     </row>
     <row r="253" spans="1:7" ht="50" customHeight="1">
-      <c r="A253" s="42"/>
-      <c r="B253" s="42"/>
+      <c r="A253" s="39"/>
+      <c r="B253" s="39"/>
       <c r="C253" s="8" t="s">
         <v>490</v>
       </c>
@@ -49501,8 +49501,8 @@
       </c>
     </row>
     <row r="254" spans="1:7" ht="50" customHeight="1">
-      <c r="A254" s="42"/>
-      <c r="B254" s="42"/>
+      <c r="A254" s="39"/>
+      <c r="B254" s="39"/>
       <c r="C254" s="8" t="s">
         <v>492</v>
       </c>
@@ -49516,8 +49516,8 @@
       </c>
     </row>
     <row r="255" spans="1:7" ht="50" customHeight="1">
-      <c r="A255" s="42"/>
-      <c r="B255" s="42"/>
+      <c r="A255" s="39"/>
+      <c r="B255" s="39"/>
       <c r="C255" s="8" t="s">
         <v>494</v>
       </c>
@@ -49531,8 +49531,8 @@
       </c>
     </row>
     <row r="256" spans="1:7" ht="50" customHeight="1">
-      <c r="A256" s="42"/>
-      <c r="B256" s="42"/>
+      <c r="A256" s="39"/>
+      <c r="B256" s="39"/>
       <c r="C256" s="8" t="s">
         <v>496</v>
       </c>
@@ -49546,8 +49546,8 @@
       </c>
     </row>
     <row r="257" spans="1:7" ht="50" customHeight="1">
-      <c r="A257" s="42"/>
-      <c r="B257" s="42"/>
+      <c r="A257" s="39"/>
+      <c r="B257" s="39"/>
       <c r="C257" s="8" t="s">
         <v>498</v>
       </c>
@@ -49561,8 +49561,8 @@
       </c>
     </row>
     <row r="258" spans="1:7" ht="50" customHeight="1">
-      <c r="A258" s="42"/>
-      <c r="B258" s="42"/>
+      <c r="A258" s="39"/>
+      <c r="B258" s="39"/>
       <c r="C258" s="8" t="s">
         <v>500</v>
       </c>
@@ -49576,8 +49576,8 @@
       </c>
     </row>
     <row r="259" spans="1:7" ht="50" customHeight="1">
-      <c r="A259" s="42"/>
-      <c r="B259" s="42"/>
+      <c r="A259" s="39"/>
+      <c r="B259" s="39"/>
       <c r="C259" s="8" t="s">
         <v>502</v>
       </c>
@@ -49591,8 +49591,8 @@
       </c>
     </row>
     <row r="260" spans="1:7" ht="50" customHeight="1">
-      <c r="A260" s="42"/>
-      <c r="B260" s="42"/>
+      <c r="A260" s="39"/>
+      <c r="B260" s="39"/>
       <c r="C260" s="8" t="s">
         <v>504</v>
       </c>
@@ -49606,8 +49606,8 @@
       </c>
     </row>
     <row r="261" spans="1:7" ht="50" customHeight="1">
-      <c r="A261" s="42"/>
-      <c r="B261" s="42"/>
+      <c r="A261" s="39"/>
+      <c r="B261" s="39"/>
       <c r="C261" s="8" t="s">
         <v>506</v>
       </c>
@@ -49621,8 +49621,8 @@
       </c>
     </row>
     <row r="262" spans="1:7" ht="50" customHeight="1">
-      <c r="A262" s="42"/>
-      <c r="B262" s="42"/>
+      <c r="A262" s="39"/>
+      <c r="B262" s="39"/>
       <c r="C262" s="8" t="s">
         <v>508</v>
       </c>
@@ -49636,8 +49636,8 @@
       </c>
     </row>
     <row r="263" spans="1:7" ht="50" customHeight="1">
-      <c r="A263" s="42"/>
-      <c r="B263" s="42"/>
+      <c r="A263" s="39"/>
+      <c r="B263" s="39"/>
       <c r="C263" s="8" t="s">
         <v>510</v>
       </c>
@@ -49651,8 +49651,8 @@
       </c>
     </row>
     <row r="264" spans="1:7" ht="50" customHeight="1">
-      <c r="A264" s="42"/>
-      <c r="B264" s="42"/>
+      <c r="A264" s="39"/>
+      <c r="B264" s="39"/>
       <c r="C264" s="8" t="s">
         <v>512</v>
       </c>
@@ -49666,8 +49666,8 @@
       </c>
     </row>
     <row r="265" spans="1:7" ht="50" customHeight="1">
-      <c r="A265" s="42"/>
-      <c r="B265" s="42"/>
+      <c r="A265" s="39"/>
+      <c r="B265" s="39"/>
       <c r="C265" s="8" t="s">
         <v>514</v>
       </c>
@@ -49681,8 +49681,8 @@
       </c>
     </row>
     <row r="266" spans="1:7" ht="50" customHeight="1">
-      <c r="A266" s="42"/>
-      <c r="B266" s="42"/>
+      <c r="A266" s="39"/>
+      <c r="B266" s="39"/>
       <c r="C266" s="8" t="s">
         <v>516</v>
       </c>
@@ -49696,8 +49696,8 @@
       </c>
     </row>
     <row r="267" spans="1:7" ht="50" customHeight="1">
-      <c r="A267" s="42"/>
-      <c r="B267" s="43"/>
+      <c r="A267" s="39"/>
+      <c r="B267" s="40"/>
       <c r="C267" s="8" t="s">
         <v>518</v>
       </c>
@@ -49711,7 +49711,7 @@
       </c>
     </row>
     <row r="268" spans="1:7" ht="50" customHeight="1">
-      <c r="A268" s="42"/>
+      <c r="A268" s="39"/>
       <c r="B268" s="14" t="s">
         <v>896</v>
       </c>
@@ -49728,8 +49728,8 @@
       </c>
     </row>
     <row r="269" spans="1:7" ht="50" customHeight="1">
-      <c r="A269" s="42"/>
-      <c r="B269" s="41" t="s">
+      <c r="A269" s="39"/>
+      <c r="B269" s="38" t="s">
         <v>897</v>
       </c>
       <c r="C269" s="35" t="s">
@@ -49745,8 +49745,8 @@
       </c>
     </row>
     <row r="270" spans="1:7" ht="50" customHeight="1">
-      <c r="A270" s="42"/>
-      <c r="B270" s="42"/>
+      <c r="A270" s="39"/>
+      <c r="B270" s="39"/>
       <c r="C270" s="8" t="s">
         <v>522</v>
       </c>
@@ -49754,7 +49754,7 @@
         <v>523</v>
       </c>
       <c r="E270" s="10" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="F270" s="10"/>
       <c r="G270" s="30" t="s">
@@ -49762,8 +49762,8 @@
       </c>
     </row>
     <row r="271" spans="1:7" ht="50" customHeight="1">
-      <c r="A271" s="42"/>
-      <c r="B271" s="42"/>
+      <c r="A271" s="39"/>
+      <c r="B271" s="39"/>
       <c r="C271" s="8" t="s">
         <v>524</v>
       </c>
@@ -49777,8 +49777,8 @@
       </c>
     </row>
     <row r="272" spans="1:7" ht="50" customHeight="1">
-      <c r="A272" s="42"/>
-      <c r="B272" s="42"/>
+      <c r="A272" s="39"/>
+      <c r="B272" s="39"/>
       <c r="C272" s="8" t="s">
         <v>526</v>
       </c>
@@ -49792,8 +49792,8 @@
       </c>
     </row>
     <row r="273" spans="1:7" ht="50" customHeight="1">
-      <c r="A273" s="42"/>
-      <c r="B273" s="43"/>
+      <c r="A273" s="39"/>
+      <c r="B273" s="40"/>
       <c r="C273" s="8" t="s">
         <v>528</v>
       </c>
@@ -49807,8 +49807,8 @@
       </c>
     </row>
     <row r="274" spans="1:7" ht="50" customHeight="1">
-      <c r="A274" s="42"/>
-      <c r="B274" s="41" t="s">
+      <c r="A274" s="39"/>
+      <c r="B274" s="38" t="s">
         <v>898</v>
       </c>
       <c r="C274" s="8" t="s">
@@ -49824,8 +49824,8 @@
       </c>
     </row>
     <row r="275" spans="1:7" ht="50" customHeight="1">
-      <c r="A275" s="42"/>
-      <c r="B275" s="42"/>
+      <c r="A275" s="39"/>
+      <c r="B275" s="39"/>
       <c r="C275" s="8" t="s">
         <v>532</v>
       </c>
@@ -49833,7 +49833,7 @@
         <v>533</v>
       </c>
       <c r="E275" s="10" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F275" s="10"/>
       <c r="G275" s="28" t="s">
@@ -49841,8 +49841,8 @@
       </c>
     </row>
     <row r="276" spans="1:7" ht="50" customHeight="1">
-      <c r="A276" s="42"/>
-      <c r="B276" s="42"/>
+      <c r="A276" s="39"/>
+      <c r="B276" s="39"/>
       <c r="C276" s="8" t="s">
         <v>534</v>
       </c>
@@ -49850,7 +49850,7 @@
         <v>535</v>
       </c>
       <c r="E276" s="10" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="F276" s="10"/>
       <c r="G276" s="28" t="s">
@@ -49858,8 +49858,8 @@
       </c>
     </row>
     <row r="277" spans="1:7" ht="50" customHeight="1">
-      <c r="A277" s="42"/>
-      <c r="B277" s="42"/>
+      <c r="A277" s="39"/>
+      <c r="B277" s="39"/>
       <c r="C277" s="8" t="s">
         <v>536</v>
       </c>
@@ -49873,8 +49873,8 @@
       </c>
     </row>
     <row r="278" spans="1:7" ht="50" customHeight="1">
-      <c r="A278" s="42"/>
-      <c r="B278" s="42"/>
+      <c r="A278" s="39"/>
+      <c r="B278" s="39"/>
       <c r="C278" s="8" t="s">
         <v>538</v>
       </c>
@@ -49888,8 +49888,8 @@
       </c>
     </row>
     <row r="279" spans="1:7" ht="50" customHeight="1">
-      <c r="A279" s="42"/>
-      <c r="B279" s="42"/>
+      <c r="A279" s="39"/>
+      <c r="B279" s="39"/>
       <c r="C279" s="8" t="s">
         <v>540</v>
       </c>
@@ -49897,7 +49897,7 @@
         <v>541</v>
       </c>
       <c r="E279" s="10" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="F279" s="10"/>
       <c r="G279" s="28" t="s">
@@ -49905,8 +49905,8 @@
       </c>
     </row>
     <row r="280" spans="1:7" ht="50" customHeight="1">
-      <c r="A280" s="42"/>
-      <c r="B280" s="42"/>
+      <c r="A280" s="39"/>
+      <c r="B280" s="39"/>
       <c r="C280" s="8" t="s">
         <v>542</v>
       </c>
@@ -49920,8 +49920,8 @@
       </c>
     </row>
     <row r="281" spans="1:7" ht="50" customHeight="1">
-      <c r="A281" s="42"/>
-      <c r="B281" s="42"/>
+      <c r="A281" s="39"/>
+      <c r="B281" s="39"/>
       <c r="C281" s="8" t="s">
         <v>544</v>
       </c>
@@ -49935,8 +49935,8 @@
       </c>
     </row>
     <row r="282" spans="1:7" ht="50" customHeight="1">
-      <c r="A282" s="42"/>
-      <c r="B282" s="42"/>
+      <c r="A282" s="39"/>
+      <c r="B282" s="39"/>
       <c r="C282" s="8" t="s">
         <v>546</v>
       </c>
@@ -49950,8 +49950,8 @@
       </c>
     </row>
     <row r="283" spans="1:7" ht="50" customHeight="1">
-      <c r="A283" s="42"/>
-      <c r="B283" s="42"/>
+      <c r="A283" s="39"/>
+      <c r="B283" s="39"/>
       <c r="C283" s="8" t="s">
         <v>548</v>
       </c>
@@ -49965,8 +49965,8 @@
       </c>
     </row>
     <row r="284" spans="1:7" ht="50" customHeight="1">
-      <c r="A284" s="42"/>
-      <c r="B284" s="42"/>
+      <c r="A284" s="39"/>
+      <c r="B284" s="39"/>
       <c r="C284" s="8" t="s">
         <v>550</v>
       </c>
@@ -49980,8 +49980,8 @@
       </c>
     </row>
     <row r="285" spans="1:7" ht="50" customHeight="1">
-      <c r="A285" s="42"/>
-      <c r="B285" s="42"/>
+      <c r="A285" s="39"/>
+      <c r="B285" s="39"/>
       <c r="C285" s="8" t="s">
         <v>552</v>
       </c>
@@ -49995,8 +49995,8 @@
       </c>
     </row>
     <row r="286" spans="1:7" ht="50" customHeight="1">
-      <c r="A286" s="42"/>
-      <c r="B286" s="42"/>
+      <c r="A286" s="39"/>
+      <c r="B286" s="39"/>
       <c r="C286" s="8" t="s">
         <v>554</v>
       </c>
@@ -50010,8 +50010,8 @@
       </c>
     </row>
     <row r="287" spans="1:7" ht="50" customHeight="1">
-      <c r="A287" s="42"/>
-      <c r="B287" s="42"/>
+      <c r="A287" s="39"/>
+      <c r="B287" s="39"/>
       <c r="C287" s="8" t="s">
         <v>556</v>
       </c>
@@ -50025,8 +50025,8 @@
       </c>
     </row>
     <row r="288" spans="1:7" ht="50" customHeight="1">
-      <c r="A288" s="42"/>
-      <c r="B288" s="42"/>
+      <c r="A288" s="39"/>
+      <c r="B288" s="39"/>
       <c r="C288" s="8" t="s">
         <v>558</v>
       </c>
@@ -50040,8 +50040,8 @@
       </c>
     </row>
     <row r="289" spans="1:7" ht="50" customHeight="1">
-      <c r="A289" s="42"/>
-      <c r="B289" s="42"/>
+      <c r="A289" s="39"/>
+      <c r="B289" s="39"/>
       <c r="C289" s="8" t="s">
         <v>560</v>
       </c>
@@ -50055,8 +50055,8 @@
       </c>
     </row>
     <row r="290" spans="1:7" ht="50" customHeight="1">
-      <c r="A290" s="42"/>
-      <c r="B290" s="42"/>
+      <c r="A290" s="39"/>
+      <c r="B290" s="39"/>
       <c r="C290" s="8" t="s">
         <v>562</v>
       </c>
@@ -50070,8 +50070,8 @@
       </c>
     </row>
     <row r="291" spans="1:7" ht="50" customHeight="1">
-      <c r="A291" s="42"/>
-      <c r="B291" s="42"/>
+      <c r="A291" s="39"/>
+      <c r="B291" s="39"/>
       <c r="C291" s="8" t="s">
         <v>564</v>
       </c>
@@ -50085,8 +50085,8 @@
       </c>
     </row>
     <row r="292" spans="1:7" ht="50" customHeight="1">
-      <c r="A292" s="42"/>
-      <c r="B292" s="42"/>
+      <c r="A292" s="39"/>
+      <c r="B292" s="39"/>
       <c r="C292" s="8" t="s">
         <v>566</v>
       </c>
@@ -50100,8 +50100,8 @@
       </c>
     </row>
     <row r="293" spans="1:7" ht="50" customHeight="1">
-      <c r="A293" s="42"/>
-      <c r="B293" s="42"/>
+      <c r="A293" s="39"/>
+      <c r="B293" s="39"/>
       <c r="C293" s="8" t="s">
         <v>568</v>
       </c>
@@ -50115,8 +50115,8 @@
       </c>
     </row>
     <row r="294" spans="1:7" ht="50" customHeight="1">
-      <c r="A294" s="42"/>
-      <c r="B294" s="42"/>
+      <c r="A294" s="39"/>
+      <c r="B294" s="39"/>
       <c r="C294" s="8" t="s">
         <v>570</v>
       </c>
@@ -50130,8 +50130,8 @@
       </c>
     </row>
     <row r="295" spans="1:7" ht="50" customHeight="1">
-      <c r="A295" s="42"/>
-      <c r="B295" s="42"/>
+      <c r="A295" s="39"/>
+      <c r="B295" s="39"/>
       <c r="C295" s="8" t="s">
         <v>572</v>
       </c>
@@ -50145,8 +50145,8 @@
       </c>
     </row>
     <row r="296" spans="1:7" ht="50" customHeight="1">
-      <c r="A296" s="42"/>
-      <c r="B296" s="42"/>
+      <c r="A296" s="39"/>
+      <c r="B296" s="39"/>
       <c r="C296" s="8" t="s">
         <v>574</v>
       </c>
@@ -50160,8 +50160,8 @@
       </c>
     </row>
     <row r="297" spans="1:7" ht="50" customHeight="1">
-      <c r="A297" s="42"/>
-      <c r="B297" s="42"/>
+      <c r="A297" s="39"/>
+      <c r="B297" s="39"/>
       <c r="C297" s="8" t="s">
         <v>576</v>
       </c>
@@ -50175,8 +50175,8 @@
       </c>
     </row>
     <row r="298" spans="1:7" ht="50" customHeight="1">
-      <c r="A298" s="42"/>
-      <c r="B298" s="42"/>
+      <c r="A298" s="39"/>
+      <c r="B298" s="39"/>
       <c r="C298" s="8" t="s">
         <v>578</v>
       </c>
@@ -50190,8 +50190,8 @@
       </c>
     </row>
     <row r="299" spans="1:7" ht="50" customHeight="1">
-      <c r="A299" s="42"/>
-      <c r="B299" s="42"/>
+      <c r="A299" s="39"/>
+      <c r="B299" s="39"/>
       <c r="C299" s="8" t="s">
         <v>580</v>
       </c>
@@ -50205,8 +50205,8 @@
       </c>
     </row>
     <row r="300" spans="1:7" ht="50" customHeight="1">
-      <c r="A300" s="42"/>
-      <c r="B300" s="42"/>
+      <c r="A300" s="39"/>
+      <c r="B300" s="39"/>
       <c r="C300" s="8" t="s">
         <v>582</v>
       </c>
@@ -50220,8 +50220,8 @@
       </c>
     </row>
     <row r="301" spans="1:7" ht="50" customHeight="1">
-      <c r="A301" s="42"/>
-      <c r="B301" s="42"/>
+      <c r="A301" s="39"/>
+      <c r="B301" s="39"/>
       <c r="C301" s="8" t="s">
         <v>584</v>
       </c>
@@ -50235,8 +50235,8 @@
       </c>
     </row>
     <row r="302" spans="1:7" ht="50" customHeight="1">
-      <c r="A302" s="42"/>
-      <c r="B302" s="42"/>
+      <c r="A302" s="39"/>
+      <c r="B302" s="39"/>
       <c r="C302" s="8" t="s">
         <v>586</v>
       </c>
@@ -50250,8 +50250,8 @@
       </c>
     </row>
     <row r="303" spans="1:7" ht="50" customHeight="1">
-      <c r="A303" s="42"/>
-      <c r="B303" s="42"/>
+      <c r="A303" s="39"/>
+      <c r="B303" s="39"/>
       <c r="C303" s="8" t="s">
         <v>588</v>
       </c>
@@ -50265,8 +50265,8 @@
       </c>
     </row>
     <row r="304" spans="1:7" ht="50" customHeight="1">
-      <c r="A304" s="42"/>
-      <c r="B304" s="42"/>
+      <c r="A304" s="39"/>
+      <c r="B304" s="39"/>
       <c r="C304" s="8" t="s">
         <v>590</v>
       </c>
@@ -50280,8 +50280,8 @@
       </c>
     </row>
     <row r="305" spans="1:7" ht="50" customHeight="1">
-      <c r="A305" s="42"/>
-      <c r="B305" s="42"/>
+      <c r="A305" s="39"/>
+      <c r="B305" s="39"/>
       <c r="C305" s="8" t="s">
         <v>592</v>
       </c>
@@ -50295,8 +50295,8 @@
       </c>
     </row>
     <row r="306" spans="1:7" ht="50" customHeight="1">
-      <c r="A306" s="42"/>
-      <c r="B306" s="43"/>
+      <c r="A306" s="39"/>
+      <c r="B306" s="40"/>
       <c r="C306" s="8" t="s">
         <v>594</v>
       </c>
@@ -50310,7 +50310,7 @@
       </c>
     </row>
     <row r="307" spans="1:7" ht="50" customHeight="1">
-      <c r="A307" s="42"/>
+      <c r="A307" s="39"/>
       <c r="B307" s="14" t="s">
         <v>899</v>
       </c>
@@ -50321,7 +50321,7 @@
         <v>597</v>
       </c>
       <c r="E307" s="10" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="F307" s="10"/>
       <c r="G307" s="28" t="s">
@@ -50329,7 +50329,7 @@
       </c>
     </row>
     <row r="308" spans="1:7" ht="50" customHeight="1">
-      <c r="A308" s="42"/>
+      <c r="A308" s="39"/>
       <c r="B308" s="14" t="s">
         <v>900</v>
       </c>
@@ -50340,7 +50340,7 @@
         <v>599</v>
       </c>
       <c r="E308" s="10" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="F308" s="10"/>
       <c r="G308" s="28" t="s">
@@ -50348,8 +50348,8 @@
       </c>
     </row>
     <row r="309" spans="1:7" ht="50" customHeight="1">
-      <c r="A309" s="42"/>
-      <c r="B309" s="41" t="s">
+      <c r="A309" s="39"/>
+      <c r="B309" s="38" t="s">
         <v>901</v>
       </c>
       <c r="C309" s="8" t="s">
@@ -50359,7 +50359,7 @@
         <v>601</v>
       </c>
       <c r="E309" s="10" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="F309" s="10"/>
       <c r="G309" s="21" t="s">
@@ -50367,8 +50367,8 @@
       </c>
     </row>
     <row r="310" spans="1:7" ht="50" customHeight="1">
-      <c r="A310" s="42"/>
-      <c r="B310" s="42"/>
+      <c r="A310" s="39"/>
+      <c r="B310" s="39"/>
       <c r="C310" s="8" t="s">
         <v>602</v>
       </c>
@@ -50376,7 +50376,7 @@
         <v>603</v>
       </c>
       <c r="E310" s="10" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="F310" s="10"/>
       <c r="G310" s="21" t="s">
@@ -50384,8 +50384,8 @@
       </c>
     </row>
     <row r="311" spans="1:7" ht="50" customHeight="1">
-      <c r="A311" s="42"/>
-      <c r="B311" s="42"/>
+      <c r="A311" s="39"/>
+      <c r="B311" s="39"/>
       <c r="C311" s="8" t="s">
         <v>604</v>
       </c>
@@ -50393,7 +50393,7 @@
         <v>605</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="F311" s="10"/>
       <c r="G311" s="21" t="s">
@@ -50401,8 +50401,8 @@
       </c>
     </row>
     <row r="312" spans="1:7" ht="50" customHeight="1">
-      <c r="A312" s="42"/>
-      <c r="B312" s="42"/>
+      <c r="A312" s="39"/>
+      <c r="B312" s="39"/>
       <c r="C312" s="35" t="s">
         <v>907</v>
       </c>
@@ -50416,8 +50416,8 @@
       </c>
     </row>
     <row r="313" spans="1:7" ht="50" customHeight="1">
-      <c r="A313" s="42"/>
-      <c r="B313" s="43"/>
+      <c r="A313" s="39"/>
+      <c r="B313" s="40"/>
       <c r="C313" s="35" t="s">
         <v>909</v>
       </c>
@@ -50431,8 +50431,8 @@
       </c>
     </row>
     <row r="314" spans="1:7" ht="50" customHeight="1">
-      <c r="A314" s="42"/>
-      <c r="B314" s="41" t="s">
+      <c r="A314" s="39"/>
+      <c r="B314" s="38" t="s">
         <v>902</v>
       </c>
       <c r="C314" s="8" t="s">
@@ -50442,7 +50442,7 @@
         <v>607</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F314" s="16"/>
       <c r="G314" s="28" t="s">
@@ -50450,8 +50450,8 @@
       </c>
     </row>
     <row r="315" spans="1:7" ht="50" customHeight="1">
-      <c r="A315" s="42"/>
-      <c r="B315" s="42"/>
+      <c r="A315" s="39"/>
+      <c r="B315" s="39"/>
       <c r="C315" s="8" t="s">
         <v>608</v>
       </c>
@@ -50459,7 +50459,7 @@
         <v>609</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F315" s="16"/>
       <c r="G315" s="28" t="s">
@@ -50467,8 +50467,8 @@
       </c>
     </row>
     <row r="316" spans="1:7" ht="50" customHeight="1">
-      <c r="A316" s="42"/>
-      <c r="B316" s="43"/>
+      <c r="A316" s="39"/>
+      <c r="B316" s="40"/>
       <c r="C316" s="8" t="s">
         <v>610</v>
       </c>
@@ -50482,8 +50482,8 @@
       </c>
     </row>
     <row r="317" spans="1:7" ht="50" customHeight="1">
-      <c r="A317" s="42"/>
-      <c r="B317" s="41" t="s">
+      <c r="A317" s="39"/>
+      <c r="B317" s="38" t="s">
         <v>903</v>
       </c>
       <c r="C317" s="8" t="s">
@@ -50493,7 +50493,7 @@
         <v>613</v>
       </c>
       <c r="E317" s="10" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F317" s="10"/>
       <c r="G317" s="28" t="s">
@@ -50501,8 +50501,8 @@
       </c>
     </row>
     <row r="318" spans="1:7" ht="50" customHeight="1">
-      <c r="A318" s="42"/>
-      <c r="B318" s="42"/>
+      <c r="A318" s="39"/>
+      <c r="B318" s="39"/>
       <c r="C318" s="8" t="s">
         <v>614</v>
       </c>
@@ -50510,7 +50510,7 @@
         <v>615</v>
       </c>
       <c r="E318" s="10" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="F318" s="10"/>
       <c r="G318" s="28" t="s">
@@ -50518,8 +50518,8 @@
       </c>
     </row>
     <row r="319" spans="1:7" ht="50" customHeight="1">
-      <c r="A319" s="42"/>
-      <c r="B319" s="42"/>
+      <c r="A319" s="39"/>
+      <c r="B319" s="39"/>
       <c r="C319" s="8" t="s">
         <v>616</v>
       </c>
@@ -50527,7 +50527,7 @@
         <v>617</v>
       </c>
       <c r="E319" s="10" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="F319" s="10"/>
       <c r="G319" s="28" t="s">
@@ -50535,8 +50535,8 @@
       </c>
     </row>
     <row r="320" spans="1:7" ht="50" customHeight="1">
-      <c r="A320" s="42"/>
-      <c r="B320" s="42"/>
+      <c r="A320" s="39"/>
+      <c r="B320" s="39"/>
       <c r="C320" s="8" t="s">
         <v>618</v>
       </c>
@@ -50550,8 +50550,8 @@
       </c>
     </row>
     <row r="321" spans="1:7" ht="50" customHeight="1">
-      <c r="A321" s="42"/>
-      <c r="B321" s="42"/>
+      <c r="A321" s="39"/>
+      <c r="B321" s="39"/>
       <c r="C321" s="8" t="s">
         <v>620</v>
       </c>
@@ -50565,8 +50565,8 @@
       </c>
     </row>
     <row r="322" spans="1:7" ht="50" customHeight="1">
-      <c r="A322" s="42"/>
-      <c r="B322" s="42"/>
+      <c r="A322" s="39"/>
+      <c r="B322" s="39"/>
       <c r="C322" s="8" t="s">
         <v>622</v>
       </c>
@@ -50580,8 +50580,8 @@
       </c>
     </row>
     <row r="323" spans="1:7" ht="50" customHeight="1">
-      <c r="A323" s="42"/>
-      <c r="B323" s="42"/>
+      <c r="A323" s="39"/>
+      <c r="B323" s="39"/>
       <c r="C323" s="8" t="s">
         <v>624</v>
       </c>
@@ -50595,8 +50595,8 @@
       </c>
     </row>
     <row r="324" spans="1:7" ht="50" customHeight="1">
-      <c r="A324" s="42"/>
-      <c r="B324" s="42"/>
+      <c r="A324" s="39"/>
+      <c r="B324" s="39"/>
       <c r="C324" s="8" t="s">
         <v>626</v>
       </c>
@@ -50610,8 +50610,8 @@
       </c>
     </row>
     <row r="325" spans="1:7" ht="50" customHeight="1">
-      <c r="A325" s="42"/>
-      <c r="B325" s="42"/>
+      <c r="A325" s="39"/>
+      <c r="B325" s="39"/>
       <c r="C325" s="8" t="s">
         <v>628</v>
       </c>
@@ -50625,8 +50625,8 @@
       </c>
     </row>
     <row r="326" spans="1:7" ht="50" customHeight="1">
-      <c r="A326" s="42"/>
-      <c r="B326" s="43"/>
+      <c r="A326" s="39"/>
+      <c r="B326" s="40"/>
       <c r="C326" s="8" t="s">
         <v>630</v>
       </c>
@@ -50640,7 +50640,7 @@
       </c>
     </row>
     <row r="327" spans="1:7" ht="50" customHeight="1">
-      <c r="A327" s="42"/>
+      <c r="A327" s="39"/>
       <c r="B327" s="14" t="s">
         <v>904</v>
       </c>
@@ -50651,7 +50651,7 @@
         <v>633</v>
       </c>
       <c r="E327" s="10" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="F327" s="10"/>
       <c r="G327" s="28" t="s">
@@ -50659,8 +50659,8 @@
       </c>
     </row>
     <row r="328" spans="1:7" ht="50" customHeight="1">
-      <c r="A328" s="42"/>
-      <c r="B328" s="41" t="s">
+      <c r="A328" s="39"/>
+      <c r="B328" s="38" t="s">
         <v>905</v>
       </c>
       <c r="C328" s="8" t="s">
@@ -50676,8 +50676,8 @@
       </c>
     </row>
     <row r="329" spans="1:7" ht="50" customHeight="1">
-      <c r="A329" s="42"/>
-      <c r="B329" s="42"/>
+      <c r="A329" s="39"/>
+      <c r="B329" s="39"/>
       <c r="C329" s="8" t="s">
         <v>636</v>
       </c>
@@ -50691,8 +50691,8 @@
       </c>
     </row>
     <row r="330" spans="1:7" ht="50" customHeight="1">
-      <c r="A330" s="42"/>
-      <c r="B330" s="42"/>
+      <c r="A330" s="39"/>
+      <c r="B330" s="39"/>
       <c r="C330" s="8" t="s">
         <v>638</v>
       </c>
@@ -50706,8 +50706,8 @@
       </c>
     </row>
     <row r="331" spans="1:7" ht="50" customHeight="1">
-      <c r="A331" s="42"/>
-      <c r="B331" s="42"/>
+      <c r="A331" s="39"/>
+      <c r="B331" s="39"/>
       <c r="C331" s="8" t="s">
         <v>640</v>
       </c>
@@ -50721,8 +50721,8 @@
       </c>
     </row>
     <row r="332" spans="1:7" ht="50" customHeight="1">
-      <c r="A332" s="43"/>
-      <c r="B332" s="43"/>
+      <c r="A332" s="40"/>
+      <c r="B332" s="40"/>
       <c r="C332" s="8" t="s">
         <v>642</v>
       </c>
@@ -50736,7 +50736,7 @@
       </c>
     </row>
     <row r="333" spans="1:7" ht="50" customHeight="1">
-      <c r="A333" s="41" t="s">
+      <c r="A333" s="38" t="s">
         <v>871</v>
       </c>
       <c r="C333" s="8" t="s">
@@ -50746,7 +50746,7 @@
         <v>645</v>
       </c>
       <c r="E333" s="10" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="F333" s="10"/>
       <c r="G333" s="31" t="s">
@@ -50754,7 +50754,7 @@
       </c>
     </row>
     <row r="334" spans="1:7" ht="50" customHeight="1">
-      <c r="A334" s="42"/>
+      <c r="A334" s="39"/>
       <c r="C334" s="8" t="s">
         <v>646</v>
       </c>
@@ -50768,7 +50768,7 @@
       </c>
     </row>
     <row r="335" spans="1:7" ht="50" customHeight="1">
-      <c r="A335" s="42"/>
+      <c r="A335" s="39"/>
       <c r="C335" s="8" t="s">
         <v>648</v>
       </c>
@@ -50782,7 +50782,7 @@
       </c>
     </row>
     <row r="336" spans="1:7" ht="50" customHeight="1">
-      <c r="A336" s="42"/>
+      <c r="A336" s="39"/>
       <c r="C336" s="8" t="s">
         <v>650</v>
       </c>
@@ -50796,7 +50796,7 @@
       </c>
     </row>
     <row r="337" spans="1:7" ht="50" customHeight="1">
-      <c r="A337" s="42"/>
+      <c r="A337" s="39"/>
       <c r="C337" s="8" t="s">
         <v>652</v>
       </c>
@@ -50810,7 +50810,7 @@
       </c>
     </row>
     <row r="338" spans="1:7" ht="50" customHeight="1">
-      <c r="A338" s="42"/>
+      <c r="A338" s="39"/>
       <c r="C338" s="8" t="s">
         <v>654</v>
       </c>
@@ -50824,7 +50824,7 @@
       </c>
     </row>
     <row r="339" spans="1:7" ht="50" customHeight="1">
-      <c r="A339" s="42"/>
+      <c r="A339" s="39"/>
       <c r="C339" s="8" t="s">
         <v>656</v>
       </c>
@@ -50832,7 +50832,7 @@
         <v>657</v>
       </c>
       <c r="E339" s="10" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="F339" s="10"/>
       <c r="G339" s="30" t="s">
@@ -50840,7 +50840,7 @@
       </c>
     </row>
     <row r="340" spans="1:7" ht="50" customHeight="1">
-      <c r="A340" s="42"/>
+      <c r="A340" s="39"/>
       <c r="C340" s="8" t="s">
         <v>658</v>
       </c>
@@ -50854,7 +50854,7 @@
       </c>
     </row>
     <row r="341" spans="1:7" ht="50" customHeight="1">
-      <c r="A341" s="42"/>
+      <c r="A341" s="39"/>
       <c r="C341" s="8" t="s">
         <v>660</v>
       </c>
@@ -50868,7 +50868,7 @@
       </c>
     </row>
     <row r="342" spans="1:7" ht="50" customHeight="1">
-      <c r="A342" s="42"/>
+      <c r="A342" s="39"/>
       <c r="C342" s="8" t="s">
         <v>662</v>
       </c>
@@ -50876,7 +50876,7 @@
         <v>663</v>
       </c>
       <c r="E342" s="10" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="F342" s="10"/>
       <c r="G342" s="30" t="s">
@@ -50884,7 +50884,7 @@
       </c>
     </row>
     <row r="343" spans="1:7" ht="50" customHeight="1">
-      <c r="A343" s="42"/>
+      <c r="A343" s="39"/>
       <c r="C343" s="8" t="s">
         <v>664</v>
       </c>
@@ -50898,7 +50898,7 @@
       </c>
     </row>
     <row r="344" spans="1:7" ht="50" customHeight="1">
-      <c r="A344" s="42"/>
+      <c r="A344" s="39"/>
       <c r="C344" s="8" t="s">
         <v>666</v>
       </c>
@@ -50912,7 +50912,7 @@
       </c>
     </row>
     <row r="345" spans="1:7" ht="50" customHeight="1">
-      <c r="A345" s="42"/>
+      <c r="A345" s="39"/>
       <c r="C345" s="8" t="s">
         <v>668</v>
       </c>
@@ -50926,7 +50926,7 @@
       </c>
     </row>
     <row r="346" spans="1:7" ht="50" customHeight="1">
-      <c r="A346" s="42"/>
+      <c r="A346" s="39"/>
       <c r="C346" s="35" t="s">
         <v>924</v>
       </c>
@@ -50940,7 +50940,7 @@
       </c>
     </row>
     <row r="347" spans="1:7" ht="50" customHeight="1">
-      <c r="A347" s="42"/>
+      <c r="A347" s="39"/>
       <c r="C347" s="8" t="s">
         <v>670</v>
       </c>
@@ -50948,7 +50948,7 @@
         <v>671</v>
       </c>
       <c r="E347" s="10" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="F347" s="10"/>
       <c r="G347" s="31" t="s">
@@ -50956,7 +50956,7 @@
       </c>
     </row>
     <row r="348" spans="1:7" ht="50" customHeight="1">
-      <c r="A348" s="42"/>
+      <c r="A348" s="39"/>
       <c r="C348" s="8" t="s">
         <v>672</v>
       </c>
@@ -50964,7 +50964,7 @@
         <v>673</v>
       </c>
       <c r="E348" s="10" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="F348" s="10"/>
       <c r="G348" s="31" t="s">
@@ -50972,7 +50972,7 @@
       </c>
     </row>
     <row r="349" spans="1:7" ht="50" customHeight="1">
-      <c r="A349" s="42"/>
+      <c r="A349" s="39"/>
       <c r="C349" s="8" t="s">
         <v>674</v>
       </c>
@@ -50986,7 +50986,7 @@
       </c>
     </row>
     <row r="350" spans="1:7" ht="50" customHeight="1">
-      <c r="A350" s="42"/>
+      <c r="A350" s="39"/>
       <c r="C350" s="8" t="s">
         <v>676</v>
       </c>
@@ -51000,7 +51000,7 @@
       </c>
     </row>
     <row r="351" spans="1:7" ht="50" customHeight="1">
-      <c r="A351" s="42"/>
+      <c r="A351" s="39"/>
       <c r="C351" s="8" t="s">
         <v>678</v>
       </c>
@@ -51008,7 +51008,7 @@
         <v>679</v>
       </c>
       <c r="E351" s="10" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="F351" s="10"/>
       <c r="G351" s="31" t="s">
@@ -51016,7 +51016,7 @@
       </c>
     </row>
     <row r="352" spans="1:7" ht="50" customHeight="1">
-      <c r="A352" s="42"/>
+      <c r="A352" s="39"/>
       <c r="C352" s="8" t="s">
         <v>680</v>
       </c>
@@ -51030,7 +51030,7 @@
       </c>
     </row>
     <row r="353" spans="1:7" ht="50" customHeight="1">
-      <c r="A353" s="42"/>
+      <c r="A353" s="39"/>
       <c r="C353" s="8" t="s">
         <v>682</v>
       </c>
@@ -51038,7 +51038,7 @@
         <v>683</v>
       </c>
       <c r="E353" s="10" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="F353" s="10"/>
       <c r="G353" s="31" t="s">
@@ -51046,7 +51046,7 @@
       </c>
     </row>
     <row r="354" spans="1:7" ht="50" customHeight="1">
-      <c r="A354" s="42"/>
+      <c r="A354" s="39"/>
       <c r="C354" s="8" t="s">
         <v>684</v>
       </c>
@@ -51060,7 +51060,7 @@
       </c>
     </row>
     <row r="355" spans="1:7" ht="50" customHeight="1">
-      <c r="A355" s="42"/>
+      <c r="A355" s="39"/>
       <c r="C355" s="8" t="s">
         <v>686</v>
       </c>
@@ -51068,7 +51068,7 @@
         <v>687</v>
       </c>
       <c r="E355" s="10" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="F355" s="10"/>
       <c r="G355" s="31" t="s">
@@ -51076,7 +51076,7 @@
       </c>
     </row>
     <row r="356" spans="1:7" ht="50" customHeight="1">
-      <c r="A356" s="42"/>
+      <c r="A356" s="39"/>
       <c r="C356" s="8" t="s">
         <v>688</v>
       </c>
@@ -51084,7 +51084,7 @@
         <v>689</v>
       </c>
       <c r="E356" s="10" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="F356" s="10"/>
       <c r="G356" s="31" t="s">
@@ -51092,7 +51092,7 @@
       </c>
     </row>
     <row r="357" spans="1:7" ht="50" customHeight="1">
-      <c r="A357" s="42"/>
+      <c r="A357" s="39"/>
       <c r="C357" s="8" t="s">
         <v>690</v>
       </c>
@@ -51100,7 +51100,7 @@
         <v>691</v>
       </c>
       <c r="E357" s="10" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="F357" s="10"/>
       <c r="G357" s="31" t="s">
@@ -51108,7 +51108,7 @@
       </c>
     </row>
     <row r="358" spans="1:7" ht="50" customHeight="1">
-      <c r="A358" s="42"/>
+      <c r="A358" s="39"/>
       <c r="C358" s="8" t="s">
         <v>692</v>
       </c>
@@ -51116,7 +51116,7 @@
         <v>693</v>
       </c>
       <c r="E358" s="10" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="F358" s="10"/>
       <c r="G358" s="31" t="s">
@@ -51124,7 +51124,7 @@
       </c>
     </row>
     <row r="359" spans="1:7" ht="50" customHeight="1">
-      <c r="A359" s="42"/>
+      <c r="A359" s="39"/>
       <c r="C359" s="8" t="s">
         <v>694</v>
       </c>
@@ -51138,7 +51138,7 @@
       </c>
     </row>
     <row r="360" spans="1:7" ht="50" customHeight="1">
-      <c r="A360" s="42"/>
+      <c r="A360" s="39"/>
       <c r="C360" s="8" t="s">
         <v>696</v>
       </c>
@@ -51152,7 +51152,7 @@
       </c>
     </row>
     <row r="361" spans="1:7" ht="50" customHeight="1">
-      <c r="A361" s="42"/>
+      <c r="A361" s="39"/>
       <c r="C361" s="8" t="s">
         <v>698</v>
       </c>
@@ -51166,7 +51166,7 @@
       </c>
     </row>
     <row r="362" spans="1:7" ht="50" customHeight="1">
-      <c r="A362" s="42"/>
+      <c r="A362" s="39"/>
       <c r="C362" s="8" t="s">
         <v>700</v>
       </c>
@@ -51180,7 +51180,7 @@
       </c>
     </row>
     <row r="363" spans="1:7" ht="50" customHeight="1">
-      <c r="A363" s="42"/>
+      <c r="A363" s="39"/>
       <c r="C363" s="8" t="s">
         <v>702</v>
       </c>
@@ -51194,7 +51194,7 @@
       </c>
     </row>
     <row r="364" spans="1:7" ht="50" customHeight="1">
-      <c r="A364" s="42"/>
+      <c r="A364" s="39"/>
       <c r="C364" s="8" t="s">
         <v>704</v>
       </c>
@@ -51202,7 +51202,7 @@
         <v>705</v>
       </c>
       <c r="E364" s="10" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="F364" s="10"/>
       <c r="G364" s="31" t="s">
@@ -51210,7 +51210,7 @@
       </c>
     </row>
     <row r="365" spans="1:7" ht="50" customHeight="1">
-      <c r="A365" s="42"/>
+      <c r="A365" s="39"/>
       <c r="C365" s="8" t="s">
         <v>706</v>
       </c>
@@ -51218,7 +51218,7 @@
         <v>707</v>
       </c>
       <c r="E365" s="10" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="F365" s="10"/>
       <c r="G365" s="31" t="s">
@@ -51226,7 +51226,7 @@
       </c>
     </row>
     <row r="366" spans="1:7" ht="50" customHeight="1">
-      <c r="A366" s="42"/>
+      <c r="A366" s="39"/>
       <c r="C366" s="8" t="s">
         <v>708</v>
       </c>
@@ -51240,7 +51240,7 @@
       </c>
     </row>
     <row r="367" spans="1:7" ht="50" customHeight="1">
-      <c r="A367" s="42"/>
+      <c r="A367" s="39"/>
       <c r="C367" s="8" t="s">
         <v>710</v>
       </c>
@@ -51248,7 +51248,7 @@
         <v>711</v>
       </c>
       <c r="E367" s="10" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="F367" s="10"/>
       <c r="G367" s="31" t="s">
@@ -51256,7 +51256,7 @@
       </c>
     </row>
     <row r="368" spans="1:7" ht="50" customHeight="1">
-      <c r="A368" s="42"/>
+      <c r="A368" s="39"/>
       <c r="C368" s="8" t="s">
         <v>712</v>
       </c>
@@ -51264,7 +51264,7 @@
         <v>713</v>
       </c>
       <c r="E368" s="10" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F368" s="10"/>
       <c r="G368" s="31" t="s">
@@ -51272,7 +51272,7 @@
       </c>
     </row>
     <row r="369" spans="1:7" ht="50" customHeight="1">
-      <c r="A369" s="42"/>
+      <c r="A369" s="39"/>
       <c r="C369" s="8" t="s">
         <v>714</v>
       </c>
@@ -51280,7 +51280,7 @@
         <v>715</v>
       </c>
       <c r="E369" s="10" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="F369" s="10"/>
       <c r="G369" s="31" t="s">
@@ -51288,7 +51288,7 @@
       </c>
     </row>
     <row r="370" spans="1:7" ht="50" customHeight="1">
-      <c r="A370" s="42"/>
+      <c r="A370" s="39"/>
       <c r="C370" s="8" t="s">
         <v>716</v>
       </c>
@@ -51296,7 +51296,7 @@
         <v>717</v>
       </c>
       <c r="E370" s="10" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F370" s="10"/>
       <c r="G370" s="31" t="s">
@@ -51304,7 +51304,7 @@
       </c>
     </row>
     <row r="371" spans="1:7" ht="50" customHeight="1">
-      <c r="A371" s="42"/>
+      <c r="A371" s="39"/>
       <c r="C371" s="8" t="s">
         <v>718</v>
       </c>
@@ -51312,7 +51312,7 @@
         <v>719</v>
       </c>
       <c r="E371" s="10" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="F371" s="10"/>
       <c r="G371" s="31" t="s">
@@ -51320,7 +51320,7 @@
       </c>
     </row>
     <row r="372" spans="1:7" ht="50" customHeight="1">
-      <c r="A372" s="42"/>
+      <c r="A372" s="39"/>
       <c r="C372" s="8" t="s">
         <v>720</v>
       </c>
@@ -51328,7 +51328,7 @@
         <v>721</v>
       </c>
       <c r="E372" s="10" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F372" s="10"/>
       <c r="G372" s="31" t="s">
@@ -51336,7 +51336,7 @@
       </c>
     </row>
     <row r="373" spans="1:7" ht="50" customHeight="1">
-      <c r="A373" s="42"/>
+      <c r="A373" s="39"/>
       <c r="C373" s="8" t="s">
         <v>722</v>
       </c>
@@ -51344,7 +51344,7 @@
         <v>723</v>
       </c>
       <c r="E373" s="10" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="F373" s="10"/>
       <c r="G373" s="31" t="s">
@@ -51352,7 +51352,7 @@
       </c>
     </row>
     <row r="374" spans="1:7" ht="50" customHeight="1">
-      <c r="A374" s="42"/>
+      <c r="A374" s="39"/>
       <c r="C374" s="8" t="s">
         <v>724</v>
       </c>
@@ -51360,7 +51360,7 @@
         <v>725</v>
       </c>
       <c r="E374" s="10" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="F374" s="10"/>
       <c r="G374" s="31" t="s">
@@ -51368,7 +51368,7 @@
       </c>
     </row>
     <row r="375" spans="1:7" ht="50" customHeight="1">
-      <c r="A375" s="42"/>
+      <c r="A375" s="39"/>
       <c r="C375" s="8" t="s">
         <v>726</v>
       </c>
@@ -51376,7 +51376,7 @@
         <v>727</v>
       </c>
       <c r="E375" s="10" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="F375" s="10"/>
       <c r="G375" s="31" t="s">
@@ -51384,7 +51384,7 @@
       </c>
     </row>
     <row r="376" spans="1:7" ht="50" customHeight="1">
-      <c r="A376" s="42"/>
+      <c r="A376" s="39"/>
       <c r="C376" s="8" t="s">
         <v>728</v>
       </c>
@@ -51392,7 +51392,7 @@
         <v>729</v>
       </c>
       <c r="E376" s="10" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="F376" s="10"/>
       <c r="G376" s="31" t="s">
@@ -51400,7 +51400,7 @@
       </c>
     </row>
     <row r="377" spans="1:7" ht="50" customHeight="1">
-      <c r="A377" s="42"/>
+      <c r="A377" s="39"/>
       <c r="C377" s="8" t="s">
         <v>730</v>
       </c>
@@ -51414,7 +51414,7 @@
       </c>
     </row>
     <row r="378" spans="1:7" ht="50" customHeight="1">
-      <c r="A378" s="42"/>
+      <c r="A378" s="39"/>
       <c r="C378" s="8" t="s">
         <v>732</v>
       </c>
@@ -51422,7 +51422,7 @@
         <v>733</v>
       </c>
       <c r="E378" s="10" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="F378" s="10"/>
       <c r="G378" s="31" t="s">
@@ -51430,7 +51430,7 @@
       </c>
     </row>
     <row r="379" spans="1:7" ht="50" customHeight="1">
-      <c r="A379" s="42"/>
+      <c r="A379" s="39"/>
       <c r="C379" s="8" t="s">
         <v>734</v>
       </c>
@@ -51444,7 +51444,7 @@
       </c>
     </row>
     <row r="380" spans="1:7" ht="50" customHeight="1">
-      <c r="A380" s="42"/>
+      <c r="A380" s="39"/>
       <c r="C380" s="8" t="s">
         <v>736</v>
       </c>
@@ -51458,7 +51458,7 @@
       </c>
     </row>
     <row r="381" spans="1:7" ht="50" customHeight="1">
-      <c r="A381" s="42"/>
+      <c r="A381" s="39"/>
       <c r="C381" s="8" t="s">
         <v>738</v>
       </c>
@@ -51472,7 +51472,7 @@
       </c>
     </row>
     <row r="382" spans="1:7" ht="50" customHeight="1">
-      <c r="A382" s="42"/>
+      <c r="A382" s="39"/>
       <c r="C382" s="8" t="s">
         <v>740</v>
       </c>
@@ -51486,7 +51486,7 @@
       </c>
     </row>
     <row r="383" spans="1:7" ht="50" customHeight="1">
-      <c r="A383" s="42"/>
+      <c r="A383" s="39"/>
       <c r="C383" s="8" t="s">
         <v>742</v>
       </c>
@@ -51500,7 +51500,7 @@
       </c>
     </row>
     <row r="384" spans="1:7" ht="50" customHeight="1">
-      <c r="A384" s="42"/>
+      <c r="A384" s="39"/>
       <c r="C384" s="8" t="s">
         <v>744</v>
       </c>
@@ -51514,7 +51514,7 @@
       </c>
     </row>
     <row r="385" spans="1:7" ht="50" customHeight="1">
-      <c r="A385" s="42"/>
+      <c r="A385" s="39"/>
       <c r="C385" s="8" t="s">
         <v>746</v>
       </c>
@@ -51522,7 +51522,7 @@
         <v>747</v>
       </c>
       <c r="E385" s="10" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F385" s="10"/>
       <c r="G385" s="31" t="s">
@@ -51530,7 +51530,7 @@
       </c>
     </row>
     <row r="386" spans="1:7" ht="50" customHeight="1">
-      <c r="A386" s="42"/>
+      <c r="A386" s="39"/>
       <c r="C386" s="8" t="s">
         <v>748</v>
       </c>
@@ -51544,7 +51544,7 @@
       </c>
     </row>
     <row r="387" spans="1:7" ht="50" customHeight="1">
-      <c r="A387" s="42"/>
+      <c r="A387" s="39"/>
       <c r="C387" s="8" t="s">
         <v>750</v>
       </c>
@@ -51552,7 +51552,7 @@
         <v>751</v>
       </c>
       <c r="E387" s="10" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="F387" s="10"/>
       <c r="G387" s="31" t="s">
@@ -51560,7 +51560,7 @@
       </c>
     </row>
     <row r="388" spans="1:7" ht="50" customHeight="1">
-      <c r="A388" s="42"/>
+      <c r="A388" s="39"/>
       <c r="C388" s="8" t="s">
         <v>752</v>
       </c>
@@ -51574,7 +51574,7 @@
       </c>
     </row>
     <row r="389" spans="1:7" ht="50" customHeight="1">
-      <c r="A389" s="42"/>
+      <c r="A389" s="39"/>
       <c r="C389" s="8" t="s">
         <v>754</v>
       </c>
@@ -51588,7 +51588,7 @@
       </c>
     </row>
     <row r="390" spans="1:7" ht="50" customHeight="1">
-      <c r="A390" s="42"/>
+      <c r="A390" s="39"/>
       <c r="C390" s="8" t="s">
         <v>756</v>
       </c>
@@ -51602,7 +51602,7 @@
       </c>
     </row>
     <row r="391" spans="1:7" ht="50" customHeight="1">
-      <c r="A391" s="42"/>
+      <c r="A391" s="39"/>
       <c r="C391" s="8" t="s">
         <v>758</v>
       </c>
@@ -51616,7 +51616,7 @@
       </c>
     </row>
     <row r="392" spans="1:7" ht="50" customHeight="1">
-      <c r="A392" s="42"/>
+      <c r="A392" s="39"/>
       <c r="C392" s="8" t="s">
         <v>760</v>
       </c>
@@ -51630,7 +51630,7 @@
       </c>
     </row>
     <row r="393" spans="1:7" ht="50" customHeight="1">
-      <c r="A393" s="42"/>
+      <c r="A393" s="39"/>
       <c r="C393" s="8" t="s">
         <v>762</v>
       </c>
@@ -51644,7 +51644,7 @@
       </c>
     </row>
     <row r="394" spans="1:7" ht="50" customHeight="1">
-      <c r="A394" s="42"/>
+      <c r="A394" s="39"/>
       <c r="C394" s="8" t="s">
         <v>764</v>
       </c>
@@ -51658,7 +51658,7 @@
       </c>
     </row>
     <row r="395" spans="1:7" ht="50" customHeight="1">
-      <c r="A395" s="42"/>
+      <c r="A395" s="39"/>
       <c r="C395" s="8" t="s">
         <v>766</v>
       </c>
@@ -51672,7 +51672,7 @@
       </c>
     </row>
     <row r="396" spans="1:7" ht="50" customHeight="1">
-      <c r="A396" s="42"/>
+      <c r="A396" s="39"/>
       <c r="C396" s="8" t="s">
         <v>768</v>
       </c>
@@ -51680,7 +51680,7 @@
         <v>769</v>
       </c>
       <c r="E396" s="10" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="F396" s="10"/>
       <c r="G396" s="31" t="s">
@@ -51688,7 +51688,7 @@
       </c>
     </row>
     <row r="397" spans="1:7" ht="50" customHeight="1">
-      <c r="A397" s="42"/>
+      <c r="A397" s="39"/>
       <c r="C397" s="8" t="s">
         <v>770</v>
       </c>
@@ -51702,7 +51702,7 @@
       </c>
     </row>
     <row r="398" spans="1:7" ht="50" customHeight="1">
-      <c r="A398" s="42"/>
+      <c r="A398" s="39"/>
       <c r="C398" s="8" t="s">
         <v>772</v>
       </c>
@@ -51716,7 +51716,7 @@
       </c>
     </row>
     <row r="399" spans="1:7" ht="50" customHeight="1">
-      <c r="A399" s="42"/>
+      <c r="A399" s="39"/>
       <c r="C399" s="8" t="s">
         <v>774</v>
       </c>
@@ -51730,7 +51730,7 @@
       </c>
     </row>
     <row r="400" spans="1:7" ht="50" customHeight="1">
-      <c r="A400" s="42"/>
+      <c r="A400" s="39"/>
       <c r="C400" s="8" t="s">
         <v>776</v>
       </c>
@@ -51738,7 +51738,7 @@
         <v>777</v>
       </c>
       <c r="E400" s="10" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="F400" s="10"/>
       <c r="G400" s="31" t="s">
@@ -51746,7 +51746,7 @@
       </c>
     </row>
     <row r="401" spans="1:7" ht="50" customHeight="1">
-      <c r="A401" s="42"/>
+      <c r="A401" s="39"/>
       <c r="C401" s="8" t="s">
         <v>778</v>
       </c>
@@ -51760,7 +51760,7 @@
       </c>
     </row>
     <row r="402" spans="1:7" ht="50" customHeight="1">
-      <c r="A402" s="42"/>
+      <c r="A402" s="39"/>
       <c r="C402" s="8" t="s">
         <v>780</v>
       </c>
@@ -51768,7 +51768,7 @@
         <v>781</v>
       </c>
       <c r="E402" s="10" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="F402" s="10"/>
       <c r="G402" s="31" t="s">
@@ -51776,7 +51776,7 @@
       </c>
     </row>
     <row r="403" spans="1:7" ht="50" customHeight="1">
-      <c r="A403" s="42"/>
+      <c r="A403" s="39"/>
       <c r="C403" s="8" t="s">
         <v>782</v>
       </c>
@@ -51790,7 +51790,7 @@
       </c>
     </row>
     <row r="404" spans="1:7" ht="50" customHeight="1">
-      <c r="A404" s="43"/>
+      <c r="A404" s="40"/>
       <c r="C404" s="8" t="s">
         <v>784</v>
       </c>
@@ -51804,10 +51804,10 @@
       </c>
     </row>
     <row r="405" spans="1:7" ht="50" customHeight="1">
-      <c r="A405" s="41" t="s">
+      <c r="A405" s="38" t="s">
         <v>872</v>
       </c>
-      <c r="B405" s="41" t="s">
+      <c r="B405" s="38" t="s">
         <v>873</v>
       </c>
       <c r="C405" s="26" t="s">
@@ -51817,15 +51817,15 @@
         <v>787</v>
       </c>
       <c r="E405" s="13" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="G405" s="28" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="50" customHeight="1">
-      <c r="A406" s="42"/>
-      <c r="B406" s="42"/>
+      <c r="A406" s="39"/>
+      <c r="B406" s="39"/>
       <c r="C406" s="27" t="s">
         <v>788</v>
       </c>
@@ -51839,8 +51839,8 @@
       </c>
     </row>
     <row r="407" spans="1:7" ht="50" customHeight="1">
-      <c r="A407" s="42"/>
-      <c r="B407" s="42"/>
+      <c r="A407" s="39"/>
+      <c r="B407" s="39"/>
       <c r="C407" s="27" t="s">
         <v>790</v>
       </c>
@@ -51854,8 +51854,8 @@
       </c>
     </row>
     <row r="408" spans="1:7" ht="50" customHeight="1">
-      <c r="A408" s="42"/>
-      <c r="B408" s="43"/>
+      <c r="A408" s="39"/>
+      <c r="B408" s="40"/>
       <c r="C408" s="27" t="s">
         <v>792</v>
       </c>
@@ -51869,8 +51869,8 @@
       </c>
     </row>
     <row r="409" spans="1:7" ht="50" customHeight="1">
-      <c r="A409" s="42"/>
-      <c r="B409" s="41" t="s">
+      <c r="A409" s="39"/>
+      <c r="B409" s="38" t="s">
         <v>874</v>
       </c>
       <c r="C409" s="27" t="s">
@@ -51886,8 +51886,8 @@
       </c>
     </row>
     <row r="410" spans="1:7" ht="50" customHeight="1">
-      <c r="A410" s="42"/>
-      <c r="B410" s="42"/>
+      <c r="A410" s="39"/>
+      <c r="B410" s="39"/>
       <c r="C410" s="27" t="s">
         <v>796</v>
       </c>
@@ -51901,8 +51901,8 @@
       </c>
     </row>
     <row r="411" spans="1:7" ht="50" customHeight="1">
-      <c r="A411" s="42"/>
-      <c r="B411" s="42"/>
+      <c r="A411" s="39"/>
+      <c r="B411" s="39"/>
       <c r="C411" s="27" t="s">
         <v>798</v>
       </c>
@@ -51910,7 +51910,7 @@
         <v>799</v>
       </c>
       <c r="E411" s="25" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="F411" s="25"/>
       <c r="G411" s="28" t="s">
@@ -51918,8 +51918,8 @@
       </c>
     </row>
     <row r="412" spans="1:7" ht="50" customHeight="1">
-      <c r="A412" s="42"/>
-      <c r="B412" s="42"/>
+      <c r="A412" s="39"/>
+      <c r="B412" s="39"/>
       <c r="C412" s="27" t="s">
         <v>800</v>
       </c>
@@ -51933,8 +51933,8 @@
       </c>
     </row>
     <row r="413" spans="1:7" ht="50" customHeight="1">
-      <c r="A413" s="42"/>
-      <c r="B413" s="42"/>
+      <c r="A413" s="39"/>
+      <c r="B413" s="39"/>
       <c r="C413" s="27" t="s">
         <v>802</v>
       </c>
@@ -51948,8 +51948,8 @@
       </c>
     </row>
     <row r="414" spans="1:7" ht="50" customHeight="1">
-      <c r="A414" s="42"/>
-      <c r="B414" s="42"/>
+      <c r="A414" s="39"/>
+      <c r="B414" s="39"/>
       <c r="C414" s="27" t="s">
         <v>804</v>
       </c>
@@ -51963,8 +51963,8 @@
       </c>
     </row>
     <row r="415" spans="1:7" ht="50" customHeight="1">
-      <c r="A415" s="42"/>
-      <c r="B415" s="43"/>
+      <c r="A415" s="39"/>
+      <c r="B415" s="40"/>
       <c r="C415" s="27" t="s">
         <v>806</v>
       </c>
@@ -51978,8 +51978,8 @@
       </c>
     </row>
     <row r="416" spans="1:7" ht="50" customHeight="1">
-      <c r="A416" s="42"/>
-      <c r="B416" s="41" t="s">
+      <c r="A416" s="39"/>
+      <c r="B416" s="38" t="s">
         <v>875</v>
       </c>
       <c r="C416" s="26" t="s">
@@ -51989,15 +51989,15 @@
         <v>809</v>
       </c>
       <c r="E416" s="13" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="G416" s="28" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="50" customHeight="1">
-      <c r="A417" s="42"/>
-      <c r="B417" s="43"/>
+      <c r="A417" s="39"/>
+      <c r="B417" s="40"/>
       <c r="C417" s="27" t="s">
         <v>810</v>
       </c>
@@ -52005,15 +52005,15 @@
         <v>811</v>
       </c>
       <c r="E417" s="13" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="G417" s="28" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="418" spans="1:7" ht="50" customHeight="1">
-      <c r="A418" s="42"/>
-      <c r="B418" s="41" t="s">
+      <c r="A418" s="39"/>
+      <c r="B418" s="38" t="s">
         <v>876</v>
       </c>
       <c r="C418" s="26" t="s">
@@ -52027,8 +52027,8 @@
       </c>
     </row>
     <row r="419" spans="1:7" ht="50" customHeight="1">
-      <c r="A419" s="42"/>
-      <c r="B419" s="42"/>
+      <c r="A419" s="39"/>
+      <c r="B419" s="39"/>
       <c r="C419" s="26" t="s">
         <v>814</v>
       </c>
@@ -52040,8 +52040,8 @@
       </c>
     </row>
     <row r="420" spans="1:7" ht="50" customHeight="1">
-      <c r="A420" s="42"/>
-      <c r="B420" s="42"/>
+      <c r="A420" s="39"/>
+      <c r="B420" s="39"/>
       <c r="C420" s="26" t="s">
         <v>816</v>
       </c>
@@ -52053,8 +52053,8 @@
       </c>
     </row>
     <row r="421" spans="1:7" ht="50" customHeight="1">
-      <c r="A421" s="42"/>
-      <c r="B421" s="42"/>
+      <c r="A421" s="39"/>
+      <c r="B421" s="39"/>
       <c r="C421" s="26" t="s">
         <v>818</v>
       </c>
@@ -52066,8 +52066,8 @@
       </c>
     </row>
     <row r="422" spans="1:7" ht="50" customHeight="1">
-      <c r="A422" s="43"/>
-      <c r="B422" s="43"/>
+      <c r="A422" s="40"/>
+      <c r="B422" s="40"/>
       <c r="C422" s="26" t="s">
         <v>820</v>
       </c>
@@ -52080,15 +52080,31 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B314:B316"/>
-    <mergeCell ref="B317:B326"/>
-    <mergeCell ref="B328:B332"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="B233:B267"/>
-    <mergeCell ref="B274:B306"/>
-    <mergeCell ref="B309:B313"/>
-    <mergeCell ref="B269:B273"/>
+    <mergeCell ref="B47:B56"/>
+    <mergeCell ref="A34:A56"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A16:A33"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A57:A69"/>
+    <mergeCell ref="B57:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="A70:A111"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B73:B95"/>
+    <mergeCell ref="B96:B105"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="A112:A121"/>
+    <mergeCell ref="A123:A146"/>
+    <mergeCell ref="B123:B137"/>
+    <mergeCell ref="B138:B146"/>
+    <mergeCell ref="B115:B122"/>
     <mergeCell ref="A147:A226"/>
     <mergeCell ref="A227:A332"/>
     <mergeCell ref="A333:A404"/>
@@ -52105,31 +52121,15 @@
     <mergeCell ref="B180:B185"/>
     <mergeCell ref="B186:B222"/>
     <mergeCell ref="B223:B226"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="A112:A121"/>
-    <mergeCell ref="A123:A146"/>
-    <mergeCell ref="B123:B137"/>
-    <mergeCell ref="B138:B146"/>
-    <mergeCell ref="B115:B122"/>
-    <mergeCell ref="A57:A69"/>
-    <mergeCell ref="B57:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="A70:A111"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B73:B95"/>
-    <mergeCell ref="B96:B105"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B47:B56"/>
-    <mergeCell ref="A34:A56"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="A16:A33"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B314:B316"/>
+    <mergeCell ref="B317:B326"/>
+    <mergeCell ref="B328:B332"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="B233:B267"/>
+    <mergeCell ref="B274:B306"/>
+    <mergeCell ref="B309:B313"/>
+    <mergeCell ref="B269:B273"/>
   </mergeCells>
   <conditionalFormatting sqref="E328:F328 E306:F307 E322:F326 E125:F125">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -52143,6 +52143,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F414E67DA4490F438DF7F839DDD88F54" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="968179862b391a59b7f67eb3e7667402">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fddf207-9565-4c1d-88a2-78ac3eb02019" xmlns:ns3="1750c493-bee6-4013-b7a9-faed7d1eacd9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fc6ea6213b4ec21afdfc08f0704f67a" ns2:_="" ns3:_="">
     <xsd:import namespace="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
@@ -52345,36 +52360,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD5FE2FF-FFA2-4AC8-B9A7-6009CF780188}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E6096D8-1CD1-477D-852D-41029505002A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
-    <ds:schemaRef ds:uri="1750c493-bee6-4013-b7a9-faed7d1eacd9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -52397,9 +52386,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E6096D8-1CD1-477D-852D-41029505002A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD5FE2FF-FFA2-4AC8-B9A7-6009CF780188}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
+    <ds:schemaRef ds:uri="1750c493-bee6-4013-b7a9-faed7d1eacd9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Carto/POI/PDS_Category_Assignment.xlsx
+++ b/Carto/POI/PDS_Category_Assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauragar/icons-by-here-technologies/Carto/POI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C99C1B-6754-4E4E-8F95-DE6C094E652C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B2A2063F-FB7E-C842-B1C1-FC833C88AB7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27600" xr2:uid="{C64EB798-04F6-AE43-9DCC-0EA02E11247A}"/>
+    <workbookView xWindow="-100" yWindow="540" windowWidth="51200" windowHeight="27600" xr2:uid="{C64EB798-04F6-AE43-9DCC-0EA02E11247A}"/>
   </bookViews>
   <sheets>
     <sheet name="PDS_Category_Assignment" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="1004">
   <si>
     <t>PDS Category name</t>
   </si>
@@ -2829,238 +2829,235 @@
     <t>Home Improvement</t>
   </si>
   <si>
-    <t>fast-food_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>night-club_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>bar-pub_solid_24px.svg</t>
-  </si>
-  <si>
     <t>karaoke_solid_24px.svg</t>
   </si>
   <si>
-    <t>billiards-pool-hall_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>video-arcade-game-room_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>beer-garden_solid_24px.svg</t>
-  </si>
-  <si>
     <t>cinema_solid_24px.svg</t>
   </si>
   <si>
-    <t>theatre-music-culture_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>gambling-lottery-betting_solid_24px.svg</t>
-  </si>
-  <si>
     <t>travel-agent-ticketing_solid_24px.svg</t>
   </si>
   <si>
-    <t>landmark-attraction_solid_24px.svg</t>
-  </si>
-  <si>
     <t>gallery_solid_24px.svg</t>
   </si>
   <si>
     <t>museum_solid_24px.svg</t>
   </si>
   <si>
-    <t>religious-place_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>generic_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>marina_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>natural-geographical_solid_24px.svg</t>
-  </si>
-  <si>
     <t>airport_solid_24px.svg</t>
   </si>
   <si>
-    <t>train-station_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>bus-station_solid_24px.svg</t>
-  </si>
-  <si>
     <t>underground-train-subway_solid_24px.svg</t>
   </si>
   <si>
-    <t>commuter-rail-station_solid_24px.svg</t>
-  </si>
-  <si>
     <t>ferry_solid_24px.svg</t>
   </si>
   <si>
     <t>taxi_solid_24px.svg</t>
   </si>
   <si>
-    <t>tollbooth_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>lightrail_solid_24px.svg</t>
-  </si>
-  <si>
     <t>monorail_solid_24px.svg</t>
   </si>
   <si>
-    <t>aerial-tramway_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>inclined-rail_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>rest-area_solid_24px.svg</t>
-  </si>
-  <si>
     <t>parking_solid_24px.svg</t>
   </si>
   <si>
-    <t>scenic-overlook-rest-area_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>hotel-motel_solid_24px.svg</t>
-  </si>
-  <si>
     <t>hotel_solid_24px.svg</t>
   </si>
   <si>
-    <t>lodging_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>outdoor-recreation_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>park-recreation-area_solid_24px.svg</t>
-  </si>
-  <si>
     <t>amusement_solid_24px.svg</t>
   </si>
   <si>
     <t>zoo_solid_24px.svg</t>
   </si>
   <si>
-    <t>ski-resort_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>shopping-mall_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>drugstore-pharmacy_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>bookstore_solid_24px.svg</t>
-  </si>
-  <si>
     <t>bank_solid_24px.svg</t>
   </si>
   <si>
     <t>atm_solid_24px.svg</t>
   </si>
   <si>
-    <t>police-fire-emergency_solid_24px.svg</t>
-  </si>
-  <si>
     <t>laundry_solid_24px.svg</t>
   </si>
   <si>
-    <t>business-service_solid_24px.svg</t>
-  </si>
-  <si>
     <t>post_solid_24px.svg</t>
   </si>
   <si>
-    <t>tourist-information_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>fueling-station_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>ev-charging-station_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>car-sales_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>car-repair-service_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>car-wash-detailing_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>car-rental-agency_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>hospital-health-care-facility_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>hospital-emergency-room_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>government-community-facility_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>border-crossing_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>education-facility_solid_24px.svg</t>
-  </si>
-  <si>
     <t>library_solid_24px.svg</t>
   </si>
   <si>
-    <t>event-spaces_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>parking-garage_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>park-ride_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>sports-facility-venue_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>swimming-pool_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>bowling-center_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>fitness-health-club_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>golf-course_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>bike-park_solid_24px.svg</t>
-  </si>
-  <si>
     <t>cemetry_solid_24px.svg</t>
   </si>
   <si>
-    <t>public-restroom-toilets_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>business-main_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>eatdrink-main_solid_24px.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eatdrink-coffee_solid_24px</t>
-  </si>
-  <si>
-    <t>eatdrink-coffee_solid_24px</t>
+    <t>eatdrink_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>goingout_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>casino_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>nightclub_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>arcadegame_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>attraction_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>religious_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>address_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>harbor_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>nature_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>accommodation_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>camping_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>leisure_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>playground_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>overlook_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>ski-run_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>shopping_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>pharmacy_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>books_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>police_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>business_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>touristinformation_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>carrental_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>petrolstation_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>charging_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>repair-car_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>wash-car_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>hospital_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>firstaid_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>facilities_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>frontiercrossing_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>education_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>exhibition-center_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>garage_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>parknride_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>sport_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>swimming_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>bowling_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>fitness_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>bicycle_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>publictoilet_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>fastfood_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>pool_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>cocktail_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>pub_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>train_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>bus_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>rail-regional_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>toll-booth_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>rail-light_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>aerial_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>inclined_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>picnicarea_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>dealership-car_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>golfcourse_solid_24px.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> coffee_solid_24px.svg.svg</t>
+  </si>
+  <si>
+    <t>coffee_solid_24px.svg</t>
   </si>
 </sst>
 </file>
@@ -3546,6 +3543,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3555,6 +3561,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3562,21 +3574,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12588,8 +12585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693BBA9B-95F3-BD4A-928B-DD81DFE8C409}">
   <dimension ref="A1:XFD422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="50" customHeight="1" outlineLevelCol="1"/>
@@ -12646,10 +12643,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="50" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="45" t="s">
         <v>826</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="45" t="s">
         <v>833</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -12659,7 +12656,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>1002</v>
+        <v>947</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="11" t="s">
@@ -12667,8 +12664,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="50" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
@@ -12676,7 +12673,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>1002</v>
+        <v>947</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="11" t="s">
@@ -12684,8 +12681,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="50" customHeight="1">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
@@ -12693,7 +12690,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>1002</v>
+        <v>947</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="11" t="s">
@@ -12701,8 +12698,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="50" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
@@ -12710,7 +12707,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>1002</v>
+        <v>947</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11" t="s">
@@ -12718,8 +12715,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="50" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
@@ -12727,7 +12724,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>1002</v>
+        <v>947</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="11" t="s">
@@ -12735,8 +12732,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="50" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
@@ -12744,7 +12741,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>1002</v>
+        <v>947</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="11" t="s">
@@ -12752,8 +12749,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
@@ -12761,7 +12758,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>1002</v>
+        <v>947</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="11" t="s">
@@ -12769,8 +12766,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="50" customHeight="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
@@ -12778,7 +12775,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>1002</v>
+        <v>947</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11" t="s">
@@ -12786,8 +12783,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="50" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
@@ -12795,7 +12792,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>1002</v>
+        <v>947</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="11" t="s">
@@ -12803,8 +12800,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="50" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45" t="s">
         <v>834</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -12814,7 +12811,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>927</v>
+        <v>988</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11" t="s">
@@ -12822,8 +12819,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="50" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
@@ -12831,7 +12828,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="11" t="s">
@@ -12839,8 +12836,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="50" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="8" t="s">
         <v>25</v>
       </c>
@@ -12848,7 +12845,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="11" t="s">
@@ -12856,8 +12853,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="50" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="8" t="s">
         <v>27</v>
       </c>
@@ -12865,7 +12862,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="11" t="s">
@@ -12873,10 +12870,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="50" customHeight="1">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="44" t="s">
         <v>831</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="44" t="s">
         <v>836</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -12886,7 +12883,7 @@
         <v>30</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>928</v>
+        <v>950</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="12" t="s">
@@ -12894,8 +12891,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="50" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
@@ -12903,7 +12900,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>929</v>
+        <v>990</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="12" t="s">
@@ -12911,8 +12908,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="50" customHeight="1">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="8" t="s">
         <v>33</v>
       </c>
@@ -12920,7 +12917,7 @@
         <v>34</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>928</v>
+        <v>950</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="12" t="s">
@@ -12928,8 +12925,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="50" customHeight="1">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="8" t="s">
         <v>35</v>
       </c>
@@ -12937,7 +12934,7 @@
         <v>36</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>928</v>
+        <v>950</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="12" t="s">
@@ -12945,8 +12942,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="50" customHeight="1">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="8" t="s">
         <v>37</v>
       </c>
@@ -12954,7 +12951,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="12" t="s">
@@ -12962,8 +12959,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="50" customHeight="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="8" t="s">
         <v>39</v>
       </c>
@@ -12971,7 +12968,7 @@
         <v>40</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>928</v>
+        <v>950</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="12" t="s">
@@ -12979,8 +12976,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="50" customHeight="1">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="8" t="s">
         <v>41</v>
       </c>
@@ -12988,7 +12985,7 @@
         <v>42</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>931</v>
+        <v>989</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="12" t="s">
@@ -12996,8 +12993,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="50" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="8" t="s">
         <v>43</v>
       </c>
@@ -13005,7 +13002,7 @@
         <v>44</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>932</v>
+        <v>951</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="12" t="s">
@@ -13013,8 +13010,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="50" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="8" t="s">
         <v>45</v>
       </c>
@@ -13022,7 +13019,7 @@
         <v>46</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>928</v>
+        <v>950</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="12" t="s">
@@ -13030,8 +13027,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="50" customHeight="1">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="13" t="s">
         <v>47</v>
       </c>
@@ -13039,15 +13036,15 @@
         <v>48</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>933</v>
+        <v>991</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="50" customHeight="1">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="8" t="s">
         <v>49</v>
       </c>
@@ -13055,7 +13052,7 @@
         <v>50</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>928</v>
+        <v>950</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="12" t="s">
@@ -13063,8 +13060,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="50" customHeight="1">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="8" t="s">
         <v>51</v>
       </c>
@@ -13072,7 +13069,7 @@
         <v>52</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>929</v>
+        <v>990</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="12" t="s">
@@ -13080,7 +13077,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="50" customHeight="1">
-      <c r="A28" s="47"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="14" t="s">
         <v>837</v>
       </c>
@@ -13091,7 +13088,7 @@
         <v>54</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="12" t="s">
@@ -13099,8 +13096,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="50" customHeight="1">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44" t="s">
         <v>838</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -13110,7 +13107,7 @@
         <v>56</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>935</v>
+        <v>948</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="12" t="s">
@@ -13118,8 +13115,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="50" customHeight="1">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="8" t="s">
         <v>57</v>
       </c>
@@ -13127,7 +13124,7 @@
         <v>58</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>935</v>
+        <v>948</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="12" t="s">
@@ -13135,8 +13132,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="50" customHeight="1">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44" t="s">
         <v>839</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -13146,7 +13143,7 @@
         <v>60</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="12" t="s">
@@ -13154,8 +13151,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="50" customHeight="1">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="8" t="s">
         <v>61</v>
       </c>
@@ -13163,7 +13160,7 @@
         <v>62</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="12" t="s">
@@ -13171,8 +13168,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="50" customHeight="1">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="8" t="s">
         <v>63</v>
       </c>
@@ -13180,7 +13177,7 @@
         <v>64</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="12" t="s">
@@ -13188,10 +13185,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="50" customHeight="1">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="41" t="s">
         <v>835</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="44" t="s">
         <v>843</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -13201,7 +13198,7 @@
         <v>66</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="18" t="s">
@@ -13209,8 +13206,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="50" customHeight="1">
-      <c r="A35" s="39"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="8" t="s">
         <v>67</v>
       </c>
@@ -13218,7 +13215,7 @@
         <v>68</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="18" t="s">
@@ -13226,8 +13223,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="50" customHeight="1">
-      <c r="A36" s="39"/>
-      <c r="B36" s="47"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="8" t="s">
         <v>69</v>
       </c>
@@ -13235,7 +13232,7 @@
         <v>70</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="18" t="s">
@@ -13243,8 +13240,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="50" customHeight="1">
-      <c r="A37" s="39"/>
-      <c r="B37" s="47"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="8" t="s">
         <v>71</v>
       </c>
@@ -13252,7 +13249,7 @@
         <v>72</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="18" t="s">
@@ -13260,8 +13257,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="50" customHeight="1">
-      <c r="A38" s="39"/>
-      <c r="B38" s="47"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="8" t="s">
         <v>73</v>
       </c>
@@ -13275,8 +13272,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="50" customHeight="1">
-      <c r="A39" s="39"/>
-      <c r="B39" s="47"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="8" t="s">
         <v>75</v>
       </c>
@@ -13290,8 +13287,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="50" customHeight="1">
-      <c r="A40" s="39"/>
-      <c r="B40" s="47"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="8" t="s">
         <v>77</v>
       </c>
@@ -13305,8 +13302,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="50" customHeight="1">
-      <c r="A41" s="39"/>
-      <c r="B41" s="47"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="8" t="s">
         <v>79</v>
       </c>
@@ -13314,7 +13311,7 @@
         <v>80</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="18" t="s">
@@ -13322,8 +13319,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="50" customHeight="1">
-      <c r="A42" s="39"/>
-      <c r="B42" s="47" t="s">
+      <c r="A42" s="42"/>
+      <c r="B42" s="44" t="s">
         <v>844</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -13333,7 +13330,7 @@
         <v>82</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="18" t="s">
@@ -13341,8 +13338,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="50" customHeight="1">
-      <c r="A43" s="39"/>
-      <c r="B43" s="47"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="8" t="s">
         <v>83</v>
       </c>
@@ -13350,7 +13347,7 @@
         <v>84</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="18" t="s">
@@ -13358,8 +13355,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="50" customHeight="1">
-      <c r="A44" s="39"/>
-      <c r="B44" s="47"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="8" t="s">
         <v>85</v>
       </c>
@@ -13367,7 +13364,7 @@
         <v>86</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="18" t="s">
@@ -13375,8 +13372,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="50" customHeight="1">
-      <c r="A45" s="39"/>
-      <c r="B45" s="47"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="8" t="s">
         <v>87</v>
       </c>
@@ -13384,7 +13381,7 @@
         <v>88</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="18" t="s">
@@ -13392,8 +13389,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="50" customHeight="1">
-      <c r="A46" s="39"/>
-      <c r="B46" s="47"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="8" t="s">
         <v>89</v>
       </c>
@@ -13401,7 +13398,7 @@
         <v>90</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="18" t="s">
@@ -13409,8 +13406,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="50" customHeight="1">
-      <c r="A47" s="39"/>
-      <c r="B47" s="44" t="s">
+      <c r="A47" s="42"/>
+      <c r="B47" s="38" t="s">
         <v>845</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -13420,7 +13417,7 @@
         <v>92</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="18" t="s">
@@ -13428,8 +13425,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="50" customHeight="1">
-      <c r="A48" s="39"/>
-      <c r="B48" s="45"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="8" t="s">
         <v>93</v>
       </c>
@@ -13437,7 +13434,7 @@
         <v>94</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="18" t="s">
@@ -13445,8 +13442,8 @@
       </c>
     </row>
     <row r="49" spans="1:16384" ht="50" customHeight="1">
-      <c r="A49" s="39"/>
-      <c r="B49" s="45"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="8" t="s">
         <v>95</v>
       </c>
@@ -13454,7 +13451,7 @@
         <v>96</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="18" t="s">
@@ -13462,8 +13459,8 @@
       </c>
     </row>
     <row r="50" spans="1:16384" ht="50" customHeight="1">
-      <c r="A50" s="39"/>
-      <c r="B50" s="45"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="8" t="s">
         <v>97</v>
       </c>
@@ -13471,7 +13468,7 @@
         <v>98</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="18" t="s">
@@ -13479,8 +13476,8 @@
       </c>
     </row>
     <row r="51" spans="1:16384" ht="50" customHeight="1">
-      <c r="A51" s="39"/>
-      <c r="B51" s="45"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="8" t="s">
         <v>99</v>
       </c>
@@ -13488,7 +13485,7 @@
         <v>100</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="18" t="s">
@@ -13496,8 +13493,8 @@
       </c>
     </row>
     <row r="52" spans="1:16384" ht="50" customHeight="1">
-      <c r="A52" s="39"/>
-      <c r="B52" s="45"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="8" t="s">
         <v>101</v>
       </c>
@@ -13505,7 +13502,7 @@
         <v>102</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="18" t="s">
@@ -13513,8 +13510,8 @@
       </c>
     </row>
     <row r="53" spans="1:16384" ht="50" customHeight="1">
-      <c r="A53" s="39"/>
-      <c r="B53" s="45"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="39"/>
       <c r="C53" s="8" t="s">
         <v>101</v>
       </c>
@@ -29905,8 +29902,8 @@
       <c r="XFD53" s="34"/>
     </row>
     <row r="54" spans="1:16384" ht="50" customHeight="1">
-      <c r="A54" s="39"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="39"/>
       <c r="C54" s="8" t="s">
         <v>103</v>
       </c>
@@ -29914,7 +29911,7 @@
         <v>104</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="18" t="s">
@@ -29922,8 +29919,8 @@
       </c>
     </row>
     <row r="55" spans="1:16384" ht="50" customHeight="1">
-      <c r="A55" s="39"/>
-      <c r="B55" s="45"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="39"/>
       <c r="C55" s="8" t="s">
         <v>105</v>
       </c>
@@ -29931,7 +29928,7 @@
         <v>106</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="18" t="s">
@@ -29939,8 +29936,8 @@
       </c>
     </row>
     <row r="56" spans="1:16384" ht="50" customHeight="1">
-      <c r="A56" s="40"/>
-      <c r="B56" s="46"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="40"/>
       <c r="C56" s="35" t="s">
         <v>920</v>
       </c>
@@ -29954,10 +29951,10 @@
       </c>
     </row>
     <row r="57" spans="1:16384" ht="50" customHeight="1">
-      <c r="A57" s="38" t="s">
+      <c r="A57" s="41" t="s">
         <v>846</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="41" t="s">
         <v>847</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -29967,7 +29964,7 @@
         <v>108</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>942</v>
+        <v>954</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="19" t="s">
@@ -29975,8 +29972,8 @@
       </c>
     </row>
     <row r="58" spans="1:16384" ht="50" customHeight="1">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="8" t="s">
         <v>109</v>
       </c>
@@ -29990,8 +29987,8 @@
       </c>
     </row>
     <row r="59" spans="1:16384" ht="50" customHeight="1">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="8" t="s">
         <v>111</v>
       </c>
@@ -30005,8 +30002,8 @@
       </c>
     </row>
     <row r="60" spans="1:16384" ht="50" customHeight="1">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="8" t="s">
         <v>113</v>
       </c>
@@ -30014,7 +30011,7 @@
         <v>114</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="19" t="s">
@@ -30022,8 +30019,8 @@
       </c>
     </row>
     <row r="61" spans="1:16384" ht="50" customHeight="1">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
       <c r="C61" s="8" t="s">
         <v>115</v>
       </c>
@@ -30037,8 +30034,8 @@
       </c>
     </row>
     <row r="62" spans="1:16384" ht="50" customHeight="1">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="8" t="s">
         <v>117</v>
       </c>
@@ -30052,8 +30049,8 @@
       </c>
     </row>
     <row r="63" spans="1:16384" ht="50" customHeight="1">
-      <c r="A63" s="39"/>
-      <c r="B63" s="40"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="8" t="s">
         <v>119</v>
       </c>
@@ -30067,8 +30064,8 @@
       </c>
     </row>
     <row r="64" spans="1:16384" ht="50" customHeight="1">
-      <c r="A64" s="39"/>
-      <c r="B64" s="38" t="s">
+      <c r="A64" s="42"/>
+      <c r="B64" s="41" t="s">
         <v>848</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -30078,7 +30075,7 @@
         <v>122</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="19" t="s">
@@ -30086,8 +30083,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="50" customHeight="1">
-      <c r="A65" s="39"/>
-      <c r="B65" s="39"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="42"/>
       <c r="C65" s="8" t="s">
         <v>123</v>
       </c>
@@ -30095,7 +30092,7 @@
         <v>124</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>942</v>
+        <v>954</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="19" t="s">
@@ -30103,8 +30100,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="50" customHeight="1">
-      <c r="A66" s="39"/>
-      <c r="B66" s="40"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="8" t="s">
         <v>125</v>
       </c>
@@ -30112,7 +30109,7 @@
         <v>126</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="19" t="s">
@@ -30120,7 +30117,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="50" customHeight="1">
-      <c r="A67" s="39"/>
+      <c r="A67" s="42"/>
       <c r="B67" s="14" t="s">
         <v>849</v>
       </c>
@@ -30137,7 +30134,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="50" customHeight="1">
-      <c r="A68" s="39"/>
+      <c r="A68" s="42"/>
       <c r="B68" s="14" t="s">
         <v>850</v>
       </c>
@@ -30148,7 +30145,7 @@
         <v>130</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="19" t="s">
@@ -30156,7 +30153,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="50" customHeight="1">
-      <c r="A69" s="40"/>
+      <c r="A69" s="43"/>
       <c r="B69" s="14" t="s">
         <v>851</v>
       </c>
@@ -30167,7 +30164,7 @@
         <v>132</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="19" t="s">
@@ -30175,10 +30172,10 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="50" customHeight="1">
-      <c r="A70" s="38" t="s">
+      <c r="A70" s="41" t="s">
         <v>854</v>
       </c>
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="41" t="s">
         <v>856</v>
       </c>
       <c r="C70" s="8" t="s">
@@ -30188,7 +30185,7 @@
         <v>134</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="21" t="s">
@@ -30196,8 +30193,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="50" customHeight="1">
-      <c r="A71" s="39"/>
-      <c r="B71" s="39"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="42"/>
       <c r="C71" s="8" t="s">
         <v>135</v>
       </c>
@@ -30205,7 +30202,7 @@
         <v>136</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="21" t="s">
@@ -30213,8 +30210,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="50" customHeight="1">
-      <c r="A72" s="39"/>
-      <c r="B72" s="40"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="43"/>
       <c r="C72" s="8" t="s">
         <v>137</v>
       </c>
@@ -30222,7 +30219,7 @@
         <v>138</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="21" t="s">
@@ -30230,8 +30227,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="50" customHeight="1">
-      <c r="A73" s="39"/>
-      <c r="B73" s="38" t="s">
+      <c r="A73" s="42"/>
+      <c r="B73" s="41" t="s">
         <v>855</v>
       </c>
       <c r="C73" s="8" t="s">
@@ -30241,7 +30238,7 @@
         <v>140</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>946</v>
+        <v>992</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="21" t="s">
@@ -30249,8 +30246,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="50" customHeight="1">
-      <c r="A74" s="39"/>
-      <c r="B74" s="39"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="42"/>
       <c r="C74" s="8" t="s">
         <v>141</v>
       </c>
@@ -30258,7 +30255,7 @@
         <v>142</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>947</v>
+        <v>993</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="21" t="s">
@@ -30266,8 +30263,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="50" customHeight="1">
-      <c r="A75" s="39"/>
-      <c r="B75" s="39"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="8" t="s">
         <v>143</v>
       </c>
@@ -30275,7 +30272,7 @@
         <v>144</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>948</v>
+        <v>933</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="21" t="s">
@@ -30283,8 +30280,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="50" customHeight="1">
-      <c r="A76" s="39"/>
-      <c r="B76" s="39"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="42"/>
       <c r="C76" s="8" t="s">
         <v>145</v>
       </c>
@@ -30292,7 +30289,7 @@
         <v>146</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>949</v>
+        <v>994</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="21" t="s">
@@ -30300,8 +30297,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="50" customHeight="1">
-      <c r="A77" s="39"/>
-      <c r="B77" s="39"/>
+      <c r="A77" s="42"/>
+      <c r="B77" s="42"/>
       <c r="C77" s="8" t="s">
         <v>147</v>
       </c>
@@ -30309,7 +30306,7 @@
         <v>148</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>949</v>
+        <v>994</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="21" t="s">
@@ -30317,8 +30314,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="50" customHeight="1">
-      <c r="A78" s="39"/>
-      <c r="B78" s="39"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="42"/>
       <c r="C78" s="8" t="s">
         <v>149</v>
       </c>
@@ -30332,8 +30329,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="50" customHeight="1">
-      <c r="A79" s="39"/>
-      <c r="B79" s="39"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="8" t="s">
         <v>151</v>
       </c>
@@ -30347,8 +30344,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="50" customHeight="1">
-      <c r="A80" s="39"/>
-      <c r="B80" s="39"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="8" t="s">
         <v>153</v>
       </c>
@@ -30356,7 +30353,7 @@
         <v>154</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>947</v>
+        <v>993</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="21" t="s">
@@ -30364,8 +30361,8 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="50" customHeight="1">
-      <c r="A81" s="39"/>
-      <c r="B81" s="39"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="8" t="s">
         <v>155</v>
       </c>
@@ -30379,8 +30376,8 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="50" customHeight="1">
-      <c r="A82" s="39"/>
-      <c r="B82" s="39"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="42"/>
       <c r="C82" s="8" t="s">
         <v>157</v>
       </c>
@@ -30388,7 +30385,7 @@
         <v>158</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>950</v>
+        <v>934</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="21" t="s">
@@ -30396,8 +30393,8 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="50" customHeight="1">
-      <c r="A83" s="39"/>
-      <c r="B83" s="39"/>
+      <c r="A83" s="42"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="8" t="s">
         <v>159</v>
       </c>
@@ -30405,7 +30402,7 @@
         <v>160</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>950</v>
+        <v>934</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="21" t="s">
@@ -30413,8 +30410,8 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="50" customHeight="1">
-      <c r="A84" s="39"/>
-      <c r="B84" s="39"/>
+      <c r="A84" s="42"/>
+      <c r="B84" s="42"/>
       <c r="C84" s="8" t="s">
         <v>161</v>
       </c>
@@ -30422,7 +30419,7 @@
         <v>162</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>950</v>
+        <v>934</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="21" t="s">
@@ -30430,8 +30427,8 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="50" customHeight="1">
-      <c r="A85" s="39"/>
-      <c r="B85" s="39"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="42"/>
       <c r="C85" s="8" t="s">
         <v>163</v>
       </c>
@@ -30439,7 +30436,7 @@
         <v>164</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>951</v>
+        <v>935</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="21" t="s">
@@ -30450,8 +30447,8 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="50" customHeight="1">
-      <c r="A86" s="39"/>
-      <c r="B86" s="39"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="42"/>
       <c r="C86" s="8" t="s">
         <v>165</v>
       </c>
@@ -30465,8 +30462,8 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="50" customHeight="1">
-      <c r="A87" s="39"/>
-      <c r="B87" s="39"/>
+      <c r="A87" s="42"/>
+      <c r="B87" s="42"/>
       <c r="C87" s="8" t="s">
         <v>167</v>
       </c>
@@ -30474,7 +30471,7 @@
         <v>168</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>952</v>
+        <v>995</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="21" t="s">
@@ -30482,8 +30479,8 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="50" customHeight="1">
-      <c r="A88" s="39"/>
-      <c r="B88" s="39"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="42"/>
       <c r="C88" s="8" t="s">
         <v>169</v>
       </c>
@@ -30491,7 +30488,7 @@
         <v>170</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>953</v>
+        <v>996</v>
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="21" t="s">
@@ -30499,8 +30496,8 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="50" customHeight="1">
-      <c r="A89" s="39"/>
-      <c r="B89" s="39"/>
+      <c r="A89" s="42"/>
+      <c r="B89" s="42"/>
       <c r="C89" s="8" t="s">
         <v>171</v>
       </c>
@@ -30514,8 +30511,8 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="50" customHeight="1">
-      <c r="A90" s="39"/>
-      <c r="B90" s="39"/>
+      <c r="A90" s="42"/>
+      <c r="B90" s="42"/>
       <c r="C90" s="8" t="s">
         <v>173</v>
       </c>
@@ -30523,7 +30520,7 @@
         <v>174</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>954</v>
+        <v>936</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="21" t="s">
@@ -30531,8 +30528,8 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="50" customHeight="1">
-      <c r="A91" s="39"/>
-      <c r="B91" s="39"/>
+      <c r="A91" s="42"/>
+      <c r="B91" s="42"/>
       <c r="C91" s="8" t="s">
         <v>175</v>
       </c>
@@ -30540,7 +30537,7 @@
         <v>176</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>955</v>
+        <v>997</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="21" t="s">
@@ -30548,8 +30545,8 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="50" customHeight="1">
-      <c r="A92" s="39"/>
-      <c r="B92" s="39"/>
+      <c r="A92" s="42"/>
+      <c r="B92" s="42"/>
       <c r="C92" s="8" t="s">
         <v>177</v>
       </c>
@@ -30563,8 +30560,8 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="50" customHeight="1">
-      <c r="A93" s="39"/>
-      <c r="B93" s="39"/>
+      <c r="A93" s="42"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="8" t="s">
         <v>179</v>
       </c>
@@ -30572,7 +30569,7 @@
         <v>180</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>956</v>
+        <v>998</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="21" t="s">
@@ -30580,8 +30577,8 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="50" customHeight="1">
-      <c r="A94" s="39"/>
-      <c r="B94" s="39"/>
+      <c r="A94" s="42"/>
+      <c r="B94" s="42"/>
       <c r="C94" s="8" t="s">
         <v>181</v>
       </c>
@@ -30595,8 +30592,8 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="50" customHeight="1">
-      <c r="A95" s="39"/>
-      <c r="B95" s="40"/>
+      <c r="A95" s="42"/>
+      <c r="B95" s="43"/>
       <c r="C95" s="8" t="s">
         <v>183</v>
       </c>
@@ -30610,8 +30607,8 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="50" customHeight="1">
-      <c r="A96" s="39"/>
-      <c r="B96" s="38" t="s">
+      <c r="A96" s="42"/>
+      <c r="B96" s="41" t="s">
         <v>857</v>
       </c>
       <c r="C96" s="8" t="s">
@@ -30627,8 +30624,8 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="50" customHeight="1">
-      <c r="A97" s="39"/>
-      <c r="B97" s="39"/>
+      <c r="A97" s="42"/>
+      <c r="B97" s="42"/>
       <c r="C97" s="8" t="s">
         <v>187</v>
       </c>
@@ -30642,8 +30639,8 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="50" customHeight="1">
-      <c r="A98" s="39"/>
-      <c r="B98" s="39"/>
+      <c r="A98" s="42"/>
+      <c r="B98" s="42"/>
       <c r="C98" s="8" t="s">
         <v>189</v>
       </c>
@@ -30657,8 +30654,8 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="50" customHeight="1">
-      <c r="A99" s="39"/>
-      <c r="B99" s="39"/>
+      <c r="A99" s="42"/>
+      <c r="B99" s="42"/>
       <c r="C99" s="8" t="s">
         <v>191</v>
       </c>
@@ -30672,8 +30669,8 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="50" customHeight="1">
-      <c r="A100" s="39"/>
-      <c r="B100" s="39"/>
+      <c r="A100" s="42"/>
+      <c r="B100" s="42"/>
       <c r="C100" s="8" t="s">
         <v>193</v>
       </c>
@@ -30687,8 +30684,8 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="50" customHeight="1">
-      <c r="A101" s="39"/>
-      <c r="B101" s="39"/>
+      <c r="A101" s="42"/>
+      <c r="B101" s="42"/>
       <c r="C101" s="8" t="s">
         <v>195</v>
       </c>
@@ -30702,8 +30699,8 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="50" customHeight="1">
-      <c r="A102" s="39"/>
-      <c r="B102" s="39"/>
+      <c r="A102" s="42"/>
+      <c r="B102" s="42"/>
       <c r="C102" s="8" t="s">
         <v>197</v>
       </c>
@@ -30717,8 +30714,8 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="50" customHeight="1">
-      <c r="A103" s="39"/>
-      <c r="B103" s="39"/>
+      <c r="A103" s="42"/>
+      <c r="B103" s="42"/>
       <c r="C103" s="8" t="s">
         <v>199</v>
       </c>
@@ -30732,8 +30729,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="50" customHeight="1">
-      <c r="A104" s="39"/>
-      <c r="B104" s="39"/>
+      <c r="A104" s="42"/>
+      <c r="B104" s="42"/>
       <c r="C104" s="8" t="s">
         <v>201</v>
       </c>
@@ -30747,8 +30744,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="50" customHeight="1">
-      <c r="A105" s="39"/>
-      <c r="B105" s="40"/>
+      <c r="A105" s="42"/>
+      <c r="B105" s="43"/>
       <c r="C105" s="8" t="s">
         <v>203</v>
       </c>
@@ -30762,8 +30759,8 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="50" customHeight="1">
-      <c r="A106" s="39"/>
-      <c r="B106" s="38" t="s">
+      <c r="A106" s="42"/>
+      <c r="B106" s="41" t="s">
         <v>858</v>
       </c>
       <c r="C106" s="8" t="s">
@@ -30773,7 +30770,7 @@
         <v>206</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>957</v>
+        <v>999</v>
       </c>
       <c r="F106" s="10"/>
       <c r="G106" s="20" t="s">
@@ -30781,8 +30778,8 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="50" customHeight="1">
-      <c r="A107" s="39"/>
-      <c r="B107" s="39"/>
+      <c r="A107" s="42"/>
+      <c r="B107" s="42"/>
       <c r="C107" s="8" t="s">
         <v>207</v>
       </c>
@@ -30790,7 +30787,7 @@
         <v>208</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>957</v>
+        <v>999</v>
       </c>
       <c r="F107" s="10"/>
       <c r="G107" s="20" t="s">
@@ -30798,8 +30795,8 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="50" customHeight="1">
-      <c r="A108" s="39"/>
-      <c r="B108" s="39"/>
+      <c r="A108" s="42"/>
+      <c r="B108" s="42"/>
       <c r="C108" s="8" t="s">
         <v>209</v>
       </c>
@@ -30807,7 +30804,7 @@
         <v>210</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>957</v>
+        <v>999</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="20" t="s">
@@ -30815,8 +30812,8 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="50" customHeight="1">
-      <c r="A109" s="39"/>
-      <c r="B109" s="39"/>
+      <c r="A109" s="42"/>
+      <c r="B109" s="42"/>
       <c r="C109" s="8" t="s">
         <v>211</v>
       </c>
@@ -30824,7 +30821,7 @@
         <v>212</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
       <c r="F109" s="10"/>
       <c r="G109" s="20" t="s">
@@ -30832,8 +30829,8 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="50" customHeight="1">
-      <c r="A110" s="39"/>
-      <c r="B110" s="39"/>
+      <c r="A110" s="42"/>
+      <c r="B110" s="42"/>
       <c r="C110" s="8" t="s">
         <v>213</v>
       </c>
@@ -30841,7 +30838,7 @@
         <v>214</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>957</v>
+        <v>999</v>
       </c>
       <c r="F110" s="10"/>
       <c r="G110" s="20" t="s">
@@ -30849,8 +30846,8 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="50" customHeight="1">
-      <c r="A111" s="40"/>
-      <c r="B111" s="40"/>
+      <c r="A111" s="43"/>
+      <c r="B111" s="43"/>
       <c r="C111" s="8" t="s">
         <v>215</v>
       </c>
@@ -30858,7 +30855,7 @@
         <v>216</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F111" s="10"/>
       <c r="G111" s="20" t="s">
@@ -30866,10 +30863,10 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="50" customHeight="1">
-      <c r="A112" s="38" t="s">
+      <c r="A112" s="41" t="s">
         <v>859</v>
       </c>
-      <c r="B112" s="38" t="s">
+      <c r="B112" s="41" t="s">
         <v>860</v>
       </c>
       <c r="C112" s="8" t="s">
@@ -30879,7 +30876,7 @@
         <v>218</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F112" s="10"/>
       <c r="G112" s="22" t="s">
@@ -30887,8 +30884,8 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="50" customHeight="1">
-      <c r="A113" s="39"/>
-      <c r="B113" s="39"/>
+      <c r="A113" s="42"/>
+      <c r="B113" s="42"/>
       <c r="C113" s="8" t="s">
         <v>219</v>
       </c>
@@ -30896,7 +30893,7 @@
         <v>220</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>961</v>
+        <v>938</v>
       </c>
       <c r="F113" s="10"/>
       <c r="G113" s="22" t="s">
@@ -30904,8 +30901,8 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="50" customHeight="1">
-      <c r="A114" s="39"/>
-      <c r="B114" s="40"/>
+      <c r="A114" s="42"/>
+      <c r="B114" s="43"/>
       <c r="C114" s="8" t="s">
         <v>221</v>
       </c>
@@ -30913,7 +30910,7 @@
         <v>222</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="22" t="s">
@@ -30921,8 +30918,8 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="50" customHeight="1">
-      <c r="A115" s="39"/>
-      <c r="B115" s="44" t="s">
+      <c r="A115" s="42"/>
+      <c r="B115" s="38" t="s">
         <v>861</v>
       </c>
       <c r="C115" s="8" t="s">
@@ -30932,7 +30929,7 @@
         <v>224</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="F115" s="10"/>
       <c r="G115" s="22" t="s">
@@ -30940,8 +30937,8 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="50" customHeight="1">
-      <c r="A116" s="39"/>
-      <c r="B116" s="45"/>
+      <c r="A116" s="42"/>
+      <c r="B116" s="39"/>
       <c r="C116" s="8" t="s">
         <v>225</v>
       </c>
@@ -30949,7 +30946,7 @@
         <v>226</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F116" s="10"/>
       <c r="G116" s="22" t="s">
@@ -30957,8 +30954,8 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="50" customHeight="1">
-      <c r="A117" s="39"/>
-      <c r="B117" s="45"/>
+      <c r="A117" s="42"/>
+      <c r="B117" s="39"/>
       <c r="C117" s="8" t="s">
         <v>227</v>
       </c>
@@ -30966,7 +30963,7 @@
         <v>228</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="F117" s="10"/>
       <c r="G117" s="22" t="s">
@@ -30974,8 +30971,8 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="50" customHeight="1">
-      <c r="A118" s="39"/>
-      <c r="B118" s="45"/>
+      <c r="A118" s="42"/>
+      <c r="B118" s="39"/>
       <c r="C118" s="8" t="s">
         <v>229</v>
       </c>
@@ -30983,7 +30980,7 @@
         <v>230</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="22" t="s">
@@ -30991,8 +30988,8 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="50" customHeight="1">
-      <c r="A119" s="39"/>
-      <c r="B119" s="45"/>
+      <c r="A119" s="42"/>
+      <c r="B119" s="39"/>
       <c r="C119" s="8" t="s">
         <v>231</v>
       </c>
@@ -31000,7 +30997,7 @@
         <v>232</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="22" t="s">
@@ -31008,8 +31005,8 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="50" customHeight="1">
-      <c r="A120" s="39"/>
-      <c r="B120" s="45"/>
+      <c r="A120" s="42"/>
+      <c r="B120" s="39"/>
       <c r="C120" s="8" t="s">
         <v>233</v>
       </c>
@@ -31017,7 +31014,7 @@
         <v>234</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="22" t="s">
@@ -31025,8 +31022,8 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="50" customHeight="1">
-      <c r="A121" s="39"/>
-      <c r="B121" s="45"/>
+      <c r="A121" s="42"/>
+      <c r="B121" s="39"/>
       <c r="C121" s="8" t="s">
         <v>235</v>
       </c>
@@ -31034,7 +31031,7 @@
         <v>236</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="22" t="s">
@@ -31043,7 +31040,7 @@
     </row>
     <row r="122" spans="1:7" ht="50" customHeight="1">
       <c r="A122" s="17"/>
-      <c r="B122" s="45"/>
+      <c r="B122" s="39"/>
       <c r="C122" s="35" t="s">
         <v>917</v>
       </c>
@@ -31057,10 +31054,10 @@
       </c>
     </row>
     <row r="123" spans="1:7" ht="50" customHeight="1">
-      <c r="A123" s="39" t="s">
+      <c r="A123" s="42" t="s">
         <v>865</v>
       </c>
-      <c r="B123" s="39" t="s">
+      <c r="B123" s="42" t="s">
         <v>866</v>
       </c>
       <c r="C123" s="8" t="s">
@@ -31070,7 +31067,7 @@
         <v>238</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="F123" s="10"/>
       <c r="G123" s="23" t="s">
@@ -31078,8 +31075,8 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="50" customHeight="1">
-      <c r="A124" s="39"/>
-      <c r="B124" s="39"/>
+      <c r="A124" s="42"/>
+      <c r="B124" s="42"/>
       <c r="C124" s="8" t="s">
         <v>239</v>
       </c>
@@ -31087,7 +31084,7 @@
         <v>240</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="23" t="s">
@@ -31095,8 +31092,8 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="50" customHeight="1">
-      <c r="A125" s="39"/>
-      <c r="B125" s="39"/>
+      <c r="A125" s="42"/>
+      <c r="B125" s="42"/>
       <c r="C125" s="8" t="s">
         <v>241</v>
       </c>
@@ -31110,8 +31107,8 @@
       </c>
     </row>
     <row r="126" spans="1:7" ht="50" customHeight="1">
-      <c r="A126" s="39"/>
-      <c r="B126" s="39"/>
+      <c r="A126" s="42"/>
+      <c r="B126" s="42"/>
       <c r="C126" s="8" t="s">
         <v>243</v>
       </c>
@@ -31119,7 +31116,7 @@
         <v>244</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="F126" s="10"/>
       <c r="G126" s="23" t="s">
@@ -31127,8 +31124,8 @@
       </c>
     </row>
     <row r="127" spans="1:7" ht="50" customHeight="1">
-      <c r="A127" s="39"/>
-      <c r="B127" s="39"/>
+      <c r="A127" s="42"/>
+      <c r="B127" s="42"/>
       <c r="C127" s="8" t="s">
         <v>245</v>
       </c>
@@ -31136,7 +31133,7 @@
         <v>246</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="F127" s="10"/>
       <c r="G127" s="23" t="s">
@@ -31144,8 +31141,8 @@
       </c>
     </row>
     <row r="128" spans="1:7" ht="50" customHeight="1">
-      <c r="A128" s="39"/>
-      <c r="B128" s="39"/>
+      <c r="A128" s="42"/>
+      <c r="B128" s="42"/>
       <c r="C128" s="8" t="s">
         <v>247</v>
       </c>
@@ -31159,8 +31156,8 @@
       </c>
     </row>
     <row r="129" spans="1:7" ht="50" customHeight="1">
-      <c r="A129" s="39"/>
-      <c r="B129" s="39"/>
+      <c r="A129" s="42"/>
+      <c r="B129" s="42"/>
       <c r="C129" s="8" t="s">
         <v>249</v>
       </c>
@@ -31174,8 +31171,8 @@
       </c>
     </row>
     <row r="130" spans="1:7" ht="50" customHeight="1">
-      <c r="A130" s="39"/>
-      <c r="B130" s="39"/>
+      <c r="A130" s="42"/>
+      <c r="B130" s="42"/>
       <c r="C130" s="8" t="s">
         <v>251</v>
       </c>
@@ -31183,7 +31180,7 @@
         <v>252</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F130" s="10"/>
       <c r="G130" s="23" t="s">
@@ -31191,8 +31188,8 @@
       </c>
     </row>
     <row r="131" spans="1:7" ht="50" customHeight="1">
-      <c r="A131" s="39"/>
-      <c r="B131" s="39"/>
+      <c r="A131" s="42"/>
+      <c r="B131" s="42"/>
       <c r="C131" s="8" t="s">
         <v>253</v>
       </c>
@@ -31206,8 +31203,8 @@
       </c>
     </row>
     <row r="132" spans="1:7" ht="50" customHeight="1">
-      <c r="A132" s="39"/>
-      <c r="B132" s="39"/>
+      <c r="A132" s="42"/>
+      <c r="B132" s="42"/>
       <c r="C132" s="8" t="s">
         <v>255</v>
       </c>
@@ -31221,8 +31218,8 @@
       </c>
     </row>
     <row r="133" spans="1:7" ht="50" customHeight="1">
-      <c r="A133" s="39"/>
-      <c r="B133" s="39"/>
+      <c r="A133" s="42"/>
+      <c r="B133" s="42"/>
       <c r="C133" s="8" t="s">
         <v>257</v>
       </c>
@@ -31236,8 +31233,8 @@
       </c>
     </row>
     <row r="134" spans="1:7" ht="50" customHeight="1">
-      <c r="A134" s="39"/>
-      <c r="B134" s="39"/>
+      <c r="A134" s="42"/>
+      <c r="B134" s="42"/>
       <c r="C134" s="8" t="s">
         <v>259</v>
       </c>
@@ -31245,7 +31242,7 @@
         <v>260</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="23" t="s">
@@ -31253,8 +31250,8 @@
       </c>
     </row>
     <row r="135" spans="1:7" ht="50" customHeight="1">
-      <c r="A135" s="39"/>
-      <c r="B135" s="39"/>
+      <c r="A135" s="42"/>
+      <c r="B135" s="42"/>
       <c r="C135" s="8" t="s">
         <v>261</v>
       </c>
@@ -31268,8 +31265,8 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="50" customHeight="1">
-      <c r="A136" s="39"/>
-      <c r="B136" s="39"/>
+      <c r="A136" s="42"/>
+      <c r="B136" s="42"/>
       <c r="C136" s="8" t="s">
         <v>263</v>
       </c>
@@ -31283,8 +31280,8 @@
       </c>
     </row>
     <row r="137" spans="1:7" ht="50" customHeight="1">
-      <c r="A137" s="39"/>
-      <c r="B137" s="40"/>
+      <c r="A137" s="42"/>
+      <c r="B137" s="43"/>
       <c r="C137" s="8" t="s">
         <v>265</v>
       </c>
@@ -31298,8 +31295,8 @@
       </c>
     </row>
     <row r="138" spans="1:7" ht="50" customHeight="1">
-      <c r="A138" s="39"/>
-      <c r="B138" s="38" t="s">
+      <c r="A138" s="42"/>
+      <c r="B138" s="41" t="s">
         <v>867</v>
       </c>
       <c r="C138" s="8" t="s">
@@ -31309,7 +31306,7 @@
         <v>268</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>965</v>
+        <v>939</v>
       </c>
       <c r="F138" s="10"/>
       <c r="G138" s="23" t="s">
@@ -31317,8 +31314,8 @@
       </c>
     </row>
     <row r="139" spans="1:7" ht="50" customHeight="1">
-      <c r="A139" s="39"/>
-      <c r="B139" s="39"/>
+      <c r="A139" s="42"/>
+      <c r="B139" s="42"/>
       <c r="C139" s="8" t="s">
         <v>269</v>
       </c>
@@ -31326,7 +31323,7 @@
         <v>270</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>965</v>
+        <v>939</v>
       </c>
       <c r="F139" s="10"/>
       <c r="G139" s="23" t="s">
@@ -31334,8 +31331,8 @@
       </c>
     </row>
     <row r="140" spans="1:7" ht="50" customHeight="1">
-      <c r="A140" s="39"/>
-      <c r="B140" s="39"/>
+      <c r="A140" s="42"/>
+      <c r="B140" s="42"/>
       <c r="C140" s="8" t="s">
         <v>271</v>
       </c>
@@ -31343,7 +31340,7 @@
         <v>272</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>966</v>
+        <v>940</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" s="23" t="s">
@@ -31351,8 +31348,8 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="50" customHeight="1">
-      <c r="A141" s="39"/>
-      <c r="B141" s="39"/>
+      <c r="A141" s="42"/>
+      <c r="B141" s="42"/>
       <c r="C141" s="8" t="s">
         <v>273</v>
       </c>
@@ -31366,8 +31363,8 @@
       </c>
     </row>
     <row r="142" spans="1:7" ht="50" customHeight="1">
-      <c r="A142" s="39"/>
-      <c r="B142" s="39"/>
+      <c r="A142" s="42"/>
+      <c r="B142" s="42"/>
       <c r="C142" s="8" t="s">
         <v>275</v>
       </c>
@@ -31381,8 +31378,8 @@
       </c>
     </row>
     <row r="143" spans="1:7" ht="50" customHeight="1">
-      <c r="A143" s="39"/>
-      <c r="B143" s="39"/>
+      <c r="A143" s="42"/>
+      <c r="B143" s="42"/>
       <c r="C143" s="8" t="s">
         <v>277</v>
       </c>
@@ -31396,8 +31393,8 @@
       </c>
     </row>
     <row r="144" spans="1:7" ht="50" customHeight="1">
-      <c r="A144" s="39"/>
-      <c r="B144" s="39"/>
+      <c r="A144" s="42"/>
+      <c r="B144" s="42"/>
       <c r="C144" s="8" t="s">
         <v>279</v>
       </c>
@@ -31405,7 +31402,7 @@
         <v>280</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="F144" s="10"/>
       <c r="G144" s="23" t="s">
@@ -31413,8 +31410,8 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="50" customHeight="1">
-      <c r="A145" s="39"/>
-      <c r="B145" s="39"/>
+      <c r="A145" s="42"/>
+      <c r="B145" s="42"/>
       <c r="C145" s="8" t="s">
         <v>281</v>
       </c>
@@ -31422,7 +31419,7 @@
         <v>282</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>966</v>
+        <v>940</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="23" t="s">
@@ -31430,8 +31427,8 @@
       </c>
     </row>
     <row r="146" spans="1:7" ht="50" customHeight="1">
-      <c r="A146" s="40"/>
-      <c r="B146" s="40"/>
+      <c r="A146" s="43"/>
+      <c r="B146" s="43"/>
       <c r="C146" s="8" t="s">
         <v>283</v>
       </c>
@@ -31444,7 +31441,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" ht="50" customHeight="1">
-      <c r="A147" s="38" t="s">
+      <c r="A147" s="41" t="s">
         <v>868</v>
       </c>
       <c r="B147" s="14" t="s">
@@ -31457,7 +31454,7 @@
         <v>286</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="F147" s="10"/>
       <c r="G147" s="29" t="s">
@@ -31465,7 +31462,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" ht="50" customHeight="1">
-      <c r="A148" s="39"/>
+      <c r="A148" s="42"/>
       <c r="B148" s="14" t="s">
         <v>880</v>
       </c>
@@ -31476,7 +31473,7 @@
         <v>288</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="F148" s="10"/>
       <c r="G148" s="29" t="s">
@@ -31484,7 +31481,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" ht="50" customHeight="1">
-      <c r="A149" s="39"/>
+      <c r="A149" s="42"/>
       <c r="B149" s="14" t="s">
         <v>881</v>
       </c>
@@ -31495,7 +31492,7 @@
         <v>290</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="F149" s="10"/>
       <c r="G149" s="29" t="s">
@@ -31503,8 +31500,8 @@
       </c>
     </row>
     <row r="150" spans="1:7" ht="50" customHeight="1">
-      <c r="A150" s="39"/>
-      <c r="B150" s="41" t="s">
+      <c r="A150" s="42"/>
+      <c r="B150" s="46" t="s">
         <v>882</v>
       </c>
       <c r="C150" s="8" t="s">
@@ -31520,8 +31517,8 @@
       </c>
     </row>
     <row r="151" spans="1:7" ht="50" customHeight="1">
-      <c r="A151" s="39"/>
-      <c r="B151" s="42"/>
+      <c r="A151" s="42"/>
+      <c r="B151" s="47"/>
       <c r="C151" s="8" t="s">
         <v>293</v>
       </c>
@@ -31529,7 +31526,7 @@
         <v>294</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="F151" s="10"/>
       <c r="G151" s="29" t="s">
@@ -31537,8 +31534,8 @@
       </c>
     </row>
     <row r="152" spans="1:7" ht="50" customHeight="1">
-      <c r="A152" s="39"/>
-      <c r="B152" s="42"/>
+      <c r="A152" s="42"/>
+      <c r="B152" s="47"/>
       <c r="C152" s="8" t="s">
         <v>295</v>
       </c>
@@ -31552,8 +31549,8 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="50" customHeight="1">
-      <c r="A153" s="39"/>
-      <c r="B153" s="42"/>
+      <c r="A153" s="42"/>
+      <c r="B153" s="47"/>
       <c r="C153" s="8" t="s">
         <v>297</v>
       </c>
@@ -31567,8 +31564,8 @@
       </c>
     </row>
     <row r="154" spans="1:7" ht="50" customHeight="1">
-      <c r="A154" s="39"/>
-      <c r="B154" s="42"/>
+      <c r="A154" s="42"/>
+      <c r="B154" s="47"/>
       <c r="C154" s="8" t="s">
         <v>299</v>
       </c>
@@ -31582,8 +31579,8 @@
       </c>
     </row>
     <row r="155" spans="1:7" ht="50" customHeight="1">
-      <c r="A155" s="39"/>
-      <c r="B155" s="42"/>
+      <c r="A155" s="42"/>
+      <c r="B155" s="47"/>
       <c r="C155" s="8" t="s">
         <v>301</v>
       </c>
@@ -31597,8 +31594,8 @@
       </c>
     </row>
     <row r="156" spans="1:7" ht="50" customHeight="1">
-      <c r="A156" s="39"/>
-      <c r="B156" s="42"/>
+      <c r="A156" s="42"/>
+      <c r="B156" s="47"/>
       <c r="C156" s="35" t="s">
         <v>915</v>
       </c>
@@ -31612,8 +31609,8 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="50" customHeight="1">
-      <c r="A157" s="39"/>
-      <c r="B157" s="42"/>
+      <c r="A157" s="42"/>
+      <c r="B157" s="47"/>
       <c r="C157" s="8" t="s">
         <v>303</v>
       </c>
@@ -31627,8 +31624,8 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="50" customHeight="1">
-      <c r="A158" s="39"/>
-      <c r="B158" s="43"/>
+      <c r="A158" s="42"/>
+      <c r="B158" s="48"/>
       <c r="C158" s="8" t="s">
         <v>305</v>
       </c>
@@ -31636,7 +31633,7 @@
         <v>306</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="29" t="s">
@@ -31644,8 +31641,8 @@
       </c>
     </row>
     <row r="159" spans="1:7" ht="50" customHeight="1">
-      <c r="A159" s="39"/>
-      <c r="B159" s="38" t="s">
+      <c r="A159" s="42"/>
+      <c r="B159" s="41" t="s">
         <v>883</v>
       </c>
       <c r="C159" s="8" t="s">
@@ -31655,7 +31652,7 @@
         <v>308</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="F159" s="10"/>
       <c r="G159" s="29" t="s">
@@ -31663,8 +31660,8 @@
       </c>
     </row>
     <row r="160" spans="1:7" ht="50" customHeight="1">
-      <c r="A160" s="39"/>
-      <c r="B160" s="39"/>
+      <c r="A160" s="42"/>
+      <c r="B160" s="42"/>
       <c r="C160" s="8" t="s">
         <v>309</v>
       </c>
@@ -31672,7 +31669,7 @@
         <v>310</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="F160" s="10"/>
       <c r="G160" s="29" t="s">
@@ -31680,8 +31677,8 @@
       </c>
     </row>
     <row r="161" spans="1:7" ht="50" customHeight="1">
-      <c r="A161" s="39"/>
-      <c r="B161" s="40"/>
+      <c r="A161" s="42"/>
+      <c r="B161" s="43"/>
       <c r="C161" s="8" t="s">
         <v>311</v>
       </c>
@@ -31689,7 +31686,7 @@
         <v>312</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="F161" s="10"/>
       <c r="G161" s="30" t="s">
@@ -31697,8 +31694,8 @@
       </c>
     </row>
     <row r="162" spans="1:7" ht="50" customHeight="1">
-      <c r="A162" s="39"/>
-      <c r="B162" s="38" t="s">
+      <c r="A162" s="42"/>
+      <c r="B162" s="41" t="s">
         <v>884</v>
       </c>
       <c r="C162" s="8" t="s">
@@ -31714,8 +31711,8 @@
       </c>
     </row>
     <row r="163" spans="1:7" ht="50" customHeight="1">
-      <c r="A163" s="39"/>
-      <c r="B163" s="39"/>
+      <c r="A163" s="42"/>
+      <c r="B163" s="42"/>
       <c r="C163" s="8" t="s">
         <v>315</v>
       </c>
@@ -31729,8 +31726,8 @@
       </c>
     </row>
     <row r="164" spans="1:7" ht="50" customHeight="1">
-      <c r="A164" s="39"/>
-      <c r="B164" s="39"/>
+      <c r="A164" s="42"/>
+      <c r="B164" s="42"/>
       <c r="C164" s="8" t="s">
         <v>317</v>
       </c>
@@ -31744,8 +31741,8 @@
       </c>
     </row>
     <row r="165" spans="1:7" ht="50" customHeight="1">
-      <c r="A165" s="39"/>
-      <c r="B165" s="39"/>
+      <c r="A165" s="42"/>
+      <c r="B165" s="42"/>
       <c r="C165" s="8" t="s">
         <v>319</v>
       </c>
@@ -31759,8 +31756,8 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="50" customHeight="1">
-      <c r="A166" s="39"/>
-      <c r="B166" s="40"/>
+      <c r="A166" s="42"/>
+      <c r="B166" s="43"/>
       <c r="C166" s="13" t="s">
         <v>321</v>
       </c>
@@ -31772,8 +31769,8 @@
       </c>
     </row>
     <row r="167" spans="1:7" ht="50" customHeight="1">
-      <c r="A167" s="39"/>
-      <c r="B167" s="38" t="s">
+      <c r="A167" s="42"/>
+      <c r="B167" s="41" t="s">
         <v>885</v>
       </c>
       <c r="C167" s="8" t="s">
@@ -31789,8 +31786,8 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="50" customHeight="1">
-      <c r="A168" s="39"/>
-      <c r="B168" s="39"/>
+      <c r="A168" s="42"/>
+      <c r="B168" s="42"/>
       <c r="C168" s="8" t="s">
         <v>325</v>
       </c>
@@ -31804,8 +31801,8 @@
       </c>
     </row>
     <row r="169" spans="1:7" ht="50" customHeight="1">
-      <c r="A169" s="39"/>
-      <c r="B169" s="39"/>
+      <c r="A169" s="42"/>
+      <c r="B169" s="42"/>
       <c r="C169" s="8" t="s">
         <v>326</v>
       </c>
@@ -31819,8 +31816,8 @@
       </c>
     </row>
     <row r="170" spans="1:7" ht="50" customHeight="1">
-      <c r="A170" s="39"/>
-      <c r="B170" s="39"/>
+      <c r="A170" s="42"/>
+      <c r="B170" s="42"/>
       <c r="C170" s="8" t="s">
         <v>328</v>
       </c>
@@ -31834,8 +31831,8 @@
       </c>
     </row>
     <row r="171" spans="1:7" ht="50" customHeight="1">
-      <c r="A171" s="39"/>
-      <c r="B171" s="39"/>
+      <c r="A171" s="42"/>
+      <c r="B171" s="42"/>
       <c r="C171" s="8" t="s">
         <v>330</v>
       </c>
@@ -31849,8 +31846,8 @@
       </c>
     </row>
     <row r="172" spans="1:7" ht="50" customHeight="1">
-      <c r="A172" s="39"/>
-      <c r="B172" s="39"/>
+      <c r="A172" s="42"/>
+      <c r="B172" s="42"/>
       <c r="C172" s="8" t="s">
         <v>332</v>
       </c>
@@ -31864,8 +31861,8 @@
       </c>
     </row>
     <row r="173" spans="1:7" ht="50" customHeight="1">
-      <c r="A173" s="39"/>
-      <c r="B173" s="39"/>
+      <c r="A173" s="42"/>
+      <c r="B173" s="42"/>
       <c r="C173" s="8" t="s">
         <v>334</v>
       </c>
@@ -31879,8 +31876,8 @@
       </c>
     </row>
     <row r="174" spans="1:7" ht="50" customHeight="1">
-      <c r="A174" s="39"/>
-      <c r="B174" s="39"/>
+      <c r="A174" s="42"/>
+      <c r="B174" s="42"/>
       <c r="C174" s="8" t="s">
         <v>336</v>
       </c>
@@ -31894,8 +31891,8 @@
       </c>
     </row>
     <row r="175" spans="1:7" ht="50" customHeight="1">
-      <c r="A175" s="39"/>
-      <c r="B175" s="39"/>
+      <c r="A175" s="42"/>
+      <c r="B175" s="42"/>
       <c r="C175" s="8" t="s">
         <v>338</v>
       </c>
@@ -31909,8 +31906,8 @@
       </c>
     </row>
     <row r="176" spans="1:7" ht="50" customHeight="1">
-      <c r="A176" s="39"/>
-      <c r="B176" s="39"/>
+      <c r="A176" s="42"/>
+      <c r="B176" s="42"/>
       <c r="C176" s="8" t="s">
         <v>340</v>
       </c>
@@ -31924,8 +31921,8 @@
       </c>
     </row>
     <row r="177" spans="1:7" ht="50" customHeight="1">
-      <c r="A177" s="39"/>
-      <c r="B177" s="40"/>
+      <c r="A177" s="42"/>
+      <c r="B177" s="43"/>
       <c r="C177" s="8" t="s">
         <v>342</v>
       </c>
@@ -31939,8 +31936,8 @@
       </c>
     </row>
     <row r="178" spans="1:7" ht="50" customHeight="1">
-      <c r="A178" s="39"/>
-      <c r="B178" s="38" t="s">
+      <c r="A178" s="42"/>
+      <c r="B178" s="41" t="s">
         <v>886</v>
       </c>
       <c r="C178" s="8" t="s">
@@ -31950,7 +31947,7 @@
         <v>345</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="F178" s="10"/>
       <c r="G178" s="29" t="s">
@@ -31958,8 +31955,8 @@
       </c>
     </row>
     <row r="179" spans="1:7" ht="50" customHeight="1">
-      <c r="A179" s="39"/>
-      <c r="B179" s="40"/>
+      <c r="A179" s="42"/>
+      <c r="B179" s="43"/>
       <c r="C179" s="8" t="s">
         <v>346</v>
       </c>
@@ -31967,7 +31964,7 @@
         <v>347</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="F179" s="10"/>
       <c r="G179" s="29" t="s">
@@ -31975,8 +31972,8 @@
       </c>
     </row>
     <row r="180" spans="1:7" ht="50" customHeight="1">
-      <c r="A180" s="39"/>
-      <c r="B180" s="38" t="s">
+      <c r="A180" s="42"/>
+      <c r="B180" s="41" t="s">
         <v>887</v>
       </c>
       <c r="C180" s="8" t="s">
@@ -31992,8 +31989,8 @@
       </c>
     </row>
     <row r="181" spans="1:7" ht="50" customHeight="1">
-      <c r="A181" s="39"/>
-      <c r="B181" s="39"/>
+      <c r="A181" s="42"/>
+      <c r="B181" s="42"/>
       <c r="C181" s="8" t="s">
         <v>350</v>
       </c>
@@ -32007,8 +32004,8 @@
       </c>
     </row>
     <row r="182" spans="1:7" ht="50" customHeight="1">
-      <c r="A182" s="39"/>
-      <c r="B182" s="39"/>
+      <c r="A182" s="42"/>
+      <c r="B182" s="42"/>
       <c r="C182" s="8" t="s">
         <v>352</v>
       </c>
@@ -32022,8 +32019,8 @@
       </c>
     </row>
     <row r="183" spans="1:7" ht="50" customHeight="1">
-      <c r="A183" s="39"/>
-      <c r="B183" s="39"/>
+      <c r="A183" s="42"/>
+      <c r="B183" s="42"/>
       <c r="C183" s="8" t="s">
         <v>354</v>
       </c>
@@ -32037,8 +32034,8 @@
       </c>
     </row>
     <row r="184" spans="1:7" ht="50" customHeight="1">
-      <c r="A184" s="39"/>
-      <c r="B184" s="39"/>
+      <c r="A184" s="42"/>
+      <c r="B184" s="42"/>
       <c r="C184" s="8" t="s">
         <v>356</v>
       </c>
@@ -32052,8 +32049,8 @@
       </c>
     </row>
     <row r="185" spans="1:7" ht="50" customHeight="1">
-      <c r="A185" s="39"/>
-      <c r="B185" s="40"/>
+      <c r="A185" s="42"/>
+      <c r="B185" s="43"/>
       <c r="C185" s="8" t="s">
         <v>358</v>
       </c>
@@ -32067,8 +32064,8 @@
       </c>
     </row>
     <row r="186" spans="1:7" ht="50" customHeight="1">
-      <c r="A186" s="39"/>
-      <c r="B186" s="38" t="s">
+      <c r="A186" s="42"/>
+      <c r="B186" s="41" t="s">
         <v>888</v>
       </c>
       <c r="C186" s="8" t="s">
@@ -32078,7 +32075,7 @@
         <v>361</v>
       </c>
       <c r="E186" s="32" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="F186" s="33"/>
       <c r="G186" s="29" t="s">
@@ -32086,8 +32083,8 @@
       </c>
     </row>
     <row r="187" spans="1:7" ht="50" customHeight="1">
-      <c r="A187" s="39"/>
-      <c r="B187" s="39"/>
+      <c r="A187" s="42"/>
+      <c r="B187" s="42"/>
       <c r="C187" s="8" t="s">
         <v>362</v>
       </c>
@@ -32101,8 +32098,8 @@
       </c>
     </row>
     <row r="188" spans="1:7" ht="50" customHeight="1">
-      <c r="A188" s="39"/>
-      <c r="B188" s="39"/>
+      <c r="A188" s="42"/>
+      <c r="B188" s="42"/>
       <c r="C188" s="8" t="s">
         <v>364</v>
       </c>
@@ -32110,7 +32107,7 @@
         <v>365</v>
       </c>
       <c r="E188" s="32" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="29" t="s">
@@ -32118,8 +32115,8 @@
       </c>
     </row>
     <row r="189" spans="1:7" ht="50" customHeight="1">
-      <c r="A189" s="39"/>
-      <c r="B189" s="39"/>
+      <c r="A189" s="42"/>
+      <c r="B189" s="42"/>
       <c r="C189" s="8" t="s">
         <v>366</v>
       </c>
@@ -32127,7 +32124,7 @@
         <v>367</v>
       </c>
       <c r="E189" s="32" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="29" t="s">
@@ -32135,8 +32132,8 @@
       </c>
     </row>
     <row r="190" spans="1:7" ht="50" customHeight="1">
-      <c r="A190" s="39"/>
-      <c r="B190" s="39"/>
+      <c r="A190" s="42"/>
+      <c r="B190" s="42"/>
       <c r="C190" s="8" t="s">
         <v>368</v>
       </c>
@@ -32150,8 +32147,8 @@
       </c>
     </row>
     <row r="191" spans="1:7" ht="50" customHeight="1">
-      <c r="A191" s="39"/>
-      <c r="B191" s="39"/>
+      <c r="A191" s="42"/>
+      <c r="B191" s="42"/>
       <c r="C191" s="8" t="s">
         <v>370</v>
       </c>
@@ -32159,7 +32156,7 @@
         <v>371</v>
       </c>
       <c r="E191" s="32" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="F191" s="33"/>
       <c r="G191" s="29" t="s">
@@ -32167,8 +32164,8 @@
       </c>
     </row>
     <row r="192" spans="1:7" ht="50" customHeight="1">
-      <c r="A192" s="39"/>
-      <c r="B192" s="39"/>
+      <c r="A192" s="42"/>
+      <c r="B192" s="42"/>
       <c r="C192" s="8" t="s">
         <v>372</v>
       </c>
@@ -32176,7 +32173,7 @@
         <v>373</v>
       </c>
       <c r="E192" s="32" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="29" t="s">
@@ -32184,8 +32181,8 @@
       </c>
     </row>
     <row r="193" spans="1:16384" ht="50" customHeight="1">
-      <c r="A193" s="39"/>
-      <c r="B193" s="39"/>
+      <c r="A193" s="42"/>
+      <c r="B193" s="42"/>
       <c r="C193" s="8" t="s">
         <v>374</v>
       </c>
@@ -32193,7 +32190,7 @@
         <v>375</v>
       </c>
       <c r="E193" s="32" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="F193" s="33"/>
       <c r="G193" s="29" t="s">
@@ -32201,8 +32198,8 @@
       </c>
     </row>
     <row r="194" spans="1:16384" ht="50" customHeight="1">
-      <c r="A194" s="39"/>
-      <c r="B194" s="39"/>
+      <c r="A194" s="42"/>
+      <c r="B194" s="42"/>
       <c r="C194" s="8" t="s">
         <v>376</v>
       </c>
@@ -32216,8 +32213,8 @@
       </c>
     </row>
     <row r="195" spans="1:16384" ht="50" customHeight="1">
-      <c r="A195" s="39"/>
-      <c r="B195" s="39"/>
+      <c r="A195" s="42"/>
+      <c r="B195" s="42"/>
       <c r="C195" s="8" t="s">
         <v>378</v>
       </c>
@@ -32225,7 +32222,7 @@
         <v>379</v>
       </c>
       <c r="E195" s="32" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="F195" s="33"/>
       <c r="G195" s="29" t="s">
@@ -32233,8 +32230,8 @@
       </c>
     </row>
     <row r="196" spans="1:16384" ht="50" customHeight="1">
-      <c r="A196" s="39"/>
-      <c r="B196" s="39"/>
+      <c r="A196" s="42"/>
+      <c r="B196" s="42"/>
       <c r="C196" s="8" t="s">
         <v>380</v>
       </c>
@@ -32248,8 +32245,8 @@
       </c>
     </row>
     <row r="197" spans="1:16384" ht="50" customHeight="1">
-      <c r="A197" s="39"/>
-      <c r="B197" s="39"/>
+      <c r="A197" s="42"/>
+      <c r="B197" s="42"/>
       <c r="C197" s="8" t="s">
         <v>382</v>
       </c>
@@ -32263,8 +32260,8 @@
       </c>
     </row>
     <row r="198" spans="1:16384" ht="50" customHeight="1">
-      <c r="A198" s="39"/>
-      <c r="B198" s="39"/>
+      <c r="A198" s="42"/>
+      <c r="B198" s="42"/>
       <c r="C198" s="8" t="s">
         <v>384</v>
       </c>
@@ -32278,8 +32275,8 @@
       </c>
     </row>
     <row r="199" spans="1:16384" ht="50" customHeight="1">
-      <c r="A199" s="39"/>
-      <c r="B199" s="39"/>
+      <c r="A199" s="42"/>
+      <c r="B199" s="42"/>
       <c r="C199" s="35" t="s">
         <v>911</v>
       </c>
@@ -32293,8 +32290,8 @@
       </c>
     </row>
     <row r="200" spans="1:16384" ht="50" customHeight="1">
-      <c r="A200" s="39"/>
-      <c r="B200" s="39"/>
+      <c r="A200" s="42"/>
+      <c r="B200" s="42"/>
       <c r="C200" s="35" t="s">
         <v>913</v>
       </c>
@@ -48685,8 +48682,8 @@
       <c r="XFD200" s="35"/>
     </row>
     <row r="201" spans="1:16384" ht="50" customHeight="1">
-      <c r="A201" s="39"/>
-      <c r="B201" s="39"/>
+      <c r="A201" s="42"/>
+      <c r="B201" s="42"/>
       <c r="C201" s="8" t="s">
         <v>386</v>
       </c>
@@ -48700,8 +48697,8 @@
       </c>
     </row>
     <row r="202" spans="1:16384" ht="50" customHeight="1">
-      <c r="A202" s="39"/>
-      <c r="B202" s="39"/>
+      <c r="A202" s="42"/>
+      <c r="B202" s="42"/>
       <c r="C202" s="8" t="s">
         <v>388</v>
       </c>
@@ -48709,7 +48706,7 @@
         <v>389</v>
       </c>
       <c r="E202" s="32" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="F202" s="33"/>
       <c r="G202" s="29" t="s">
@@ -48717,8 +48714,8 @@
       </c>
     </row>
     <row r="203" spans="1:16384" ht="50" customHeight="1">
-      <c r="A203" s="39"/>
-      <c r="B203" s="39"/>
+      <c r="A203" s="42"/>
+      <c r="B203" s="42"/>
       <c r="C203" s="8" t="s">
         <v>390</v>
       </c>
@@ -48732,8 +48729,8 @@
       </c>
     </row>
     <row r="204" spans="1:16384" ht="50" customHeight="1">
-      <c r="A204" s="39"/>
-      <c r="B204" s="39"/>
+      <c r="A204" s="42"/>
+      <c r="B204" s="42"/>
       <c r="C204" s="8" t="s">
         <v>392</v>
       </c>
@@ -48741,7 +48738,7 @@
         <v>393</v>
       </c>
       <c r="E204" s="32" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="F204" s="33"/>
       <c r="G204" s="29" t="s">
@@ -48749,8 +48746,8 @@
       </c>
     </row>
     <row r="205" spans="1:16384" ht="50" customHeight="1">
-      <c r="A205" s="39"/>
-      <c r="B205" s="39"/>
+      <c r="A205" s="42"/>
+      <c r="B205" s="42"/>
       <c r="C205" s="8" t="s">
         <v>394</v>
       </c>
@@ -48764,8 +48761,8 @@
       </c>
     </row>
     <row r="206" spans="1:16384" ht="50" customHeight="1">
-      <c r="A206" s="39"/>
-      <c r="B206" s="39"/>
+      <c r="A206" s="42"/>
+      <c r="B206" s="42"/>
       <c r="C206" s="8" t="s">
         <v>396</v>
       </c>
@@ -48779,8 +48776,8 @@
       </c>
     </row>
     <row r="207" spans="1:16384" ht="50" customHeight="1">
-      <c r="A207" s="39"/>
-      <c r="B207" s="39"/>
+      <c r="A207" s="42"/>
+      <c r="B207" s="42"/>
       <c r="C207" s="8" t="s">
         <v>398</v>
       </c>
@@ -48794,8 +48791,8 @@
       </c>
     </row>
     <row r="208" spans="1:16384" ht="50" customHeight="1">
-      <c r="A208" s="39"/>
-      <c r="B208" s="39"/>
+      <c r="A208" s="42"/>
+      <c r="B208" s="42"/>
       <c r="C208" s="8" t="s">
         <v>400</v>
       </c>
@@ -48809,8 +48806,8 @@
       </c>
     </row>
     <row r="209" spans="1:7" ht="50" customHeight="1">
-      <c r="A209" s="39"/>
-      <c r="B209" s="39"/>
+      <c r="A209" s="42"/>
+      <c r="B209" s="42"/>
       <c r="C209" s="8" t="s">
         <v>402</v>
       </c>
@@ -48824,8 +48821,8 @@
       </c>
     </row>
     <row r="210" spans="1:7" ht="50" customHeight="1">
-      <c r="A210" s="39"/>
-      <c r="B210" s="39"/>
+      <c r="A210" s="42"/>
+      <c r="B210" s="42"/>
       <c r="C210" s="8" t="s">
         <v>404</v>
       </c>
@@ -48839,8 +48836,8 @@
       </c>
     </row>
     <row r="211" spans="1:7" ht="50" customHeight="1">
-      <c r="A211" s="39"/>
-      <c r="B211" s="39"/>
+      <c r="A211" s="42"/>
+      <c r="B211" s="42"/>
       <c r="C211" s="8" t="s">
         <v>406</v>
       </c>
@@ -48854,8 +48851,8 @@
       </c>
     </row>
     <row r="212" spans="1:7" ht="50" customHeight="1">
-      <c r="A212" s="39"/>
-      <c r="B212" s="39"/>
+      <c r="A212" s="42"/>
+      <c r="B212" s="42"/>
       <c r="C212" s="8" t="s">
         <v>408</v>
       </c>
@@ -48869,8 +48866,8 @@
       </c>
     </row>
     <row r="213" spans="1:7" ht="50" customHeight="1">
-      <c r="A213" s="39"/>
-      <c r="B213" s="39"/>
+      <c r="A213" s="42"/>
+      <c r="B213" s="42"/>
       <c r="C213" s="8" t="s">
         <v>410</v>
       </c>
@@ -48884,8 +48881,8 @@
       </c>
     </row>
     <row r="214" spans="1:7" ht="50" customHeight="1">
-      <c r="A214" s="39"/>
-      <c r="B214" s="39"/>
+      <c r="A214" s="42"/>
+      <c r="B214" s="42"/>
       <c r="C214" s="8" t="s">
         <v>412</v>
       </c>
@@ -48899,8 +48896,8 @@
       </c>
     </row>
     <row r="215" spans="1:7" ht="50" customHeight="1">
-      <c r="A215" s="39"/>
-      <c r="B215" s="39"/>
+      <c r="A215" s="42"/>
+      <c r="B215" s="42"/>
       <c r="C215" s="8" t="s">
         <v>414</v>
       </c>
@@ -48914,8 +48911,8 @@
       </c>
     </row>
     <row r="216" spans="1:7" ht="50" customHeight="1">
-      <c r="A216" s="39"/>
-      <c r="B216" s="39"/>
+      <c r="A216" s="42"/>
+      <c r="B216" s="42"/>
       <c r="C216" s="8" t="s">
         <v>416</v>
       </c>
@@ -48929,8 +48926,8 @@
       </c>
     </row>
     <row r="217" spans="1:7" ht="50" customHeight="1">
-      <c r="A217" s="39"/>
-      <c r="B217" s="39"/>
+      <c r="A217" s="42"/>
+      <c r="B217" s="42"/>
       <c r="C217" s="8" t="s">
         <v>418</v>
       </c>
@@ -48944,8 +48941,8 @@
       </c>
     </row>
     <row r="218" spans="1:7" ht="50" customHeight="1">
-      <c r="A218" s="39"/>
-      <c r="B218" s="39"/>
+      <c r="A218" s="42"/>
+      <c r="B218" s="42"/>
       <c r="C218" s="8" t="s">
         <v>420</v>
       </c>
@@ -48959,8 +48956,8 @@
       </c>
     </row>
     <row r="219" spans="1:7" ht="50" customHeight="1">
-      <c r="A219" s="39"/>
-      <c r="B219" s="39"/>
+      <c r="A219" s="42"/>
+      <c r="B219" s="42"/>
       <c r="C219" s="8" t="s">
         <v>422</v>
       </c>
@@ -48974,8 +48971,8 @@
       </c>
     </row>
     <row r="220" spans="1:7" ht="50" customHeight="1">
-      <c r="A220" s="39"/>
-      <c r="B220" s="39"/>
+      <c r="A220" s="42"/>
+      <c r="B220" s="42"/>
       <c r="C220" s="8" t="s">
         <v>424</v>
       </c>
@@ -48989,8 +48986,8 @@
       </c>
     </row>
     <row r="221" spans="1:7" ht="50" customHeight="1">
-      <c r="A221" s="39"/>
-      <c r="B221" s="39"/>
+      <c r="A221" s="42"/>
+      <c r="B221" s="42"/>
       <c r="C221" s="8" t="s">
         <v>426</v>
       </c>
@@ -49004,8 +49001,8 @@
       </c>
     </row>
     <row r="222" spans="1:7" ht="50" customHeight="1">
-      <c r="A222" s="39"/>
-      <c r="B222" s="40"/>
+      <c r="A222" s="42"/>
+      <c r="B222" s="43"/>
       <c r="C222" s="8" t="s">
         <v>428</v>
       </c>
@@ -49019,8 +49016,8 @@
       </c>
     </row>
     <row r="223" spans="1:7" ht="50" customHeight="1">
-      <c r="A223" s="39"/>
-      <c r="B223" s="38" t="s">
+      <c r="A223" s="42"/>
+      <c r="B223" s="41" t="s">
         <v>889</v>
       </c>
       <c r="C223" s="13" t="s">
@@ -49034,8 +49031,8 @@
       </c>
     </row>
     <row r="224" spans="1:7" ht="50" customHeight="1">
-      <c r="A224" s="39"/>
-      <c r="B224" s="39"/>
+      <c r="A224" s="42"/>
+      <c r="B224" s="42"/>
       <c r="C224" s="13" t="s">
         <v>432</v>
       </c>
@@ -49050,8 +49047,8 @@
       </c>
     </row>
     <row r="225" spans="1:7" ht="50" customHeight="1">
-      <c r="A225" s="39"/>
-      <c r="B225" s="39"/>
+      <c r="A225" s="42"/>
+      <c r="B225" s="42"/>
       <c r="C225" s="13" t="s">
         <v>434</v>
       </c>
@@ -49063,8 +49060,8 @@
       </c>
     </row>
     <row r="226" spans="1:7" ht="50" customHeight="1">
-      <c r="A226" s="40"/>
-      <c r="B226" s="40"/>
+      <c r="A226" s="43"/>
+      <c r="B226" s="43"/>
       <c r="C226" s="13" t="s">
         <v>436</v>
       </c>
@@ -49076,7 +49073,7 @@
       </c>
     </row>
     <row r="227" spans="1:7" ht="50" customHeight="1">
-      <c r="A227" s="38" t="s">
+      <c r="A227" s="41" t="s">
         <v>870</v>
       </c>
       <c r="B227" s="14" t="s">
@@ -49089,7 +49086,7 @@
         <v>439</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>971</v>
+        <v>941</v>
       </c>
       <c r="F227" s="10"/>
       <c r="G227" s="28" t="s">
@@ -49097,7 +49094,7 @@
       </c>
     </row>
     <row r="228" spans="1:7" ht="50" customHeight="1">
-      <c r="A228" s="39"/>
+      <c r="A228" s="42"/>
       <c r="B228" s="14" t="s">
         <v>892</v>
       </c>
@@ -49108,7 +49105,7 @@
         <v>441</v>
       </c>
       <c r="E228" s="10" t="s">
-        <v>972</v>
+        <v>942</v>
       </c>
       <c r="F228" s="10"/>
       <c r="G228" s="28" t="s">
@@ -49116,8 +49113,8 @@
       </c>
     </row>
     <row r="229" spans="1:7" ht="50" customHeight="1">
-      <c r="A229" s="39"/>
-      <c r="B229" s="38" t="s">
+      <c r="A229" s="42"/>
+      <c r="B229" s="41" t="s">
         <v>893</v>
       </c>
       <c r="C229" s="8" t="s">
@@ -49127,7 +49124,7 @@
         <v>443</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>971</v>
+        <v>941</v>
       </c>
       <c r="F229" s="10"/>
       <c r="G229" s="28" t="s">
@@ -49135,8 +49132,8 @@
       </c>
     </row>
     <row r="230" spans="1:7" ht="50" customHeight="1">
-      <c r="A230" s="39"/>
-      <c r="B230" s="40"/>
+      <c r="A230" s="42"/>
+      <c r="B230" s="43"/>
       <c r="C230" s="8" t="s">
         <v>444</v>
       </c>
@@ -49144,7 +49141,7 @@
         <v>445</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>972</v>
+        <v>942</v>
       </c>
       <c r="F230" s="10"/>
       <c r="G230" s="28" t="s">
@@ -49152,8 +49149,8 @@
       </c>
     </row>
     <row r="231" spans="1:7" ht="50" customHeight="1">
-      <c r="A231" s="39"/>
-      <c r="B231" s="38" t="s">
+      <c r="A231" s="42"/>
+      <c r="B231" s="41" t="s">
         <v>894</v>
       </c>
       <c r="C231" s="8" t="s">
@@ -49169,8 +49166,8 @@
       </c>
     </row>
     <row r="232" spans="1:7" ht="50" customHeight="1">
-      <c r="A232" s="39"/>
-      <c r="B232" s="40"/>
+      <c r="A232" s="42"/>
+      <c r="B232" s="43"/>
       <c r="C232" s="8" t="s">
         <v>448</v>
       </c>
@@ -49184,8 +49181,8 @@
       </c>
     </row>
     <row r="233" spans="1:7" ht="50" customHeight="1">
-      <c r="A233" s="39"/>
-      <c r="B233" s="38" t="s">
+      <c r="A233" s="42"/>
+      <c r="B233" s="41" t="s">
         <v>895</v>
       </c>
       <c r="C233" s="8" t="s">
@@ -49201,8 +49198,8 @@
       </c>
     </row>
     <row r="234" spans="1:7" ht="50" customHeight="1">
-      <c r="A234" s="39"/>
-      <c r="B234" s="39"/>
+      <c r="A234" s="42"/>
+      <c r="B234" s="42"/>
       <c r="C234" s="8" t="s">
         <v>452</v>
       </c>
@@ -49216,8 +49213,8 @@
       </c>
     </row>
     <row r="235" spans="1:7" ht="50" customHeight="1">
-      <c r="A235" s="39"/>
-      <c r="B235" s="39"/>
+      <c r="A235" s="42"/>
+      <c r="B235" s="42"/>
       <c r="C235" s="8" t="s">
         <v>454</v>
       </c>
@@ -49231,8 +49228,8 @@
       </c>
     </row>
     <row r="236" spans="1:7" ht="50" customHeight="1">
-      <c r="A236" s="39"/>
-      <c r="B236" s="39"/>
+      <c r="A236" s="42"/>
+      <c r="B236" s="42"/>
       <c r="C236" s="8" t="s">
         <v>456</v>
       </c>
@@ -49246,8 +49243,8 @@
       </c>
     </row>
     <row r="237" spans="1:7" ht="50" customHeight="1">
-      <c r="A237" s="39"/>
-      <c r="B237" s="39"/>
+      <c r="A237" s="42"/>
+      <c r="B237" s="42"/>
       <c r="C237" s="8" t="s">
         <v>458</v>
       </c>
@@ -49261,8 +49258,8 @@
       </c>
     </row>
     <row r="238" spans="1:7" ht="50" customHeight="1">
-      <c r="A238" s="39"/>
-      <c r="B238" s="39"/>
+      <c r="A238" s="42"/>
+      <c r="B238" s="42"/>
       <c r="C238" s="8" t="s">
         <v>460</v>
       </c>
@@ -49276,8 +49273,8 @@
       </c>
     </row>
     <row r="239" spans="1:7" ht="50" customHeight="1">
-      <c r="A239" s="39"/>
-      <c r="B239" s="39"/>
+      <c r="A239" s="42"/>
+      <c r="B239" s="42"/>
       <c r="C239" s="8" t="s">
         <v>462</v>
       </c>
@@ -49291,8 +49288,8 @@
       </c>
     </row>
     <row r="240" spans="1:7" ht="50" customHeight="1">
-      <c r="A240" s="39"/>
-      <c r="B240" s="39"/>
+      <c r="A240" s="42"/>
+      <c r="B240" s="42"/>
       <c r="C240" s="8" t="s">
         <v>464</v>
       </c>
@@ -49306,8 +49303,8 @@
       </c>
     </row>
     <row r="241" spans="1:7" ht="50" customHeight="1">
-      <c r="A241" s="39"/>
-      <c r="B241" s="39"/>
+      <c r="A241" s="42"/>
+      <c r="B241" s="42"/>
       <c r="C241" s="8" t="s">
         <v>466</v>
       </c>
@@ -49321,8 +49318,8 @@
       </c>
     </row>
     <row r="242" spans="1:7" ht="50" customHeight="1">
-      <c r="A242" s="39"/>
-      <c r="B242" s="39"/>
+      <c r="A242" s="42"/>
+      <c r="B242" s="42"/>
       <c r="C242" s="8" t="s">
         <v>468</v>
       </c>
@@ -49336,8 +49333,8 @@
       </c>
     </row>
     <row r="243" spans="1:7" ht="50" customHeight="1">
-      <c r="A243" s="39"/>
-      <c r="B243" s="39"/>
+      <c r="A243" s="42"/>
+      <c r="B243" s="42"/>
       <c r="C243" s="8" t="s">
         <v>470</v>
       </c>
@@ -49351,8 +49348,8 @@
       </c>
     </row>
     <row r="244" spans="1:7" ht="50" customHeight="1">
-      <c r="A244" s="39"/>
-      <c r="B244" s="39"/>
+      <c r="A244" s="42"/>
+      <c r="B244" s="42"/>
       <c r="C244" s="8" t="s">
         <v>472</v>
       </c>
@@ -49366,8 +49363,8 @@
       </c>
     </row>
     <row r="245" spans="1:7" ht="50" customHeight="1">
-      <c r="A245" s="39"/>
-      <c r="B245" s="39"/>
+      <c r="A245" s="42"/>
+      <c r="B245" s="42"/>
       <c r="C245" s="8" t="s">
         <v>474</v>
       </c>
@@ -49381,8 +49378,8 @@
       </c>
     </row>
     <row r="246" spans="1:7" ht="50" customHeight="1">
-      <c r="A246" s="39"/>
-      <c r="B246" s="39"/>
+      <c r="A246" s="42"/>
+      <c r="B246" s="42"/>
       <c r="C246" s="8" t="s">
         <v>476</v>
       </c>
@@ -49396,8 +49393,8 @@
       </c>
     </row>
     <row r="247" spans="1:7" ht="50" customHeight="1">
-      <c r="A247" s="39"/>
-      <c r="B247" s="39"/>
+      <c r="A247" s="42"/>
+      <c r="B247" s="42"/>
       <c r="C247" s="8" t="s">
         <v>478</v>
       </c>
@@ -49411,8 +49408,8 @@
       </c>
     </row>
     <row r="248" spans="1:7" ht="50" customHeight="1">
-      <c r="A248" s="39"/>
-      <c r="B248" s="39"/>
+      <c r="A248" s="42"/>
+      <c r="B248" s="42"/>
       <c r="C248" s="8" t="s">
         <v>480</v>
       </c>
@@ -49426,8 +49423,8 @@
       </c>
     </row>
     <row r="249" spans="1:7" ht="50" customHeight="1">
-      <c r="A249" s="39"/>
-      <c r="B249" s="39"/>
+      <c r="A249" s="42"/>
+      <c r="B249" s="42"/>
       <c r="C249" s="8" t="s">
         <v>482</v>
       </c>
@@ -49441,8 +49438,8 @@
       </c>
     </row>
     <row r="250" spans="1:7" ht="50" customHeight="1">
-      <c r="A250" s="39"/>
-      <c r="B250" s="39"/>
+      <c r="A250" s="42"/>
+      <c r="B250" s="42"/>
       <c r="C250" s="8" t="s">
         <v>484</v>
       </c>
@@ -49456,8 +49453,8 @@
       </c>
     </row>
     <row r="251" spans="1:7" ht="50" customHeight="1">
-      <c r="A251" s="39"/>
-      <c r="B251" s="39"/>
+      <c r="A251" s="42"/>
+      <c r="B251" s="42"/>
       <c r="C251" s="8" t="s">
         <v>486</v>
       </c>
@@ -49471,8 +49468,8 @@
       </c>
     </row>
     <row r="252" spans="1:7" ht="50" customHeight="1">
-      <c r="A252" s="39"/>
-      <c r="B252" s="39"/>
+      <c r="A252" s="42"/>
+      <c r="B252" s="42"/>
       <c r="C252" s="8" t="s">
         <v>488</v>
       </c>
@@ -49486,8 +49483,8 @@
       </c>
     </row>
     <row r="253" spans="1:7" ht="50" customHeight="1">
-      <c r="A253" s="39"/>
-      <c r="B253" s="39"/>
+      <c r="A253" s="42"/>
+      <c r="B253" s="42"/>
       <c r="C253" s="8" t="s">
         <v>490</v>
       </c>
@@ -49501,8 +49498,8 @@
       </c>
     </row>
     <row r="254" spans="1:7" ht="50" customHeight="1">
-      <c r="A254" s="39"/>
-      <c r="B254" s="39"/>
+      <c r="A254" s="42"/>
+      <c r="B254" s="42"/>
       <c r="C254" s="8" t="s">
         <v>492</v>
       </c>
@@ -49516,8 +49513,8 @@
       </c>
     </row>
     <row r="255" spans="1:7" ht="50" customHeight="1">
-      <c r="A255" s="39"/>
-      <c r="B255" s="39"/>
+      <c r="A255" s="42"/>
+      <c r="B255" s="42"/>
       <c r="C255" s="8" t="s">
         <v>494</v>
       </c>
@@ -49531,8 +49528,8 @@
       </c>
     </row>
     <row r="256" spans="1:7" ht="50" customHeight="1">
-      <c r="A256" s="39"/>
-      <c r="B256" s="39"/>
+      <c r="A256" s="42"/>
+      <c r="B256" s="42"/>
       <c r="C256" s="8" t="s">
         <v>496</v>
       </c>
@@ -49546,8 +49543,8 @@
       </c>
     </row>
     <row r="257" spans="1:7" ht="50" customHeight="1">
-      <c r="A257" s="39"/>
-      <c r="B257" s="39"/>
+      <c r="A257" s="42"/>
+      <c r="B257" s="42"/>
       <c r="C257" s="8" t="s">
         <v>498</v>
       </c>
@@ -49561,8 +49558,8 @@
       </c>
     </row>
     <row r="258" spans="1:7" ht="50" customHeight="1">
-      <c r="A258" s="39"/>
-      <c r="B258" s="39"/>
+      <c r="A258" s="42"/>
+      <c r="B258" s="42"/>
       <c r="C258" s="8" t="s">
         <v>500</v>
       </c>
@@ -49576,8 +49573,8 @@
       </c>
     </row>
     <row r="259" spans="1:7" ht="50" customHeight="1">
-      <c r="A259" s="39"/>
-      <c r="B259" s="39"/>
+      <c r="A259" s="42"/>
+      <c r="B259" s="42"/>
       <c r="C259" s="8" t="s">
         <v>502</v>
       </c>
@@ -49591,8 +49588,8 @@
       </c>
     </row>
     <row r="260" spans="1:7" ht="50" customHeight="1">
-      <c r="A260" s="39"/>
-      <c r="B260" s="39"/>
+      <c r="A260" s="42"/>
+      <c r="B260" s="42"/>
       <c r="C260" s="8" t="s">
         <v>504</v>
       </c>
@@ -49606,8 +49603,8 @@
       </c>
     </row>
     <row r="261" spans="1:7" ht="50" customHeight="1">
-      <c r="A261" s="39"/>
-      <c r="B261" s="39"/>
+      <c r="A261" s="42"/>
+      <c r="B261" s="42"/>
       <c r="C261" s="8" t="s">
         <v>506</v>
       </c>
@@ -49621,8 +49618,8 @@
       </c>
     </row>
     <row r="262" spans="1:7" ht="50" customHeight="1">
-      <c r="A262" s="39"/>
-      <c r="B262" s="39"/>
+      <c r="A262" s="42"/>
+      <c r="B262" s="42"/>
       <c r="C262" s="8" t="s">
         <v>508</v>
       </c>
@@ -49636,8 +49633,8 @@
       </c>
     </row>
     <row r="263" spans="1:7" ht="50" customHeight="1">
-      <c r="A263" s="39"/>
-      <c r="B263" s="39"/>
+      <c r="A263" s="42"/>
+      <c r="B263" s="42"/>
       <c r="C263" s="8" t="s">
         <v>510</v>
       </c>
@@ -49651,8 +49648,8 @@
       </c>
     </row>
     <row r="264" spans="1:7" ht="50" customHeight="1">
-      <c r="A264" s="39"/>
-      <c r="B264" s="39"/>
+      <c r="A264" s="42"/>
+      <c r="B264" s="42"/>
       <c r="C264" s="8" t="s">
         <v>512</v>
       </c>
@@ -49666,8 +49663,8 @@
       </c>
     </row>
     <row r="265" spans="1:7" ht="50" customHeight="1">
-      <c r="A265" s="39"/>
-      <c r="B265" s="39"/>
+      <c r="A265" s="42"/>
+      <c r="B265" s="42"/>
       <c r="C265" s="8" t="s">
         <v>514</v>
       </c>
@@ -49681,8 +49678,8 @@
       </c>
     </row>
     <row r="266" spans="1:7" ht="50" customHeight="1">
-      <c r="A266" s="39"/>
-      <c r="B266" s="39"/>
+      <c r="A266" s="42"/>
+      <c r="B266" s="42"/>
       <c r="C266" s="8" t="s">
         <v>516</v>
       </c>
@@ -49696,8 +49693,8 @@
       </c>
     </row>
     <row r="267" spans="1:7" ht="50" customHeight="1">
-      <c r="A267" s="39"/>
-      <c r="B267" s="40"/>
+      <c r="A267" s="42"/>
+      <c r="B267" s="43"/>
       <c r="C267" s="8" t="s">
         <v>518</v>
       </c>
@@ -49711,7 +49708,7 @@
       </c>
     </row>
     <row r="268" spans="1:7" ht="50" customHeight="1">
-      <c r="A268" s="39"/>
+      <c r="A268" s="42"/>
       <c r="B268" s="14" t="s">
         <v>896</v>
       </c>
@@ -49728,8 +49725,8 @@
       </c>
     </row>
     <row r="269" spans="1:7" ht="50" customHeight="1">
-      <c r="A269" s="39"/>
-      <c r="B269" s="38" t="s">
+      <c r="A269" s="42"/>
+      <c r="B269" s="41" t="s">
         <v>897</v>
       </c>
       <c r="C269" s="35" t="s">
@@ -49745,8 +49742,8 @@
       </c>
     </row>
     <row r="270" spans="1:7" ht="50" customHeight="1">
-      <c r="A270" s="39"/>
-      <c r="B270" s="39"/>
+      <c r="A270" s="42"/>
+      <c r="B270" s="42"/>
       <c r="C270" s="8" t="s">
         <v>522</v>
       </c>
@@ -49754,7 +49751,7 @@
         <v>523</v>
       </c>
       <c r="E270" s="10" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="F270" s="10"/>
       <c r="G270" s="30" t="s">
@@ -49762,8 +49759,8 @@
       </c>
     </row>
     <row r="271" spans="1:7" ht="50" customHeight="1">
-      <c r="A271" s="39"/>
-      <c r="B271" s="39"/>
+      <c r="A271" s="42"/>
+      <c r="B271" s="42"/>
       <c r="C271" s="8" t="s">
         <v>524</v>
       </c>
@@ -49777,8 +49774,8 @@
       </c>
     </row>
     <row r="272" spans="1:7" ht="50" customHeight="1">
-      <c r="A272" s="39"/>
-      <c r="B272" s="39"/>
+      <c r="A272" s="42"/>
+      <c r="B272" s="42"/>
       <c r="C272" s="8" t="s">
         <v>526</v>
       </c>
@@ -49792,8 +49789,8 @@
       </c>
     </row>
     <row r="273" spans="1:7" ht="50" customHeight="1">
-      <c r="A273" s="39"/>
-      <c r="B273" s="40"/>
+      <c r="A273" s="42"/>
+      <c r="B273" s="43"/>
       <c r="C273" s="8" t="s">
         <v>528</v>
       </c>
@@ -49807,8 +49804,8 @@
       </c>
     </row>
     <row r="274" spans="1:7" ht="50" customHeight="1">
-      <c r="A274" s="39"/>
-      <c r="B274" s="38" t="s">
+      <c r="A274" s="42"/>
+      <c r="B274" s="41" t="s">
         <v>898</v>
       </c>
       <c r="C274" s="8" t="s">
@@ -49824,8 +49821,8 @@
       </c>
     </row>
     <row r="275" spans="1:7" ht="50" customHeight="1">
-      <c r="A275" s="39"/>
-      <c r="B275" s="39"/>
+      <c r="A275" s="42"/>
+      <c r="B275" s="42"/>
       <c r="C275" s="8" t="s">
         <v>532</v>
       </c>
@@ -49833,7 +49830,7 @@
         <v>533</v>
       </c>
       <c r="E275" s="10" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="F275" s="10"/>
       <c r="G275" s="28" t="s">
@@ -49841,8 +49838,8 @@
       </c>
     </row>
     <row r="276" spans="1:7" ht="50" customHeight="1">
-      <c r="A276" s="39"/>
-      <c r="B276" s="39"/>
+      <c r="A276" s="42"/>
+      <c r="B276" s="42"/>
       <c r="C276" s="8" t="s">
         <v>534</v>
       </c>
@@ -49850,7 +49847,7 @@
         <v>535</v>
       </c>
       <c r="E276" s="10" t="s">
-        <v>974</v>
+        <v>943</v>
       </c>
       <c r="F276" s="10"/>
       <c r="G276" s="28" t="s">
@@ -49858,8 +49855,8 @@
       </c>
     </row>
     <row r="277" spans="1:7" ht="50" customHeight="1">
-      <c r="A277" s="39"/>
-      <c r="B277" s="39"/>
+      <c r="A277" s="42"/>
+      <c r="B277" s="42"/>
       <c r="C277" s="8" t="s">
         <v>536</v>
       </c>
@@ -49873,8 +49870,8 @@
       </c>
     </row>
     <row r="278" spans="1:7" ht="50" customHeight="1">
-      <c r="A278" s="39"/>
-      <c r="B278" s="39"/>
+      <c r="A278" s="42"/>
+      <c r="B278" s="42"/>
       <c r="C278" s="8" t="s">
         <v>538</v>
       </c>
@@ -49888,8 +49885,8 @@
       </c>
     </row>
     <row r="279" spans="1:7" ht="50" customHeight="1">
-      <c r="A279" s="39"/>
-      <c r="B279" s="39"/>
+      <c r="A279" s="42"/>
+      <c r="B279" s="42"/>
       <c r="C279" s="8" t="s">
         <v>540</v>
       </c>
@@ -49897,7 +49894,7 @@
         <v>541</v>
       </c>
       <c r="E279" s="10" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="F279" s="10"/>
       <c r="G279" s="28" t="s">
@@ -49905,8 +49902,8 @@
       </c>
     </row>
     <row r="280" spans="1:7" ht="50" customHeight="1">
-      <c r="A280" s="39"/>
-      <c r="B280" s="39"/>
+      <c r="A280" s="42"/>
+      <c r="B280" s="42"/>
       <c r="C280" s="8" t="s">
         <v>542</v>
       </c>
@@ -49920,8 +49917,8 @@
       </c>
     </row>
     <row r="281" spans="1:7" ht="50" customHeight="1">
-      <c r="A281" s="39"/>
-      <c r="B281" s="39"/>
+      <c r="A281" s="42"/>
+      <c r="B281" s="42"/>
       <c r="C281" s="8" t="s">
         <v>544</v>
       </c>
@@ -49935,8 +49932,8 @@
       </c>
     </row>
     <row r="282" spans="1:7" ht="50" customHeight="1">
-      <c r="A282" s="39"/>
-      <c r="B282" s="39"/>
+      <c r="A282" s="42"/>
+      <c r="B282" s="42"/>
       <c r="C282" s="8" t="s">
         <v>546</v>
       </c>
@@ -49950,8 +49947,8 @@
       </c>
     </row>
     <row r="283" spans="1:7" ht="50" customHeight="1">
-      <c r="A283" s="39"/>
-      <c r="B283" s="39"/>
+      <c r="A283" s="42"/>
+      <c r="B283" s="42"/>
       <c r="C283" s="8" t="s">
         <v>548</v>
       </c>
@@ -49965,8 +49962,8 @@
       </c>
     </row>
     <row r="284" spans="1:7" ht="50" customHeight="1">
-      <c r="A284" s="39"/>
-      <c r="B284" s="39"/>
+      <c r="A284" s="42"/>
+      <c r="B284" s="42"/>
       <c r="C284" s="8" t="s">
         <v>550</v>
       </c>
@@ -49980,8 +49977,8 @@
       </c>
     </row>
     <row r="285" spans="1:7" ht="50" customHeight="1">
-      <c r="A285" s="39"/>
-      <c r="B285" s="39"/>
+      <c r="A285" s="42"/>
+      <c r="B285" s="42"/>
       <c r="C285" s="8" t="s">
         <v>552</v>
       </c>
@@ -49995,8 +49992,8 @@
       </c>
     </row>
     <row r="286" spans="1:7" ht="50" customHeight="1">
-      <c r="A286" s="39"/>
-      <c r="B286" s="39"/>
+      <c r="A286" s="42"/>
+      <c r="B286" s="42"/>
       <c r="C286" s="8" t="s">
         <v>554</v>
       </c>
@@ -50010,8 +50007,8 @@
       </c>
     </row>
     <row r="287" spans="1:7" ht="50" customHeight="1">
-      <c r="A287" s="39"/>
-      <c r="B287" s="39"/>
+      <c r="A287" s="42"/>
+      <c r="B287" s="42"/>
       <c r="C287" s="8" t="s">
         <v>556</v>
       </c>
@@ -50025,8 +50022,8 @@
       </c>
     </row>
     <row r="288" spans="1:7" ht="50" customHeight="1">
-      <c r="A288" s="39"/>
-      <c r="B288" s="39"/>
+      <c r="A288" s="42"/>
+      <c r="B288" s="42"/>
       <c r="C288" s="8" t="s">
         <v>558</v>
       </c>
@@ -50040,8 +50037,8 @@
       </c>
     </row>
     <row r="289" spans="1:7" ht="50" customHeight="1">
-      <c r="A289" s="39"/>
-      <c r="B289" s="39"/>
+      <c r="A289" s="42"/>
+      <c r="B289" s="42"/>
       <c r="C289" s="8" t="s">
         <v>560</v>
       </c>
@@ -50055,8 +50052,8 @@
       </c>
     </row>
     <row r="290" spans="1:7" ht="50" customHeight="1">
-      <c r="A290" s="39"/>
-      <c r="B290" s="39"/>
+      <c r="A290" s="42"/>
+      <c r="B290" s="42"/>
       <c r="C290" s="8" t="s">
         <v>562</v>
       </c>
@@ -50070,8 +50067,8 @@
       </c>
     </row>
     <row r="291" spans="1:7" ht="50" customHeight="1">
-      <c r="A291" s="39"/>
-      <c r="B291" s="39"/>
+      <c r="A291" s="42"/>
+      <c r="B291" s="42"/>
       <c r="C291" s="8" t="s">
         <v>564</v>
       </c>
@@ -50085,8 +50082,8 @@
       </c>
     </row>
     <row r="292" spans="1:7" ht="50" customHeight="1">
-      <c r="A292" s="39"/>
-      <c r="B292" s="39"/>
+      <c r="A292" s="42"/>
+      <c r="B292" s="42"/>
       <c r="C292" s="8" t="s">
         <v>566</v>
       </c>
@@ -50100,8 +50097,8 @@
       </c>
     </row>
     <row r="293" spans="1:7" ht="50" customHeight="1">
-      <c r="A293" s="39"/>
-      <c r="B293" s="39"/>
+      <c r="A293" s="42"/>
+      <c r="B293" s="42"/>
       <c r="C293" s="8" t="s">
         <v>568</v>
       </c>
@@ -50115,8 +50112,8 @@
       </c>
     </row>
     <row r="294" spans="1:7" ht="50" customHeight="1">
-      <c r="A294" s="39"/>
-      <c r="B294" s="39"/>
+      <c r="A294" s="42"/>
+      <c r="B294" s="42"/>
       <c r="C294" s="8" t="s">
         <v>570</v>
       </c>
@@ -50130,8 +50127,8 @@
       </c>
     </row>
     <row r="295" spans="1:7" ht="50" customHeight="1">
-      <c r="A295" s="39"/>
-      <c r="B295" s="39"/>
+      <c r="A295" s="42"/>
+      <c r="B295" s="42"/>
       <c r="C295" s="8" t="s">
         <v>572</v>
       </c>
@@ -50145,8 +50142,8 @@
       </c>
     </row>
     <row r="296" spans="1:7" ht="50" customHeight="1">
-      <c r="A296" s="39"/>
-      <c r="B296" s="39"/>
+      <c r="A296" s="42"/>
+      <c r="B296" s="42"/>
       <c r="C296" s="8" t="s">
         <v>574</v>
       </c>
@@ -50160,8 +50157,8 @@
       </c>
     </row>
     <row r="297" spans="1:7" ht="50" customHeight="1">
-      <c r="A297" s="39"/>
-      <c r="B297" s="39"/>
+      <c r="A297" s="42"/>
+      <c r="B297" s="42"/>
       <c r="C297" s="8" t="s">
         <v>576</v>
       </c>
@@ -50175,8 +50172,8 @@
       </c>
     </row>
     <row r="298" spans="1:7" ht="50" customHeight="1">
-      <c r="A298" s="39"/>
-      <c r="B298" s="39"/>
+      <c r="A298" s="42"/>
+      <c r="B298" s="42"/>
       <c r="C298" s="8" t="s">
         <v>578</v>
       </c>
@@ -50190,8 +50187,8 @@
       </c>
     </row>
     <row r="299" spans="1:7" ht="50" customHeight="1">
-      <c r="A299" s="39"/>
-      <c r="B299" s="39"/>
+      <c r="A299" s="42"/>
+      <c r="B299" s="42"/>
       <c r="C299" s="8" t="s">
         <v>580</v>
       </c>
@@ -50205,8 +50202,8 @@
       </c>
     </row>
     <row r="300" spans="1:7" ht="50" customHeight="1">
-      <c r="A300" s="39"/>
-      <c r="B300" s="39"/>
+      <c r="A300" s="42"/>
+      <c r="B300" s="42"/>
       <c r="C300" s="8" t="s">
         <v>582</v>
       </c>
@@ -50220,8 +50217,8 @@
       </c>
     </row>
     <row r="301" spans="1:7" ht="50" customHeight="1">
-      <c r="A301" s="39"/>
-      <c r="B301" s="39"/>
+      <c r="A301" s="42"/>
+      <c r="B301" s="42"/>
       <c r="C301" s="8" t="s">
         <v>584</v>
       </c>
@@ -50235,8 +50232,8 @@
       </c>
     </row>
     <row r="302" spans="1:7" ht="50" customHeight="1">
-      <c r="A302" s="39"/>
-      <c r="B302" s="39"/>
+      <c r="A302" s="42"/>
+      <c r="B302" s="42"/>
       <c r="C302" s="8" t="s">
         <v>586</v>
       </c>
@@ -50250,8 +50247,8 @@
       </c>
     </row>
     <row r="303" spans="1:7" ht="50" customHeight="1">
-      <c r="A303" s="39"/>
-      <c r="B303" s="39"/>
+      <c r="A303" s="42"/>
+      <c r="B303" s="42"/>
       <c r="C303" s="8" t="s">
         <v>588</v>
       </c>
@@ -50265,8 +50262,8 @@
       </c>
     </row>
     <row r="304" spans="1:7" ht="50" customHeight="1">
-      <c r="A304" s="39"/>
-      <c r="B304" s="39"/>
+      <c r="A304" s="42"/>
+      <c r="B304" s="42"/>
       <c r="C304" s="8" t="s">
         <v>590</v>
       </c>
@@ -50280,8 +50277,8 @@
       </c>
     </row>
     <row r="305" spans="1:7" ht="50" customHeight="1">
-      <c r="A305" s="39"/>
-      <c r="B305" s="39"/>
+      <c r="A305" s="42"/>
+      <c r="B305" s="42"/>
       <c r="C305" s="8" t="s">
         <v>592</v>
       </c>
@@ -50295,8 +50292,8 @@
       </c>
     </row>
     <row r="306" spans="1:7" ht="50" customHeight="1">
-      <c r="A306" s="39"/>
-      <c r="B306" s="40"/>
+      <c r="A306" s="42"/>
+      <c r="B306" s="43"/>
       <c r="C306" s="8" t="s">
         <v>594</v>
       </c>
@@ -50310,7 +50307,7 @@
       </c>
     </row>
     <row r="307" spans="1:7" ht="50" customHeight="1">
-      <c r="A307" s="39"/>
+      <c r="A307" s="42"/>
       <c r="B307" s="14" t="s">
         <v>899</v>
       </c>
@@ -50321,7 +50318,7 @@
         <v>597</v>
       </c>
       <c r="E307" s="10" t="s">
-        <v>976</v>
+        <v>944</v>
       </c>
       <c r="F307" s="10"/>
       <c r="G307" s="28" t="s">
@@ -50329,7 +50326,7 @@
       </c>
     </row>
     <row r="308" spans="1:7" ht="50" customHeight="1">
-      <c r="A308" s="39"/>
+      <c r="A308" s="42"/>
       <c r="B308" s="14" t="s">
         <v>900</v>
       </c>
@@ -50340,7 +50337,7 @@
         <v>599</v>
       </c>
       <c r="E308" s="10" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="F308" s="10"/>
       <c r="G308" s="28" t="s">
@@ -50348,8 +50345,8 @@
       </c>
     </row>
     <row r="309" spans="1:7" ht="50" customHeight="1">
-      <c r="A309" s="39"/>
-      <c r="B309" s="38" t="s">
+      <c r="A309" s="42"/>
+      <c r="B309" s="41" t="s">
         <v>901</v>
       </c>
       <c r="C309" s="8" t="s">
@@ -50359,7 +50356,7 @@
         <v>601</v>
       </c>
       <c r="E309" s="10" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="F309" s="10"/>
       <c r="G309" s="21" t="s">
@@ -50367,8 +50364,8 @@
       </c>
     </row>
     <row r="310" spans="1:7" ht="50" customHeight="1">
-      <c r="A310" s="39"/>
-      <c r="B310" s="39"/>
+      <c r="A310" s="42"/>
+      <c r="B310" s="42"/>
       <c r="C310" s="8" t="s">
         <v>602</v>
       </c>
@@ -50376,7 +50373,7 @@
         <v>603</v>
       </c>
       <c r="E310" s="10" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="F310" s="10"/>
       <c r="G310" s="21" t="s">
@@ -50384,8 +50381,8 @@
       </c>
     </row>
     <row r="311" spans="1:7" ht="50" customHeight="1">
-      <c r="A311" s="39"/>
-      <c r="B311" s="39"/>
+      <c r="A311" s="42"/>
+      <c r="B311" s="42"/>
       <c r="C311" s="8" t="s">
         <v>604</v>
       </c>
@@ -50393,7 +50390,7 @@
         <v>605</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="F311" s="10"/>
       <c r="G311" s="21" t="s">
@@ -50401,8 +50398,8 @@
       </c>
     </row>
     <row r="312" spans="1:7" ht="50" customHeight="1">
-      <c r="A312" s="39"/>
-      <c r="B312" s="39"/>
+      <c r="A312" s="42"/>
+      <c r="B312" s="42"/>
       <c r="C312" s="35" t="s">
         <v>907</v>
       </c>
@@ -50416,8 +50413,8 @@
       </c>
     </row>
     <row r="313" spans="1:7" ht="50" customHeight="1">
-      <c r="A313" s="39"/>
-      <c r="B313" s="40"/>
+      <c r="A313" s="42"/>
+      <c r="B313" s="43"/>
       <c r="C313" s="35" t="s">
         <v>909</v>
       </c>
@@ -50431,8 +50428,8 @@
       </c>
     </row>
     <row r="314" spans="1:7" ht="50" customHeight="1">
-      <c r="A314" s="39"/>
-      <c r="B314" s="38" t="s">
+      <c r="A314" s="42"/>
+      <c r="B314" s="41" t="s">
         <v>902</v>
       </c>
       <c r="C314" s="8" t="s">
@@ -50442,7 +50439,7 @@
         <v>607</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="F314" s="16"/>
       <c r="G314" s="28" t="s">
@@ -50450,8 +50447,8 @@
       </c>
     </row>
     <row r="315" spans="1:7" ht="50" customHeight="1">
-      <c r="A315" s="39"/>
-      <c r="B315" s="39"/>
+      <c r="A315" s="42"/>
+      <c r="B315" s="42"/>
       <c r="C315" s="8" t="s">
         <v>608</v>
       </c>
@@ -50459,7 +50456,7 @@
         <v>609</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="F315" s="16"/>
       <c r="G315" s="28" t="s">
@@ -50467,8 +50464,8 @@
       </c>
     </row>
     <row r="316" spans="1:7" ht="50" customHeight="1">
-      <c r="A316" s="39"/>
-      <c r="B316" s="40"/>
+      <c r="A316" s="42"/>
+      <c r="B316" s="43"/>
       <c r="C316" s="8" t="s">
         <v>610</v>
       </c>
@@ -50482,8 +50479,8 @@
       </c>
     </row>
     <row r="317" spans="1:7" ht="50" customHeight="1">
-      <c r="A317" s="39"/>
-      <c r="B317" s="38" t="s">
+      <c r="A317" s="42"/>
+      <c r="B317" s="41" t="s">
         <v>903</v>
       </c>
       <c r="C317" s="8" t="s">
@@ -50493,7 +50490,7 @@
         <v>613</v>
       </c>
       <c r="E317" s="10" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="F317" s="10"/>
       <c r="G317" s="28" t="s">
@@ -50501,8 +50498,8 @@
       </c>
     </row>
     <row r="318" spans="1:7" ht="50" customHeight="1">
-      <c r="A318" s="39"/>
-      <c r="B318" s="39"/>
+      <c r="A318" s="42"/>
+      <c r="B318" s="42"/>
       <c r="C318" s="8" t="s">
         <v>614</v>
       </c>
@@ -50510,7 +50507,7 @@
         <v>615</v>
       </c>
       <c r="E318" s="10" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="F318" s="10"/>
       <c r="G318" s="28" t="s">
@@ -50518,8 +50515,8 @@
       </c>
     </row>
     <row r="319" spans="1:7" ht="50" customHeight="1">
-      <c r="A319" s="39"/>
-      <c r="B319" s="39"/>
+      <c r="A319" s="42"/>
+      <c r="B319" s="42"/>
       <c r="C319" s="8" t="s">
         <v>616</v>
       </c>
@@ -50527,7 +50524,7 @@
         <v>617</v>
       </c>
       <c r="E319" s="10" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="F319" s="10"/>
       <c r="G319" s="28" t="s">
@@ -50535,8 +50532,8 @@
       </c>
     </row>
     <row r="320" spans="1:7" ht="50" customHeight="1">
-      <c r="A320" s="39"/>
-      <c r="B320" s="39"/>
+      <c r="A320" s="42"/>
+      <c r="B320" s="42"/>
       <c r="C320" s="8" t="s">
         <v>618</v>
       </c>
@@ -50550,8 +50547,8 @@
       </c>
     </row>
     <row r="321" spans="1:7" ht="50" customHeight="1">
-      <c r="A321" s="39"/>
-      <c r="B321" s="39"/>
+      <c r="A321" s="42"/>
+      <c r="B321" s="42"/>
       <c r="C321" s="8" t="s">
         <v>620</v>
       </c>
@@ -50565,8 +50562,8 @@
       </c>
     </row>
     <row r="322" spans="1:7" ht="50" customHeight="1">
-      <c r="A322" s="39"/>
-      <c r="B322" s="39"/>
+      <c r="A322" s="42"/>
+      <c r="B322" s="42"/>
       <c r="C322" s="8" t="s">
         <v>622</v>
       </c>
@@ -50580,8 +50577,8 @@
       </c>
     </row>
     <row r="323" spans="1:7" ht="50" customHeight="1">
-      <c r="A323" s="39"/>
-      <c r="B323" s="39"/>
+      <c r="A323" s="42"/>
+      <c r="B323" s="42"/>
       <c r="C323" s="8" t="s">
         <v>624</v>
       </c>
@@ -50595,8 +50592,8 @@
       </c>
     </row>
     <row r="324" spans="1:7" ht="50" customHeight="1">
-      <c r="A324" s="39"/>
-      <c r="B324" s="39"/>
+      <c r="A324" s="42"/>
+      <c r="B324" s="42"/>
       <c r="C324" s="8" t="s">
         <v>626</v>
       </c>
@@ -50610,8 +50607,8 @@
       </c>
     </row>
     <row r="325" spans="1:7" ht="50" customHeight="1">
-      <c r="A325" s="39"/>
-      <c r="B325" s="39"/>
+      <c r="A325" s="42"/>
+      <c r="B325" s="42"/>
       <c r="C325" s="8" t="s">
         <v>628</v>
       </c>
@@ -50625,8 +50622,8 @@
       </c>
     </row>
     <row r="326" spans="1:7" ht="50" customHeight="1">
-      <c r="A326" s="39"/>
-      <c r="B326" s="40"/>
+      <c r="A326" s="42"/>
+      <c r="B326" s="43"/>
       <c r="C326" s="8" t="s">
         <v>630</v>
       </c>
@@ -50640,7 +50637,7 @@
       </c>
     </row>
     <row r="327" spans="1:7" ht="50" customHeight="1">
-      <c r="A327" s="39"/>
+      <c r="A327" s="42"/>
       <c r="B327" s="14" t="s">
         <v>904</v>
       </c>
@@ -50651,7 +50648,7 @@
         <v>633</v>
       </c>
       <c r="E327" s="10" t="s">
-        <v>983</v>
+        <v>969</v>
       </c>
       <c r="F327" s="10"/>
       <c r="G327" s="28" t="s">
@@ -50659,8 +50656,8 @@
       </c>
     </row>
     <row r="328" spans="1:7" ht="50" customHeight="1">
-      <c r="A328" s="39"/>
-      <c r="B328" s="38" t="s">
+      <c r="A328" s="42"/>
+      <c r="B328" s="41" t="s">
         <v>905</v>
       </c>
       <c r="C328" s="8" t="s">
@@ -50676,8 +50673,8 @@
       </c>
     </row>
     <row r="329" spans="1:7" ht="50" customHeight="1">
-      <c r="A329" s="39"/>
-      <c r="B329" s="39"/>
+      <c r="A329" s="42"/>
+      <c r="B329" s="42"/>
       <c r="C329" s="8" t="s">
         <v>636</v>
       </c>
@@ -50691,8 +50688,8 @@
       </c>
     </row>
     <row r="330" spans="1:7" ht="50" customHeight="1">
-      <c r="A330" s="39"/>
-      <c r="B330" s="39"/>
+      <c r="A330" s="42"/>
+      <c r="B330" s="42"/>
       <c r="C330" s="8" t="s">
         <v>638</v>
       </c>
@@ -50706,8 +50703,8 @@
       </c>
     </row>
     <row r="331" spans="1:7" ht="50" customHeight="1">
-      <c r="A331" s="39"/>
-      <c r="B331" s="39"/>
+      <c r="A331" s="42"/>
+      <c r="B331" s="42"/>
       <c r="C331" s="8" t="s">
         <v>640</v>
       </c>
@@ -50721,8 +50718,8 @@
       </c>
     </row>
     <row r="332" spans="1:7" ht="50" customHeight="1">
-      <c r="A332" s="40"/>
-      <c r="B332" s="40"/>
+      <c r="A332" s="43"/>
+      <c r="B332" s="43"/>
       <c r="C332" s="8" t="s">
         <v>642</v>
       </c>
@@ -50736,7 +50733,7 @@
       </c>
     </row>
     <row r="333" spans="1:7" ht="50" customHeight="1">
-      <c r="A333" s="38" t="s">
+      <c r="A333" s="41" t="s">
         <v>871</v>
       </c>
       <c r="C333" s="8" t="s">
@@ -50746,7 +50743,7 @@
         <v>645</v>
       </c>
       <c r="E333" s="10" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="F333" s="10"/>
       <c r="G333" s="31" t="s">
@@ -50754,7 +50751,7 @@
       </c>
     </row>
     <row r="334" spans="1:7" ht="50" customHeight="1">
-      <c r="A334" s="39"/>
+      <c r="A334" s="42"/>
       <c r="C334" s="8" t="s">
         <v>646</v>
       </c>
@@ -50768,7 +50765,7 @@
       </c>
     </row>
     <row r="335" spans="1:7" ht="50" customHeight="1">
-      <c r="A335" s="39"/>
+      <c r="A335" s="42"/>
       <c r="C335" s="8" t="s">
         <v>648</v>
       </c>
@@ -50782,7 +50779,7 @@
       </c>
     </row>
     <row r="336" spans="1:7" ht="50" customHeight="1">
-      <c r="A336" s="39"/>
+      <c r="A336" s="42"/>
       <c r="C336" s="8" t="s">
         <v>650</v>
       </c>
@@ -50796,7 +50793,7 @@
       </c>
     </row>
     <row r="337" spans="1:7" ht="50" customHeight="1">
-      <c r="A337" s="39"/>
+      <c r="A337" s="42"/>
       <c r="C337" s="8" t="s">
         <v>652</v>
       </c>
@@ -50810,7 +50807,7 @@
       </c>
     </row>
     <row r="338" spans="1:7" ht="50" customHeight="1">
-      <c r="A338" s="39"/>
+      <c r="A338" s="42"/>
       <c r="C338" s="8" t="s">
         <v>654</v>
       </c>
@@ -50824,7 +50821,7 @@
       </c>
     </row>
     <row r="339" spans="1:7" ht="50" customHeight="1">
-      <c r="A339" s="39"/>
+      <c r="A339" s="42"/>
       <c r="C339" s="8" t="s">
         <v>656</v>
       </c>
@@ -50832,7 +50829,7 @@
         <v>657</v>
       </c>
       <c r="E339" s="10" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="F339" s="10"/>
       <c r="G339" s="30" t="s">
@@ -50840,7 +50837,7 @@
       </c>
     </row>
     <row r="340" spans="1:7" ht="50" customHeight="1">
-      <c r="A340" s="39"/>
+      <c r="A340" s="42"/>
       <c r="C340" s="8" t="s">
         <v>658</v>
       </c>
@@ -50854,7 +50851,7 @@
       </c>
     </row>
     <row r="341" spans="1:7" ht="50" customHeight="1">
-      <c r="A341" s="39"/>
+      <c r="A341" s="42"/>
       <c r="C341" s="8" t="s">
         <v>660</v>
       </c>
@@ -50868,7 +50865,7 @@
       </c>
     </row>
     <row r="342" spans="1:7" ht="50" customHeight="1">
-      <c r="A342" s="39"/>
+      <c r="A342" s="42"/>
       <c r="C342" s="8" t="s">
         <v>662</v>
       </c>
@@ -50876,7 +50873,7 @@
         <v>663</v>
       </c>
       <c r="E342" s="10" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="F342" s="10"/>
       <c r="G342" s="30" t="s">
@@ -50884,7 +50881,7 @@
       </c>
     </row>
     <row r="343" spans="1:7" ht="50" customHeight="1">
-      <c r="A343" s="39"/>
+      <c r="A343" s="42"/>
       <c r="C343" s="8" t="s">
         <v>664</v>
       </c>
@@ -50898,7 +50895,7 @@
       </c>
     </row>
     <row r="344" spans="1:7" ht="50" customHeight="1">
-      <c r="A344" s="39"/>
+      <c r="A344" s="42"/>
       <c r="C344" s="8" t="s">
         <v>666</v>
       </c>
@@ -50912,7 +50909,7 @@
       </c>
     </row>
     <row r="345" spans="1:7" ht="50" customHeight="1">
-      <c r="A345" s="39"/>
+      <c r="A345" s="42"/>
       <c r="C345" s="8" t="s">
         <v>668</v>
       </c>
@@ -50926,7 +50923,7 @@
       </c>
     </row>
     <row r="346" spans="1:7" ht="50" customHeight="1">
-      <c r="A346" s="39"/>
+      <c r="A346" s="42"/>
       <c r="C346" s="35" t="s">
         <v>924</v>
       </c>
@@ -50940,7 +50937,7 @@
       </c>
     </row>
     <row r="347" spans="1:7" ht="50" customHeight="1">
-      <c r="A347" s="39"/>
+      <c r="A347" s="42"/>
       <c r="C347" s="8" t="s">
         <v>670</v>
       </c>
@@ -50948,7 +50945,7 @@
         <v>671</v>
       </c>
       <c r="E347" s="10" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="F347" s="10"/>
       <c r="G347" s="31" t="s">
@@ -50956,7 +50953,7 @@
       </c>
     </row>
     <row r="348" spans="1:7" ht="50" customHeight="1">
-      <c r="A348" s="39"/>
+      <c r="A348" s="42"/>
       <c r="C348" s="8" t="s">
         <v>672</v>
       </c>
@@ -50964,7 +50961,7 @@
         <v>673</v>
       </c>
       <c r="E348" s="10" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="F348" s="10"/>
       <c r="G348" s="31" t="s">
@@ -50972,7 +50969,7 @@
       </c>
     </row>
     <row r="349" spans="1:7" ht="50" customHeight="1">
-      <c r="A349" s="39"/>
+      <c r="A349" s="42"/>
       <c r="C349" s="8" t="s">
         <v>674</v>
       </c>
@@ -50986,7 +50983,7 @@
       </c>
     </row>
     <row r="350" spans="1:7" ht="50" customHeight="1">
-      <c r="A350" s="39"/>
+      <c r="A350" s="42"/>
       <c r="C350" s="8" t="s">
         <v>676</v>
       </c>
@@ -51000,7 +50997,7 @@
       </c>
     </row>
     <row r="351" spans="1:7" ht="50" customHeight="1">
-      <c r="A351" s="39"/>
+      <c r="A351" s="42"/>
       <c r="C351" s="8" t="s">
         <v>678</v>
       </c>
@@ -51008,7 +51005,7 @@
         <v>679</v>
       </c>
       <c r="E351" s="10" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="F351" s="10"/>
       <c r="G351" s="31" t="s">
@@ -51016,7 +51013,7 @@
       </c>
     </row>
     <row r="352" spans="1:7" ht="50" customHeight="1">
-      <c r="A352" s="39"/>
+      <c r="A352" s="42"/>
       <c r="C352" s="8" t="s">
         <v>680</v>
       </c>
@@ -51030,7 +51027,7 @@
       </c>
     </row>
     <row r="353" spans="1:7" ht="50" customHeight="1">
-      <c r="A353" s="39"/>
+      <c r="A353" s="42"/>
       <c r="C353" s="8" t="s">
         <v>682</v>
       </c>
@@ -51038,7 +51035,7 @@
         <v>683</v>
       </c>
       <c r="E353" s="10" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="F353" s="10"/>
       <c r="G353" s="31" t="s">
@@ -51046,7 +51043,7 @@
       </c>
     </row>
     <row r="354" spans="1:7" ht="50" customHeight="1">
-      <c r="A354" s="39"/>
+      <c r="A354" s="42"/>
       <c r="C354" s="8" t="s">
         <v>684</v>
       </c>
@@ -51060,7 +51057,7 @@
       </c>
     </row>
     <row r="355" spans="1:7" ht="50" customHeight="1">
-      <c r="A355" s="39"/>
+      <c r="A355" s="42"/>
       <c r="C355" s="8" t="s">
         <v>686</v>
       </c>
@@ -51068,7 +51065,7 @@
         <v>687</v>
       </c>
       <c r="E355" s="10" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="F355" s="10"/>
       <c r="G355" s="31" t="s">
@@ -51076,7 +51073,7 @@
       </c>
     </row>
     <row r="356" spans="1:7" ht="50" customHeight="1">
-      <c r="A356" s="39"/>
+      <c r="A356" s="42"/>
       <c r="C356" s="8" t="s">
         <v>688</v>
       </c>
@@ -51084,7 +51081,7 @@
         <v>689</v>
       </c>
       <c r="E356" s="10" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="F356" s="10"/>
       <c r="G356" s="31" t="s">
@@ -51092,7 +51089,7 @@
       </c>
     </row>
     <row r="357" spans="1:7" ht="50" customHeight="1">
-      <c r="A357" s="39"/>
+      <c r="A357" s="42"/>
       <c r="C357" s="8" t="s">
         <v>690</v>
       </c>
@@ -51100,7 +51097,7 @@
         <v>691</v>
       </c>
       <c r="E357" s="10" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="F357" s="10"/>
       <c r="G357" s="31" t="s">
@@ -51108,7 +51105,7 @@
       </c>
     </row>
     <row r="358" spans="1:7" ht="50" customHeight="1">
-      <c r="A358" s="39"/>
+      <c r="A358" s="42"/>
       <c r="C358" s="8" t="s">
         <v>692</v>
       </c>
@@ -51116,7 +51113,7 @@
         <v>693</v>
       </c>
       <c r="E358" s="10" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="F358" s="10"/>
       <c r="G358" s="31" t="s">
@@ -51124,7 +51121,7 @@
       </c>
     </row>
     <row r="359" spans="1:7" ht="50" customHeight="1">
-      <c r="A359" s="39"/>
+      <c r="A359" s="42"/>
       <c r="C359" s="8" t="s">
         <v>694</v>
       </c>
@@ -51138,7 +51135,7 @@
       </c>
     </row>
     <row r="360" spans="1:7" ht="50" customHeight="1">
-      <c r="A360" s="39"/>
+      <c r="A360" s="42"/>
       <c r="C360" s="8" t="s">
         <v>696</v>
       </c>
@@ -51152,7 +51149,7 @@
       </c>
     </row>
     <row r="361" spans="1:7" ht="50" customHeight="1">
-      <c r="A361" s="39"/>
+      <c r="A361" s="42"/>
       <c r="C361" s="8" t="s">
         <v>698</v>
       </c>
@@ -51166,7 +51163,7 @@
       </c>
     </row>
     <row r="362" spans="1:7" ht="50" customHeight="1">
-      <c r="A362" s="39"/>
+      <c r="A362" s="42"/>
       <c r="C362" s="8" t="s">
         <v>700</v>
       </c>
@@ -51180,7 +51177,7 @@
       </c>
     </row>
     <row r="363" spans="1:7" ht="50" customHeight="1">
-      <c r="A363" s="39"/>
+      <c r="A363" s="42"/>
       <c r="C363" s="8" t="s">
         <v>702</v>
       </c>
@@ -51194,7 +51191,7 @@
       </c>
     </row>
     <row r="364" spans="1:7" ht="50" customHeight="1">
-      <c r="A364" s="39"/>
+      <c r="A364" s="42"/>
       <c r="C364" s="8" t="s">
         <v>704</v>
       </c>
@@ -51202,7 +51199,7 @@
         <v>705</v>
       </c>
       <c r="E364" s="10" t="s">
-        <v>989</v>
+        <v>945</v>
       </c>
       <c r="F364" s="10"/>
       <c r="G364" s="31" t="s">
@@ -51210,7 +51207,7 @@
       </c>
     </row>
     <row r="365" spans="1:7" ht="50" customHeight="1">
-      <c r="A365" s="39"/>
+      <c r="A365" s="42"/>
       <c r="C365" s="8" t="s">
         <v>706</v>
       </c>
@@ -51218,7 +51215,7 @@
         <v>707</v>
       </c>
       <c r="E365" s="10" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="F365" s="10"/>
       <c r="G365" s="31" t="s">
@@ -51226,7 +51223,7 @@
       </c>
     </row>
     <row r="366" spans="1:7" ht="50" customHeight="1">
-      <c r="A366" s="39"/>
+      <c r="A366" s="42"/>
       <c r="C366" s="8" t="s">
         <v>708</v>
       </c>
@@ -51240,7 +51237,7 @@
       </c>
     </row>
     <row r="367" spans="1:7" ht="50" customHeight="1">
-      <c r="A367" s="39"/>
+      <c r="A367" s="42"/>
       <c r="C367" s="8" t="s">
         <v>710</v>
       </c>
@@ -51248,7 +51245,7 @@
         <v>711</v>
       </c>
       <c r="E367" s="10" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="F367" s="10"/>
       <c r="G367" s="31" t="s">
@@ -51256,7 +51253,7 @@
       </c>
     </row>
     <row r="368" spans="1:7" ht="50" customHeight="1">
-      <c r="A368" s="39"/>
+      <c r="A368" s="42"/>
       <c r="C368" s="8" t="s">
         <v>712</v>
       </c>
@@ -51264,7 +51261,7 @@
         <v>713</v>
       </c>
       <c r="E368" s="10" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
       <c r="F368" s="10"/>
       <c r="G368" s="31" t="s">
@@ -51272,7 +51269,7 @@
       </c>
     </row>
     <row r="369" spans="1:7" ht="50" customHeight="1">
-      <c r="A369" s="39"/>
+      <c r="A369" s="42"/>
       <c r="C369" s="8" t="s">
         <v>714</v>
       </c>
@@ -51280,7 +51277,7 @@
         <v>715</v>
       </c>
       <c r="E369" s="10" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="F369" s="10"/>
       <c r="G369" s="31" t="s">
@@ -51288,7 +51285,7 @@
       </c>
     </row>
     <row r="370" spans="1:7" ht="50" customHeight="1">
-      <c r="A370" s="39"/>
+      <c r="A370" s="42"/>
       <c r="C370" s="8" t="s">
         <v>716</v>
       </c>
@@ -51296,7 +51293,7 @@
         <v>717</v>
       </c>
       <c r="E370" s="10" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
       <c r="F370" s="10"/>
       <c r="G370" s="31" t="s">
@@ -51304,7 +51301,7 @@
       </c>
     </row>
     <row r="371" spans="1:7" ht="50" customHeight="1">
-      <c r="A371" s="39"/>
+      <c r="A371" s="42"/>
       <c r="C371" s="8" t="s">
         <v>718</v>
       </c>
@@ -51312,7 +51309,7 @@
         <v>719</v>
       </c>
       <c r="E371" s="10" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="F371" s="10"/>
       <c r="G371" s="31" t="s">
@@ -51320,7 +51317,7 @@
       </c>
     </row>
     <row r="372" spans="1:7" ht="50" customHeight="1">
-      <c r="A372" s="39"/>
+      <c r="A372" s="42"/>
       <c r="C372" s="8" t="s">
         <v>720</v>
       </c>
@@ -51328,7 +51325,7 @@
         <v>721</v>
       </c>
       <c r="E372" s="10" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
       <c r="F372" s="10"/>
       <c r="G372" s="31" t="s">
@@ -51336,7 +51333,7 @@
       </c>
     </row>
     <row r="373" spans="1:7" ht="50" customHeight="1">
-      <c r="A373" s="39"/>
+      <c r="A373" s="42"/>
       <c r="C373" s="8" t="s">
         <v>722</v>
       </c>
@@ -51344,7 +51341,7 @@
         <v>723</v>
       </c>
       <c r="E373" s="10" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="F373" s="10"/>
       <c r="G373" s="31" t="s">
@@ -51352,7 +51349,7 @@
       </c>
     </row>
     <row r="374" spans="1:7" ht="50" customHeight="1">
-      <c r="A374" s="39"/>
+      <c r="A374" s="42"/>
       <c r="C374" s="8" t="s">
         <v>724</v>
       </c>
@@ -51360,7 +51357,7 @@
         <v>725</v>
       </c>
       <c r="E374" s="10" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="F374" s="10"/>
       <c r="G374" s="31" t="s">
@@ -51368,7 +51365,7 @@
       </c>
     </row>
     <row r="375" spans="1:7" ht="50" customHeight="1">
-      <c r="A375" s="39"/>
+      <c r="A375" s="42"/>
       <c r="C375" s="8" t="s">
         <v>726</v>
       </c>
@@ -51376,7 +51373,7 @@
         <v>727</v>
       </c>
       <c r="E375" s="10" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="F375" s="10"/>
       <c r="G375" s="31" t="s">
@@ -51384,7 +51381,7 @@
       </c>
     </row>
     <row r="376" spans="1:7" ht="50" customHeight="1">
-      <c r="A376" s="39"/>
+      <c r="A376" s="42"/>
       <c r="C376" s="8" t="s">
         <v>728</v>
       </c>
@@ -51392,7 +51389,7 @@
         <v>729</v>
       </c>
       <c r="E376" s="10" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="F376" s="10"/>
       <c r="G376" s="31" t="s">
@@ -51400,7 +51397,7 @@
       </c>
     </row>
     <row r="377" spans="1:7" ht="50" customHeight="1">
-      <c r="A377" s="39"/>
+      <c r="A377" s="42"/>
       <c r="C377" s="8" t="s">
         <v>730</v>
       </c>
@@ -51414,7 +51411,7 @@
       </c>
     </row>
     <row r="378" spans="1:7" ht="50" customHeight="1">
-      <c r="A378" s="39"/>
+      <c r="A378" s="42"/>
       <c r="C378" s="8" t="s">
         <v>732</v>
       </c>
@@ -51422,7 +51419,7 @@
         <v>733</v>
       </c>
       <c r="E378" s="10" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="F378" s="10"/>
       <c r="G378" s="31" t="s">
@@ -51430,7 +51427,7 @@
       </c>
     </row>
     <row r="379" spans="1:7" ht="50" customHeight="1">
-      <c r="A379" s="39"/>
+      <c r="A379" s="42"/>
       <c r="C379" s="8" t="s">
         <v>734</v>
       </c>
@@ -51444,7 +51441,7 @@
       </c>
     </row>
     <row r="380" spans="1:7" ht="50" customHeight="1">
-      <c r="A380" s="39"/>
+      <c r="A380" s="42"/>
       <c r="C380" s="8" t="s">
         <v>736</v>
       </c>
@@ -51458,7 +51455,7 @@
       </c>
     </row>
     <row r="381" spans="1:7" ht="50" customHeight="1">
-      <c r="A381" s="39"/>
+      <c r="A381" s="42"/>
       <c r="C381" s="8" t="s">
         <v>738</v>
       </c>
@@ -51472,7 +51469,7 @@
       </c>
     </row>
     <row r="382" spans="1:7" ht="50" customHeight="1">
-      <c r="A382" s="39"/>
+      <c r="A382" s="42"/>
       <c r="C382" s="8" t="s">
         <v>740</v>
       </c>
@@ -51486,7 +51483,7 @@
       </c>
     </row>
     <row r="383" spans="1:7" ht="50" customHeight="1">
-      <c r="A383" s="39"/>
+      <c r="A383" s="42"/>
       <c r="C383" s="8" t="s">
         <v>742</v>
       </c>
@@ -51500,7 +51497,7 @@
       </c>
     </row>
     <row r="384" spans="1:7" ht="50" customHeight="1">
-      <c r="A384" s="39"/>
+      <c r="A384" s="42"/>
       <c r="C384" s="8" t="s">
         <v>744</v>
       </c>
@@ -51514,7 +51511,7 @@
       </c>
     </row>
     <row r="385" spans="1:7" ht="50" customHeight="1">
-      <c r="A385" s="39"/>
+      <c r="A385" s="42"/>
       <c r="C385" s="8" t="s">
         <v>746</v>
       </c>
@@ -51522,7 +51519,7 @@
         <v>747</v>
       </c>
       <c r="E385" s="10" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="F385" s="10"/>
       <c r="G385" s="31" t="s">
@@ -51530,7 +51527,7 @@
       </c>
     </row>
     <row r="386" spans="1:7" ht="50" customHeight="1">
-      <c r="A386" s="39"/>
+      <c r="A386" s="42"/>
       <c r="C386" s="8" t="s">
         <v>748</v>
       </c>
@@ -51544,7 +51541,7 @@
       </c>
     </row>
     <row r="387" spans="1:7" ht="50" customHeight="1">
-      <c r="A387" s="39"/>
+      <c r="A387" s="42"/>
       <c r="C387" s="8" t="s">
         <v>750</v>
       </c>
@@ -51552,7 +51549,7 @@
         <v>751</v>
       </c>
       <c r="E387" s="10" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="F387" s="10"/>
       <c r="G387" s="31" t="s">
@@ -51560,7 +51557,7 @@
       </c>
     </row>
     <row r="388" spans="1:7" ht="50" customHeight="1">
-      <c r="A388" s="39"/>
+      <c r="A388" s="42"/>
       <c r="C388" s="8" t="s">
         <v>752</v>
       </c>
@@ -51574,7 +51571,7 @@
       </c>
     </row>
     <row r="389" spans="1:7" ht="50" customHeight="1">
-      <c r="A389" s="39"/>
+      <c r="A389" s="42"/>
       <c r="C389" s="8" t="s">
         <v>754</v>
       </c>
@@ -51588,7 +51585,7 @@
       </c>
     </row>
     <row r="390" spans="1:7" ht="50" customHeight="1">
-      <c r="A390" s="39"/>
+      <c r="A390" s="42"/>
       <c r="C390" s="8" t="s">
         <v>756</v>
       </c>
@@ -51602,7 +51599,7 @@
       </c>
     </row>
     <row r="391" spans="1:7" ht="50" customHeight="1">
-      <c r="A391" s="39"/>
+      <c r="A391" s="42"/>
       <c r="C391" s="8" t="s">
         <v>758</v>
       </c>
@@ -51616,7 +51613,7 @@
       </c>
     </row>
     <row r="392" spans="1:7" ht="50" customHeight="1">
-      <c r="A392" s="39"/>
+      <c r="A392" s="42"/>
       <c r="C392" s="8" t="s">
         <v>760</v>
       </c>
@@ -51630,7 +51627,7 @@
       </c>
     </row>
     <row r="393" spans="1:7" ht="50" customHeight="1">
-      <c r="A393" s="39"/>
+      <c r="A393" s="42"/>
       <c r="C393" s="8" t="s">
         <v>762</v>
       </c>
@@ -51644,7 +51641,7 @@
       </c>
     </row>
     <row r="394" spans="1:7" ht="50" customHeight="1">
-      <c r="A394" s="39"/>
+      <c r="A394" s="42"/>
       <c r="C394" s="8" t="s">
         <v>764</v>
       </c>
@@ -51658,7 +51655,7 @@
       </c>
     </row>
     <row r="395" spans="1:7" ht="50" customHeight="1">
-      <c r="A395" s="39"/>
+      <c r="A395" s="42"/>
       <c r="C395" s="8" t="s">
         <v>766</v>
       </c>
@@ -51672,7 +51669,7 @@
       </c>
     </row>
     <row r="396" spans="1:7" ht="50" customHeight="1">
-      <c r="A396" s="39"/>
+      <c r="A396" s="42"/>
       <c r="C396" s="8" t="s">
         <v>768</v>
       </c>
@@ -51680,7 +51677,7 @@
         <v>769</v>
       </c>
       <c r="E396" s="10" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="F396" s="10"/>
       <c r="G396" s="31" t="s">
@@ -51688,7 +51685,7 @@
       </c>
     </row>
     <row r="397" spans="1:7" ht="50" customHeight="1">
-      <c r="A397" s="39"/>
+      <c r="A397" s="42"/>
       <c r="C397" s="8" t="s">
         <v>770</v>
       </c>
@@ -51702,7 +51699,7 @@
       </c>
     </row>
     <row r="398" spans="1:7" ht="50" customHeight="1">
-      <c r="A398" s="39"/>
+      <c r="A398" s="42"/>
       <c r="C398" s="8" t="s">
         <v>772</v>
       </c>
@@ -51716,7 +51713,7 @@
       </c>
     </row>
     <row r="399" spans="1:7" ht="50" customHeight="1">
-      <c r="A399" s="39"/>
+      <c r="A399" s="42"/>
       <c r="C399" s="8" t="s">
         <v>774</v>
       </c>
@@ -51730,7 +51727,7 @@
       </c>
     </row>
     <row r="400" spans="1:7" ht="50" customHeight="1">
-      <c r="A400" s="39"/>
+      <c r="A400" s="42"/>
       <c r="C400" s="8" t="s">
         <v>776</v>
       </c>
@@ -51738,7 +51735,7 @@
         <v>777</v>
       </c>
       <c r="E400" s="10" t="s">
-        <v>999</v>
+        <v>946</v>
       </c>
       <c r="F400" s="10"/>
       <c r="G400" s="31" t="s">
@@ -51746,7 +51743,7 @@
       </c>
     </row>
     <row r="401" spans="1:7" ht="50" customHeight="1">
-      <c r="A401" s="39"/>
+      <c r="A401" s="42"/>
       <c r="C401" s="8" t="s">
         <v>778</v>
       </c>
@@ -51760,7 +51757,7 @@
       </c>
     </row>
     <row r="402" spans="1:7" ht="50" customHeight="1">
-      <c r="A402" s="39"/>
+      <c r="A402" s="42"/>
       <c r="C402" s="8" t="s">
         <v>780</v>
       </c>
@@ -51768,7 +51765,7 @@
         <v>781</v>
       </c>
       <c r="E402" s="10" t="s">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="F402" s="10"/>
       <c r="G402" s="31" t="s">
@@ -51776,7 +51773,7 @@
       </c>
     </row>
     <row r="403" spans="1:7" ht="50" customHeight="1">
-      <c r="A403" s="39"/>
+      <c r="A403" s="42"/>
       <c r="C403" s="8" t="s">
         <v>782</v>
       </c>
@@ -51790,7 +51787,7 @@
       </c>
     </row>
     <row r="404" spans="1:7" ht="50" customHeight="1">
-      <c r="A404" s="40"/>
+      <c r="A404" s="43"/>
       <c r="C404" s="8" t="s">
         <v>784</v>
       </c>
@@ -51804,10 +51801,10 @@
       </c>
     </row>
     <row r="405" spans="1:7" ht="50" customHeight="1">
-      <c r="A405" s="38" t="s">
+      <c r="A405" s="41" t="s">
         <v>872</v>
       </c>
-      <c r="B405" s="38" t="s">
+      <c r="B405" s="41" t="s">
         <v>873</v>
       </c>
       <c r="C405" s="26" t="s">
@@ -51817,15 +51814,15 @@
         <v>787</v>
       </c>
       <c r="E405" s="13" t="s">
-        <v>1001</v>
+        <v>967</v>
       </c>
       <c r="G405" s="28" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="50" customHeight="1">
-      <c r="A406" s="39"/>
-      <c r="B406" s="39"/>
+      <c r="A406" s="42"/>
+      <c r="B406" s="42"/>
       <c r="C406" s="27" t="s">
         <v>788</v>
       </c>
@@ -51839,8 +51836,8 @@
       </c>
     </row>
     <row r="407" spans="1:7" ht="50" customHeight="1">
-      <c r="A407" s="39"/>
-      <c r="B407" s="39"/>
+      <c r="A407" s="42"/>
+      <c r="B407" s="42"/>
       <c r="C407" s="27" t="s">
         <v>790</v>
       </c>
@@ -51854,8 +51851,8 @@
       </c>
     </row>
     <row r="408" spans="1:7" ht="50" customHeight="1">
-      <c r="A408" s="39"/>
-      <c r="B408" s="40"/>
+      <c r="A408" s="42"/>
+      <c r="B408" s="43"/>
       <c r="C408" s="27" t="s">
         <v>792</v>
       </c>
@@ -51869,8 +51866,8 @@
       </c>
     </row>
     <row r="409" spans="1:7" ht="50" customHeight="1">
-      <c r="A409" s="39"/>
-      <c r="B409" s="38" t="s">
+      <c r="A409" s="42"/>
+      <c r="B409" s="41" t="s">
         <v>874</v>
       </c>
       <c r="C409" s="27" t="s">
@@ -51886,8 +51883,8 @@
       </c>
     </row>
     <row r="410" spans="1:7" ht="50" customHeight="1">
-      <c r="A410" s="39"/>
-      <c r="B410" s="39"/>
+      <c r="A410" s="42"/>
+      <c r="B410" s="42"/>
       <c r="C410" s="27" t="s">
         <v>796</v>
       </c>
@@ -51901,8 +51898,8 @@
       </c>
     </row>
     <row r="411" spans="1:7" ht="50" customHeight="1">
-      <c r="A411" s="39"/>
-      <c r="B411" s="39"/>
+      <c r="A411" s="42"/>
+      <c r="B411" s="42"/>
       <c r="C411" s="27" t="s">
         <v>798</v>
       </c>
@@ -51910,7 +51907,7 @@
         <v>799</v>
       </c>
       <c r="E411" s="25" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="F411" s="25"/>
       <c r="G411" s="28" t="s">
@@ -51918,8 +51915,8 @@
       </c>
     </row>
     <row r="412" spans="1:7" ht="50" customHeight="1">
-      <c r="A412" s="39"/>
-      <c r="B412" s="39"/>
+      <c r="A412" s="42"/>
+      <c r="B412" s="42"/>
       <c r="C412" s="27" t="s">
         <v>800</v>
       </c>
@@ -51933,8 +51930,8 @@
       </c>
     </row>
     <row r="413" spans="1:7" ht="50" customHeight="1">
-      <c r="A413" s="39"/>
-      <c r="B413" s="39"/>
+      <c r="A413" s="42"/>
+      <c r="B413" s="42"/>
       <c r="C413" s="27" t="s">
         <v>802</v>
       </c>
@@ -51948,8 +51945,8 @@
       </c>
     </row>
     <row r="414" spans="1:7" ht="50" customHeight="1">
-      <c r="A414" s="39"/>
-      <c r="B414" s="39"/>
+      <c r="A414" s="42"/>
+      <c r="B414" s="42"/>
       <c r="C414" s="27" t="s">
         <v>804</v>
       </c>
@@ -51963,8 +51960,8 @@
       </c>
     </row>
     <row r="415" spans="1:7" ht="50" customHeight="1">
-      <c r="A415" s="39"/>
-      <c r="B415" s="40"/>
+      <c r="A415" s="42"/>
+      <c r="B415" s="43"/>
       <c r="C415" s="27" t="s">
         <v>806</v>
       </c>
@@ -51978,8 +51975,8 @@
       </c>
     </row>
     <row r="416" spans="1:7" ht="50" customHeight="1">
-      <c r="A416" s="39"/>
-      <c r="B416" s="38" t="s">
+      <c r="A416" s="42"/>
+      <c r="B416" s="41" t="s">
         <v>875</v>
       </c>
       <c r="C416" s="26" t="s">
@@ -51989,15 +51986,15 @@
         <v>809</v>
       </c>
       <c r="E416" s="13" t="s">
-        <v>1001</v>
+        <v>967</v>
       </c>
       <c r="G416" s="28" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="50" customHeight="1">
-      <c r="A417" s="39"/>
-      <c r="B417" s="40"/>
+      <c r="A417" s="42"/>
+      <c r="B417" s="43"/>
       <c r="C417" s="27" t="s">
         <v>810</v>
       </c>
@@ -52005,15 +52002,15 @@
         <v>811</v>
       </c>
       <c r="E417" s="13" t="s">
-        <v>1001</v>
+        <v>967</v>
       </c>
       <c r="G417" s="28" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="418" spans="1:7" ht="50" customHeight="1">
-      <c r="A418" s="39"/>
-      <c r="B418" s="38" t="s">
+      <c r="A418" s="42"/>
+      <c r="B418" s="41" t="s">
         <v>876</v>
       </c>
       <c r="C418" s="26" t="s">
@@ -52027,8 +52024,8 @@
       </c>
     </row>
     <row r="419" spans="1:7" ht="50" customHeight="1">
-      <c r="A419" s="39"/>
-      <c r="B419" s="39"/>
+      <c r="A419" s="42"/>
+      <c r="B419" s="42"/>
       <c r="C419" s="26" t="s">
         <v>814</v>
       </c>
@@ -52040,8 +52037,8 @@
       </c>
     </row>
     <row r="420" spans="1:7" ht="50" customHeight="1">
-      <c r="A420" s="39"/>
-      <c r="B420" s="39"/>
+      <c r="A420" s="42"/>
+      <c r="B420" s="42"/>
       <c r="C420" s="26" t="s">
         <v>816</v>
       </c>
@@ -52053,8 +52050,8 @@
       </c>
     </row>
     <row r="421" spans="1:7" ht="50" customHeight="1">
-      <c r="A421" s="39"/>
-      <c r="B421" s="39"/>
+      <c r="A421" s="42"/>
+      <c r="B421" s="42"/>
       <c r="C421" s="26" t="s">
         <v>818</v>
       </c>
@@ -52066,8 +52063,8 @@
       </c>
     </row>
     <row r="422" spans="1:7" ht="50" customHeight="1">
-      <c r="A422" s="40"/>
-      <c r="B422" s="40"/>
+      <c r="A422" s="43"/>
+      <c r="B422" s="43"/>
       <c r="C422" s="26" t="s">
         <v>820</v>
       </c>
@@ -52080,31 +52077,15 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B47:B56"/>
-    <mergeCell ref="A34:A56"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="A16:A33"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A57:A69"/>
-    <mergeCell ref="B57:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="A70:A111"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B73:B95"/>
-    <mergeCell ref="B96:B105"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="A112:A121"/>
-    <mergeCell ref="A123:A146"/>
-    <mergeCell ref="B123:B137"/>
-    <mergeCell ref="B138:B146"/>
-    <mergeCell ref="B115:B122"/>
+    <mergeCell ref="B314:B316"/>
+    <mergeCell ref="B317:B326"/>
+    <mergeCell ref="B328:B332"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="B233:B267"/>
+    <mergeCell ref="B274:B306"/>
+    <mergeCell ref="B309:B313"/>
+    <mergeCell ref="B269:B273"/>
     <mergeCell ref="A147:A226"/>
     <mergeCell ref="A227:A332"/>
     <mergeCell ref="A333:A404"/>
@@ -52121,15 +52102,31 @@
     <mergeCell ref="B180:B185"/>
     <mergeCell ref="B186:B222"/>
     <mergeCell ref="B223:B226"/>
-    <mergeCell ref="B314:B316"/>
-    <mergeCell ref="B317:B326"/>
-    <mergeCell ref="B328:B332"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="B233:B267"/>
-    <mergeCell ref="B274:B306"/>
-    <mergeCell ref="B309:B313"/>
-    <mergeCell ref="B269:B273"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="A112:A121"/>
+    <mergeCell ref="A123:A146"/>
+    <mergeCell ref="B123:B137"/>
+    <mergeCell ref="B138:B146"/>
+    <mergeCell ref="B115:B122"/>
+    <mergeCell ref="A57:A69"/>
+    <mergeCell ref="B57:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="A70:A111"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B73:B95"/>
+    <mergeCell ref="B96:B105"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="B47:B56"/>
+    <mergeCell ref="A34:A56"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A16:A33"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B33"/>
   </mergeCells>
   <conditionalFormatting sqref="E328:F328 E306:F307 E322:F326 E125:F125">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -52152,12 +52149,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F414E67DA4490F438DF7F839DDD88F54" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="968179862b391a59b7f67eb3e7667402">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fddf207-9565-4c1d-88a2-78ac3eb02019" xmlns:ns3="1750c493-bee6-4013-b7a9-faed7d1eacd9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fc6ea6213b4ec21afdfc08f0704f67a" ns2:_="" ns3:_="">
     <xsd:import namespace="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
@@ -52360,6 +52351,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E6096D8-1CD1-477D-852D-41029505002A}">
   <ds:schemaRefs>
@@ -52369,23 +52366,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1765E8E-7B87-4E57-AE04-80D6CA061ADD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1750c493-bee6-4013-b7a9-faed7d1eacd9"/>
-    <ds:schemaRef ds:uri="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD5FE2FF-FFA2-4AC8-B9A7-6009CF780188}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -52402,4 +52382,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1765E8E-7B87-4E57-AE04-80D6CA061ADD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1750c493-bee6-4013-b7a9-faed7d1eacd9"/>
+    <ds:schemaRef ds:uri="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Carto/POI/PDS_Category_Assignment.xlsx
+++ b/Carto/POI/PDS_Category_Assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauragar/icons-by-here-technologies/Carto/POI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B2A2063F-FB7E-C842-B1C1-FC833C88AB7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7461E2-117E-8B4C-9B31-66A101AF2584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="540" windowWidth="51200" windowHeight="27600" xr2:uid="{C64EB798-04F6-AE43-9DCC-0EA02E11247A}"/>
+    <workbookView xWindow="-37260" yWindow="620" windowWidth="33600" windowHeight="19800" xr2:uid="{C64EB798-04F6-AE43-9DCC-0EA02E11247A}"/>
   </bookViews>
   <sheets>
     <sheet name="PDS_Category_Assignment" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="1003">
   <si>
     <t>PDS Category name</t>
   </si>
@@ -3052,9 +3052,6 @@
   </si>
   <si>
     <t>golfcourse_solid_24px.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> coffee_solid_24px.svg.svg</t>
   </si>
   <si>
     <t>coffee_solid_24px.svg</t>
@@ -3543,6 +3540,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3552,28 +3567,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12585,8 +12582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693BBA9B-95F3-BD4A-928B-DD81DFE8C409}">
   <dimension ref="A1:XFD422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E3" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E10" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="50" customHeight="1" outlineLevelCol="1"/>
@@ -12643,10 +12640,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="50" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>826</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="48" t="s">
         <v>833</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -12664,8 +12661,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="50" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
@@ -12681,8 +12678,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="50" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
@@ -12698,8 +12695,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="50" customHeight="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
@@ -12715,8 +12712,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="50" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
@@ -12732,8 +12729,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="50" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
@@ -12749,8 +12746,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50" customHeight="1">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
@@ -12766,8 +12763,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="50" customHeight="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
@@ -12783,8 +12780,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="50" customHeight="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
@@ -12800,8 +12797,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="50" customHeight="1">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="48" t="s">
         <v>834</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -12819,8 +12816,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="50" customHeight="1">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
@@ -12836,8 +12833,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="50" customHeight="1">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="8" t="s">
         <v>25</v>
       </c>
@@ -12845,7 +12842,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="11" t="s">
@@ -12853,8 +12850,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="50" customHeight="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="8" t="s">
         <v>27</v>
       </c>
@@ -12870,10 +12867,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="50" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="47" t="s">
         <v>831</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="47" t="s">
         <v>836</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -12891,8 +12888,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="50" customHeight="1">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
@@ -12908,8 +12905,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="50" customHeight="1">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="8" t="s">
         <v>33</v>
       </c>
@@ -12925,8 +12922,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="50" customHeight="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="8" t="s">
         <v>35</v>
       </c>
@@ -12942,8 +12939,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="50" customHeight="1">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="8" t="s">
         <v>37</v>
       </c>
@@ -12959,8 +12956,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="50" customHeight="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="8" t="s">
         <v>39</v>
       </c>
@@ -12976,8 +12973,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="50" customHeight="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="8" t="s">
         <v>41</v>
       </c>
@@ -12993,8 +12990,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="50" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="8" t="s">
         <v>43</v>
       </c>
@@ -13010,8 +13007,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="50" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="8" t="s">
         <v>45</v>
       </c>
@@ -13027,8 +13024,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="50" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>47</v>
       </c>
@@ -13043,8 +13040,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="50" customHeight="1">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="8" t="s">
         <v>49</v>
       </c>
@@ -13060,8 +13057,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="50" customHeight="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="8" t="s">
         <v>51</v>
       </c>
@@ -13077,7 +13074,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="50" customHeight="1">
-      <c r="A28" s="44"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="14" t="s">
         <v>837</v>
       </c>
@@ -13096,8 +13093,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="50" customHeight="1">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44" t="s">
+      <c r="A29" s="47"/>
+      <c r="B29" s="47" t="s">
         <v>838</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -13115,8 +13112,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="50" customHeight="1">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="8" t="s">
         <v>57</v>
       </c>
@@ -13132,8 +13129,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="50" customHeight="1">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="47" t="s">
         <v>839</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -13151,8 +13148,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="50" customHeight="1">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="8" t="s">
         <v>61</v>
       </c>
@@ -13168,8 +13165,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="50" customHeight="1">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="8" t="s">
         <v>63</v>
       </c>
@@ -13185,10 +13182,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="50" customHeight="1">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="38" t="s">
         <v>835</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="47" t="s">
         <v>843</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -13206,8 +13203,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="50" customHeight="1">
-      <c r="A35" s="42"/>
-      <c r="B35" s="44"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="8" t="s">
         <v>67</v>
       </c>
@@ -13223,8 +13220,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="50" customHeight="1">
-      <c r="A36" s="42"/>
-      <c r="B36" s="44"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="8" t="s">
         <v>69</v>
       </c>
@@ -13240,8 +13237,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="50" customHeight="1">
-      <c r="A37" s="42"/>
-      <c r="B37" s="44"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="8" t="s">
         <v>71</v>
       </c>
@@ -13257,8 +13254,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="50" customHeight="1">
-      <c r="A38" s="42"/>
-      <c r="B38" s="44"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="8" t="s">
         <v>73</v>
       </c>
@@ -13272,8 +13269,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="50" customHeight="1">
-      <c r="A39" s="42"/>
-      <c r="B39" s="44"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="8" t="s">
         <v>75</v>
       </c>
@@ -13287,8 +13284,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="50" customHeight="1">
-      <c r="A40" s="42"/>
-      <c r="B40" s="44"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="8" t="s">
         <v>77</v>
       </c>
@@ -13302,8 +13299,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="50" customHeight="1">
-      <c r="A41" s="42"/>
-      <c r="B41" s="44"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="8" t="s">
         <v>79</v>
       </c>
@@ -13319,8 +13316,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="50" customHeight="1">
-      <c r="A42" s="42"/>
-      <c r="B42" s="44" t="s">
+      <c r="A42" s="39"/>
+      <c r="B42" s="47" t="s">
         <v>844</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -13338,8 +13335,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="50" customHeight="1">
-      <c r="A43" s="42"/>
-      <c r="B43" s="44"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="8" t="s">
         <v>83</v>
       </c>
@@ -13355,8 +13352,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="50" customHeight="1">
-      <c r="A44" s="42"/>
-      <c r="B44" s="44"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="8" t="s">
         <v>85</v>
       </c>
@@ -13372,8 +13369,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="50" customHeight="1">
-      <c r="A45" s="42"/>
-      <c r="B45" s="44"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="8" t="s">
         <v>87</v>
       </c>
@@ -13389,8 +13386,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="50" customHeight="1">
-      <c r="A46" s="42"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="8" t="s">
         <v>89</v>
       </c>
@@ -13406,8 +13403,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="50" customHeight="1">
-      <c r="A47" s="42"/>
-      <c r="B47" s="38" t="s">
+      <c r="A47" s="39"/>
+      <c r="B47" s="44" t="s">
         <v>845</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -13425,8 +13422,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="50" customHeight="1">
-      <c r="A48" s="42"/>
-      <c r="B48" s="39"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="8" t="s">
         <v>93</v>
       </c>
@@ -13442,8 +13439,8 @@
       </c>
     </row>
     <row r="49" spans="1:16384" ht="50" customHeight="1">
-      <c r="A49" s="42"/>
-      <c r="B49" s="39"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="8" t="s">
         <v>95</v>
       </c>
@@ -13459,8 +13456,8 @@
       </c>
     </row>
     <row r="50" spans="1:16384" ht="50" customHeight="1">
-      <c r="A50" s="42"/>
-      <c r="B50" s="39"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="8" t="s">
         <v>97</v>
       </c>
@@ -13476,8 +13473,8 @@
       </c>
     </row>
     <row r="51" spans="1:16384" ht="50" customHeight="1">
-      <c r="A51" s="42"/>
-      <c r="B51" s="39"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="8" t="s">
         <v>99</v>
       </c>
@@ -13493,8 +13490,8 @@
       </c>
     </row>
     <row r="52" spans="1:16384" ht="50" customHeight="1">
-      <c r="A52" s="42"/>
-      <c r="B52" s="39"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="8" t="s">
         <v>101</v>
       </c>
@@ -13510,8 +13507,8 @@
       </c>
     </row>
     <row r="53" spans="1:16384" ht="50" customHeight="1">
-      <c r="A53" s="42"/>
-      <c r="B53" s="39"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="8" t="s">
         <v>101</v>
       </c>
@@ -29902,8 +29899,8 @@
       <c r="XFD53" s="34"/>
     </row>
     <row r="54" spans="1:16384" ht="50" customHeight="1">
-      <c r="A54" s="42"/>
-      <c r="B54" s="39"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="8" t="s">
         <v>103</v>
       </c>
@@ -29919,8 +29916,8 @@
       </c>
     </row>
     <row r="55" spans="1:16384" ht="50" customHeight="1">
-      <c r="A55" s="42"/>
-      <c r="B55" s="39"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="8" t="s">
         <v>105</v>
       </c>
@@ -29936,8 +29933,8 @@
       </c>
     </row>
     <row r="56" spans="1:16384" ht="50" customHeight="1">
-      <c r="A56" s="43"/>
-      <c r="B56" s="40"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="35" t="s">
         <v>920</v>
       </c>
@@ -29951,10 +29948,10 @@
       </c>
     </row>
     <row r="57" spans="1:16384" ht="50" customHeight="1">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="38" t="s">
         <v>846</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="38" t="s">
         <v>847</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -29972,8 +29969,8 @@
       </c>
     </row>
     <row r="58" spans="1:16384" ht="50" customHeight="1">
-      <c r="A58" s="42"/>
-      <c r="B58" s="42"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="8" t="s">
         <v>109</v>
       </c>
@@ -29987,8 +29984,8 @@
       </c>
     </row>
     <row r="59" spans="1:16384" ht="50" customHeight="1">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
       <c r="C59" s="8" t="s">
         <v>111</v>
       </c>
@@ -30002,8 +29999,8 @@
       </c>
     </row>
     <row r="60" spans="1:16384" ht="50" customHeight="1">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
       <c r="C60" s="8" t="s">
         <v>113</v>
       </c>
@@ -30019,8 +30016,8 @@
       </c>
     </row>
     <row r="61" spans="1:16384" ht="50" customHeight="1">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
       <c r="C61" s="8" t="s">
         <v>115</v>
       </c>
@@ -30034,8 +30031,8 @@
       </c>
     </row>
     <row r="62" spans="1:16384" ht="50" customHeight="1">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
       <c r="C62" s="8" t="s">
         <v>117</v>
       </c>
@@ -30049,8 +30046,8 @@
       </c>
     </row>
     <row r="63" spans="1:16384" ht="50" customHeight="1">
-      <c r="A63" s="42"/>
-      <c r="B63" s="43"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="8" t="s">
         <v>119</v>
       </c>
@@ -30064,8 +30061,8 @@
       </c>
     </row>
     <row r="64" spans="1:16384" ht="50" customHeight="1">
-      <c r="A64" s="42"/>
-      <c r="B64" s="41" t="s">
+      <c r="A64" s="39"/>
+      <c r="B64" s="38" t="s">
         <v>848</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -30083,8 +30080,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="50" customHeight="1">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
       <c r="C65" s="8" t="s">
         <v>123</v>
       </c>
@@ -30100,8 +30097,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="50" customHeight="1">
-      <c r="A66" s="42"/>
-      <c r="B66" s="43"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="8" t="s">
         <v>125</v>
       </c>
@@ -30117,7 +30114,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="50" customHeight="1">
-      <c r="A67" s="42"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="14" t="s">
         <v>849</v>
       </c>
@@ -30134,7 +30131,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="50" customHeight="1">
-      <c r="A68" s="42"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="14" t="s">
         <v>850</v>
       </c>
@@ -30153,7 +30150,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="50" customHeight="1">
-      <c r="A69" s="43"/>
+      <c r="A69" s="40"/>
       <c r="B69" s="14" t="s">
         <v>851</v>
       </c>
@@ -30172,10 +30169,10 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="50" customHeight="1">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="38" t="s">
         <v>854</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="38" t="s">
         <v>856</v>
       </c>
       <c r="C70" s="8" t="s">
@@ -30193,8 +30190,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="50" customHeight="1">
-      <c r="A71" s="42"/>
-      <c r="B71" s="42"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
       <c r="C71" s="8" t="s">
         <v>135</v>
       </c>
@@ -30210,8 +30207,8 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="50" customHeight="1">
-      <c r="A72" s="42"/>
-      <c r="B72" s="43"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="40"/>
       <c r="C72" s="8" t="s">
         <v>137</v>
       </c>
@@ -30227,8 +30224,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="50" customHeight="1">
-      <c r="A73" s="42"/>
-      <c r="B73" s="41" t="s">
+      <c r="A73" s="39"/>
+      <c r="B73" s="38" t="s">
         <v>855</v>
       </c>
       <c r="C73" s="8" t="s">
@@ -30246,8 +30243,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="50" customHeight="1">
-      <c r="A74" s="42"/>
-      <c r="B74" s="42"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
       <c r="C74" s="8" t="s">
         <v>141</v>
       </c>
@@ -30263,8 +30260,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="50" customHeight="1">
-      <c r="A75" s="42"/>
-      <c r="B75" s="42"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="8" t="s">
         <v>143</v>
       </c>
@@ -30280,8 +30277,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="50" customHeight="1">
-      <c r="A76" s="42"/>
-      <c r="B76" s="42"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
       <c r="C76" s="8" t="s">
         <v>145</v>
       </c>
@@ -30297,8 +30294,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="50" customHeight="1">
-      <c r="A77" s="42"/>
-      <c r="B77" s="42"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
       <c r="C77" s="8" t="s">
         <v>147</v>
       </c>
@@ -30314,8 +30311,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="50" customHeight="1">
-      <c r="A78" s="42"/>
-      <c r="B78" s="42"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="8" t="s">
         <v>149</v>
       </c>
@@ -30329,8 +30326,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="50" customHeight="1">
-      <c r="A79" s="42"/>
-      <c r="B79" s="42"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="8" t="s">
         <v>151</v>
       </c>
@@ -30344,8 +30341,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="50" customHeight="1">
-      <c r="A80" s="42"/>
-      <c r="B80" s="42"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
       <c r="C80" s="8" t="s">
         <v>153</v>
       </c>
@@ -30361,8 +30358,8 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="50" customHeight="1">
-      <c r="A81" s="42"/>
-      <c r="B81" s="42"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="8" t="s">
         <v>155</v>
       </c>
@@ -30376,8 +30373,8 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="50" customHeight="1">
-      <c r="A82" s="42"/>
-      <c r="B82" s="42"/>
+      <c r="A82" s="39"/>
+      <c r="B82" s="39"/>
       <c r="C82" s="8" t="s">
         <v>157</v>
       </c>
@@ -30393,8 +30390,8 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="50" customHeight="1">
-      <c r="A83" s="42"/>
-      <c r="B83" s="42"/>
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
       <c r="C83" s="8" t="s">
         <v>159</v>
       </c>
@@ -30410,8 +30407,8 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="50" customHeight="1">
-      <c r="A84" s="42"/>
-      <c r="B84" s="42"/>
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
       <c r="C84" s="8" t="s">
         <v>161</v>
       </c>
@@ -30427,8 +30424,8 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="50" customHeight="1">
-      <c r="A85" s="42"/>
-      <c r="B85" s="42"/>
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
       <c r="C85" s="8" t="s">
         <v>163</v>
       </c>
@@ -30447,8 +30444,8 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="50" customHeight="1">
-      <c r="A86" s="42"/>
-      <c r="B86" s="42"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
       <c r="C86" s="8" t="s">
         <v>165</v>
       </c>
@@ -30462,8 +30459,8 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="50" customHeight="1">
-      <c r="A87" s="42"/>
-      <c r="B87" s="42"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="39"/>
       <c r="C87" s="8" t="s">
         <v>167</v>
       </c>
@@ -30479,8 +30476,8 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="50" customHeight="1">
-      <c r="A88" s="42"/>
-      <c r="B88" s="42"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
       <c r="C88" s="8" t="s">
         <v>169</v>
       </c>
@@ -30496,8 +30493,8 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="50" customHeight="1">
-      <c r="A89" s="42"/>
-      <c r="B89" s="42"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="39"/>
       <c r="C89" s="8" t="s">
         <v>171</v>
       </c>
@@ -30511,8 +30508,8 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="50" customHeight="1">
-      <c r="A90" s="42"/>
-      <c r="B90" s="42"/>
+      <c r="A90" s="39"/>
+      <c r="B90" s="39"/>
       <c r="C90" s="8" t="s">
         <v>173</v>
       </c>
@@ -30528,8 +30525,8 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="50" customHeight="1">
-      <c r="A91" s="42"/>
-      <c r="B91" s="42"/>
+      <c r="A91" s="39"/>
+      <c r="B91" s="39"/>
       <c r="C91" s="8" t="s">
         <v>175</v>
       </c>
@@ -30545,8 +30542,8 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="50" customHeight="1">
-      <c r="A92" s="42"/>
-      <c r="B92" s="42"/>
+      <c r="A92" s="39"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="8" t="s">
         <v>177</v>
       </c>
@@ -30560,8 +30557,8 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="50" customHeight="1">
-      <c r="A93" s="42"/>
-      <c r="B93" s="42"/>
+      <c r="A93" s="39"/>
+      <c r="B93" s="39"/>
       <c r="C93" s="8" t="s">
         <v>179</v>
       </c>
@@ -30577,8 +30574,8 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="50" customHeight="1">
-      <c r="A94" s="42"/>
-      <c r="B94" s="42"/>
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="8" t="s">
         <v>181</v>
       </c>
@@ -30592,8 +30589,8 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="50" customHeight="1">
-      <c r="A95" s="42"/>
-      <c r="B95" s="43"/>
+      <c r="A95" s="39"/>
+      <c r="B95" s="40"/>
       <c r="C95" s="8" t="s">
         <v>183</v>
       </c>
@@ -30607,8 +30604,8 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="50" customHeight="1">
-      <c r="A96" s="42"/>
-      <c r="B96" s="41" t="s">
+      <c r="A96" s="39"/>
+      <c r="B96" s="38" t="s">
         <v>857</v>
       </c>
       <c r="C96" s="8" t="s">
@@ -30624,8 +30621,8 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="50" customHeight="1">
-      <c r="A97" s="42"/>
-      <c r="B97" s="42"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="39"/>
       <c r="C97" s="8" t="s">
         <v>187</v>
       </c>
@@ -30639,8 +30636,8 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="50" customHeight="1">
-      <c r="A98" s="42"/>
-      <c r="B98" s="42"/>
+      <c r="A98" s="39"/>
+      <c r="B98" s="39"/>
       <c r="C98" s="8" t="s">
         <v>189</v>
       </c>
@@ -30654,8 +30651,8 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="50" customHeight="1">
-      <c r="A99" s="42"/>
-      <c r="B99" s="42"/>
+      <c r="A99" s="39"/>
+      <c r="B99" s="39"/>
       <c r="C99" s="8" t="s">
         <v>191</v>
       </c>
@@ -30669,8 +30666,8 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="50" customHeight="1">
-      <c r="A100" s="42"/>
-      <c r="B100" s="42"/>
+      <c r="A100" s="39"/>
+      <c r="B100" s="39"/>
       <c r="C100" s="8" t="s">
         <v>193</v>
       </c>
@@ -30684,8 +30681,8 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="50" customHeight="1">
-      <c r="A101" s="42"/>
-      <c r="B101" s="42"/>
+      <c r="A101" s="39"/>
+      <c r="B101" s="39"/>
       <c r="C101" s="8" t="s">
         <v>195</v>
       </c>
@@ -30699,8 +30696,8 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="50" customHeight="1">
-      <c r="A102" s="42"/>
-      <c r="B102" s="42"/>
+      <c r="A102" s="39"/>
+      <c r="B102" s="39"/>
       <c r="C102" s="8" t="s">
         <v>197</v>
       </c>
@@ -30714,8 +30711,8 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="50" customHeight="1">
-      <c r="A103" s="42"/>
-      <c r="B103" s="42"/>
+      <c r="A103" s="39"/>
+      <c r="B103" s="39"/>
       <c r="C103" s="8" t="s">
         <v>199</v>
       </c>
@@ -30729,8 +30726,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="50" customHeight="1">
-      <c r="A104" s="42"/>
-      <c r="B104" s="42"/>
+      <c r="A104" s="39"/>
+      <c r="B104" s="39"/>
       <c r="C104" s="8" t="s">
         <v>201</v>
       </c>
@@ -30744,8 +30741,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="50" customHeight="1">
-      <c r="A105" s="42"/>
-      <c r="B105" s="43"/>
+      <c r="A105" s="39"/>
+      <c r="B105" s="40"/>
       <c r="C105" s="8" t="s">
         <v>203</v>
       </c>
@@ -30759,8 +30756,8 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="50" customHeight="1">
-      <c r="A106" s="42"/>
-      <c r="B106" s="41" t="s">
+      <c r="A106" s="39"/>
+      <c r="B106" s="38" t="s">
         <v>858</v>
       </c>
       <c r="C106" s="8" t="s">
@@ -30778,8 +30775,8 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="50" customHeight="1">
-      <c r="A107" s="42"/>
-      <c r="B107" s="42"/>
+      <c r="A107" s="39"/>
+      <c r="B107" s="39"/>
       <c r="C107" s="8" t="s">
         <v>207</v>
       </c>
@@ -30795,8 +30792,8 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="50" customHeight="1">
-      <c r="A108" s="42"/>
-      <c r="B108" s="42"/>
+      <c r="A108" s="39"/>
+      <c r="B108" s="39"/>
       <c r="C108" s="8" t="s">
         <v>209</v>
       </c>
@@ -30812,8 +30809,8 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="50" customHeight="1">
-      <c r="A109" s="42"/>
-      <c r="B109" s="42"/>
+      <c r="A109" s="39"/>
+      <c r="B109" s="39"/>
       <c r="C109" s="8" t="s">
         <v>211</v>
       </c>
@@ -30829,8 +30826,8 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="50" customHeight="1">
-      <c r="A110" s="42"/>
-      <c r="B110" s="42"/>
+      <c r="A110" s="39"/>
+      <c r="B110" s="39"/>
       <c r="C110" s="8" t="s">
         <v>213</v>
       </c>
@@ -30846,8 +30843,8 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="50" customHeight="1">
-      <c r="A111" s="43"/>
-      <c r="B111" s="43"/>
+      <c r="A111" s="40"/>
+      <c r="B111" s="40"/>
       <c r="C111" s="8" t="s">
         <v>215</v>
       </c>
@@ -30863,10 +30860,10 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="50" customHeight="1">
-      <c r="A112" s="41" t="s">
+      <c r="A112" s="38" t="s">
         <v>859</v>
       </c>
-      <c r="B112" s="41" t="s">
+      <c r="B112" s="38" t="s">
         <v>860</v>
       </c>
       <c r="C112" s="8" t="s">
@@ -30884,8 +30881,8 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="50" customHeight="1">
-      <c r="A113" s="42"/>
-      <c r="B113" s="42"/>
+      <c r="A113" s="39"/>
+      <c r="B113" s="39"/>
       <c r="C113" s="8" t="s">
         <v>219</v>
       </c>
@@ -30901,8 +30898,8 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="50" customHeight="1">
-      <c r="A114" s="42"/>
-      <c r="B114" s="43"/>
+      <c r="A114" s="39"/>
+      <c r="B114" s="40"/>
       <c r="C114" s="8" t="s">
         <v>221</v>
       </c>
@@ -30918,8 +30915,8 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="50" customHeight="1">
-      <c r="A115" s="42"/>
-      <c r="B115" s="38" t="s">
+      <c r="A115" s="39"/>
+      <c r="B115" s="44" t="s">
         <v>861</v>
       </c>
       <c r="C115" s="8" t="s">
@@ -30937,8 +30934,8 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="50" customHeight="1">
-      <c r="A116" s="42"/>
-      <c r="B116" s="39"/>
+      <c r="A116" s="39"/>
+      <c r="B116" s="45"/>
       <c r="C116" s="8" t="s">
         <v>225</v>
       </c>
@@ -30954,8 +30951,8 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="50" customHeight="1">
-      <c r="A117" s="42"/>
-      <c r="B117" s="39"/>
+      <c r="A117" s="39"/>
+      <c r="B117" s="45"/>
       <c r="C117" s="8" t="s">
         <v>227</v>
       </c>
@@ -30971,8 +30968,8 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="50" customHeight="1">
-      <c r="A118" s="42"/>
-      <c r="B118" s="39"/>
+      <c r="A118" s="39"/>
+      <c r="B118" s="45"/>
       <c r="C118" s="8" t="s">
         <v>229</v>
       </c>
@@ -30988,8 +30985,8 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="50" customHeight="1">
-      <c r="A119" s="42"/>
-      <c r="B119" s="39"/>
+      <c r="A119" s="39"/>
+      <c r="B119" s="45"/>
       <c r="C119" s="8" t="s">
         <v>231</v>
       </c>
@@ -31005,8 +31002,8 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="50" customHeight="1">
-      <c r="A120" s="42"/>
-      <c r="B120" s="39"/>
+      <c r="A120" s="39"/>
+      <c r="B120" s="45"/>
       <c r="C120" s="8" t="s">
         <v>233</v>
       </c>
@@ -31022,8 +31019,8 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="50" customHeight="1">
-      <c r="A121" s="42"/>
-      <c r="B121" s="39"/>
+      <c r="A121" s="39"/>
+      <c r="B121" s="45"/>
       <c r="C121" s="8" t="s">
         <v>235</v>
       </c>
@@ -31040,7 +31037,7 @@
     </row>
     <row r="122" spans="1:7" ht="50" customHeight="1">
       <c r="A122" s="17"/>
-      <c r="B122" s="39"/>
+      <c r="B122" s="45"/>
       <c r="C122" s="35" t="s">
         <v>917</v>
       </c>
@@ -31054,10 +31051,10 @@
       </c>
     </row>
     <row r="123" spans="1:7" ht="50" customHeight="1">
-      <c r="A123" s="42" t="s">
+      <c r="A123" s="39" t="s">
         <v>865</v>
       </c>
-      <c r="B123" s="42" t="s">
+      <c r="B123" s="39" t="s">
         <v>866</v>
       </c>
       <c r="C123" s="8" t="s">
@@ -31075,8 +31072,8 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="50" customHeight="1">
-      <c r="A124" s="42"/>
-      <c r="B124" s="42"/>
+      <c r="A124" s="39"/>
+      <c r="B124" s="39"/>
       <c r="C124" s="8" t="s">
         <v>239</v>
       </c>
@@ -31092,8 +31089,8 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="50" customHeight="1">
-      <c r="A125" s="42"/>
-      <c r="B125" s="42"/>
+      <c r="A125" s="39"/>
+      <c r="B125" s="39"/>
       <c r="C125" s="8" t="s">
         <v>241</v>
       </c>
@@ -31107,8 +31104,8 @@
       </c>
     </row>
     <row r="126" spans="1:7" ht="50" customHeight="1">
-      <c r="A126" s="42"/>
-      <c r="B126" s="42"/>
+      <c r="A126" s="39"/>
+      <c r="B126" s="39"/>
       <c r="C126" s="8" t="s">
         <v>243</v>
       </c>
@@ -31124,8 +31121,8 @@
       </c>
     </row>
     <row r="127" spans="1:7" ht="50" customHeight="1">
-      <c r="A127" s="42"/>
-      <c r="B127" s="42"/>
+      <c r="A127" s="39"/>
+      <c r="B127" s="39"/>
       <c r="C127" s="8" t="s">
         <v>245</v>
       </c>
@@ -31141,8 +31138,8 @@
       </c>
     </row>
     <row r="128" spans="1:7" ht="50" customHeight="1">
-      <c r="A128" s="42"/>
-      <c r="B128" s="42"/>
+      <c r="A128" s="39"/>
+      <c r="B128" s="39"/>
       <c r="C128" s="8" t="s">
         <v>247</v>
       </c>
@@ -31156,8 +31153,8 @@
       </c>
     </row>
     <row r="129" spans="1:7" ht="50" customHeight="1">
-      <c r="A129" s="42"/>
-      <c r="B129" s="42"/>
+      <c r="A129" s="39"/>
+      <c r="B129" s="39"/>
       <c r="C129" s="8" t="s">
         <v>249</v>
       </c>
@@ -31171,8 +31168,8 @@
       </c>
     </row>
     <row r="130" spans="1:7" ht="50" customHeight="1">
-      <c r="A130" s="42"/>
-      <c r="B130" s="42"/>
+      <c r="A130" s="39"/>
+      <c r="B130" s="39"/>
       <c r="C130" s="8" t="s">
         <v>251</v>
       </c>
@@ -31188,8 +31185,8 @@
       </c>
     </row>
     <row r="131" spans="1:7" ht="50" customHeight="1">
-      <c r="A131" s="42"/>
-      <c r="B131" s="42"/>
+      <c r="A131" s="39"/>
+      <c r="B131" s="39"/>
       <c r="C131" s="8" t="s">
         <v>253</v>
       </c>
@@ -31203,8 +31200,8 @@
       </c>
     </row>
     <row r="132" spans="1:7" ht="50" customHeight="1">
-      <c r="A132" s="42"/>
-      <c r="B132" s="42"/>
+      <c r="A132" s="39"/>
+      <c r="B132" s="39"/>
       <c r="C132" s="8" t="s">
         <v>255</v>
       </c>
@@ -31218,8 +31215,8 @@
       </c>
     </row>
     <row r="133" spans="1:7" ht="50" customHeight="1">
-      <c r="A133" s="42"/>
-      <c r="B133" s="42"/>
+      <c r="A133" s="39"/>
+      <c r="B133" s="39"/>
       <c r="C133" s="8" t="s">
         <v>257</v>
       </c>
@@ -31233,8 +31230,8 @@
       </c>
     </row>
     <row r="134" spans="1:7" ht="50" customHeight="1">
-      <c r="A134" s="42"/>
-      <c r="B134" s="42"/>
+      <c r="A134" s="39"/>
+      <c r="B134" s="39"/>
       <c r="C134" s="8" t="s">
         <v>259</v>
       </c>
@@ -31250,8 +31247,8 @@
       </c>
     </row>
     <row r="135" spans="1:7" ht="50" customHeight="1">
-      <c r="A135" s="42"/>
-      <c r="B135" s="42"/>
+      <c r="A135" s="39"/>
+      <c r="B135" s="39"/>
       <c r="C135" s="8" t="s">
         <v>261</v>
       </c>
@@ -31265,8 +31262,8 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="50" customHeight="1">
-      <c r="A136" s="42"/>
-      <c r="B136" s="42"/>
+      <c r="A136" s="39"/>
+      <c r="B136" s="39"/>
       <c r="C136" s="8" t="s">
         <v>263</v>
       </c>
@@ -31280,8 +31277,8 @@
       </c>
     </row>
     <row r="137" spans="1:7" ht="50" customHeight="1">
-      <c r="A137" s="42"/>
-      <c r="B137" s="43"/>
+      <c r="A137" s="39"/>
+      <c r="B137" s="40"/>
       <c r="C137" s="8" t="s">
         <v>265</v>
       </c>
@@ -31295,8 +31292,8 @@
       </c>
     </row>
     <row r="138" spans="1:7" ht="50" customHeight="1">
-      <c r="A138" s="42"/>
-      <c r="B138" s="41" t="s">
+      <c r="A138" s="39"/>
+      <c r="B138" s="38" t="s">
         <v>867</v>
       </c>
       <c r="C138" s="8" t="s">
@@ -31314,8 +31311,8 @@
       </c>
     </row>
     <row r="139" spans="1:7" ht="50" customHeight="1">
-      <c r="A139" s="42"/>
-      <c r="B139" s="42"/>
+      <c r="A139" s="39"/>
+      <c r="B139" s="39"/>
       <c r="C139" s="8" t="s">
         <v>269</v>
       </c>
@@ -31331,8 +31328,8 @@
       </c>
     </row>
     <row r="140" spans="1:7" ht="50" customHeight="1">
-      <c r="A140" s="42"/>
-      <c r="B140" s="42"/>
+      <c r="A140" s="39"/>
+      <c r="B140" s="39"/>
       <c r="C140" s="8" t="s">
         <v>271</v>
       </c>
@@ -31348,8 +31345,8 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="50" customHeight="1">
-      <c r="A141" s="42"/>
-      <c r="B141" s="42"/>
+      <c r="A141" s="39"/>
+      <c r="B141" s="39"/>
       <c r="C141" s="8" t="s">
         <v>273</v>
       </c>
@@ -31363,8 +31360,8 @@
       </c>
     </row>
     <row r="142" spans="1:7" ht="50" customHeight="1">
-      <c r="A142" s="42"/>
-      <c r="B142" s="42"/>
+      <c r="A142" s="39"/>
+      <c r="B142" s="39"/>
       <c r="C142" s="8" t="s">
         <v>275</v>
       </c>
@@ -31378,8 +31375,8 @@
       </c>
     </row>
     <row r="143" spans="1:7" ht="50" customHeight="1">
-      <c r="A143" s="42"/>
-      <c r="B143" s="42"/>
+      <c r="A143" s="39"/>
+      <c r="B143" s="39"/>
       <c r="C143" s="8" t="s">
         <v>277</v>
       </c>
@@ -31393,8 +31390,8 @@
       </c>
     </row>
     <row r="144" spans="1:7" ht="50" customHeight="1">
-      <c r="A144" s="42"/>
-      <c r="B144" s="42"/>
+      <c r="A144" s="39"/>
+      <c r="B144" s="39"/>
       <c r="C144" s="8" t="s">
         <v>279</v>
       </c>
@@ -31410,8 +31407,8 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="50" customHeight="1">
-      <c r="A145" s="42"/>
-      <c r="B145" s="42"/>
+      <c r="A145" s="39"/>
+      <c r="B145" s="39"/>
       <c r="C145" s="8" t="s">
         <v>281</v>
       </c>
@@ -31427,8 +31424,8 @@
       </c>
     </row>
     <row r="146" spans="1:7" ht="50" customHeight="1">
-      <c r="A146" s="43"/>
-      <c r="B146" s="43"/>
+      <c r="A146" s="40"/>
+      <c r="B146" s="40"/>
       <c r="C146" s="8" t="s">
         <v>283</v>
       </c>
@@ -31441,7 +31438,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" ht="50" customHeight="1">
-      <c r="A147" s="41" t="s">
+      <c r="A147" s="38" t="s">
         <v>868</v>
       </c>
       <c r="B147" s="14" t="s">
@@ -31462,7 +31459,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" ht="50" customHeight="1">
-      <c r="A148" s="42"/>
+      <c r="A148" s="39"/>
       <c r="B148" s="14" t="s">
         <v>880</v>
       </c>
@@ -31481,7 +31478,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" ht="50" customHeight="1">
-      <c r="A149" s="42"/>
+      <c r="A149" s="39"/>
       <c r="B149" s="14" t="s">
         <v>881</v>
       </c>
@@ -31500,8 +31497,8 @@
       </c>
     </row>
     <row r="150" spans="1:7" ht="50" customHeight="1">
-      <c r="A150" s="42"/>
-      <c r="B150" s="46" t="s">
+      <c r="A150" s="39"/>
+      <c r="B150" s="41" t="s">
         <v>882</v>
       </c>
       <c r="C150" s="8" t="s">
@@ -31517,8 +31514,8 @@
       </c>
     </row>
     <row r="151" spans="1:7" ht="50" customHeight="1">
-      <c r="A151" s="42"/>
-      <c r="B151" s="47"/>
+      <c r="A151" s="39"/>
+      <c r="B151" s="42"/>
       <c r="C151" s="8" t="s">
         <v>293</v>
       </c>
@@ -31534,8 +31531,8 @@
       </c>
     </row>
     <row r="152" spans="1:7" ht="50" customHeight="1">
-      <c r="A152" s="42"/>
-      <c r="B152" s="47"/>
+      <c r="A152" s="39"/>
+      <c r="B152" s="42"/>
       <c r="C152" s="8" t="s">
         <v>295</v>
       </c>
@@ -31549,8 +31546,8 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="50" customHeight="1">
-      <c r="A153" s="42"/>
-      <c r="B153" s="47"/>
+      <c r="A153" s="39"/>
+      <c r="B153" s="42"/>
       <c r="C153" s="8" t="s">
         <v>297</v>
       </c>
@@ -31564,8 +31561,8 @@
       </c>
     </row>
     <row r="154" spans="1:7" ht="50" customHeight="1">
-      <c r="A154" s="42"/>
-      <c r="B154" s="47"/>
+      <c r="A154" s="39"/>
+      <c r="B154" s="42"/>
       <c r="C154" s="8" t="s">
         <v>299</v>
       </c>
@@ -31579,8 +31576,8 @@
       </c>
     </row>
     <row r="155" spans="1:7" ht="50" customHeight="1">
-      <c r="A155" s="42"/>
-      <c r="B155" s="47"/>
+      <c r="A155" s="39"/>
+      <c r="B155" s="42"/>
       <c r="C155" s="8" t="s">
         <v>301</v>
       </c>
@@ -31594,8 +31591,8 @@
       </c>
     </row>
     <row r="156" spans="1:7" ht="50" customHeight="1">
-      <c r="A156" s="42"/>
-      <c r="B156" s="47"/>
+      <c r="A156" s="39"/>
+      <c r="B156" s="42"/>
       <c r="C156" s="35" t="s">
         <v>915</v>
       </c>
@@ -31609,8 +31606,8 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="50" customHeight="1">
-      <c r="A157" s="42"/>
-      <c r="B157" s="47"/>
+      <c r="A157" s="39"/>
+      <c r="B157" s="42"/>
       <c r="C157" s="8" t="s">
         <v>303</v>
       </c>
@@ -31624,8 +31621,8 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="50" customHeight="1">
-      <c r="A158" s="42"/>
-      <c r="B158" s="48"/>
+      <c r="A158" s="39"/>
+      <c r="B158" s="43"/>
       <c r="C158" s="8" t="s">
         <v>305</v>
       </c>
@@ -31641,8 +31638,8 @@
       </c>
     </row>
     <row r="159" spans="1:7" ht="50" customHeight="1">
-      <c r="A159" s="42"/>
-      <c r="B159" s="41" t="s">
+      <c r="A159" s="39"/>
+      <c r="B159" s="38" t="s">
         <v>883</v>
       </c>
       <c r="C159" s="8" t="s">
@@ -31660,8 +31657,8 @@
       </c>
     </row>
     <row r="160" spans="1:7" ht="50" customHeight="1">
-      <c r="A160" s="42"/>
-      <c r="B160" s="42"/>
+      <c r="A160" s="39"/>
+      <c r="B160" s="39"/>
       <c r="C160" s="8" t="s">
         <v>309</v>
       </c>
@@ -31677,8 +31674,8 @@
       </c>
     </row>
     <row r="161" spans="1:7" ht="50" customHeight="1">
-      <c r="A161" s="42"/>
-      <c r="B161" s="43"/>
+      <c r="A161" s="39"/>
+      <c r="B161" s="40"/>
       <c r="C161" s="8" t="s">
         <v>311</v>
       </c>
@@ -31694,8 +31691,8 @@
       </c>
     </row>
     <row r="162" spans="1:7" ht="50" customHeight="1">
-      <c r="A162" s="42"/>
-      <c r="B162" s="41" t="s">
+      <c r="A162" s="39"/>
+      <c r="B162" s="38" t="s">
         <v>884</v>
       </c>
       <c r="C162" s="8" t="s">
@@ -31711,8 +31708,8 @@
       </c>
     </row>
     <row r="163" spans="1:7" ht="50" customHeight="1">
-      <c r="A163" s="42"/>
-      <c r="B163" s="42"/>
+      <c r="A163" s="39"/>
+      <c r="B163" s="39"/>
       <c r="C163" s="8" t="s">
         <v>315</v>
       </c>
@@ -31726,8 +31723,8 @@
       </c>
     </row>
     <row r="164" spans="1:7" ht="50" customHeight="1">
-      <c r="A164" s="42"/>
-      <c r="B164" s="42"/>
+      <c r="A164" s="39"/>
+      <c r="B164" s="39"/>
       <c r="C164" s="8" t="s">
         <v>317</v>
       </c>
@@ -31741,8 +31738,8 @@
       </c>
     </row>
     <row r="165" spans="1:7" ht="50" customHeight="1">
-      <c r="A165" s="42"/>
-      <c r="B165" s="42"/>
+      <c r="A165" s="39"/>
+      <c r="B165" s="39"/>
       <c r="C165" s="8" t="s">
         <v>319</v>
       </c>
@@ -31756,8 +31753,8 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="50" customHeight="1">
-      <c r="A166" s="42"/>
-      <c r="B166" s="43"/>
+      <c r="A166" s="39"/>
+      <c r="B166" s="40"/>
       <c r="C166" s="13" t="s">
         <v>321</v>
       </c>
@@ -31769,8 +31766,8 @@
       </c>
     </row>
     <row r="167" spans="1:7" ht="50" customHeight="1">
-      <c r="A167" s="42"/>
-      <c r="B167" s="41" t="s">
+      <c r="A167" s="39"/>
+      <c r="B167" s="38" t="s">
         <v>885</v>
       </c>
       <c r="C167" s="8" t="s">
@@ -31786,8 +31783,8 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="50" customHeight="1">
-      <c r="A168" s="42"/>
-      <c r="B168" s="42"/>
+      <c r="A168" s="39"/>
+      <c r="B168" s="39"/>
       <c r="C168" s="8" t="s">
         <v>325</v>
       </c>
@@ -31801,8 +31798,8 @@
       </c>
     </row>
     <row r="169" spans="1:7" ht="50" customHeight="1">
-      <c r="A169" s="42"/>
-      <c r="B169" s="42"/>
+      <c r="A169" s="39"/>
+      <c r="B169" s="39"/>
       <c r="C169" s="8" t="s">
         <v>326</v>
       </c>
@@ -31816,8 +31813,8 @@
       </c>
     </row>
     <row r="170" spans="1:7" ht="50" customHeight="1">
-      <c r="A170" s="42"/>
-      <c r="B170" s="42"/>
+      <c r="A170" s="39"/>
+      <c r="B170" s="39"/>
       <c r="C170" s="8" t="s">
         <v>328</v>
       </c>
@@ -31831,8 +31828,8 @@
       </c>
     </row>
     <row r="171" spans="1:7" ht="50" customHeight="1">
-      <c r="A171" s="42"/>
-      <c r="B171" s="42"/>
+      <c r="A171" s="39"/>
+      <c r="B171" s="39"/>
       <c r="C171" s="8" t="s">
         <v>330</v>
       </c>
@@ -31846,8 +31843,8 @@
       </c>
     </row>
     <row r="172" spans="1:7" ht="50" customHeight="1">
-      <c r="A172" s="42"/>
-      <c r="B172" s="42"/>
+      <c r="A172" s="39"/>
+      <c r="B172" s="39"/>
       <c r="C172" s="8" t="s">
         <v>332</v>
       </c>
@@ -31861,8 +31858,8 @@
       </c>
     </row>
     <row r="173" spans="1:7" ht="50" customHeight="1">
-      <c r="A173" s="42"/>
-      <c r="B173" s="42"/>
+      <c r="A173" s="39"/>
+      <c r="B173" s="39"/>
       <c r="C173" s="8" t="s">
         <v>334</v>
       </c>
@@ -31876,8 +31873,8 @@
       </c>
     </row>
     <row r="174" spans="1:7" ht="50" customHeight="1">
-      <c r="A174" s="42"/>
-      <c r="B174" s="42"/>
+      <c r="A174" s="39"/>
+      <c r="B174" s="39"/>
       <c r="C174" s="8" t="s">
         <v>336</v>
       </c>
@@ -31891,8 +31888,8 @@
       </c>
     </row>
     <row r="175" spans="1:7" ht="50" customHeight="1">
-      <c r="A175" s="42"/>
-      <c r="B175" s="42"/>
+      <c r="A175" s="39"/>
+      <c r="B175" s="39"/>
       <c r="C175" s="8" t="s">
         <v>338</v>
       </c>
@@ -31906,8 +31903,8 @@
       </c>
     </row>
     <row r="176" spans="1:7" ht="50" customHeight="1">
-      <c r="A176" s="42"/>
-      <c r="B176" s="42"/>
+      <c r="A176" s="39"/>
+      <c r="B176" s="39"/>
       <c r="C176" s="8" t="s">
         <v>340</v>
       </c>
@@ -31921,8 +31918,8 @@
       </c>
     </row>
     <row r="177" spans="1:7" ht="50" customHeight="1">
-      <c r="A177" s="42"/>
-      <c r="B177" s="43"/>
+      <c r="A177" s="39"/>
+      <c r="B177" s="40"/>
       <c r="C177" s="8" t="s">
         <v>342</v>
       </c>
@@ -31936,8 +31933,8 @@
       </c>
     </row>
     <row r="178" spans="1:7" ht="50" customHeight="1">
-      <c r="A178" s="42"/>
-      <c r="B178" s="41" t="s">
+      <c r="A178" s="39"/>
+      <c r="B178" s="38" t="s">
         <v>886</v>
       </c>
       <c r="C178" s="8" t="s">
@@ -31955,8 +31952,8 @@
       </c>
     </row>
     <row r="179" spans="1:7" ht="50" customHeight="1">
-      <c r="A179" s="42"/>
-      <c r="B179" s="43"/>
+      <c r="A179" s="39"/>
+      <c r="B179" s="40"/>
       <c r="C179" s="8" t="s">
         <v>346</v>
       </c>
@@ -31972,8 +31969,8 @@
       </c>
     </row>
     <row r="180" spans="1:7" ht="50" customHeight="1">
-      <c r="A180" s="42"/>
-      <c r="B180" s="41" t="s">
+      <c r="A180" s="39"/>
+      <c r="B180" s="38" t="s">
         <v>887</v>
       </c>
       <c r="C180" s="8" t="s">
@@ -31989,8 +31986,8 @@
       </c>
     </row>
     <row r="181" spans="1:7" ht="50" customHeight="1">
-      <c r="A181" s="42"/>
-      <c r="B181" s="42"/>
+      <c r="A181" s="39"/>
+      <c r="B181" s="39"/>
       <c r="C181" s="8" t="s">
         <v>350</v>
       </c>
@@ -32004,8 +32001,8 @@
       </c>
     </row>
     <row r="182" spans="1:7" ht="50" customHeight="1">
-      <c r="A182" s="42"/>
-      <c r="B182" s="42"/>
+      <c r="A182" s="39"/>
+      <c r="B182" s="39"/>
       <c r="C182" s="8" t="s">
         <v>352</v>
       </c>
@@ -32019,8 +32016,8 @@
       </c>
     </row>
     <row r="183" spans="1:7" ht="50" customHeight="1">
-      <c r="A183" s="42"/>
-      <c r="B183" s="42"/>
+      <c r="A183" s="39"/>
+      <c r="B183" s="39"/>
       <c r="C183" s="8" t="s">
         <v>354</v>
       </c>
@@ -32034,8 +32031,8 @@
       </c>
     </row>
     <row r="184" spans="1:7" ht="50" customHeight="1">
-      <c r="A184" s="42"/>
-      <c r="B184" s="42"/>
+      <c r="A184" s="39"/>
+      <c r="B184" s="39"/>
       <c r="C184" s="8" t="s">
         <v>356</v>
       </c>
@@ -32049,8 +32046,8 @@
       </c>
     </row>
     <row r="185" spans="1:7" ht="50" customHeight="1">
-      <c r="A185" s="42"/>
-      <c r="B185" s="43"/>
+      <c r="A185" s="39"/>
+      <c r="B185" s="40"/>
       <c r="C185" s="8" t="s">
         <v>358</v>
       </c>
@@ -32064,8 +32061,8 @@
       </c>
     </row>
     <row r="186" spans="1:7" ht="50" customHeight="1">
-      <c r="A186" s="42"/>
-      <c r="B186" s="41" t="s">
+      <c r="A186" s="39"/>
+      <c r="B186" s="38" t="s">
         <v>888</v>
       </c>
       <c r="C186" s="8" t="s">
@@ -32083,8 +32080,8 @@
       </c>
     </row>
     <row r="187" spans="1:7" ht="50" customHeight="1">
-      <c r="A187" s="42"/>
-      <c r="B187" s="42"/>
+      <c r="A187" s="39"/>
+      <c r="B187" s="39"/>
       <c r="C187" s="8" t="s">
         <v>362</v>
       </c>
@@ -32098,8 +32095,8 @@
       </c>
     </row>
     <row r="188" spans="1:7" ht="50" customHeight="1">
-      <c r="A188" s="42"/>
-      <c r="B188" s="42"/>
+      <c r="A188" s="39"/>
+      <c r="B188" s="39"/>
       <c r="C188" s="8" t="s">
         <v>364</v>
       </c>
@@ -32115,8 +32112,8 @@
       </c>
     </row>
     <row r="189" spans="1:7" ht="50" customHeight="1">
-      <c r="A189" s="42"/>
-      <c r="B189" s="42"/>
+      <c r="A189" s="39"/>
+      <c r="B189" s="39"/>
       <c r="C189" s="8" t="s">
         <v>366</v>
       </c>
@@ -32132,8 +32129,8 @@
       </c>
     </row>
     <row r="190" spans="1:7" ht="50" customHeight="1">
-      <c r="A190" s="42"/>
-      <c r="B190" s="42"/>
+      <c r="A190" s="39"/>
+      <c r="B190" s="39"/>
       <c r="C190" s="8" t="s">
         <v>368</v>
       </c>
@@ -32147,8 +32144,8 @@
       </c>
     </row>
     <row r="191" spans="1:7" ht="50" customHeight="1">
-      <c r="A191" s="42"/>
-      <c r="B191" s="42"/>
+      <c r="A191" s="39"/>
+      <c r="B191" s="39"/>
       <c r="C191" s="8" t="s">
         <v>370</v>
       </c>
@@ -32164,8 +32161,8 @@
       </c>
     </row>
     <row r="192" spans="1:7" ht="50" customHeight="1">
-      <c r="A192" s="42"/>
-      <c r="B192" s="42"/>
+      <c r="A192" s="39"/>
+      <c r="B192" s="39"/>
       <c r="C192" s="8" t="s">
         <v>372</v>
       </c>
@@ -32181,8 +32178,8 @@
       </c>
     </row>
     <row r="193" spans="1:16384" ht="50" customHeight="1">
-      <c r="A193" s="42"/>
-      <c r="B193" s="42"/>
+      <c r="A193" s="39"/>
+      <c r="B193" s="39"/>
       <c r="C193" s="8" t="s">
         <v>374</v>
       </c>
@@ -32198,8 +32195,8 @@
       </c>
     </row>
     <row r="194" spans="1:16384" ht="50" customHeight="1">
-      <c r="A194" s="42"/>
-      <c r="B194" s="42"/>
+      <c r="A194" s="39"/>
+      <c r="B194" s="39"/>
       <c r="C194" s="8" t="s">
         <v>376</v>
       </c>
@@ -32213,8 +32210,8 @@
       </c>
     </row>
     <row r="195" spans="1:16384" ht="50" customHeight="1">
-      <c r="A195" s="42"/>
-      <c r="B195" s="42"/>
+      <c r="A195" s="39"/>
+      <c r="B195" s="39"/>
       <c r="C195" s="8" t="s">
         <v>378</v>
       </c>
@@ -32230,8 +32227,8 @@
       </c>
     </row>
     <row r="196" spans="1:16384" ht="50" customHeight="1">
-      <c r="A196" s="42"/>
-      <c r="B196" s="42"/>
+      <c r="A196" s="39"/>
+      <c r="B196" s="39"/>
       <c r="C196" s="8" t="s">
         <v>380</v>
       </c>
@@ -32245,8 +32242,8 @@
       </c>
     </row>
     <row r="197" spans="1:16384" ht="50" customHeight="1">
-      <c r="A197" s="42"/>
-      <c r="B197" s="42"/>
+      <c r="A197" s="39"/>
+      <c r="B197" s="39"/>
       <c r="C197" s="8" t="s">
         <v>382</v>
       </c>
@@ -32260,8 +32257,8 @@
       </c>
     </row>
     <row r="198" spans="1:16384" ht="50" customHeight="1">
-      <c r="A198" s="42"/>
-      <c r="B198" s="42"/>
+      <c r="A198" s="39"/>
+      <c r="B198" s="39"/>
       <c r="C198" s="8" t="s">
         <v>384</v>
       </c>
@@ -32275,8 +32272,8 @@
       </c>
     </row>
     <row r="199" spans="1:16384" ht="50" customHeight="1">
-      <c r="A199" s="42"/>
-      <c r="B199" s="42"/>
+      <c r="A199" s="39"/>
+      <c r="B199" s="39"/>
       <c r="C199" s="35" t="s">
         <v>911</v>
       </c>
@@ -32290,8 +32287,8 @@
       </c>
     </row>
     <row r="200" spans="1:16384" ht="50" customHeight="1">
-      <c r="A200" s="42"/>
-      <c r="B200" s="42"/>
+      <c r="A200" s="39"/>
+      <c r="B200" s="39"/>
       <c r="C200" s="35" t="s">
         <v>913</v>
       </c>
@@ -48682,8 +48679,8 @@
       <c r="XFD200" s="35"/>
     </row>
     <row r="201" spans="1:16384" ht="50" customHeight="1">
-      <c r="A201" s="42"/>
-      <c r="B201" s="42"/>
+      <c r="A201" s="39"/>
+      <c r="B201" s="39"/>
       <c r="C201" s="8" t="s">
         <v>386</v>
       </c>
@@ -48697,8 +48694,8 @@
       </c>
     </row>
     <row r="202" spans="1:16384" ht="50" customHeight="1">
-      <c r="A202" s="42"/>
-      <c r="B202" s="42"/>
+      <c r="A202" s="39"/>
+      <c r="B202" s="39"/>
       <c r="C202" s="8" t="s">
         <v>388</v>
       </c>
@@ -48714,8 +48711,8 @@
       </c>
     </row>
     <row r="203" spans="1:16384" ht="50" customHeight="1">
-      <c r="A203" s="42"/>
-      <c r="B203" s="42"/>
+      <c r="A203" s="39"/>
+      <c r="B203" s="39"/>
       <c r="C203" s="8" t="s">
         <v>390</v>
       </c>
@@ -48729,8 +48726,8 @@
       </c>
     </row>
     <row r="204" spans="1:16384" ht="50" customHeight="1">
-      <c r="A204" s="42"/>
-      <c r="B204" s="42"/>
+      <c r="A204" s="39"/>
+      <c r="B204" s="39"/>
       <c r="C204" s="8" t="s">
         <v>392</v>
       </c>
@@ -48746,8 +48743,8 @@
       </c>
     </row>
     <row r="205" spans="1:16384" ht="50" customHeight="1">
-      <c r="A205" s="42"/>
-      <c r="B205" s="42"/>
+      <c r="A205" s="39"/>
+      <c r="B205" s="39"/>
       <c r="C205" s="8" t="s">
         <v>394</v>
       </c>
@@ -48761,8 +48758,8 @@
       </c>
     </row>
     <row r="206" spans="1:16384" ht="50" customHeight="1">
-      <c r="A206" s="42"/>
-      <c r="B206" s="42"/>
+      <c r="A206" s="39"/>
+      <c r="B206" s="39"/>
       <c r="C206" s="8" t="s">
         <v>396</v>
       </c>
@@ -48776,8 +48773,8 @@
       </c>
     </row>
     <row r="207" spans="1:16384" ht="50" customHeight="1">
-      <c r="A207" s="42"/>
-      <c r="B207" s="42"/>
+      <c r="A207" s="39"/>
+      <c r="B207" s="39"/>
       <c r="C207" s="8" t="s">
         <v>398</v>
       </c>
@@ -48791,8 +48788,8 @@
       </c>
     </row>
     <row r="208" spans="1:16384" ht="50" customHeight="1">
-      <c r="A208" s="42"/>
-      <c r="B208" s="42"/>
+      <c r="A208" s="39"/>
+      <c r="B208" s="39"/>
       <c r="C208" s="8" t="s">
         <v>400</v>
       </c>
@@ -48806,8 +48803,8 @@
       </c>
     </row>
     <row r="209" spans="1:7" ht="50" customHeight="1">
-      <c r="A209" s="42"/>
-      <c r="B209" s="42"/>
+      <c r="A209" s="39"/>
+      <c r="B209" s="39"/>
       <c r="C209" s="8" t="s">
         <v>402</v>
       </c>
@@ -48821,8 +48818,8 @@
       </c>
     </row>
     <row r="210" spans="1:7" ht="50" customHeight="1">
-      <c r="A210" s="42"/>
-      <c r="B210" s="42"/>
+      <c r="A210" s="39"/>
+      <c r="B210" s="39"/>
       <c r="C210" s="8" t="s">
         <v>404</v>
       </c>
@@ -48836,8 +48833,8 @@
       </c>
     </row>
     <row r="211" spans="1:7" ht="50" customHeight="1">
-      <c r="A211" s="42"/>
-      <c r="B211" s="42"/>
+      <c r="A211" s="39"/>
+      <c r="B211" s="39"/>
       <c r="C211" s="8" t="s">
         <v>406</v>
       </c>
@@ -48851,8 +48848,8 @@
       </c>
     </row>
     <row r="212" spans="1:7" ht="50" customHeight="1">
-      <c r="A212" s="42"/>
-      <c r="B212" s="42"/>
+      <c r="A212" s="39"/>
+      <c r="B212" s="39"/>
       <c r="C212" s="8" t="s">
         <v>408</v>
       </c>
@@ -48866,8 +48863,8 @@
       </c>
     </row>
     <row r="213" spans="1:7" ht="50" customHeight="1">
-      <c r="A213" s="42"/>
-      <c r="B213" s="42"/>
+      <c r="A213" s="39"/>
+      <c r="B213" s="39"/>
       <c r="C213" s="8" t="s">
         <v>410</v>
       </c>
@@ -48881,8 +48878,8 @@
       </c>
     </row>
     <row r="214" spans="1:7" ht="50" customHeight="1">
-      <c r="A214" s="42"/>
-      <c r="B214" s="42"/>
+      <c r="A214" s="39"/>
+      <c r="B214" s="39"/>
       <c r="C214" s="8" t="s">
         <v>412</v>
       </c>
@@ -48896,8 +48893,8 @@
       </c>
     </row>
     <row r="215" spans="1:7" ht="50" customHeight="1">
-      <c r="A215" s="42"/>
-      <c r="B215" s="42"/>
+      <c r="A215" s="39"/>
+      <c r="B215" s="39"/>
       <c r="C215" s="8" t="s">
         <v>414</v>
       </c>
@@ -48911,8 +48908,8 @@
       </c>
     </row>
     <row r="216" spans="1:7" ht="50" customHeight="1">
-      <c r="A216" s="42"/>
-      <c r="B216" s="42"/>
+      <c r="A216" s="39"/>
+      <c r="B216" s="39"/>
       <c r="C216" s="8" t="s">
         <v>416</v>
       </c>
@@ -48926,8 +48923,8 @@
       </c>
     </row>
     <row r="217" spans="1:7" ht="50" customHeight="1">
-      <c r="A217" s="42"/>
-      <c r="B217" s="42"/>
+      <c r="A217" s="39"/>
+      <c r="B217" s="39"/>
       <c r="C217" s="8" t="s">
         <v>418</v>
       </c>
@@ -48941,8 +48938,8 @@
       </c>
     </row>
     <row r="218" spans="1:7" ht="50" customHeight="1">
-      <c r="A218" s="42"/>
-      <c r="B218" s="42"/>
+      <c r="A218" s="39"/>
+      <c r="B218" s="39"/>
       <c r="C218" s="8" t="s">
         <v>420</v>
       </c>
@@ -48956,8 +48953,8 @@
       </c>
     </row>
     <row r="219" spans="1:7" ht="50" customHeight="1">
-      <c r="A219" s="42"/>
-      <c r="B219" s="42"/>
+      <c r="A219" s="39"/>
+      <c r="B219" s="39"/>
       <c r="C219" s="8" t="s">
         <v>422</v>
       </c>
@@ -48971,8 +48968,8 @@
       </c>
     </row>
     <row r="220" spans="1:7" ht="50" customHeight="1">
-      <c r="A220" s="42"/>
-      <c r="B220" s="42"/>
+      <c r="A220" s="39"/>
+      <c r="B220" s="39"/>
       <c r="C220" s="8" t="s">
         <v>424</v>
       </c>
@@ -48986,8 +48983,8 @@
       </c>
     </row>
     <row r="221" spans="1:7" ht="50" customHeight="1">
-      <c r="A221" s="42"/>
-      <c r="B221" s="42"/>
+      <c r="A221" s="39"/>
+      <c r="B221" s="39"/>
       <c r="C221" s="8" t="s">
         <v>426</v>
       </c>
@@ -49001,8 +48998,8 @@
       </c>
     </row>
     <row r="222" spans="1:7" ht="50" customHeight="1">
-      <c r="A222" s="42"/>
-      <c r="B222" s="43"/>
+      <c r="A222" s="39"/>
+      <c r="B222" s="40"/>
       <c r="C222" s="8" t="s">
         <v>428</v>
       </c>
@@ -49016,8 +49013,8 @@
       </c>
     </row>
     <row r="223" spans="1:7" ht="50" customHeight="1">
-      <c r="A223" s="42"/>
-      <c r="B223" s="41" t="s">
+      <c r="A223" s="39"/>
+      <c r="B223" s="38" t="s">
         <v>889</v>
       </c>
       <c r="C223" s="13" t="s">
@@ -49031,8 +49028,8 @@
       </c>
     </row>
     <row r="224" spans="1:7" ht="50" customHeight="1">
-      <c r="A224" s="42"/>
-      <c r="B224" s="42"/>
+      <c r="A224" s="39"/>
+      <c r="B224" s="39"/>
       <c r="C224" s="13" t="s">
         <v>432</v>
       </c>
@@ -49047,8 +49044,8 @@
       </c>
     </row>
     <row r="225" spans="1:7" ht="50" customHeight="1">
-      <c r="A225" s="42"/>
-      <c r="B225" s="42"/>
+      <c r="A225" s="39"/>
+      <c r="B225" s="39"/>
       <c r="C225" s="13" t="s">
         <v>434</v>
       </c>
@@ -49060,8 +49057,8 @@
       </c>
     </row>
     <row r="226" spans="1:7" ht="50" customHeight="1">
-      <c r="A226" s="43"/>
-      <c r="B226" s="43"/>
+      <c r="A226" s="40"/>
+      <c r="B226" s="40"/>
       <c r="C226" s="13" t="s">
         <v>436</v>
       </c>
@@ -49073,7 +49070,7 @@
       </c>
     </row>
     <row r="227" spans="1:7" ht="50" customHeight="1">
-      <c r="A227" s="41" t="s">
+      <c r="A227" s="38" t="s">
         <v>870</v>
       </c>
       <c r="B227" s="14" t="s">
@@ -49094,7 +49091,7 @@
       </c>
     </row>
     <row r="228" spans="1:7" ht="50" customHeight="1">
-      <c r="A228" s="42"/>
+      <c r="A228" s="39"/>
       <c r="B228" s="14" t="s">
         <v>892</v>
       </c>
@@ -49113,8 +49110,8 @@
       </c>
     </row>
     <row r="229" spans="1:7" ht="50" customHeight="1">
-      <c r="A229" s="42"/>
-      <c r="B229" s="41" t="s">
+      <c r="A229" s="39"/>
+      <c r="B229" s="38" t="s">
         <v>893</v>
       </c>
       <c r="C229" s="8" t="s">
@@ -49132,8 +49129,8 @@
       </c>
     </row>
     <row r="230" spans="1:7" ht="50" customHeight="1">
-      <c r="A230" s="42"/>
-      <c r="B230" s="43"/>
+      <c r="A230" s="39"/>
+      <c r="B230" s="40"/>
       <c r="C230" s="8" t="s">
         <v>444</v>
       </c>
@@ -49149,8 +49146,8 @@
       </c>
     </row>
     <row r="231" spans="1:7" ht="50" customHeight="1">
-      <c r="A231" s="42"/>
-      <c r="B231" s="41" t="s">
+      <c r="A231" s="39"/>
+      <c r="B231" s="38" t="s">
         <v>894</v>
       </c>
       <c r="C231" s="8" t="s">
@@ -49166,8 +49163,8 @@
       </c>
     </row>
     <row r="232" spans="1:7" ht="50" customHeight="1">
-      <c r="A232" s="42"/>
-      <c r="B232" s="43"/>
+      <c r="A232" s="39"/>
+      <c r="B232" s="40"/>
       <c r="C232" s="8" t="s">
         <v>448</v>
       </c>
@@ -49181,8 +49178,8 @@
       </c>
     </row>
     <row r="233" spans="1:7" ht="50" customHeight="1">
-      <c r="A233" s="42"/>
-      <c r="B233" s="41" t="s">
+      <c r="A233" s="39"/>
+      <c r="B233" s="38" t="s">
         <v>895</v>
       </c>
       <c r="C233" s="8" t="s">
@@ -49198,8 +49195,8 @@
       </c>
     </row>
     <row r="234" spans="1:7" ht="50" customHeight="1">
-      <c r="A234" s="42"/>
-      <c r="B234" s="42"/>
+      <c r="A234" s="39"/>
+      <c r="B234" s="39"/>
       <c r="C234" s="8" t="s">
         <v>452</v>
       </c>
@@ -49213,8 +49210,8 @@
       </c>
     </row>
     <row r="235" spans="1:7" ht="50" customHeight="1">
-      <c r="A235" s="42"/>
-      <c r="B235" s="42"/>
+      <c r="A235" s="39"/>
+      <c r="B235" s="39"/>
       <c r="C235" s="8" t="s">
         <v>454</v>
       </c>
@@ -49228,8 +49225,8 @@
       </c>
     </row>
     <row r="236" spans="1:7" ht="50" customHeight="1">
-      <c r="A236" s="42"/>
-      <c r="B236" s="42"/>
+      <c r="A236" s="39"/>
+      <c r="B236" s="39"/>
       <c r="C236" s="8" t="s">
         <v>456</v>
       </c>
@@ -49243,8 +49240,8 @@
       </c>
     </row>
     <row r="237" spans="1:7" ht="50" customHeight="1">
-      <c r="A237" s="42"/>
-      <c r="B237" s="42"/>
+      <c r="A237" s="39"/>
+      <c r="B237" s="39"/>
       <c r="C237" s="8" t="s">
         <v>458</v>
       </c>
@@ -49258,8 +49255,8 @@
       </c>
     </row>
     <row r="238" spans="1:7" ht="50" customHeight="1">
-      <c r="A238" s="42"/>
-      <c r="B238" s="42"/>
+      <c r="A238" s="39"/>
+      <c r="B238" s="39"/>
       <c r="C238" s="8" t="s">
         <v>460</v>
       </c>
@@ -49273,8 +49270,8 @@
       </c>
     </row>
     <row r="239" spans="1:7" ht="50" customHeight="1">
-      <c r="A239" s="42"/>
-      <c r="B239" s="42"/>
+      <c r="A239" s="39"/>
+      <c r="B239" s="39"/>
       <c r="C239" s="8" t="s">
         <v>462</v>
       </c>
@@ -49288,8 +49285,8 @@
       </c>
     </row>
     <row r="240" spans="1:7" ht="50" customHeight="1">
-      <c r="A240" s="42"/>
-      <c r="B240" s="42"/>
+      <c r="A240" s="39"/>
+      <c r="B240" s="39"/>
       <c r="C240" s="8" t="s">
         <v>464</v>
       </c>
@@ -49303,8 +49300,8 @@
       </c>
     </row>
     <row r="241" spans="1:7" ht="50" customHeight="1">
-      <c r="A241" s="42"/>
-      <c r="B241" s="42"/>
+      <c r="A241" s="39"/>
+      <c r="B241" s="39"/>
       <c r="C241" s="8" t="s">
         <v>466</v>
       </c>
@@ -49318,8 +49315,8 @@
       </c>
     </row>
     <row r="242" spans="1:7" ht="50" customHeight="1">
-      <c r="A242" s="42"/>
-      <c r="B242" s="42"/>
+      <c r="A242" s="39"/>
+      <c r="B242" s="39"/>
       <c r="C242" s="8" t="s">
         <v>468</v>
       </c>
@@ -49333,8 +49330,8 @@
       </c>
     </row>
     <row r="243" spans="1:7" ht="50" customHeight="1">
-      <c r="A243" s="42"/>
-      <c r="B243" s="42"/>
+      <c r="A243" s="39"/>
+      <c r="B243" s="39"/>
       <c r="C243" s="8" t="s">
         <v>470</v>
       </c>
@@ -49348,8 +49345,8 @@
       </c>
     </row>
     <row r="244" spans="1:7" ht="50" customHeight="1">
-      <c r="A244" s="42"/>
-      <c r="B244" s="42"/>
+      <c r="A244" s="39"/>
+      <c r="B244" s="39"/>
       <c r="C244" s="8" t="s">
         <v>472</v>
       </c>
@@ -49363,8 +49360,8 @@
       </c>
     </row>
     <row r="245" spans="1:7" ht="50" customHeight="1">
-      <c r="A245" s="42"/>
-      <c r="B245" s="42"/>
+      <c r="A245" s="39"/>
+      <c r="B245" s="39"/>
       <c r="C245" s="8" t="s">
         <v>474</v>
       </c>
@@ -49378,8 +49375,8 @@
       </c>
     </row>
     <row r="246" spans="1:7" ht="50" customHeight="1">
-      <c r="A246" s="42"/>
-      <c r="B246" s="42"/>
+      <c r="A246" s="39"/>
+      <c r="B246" s="39"/>
       <c r="C246" s="8" t="s">
         <v>476</v>
       </c>
@@ -49393,8 +49390,8 @@
       </c>
     </row>
     <row r="247" spans="1:7" ht="50" customHeight="1">
-      <c r="A247" s="42"/>
-      <c r="B247" s="42"/>
+      <c r="A247" s="39"/>
+      <c r="B247" s="39"/>
       <c r="C247" s="8" t="s">
         <v>478</v>
       </c>
@@ -49408,8 +49405,8 @@
       </c>
     </row>
     <row r="248" spans="1:7" ht="50" customHeight="1">
-      <c r="A248" s="42"/>
-      <c r="B248" s="42"/>
+      <c r="A248" s="39"/>
+      <c r="B248" s="39"/>
       <c r="C248" s="8" t="s">
         <v>480</v>
       </c>
@@ -49423,8 +49420,8 @@
       </c>
     </row>
     <row r="249" spans="1:7" ht="50" customHeight="1">
-      <c r="A249" s="42"/>
-      <c r="B249" s="42"/>
+      <c r="A249" s="39"/>
+      <c r="B249" s="39"/>
       <c r="C249" s="8" t="s">
         <v>482</v>
       </c>
@@ -49438,8 +49435,8 @@
       </c>
     </row>
     <row r="250" spans="1:7" ht="50" customHeight="1">
-      <c r="A250" s="42"/>
-      <c r="B250" s="42"/>
+      <c r="A250" s="39"/>
+      <c r="B250" s="39"/>
       <c r="C250" s="8" t="s">
         <v>484</v>
       </c>
@@ -49453,8 +49450,8 @@
       </c>
     </row>
     <row r="251" spans="1:7" ht="50" customHeight="1">
-      <c r="A251" s="42"/>
-      <c r="B251" s="42"/>
+      <c r="A251" s="39"/>
+      <c r="B251" s="39"/>
       <c r="C251" s="8" t="s">
         <v>486</v>
       </c>
@@ -49468,8 +49465,8 @@
       </c>
     </row>
     <row r="252" spans="1:7" ht="50" customHeight="1">
-      <c r="A252" s="42"/>
-      <c r="B252" s="42"/>
+      <c r="A252" s="39"/>
+      <c r="B252" s="39"/>
       <c r="C252" s="8" t="s">
         <v>488</v>
       </c>
@@ -49483,8 +49480,8 @@
       </c>
     </row>
     <row r="253" spans="1:7" ht="50" customHeight="1">
-      <c r="A253" s="42"/>
-      <c r="B253" s="42"/>
+      <c r="A253" s="39"/>
+      <c r="B253" s="39"/>
       <c r="C253" s="8" t="s">
         <v>490</v>
       </c>
@@ -49498,8 +49495,8 @@
       </c>
     </row>
     <row r="254" spans="1:7" ht="50" customHeight="1">
-      <c r="A254" s="42"/>
-      <c r="B254" s="42"/>
+      <c r="A254" s="39"/>
+      <c r="B254" s="39"/>
       <c r="C254" s="8" t="s">
         <v>492</v>
       </c>
@@ -49513,8 +49510,8 @@
       </c>
     </row>
     <row r="255" spans="1:7" ht="50" customHeight="1">
-      <c r="A255" s="42"/>
-      <c r="B255" s="42"/>
+      <c r="A255" s="39"/>
+      <c r="B255" s="39"/>
       <c r="C255" s="8" t="s">
         <v>494</v>
       </c>
@@ -49528,8 +49525,8 @@
       </c>
     </row>
     <row r="256" spans="1:7" ht="50" customHeight="1">
-      <c r="A256" s="42"/>
-      <c r="B256" s="42"/>
+      <c r="A256" s="39"/>
+      <c r="B256" s="39"/>
       <c r="C256" s="8" t="s">
         <v>496</v>
       </c>
@@ -49543,8 +49540,8 @@
       </c>
     </row>
     <row r="257" spans="1:7" ht="50" customHeight="1">
-      <c r="A257" s="42"/>
-      <c r="B257" s="42"/>
+      <c r="A257" s="39"/>
+      <c r="B257" s="39"/>
       <c r="C257" s="8" t="s">
         <v>498</v>
       </c>
@@ -49558,8 +49555,8 @@
       </c>
     </row>
     <row r="258" spans="1:7" ht="50" customHeight="1">
-      <c r="A258" s="42"/>
-      <c r="B258" s="42"/>
+      <c r="A258" s="39"/>
+      <c r="B258" s="39"/>
       <c r="C258" s="8" t="s">
         <v>500</v>
       </c>
@@ -49573,8 +49570,8 @@
       </c>
     </row>
     <row r="259" spans="1:7" ht="50" customHeight="1">
-      <c r="A259" s="42"/>
-      <c r="B259" s="42"/>
+      <c r="A259" s="39"/>
+      <c r="B259" s="39"/>
       <c r="C259" s="8" t="s">
         <v>502</v>
       </c>
@@ -49588,8 +49585,8 @@
       </c>
     </row>
     <row r="260" spans="1:7" ht="50" customHeight="1">
-      <c r="A260" s="42"/>
-      <c r="B260" s="42"/>
+      <c r="A260" s="39"/>
+      <c r="B260" s="39"/>
       <c r="C260" s="8" t="s">
         <v>504</v>
       </c>
@@ -49603,8 +49600,8 @@
       </c>
     </row>
     <row r="261" spans="1:7" ht="50" customHeight="1">
-      <c r="A261" s="42"/>
-      <c r="B261" s="42"/>
+      <c r="A261" s="39"/>
+      <c r="B261" s="39"/>
       <c r="C261" s="8" t="s">
         <v>506</v>
       </c>
@@ -49618,8 +49615,8 @@
       </c>
     </row>
     <row r="262" spans="1:7" ht="50" customHeight="1">
-      <c r="A262" s="42"/>
-      <c r="B262" s="42"/>
+      <c r="A262" s="39"/>
+      <c r="B262" s="39"/>
       <c r="C262" s="8" t="s">
         <v>508</v>
       </c>
@@ -49633,8 +49630,8 @@
       </c>
     </row>
     <row r="263" spans="1:7" ht="50" customHeight="1">
-      <c r="A263" s="42"/>
-      <c r="B263" s="42"/>
+      <c r="A263" s="39"/>
+      <c r="B263" s="39"/>
       <c r="C263" s="8" t="s">
         <v>510</v>
       </c>
@@ -49648,8 +49645,8 @@
       </c>
     </row>
     <row r="264" spans="1:7" ht="50" customHeight="1">
-      <c r="A264" s="42"/>
-      <c r="B264" s="42"/>
+      <c r="A264" s="39"/>
+      <c r="B264" s="39"/>
       <c r="C264" s="8" t="s">
         <v>512</v>
       </c>
@@ -49663,8 +49660,8 @@
       </c>
     </row>
     <row r="265" spans="1:7" ht="50" customHeight="1">
-      <c r="A265" s="42"/>
-      <c r="B265" s="42"/>
+      <c r="A265" s="39"/>
+      <c r="B265" s="39"/>
       <c r="C265" s="8" t="s">
         <v>514</v>
       </c>
@@ -49678,8 +49675,8 @@
       </c>
     </row>
     <row r="266" spans="1:7" ht="50" customHeight="1">
-      <c r="A266" s="42"/>
-      <c r="B266" s="42"/>
+      <c r="A266" s="39"/>
+      <c r="B266" s="39"/>
       <c r="C266" s="8" t="s">
         <v>516</v>
       </c>
@@ -49693,8 +49690,8 @@
       </c>
     </row>
     <row r="267" spans="1:7" ht="50" customHeight="1">
-      <c r="A267" s="42"/>
-      <c r="B267" s="43"/>
+      <c r="A267" s="39"/>
+      <c r="B267" s="40"/>
       <c r="C267" s="8" t="s">
         <v>518</v>
       </c>
@@ -49708,7 +49705,7 @@
       </c>
     </row>
     <row r="268" spans="1:7" ht="50" customHeight="1">
-      <c r="A268" s="42"/>
+      <c r="A268" s="39"/>
       <c r="B268" s="14" t="s">
         <v>896</v>
       </c>
@@ -49725,8 +49722,8 @@
       </c>
     </row>
     <row r="269" spans="1:7" ht="50" customHeight="1">
-      <c r="A269" s="42"/>
-      <c r="B269" s="41" t="s">
+      <c r="A269" s="39"/>
+      <c r="B269" s="38" t="s">
         <v>897</v>
       </c>
       <c r="C269" s="35" t="s">
@@ -49742,8 +49739,8 @@
       </c>
     </row>
     <row r="270" spans="1:7" ht="50" customHeight="1">
-      <c r="A270" s="42"/>
-      <c r="B270" s="42"/>
+      <c r="A270" s="39"/>
+      <c r="B270" s="39"/>
       <c r="C270" s="8" t="s">
         <v>522</v>
       </c>
@@ -49759,8 +49756,8 @@
       </c>
     </row>
     <row r="271" spans="1:7" ht="50" customHeight="1">
-      <c r="A271" s="42"/>
-      <c r="B271" s="42"/>
+      <c r="A271" s="39"/>
+      <c r="B271" s="39"/>
       <c r="C271" s="8" t="s">
         <v>524</v>
       </c>
@@ -49774,8 +49771,8 @@
       </c>
     </row>
     <row r="272" spans="1:7" ht="50" customHeight="1">
-      <c r="A272" s="42"/>
-      <c r="B272" s="42"/>
+      <c r="A272" s="39"/>
+      <c r="B272" s="39"/>
       <c r="C272" s="8" t="s">
         <v>526</v>
       </c>
@@ -49789,8 +49786,8 @@
       </c>
     </row>
     <row r="273" spans="1:7" ht="50" customHeight="1">
-      <c r="A273" s="42"/>
-      <c r="B273" s="43"/>
+      <c r="A273" s="39"/>
+      <c r="B273" s="40"/>
       <c r="C273" s="8" t="s">
         <v>528</v>
       </c>
@@ -49804,8 +49801,8 @@
       </c>
     </row>
     <row r="274" spans="1:7" ht="50" customHeight="1">
-      <c r="A274" s="42"/>
-      <c r="B274" s="41" t="s">
+      <c r="A274" s="39"/>
+      <c r="B274" s="38" t="s">
         <v>898</v>
       </c>
       <c r="C274" s="8" t="s">
@@ -49821,8 +49818,8 @@
       </c>
     </row>
     <row r="275" spans="1:7" ht="50" customHeight="1">
-      <c r="A275" s="42"/>
-      <c r="B275" s="42"/>
+      <c r="A275" s="39"/>
+      <c r="B275" s="39"/>
       <c r="C275" s="8" t="s">
         <v>532</v>
       </c>
@@ -49838,8 +49835,8 @@
       </c>
     </row>
     <row r="276" spans="1:7" ht="50" customHeight="1">
-      <c r="A276" s="42"/>
-      <c r="B276" s="42"/>
+      <c r="A276" s="39"/>
+      <c r="B276" s="39"/>
       <c r="C276" s="8" t="s">
         <v>534</v>
       </c>
@@ -49855,8 +49852,8 @@
       </c>
     </row>
     <row r="277" spans="1:7" ht="50" customHeight="1">
-      <c r="A277" s="42"/>
-      <c r="B277" s="42"/>
+      <c r="A277" s="39"/>
+      <c r="B277" s="39"/>
       <c r="C277" s="8" t="s">
         <v>536</v>
       </c>
@@ -49870,8 +49867,8 @@
       </c>
     </row>
     <row r="278" spans="1:7" ht="50" customHeight="1">
-      <c r="A278" s="42"/>
-      <c r="B278" s="42"/>
+      <c r="A278" s="39"/>
+      <c r="B278" s="39"/>
       <c r="C278" s="8" t="s">
         <v>538</v>
       </c>
@@ -49885,8 +49882,8 @@
       </c>
     </row>
     <row r="279" spans="1:7" ht="50" customHeight="1">
-      <c r="A279" s="42"/>
-      <c r="B279" s="42"/>
+      <c r="A279" s="39"/>
+      <c r="B279" s="39"/>
       <c r="C279" s="8" t="s">
         <v>540</v>
       </c>
@@ -49902,8 +49899,8 @@
       </c>
     </row>
     <row r="280" spans="1:7" ht="50" customHeight="1">
-      <c r="A280" s="42"/>
-      <c r="B280" s="42"/>
+      <c r="A280" s="39"/>
+      <c r="B280" s="39"/>
       <c r="C280" s="8" t="s">
         <v>542</v>
       </c>
@@ -49917,8 +49914,8 @@
       </c>
     </row>
     <row r="281" spans="1:7" ht="50" customHeight="1">
-      <c r="A281" s="42"/>
-      <c r="B281" s="42"/>
+      <c r="A281" s="39"/>
+      <c r="B281" s="39"/>
       <c r="C281" s="8" t="s">
         <v>544</v>
       </c>
@@ -49932,8 +49929,8 @@
       </c>
     </row>
     <row r="282" spans="1:7" ht="50" customHeight="1">
-      <c r="A282" s="42"/>
-      <c r="B282" s="42"/>
+      <c r="A282" s="39"/>
+      <c r="B282" s="39"/>
       <c r="C282" s="8" t="s">
         <v>546</v>
       </c>
@@ -49947,8 +49944,8 @@
       </c>
     </row>
     <row r="283" spans="1:7" ht="50" customHeight="1">
-      <c r="A283" s="42"/>
-      <c r="B283" s="42"/>
+      <c r="A283" s="39"/>
+      <c r="B283" s="39"/>
       <c r="C283" s="8" t="s">
         <v>548</v>
       </c>
@@ -49962,8 +49959,8 @@
       </c>
     </row>
     <row r="284" spans="1:7" ht="50" customHeight="1">
-      <c r="A284" s="42"/>
-      <c r="B284" s="42"/>
+      <c r="A284" s="39"/>
+      <c r="B284" s="39"/>
       <c r="C284" s="8" t="s">
         <v>550</v>
       </c>
@@ -49977,8 +49974,8 @@
       </c>
     </row>
     <row r="285" spans="1:7" ht="50" customHeight="1">
-      <c r="A285" s="42"/>
-      <c r="B285" s="42"/>
+      <c r="A285" s="39"/>
+      <c r="B285" s="39"/>
       <c r="C285" s="8" t="s">
         <v>552</v>
       </c>
@@ -49992,8 +49989,8 @@
       </c>
     </row>
     <row r="286" spans="1:7" ht="50" customHeight="1">
-      <c r="A286" s="42"/>
-      <c r="B286" s="42"/>
+      <c r="A286" s="39"/>
+      <c r="B286" s="39"/>
       <c r="C286" s="8" t="s">
         <v>554</v>
       </c>
@@ -50007,8 +50004,8 @@
       </c>
     </row>
     <row r="287" spans="1:7" ht="50" customHeight="1">
-      <c r="A287" s="42"/>
-      <c r="B287" s="42"/>
+      <c r="A287" s="39"/>
+      <c r="B287" s="39"/>
       <c r="C287" s="8" t="s">
         <v>556</v>
       </c>
@@ -50022,8 +50019,8 @@
       </c>
     </row>
     <row r="288" spans="1:7" ht="50" customHeight="1">
-      <c r="A288" s="42"/>
-      <c r="B288" s="42"/>
+      <c r="A288" s="39"/>
+      <c r="B288" s="39"/>
       <c r="C288" s="8" t="s">
         <v>558</v>
       </c>
@@ -50037,8 +50034,8 @@
       </c>
     </row>
     <row r="289" spans="1:7" ht="50" customHeight="1">
-      <c r="A289" s="42"/>
-      <c r="B289" s="42"/>
+      <c r="A289" s="39"/>
+      <c r="B289" s="39"/>
       <c r="C289" s="8" t="s">
         <v>560</v>
       </c>
@@ -50052,8 +50049,8 @@
       </c>
     </row>
     <row r="290" spans="1:7" ht="50" customHeight="1">
-      <c r="A290" s="42"/>
-      <c r="B290" s="42"/>
+      <c r="A290" s="39"/>
+      <c r="B290" s="39"/>
       <c r="C290" s="8" t="s">
         <v>562</v>
       </c>
@@ -50067,8 +50064,8 @@
       </c>
     </row>
     <row r="291" spans="1:7" ht="50" customHeight="1">
-      <c r="A291" s="42"/>
-      <c r="B291" s="42"/>
+      <c r="A291" s="39"/>
+      <c r="B291" s="39"/>
       <c r="C291" s="8" t="s">
         <v>564</v>
       </c>
@@ -50082,8 +50079,8 @@
       </c>
     </row>
     <row r="292" spans="1:7" ht="50" customHeight="1">
-      <c r="A292" s="42"/>
-      <c r="B292" s="42"/>
+      <c r="A292" s="39"/>
+      <c r="B292" s="39"/>
       <c r="C292" s="8" t="s">
         <v>566</v>
       </c>
@@ -50097,8 +50094,8 @@
       </c>
     </row>
     <row r="293" spans="1:7" ht="50" customHeight="1">
-      <c r="A293" s="42"/>
-      <c r="B293" s="42"/>
+      <c r="A293" s="39"/>
+      <c r="B293" s="39"/>
       <c r="C293" s="8" t="s">
         <v>568</v>
       </c>
@@ -50112,8 +50109,8 @@
       </c>
     </row>
     <row r="294" spans="1:7" ht="50" customHeight="1">
-      <c r="A294" s="42"/>
-      <c r="B294" s="42"/>
+      <c r="A294" s="39"/>
+      <c r="B294" s="39"/>
       <c r="C294" s="8" t="s">
         <v>570</v>
       </c>
@@ -50127,8 +50124,8 @@
       </c>
     </row>
     <row r="295" spans="1:7" ht="50" customHeight="1">
-      <c r="A295" s="42"/>
-      <c r="B295" s="42"/>
+      <c r="A295" s="39"/>
+      <c r="B295" s="39"/>
       <c r="C295" s="8" t="s">
         <v>572</v>
       </c>
@@ -50142,8 +50139,8 @@
       </c>
     </row>
     <row r="296" spans="1:7" ht="50" customHeight="1">
-      <c r="A296" s="42"/>
-      <c r="B296" s="42"/>
+      <c r="A296" s="39"/>
+      <c r="B296" s="39"/>
       <c r="C296" s="8" t="s">
         <v>574</v>
       </c>
@@ -50157,8 +50154,8 @@
       </c>
     </row>
     <row r="297" spans="1:7" ht="50" customHeight="1">
-      <c r="A297" s="42"/>
-      <c r="B297" s="42"/>
+      <c r="A297" s="39"/>
+      <c r="B297" s="39"/>
       <c r="C297" s="8" t="s">
         <v>576</v>
       </c>
@@ -50172,8 +50169,8 @@
       </c>
     </row>
     <row r="298" spans="1:7" ht="50" customHeight="1">
-      <c r="A298" s="42"/>
-      <c r="B298" s="42"/>
+      <c r="A298" s="39"/>
+      <c r="B298" s="39"/>
       <c r="C298" s="8" t="s">
         <v>578</v>
       </c>
@@ -50187,8 +50184,8 @@
       </c>
     </row>
     <row r="299" spans="1:7" ht="50" customHeight="1">
-      <c r="A299" s="42"/>
-      <c r="B299" s="42"/>
+      <c r="A299" s="39"/>
+      <c r="B299" s="39"/>
       <c r="C299" s="8" t="s">
         <v>580</v>
       </c>
@@ -50202,8 +50199,8 @@
       </c>
     </row>
     <row r="300" spans="1:7" ht="50" customHeight="1">
-      <c r="A300" s="42"/>
-      <c r="B300" s="42"/>
+      <c r="A300" s="39"/>
+      <c r="B300" s="39"/>
       <c r="C300" s="8" t="s">
         <v>582</v>
       </c>
@@ -50217,8 +50214,8 @@
       </c>
     </row>
     <row r="301" spans="1:7" ht="50" customHeight="1">
-      <c r="A301" s="42"/>
-      <c r="B301" s="42"/>
+      <c r="A301" s="39"/>
+      <c r="B301" s="39"/>
       <c r="C301" s="8" t="s">
         <v>584</v>
       </c>
@@ -50232,8 +50229,8 @@
       </c>
     </row>
     <row r="302" spans="1:7" ht="50" customHeight="1">
-      <c r="A302" s="42"/>
-      <c r="B302" s="42"/>
+      <c r="A302" s="39"/>
+      <c r="B302" s="39"/>
       <c r="C302" s="8" t="s">
         <v>586</v>
       </c>
@@ -50247,8 +50244,8 @@
       </c>
     </row>
     <row r="303" spans="1:7" ht="50" customHeight="1">
-      <c r="A303" s="42"/>
-      <c r="B303" s="42"/>
+      <c r="A303" s="39"/>
+      <c r="B303" s="39"/>
       <c r="C303" s="8" t="s">
         <v>588</v>
       </c>
@@ -50262,8 +50259,8 @@
       </c>
     </row>
     <row r="304" spans="1:7" ht="50" customHeight="1">
-      <c r="A304" s="42"/>
-      <c r="B304" s="42"/>
+      <c r="A304" s="39"/>
+      <c r="B304" s="39"/>
       <c r="C304" s="8" t="s">
         <v>590</v>
       </c>
@@ -50277,8 +50274,8 @@
       </c>
     </row>
     <row r="305" spans="1:7" ht="50" customHeight="1">
-      <c r="A305" s="42"/>
-      <c r="B305" s="42"/>
+      <c r="A305" s="39"/>
+      <c r="B305" s="39"/>
       <c r="C305" s="8" t="s">
         <v>592</v>
       </c>
@@ -50292,8 +50289,8 @@
       </c>
     </row>
     <row r="306" spans="1:7" ht="50" customHeight="1">
-      <c r="A306" s="42"/>
-      <c r="B306" s="43"/>
+      <c r="A306" s="39"/>
+      <c r="B306" s="40"/>
       <c r="C306" s="8" t="s">
         <v>594</v>
       </c>
@@ -50307,7 +50304,7 @@
       </c>
     </row>
     <row r="307" spans="1:7" ht="50" customHeight="1">
-      <c r="A307" s="42"/>
+      <c r="A307" s="39"/>
       <c r="B307" s="14" t="s">
         <v>899</v>
       </c>
@@ -50326,7 +50323,7 @@
       </c>
     </row>
     <row r="308" spans="1:7" ht="50" customHeight="1">
-      <c r="A308" s="42"/>
+      <c r="A308" s="39"/>
       <c r="B308" s="14" t="s">
         <v>900</v>
       </c>
@@ -50345,8 +50342,8 @@
       </c>
     </row>
     <row r="309" spans="1:7" ht="50" customHeight="1">
-      <c r="A309" s="42"/>
-      <c r="B309" s="41" t="s">
+      <c r="A309" s="39"/>
+      <c r="B309" s="38" t="s">
         <v>901</v>
       </c>
       <c r="C309" s="8" t="s">
@@ -50364,8 +50361,8 @@
       </c>
     </row>
     <row r="310" spans="1:7" ht="50" customHeight="1">
-      <c r="A310" s="42"/>
-      <c r="B310" s="42"/>
+      <c r="A310" s="39"/>
+      <c r="B310" s="39"/>
       <c r="C310" s="8" t="s">
         <v>602</v>
       </c>
@@ -50381,8 +50378,8 @@
       </c>
     </row>
     <row r="311" spans="1:7" ht="50" customHeight="1">
-      <c r="A311" s="42"/>
-      <c r="B311" s="42"/>
+      <c r="A311" s="39"/>
+      <c r="B311" s="39"/>
       <c r="C311" s="8" t="s">
         <v>604</v>
       </c>
@@ -50398,8 +50395,8 @@
       </c>
     </row>
     <row r="312" spans="1:7" ht="50" customHeight="1">
-      <c r="A312" s="42"/>
-      <c r="B312" s="42"/>
+      <c r="A312" s="39"/>
+      <c r="B312" s="39"/>
       <c r="C312" s="35" t="s">
         <v>907</v>
       </c>
@@ -50413,8 +50410,8 @@
       </c>
     </row>
     <row r="313" spans="1:7" ht="50" customHeight="1">
-      <c r="A313" s="42"/>
-      <c r="B313" s="43"/>
+      <c r="A313" s="39"/>
+      <c r="B313" s="40"/>
       <c r="C313" s="35" t="s">
         <v>909</v>
       </c>
@@ -50428,8 +50425,8 @@
       </c>
     </row>
     <row r="314" spans="1:7" ht="50" customHeight="1">
-      <c r="A314" s="42"/>
-      <c r="B314" s="41" t="s">
+      <c r="A314" s="39"/>
+      <c r="B314" s="38" t="s">
         <v>902</v>
       </c>
       <c r="C314" s="8" t="s">
@@ -50447,8 +50444,8 @@
       </c>
     </row>
     <row r="315" spans="1:7" ht="50" customHeight="1">
-      <c r="A315" s="42"/>
-      <c r="B315" s="42"/>
+      <c r="A315" s="39"/>
+      <c r="B315" s="39"/>
       <c r="C315" s="8" t="s">
         <v>608</v>
       </c>
@@ -50464,8 +50461,8 @@
       </c>
     </row>
     <row r="316" spans="1:7" ht="50" customHeight="1">
-      <c r="A316" s="42"/>
-      <c r="B316" s="43"/>
+      <c r="A316" s="39"/>
+      <c r="B316" s="40"/>
       <c r="C316" s="8" t="s">
         <v>610</v>
       </c>
@@ -50479,8 +50476,8 @@
       </c>
     </row>
     <row r="317" spans="1:7" ht="50" customHeight="1">
-      <c r="A317" s="42"/>
-      <c r="B317" s="41" t="s">
+      <c r="A317" s="39"/>
+      <c r="B317" s="38" t="s">
         <v>903</v>
       </c>
       <c r="C317" s="8" t="s">
@@ -50498,8 +50495,8 @@
       </c>
     </row>
     <row r="318" spans="1:7" ht="50" customHeight="1">
-      <c r="A318" s="42"/>
-      <c r="B318" s="42"/>
+      <c r="A318" s="39"/>
+      <c r="B318" s="39"/>
       <c r="C318" s="8" t="s">
         <v>614</v>
       </c>
@@ -50515,8 +50512,8 @@
       </c>
     </row>
     <row r="319" spans="1:7" ht="50" customHeight="1">
-      <c r="A319" s="42"/>
-      <c r="B319" s="42"/>
+      <c r="A319" s="39"/>
+      <c r="B319" s="39"/>
       <c r="C319" s="8" t="s">
         <v>616</v>
       </c>
@@ -50532,8 +50529,8 @@
       </c>
     </row>
     <row r="320" spans="1:7" ht="50" customHeight="1">
-      <c r="A320" s="42"/>
-      <c r="B320" s="42"/>
+      <c r="A320" s="39"/>
+      <c r="B320" s="39"/>
       <c r="C320" s="8" t="s">
         <v>618</v>
       </c>
@@ -50547,8 +50544,8 @@
       </c>
     </row>
     <row r="321" spans="1:7" ht="50" customHeight="1">
-      <c r="A321" s="42"/>
-      <c r="B321" s="42"/>
+      <c r="A321" s="39"/>
+      <c r="B321" s="39"/>
       <c r="C321" s="8" t="s">
         <v>620</v>
       </c>
@@ -50562,8 +50559,8 @@
       </c>
     </row>
     <row r="322" spans="1:7" ht="50" customHeight="1">
-      <c r="A322" s="42"/>
-      <c r="B322" s="42"/>
+      <c r="A322" s="39"/>
+      <c r="B322" s="39"/>
       <c r="C322" s="8" t="s">
         <v>622</v>
       </c>
@@ -50577,8 +50574,8 @@
       </c>
     </row>
     <row r="323" spans="1:7" ht="50" customHeight="1">
-      <c r="A323" s="42"/>
-      <c r="B323" s="42"/>
+      <c r="A323" s="39"/>
+      <c r="B323" s="39"/>
       <c r="C323" s="8" t="s">
         <v>624</v>
       </c>
@@ -50592,8 +50589,8 @@
       </c>
     </row>
     <row r="324" spans="1:7" ht="50" customHeight="1">
-      <c r="A324" s="42"/>
-      <c r="B324" s="42"/>
+      <c r="A324" s="39"/>
+      <c r="B324" s="39"/>
       <c r="C324" s="8" t="s">
         <v>626</v>
       </c>
@@ -50607,8 +50604,8 @@
       </c>
     </row>
     <row r="325" spans="1:7" ht="50" customHeight="1">
-      <c r="A325" s="42"/>
-      <c r="B325" s="42"/>
+      <c r="A325" s="39"/>
+      <c r="B325" s="39"/>
       <c r="C325" s="8" t="s">
         <v>628</v>
       </c>
@@ -50622,8 +50619,8 @@
       </c>
     </row>
     <row r="326" spans="1:7" ht="50" customHeight="1">
-      <c r="A326" s="42"/>
-      <c r="B326" s="43"/>
+      <c r="A326" s="39"/>
+      <c r="B326" s="40"/>
       <c r="C326" s="8" t="s">
         <v>630</v>
       </c>
@@ -50637,7 +50634,7 @@
       </c>
     </row>
     <row r="327" spans="1:7" ht="50" customHeight="1">
-      <c r="A327" s="42"/>
+      <c r="A327" s="39"/>
       <c r="B327" s="14" t="s">
         <v>904</v>
       </c>
@@ -50656,8 +50653,8 @@
       </c>
     </row>
     <row r="328" spans="1:7" ht="50" customHeight="1">
-      <c r="A328" s="42"/>
-      <c r="B328" s="41" t="s">
+      <c r="A328" s="39"/>
+      <c r="B328" s="38" t="s">
         <v>905</v>
       </c>
       <c r="C328" s="8" t="s">
@@ -50673,8 +50670,8 @@
       </c>
     </row>
     <row r="329" spans="1:7" ht="50" customHeight="1">
-      <c r="A329" s="42"/>
-      <c r="B329" s="42"/>
+      <c r="A329" s="39"/>
+      <c r="B329" s="39"/>
       <c r="C329" s="8" t="s">
         <v>636</v>
       </c>
@@ -50688,8 +50685,8 @@
       </c>
     </row>
     <row r="330" spans="1:7" ht="50" customHeight="1">
-      <c r="A330" s="42"/>
-      <c r="B330" s="42"/>
+      <c r="A330" s="39"/>
+      <c r="B330" s="39"/>
       <c r="C330" s="8" t="s">
         <v>638</v>
       </c>
@@ -50703,8 +50700,8 @@
       </c>
     </row>
     <row r="331" spans="1:7" ht="50" customHeight="1">
-      <c r="A331" s="42"/>
-      <c r="B331" s="42"/>
+      <c r="A331" s="39"/>
+      <c r="B331" s="39"/>
       <c r="C331" s="8" t="s">
         <v>640</v>
       </c>
@@ -50718,8 +50715,8 @@
       </c>
     </row>
     <row r="332" spans="1:7" ht="50" customHeight="1">
-      <c r="A332" s="43"/>
-      <c r="B332" s="43"/>
+      <c r="A332" s="40"/>
+      <c r="B332" s="40"/>
       <c r="C332" s="8" t="s">
         <v>642</v>
       </c>
@@ -50733,7 +50730,7 @@
       </c>
     </row>
     <row r="333" spans="1:7" ht="50" customHeight="1">
-      <c r="A333" s="41" t="s">
+      <c r="A333" s="38" t="s">
         <v>871</v>
       </c>
       <c r="C333" s="8" t="s">
@@ -50751,7 +50748,7 @@
       </c>
     </row>
     <row r="334" spans="1:7" ht="50" customHeight="1">
-      <c r="A334" s="42"/>
+      <c r="A334" s="39"/>
       <c r="C334" s="8" t="s">
         <v>646</v>
       </c>
@@ -50765,7 +50762,7 @@
       </c>
     </row>
     <row r="335" spans="1:7" ht="50" customHeight="1">
-      <c r="A335" s="42"/>
+      <c r="A335" s="39"/>
       <c r="C335" s="8" t="s">
         <v>648</v>
       </c>
@@ -50779,7 +50776,7 @@
       </c>
     </row>
     <row r="336" spans="1:7" ht="50" customHeight="1">
-      <c r="A336" s="42"/>
+      <c r="A336" s="39"/>
       <c r="C336" s="8" t="s">
         <v>650</v>
       </c>
@@ -50793,7 +50790,7 @@
       </c>
     </row>
     <row r="337" spans="1:7" ht="50" customHeight="1">
-      <c r="A337" s="42"/>
+      <c r="A337" s="39"/>
       <c r="C337" s="8" t="s">
         <v>652</v>
       </c>
@@ -50807,7 +50804,7 @@
       </c>
     </row>
     <row r="338" spans="1:7" ht="50" customHeight="1">
-      <c r="A338" s="42"/>
+      <c r="A338" s="39"/>
       <c r="C338" s="8" t="s">
         <v>654</v>
       </c>
@@ -50821,7 +50818,7 @@
       </c>
     </row>
     <row r="339" spans="1:7" ht="50" customHeight="1">
-      <c r="A339" s="42"/>
+      <c r="A339" s="39"/>
       <c r="C339" s="8" t="s">
         <v>656</v>
       </c>
@@ -50837,7 +50834,7 @@
       </c>
     </row>
     <row r="340" spans="1:7" ht="50" customHeight="1">
-      <c r="A340" s="42"/>
+      <c r="A340" s="39"/>
       <c r="C340" s="8" t="s">
         <v>658</v>
       </c>
@@ -50851,7 +50848,7 @@
       </c>
     </row>
     <row r="341" spans="1:7" ht="50" customHeight="1">
-      <c r="A341" s="42"/>
+      <c r="A341" s="39"/>
       <c r="C341" s="8" t="s">
         <v>660</v>
       </c>
@@ -50865,7 +50862,7 @@
       </c>
     </row>
     <row r="342" spans="1:7" ht="50" customHeight="1">
-      <c r="A342" s="42"/>
+      <c r="A342" s="39"/>
       <c r="C342" s="8" t="s">
         <v>662</v>
       </c>
@@ -50881,7 +50878,7 @@
       </c>
     </row>
     <row r="343" spans="1:7" ht="50" customHeight="1">
-      <c r="A343" s="42"/>
+      <c r="A343" s="39"/>
       <c r="C343" s="8" t="s">
         <v>664</v>
       </c>
@@ -50895,7 +50892,7 @@
       </c>
     </row>
     <row r="344" spans="1:7" ht="50" customHeight="1">
-      <c r="A344" s="42"/>
+      <c r="A344" s="39"/>
       <c r="C344" s="8" t="s">
         <v>666</v>
       </c>
@@ -50909,7 +50906,7 @@
       </c>
     </row>
     <row r="345" spans="1:7" ht="50" customHeight="1">
-      <c r="A345" s="42"/>
+      <c r="A345" s="39"/>
       <c r="C345" s="8" t="s">
         <v>668</v>
       </c>
@@ -50923,7 +50920,7 @@
       </c>
     </row>
     <row r="346" spans="1:7" ht="50" customHeight="1">
-      <c r="A346" s="42"/>
+      <c r="A346" s="39"/>
       <c r="C346" s="35" t="s">
         <v>924</v>
       </c>
@@ -50937,7 +50934,7 @@
       </c>
     </row>
     <row r="347" spans="1:7" ht="50" customHeight="1">
-      <c r="A347" s="42"/>
+      <c r="A347" s="39"/>
       <c r="C347" s="8" t="s">
         <v>670</v>
       </c>
@@ -50953,7 +50950,7 @@
       </c>
     </row>
     <row r="348" spans="1:7" ht="50" customHeight="1">
-      <c r="A348" s="42"/>
+      <c r="A348" s="39"/>
       <c r="C348" s="8" t="s">
         <v>672</v>
       </c>
@@ -50969,7 +50966,7 @@
       </c>
     </row>
     <row r="349" spans="1:7" ht="50" customHeight="1">
-      <c r="A349" s="42"/>
+      <c r="A349" s="39"/>
       <c r="C349" s="8" t="s">
         <v>674</v>
       </c>
@@ -50983,7 +50980,7 @@
       </c>
     </row>
     <row r="350" spans="1:7" ht="50" customHeight="1">
-      <c r="A350" s="42"/>
+      <c r="A350" s="39"/>
       <c r="C350" s="8" t="s">
         <v>676</v>
       </c>
@@ -50997,7 +50994,7 @@
       </c>
     </row>
     <row r="351" spans="1:7" ht="50" customHeight="1">
-      <c r="A351" s="42"/>
+      <c r="A351" s="39"/>
       <c r="C351" s="8" t="s">
         <v>678</v>
       </c>
@@ -51013,7 +51010,7 @@
       </c>
     </row>
     <row r="352" spans="1:7" ht="50" customHeight="1">
-      <c r="A352" s="42"/>
+      <c r="A352" s="39"/>
       <c r="C352" s="8" t="s">
         <v>680</v>
       </c>
@@ -51027,7 +51024,7 @@
       </c>
     </row>
     <row r="353" spans="1:7" ht="50" customHeight="1">
-      <c r="A353" s="42"/>
+      <c r="A353" s="39"/>
       <c r="C353" s="8" t="s">
         <v>682</v>
       </c>
@@ -51043,7 +51040,7 @@
       </c>
     </row>
     <row r="354" spans="1:7" ht="50" customHeight="1">
-      <c r="A354" s="42"/>
+      <c r="A354" s="39"/>
       <c r="C354" s="8" t="s">
         <v>684</v>
       </c>
@@ -51057,7 +51054,7 @@
       </c>
     </row>
     <row r="355" spans="1:7" ht="50" customHeight="1">
-      <c r="A355" s="42"/>
+      <c r="A355" s="39"/>
       <c r="C355" s="8" t="s">
         <v>686</v>
       </c>
@@ -51073,7 +51070,7 @@
       </c>
     </row>
     <row r="356" spans="1:7" ht="50" customHeight="1">
-      <c r="A356" s="42"/>
+      <c r="A356" s="39"/>
       <c r="C356" s="8" t="s">
         <v>688</v>
       </c>
@@ -51089,7 +51086,7 @@
       </c>
     </row>
     <row r="357" spans="1:7" ht="50" customHeight="1">
-      <c r="A357" s="42"/>
+      <c r="A357" s="39"/>
       <c r="C357" s="8" t="s">
         <v>690</v>
       </c>
@@ -51105,7 +51102,7 @@
       </c>
     </row>
     <row r="358" spans="1:7" ht="50" customHeight="1">
-      <c r="A358" s="42"/>
+      <c r="A358" s="39"/>
       <c r="C358" s="8" t="s">
         <v>692</v>
       </c>
@@ -51121,7 +51118,7 @@
       </c>
     </row>
     <row r="359" spans="1:7" ht="50" customHeight="1">
-      <c r="A359" s="42"/>
+      <c r="A359" s="39"/>
       <c r="C359" s="8" t="s">
         <v>694</v>
       </c>
@@ -51135,7 +51132,7 @@
       </c>
     </row>
     <row r="360" spans="1:7" ht="50" customHeight="1">
-      <c r="A360" s="42"/>
+      <c r="A360" s="39"/>
       <c r="C360" s="8" t="s">
         <v>696</v>
       </c>
@@ -51149,7 +51146,7 @@
       </c>
     </row>
     <row r="361" spans="1:7" ht="50" customHeight="1">
-      <c r="A361" s="42"/>
+      <c r="A361" s="39"/>
       <c r="C361" s="8" t="s">
         <v>698</v>
       </c>
@@ -51163,7 +51160,7 @@
       </c>
     </row>
     <row r="362" spans="1:7" ht="50" customHeight="1">
-      <c r="A362" s="42"/>
+      <c r="A362" s="39"/>
       <c r="C362" s="8" t="s">
         <v>700</v>
       </c>
@@ -51177,7 +51174,7 @@
       </c>
     </row>
     <row r="363" spans="1:7" ht="50" customHeight="1">
-      <c r="A363" s="42"/>
+      <c r="A363" s="39"/>
       <c r="C363" s="8" t="s">
         <v>702</v>
       </c>
@@ -51191,7 +51188,7 @@
       </c>
     </row>
     <row r="364" spans="1:7" ht="50" customHeight="1">
-      <c r="A364" s="42"/>
+      <c r="A364" s="39"/>
       <c r="C364" s="8" t="s">
         <v>704</v>
       </c>
@@ -51207,7 +51204,7 @@
       </c>
     </row>
     <row r="365" spans="1:7" ht="50" customHeight="1">
-      <c r="A365" s="42"/>
+      <c r="A365" s="39"/>
       <c r="C365" s="8" t="s">
         <v>706</v>
       </c>
@@ -51223,7 +51220,7 @@
       </c>
     </row>
     <row r="366" spans="1:7" ht="50" customHeight="1">
-      <c r="A366" s="42"/>
+      <c r="A366" s="39"/>
       <c r="C366" s="8" t="s">
         <v>708</v>
       </c>
@@ -51237,7 +51234,7 @@
       </c>
     </row>
     <row r="367" spans="1:7" ht="50" customHeight="1">
-      <c r="A367" s="42"/>
+      <c r="A367" s="39"/>
       <c r="C367" s="8" t="s">
         <v>710</v>
       </c>
@@ -51253,7 +51250,7 @@
       </c>
     </row>
     <row r="368" spans="1:7" ht="50" customHeight="1">
-      <c r="A368" s="42"/>
+      <c r="A368" s="39"/>
       <c r="C368" s="8" t="s">
         <v>712</v>
       </c>
@@ -51269,7 +51266,7 @@
       </c>
     </row>
     <row r="369" spans="1:7" ht="50" customHeight="1">
-      <c r="A369" s="42"/>
+      <c r="A369" s="39"/>
       <c r="C369" s="8" t="s">
         <v>714</v>
       </c>
@@ -51285,7 +51282,7 @@
       </c>
     </row>
     <row r="370" spans="1:7" ht="50" customHeight="1">
-      <c r="A370" s="42"/>
+      <c r="A370" s="39"/>
       <c r="C370" s="8" t="s">
         <v>716</v>
       </c>
@@ -51301,7 +51298,7 @@
       </c>
     </row>
     <row r="371" spans="1:7" ht="50" customHeight="1">
-      <c r="A371" s="42"/>
+      <c r="A371" s="39"/>
       <c r="C371" s="8" t="s">
         <v>718</v>
       </c>
@@ -51317,7 +51314,7 @@
       </c>
     </row>
     <row r="372" spans="1:7" ht="50" customHeight="1">
-      <c r="A372" s="42"/>
+      <c r="A372" s="39"/>
       <c r="C372" s="8" t="s">
         <v>720</v>
       </c>
@@ -51333,7 +51330,7 @@
       </c>
     </row>
     <row r="373" spans="1:7" ht="50" customHeight="1">
-      <c r="A373" s="42"/>
+      <c r="A373" s="39"/>
       <c r="C373" s="8" t="s">
         <v>722</v>
       </c>
@@ -51349,7 +51346,7 @@
       </c>
     </row>
     <row r="374" spans="1:7" ht="50" customHeight="1">
-      <c r="A374" s="42"/>
+      <c r="A374" s="39"/>
       <c r="C374" s="8" t="s">
         <v>724</v>
       </c>
@@ -51365,7 +51362,7 @@
       </c>
     </row>
     <row r="375" spans="1:7" ht="50" customHeight="1">
-      <c r="A375" s="42"/>
+      <c r="A375" s="39"/>
       <c r="C375" s="8" t="s">
         <v>726</v>
       </c>
@@ -51381,7 +51378,7 @@
       </c>
     </row>
     <row r="376" spans="1:7" ht="50" customHeight="1">
-      <c r="A376" s="42"/>
+      <c r="A376" s="39"/>
       <c r="C376" s="8" t="s">
         <v>728</v>
       </c>
@@ -51397,7 +51394,7 @@
       </c>
     </row>
     <row r="377" spans="1:7" ht="50" customHeight="1">
-      <c r="A377" s="42"/>
+      <c r="A377" s="39"/>
       <c r="C377" s="8" t="s">
         <v>730</v>
       </c>
@@ -51411,7 +51408,7 @@
       </c>
     </row>
     <row r="378" spans="1:7" ht="50" customHeight="1">
-      <c r="A378" s="42"/>
+      <c r="A378" s="39"/>
       <c r="C378" s="8" t="s">
         <v>732</v>
       </c>
@@ -51427,7 +51424,7 @@
       </c>
     </row>
     <row r="379" spans="1:7" ht="50" customHeight="1">
-      <c r="A379" s="42"/>
+      <c r="A379" s="39"/>
       <c r="C379" s="8" t="s">
         <v>734</v>
       </c>
@@ -51441,7 +51438,7 @@
       </c>
     </row>
     <row r="380" spans="1:7" ht="50" customHeight="1">
-      <c r="A380" s="42"/>
+      <c r="A380" s="39"/>
       <c r="C380" s="8" t="s">
         <v>736</v>
       </c>
@@ -51455,7 +51452,7 @@
       </c>
     </row>
     <row r="381" spans="1:7" ht="50" customHeight="1">
-      <c r="A381" s="42"/>
+      <c r="A381" s="39"/>
       <c r="C381" s="8" t="s">
         <v>738</v>
       </c>
@@ -51469,7 +51466,7 @@
       </c>
     </row>
     <row r="382" spans="1:7" ht="50" customHeight="1">
-      <c r="A382" s="42"/>
+      <c r="A382" s="39"/>
       <c r="C382" s="8" t="s">
         <v>740</v>
       </c>
@@ -51483,7 +51480,7 @@
       </c>
     </row>
     <row r="383" spans="1:7" ht="50" customHeight="1">
-      <c r="A383" s="42"/>
+      <c r="A383" s="39"/>
       <c r="C383" s="8" t="s">
         <v>742</v>
       </c>
@@ -51497,7 +51494,7 @@
       </c>
     </row>
     <row r="384" spans="1:7" ht="50" customHeight="1">
-      <c r="A384" s="42"/>
+      <c r="A384" s="39"/>
       <c r="C384" s="8" t="s">
         <v>744</v>
       </c>
@@ -51511,7 +51508,7 @@
       </c>
     </row>
     <row r="385" spans="1:7" ht="50" customHeight="1">
-      <c r="A385" s="42"/>
+      <c r="A385" s="39"/>
       <c r="C385" s="8" t="s">
         <v>746</v>
       </c>
@@ -51527,7 +51524,7 @@
       </c>
     </row>
     <row r="386" spans="1:7" ht="50" customHeight="1">
-      <c r="A386" s="42"/>
+      <c r="A386" s="39"/>
       <c r="C386" s="8" t="s">
         <v>748</v>
       </c>
@@ -51541,7 +51538,7 @@
       </c>
     </row>
     <row r="387" spans="1:7" ht="50" customHeight="1">
-      <c r="A387" s="42"/>
+      <c r="A387" s="39"/>
       <c r="C387" s="8" t="s">
         <v>750</v>
       </c>
@@ -51557,7 +51554,7 @@
       </c>
     </row>
     <row r="388" spans="1:7" ht="50" customHeight="1">
-      <c r="A388" s="42"/>
+      <c r="A388" s="39"/>
       <c r="C388" s="8" t="s">
         <v>752</v>
       </c>
@@ -51571,7 +51568,7 @@
       </c>
     </row>
     <row r="389" spans="1:7" ht="50" customHeight="1">
-      <c r="A389" s="42"/>
+      <c r="A389" s="39"/>
       <c r="C389" s="8" t="s">
         <v>754</v>
       </c>
@@ -51585,7 +51582,7 @@
       </c>
     </row>
     <row r="390" spans="1:7" ht="50" customHeight="1">
-      <c r="A390" s="42"/>
+      <c r="A390" s="39"/>
       <c r="C390" s="8" t="s">
         <v>756</v>
       </c>
@@ -51599,7 +51596,7 @@
       </c>
     </row>
     <row r="391" spans="1:7" ht="50" customHeight="1">
-      <c r="A391" s="42"/>
+      <c r="A391" s="39"/>
       <c r="C391" s="8" t="s">
         <v>758</v>
       </c>
@@ -51613,7 +51610,7 @@
       </c>
     </row>
     <row r="392" spans="1:7" ht="50" customHeight="1">
-      <c r="A392" s="42"/>
+      <c r="A392" s="39"/>
       <c r="C392" s="8" t="s">
         <v>760</v>
       </c>
@@ -51627,7 +51624,7 @@
       </c>
     </row>
     <row r="393" spans="1:7" ht="50" customHeight="1">
-      <c r="A393" s="42"/>
+      <c r="A393" s="39"/>
       <c r="C393" s="8" t="s">
         <v>762</v>
       </c>
@@ -51641,7 +51638,7 @@
       </c>
     </row>
     <row r="394" spans="1:7" ht="50" customHeight="1">
-      <c r="A394" s="42"/>
+      <c r="A394" s="39"/>
       <c r="C394" s="8" t="s">
         <v>764</v>
       </c>
@@ -51655,7 +51652,7 @@
       </c>
     </row>
     <row r="395" spans="1:7" ht="50" customHeight="1">
-      <c r="A395" s="42"/>
+      <c r="A395" s="39"/>
       <c r="C395" s="8" t="s">
         <v>766</v>
       </c>
@@ -51669,7 +51666,7 @@
       </c>
     </row>
     <row r="396" spans="1:7" ht="50" customHeight="1">
-      <c r="A396" s="42"/>
+      <c r="A396" s="39"/>
       <c r="C396" s="8" t="s">
         <v>768</v>
       </c>
@@ -51685,7 +51682,7 @@
       </c>
     </row>
     <row r="397" spans="1:7" ht="50" customHeight="1">
-      <c r="A397" s="42"/>
+      <c r="A397" s="39"/>
       <c r="C397" s="8" t="s">
         <v>770</v>
       </c>
@@ -51699,7 +51696,7 @@
       </c>
     </row>
     <row r="398" spans="1:7" ht="50" customHeight="1">
-      <c r="A398" s="42"/>
+      <c r="A398" s="39"/>
       <c r="C398" s="8" t="s">
         <v>772</v>
       </c>
@@ -51713,7 +51710,7 @@
       </c>
     </row>
     <row r="399" spans="1:7" ht="50" customHeight="1">
-      <c r="A399" s="42"/>
+      <c r="A399" s="39"/>
       <c r="C399" s="8" t="s">
         <v>774</v>
       </c>
@@ -51727,7 +51724,7 @@
       </c>
     </row>
     <row r="400" spans="1:7" ht="50" customHeight="1">
-      <c r="A400" s="42"/>
+      <c r="A400" s="39"/>
       <c r="C400" s="8" t="s">
         <v>776</v>
       </c>
@@ -51743,7 +51740,7 @@
       </c>
     </row>
     <row r="401" spans="1:7" ht="50" customHeight="1">
-      <c r="A401" s="42"/>
+      <c r="A401" s="39"/>
       <c r="C401" s="8" t="s">
         <v>778</v>
       </c>
@@ -51757,7 +51754,7 @@
       </c>
     </row>
     <row r="402" spans="1:7" ht="50" customHeight="1">
-      <c r="A402" s="42"/>
+      <c r="A402" s="39"/>
       <c r="C402" s="8" t="s">
         <v>780</v>
       </c>
@@ -51773,7 +51770,7 @@
       </c>
     </row>
     <row r="403" spans="1:7" ht="50" customHeight="1">
-      <c r="A403" s="42"/>
+      <c r="A403" s="39"/>
       <c r="C403" s="8" t="s">
         <v>782</v>
       </c>
@@ -51787,7 +51784,7 @@
       </c>
     </row>
     <row r="404" spans="1:7" ht="50" customHeight="1">
-      <c r="A404" s="43"/>
+      <c r="A404" s="40"/>
       <c r="C404" s="8" t="s">
         <v>784</v>
       </c>
@@ -51801,10 +51798,10 @@
       </c>
     </row>
     <row r="405" spans="1:7" ht="50" customHeight="1">
-      <c r="A405" s="41" t="s">
+      <c r="A405" s="38" t="s">
         <v>872</v>
       </c>
-      <c r="B405" s="41" t="s">
+      <c r="B405" s="38" t="s">
         <v>873</v>
       </c>
       <c r="C405" s="26" t="s">
@@ -51821,8 +51818,8 @@
       </c>
     </row>
     <row r="406" spans="1:7" ht="50" customHeight="1">
-      <c r="A406" s="42"/>
-      <c r="B406" s="42"/>
+      <c r="A406" s="39"/>
+      <c r="B406" s="39"/>
       <c r="C406" s="27" t="s">
         <v>788</v>
       </c>
@@ -51836,8 +51833,8 @@
       </c>
     </row>
     <row r="407" spans="1:7" ht="50" customHeight="1">
-      <c r="A407" s="42"/>
-      <c r="B407" s="42"/>
+      <c r="A407" s="39"/>
+      <c r="B407" s="39"/>
       <c r="C407" s="27" t="s">
         <v>790</v>
       </c>
@@ -51851,8 +51848,8 @@
       </c>
     </row>
     <row r="408" spans="1:7" ht="50" customHeight="1">
-      <c r="A408" s="42"/>
-      <c r="B408" s="43"/>
+      <c r="A408" s="39"/>
+      <c r="B408" s="40"/>
       <c r="C408" s="27" t="s">
         <v>792</v>
       </c>
@@ -51866,8 +51863,8 @@
       </c>
     </row>
     <row r="409" spans="1:7" ht="50" customHeight="1">
-      <c r="A409" s="42"/>
-      <c r="B409" s="41" t="s">
+      <c r="A409" s="39"/>
+      <c r="B409" s="38" t="s">
         <v>874</v>
       </c>
       <c r="C409" s="27" t="s">
@@ -51883,8 +51880,8 @@
       </c>
     </row>
     <row r="410" spans="1:7" ht="50" customHeight="1">
-      <c r="A410" s="42"/>
-      <c r="B410" s="42"/>
+      <c r="A410" s="39"/>
+      <c r="B410" s="39"/>
       <c r="C410" s="27" t="s">
         <v>796</v>
       </c>
@@ -51898,8 +51895,8 @@
       </c>
     </row>
     <row r="411" spans="1:7" ht="50" customHeight="1">
-      <c r="A411" s="42"/>
-      <c r="B411" s="42"/>
+      <c r="A411" s="39"/>
+      <c r="B411" s="39"/>
       <c r="C411" s="27" t="s">
         <v>798</v>
       </c>
@@ -51915,8 +51912,8 @@
       </c>
     </row>
     <row r="412" spans="1:7" ht="50" customHeight="1">
-      <c r="A412" s="42"/>
-      <c r="B412" s="42"/>
+      <c r="A412" s="39"/>
+      <c r="B412" s="39"/>
       <c r="C412" s="27" t="s">
         <v>800</v>
       </c>
@@ -51930,8 +51927,8 @@
       </c>
     </row>
     <row r="413" spans="1:7" ht="50" customHeight="1">
-      <c r="A413" s="42"/>
-      <c r="B413" s="42"/>
+      <c r="A413" s="39"/>
+      <c r="B413" s="39"/>
       <c r="C413" s="27" t="s">
         <v>802</v>
       </c>
@@ -51945,8 +51942,8 @@
       </c>
     </row>
     <row r="414" spans="1:7" ht="50" customHeight="1">
-      <c r="A414" s="42"/>
-      <c r="B414" s="42"/>
+      <c r="A414" s="39"/>
+      <c r="B414" s="39"/>
       <c r="C414" s="27" t="s">
         <v>804</v>
       </c>
@@ -51960,8 +51957,8 @@
       </c>
     </row>
     <row r="415" spans="1:7" ht="50" customHeight="1">
-      <c r="A415" s="42"/>
-      <c r="B415" s="43"/>
+      <c r="A415" s="39"/>
+      <c r="B415" s="40"/>
       <c r="C415" s="27" t="s">
         <v>806</v>
       </c>
@@ -51975,8 +51972,8 @@
       </c>
     </row>
     <row r="416" spans="1:7" ht="50" customHeight="1">
-      <c r="A416" s="42"/>
-      <c r="B416" s="41" t="s">
+      <c r="A416" s="39"/>
+      <c r="B416" s="38" t="s">
         <v>875</v>
       </c>
       <c r="C416" s="26" t="s">
@@ -51993,8 +51990,8 @@
       </c>
     </row>
     <row r="417" spans="1:7" ht="50" customHeight="1">
-      <c r="A417" s="42"/>
-      <c r="B417" s="43"/>
+      <c r="A417" s="39"/>
+      <c r="B417" s="40"/>
       <c r="C417" s="27" t="s">
         <v>810</v>
       </c>
@@ -52009,8 +52006,8 @@
       </c>
     </row>
     <row r="418" spans="1:7" ht="50" customHeight="1">
-      <c r="A418" s="42"/>
-      <c r="B418" s="41" t="s">
+      <c r="A418" s="39"/>
+      <c r="B418" s="38" t="s">
         <v>876</v>
       </c>
       <c r="C418" s="26" t="s">
@@ -52024,8 +52021,8 @@
       </c>
     </row>
     <row r="419" spans="1:7" ht="50" customHeight="1">
-      <c r="A419" s="42"/>
-      <c r="B419" s="42"/>
+      <c r="A419" s="39"/>
+      <c r="B419" s="39"/>
       <c r="C419" s="26" t="s">
         <v>814</v>
       </c>
@@ -52037,8 +52034,8 @@
       </c>
     </row>
     <row r="420" spans="1:7" ht="50" customHeight="1">
-      <c r="A420" s="42"/>
-      <c r="B420" s="42"/>
+      <c r="A420" s="39"/>
+      <c r="B420" s="39"/>
       <c r="C420" s="26" t="s">
         <v>816</v>
       </c>
@@ -52050,8 +52047,8 @@
       </c>
     </row>
     <row r="421" spans="1:7" ht="50" customHeight="1">
-      <c r="A421" s="42"/>
-      <c r="B421" s="42"/>
+      <c r="A421" s="39"/>
+      <c r="B421" s="39"/>
       <c r="C421" s="26" t="s">
         <v>818</v>
       </c>
@@ -52063,8 +52060,8 @@
       </c>
     </row>
     <row r="422" spans="1:7" ht="50" customHeight="1">
-      <c r="A422" s="43"/>
-      <c r="B422" s="43"/>
+      <c r="A422" s="40"/>
+      <c r="B422" s="40"/>
       <c r="C422" s="26" t="s">
         <v>820</v>
       </c>
@@ -52077,15 +52074,31 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B314:B316"/>
-    <mergeCell ref="B317:B326"/>
-    <mergeCell ref="B328:B332"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="B233:B267"/>
-    <mergeCell ref="B274:B306"/>
-    <mergeCell ref="B309:B313"/>
-    <mergeCell ref="B269:B273"/>
+    <mergeCell ref="B47:B56"/>
+    <mergeCell ref="A34:A56"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A16:A33"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A57:A69"/>
+    <mergeCell ref="B57:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="A70:A111"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B73:B95"/>
+    <mergeCell ref="B96:B105"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="A112:A121"/>
+    <mergeCell ref="A123:A146"/>
+    <mergeCell ref="B123:B137"/>
+    <mergeCell ref="B138:B146"/>
+    <mergeCell ref="B115:B122"/>
     <mergeCell ref="A147:A226"/>
     <mergeCell ref="A227:A332"/>
     <mergeCell ref="A333:A404"/>
@@ -52102,31 +52115,15 @@
     <mergeCell ref="B180:B185"/>
     <mergeCell ref="B186:B222"/>
     <mergeCell ref="B223:B226"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="A112:A121"/>
-    <mergeCell ref="A123:A146"/>
-    <mergeCell ref="B123:B137"/>
-    <mergeCell ref="B138:B146"/>
-    <mergeCell ref="B115:B122"/>
-    <mergeCell ref="A57:A69"/>
-    <mergeCell ref="B57:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="A70:A111"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B73:B95"/>
-    <mergeCell ref="B96:B105"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B47:B56"/>
-    <mergeCell ref="A34:A56"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="A16:A33"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B314:B316"/>
+    <mergeCell ref="B317:B326"/>
+    <mergeCell ref="B328:B332"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="B233:B267"/>
+    <mergeCell ref="B274:B306"/>
+    <mergeCell ref="B309:B313"/>
+    <mergeCell ref="B269:B273"/>
   </mergeCells>
   <conditionalFormatting sqref="E328:F328 E306:F307 E322:F326 E125:F125">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -52140,15 +52137,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F414E67DA4490F438DF7F839DDD88F54" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="968179862b391a59b7f67eb3e7667402">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fddf207-9565-4c1d-88a2-78ac3eb02019" xmlns:ns3="1750c493-bee6-4013-b7a9-faed7d1eacd9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fc6ea6213b4ec21afdfc08f0704f67a" ns2:_="" ns3:_="">
     <xsd:import namespace="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
@@ -52351,6 +52339,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -52358,14 +52355,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E6096D8-1CD1-477D-852D-41029505002A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD5FE2FF-FFA2-4AC8-B9A7-6009CF780188}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -52380,6 +52369,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E6096D8-1CD1-477D-852D-41029505002A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Carto/POI/PDS_Category_Assignment.xlsx
+++ b/Carto/POI/PDS_Category_Assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauragar/icons-by-here-technologies/Carto/POI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7461E2-117E-8B4C-9B31-66A101AF2584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0266A930-EC9C-7248-BBB1-FB320BDA317D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37260" yWindow="620" windowWidth="33600" windowHeight="19800" xr2:uid="{C64EB798-04F6-AE43-9DCC-0EA02E11247A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27600" xr2:uid="{C64EB798-04F6-AE43-9DCC-0EA02E11247A}"/>
   </bookViews>
   <sheets>
     <sheet name="PDS_Category_Assignment" sheetId="1" r:id="rId1"/>
@@ -2838,18 +2838,12 @@
     <t>travel-agent-ticketing_solid_24px.svg</t>
   </si>
   <si>
-    <t>gallery_solid_24px.svg</t>
-  </si>
-  <si>
     <t>museum_solid_24px.svg</t>
   </si>
   <si>
     <t>airport_solid_24px.svg</t>
   </si>
   <si>
-    <t>underground-train-subway_solid_24px.svg</t>
-  </si>
-  <si>
     <t>ferry_solid_24px.svg</t>
   </si>
   <si>
@@ -2865,9 +2859,6 @@
     <t>hotel_solid_24px.svg</t>
   </si>
   <si>
-    <t>amusement_solid_24px.svg</t>
-  </si>
-  <si>
     <t>zoo_solid_24px.svg</t>
   </si>
   <si>
@@ -2889,30 +2880,12 @@
     <t>cemetry_solid_24px.svg</t>
   </si>
   <si>
-    <t>eatdrink_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>goingout_solid_24px.svg</t>
-  </si>
-  <si>
     <t>casino_solid_24px.svg</t>
   </si>
   <si>
-    <t>nightclub_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>arcadegame_solid_24px.svg</t>
-  </si>
-  <si>
     <t>attraction_solid_24px.svg</t>
   </si>
   <si>
-    <t>religious_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>address_solid_24px.svg</t>
-  </si>
-  <si>
     <t>harbor_solid_24px.svg</t>
   </si>
   <si>
@@ -2925,15 +2898,9 @@
     <t>camping_solid_24px.svg</t>
   </si>
   <si>
-    <t>leisure_solid_24px.svg</t>
-  </si>
-  <si>
     <t>playground_solid_24px.svg</t>
   </si>
   <si>
-    <t>overlook_solid_24px.svg</t>
-  </si>
-  <si>
     <t>ski-run_solid_24px.svg</t>
   </si>
   <si>
@@ -2943,60 +2910,24 @@
     <t>pharmacy_solid_24px.svg</t>
   </si>
   <si>
-    <t>books_solid_24px.svg</t>
-  </si>
-  <si>
     <t>police_solid_24px.svg</t>
   </si>
   <si>
     <t>business_solid_24px.svg</t>
   </si>
   <si>
-    <t>touristinformation_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>carrental_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>petrolstation_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>charging_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>repair-car_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>wash-car_solid_24px.svg</t>
-  </si>
-  <si>
     <t>hospital_solid_24px.svg</t>
   </si>
   <si>
-    <t>firstaid_solid_24px.svg</t>
-  </si>
-  <si>
     <t>facilities_solid_24px.svg</t>
   </si>
   <si>
-    <t>frontiercrossing_solid_24px.svg</t>
-  </si>
-  <si>
     <t>education_solid_24px.svg</t>
   </si>
   <si>
     <t>exhibition-center_solid_24px.svg</t>
   </si>
   <si>
-    <t>garage_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>parknride_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>sport_solid_24px.svg</t>
-  </si>
-  <si>
     <t>swimming_solid_24px.svg</t>
   </si>
   <si>
@@ -3006,15 +2937,6 @@
     <t>fitness_solid_24px.svg</t>
   </si>
   <si>
-    <t>bicycle_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>publictoilet_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>fastfood_solid_24px.svg</t>
-  </si>
-  <si>
     <t>pool_solid_24px.svg</t>
   </si>
   <si>
@@ -3039,22 +2961,100 @@
     <t>rail-light_solid_24px.svg</t>
   </si>
   <si>
-    <t>aerial_solid_24px.svg</t>
-  </si>
-  <si>
     <t>inclined_solid_24px.svg</t>
   </si>
   <si>
-    <t>picnicarea_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>dealership-car_solid_24px.svg</t>
-  </si>
-  <si>
-    <t>golfcourse_solid_24px.svg</t>
-  </si>
-  <si>
     <t>coffee_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>restaurant_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>night-club_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>game-arcade_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>theater_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>art-gallery_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>religious-place_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>metro_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>cable-way_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>picnic-area_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>nature-overlook_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>beach_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>amusement-park_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>bookstore_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>tourist-information_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>petrol-station_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>car-charging_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>car-dealership_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>car-repair_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>car-wash_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>car-rental_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>first-aid_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>frontier-crossing_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>parking-garage_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>park-and-ride_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>stadium_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>golf-course_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>parking-bicycle_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>public-toilet_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>fast-food_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>generic-point_solid_24px.svg</t>
   </si>
 </sst>
 </file>
@@ -12582,8 +12582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693BBA9B-95F3-BD4A-928B-DD81DFE8C409}">
   <dimension ref="A1:XFD422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="50" customHeight="1" outlineLevelCol="1"/>
@@ -12653,7 +12653,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>947</v>
+        <v>973</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="11" t="s">
@@ -12670,7 +12670,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>947</v>
+        <v>973</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="11" t="s">
@@ -12687,7 +12687,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>947</v>
+        <v>973</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="11" t="s">
@@ -12704,7 +12704,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>947</v>
+        <v>973</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11" t="s">
@@ -12721,7 +12721,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>947</v>
+        <v>973</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="11" t="s">
@@ -12738,7 +12738,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>947</v>
+        <v>973</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="11" t="s">
@@ -12755,7 +12755,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>947</v>
+        <v>973</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="11" t="s">
@@ -12772,7 +12772,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>947</v>
+        <v>973</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11" t="s">
@@ -12789,7 +12789,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>947</v>
+        <v>973</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="11" t="s">
@@ -12808,7 +12808,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>988</v>
+        <v>1001</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11" t="s">
@@ -12825,7 +12825,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>1002</v>
+        <v>972</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="11" t="s">
@@ -12842,7 +12842,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>1002</v>
+        <v>972</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="11" t="s">
@@ -12859,7 +12859,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>1002</v>
+        <v>972</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="11" t="s">
@@ -12880,7 +12880,7 @@
         <v>30</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>950</v>
+        <v>974</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="12" t="s">
@@ -12897,7 +12897,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>990</v>
+        <v>964</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="12" t="s">
@@ -12914,7 +12914,7 @@
         <v>34</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>950</v>
+        <v>974</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="12" t="s">
@@ -12931,7 +12931,7 @@
         <v>36</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>950</v>
+        <v>974</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="12" t="s">
@@ -12965,7 +12965,7 @@
         <v>40</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>950</v>
+        <v>974</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="12" t="s">
@@ -12982,7 +12982,7 @@
         <v>42</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>989</v>
+        <v>963</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="12" t="s">
@@ -12999,7 +12999,7 @@
         <v>44</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>951</v>
+        <v>975</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="12" t="s">
@@ -13016,7 +13016,7 @@
         <v>46</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>950</v>
+        <v>974</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="12" t="s">
@@ -13033,7 +13033,7 @@
         <v>48</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>991</v>
+        <v>965</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>842</v>
@@ -13049,7 +13049,7 @@
         <v>50</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>950</v>
+        <v>974</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="12" t="s">
@@ -13066,7 +13066,7 @@
         <v>52</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>990</v>
+        <v>964</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="12" t="s">
@@ -13104,7 +13104,7 @@
         <v>56</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>948</v>
+        <v>976</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="12" t="s">
@@ -13121,7 +13121,7 @@
         <v>58</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>948</v>
+        <v>976</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="12" t="s">
@@ -13140,7 +13140,7 @@
         <v>60</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="12" t="s">
@@ -13157,7 +13157,7 @@
         <v>62</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="12" t="s">
@@ -13195,7 +13195,7 @@
         <v>66</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="18" t="s">
@@ -13212,7 +13212,7 @@
         <v>68</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="18" t="s">
@@ -13229,7 +13229,7 @@
         <v>70</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>930</v>
+        <v>977</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="18" t="s">
@@ -13246,7 +13246,7 @@
         <v>72</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="18" t="s">
@@ -13308,7 +13308,7 @@
         <v>80</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="18" t="s">
@@ -13327,7 +13327,7 @@
         <v>82</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="18" t="s">
@@ -13344,7 +13344,7 @@
         <v>84</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="18" t="s">
@@ -13361,7 +13361,7 @@
         <v>86</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="18" t="s">
@@ -13378,7 +13378,7 @@
         <v>88</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="18" t="s">
@@ -13395,7 +13395,7 @@
         <v>90</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="18" t="s">
@@ -13414,7 +13414,7 @@
         <v>92</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>953</v>
+        <v>978</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="18" t="s">
@@ -13431,7 +13431,7 @@
         <v>94</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>953</v>
+        <v>978</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="18" t="s">
@@ -13448,7 +13448,7 @@
         <v>96</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>953</v>
+        <v>978</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="18" t="s">
@@ -13465,7 +13465,7 @@
         <v>98</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>953</v>
+        <v>978</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="18" t="s">
@@ -13482,7 +13482,7 @@
         <v>100</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>953</v>
+        <v>978</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="18" t="s">
@@ -13499,7 +13499,7 @@
         <v>102</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>953</v>
+        <v>978</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="18" t="s">
@@ -29908,7 +29908,7 @@
         <v>104</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>953</v>
+        <v>978</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="18" t="s">
@@ -29925,7 +29925,7 @@
         <v>106</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>953</v>
+        <v>978</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="18" t="s">
@@ -29961,7 +29961,7 @@
         <v>108</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>954</v>
+        <v>1002</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="19" t="s">
@@ -30008,7 +30008,7 @@
         <v>114</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="19" t="s">
@@ -30072,7 +30072,7 @@
         <v>122</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="19" t="s">
@@ -30089,7 +30089,7 @@
         <v>124</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>954</v>
+        <v>1002</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="19" t="s">
@@ -30106,7 +30106,7 @@
         <v>126</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="19" t="s">
@@ -30142,7 +30142,7 @@
         <v>130</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="19" t="s">
@@ -30161,7 +30161,7 @@
         <v>132</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="19" t="s">
@@ -30182,7 +30182,7 @@
         <v>134</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="21" t="s">
@@ -30199,7 +30199,7 @@
         <v>136</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="21" t="s">
@@ -30216,7 +30216,7 @@
         <v>138</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="21" t="s">
@@ -30235,7 +30235,7 @@
         <v>140</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>992</v>
+        <v>966</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="21" t="s">
@@ -30252,7 +30252,7 @@
         <v>142</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>993</v>
+        <v>967</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="21" t="s">
@@ -30269,7 +30269,7 @@
         <v>144</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>933</v>
+        <v>979</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="21" t="s">
@@ -30286,7 +30286,7 @@
         <v>146</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>994</v>
+        <v>968</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="21" t="s">
@@ -30303,7 +30303,7 @@
         <v>148</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>994</v>
+        <v>968</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="21" t="s">
@@ -30350,7 +30350,7 @@
         <v>154</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>993</v>
+        <v>967</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="21" t="s">
@@ -30382,7 +30382,7 @@
         <v>158</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="21" t="s">
@@ -30399,7 +30399,7 @@
         <v>160</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="21" t="s">
@@ -30416,7 +30416,7 @@
         <v>162</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="21" t="s">
@@ -30433,7 +30433,7 @@
         <v>164</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="21" t="s">
@@ -30468,7 +30468,7 @@
         <v>168</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>995</v>
+        <v>969</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="21" t="s">
@@ -30485,7 +30485,7 @@
         <v>170</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>996</v>
+        <v>970</v>
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="21" t="s">
@@ -30517,7 +30517,7 @@
         <v>174</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="21" t="s">
@@ -30534,7 +30534,7 @@
         <v>176</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>997</v>
+        <v>980</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="21" t="s">
@@ -30566,7 +30566,7 @@
         <v>180</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>998</v>
+        <v>971</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="21" t="s">
@@ -30767,7 +30767,7 @@
         <v>206</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>999</v>
+        <v>981</v>
       </c>
       <c r="F106" s="10"/>
       <c r="G106" s="20" t="s">
@@ -30784,7 +30784,7 @@
         <v>208</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>999</v>
+        <v>981</v>
       </c>
       <c r="F107" s="10"/>
       <c r="G107" s="20" t="s">
@@ -30801,7 +30801,7 @@
         <v>210</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>999</v>
+        <v>981</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="20" t="s">
@@ -30818,7 +30818,7 @@
         <v>212</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F109" s="10"/>
       <c r="G109" s="20" t="s">
@@ -30835,7 +30835,7 @@
         <v>214</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>999</v>
+        <v>981</v>
       </c>
       <c r="F110" s="10"/>
       <c r="G110" s="20" t="s">
@@ -30852,7 +30852,7 @@
         <v>216</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>961</v>
+        <v>982</v>
       </c>
       <c r="F111" s="10"/>
       <c r="G111" s="20" t="s">
@@ -30873,7 +30873,7 @@
         <v>218</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F112" s="10"/>
       <c r="G112" s="22" t="s">
@@ -30890,7 +30890,7 @@
         <v>220</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F113" s="10"/>
       <c r="G113" s="22" t="s">
@@ -30907,7 +30907,7 @@
         <v>222</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="22" t="s">
@@ -30926,7 +30926,7 @@
         <v>224</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="F115" s="10"/>
       <c r="G115" s="22" t="s">
@@ -30943,7 +30943,7 @@
         <v>226</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F116" s="10"/>
       <c r="G116" s="22" t="s">
@@ -30960,7 +30960,7 @@
         <v>228</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="F117" s="10"/>
       <c r="G117" s="22" t="s">
@@ -30977,7 +30977,7 @@
         <v>230</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="22" t="s">
@@ -30994,7 +30994,7 @@
         <v>232</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="22" t="s">
@@ -31011,7 +31011,7 @@
         <v>234</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="22" t="s">
@@ -31028,7 +31028,7 @@
         <v>236</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="22" t="s">
@@ -31064,7 +31064,7 @@
         <v>238</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>959</v>
+        <v>983</v>
       </c>
       <c r="F123" s="10"/>
       <c r="G123" s="23" t="s">
@@ -31081,7 +31081,7 @@
         <v>240</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="23" t="s">
@@ -31113,7 +31113,7 @@
         <v>244</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>959</v>
+        <v>983</v>
       </c>
       <c r="F126" s="10"/>
       <c r="G126" s="23" t="s">
@@ -31130,7 +31130,7 @@
         <v>246</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>959</v>
+        <v>983</v>
       </c>
       <c r="F127" s="10"/>
       <c r="G127" s="23" t="s">
@@ -31177,7 +31177,7 @@
         <v>252</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>961</v>
+        <v>982</v>
       </c>
       <c r="F130" s="10"/>
       <c r="G130" s="23" t="s">
@@ -31239,7 +31239,7 @@
         <v>260</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="23" t="s">
@@ -31303,7 +31303,7 @@
         <v>268</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>939</v>
+        <v>984</v>
       </c>
       <c r="F138" s="10"/>
       <c r="G138" s="23" t="s">
@@ -31320,7 +31320,7 @@
         <v>270</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>939</v>
+        <v>984</v>
       </c>
       <c r="F139" s="10"/>
       <c r="G139" s="23" t="s">
@@ -31337,7 +31337,7 @@
         <v>272</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" s="23" t="s">
@@ -31399,7 +31399,7 @@
         <v>280</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="F144" s="10"/>
       <c r="G144" s="23" t="s">
@@ -31416,7 +31416,7 @@
         <v>282</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="23" t="s">
@@ -31451,7 +31451,7 @@
         <v>286</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="F147" s="10"/>
       <c r="G147" s="29" t="s">
@@ -31470,7 +31470,7 @@
         <v>288</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="F148" s="10"/>
       <c r="G148" s="29" t="s">
@@ -31489,7 +31489,7 @@
         <v>290</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="F149" s="10"/>
       <c r="G149" s="29" t="s">
@@ -31523,7 +31523,7 @@
         <v>294</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="F151" s="10"/>
       <c r="G151" s="29" t="s">
@@ -31630,7 +31630,7 @@
         <v>306</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="29" t="s">
@@ -31649,7 +31649,7 @@
         <v>308</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="F159" s="10"/>
       <c r="G159" s="29" t="s">
@@ -31666,7 +31666,7 @@
         <v>310</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="F160" s="10"/>
       <c r="G160" s="29" t="s">
@@ -31683,7 +31683,7 @@
         <v>312</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="F161" s="10"/>
       <c r="G161" s="30" t="s">
@@ -31944,7 +31944,7 @@
         <v>345</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>965</v>
+        <v>985</v>
       </c>
       <c r="F178" s="10"/>
       <c r="G178" s="29" t="s">
@@ -31961,7 +31961,7 @@
         <v>347</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>965</v>
+        <v>985</v>
       </c>
       <c r="F179" s="10"/>
       <c r="G179" s="29" t="s">
@@ -32072,7 +32072,7 @@
         <v>361</v>
       </c>
       <c r="E186" s="32" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="F186" s="33"/>
       <c r="G186" s="29" t="s">
@@ -32104,7 +32104,7 @@
         <v>365</v>
       </c>
       <c r="E188" s="32" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="29" t="s">
@@ -32121,7 +32121,7 @@
         <v>367</v>
       </c>
       <c r="E189" s="32" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="29" t="s">
@@ -32153,7 +32153,7 @@
         <v>371</v>
       </c>
       <c r="E191" s="32" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="F191" s="33"/>
       <c r="G191" s="29" t="s">
@@ -32170,7 +32170,7 @@
         <v>373</v>
       </c>
       <c r="E192" s="32" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="29" t="s">
@@ -32187,7 +32187,7 @@
         <v>375</v>
       </c>
       <c r="E193" s="32" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="F193" s="33"/>
       <c r="G193" s="29" t="s">
@@ -32219,7 +32219,7 @@
         <v>379</v>
       </c>
       <c r="E195" s="32" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="F195" s="33"/>
       <c r="G195" s="29" t="s">
@@ -48703,7 +48703,7 @@
         <v>389</v>
       </c>
       <c r="E202" s="32" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="F202" s="33"/>
       <c r="G202" s="29" t="s">
@@ -48735,7 +48735,7 @@
         <v>393</v>
       </c>
       <c r="E204" s="32" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="F204" s="33"/>
       <c r="G204" s="29" t="s">
@@ -49083,7 +49083,7 @@
         <v>439</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F227" s="10"/>
       <c r="G227" s="28" t="s">
@@ -49102,7 +49102,7 @@
         <v>441</v>
       </c>
       <c r="E228" s="10" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="F228" s="10"/>
       <c r="G228" s="28" t="s">
@@ -49121,7 +49121,7 @@
         <v>443</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F229" s="10"/>
       <c r="G229" s="28" t="s">
@@ -49138,7 +49138,7 @@
         <v>445</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="F230" s="10"/>
       <c r="G230" s="28" t="s">
@@ -49748,7 +49748,7 @@
         <v>523</v>
       </c>
       <c r="E270" s="10" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="F270" s="10"/>
       <c r="G270" s="30" t="s">
@@ -49844,7 +49844,7 @@
         <v>535</v>
       </c>
       <c r="E276" s="10" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F276" s="10"/>
       <c r="G276" s="28" t="s">
@@ -49891,7 +49891,7 @@
         <v>541</v>
       </c>
       <c r="E279" s="10" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="F279" s="10"/>
       <c r="G279" s="28" t="s">
@@ -50315,7 +50315,7 @@
         <v>597</v>
       </c>
       <c r="E307" s="10" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F307" s="10"/>
       <c r="G307" s="28" t="s">
@@ -50334,7 +50334,7 @@
         <v>599</v>
       </c>
       <c r="E308" s="10" t="s">
-        <v>968</v>
+        <v>986</v>
       </c>
       <c r="F308" s="10"/>
       <c r="G308" s="28" t="s">
@@ -50353,7 +50353,7 @@
         <v>601</v>
       </c>
       <c r="E309" s="10" t="s">
-        <v>970</v>
+        <v>987</v>
       </c>
       <c r="F309" s="10"/>
       <c r="G309" s="21" t="s">
@@ -50370,7 +50370,7 @@
         <v>603</v>
       </c>
       <c r="E310" s="10" t="s">
-        <v>970</v>
+        <v>987</v>
       </c>
       <c r="F310" s="10"/>
       <c r="G310" s="21" t="s">
@@ -50387,7 +50387,7 @@
         <v>605</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>971</v>
+        <v>988</v>
       </c>
       <c r="F311" s="10"/>
       <c r="G311" s="21" t="s">
@@ -50436,7 +50436,7 @@
         <v>607</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="F314" s="16"/>
       <c r="G314" s="28" t="s">
@@ -50453,7 +50453,7 @@
         <v>609</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="F315" s="16"/>
       <c r="G315" s="28" t="s">
@@ -50487,7 +50487,7 @@
         <v>613</v>
       </c>
       <c r="E317" s="10" t="s">
-        <v>972</v>
+        <v>990</v>
       </c>
       <c r="F317" s="10"/>
       <c r="G317" s="28" t="s">
@@ -50504,7 +50504,7 @@
         <v>615</v>
       </c>
       <c r="E318" s="10" t="s">
-        <v>973</v>
+        <v>991</v>
       </c>
       <c r="F318" s="10"/>
       <c r="G318" s="28" t="s">
@@ -50521,7 +50521,7 @@
         <v>617</v>
       </c>
       <c r="E319" s="10" t="s">
-        <v>972</v>
+        <v>990</v>
       </c>
       <c r="F319" s="10"/>
       <c r="G319" s="28" t="s">
@@ -50645,7 +50645,7 @@
         <v>633</v>
       </c>
       <c r="E327" s="10" t="s">
-        <v>969</v>
+        <v>992</v>
       </c>
       <c r="F327" s="10"/>
       <c r="G327" s="28" t="s">
@@ -50740,7 +50740,7 @@
         <v>645</v>
       </c>
       <c r="E333" s="10" t="s">
-        <v>974</v>
+        <v>956</v>
       </c>
       <c r="F333" s="10"/>
       <c r="G333" s="31" t="s">
@@ -50826,7 +50826,7 @@
         <v>657</v>
       </c>
       <c r="E339" s="10" t="s">
-        <v>974</v>
+        <v>956</v>
       </c>
       <c r="F339" s="10"/>
       <c r="G339" s="30" t="s">
@@ -50870,7 +50870,7 @@
         <v>663</v>
       </c>
       <c r="E342" s="10" t="s">
-        <v>975</v>
+        <v>993</v>
       </c>
       <c r="F342" s="10"/>
       <c r="G342" s="30" t="s">
@@ -50942,7 +50942,7 @@
         <v>671</v>
       </c>
       <c r="E347" s="10" t="s">
-        <v>976</v>
+        <v>957</v>
       </c>
       <c r="F347" s="10"/>
       <c r="G347" s="31" t="s">
@@ -50958,7 +50958,7 @@
         <v>673</v>
       </c>
       <c r="E348" s="10" t="s">
-        <v>976</v>
+        <v>957</v>
       </c>
       <c r="F348" s="10"/>
       <c r="G348" s="31" t="s">
@@ -51002,7 +51002,7 @@
         <v>679</v>
       </c>
       <c r="E351" s="10" t="s">
-        <v>976</v>
+        <v>957</v>
       </c>
       <c r="F351" s="10"/>
       <c r="G351" s="31" t="s">
@@ -51032,7 +51032,7 @@
         <v>683</v>
       </c>
       <c r="E353" s="10" t="s">
-        <v>976</v>
+        <v>957</v>
       </c>
       <c r="F353" s="10"/>
       <c r="G353" s="31" t="s">
@@ -51062,7 +51062,7 @@
         <v>687</v>
       </c>
       <c r="E355" s="10" t="s">
-        <v>977</v>
+        <v>994</v>
       </c>
       <c r="F355" s="10"/>
       <c r="G355" s="31" t="s">
@@ -51078,7 +51078,7 @@
         <v>689</v>
       </c>
       <c r="E356" s="10" t="s">
-        <v>978</v>
+        <v>958</v>
       </c>
       <c r="F356" s="10"/>
       <c r="G356" s="31" t="s">
@@ -51094,7 +51094,7 @@
         <v>691</v>
       </c>
       <c r="E357" s="10" t="s">
-        <v>978</v>
+        <v>958</v>
       </c>
       <c r="F357" s="10"/>
       <c r="G357" s="31" t="s">
@@ -51110,7 +51110,7 @@
         <v>693</v>
       </c>
       <c r="E358" s="10" t="s">
-        <v>978</v>
+        <v>958</v>
       </c>
       <c r="F358" s="10"/>
       <c r="G358" s="31" t="s">
@@ -51196,7 +51196,7 @@
         <v>705</v>
       </c>
       <c r="E364" s="10" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="F364" s="10"/>
       <c r="G364" s="31" t="s">
@@ -51212,7 +51212,7 @@
         <v>707</v>
       </c>
       <c r="E365" s="10" t="s">
-        <v>979</v>
+        <v>959</v>
       </c>
       <c r="F365" s="10"/>
       <c r="G365" s="31" t="s">
@@ -51242,7 +51242,7 @@
         <v>711</v>
       </c>
       <c r="E367" s="10" t="s">
-        <v>979</v>
+        <v>959</v>
       </c>
       <c r="F367" s="10"/>
       <c r="G367" s="31" t="s">
@@ -51258,7 +51258,7 @@
         <v>713</v>
       </c>
       <c r="E368" s="10" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F368" s="10"/>
       <c r="G368" s="31" t="s">
@@ -51274,7 +51274,7 @@
         <v>715</v>
       </c>
       <c r="E369" s="10" t="s">
-        <v>980</v>
+        <v>995</v>
       </c>
       <c r="F369" s="10"/>
       <c r="G369" s="31" t="s">
@@ -51290,7 +51290,7 @@
         <v>717</v>
       </c>
       <c r="E370" s="10" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F370" s="10"/>
       <c r="G370" s="31" t="s">
@@ -51306,7 +51306,7 @@
         <v>719</v>
       </c>
       <c r="E371" s="10" t="s">
-        <v>981</v>
+        <v>996</v>
       </c>
       <c r="F371" s="10"/>
       <c r="G371" s="31" t="s">
@@ -51322,7 +51322,7 @@
         <v>721</v>
       </c>
       <c r="E372" s="10" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F372" s="10"/>
       <c r="G372" s="31" t="s">
@@ -51338,7 +51338,7 @@
         <v>723</v>
       </c>
       <c r="E373" s="10" t="s">
-        <v>982</v>
+        <v>997</v>
       </c>
       <c r="F373" s="10"/>
       <c r="G373" s="31" t="s">
@@ -51354,7 +51354,7 @@
         <v>725</v>
       </c>
       <c r="E374" s="10" t="s">
-        <v>982</v>
+        <v>997</v>
       </c>
       <c r="F374" s="10"/>
       <c r="G374" s="31" t="s">
@@ -51370,7 +51370,7 @@
         <v>727</v>
       </c>
       <c r="E375" s="10" t="s">
-        <v>982</v>
+        <v>997</v>
       </c>
       <c r="F375" s="10"/>
       <c r="G375" s="31" t="s">
@@ -51386,7 +51386,7 @@
         <v>729</v>
       </c>
       <c r="E376" s="10" t="s">
-        <v>983</v>
+        <v>960</v>
       </c>
       <c r="F376" s="10"/>
       <c r="G376" s="31" t="s">
@@ -51416,7 +51416,7 @@
         <v>733</v>
       </c>
       <c r="E378" s="10" t="s">
-        <v>984</v>
+        <v>961</v>
       </c>
       <c r="F378" s="10"/>
       <c r="G378" s="31" t="s">
@@ -51516,7 +51516,7 @@
         <v>747</v>
       </c>
       <c r="E385" s="10" t="s">
-        <v>985</v>
+        <v>962</v>
       </c>
       <c r="F385" s="10"/>
       <c r="G385" s="31" t="s">
@@ -51546,7 +51546,7 @@
         <v>751</v>
       </c>
       <c r="E387" s="10" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="F387" s="10"/>
       <c r="G387" s="31" t="s">
@@ -51674,7 +51674,7 @@
         <v>769</v>
       </c>
       <c r="E396" s="10" t="s">
-        <v>986</v>
+        <v>999</v>
       </c>
       <c r="F396" s="10"/>
       <c r="G396" s="31" t="s">
@@ -51732,7 +51732,7 @@
         <v>777</v>
       </c>
       <c r="E400" s="10" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="F400" s="10"/>
       <c r="G400" s="31" t="s">
@@ -51762,7 +51762,7 @@
         <v>781</v>
       </c>
       <c r="E402" s="10" t="s">
-        <v>987</v>
+        <v>1000</v>
       </c>
       <c r="F402" s="10"/>
       <c r="G402" s="31" t="s">
@@ -51811,7 +51811,7 @@
         <v>787</v>
       </c>
       <c r="E405" s="13" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="G405" s="28" t="s">
         <v>877</v>
@@ -51904,7 +51904,7 @@
         <v>799</v>
       </c>
       <c r="E411" s="25" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="F411" s="25"/>
       <c r="G411" s="28" t="s">
@@ -51983,7 +51983,7 @@
         <v>809</v>
       </c>
       <c r="E416" s="13" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="G416" s="28" t="s">
         <v>877</v>
@@ -51999,7 +51999,7 @@
         <v>811</v>
       </c>
       <c r="E417" s="13" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="G417" s="28" t="s">
         <v>877</v>
@@ -52137,6 +52137,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F414E67DA4490F438DF7F839DDD88F54" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="968179862b391a59b7f67eb3e7667402">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fddf207-9565-4c1d-88a2-78ac3eb02019" xmlns:ns3="1750c493-bee6-4013-b7a9-faed7d1eacd9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fc6ea6213b4ec21afdfc08f0704f67a" ns2:_="" ns3:_="">
     <xsd:import namespace="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
@@ -52339,7 +52345,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -52348,13 +52354,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1765E8E-7B87-4E57-AE04-80D6CA061ADD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1750c493-bee6-4013-b7a9-faed7d1eacd9"/>
+    <ds:schemaRef ds:uri="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD5FE2FF-FFA2-4AC8-B9A7-6009CF780188}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -52373,27 +52390,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E6096D8-1CD1-477D-852D-41029505002A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1765E8E-7B87-4E57-AE04-80D6CA061ADD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1750c493-bee6-4013-b7a9-faed7d1eacd9"/>
-    <ds:schemaRef ds:uri="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Carto/POI/PDS_Category_Assignment.xlsx
+++ b/Carto/POI/PDS_Category_Assignment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauragar/icons-by-here-technologies/Carto/POI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lembke/Desktop/HERE/GIT/icons-by-here-technologies/Carto/POI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0266A930-EC9C-7248-BBB1-FB320BDA317D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B7D2A47-F7FB-3249-BDB7-B9F2389186B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27600" xr2:uid="{C64EB798-04F6-AE43-9DCC-0EA02E11247A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="41300" windowHeight="27220" xr2:uid="{C64EB798-04F6-AE43-9DCC-0EA02E11247A}"/>
   </bookViews>
   <sheets>
     <sheet name="PDS_Category_Assignment" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="1018">
   <si>
     <t>PDS Category name</t>
   </si>
@@ -2532,15 +2532,9 @@
     </r>
   </si>
   <si>
-    <t>#HEX</t>
-  </si>
-  <si>
     <t>Focus color</t>
   </si>
   <si>
-    <t>#FF7C00</t>
-  </si>
-  <si>
     <t>200 Going out-Entertainment</t>
   </si>
   <si>
@@ -2574,9 +2568,6 @@
     <t>Second Level Category ID</t>
   </si>
   <si>
-    <t>#E460A2</t>
-  </si>
-  <si>
     <t>3000 Landmark-Attraction</t>
   </si>
   <si>
@@ -2604,12 +2595,6 @@
     <t>3550 Natural and Geographical</t>
   </si>
   <si>
-    <t>#B744CB</t>
-  </si>
-  <si>
-    <t>#007650</t>
-  </si>
-  <si>
     <t>400 Transport</t>
   </si>
   <si>
@@ -2634,15 +2619,6 @@
     <t>5100 Lodging</t>
   </si>
   <si>
-    <t>#006DE0</t>
-  </si>
-  <si>
-    <t>#01A2FF</t>
-  </si>
-  <si>
-    <t>#174AB9</t>
-  </si>
-  <si>
     <t>550 Leisure and Outdoor</t>
   </si>
   <si>
@@ -2655,9 +2631,6 @@
     <t>600 Shopping</t>
   </si>
   <si>
-    <t>#00A167</t>
-  </si>
-  <si>
     <t>700 Business and Services</t>
   </si>
   <si>
@@ -2679,12 +2652,6 @@
     <t>9400 Administrative Region-Streets</t>
   </si>
   <si>
-    <t>#6A84C2</t>
-  </si>
-  <si>
-    <t>#D61F82</t>
-  </si>
-  <si>
     <t>6000 Convenience Store</t>
   </si>
   <si>
@@ -2718,9 +2685,6 @@
     <t>6950 Hair and Beauty</t>
   </si>
   <si>
-    <t>#FB0425</t>
-  </si>
-  <si>
     <t>7000 Banking</t>
   </si>
   <si>
@@ -2766,9 +2730,6 @@
     <t>7900 Truck-Semi Dealer-Services</t>
   </si>
   <si>
-    <t>#C18000</t>
-  </si>
-  <si>
     <t>700-7600-0325</t>
   </si>
   <si>
@@ -3055,6 +3016,90 @@
   </si>
   <si>
     <t>generic-point_solid_24px.svg</t>
+  </si>
+  <si>
+    <t>Design token</t>
+  </si>
+  <si>
+    <t>$hds-poi-focus-eat-drink</t>
+  </si>
+  <si>
+    <t>Default color</t>
+  </si>
+  <si>
+    <t>$hds-poi-default-eat-drink</t>
+  </si>
+  <si>
+    <t>$hds-poi-focus-entertainment</t>
+  </si>
+  <si>
+    <t>$hds-poi-default-entertainment</t>
+  </si>
+  <si>
+    <t>$hds-poi-focus-sights-museum</t>
+  </si>
+  <si>
+    <t>$hds-poi-default-sights-museum</t>
+  </si>
+  <si>
+    <t>$hds-poi-focus-natural-geographical</t>
+  </si>
+  <si>
+    <t>$hds-poi-default-natural-geographical</t>
+  </si>
+  <si>
+    <t>$hds-poi-focus-water-undersea</t>
+  </si>
+  <si>
+    <t>$hds-poi-default-water-undersea</t>
+  </si>
+  <si>
+    <t>$hds-poi-focus-transport</t>
+  </si>
+  <si>
+    <t>$hds-poi-default-transport</t>
+  </si>
+  <si>
+    <t>$hds-poi-focus-parking</t>
+  </si>
+  <si>
+    <t>$hds-poi-default-parking</t>
+  </si>
+  <si>
+    <t>$hds-poi-focus-accomodation</t>
+  </si>
+  <si>
+    <t>$hds-poi-default-accomodation</t>
+  </si>
+  <si>
+    <t>$hds-poi-focus-leisure-outdoor</t>
+  </si>
+  <si>
+    <t>$hds-poi-default-leisure-outdoor</t>
+  </si>
+  <si>
+    <t>$hds-poi-focus-shopping</t>
+  </si>
+  <si>
+    <t>$hds-poi-default-shopping</t>
+  </si>
+  <si>
+    <t>$hds-poi-focus-emergency</t>
+  </si>
+  <si>
+    <t>$hds-poi-default-emergency</t>
+  </si>
+  <si>
+    <t>$hds-poi-focus-business-services-areas</t>
+  </si>
+  <si>
+    <t>$hds-poi-default-business-services-areas</t>
+  </si>
+  <si>
+    <t>$hds-poi-focus-facilities</t>
+  </si>
+  <si>
+    <t>$hds-poi-default-facilities</t>
   </si>
 </sst>
 </file>
@@ -3184,7 +3229,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3283,6 +3328,90 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC18000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA858"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED97C2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC7FDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF369D7C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009196"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF24AEB2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF69C8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5093E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF597ECD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF45C094"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE265A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC5A71"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA1B2DA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3A449"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3429,7 +3558,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3540,6 +3669,48 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3592,16 +3763,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFC18000"/>
-      <color rgb="FFFB0425"/>
-      <color rgb="FFD61F82"/>
-      <color rgb="FF6A84C2"/>
-      <color rgb="FF00A167"/>
-      <color rgb="FF174AB9"/>
-      <color rgb="FF01A2FF"/>
-      <color rgb="FF006DE0"/>
+      <color rgb="FFD3A449"/>
+      <color rgb="FFA1B2DA"/>
+      <color rgb="FFFC5A71"/>
+      <color rgb="FFE265A8"/>
+      <color rgb="FF45C094"/>
+      <color rgb="FF597ECD"/>
+      <color rgb="FF5093E9"/>
+      <color rgb="FF69C8FF"/>
+      <color rgb="FF24AEB2"/>
       <color rgb="FF009196"/>
-      <color rgb="FF007650"/>
     </mruColors>
   </colors>
   <extLst>
@@ -12582,8 +12753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693BBA9B-95F3-BD4A-928B-DD81DFE8C409}">
   <dimension ref="A1:XFD422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="K379" sqref="K379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="50" customHeight="1" outlineLevelCol="1"/>
@@ -12594,15 +12765,15 @@
     <col min="4" max="4" width="50.83203125" style="13" customWidth="1"/>
     <col min="5" max="5" width="50.83203125" style="13" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="25.83203125" style="13" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="50.83203125" style="15" customWidth="1"/>
+    <col min="7" max="8" width="50.83203125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="50" customHeight="1">
+    <row r="1" spans="1:8" ht="50" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>825</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>827</v>
@@ -12615,15 +12786,18 @@
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>992</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="50" customHeight="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="50" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -12636,15 +12810,18 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
-        <v>828</v>
+        <v>990</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>990</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="50" customHeight="1">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:8" ht="50" customHeight="1">
+      <c r="A3" s="62" t="s">
         <v>826</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>833</v>
+      <c r="B3" s="62" t="s">
+        <v>831</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>3</v>
@@ -12653,16 +12830,19 @@
         <v>4</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="11" t="s">
-        <v>830</v>
+        <v>991</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>993</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="50" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
+    <row r="4" spans="1:8" ht="50" customHeight="1">
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
@@ -12670,16 +12850,19 @@
         <v>6</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="11" t="s">
-        <v>830</v>
+        <v>991</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>993</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="50" customHeight="1">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
+    <row r="5" spans="1:8" ht="50" customHeight="1">
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
@@ -12687,16 +12870,19 @@
         <v>8</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="11" t="s">
-        <v>830</v>
+        <v>991</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>993</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="50" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
+    <row r="6" spans="1:8" ht="50" customHeight="1">
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
@@ -12704,16 +12890,19 @@
         <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11" t="s">
-        <v>830</v>
+        <v>991</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>993</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="50" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
+    <row r="7" spans="1:8" ht="50" customHeight="1">
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
@@ -12721,16 +12910,19 @@
         <v>12</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="11" t="s">
-        <v>830</v>
+        <v>991</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>993</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="50" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
+    <row r="8" spans="1:8" ht="50" customHeight="1">
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
@@ -12738,16 +12930,19 @@
         <v>14</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="11" t="s">
-        <v>830</v>
+        <v>991</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>993</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="50" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
+    <row r="9" spans="1:8" ht="50" customHeight="1">
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
@@ -12755,16 +12950,19 @@
         <v>16</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="11" t="s">
-        <v>830</v>
+        <v>991</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>993</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="50" customHeight="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
+    <row r="10" spans="1:8" ht="50" customHeight="1">
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
@@ -12772,16 +12970,19 @@
         <v>18</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11" t="s">
-        <v>830</v>
+        <v>991</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>993</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="50" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
+    <row r="11" spans="1:8" ht="50" customHeight="1">
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
@@ -12789,17 +12990,20 @@
         <v>20</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="11" t="s">
-        <v>830</v>
+        <v>991</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>993</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="50" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48" t="s">
-        <v>834</v>
+    <row r="12" spans="1:8" ht="50" customHeight="1">
+      <c r="A12" s="62"/>
+      <c r="B12" s="62" t="s">
+        <v>832</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>21</v>
@@ -12808,16 +13012,19 @@
         <v>22</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>1001</v>
+        <v>988</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11" t="s">
-        <v>830</v>
+        <v>991</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>993</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="50" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
+    <row r="13" spans="1:8" ht="50" customHeight="1">
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
@@ -12825,16 +13032,19 @@
         <v>24</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="11" t="s">
-        <v>830</v>
+        <v>991</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>993</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="50" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
+    <row r="14" spans="1:8" ht="50" customHeight="1">
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="8" t="s">
         <v>25</v>
       </c>
@@ -12842,16 +13052,19 @@
         <v>26</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="11" t="s">
-        <v>830</v>
+        <v>991</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>993</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="50" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
+    <row r="15" spans="1:8" ht="50" customHeight="1">
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="8" t="s">
         <v>27</v>
       </c>
@@ -12859,19 +13072,22 @@
         <v>28</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="11" t="s">
-        <v>830</v>
+        <v>991</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>993</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="50" customHeight="1">
-      <c r="A16" s="47" t="s">
-        <v>831</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>836</v>
+    <row r="16" spans="1:8" ht="50" customHeight="1">
+      <c r="A16" s="61" t="s">
+        <v>829</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>834</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>29</v>
@@ -12880,16 +13096,19 @@
         <v>30</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="12" t="s">
-        <v>842</v>
+        <v>994</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>995</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="50" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
+    <row r="17" spans="1:8" ht="50" customHeight="1">
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
@@ -12897,16 +13116,19 @@
         <v>32</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="12" t="s">
-        <v>842</v>
+        <v>994</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>995</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="50" customHeight="1">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
+    <row r="18" spans="1:8" ht="50" customHeight="1">
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="8" t="s">
         <v>33</v>
       </c>
@@ -12914,16 +13136,19 @@
         <v>34</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="12" t="s">
-        <v>842</v>
+        <v>994</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>995</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="50" customHeight="1">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
+    <row r="19" spans="1:8" ht="50" customHeight="1">
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="8" t="s">
         <v>35</v>
       </c>
@@ -12931,16 +13156,19 @@
         <v>36</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="12" t="s">
-        <v>842</v>
+        <v>994</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>995</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="50" customHeight="1">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
+    <row r="20" spans="1:8" ht="50" customHeight="1">
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="8" t="s">
         <v>37</v>
       </c>
@@ -12948,16 +13176,19 @@
         <v>38</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="12" t="s">
-        <v>842</v>
+        <v>994</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>995</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="50" customHeight="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
+    <row r="21" spans="1:8" ht="50" customHeight="1">
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="8" t="s">
         <v>39</v>
       </c>
@@ -12965,16 +13196,19 @@
         <v>40</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="12" t="s">
-        <v>842</v>
+        <v>994</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>995</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="50" customHeight="1">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
+    <row r="22" spans="1:8" ht="50" customHeight="1">
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="8" t="s">
         <v>41</v>
       </c>
@@ -12982,16 +13216,19 @@
         <v>42</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="12" t="s">
-        <v>842</v>
+        <v>994</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>995</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="50" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
+    <row r="23" spans="1:8" ht="50" customHeight="1">
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="8" t="s">
         <v>43</v>
       </c>
@@ -12999,16 +13236,19 @@
         <v>44</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="12" t="s">
-        <v>842</v>
+        <v>994</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>995</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="50" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
+    <row r="24" spans="1:8" ht="50" customHeight="1">
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="8" t="s">
         <v>45</v>
       </c>
@@ -13016,16 +13256,19 @@
         <v>46</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="12" t="s">
-        <v>842</v>
+        <v>994</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>995</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="50" customHeight="1">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
+    <row r="25" spans="1:8" ht="50" customHeight="1">
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="13" t="s">
         <v>47</v>
       </c>
@@ -13033,15 +13276,18 @@
         <v>48</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>842</v>
+        <v>994</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>995</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="50" customHeight="1">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
+    <row r="26" spans="1:8" ht="50" customHeight="1">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="8" t="s">
         <v>49</v>
       </c>
@@ -13049,16 +13295,19 @@
         <v>50</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="12" t="s">
-        <v>842</v>
+        <v>994</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>995</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="50" customHeight="1">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
+    <row r="27" spans="1:8" ht="50" customHeight="1">
+      <c r="A27" s="61"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="8" t="s">
         <v>51</v>
       </c>
@@ -13066,17 +13315,20 @@
         <v>52</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="12" t="s">
-        <v>842</v>
+        <v>994</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>995</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="50" customHeight="1">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:8" ht="50" customHeight="1">
+      <c r="A28" s="61"/>
       <c r="B28" s="14" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>53</v>
@@ -13085,17 +13337,20 @@
         <v>54</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="12" t="s">
-        <v>842</v>
+        <v>994</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>995</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="50" customHeight="1">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47" t="s">
-        <v>838</v>
+    <row r="29" spans="1:8" ht="50" customHeight="1">
+      <c r="A29" s="61"/>
+      <c r="B29" s="61" t="s">
+        <v>836</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>55</v>
@@ -13104,16 +13359,19 @@
         <v>56</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="12" t="s">
-        <v>842</v>
+        <v>994</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>995</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="50" customHeight="1">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
+    <row r="30" spans="1:8" ht="50" customHeight="1">
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="8" t="s">
         <v>57</v>
       </c>
@@ -13121,17 +13379,20 @@
         <v>58</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="12" t="s">
-        <v>842</v>
+        <v>994</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>995</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="50" customHeight="1">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47" t="s">
-        <v>839</v>
+    <row r="31" spans="1:8" ht="50" customHeight="1">
+      <c r="A31" s="61"/>
+      <c r="B31" s="61" t="s">
+        <v>837</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>59</v>
@@ -13140,16 +13401,19 @@
         <v>60</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="12" t="s">
-        <v>842</v>
+        <v>994</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>995</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="50" customHeight="1">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
+    <row r="32" spans="1:8" ht="50" customHeight="1">
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
       <c r="C32" s="8" t="s">
         <v>61</v>
       </c>
@@ -13157,16 +13421,19 @@
         <v>62</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="12" t="s">
-        <v>842</v>
+        <v>994</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>995</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="50" customHeight="1">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
+    <row r="33" spans="1:8" ht="50" customHeight="1">
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
       <c r="C33" s="8" t="s">
         <v>63</v>
       </c>
@@ -13174,19 +13441,22 @@
         <v>64</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>929</v>
+        <v>916</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="12" t="s">
-        <v>842</v>
+        <v>994</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>995</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="50" customHeight="1">
-      <c r="A34" s="38" t="s">
-        <v>835</v>
-      </c>
-      <c r="B34" s="47" t="s">
-        <v>843</v>
+    <row r="34" spans="1:8" ht="50" customHeight="1">
+      <c r="A34" s="52" t="s">
+        <v>833</v>
+      </c>
+      <c r="B34" s="61" t="s">
+        <v>840</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>65</v>
@@ -13195,16 +13465,19 @@
         <v>66</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="18" t="s">
-        <v>852</v>
+        <v>996</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>997</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="50" customHeight="1">
-      <c r="A35" s="39"/>
-      <c r="B35" s="47"/>
+    <row r="35" spans="1:8" ht="50" customHeight="1">
+      <c r="A35" s="53"/>
+      <c r="B35" s="61"/>
       <c r="C35" s="8" t="s">
         <v>67</v>
       </c>
@@ -13212,16 +13485,19 @@
         <v>68</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="18" t="s">
-        <v>852</v>
+        <v>996</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>997</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="50" customHeight="1">
-      <c r="A36" s="39"/>
-      <c r="B36" s="47"/>
+    <row r="36" spans="1:8" ht="50" customHeight="1">
+      <c r="A36" s="53"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="8" t="s">
         <v>69</v>
       </c>
@@ -13229,16 +13505,19 @@
         <v>70</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="18" t="s">
-        <v>852</v>
+        <v>996</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>997</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="50" customHeight="1">
-      <c r="A37" s="39"/>
-      <c r="B37" s="47"/>
+    <row r="37" spans="1:8" ht="50" customHeight="1">
+      <c r="A37" s="53"/>
+      <c r="B37" s="61"/>
       <c r="C37" s="8" t="s">
         <v>71</v>
       </c>
@@ -13246,16 +13525,19 @@
         <v>72</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="18" t="s">
-        <v>852</v>
+        <v>996</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>997</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="50" customHeight="1">
-      <c r="A38" s="39"/>
-      <c r="B38" s="47"/>
+    <row r="38" spans="1:8" ht="50" customHeight="1">
+      <c r="A38" s="53"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="8" t="s">
         <v>73</v>
       </c>
@@ -13265,12 +13547,15 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="18" t="s">
-        <v>852</v>
+        <v>996</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>997</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="50" customHeight="1">
-      <c r="A39" s="39"/>
-      <c r="B39" s="47"/>
+    <row r="39" spans="1:8" ht="50" customHeight="1">
+      <c r="A39" s="53"/>
+      <c r="B39" s="61"/>
       <c r="C39" s="8" t="s">
         <v>75</v>
       </c>
@@ -13280,12 +13565,15 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="18" t="s">
-        <v>852</v>
+        <v>996</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>997</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="50" customHeight="1">
-      <c r="A40" s="39"/>
-      <c r="B40" s="47"/>
+    <row r="40" spans="1:8" ht="50" customHeight="1">
+      <c r="A40" s="53"/>
+      <c r="B40" s="61"/>
       <c r="C40" s="8" t="s">
         <v>77</v>
       </c>
@@ -13295,12 +13583,15 @@
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="18" t="s">
-        <v>852</v>
+        <v>996</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>997</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="50" customHeight="1">
-      <c r="A41" s="39"/>
-      <c r="B41" s="47"/>
+    <row r="41" spans="1:8" ht="50" customHeight="1">
+      <c r="A41" s="53"/>
+      <c r="B41" s="61"/>
       <c r="C41" s="8" t="s">
         <v>79</v>
       </c>
@@ -13308,17 +13599,20 @@
         <v>80</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="18" t="s">
-        <v>852</v>
+        <v>996</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>997</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="50" customHeight="1">
-      <c r="A42" s="39"/>
-      <c r="B42" s="47" t="s">
-        <v>844</v>
+    <row r="42" spans="1:8" ht="50" customHeight="1">
+      <c r="A42" s="53"/>
+      <c r="B42" s="61" t="s">
+        <v>841</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>81</v>
@@ -13327,16 +13621,19 @@
         <v>82</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="18" t="s">
-        <v>852</v>
+        <v>996</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>997</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="50" customHeight="1">
-      <c r="A43" s="39"/>
-      <c r="B43" s="47"/>
+    <row r="43" spans="1:8" ht="50" customHeight="1">
+      <c r="A43" s="53"/>
+      <c r="B43" s="61"/>
       <c r="C43" s="8" t="s">
         <v>83</v>
       </c>
@@ -13344,16 +13641,19 @@
         <v>84</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="18" t="s">
-        <v>852</v>
+        <v>996</v>
+      </c>
+      <c r="H43" s="40" t="s">
+        <v>997</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="50" customHeight="1">
-      <c r="A44" s="39"/>
-      <c r="B44" s="47"/>
+    <row r="44" spans="1:8" ht="50" customHeight="1">
+      <c r="A44" s="53"/>
+      <c r="B44" s="61"/>
       <c r="C44" s="8" t="s">
         <v>85</v>
       </c>
@@ -13361,16 +13661,19 @@
         <v>86</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="18" t="s">
-        <v>852</v>
+        <v>996</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>997</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="50" customHeight="1">
-      <c r="A45" s="39"/>
-      <c r="B45" s="47"/>
+    <row r="45" spans="1:8" ht="50" customHeight="1">
+      <c r="A45" s="53"/>
+      <c r="B45" s="61"/>
       <c r="C45" s="8" t="s">
         <v>87</v>
       </c>
@@ -13378,16 +13681,19 @@
         <v>88</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="18" t="s">
-        <v>852</v>
+        <v>996</v>
+      </c>
+      <c r="H45" s="40" t="s">
+        <v>997</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="50" customHeight="1">
-      <c r="A46" s="39"/>
-      <c r="B46" s="47"/>
+    <row r="46" spans="1:8" ht="50" customHeight="1">
+      <c r="A46" s="53"/>
+      <c r="B46" s="61"/>
       <c r="C46" s="8" t="s">
         <v>89</v>
       </c>
@@ -13395,17 +13701,20 @@
         <v>90</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="18" t="s">
-        <v>852</v>
+        <v>996</v>
+      </c>
+      <c r="H46" s="40" t="s">
+        <v>997</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="50" customHeight="1">
-      <c r="A47" s="39"/>
-      <c r="B47" s="44" t="s">
-        <v>845</v>
+    <row r="47" spans="1:8" ht="50" customHeight="1">
+      <c r="A47" s="53"/>
+      <c r="B47" s="58" t="s">
+        <v>842</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>91</v>
@@ -13414,16 +13723,19 @@
         <v>92</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="18" t="s">
-        <v>852</v>
+        <v>996</v>
+      </c>
+      <c r="H47" s="40" t="s">
+        <v>997</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="50" customHeight="1">
-      <c r="A48" s="39"/>
-      <c r="B48" s="45"/>
+    <row r="48" spans="1:8" ht="50" customHeight="1">
+      <c r="A48" s="53"/>
+      <c r="B48" s="59"/>
       <c r="C48" s="8" t="s">
         <v>93</v>
       </c>
@@ -13431,16 +13743,19 @@
         <v>94</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="18" t="s">
-        <v>852</v>
+        <v>996</v>
+      </c>
+      <c r="H48" s="40" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="49" spans="1:16384" ht="50" customHeight="1">
-      <c r="A49" s="39"/>
-      <c r="B49" s="45"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="8" t="s">
         <v>95</v>
       </c>
@@ -13448,16 +13763,19 @@
         <v>96</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="18" t="s">
-        <v>852</v>
+        <v>996</v>
+      </c>
+      <c r="H49" s="40" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="50" spans="1:16384" ht="50" customHeight="1">
-      <c r="A50" s="39"/>
-      <c r="B50" s="45"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="8" t="s">
         <v>97</v>
       </c>
@@ -13465,16 +13783,19 @@
         <v>98</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="18" t="s">
-        <v>852</v>
+        <v>996</v>
+      </c>
+      <c r="H50" s="40" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="51" spans="1:16384" ht="50" customHeight="1">
-      <c r="A51" s="39"/>
-      <c r="B51" s="45"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="59"/>
       <c r="C51" s="8" t="s">
         <v>99</v>
       </c>
@@ -13482,16 +13803,19 @@
         <v>100</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="18" t="s">
-        <v>852</v>
+        <v>996</v>
+      </c>
+      <c r="H51" s="40" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="52" spans="1:16384" ht="50" customHeight="1">
-      <c r="A52" s="39"/>
-      <c r="B52" s="45"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="59"/>
       <c r="C52" s="8" t="s">
         <v>101</v>
       </c>
@@ -13499,28 +13823,33 @@
         <v>102</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="18" t="s">
-        <v>852</v>
+        <v>996</v>
+      </c>
+      <c r="H52" s="40" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="53" spans="1:16384" ht="50" customHeight="1">
-      <c r="A53" s="39"/>
-      <c r="B53" s="45"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="59"/>
       <c r="C53" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="E53" s="34"/>
       <c r="F53" s="34"/>
       <c r="G53" s="18" t="s">
-        <v>852</v>
-      </c>
-      <c r="H53" s="34"/>
+        <v>996</v>
+      </c>
+      <c r="H53" s="40" t="s">
+        <v>997</v>
+      </c>
       <c r="I53" s="34"/>
       <c r="J53" s="34"/>
       <c r="K53" s="34"/>
@@ -29899,8 +30228,8 @@
       <c r="XFD53" s="34"/>
     </row>
     <row r="54" spans="1:16384" ht="50" customHeight="1">
-      <c r="A54" s="39"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="59"/>
       <c r="C54" s="8" t="s">
         <v>103</v>
       </c>
@@ -29908,16 +30237,19 @@
         <v>104</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="18" t="s">
-        <v>852</v>
+        <v>996</v>
+      </c>
+      <c r="H54" s="40" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="55" spans="1:16384" ht="50" customHeight="1">
-      <c r="A55" s="39"/>
-      <c r="B55" s="45"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="59"/>
       <c r="C55" s="8" t="s">
         <v>105</v>
       </c>
@@ -29925,34 +30257,40 @@
         <v>106</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="18" t="s">
-        <v>852</v>
+        <v>996</v>
+      </c>
+      <c r="H55" s="40" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="56" spans="1:16384" ht="50" customHeight="1">
-      <c r="A56" s="40"/>
-      <c r="B56" s="46"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="60"/>
       <c r="C56" s="35" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="18" t="s">
-        <v>852</v>
+        <v>996</v>
+      </c>
+      <c r="H56" s="40" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="57" spans="1:16384" ht="50" customHeight="1">
-      <c r="A57" s="38" t="s">
-        <v>846</v>
-      </c>
-      <c r="B57" s="38" t="s">
-        <v>847</v>
+      <c r="A57" s="52" t="s">
+        <v>843</v>
+      </c>
+      <c r="B57" s="52" t="s">
+        <v>844</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>107</v>
@@ -29961,16 +30299,19 @@
         <v>108</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="F57" s="10"/>
-      <c r="G57" s="19" t="s">
-        <v>853</v>
+      <c r="G57" s="42" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H57" s="43" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="58" spans="1:16384" ht="50" customHeight="1">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="8" t="s">
         <v>109</v>
       </c>
@@ -29979,13 +30320,16 @@
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="19" t="s">
-        <v>853</v>
+      <c r="G58" s="42" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H58" s="43" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="59" spans="1:16384" ht="50" customHeight="1">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="8" t="s">
         <v>111</v>
       </c>
@@ -29994,13 +30338,16 @@
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="19" t="s">
-        <v>853</v>
+      <c r="G59" s="42" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H59" s="43" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="60" spans="1:16384" ht="50" customHeight="1">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="8" t="s">
         <v>113</v>
       </c>
@@ -30008,16 +30355,19 @@
         <v>114</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>946</v>
+        <v>933</v>
       </c>
       <c r="F60" s="10"/>
-      <c r="G60" s="19" t="s">
-        <v>853</v>
+      <c r="G60" s="42" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H60" s="43" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="61" spans="1:16384" ht="50" customHeight="1">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="53"/>
       <c r="C61" s="8" t="s">
         <v>115</v>
       </c>
@@ -30026,13 +30376,16 @@
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
-      <c r="G61" s="19" t="s">
-        <v>853</v>
+      <c r="G61" s="42" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H61" s="43" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="62" spans="1:16384" ht="50" customHeight="1">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
+      <c r="A62" s="53"/>
+      <c r="B62" s="53"/>
       <c r="C62" s="8" t="s">
         <v>117</v>
       </c>
@@ -30041,13 +30394,16 @@
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="19" t="s">
-        <v>853</v>
+      <c r="G62" s="42" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H62" s="43" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="63" spans="1:16384" ht="50" customHeight="1">
-      <c r="A63" s="39"/>
-      <c r="B63" s="40"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="54"/>
       <c r="C63" s="8" t="s">
         <v>119</v>
       </c>
@@ -30056,14 +30412,17 @@
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="19" t="s">
-        <v>853</v>
+      <c r="G63" s="42" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H63" s="43" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="64" spans="1:16384" ht="50" customHeight="1">
-      <c r="A64" s="39"/>
-      <c r="B64" s="38" t="s">
-        <v>848</v>
+      <c r="A64" s="53"/>
+      <c r="B64" s="52" t="s">
+        <v>845</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>121</v>
@@ -30072,16 +30431,19 @@
         <v>122</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="19" t="s">
-        <v>853</v>
+        <v>998</v>
+      </c>
+      <c r="H64" s="41" t="s">
+        <v>999</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="50" customHeight="1">
-      <c r="A65" s="39"/>
-      <c r="B65" s="39"/>
+    <row r="65" spans="1:8" ht="50" customHeight="1">
+      <c r="A65" s="53"/>
+      <c r="B65" s="53"/>
       <c r="C65" s="8" t="s">
         <v>123</v>
       </c>
@@ -30089,16 +30451,19 @@
         <v>124</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="19" t="s">
-        <v>853</v>
+        <v>998</v>
+      </c>
+      <c r="H65" s="41" t="s">
+        <v>999</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="50" customHeight="1">
-      <c r="A66" s="39"/>
-      <c r="B66" s="40"/>
+    <row r="66" spans="1:8" ht="50" customHeight="1">
+      <c r="A66" s="53"/>
+      <c r="B66" s="54"/>
       <c r="C66" s="8" t="s">
         <v>125</v>
       </c>
@@ -30106,17 +30471,20 @@
         <v>126</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="19" t="s">
-        <v>853</v>
+        <v>998</v>
+      </c>
+      <c r="H66" s="41" t="s">
+        <v>999</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="50" customHeight="1">
-      <c r="A67" s="39"/>
+    <row r="67" spans="1:8" ht="50" customHeight="1">
+      <c r="A67" s="53"/>
       <c r="B67" s="14" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>127</v>
@@ -30126,14 +30494,17 @@
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
-      <c r="G67" s="19" t="s">
-        <v>853</v>
+      <c r="G67" s="42" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H67" s="43" t="s">
+        <v>1001</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="50" customHeight="1">
-      <c r="A68" s="39"/>
+    <row r="68" spans="1:8" ht="50" customHeight="1">
+      <c r="A68" s="53"/>
       <c r="B68" s="14" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>129</v>
@@ -30142,17 +30513,20 @@
         <v>130</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="19" t="s">
-        <v>853</v>
+        <v>998</v>
+      </c>
+      <c r="H68" s="41" t="s">
+        <v>999</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="50" customHeight="1">
-      <c r="A69" s="40"/>
+    <row r="69" spans="1:8" ht="50" customHeight="1">
+      <c r="A69" s="54"/>
       <c r="B69" s="14" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>131</v>
@@ -30161,19 +30535,22 @@
         <v>132</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="19" t="s">
-        <v>853</v>
+        <v>998</v>
+      </c>
+      <c r="H69" s="41" t="s">
+        <v>999</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="50" customHeight="1">
-      <c r="A70" s="38" t="s">
-        <v>854</v>
-      </c>
-      <c r="B70" s="38" t="s">
-        <v>856</v>
+    <row r="70" spans="1:8" ht="50" customHeight="1">
+      <c r="A70" s="52" t="s">
+        <v>849</v>
+      </c>
+      <c r="B70" s="52" t="s">
+        <v>851</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>133</v>
@@ -30182,16 +30559,19 @@
         <v>134</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>931</v>
+        <v>918</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H70" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="50" customHeight="1">
-      <c r="A71" s="39"/>
-      <c r="B71" s="39"/>
+    <row r="71" spans="1:8" ht="50" customHeight="1">
+      <c r="A71" s="53"/>
+      <c r="B71" s="53"/>
       <c r="C71" s="8" t="s">
         <v>135</v>
       </c>
@@ -30199,16 +30579,19 @@
         <v>136</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>931</v>
+        <v>918</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H71" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="50" customHeight="1">
-      <c r="A72" s="39"/>
-      <c r="B72" s="40"/>
+    <row r="72" spans="1:8" ht="50" customHeight="1">
+      <c r="A72" s="53"/>
+      <c r="B72" s="54"/>
       <c r="C72" s="8" t="s">
         <v>137</v>
       </c>
@@ -30216,17 +30599,20 @@
         <v>138</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>931</v>
+        <v>918</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H72" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="50" customHeight="1">
-      <c r="A73" s="39"/>
-      <c r="B73" s="38" t="s">
-        <v>855</v>
+    <row r="73" spans="1:8" ht="50" customHeight="1">
+      <c r="A73" s="53"/>
+      <c r="B73" s="52" t="s">
+        <v>850</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>139</v>
@@ -30235,16 +30621,19 @@
         <v>140</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H73" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="50" customHeight="1">
-      <c r="A74" s="39"/>
-      <c r="B74" s="39"/>
+    <row r="74" spans="1:8" ht="50" customHeight="1">
+      <c r="A74" s="53"/>
+      <c r="B74" s="53"/>
       <c r="C74" s="8" t="s">
         <v>141</v>
       </c>
@@ -30252,16 +30641,19 @@
         <v>142</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H74" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="50" customHeight="1">
-      <c r="A75" s="39"/>
-      <c r="B75" s="39"/>
+    <row r="75" spans="1:8" ht="50" customHeight="1">
+      <c r="A75" s="53"/>
+      <c r="B75" s="53"/>
       <c r="C75" s="8" t="s">
         <v>143</v>
       </c>
@@ -30269,16 +30661,19 @@
         <v>144</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H75" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="50" customHeight="1">
-      <c r="A76" s="39"/>
-      <c r="B76" s="39"/>
+    <row r="76" spans="1:8" ht="50" customHeight="1">
+      <c r="A76" s="53"/>
+      <c r="B76" s="53"/>
       <c r="C76" s="8" t="s">
         <v>145</v>
       </c>
@@ -30286,16 +30681,19 @@
         <v>146</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H76" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="50" customHeight="1">
-      <c r="A77" s="39"/>
-      <c r="B77" s="39"/>
+    <row r="77" spans="1:8" ht="50" customHeight="1">
+      <c r="A77" s="53"/>
+      <c r="B77" s="53"/>
       <c r="C77" s="8" t="s">
         <v>147</v>
       </c>
@@ -30303,16 +30701,19 @@
         <v>148</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H77" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="50" customHeight="1">
-      <c r="A78" s="39"/>
-      <c r="B78" s="39"/>
+    <row r="78" spans="1:8" ht="50" customHeight="1">
+      <c r="A78" s="53"/>
+      <c r="B78" s="53"/>
       <c r="C78" s="8" t="s">
         <v>149</v>
       </c>
@@ -30322,12 +30723,15 @@
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
       <c r="G78" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H78" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="50" customHeight="1">
-      <c r="A79" s="39"/>
-      <c r="B79" s="39"/>
+    <row r="79" spans="1:8" ht="50" customHeight="1">
+      <c r="A79" s="53"/>
+      <c r="B79" s="53"/>
       <c r="C79" s="8" t="s">
         <v>151</v>
       </c>
@@ -30337,12 +30741,15 @@
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
       <c r="G79" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H79" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="50" customHeight="1">
-      <c r="A80" s="39"/>
-      <c r="B80" s="39"/>
+    <row r="80" spans="1:8" ht="50" customHeight="1">
+      <c r="A80" s="53"/>
+      <c r="B80" s="53"/>
       <c r="C80" s="8" t="s">
         <v>153</v>
       </c>
@@ -30350,16 +30757,19 @@
         <v>154</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H80" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="50" customHeight="1">
-      <c r="A81" s="39"/>
-      <c r="B81" s="39"/>
+      <c r="A81" s="53"/>
+      <c r="B81" s="53"/>
       <c r="C81" s="8" t="s">
         <v>155</v>
       </c>
@@ -30369,12 +30779,15 @@
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
       <c r="G81" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H81" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="50" customHeight="1">
-      <c r="A82" s="39"/>
-      <c r="B82" s="39"/>
+      <c r="A82" s="53"/>
+      <c r="B82" s="53"/>
       <c r="C82" s="8" t="s">
         <v>157</v>
       </c>
@@ -30382,16 +30795,19 @@
         <v>158</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H82" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="50" customHeight="1">
-      <c r="A83" s="39"/>
-      <c r="B83" s="39"/>
+      <c r="A83" s="53"/>
+      <c r="B83" s="53"/>
       <c r="C83" s="8" t="s">
         <v>159</v>
       </c>
@@ -30399,16 +30815,19 @@
         <v>160</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H83" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="50" customHeight="1">
-      <c r="A84" s="39"/>
-      <c r="B84" s="39"/>
+      <c r="A84" s="53"/>
+      <c r="B84" s="53"/>
       <c r="C84" s="8" t="s">
         <v>161</v>
       </c>
@@ -30416,16 +30835,19 @@
         <v>162</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H84" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="50" customHeight="1">
-      <c r="A85" s="39"/>
-      <c r="B85" s="39"/>
+      <c r="A85" s="53"/>
+      <c r="B85" s="53"/>
       <c r="C85" s="8" t="s">
         <v>163</v>
       </c>
@@ -30433,19 +30855,22 @@
         <v>164</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H85" s="44" t="s">
+        <v>1003</v>
       </c>
       <c r="I85" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="50" customHeight="1">
-      <c r="A86" s="39"/>
-      <c r="B86" s="39"/>
+      <c r="A86" s="53"/>
+      <c r="B86" s="53"/>
       <c r="C86" s="8" t="s">
         <v>165</v>
       </c>
@@ -30455,12 +30880,15 @@
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
       <c r="G86" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H86" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="50" customHeight="1">
-      <c r="A87" s="39"/>
-      <c r="B87" s="39"/>
+      <c r="A87" s="53"/>
+      <c r="B87" s="53"/>
       <c r="C87" s="8" t="s">
         <v>167</v>
       </c>
@@ -30468,16 +30896,19 @@
         <v>168</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H87" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="50" customHeight="1">
-      <c r="A88" s="39"/>
-      <c r="B88" s="39"/>
+      <c r="A88" s="53"/>
+      <c r="B88" s="53"/>
       <c r="C88" s="8" t="s">
         <v>169</v>
       </c>
@@ -30485,16 +30916,19 @@
         <v>170</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H88" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="50" customHeight="1">
-      <c r="A89" s="39"/>
-      <c r="B89" s="39"/>
+      <c r="A89" s="53"/>
+      <c r="B89" s="53"/>
       <c r="C89" s="8" t="s">
         <v>171</v>
       </c>
@@ -30504,12 +30938,15 @@
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
       <c r="G89" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H89" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="50" customHeight="1">
-      <c r="A90" s="39"/>
-      <c r="B90" s="39"/>
+      <c r="A90" s="53"/>
+      <c r="B90" s="53"/>
       <c r="C90" s="8" t="s">
         <v>173</v>
       </c>
@@ -30517,16 +30954,19 @@
         <v>174</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H90" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="50" customHeight="1">
-      <c r="A91" s="39"/>
-      <c r="B91" s="39"/>
+      <c r="A91" s="53"/>
+      <c r="B91" s="53"/>
       <c r="C91" s="8" t="s">
         <v>175</v>
       </c>
@@ -30534,16 +30974,19 @@
         <v>176</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H91" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="50" customHeight="1">
-      <c r="A92" s="39"/>
-      <c r="B92" s="39"/>
+      <c r="A92" s="53"/>
+      <c r="B92" s="53"/>
       <c r="C92" s="8" t="s">
         <v>177</v>
       </c>
@@ -30553,12 +30996,15 @@
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
       <c r="G92" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H92" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="50" customHeight="1">
-      <c r="A93" s="39"/>
-      <c r="B93" s="39"/>
+      <c r="A93" s="53"/>
+      <c r="B93" s="53"/>
       <c r="C93" s="8" t="s">
         <v>179</v>
       </c>
@@ -30566,16 +31012,19 @@
         <v>180</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H93" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="50" customHeight="1">
-      <c r="A94" s="39"/>
-      <c r="B94" s="39"/>
+      <c r="A94" s="53"/>
+      <c r="B94" s="53"/>
       <c r="C94" s="8" t="s">
         <v>181</v>
       </c>
@@ -30585,12 +31034,15 @@
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
       <c r="G94" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H94" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="50" customHeight="1">
-      <c r="A95" s="39"/>
-      <c r="B95" s="40"/>
+      <c r="A95" s="53"/>
+      <c r="B95" s="54"/>
       <c r="C95" s="8" t="s">
         <v>183</v>
       </c>
@@ -30600,13 +31052,16 @@
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
       <c r="G95" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H95" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="50" customHeight="1">
-      <c r="A96" s="39"/>
-      <c r="B96" s="38" t="s">
-        <v>857</v>
+      <c r="A96" s="53"/>
+      <c r="B96" s="52" t="s">
+        <v>852</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>185</v>
@@ -30617,12 +31072,15 @@
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
       <c r="G96" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H96" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="50" customHeight="1">
-      <c r="A97" s="39"/>
-      <c r="B97" s="39"/>
+    <row r="97" spans="1:8" ht="50" customHeight="1">
+      <c r="A97" s="53"/>
+      <c r="B97" s="53"/>
       <c r="C97" s="8" t="s">
         <v>187</v>
       </c>
@@ -30632,12 +31090,15 @@
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
       <c r="G97" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H97" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="50" customHeight="1">
-      <c r="A98" s="39"/>
-      <c r="B98" s="39"/>
+    <row r="98" spans="1:8" ht="50" customHeight="1">
+      <c r="A98" s="53"/>
+      <c r="B98" s="53"/>
       <c r="C98" s="8" t="s">
         <v>189</v>
       </c>
@@ -30647,12 +31108,15 @@
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
       <c r="G98" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H98" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="50" customHeight="1">
-      <c r="A99" s="39"/>
-      <c r="B99" s="39"/>
+    <row r="99" spans="1:8" ht="50" customHeight="1">
+      <c r="A99" s="53"/>
+      <c r="B99" s="53"/>
       <c r="C99" s="8" t="s">
         <v>191</v>
       </c>
@@ -30662,12 +31126,15 @@
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
       <c r="G99" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H99" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="50" customHeight="1">
-      <c r="A100" s="39"/>
-      <c r="B100" s="39"/>
+    <row r="100" spans="1:8" ht="50" customHeight="1">
+      <c r="A100" s="53"/>
+      <c r="B100" s="53"/>
       <c r="C100" s="8" t="s">
         <v>193</v>
       </c>
@@ -30677,12 +31144,15 @@
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
       <c r="G100" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H100" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="50" customHeight="1">
-      <c r="A101" s="39"/>
-      <c r="B101" s="39"/>
+    <row r="101" spans="1:8" ht="50" customHeight="1">
+      <c r="A101" s="53"/>
+      <c r="B101" s="53"/>
       <c r="C101" s="8" t="s">
         <v>195</v>
       </c>
@@ -30692,12 +31162,15 @@
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
       <c r="G101" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H101" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="50" customHeight="1">
-      <c r="A102" s="39"/>
-      <c r="B102" s="39"/>
+    <row r="102" spans="1:8" ht="50" customHeight="1">
+      <c r="A102" s="53"/>
+      <c r="B102" s="53"/>
       <c r="C102" s="8" t="s">
         <v>197</v>
       </c>
@@ -30707,12 +31180,15 @@
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
       <c r="G102" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H102" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="50" customHeight="1">
-      <c r="A103" s="39"/>
-      <c r="B103" s="39"/>
+    <row r="103" spans="1:8" ht="50" customHeight="1">
+      <c r="A103" s="53"/>
+      <c r="B103" s="53"/>
       <c r="C103" s="8" t="s">
         <v>199</v>
       </c>
@@ -30722,12 +31198,15 @@
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
       <c r="G103" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H103" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="50" customHeight="1">
-      <c r="A104" s="39"/>
-      <c r="B104" s="39"/>
+    <row r="104" spans="1:8" ht="50" customHeight="1">
+      <c r="A104" s="53"/>
+      <c r="B104" s="53"/>
       <c r="C104" s="8" t="s">
         <v>201</v>
       </c>
@@ -30737,12 +31216,15 @@
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
       <c r="G104" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H104" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="50" customHeight="1">
-      <c r="A105" s="39"/>
-      <c r="B105" s="40"/>
+    <row r="105" spans="1:8" ht="50" customHeight="1">
+      <c r="A105" s="53"/>
+      <c r="B105" s="54"/>
       <c r="C105" s="8" t="s">
         <v>203</v>
       </c>
@@ -30752,13 +31234,16 @@
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
       <c r="G105" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H105" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="50" customHeight="1">
-      <c r="A106" s="39"/>
-      <c r="B106" s="38" t="s">
-        <v>858</v>
+    <row r="106" spans="1:8" ht="50" customHeight="1">
+      <c r="A106" s="53"/>
+      <c r="B106" s="52" t="s">
+        <v>853</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>205</v>
@@ -30767,16 +31252,19 @@
         <v>206</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="F106" s="10"/>
       <c r="G106" s="20" t="s">
-        <v>862</v>
+        <v>1004</v>
+      </c>
+      <c r="H106" s="45" t="s">
+        <v>1005</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="50" customHeight="1">
-      <c r="A107" s="39"/>
-      <c r="B107" s="39"/>
+    <row r="107" spans="1:8" ht="50" customHeight="1">
+      <c r="A107" s="53"/>
+      <c r="B107" s="53"/>
       <c r="C107" s="8" t="s">
         <v>207</v>
       </c>
@@ -30784,16 +31272,19 @@
         <v>208</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="F107" s="10"/>
       <c r="G107" s="20" t="s">
-        <v>862</v>
+        <v>1004</v>
+      </c>
+      <c r="H107" s="45" t="s">
+        <v>1005</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="50" customHeight="1">
-      <c r="A108" s="39"/>
-      <c r="B108" s="39"/>
+    <row r="108" spans="1:8" ht="50" customHeight="1">
+      <c r="A108" s="53"/>
+      <c r="B108" s="53"/>
       <c r="C108" s="8" t="s">
         <v>209</v>
       </c>
@@ -30801,16 +31292,19 @@
         <v>210</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="20" t="s">
-        <v>862</v>
+        <v>1004</v>
+      </c>
+      <c r="H108" s="45" t="s">
+        <v>1005</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="50" customHeight="1">
-      <c r="A109" s="39"/>
-      <c r="B109" s="39"/>
+    <row r="109" spans="1:8" ht="50" customHeight="1">
+      <c r="A109" s="53"/>
+      <c r="B109" s="53"/>
       <c r="C109" s="8" t="s">
         <v>211</v>
       </c>
@@ -30818,16 +31312,19 @@
         <v>212</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="F109" s="10"/>
       <c r="G109" s="20" t="s">
-        <v>862</v>
+        <v>1004</v>
+      </c>
+      <c r="H109" s="45" t="s">
+        <v>1005</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="50" customHeight="1">
-      <c r="A110" s="39"/>
-      <c r="B110" s="39"/>
+    <row r="110" spans="1:8" ht="50" customHeight="1">
+      <c r="A110" s="53"/>
+      <c r="B110" s="53"/>
       <c r="C110" s="8" t="s">
         <v>213</v>
       </c>
@@ -30835,16 +31332,19 @@
         <v>214</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="F110" s="10"/>
       <c r="G110" s="20" t="s">
-        <v>862</v>
+        <v>1004</v>
+      </c>
+      <c r="H110" s="45" t="s">
+        <v>1005</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="50" customHeight="1">
-      <c r="A111" s="40"/>
-      <c r="B111" s="40"/>
+    <row r="111" spans="1:8" ht="50" customHeight="1">
+      <c r="A111" s="54"/>
+      <c r="B111" s="54"/>
       <c r="C111" s="8" t="s">
         <v>215</v>
       </c>
@@ -30852,19 +31352,22 @@
         <v>216</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="F111" s="10"/>
       <c r="G111" s="20" t="s">
-        <v>862</v>
+        <v>1004</v>
+      </c>
+      <c r="H111" s="45" t="s">
+        <v>1005</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="50" customHeight="1">
-      <c r="A112" s="38" t="s">
-        <v>859</v>
-      </c>
-      <c r="B112" s="38" t="s">
-        <v>860</v>
+    <row r="112" spans="1:8" ht="50" customHeight="1">
+      <c r="A112" s="52" t="s">
+        <v>854</v>
+      </c>
+      <c r="B112" s="52" t="s">
+        <v>855</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>217</v>
@@ -30873,16 +31376,19 @@
         <v>218</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="F112" s="10"/>
       <c r="G112" s="22" t="s">
-        <v>864</v>
+        <v>1006</v>
+      </c>
+      <c r="H112" s="46" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="50" customHeight="1">
-      <c r="A113" s="39"/>
-      <c r="B113" s="39"/>
+    <row r="113" spans="1:8" ht="50" customHeight="1">
+      <c r="A113" s="53"/>
+      <c r="B113" s="53"/>
       <c r="C113" s="8" t="s">
         <v>219</v>
       </c>
@@ -30890,16 +31396,19 @@
         <v>220</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
       <c r="F113" s="10"/>
       <c r="G113" s="22" t="s">
-        <v>864</v>
+        <v>1006</v>
+      </c>
+      <c r="H113" s="46" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="50" customHeight="1">
-      <c r="A114" s="39"/>
-      <c r="B114" s="40"/>
+    <row r="114" spans="1:8" ht="50" customHeight="1">
+      <c r="A114" s="53"/>
+      <c r="B114" s="54"/>
       <c r="C114" s="8" t="s">
         <v>221</v>
       </c>
@@ -30907,17 +31416,20 @@
         <v>222</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="22" t="s">
-        <v>864</v>
+        <v>1006</v>
+      </c>
+      <c r="H114" s="46" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="50" customHeight="1">
-      <c r="A115" s="39"/>
-      <c r="B115" s="44" t="s">
-        <v>861</v>
+    <row r="115" spans="1:8" ht="50" customHeight="1">
+      <c r="A115" s="53"/>
+      <c r="B115" s="58" t="s">
+        <v>856</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>223</v>
@@ -30926,16 +31438,19 @@
         <v>224</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="F115" s="10"/>
       <c r="G115" s="22" t="s">
-        <v>864</v>
+        <v>1006</v>
+      </c>
+      <c r="H115" s="46" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="50" customHeight="1">
-      <c r="A116" s="39"/>
-      <c r="B116" s="45"/>
+    <row r="116" spans="1:8" ht="50" customHeight="1">
+      <c r="A116" s="53"/>
+      <c r="B116" s="59"/>
       <c r="C116" s="8" t="s">
         <v>225</v>
       </c>
@@ -30943,16 +31458,19 @@
         <v>226</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="F116" s="10"/>
       <c r="G116" s="22" t="s">
-        <v>864</v>
+        <v>1006</v>
+      </c>
+      <c r="H116" s="46" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="50" customHeight="1">
-      <c r="A117" s="39"/>
-      <c r="B117" s="45"/>
+    <row r="117" spans="1:8" ht="50" customHeight="1">
+      <c r="A117" s="53"/>
+      <c r="B117" s="59"/>
       <c r="C117" s="8" t="s">
         <v>227</v>
       </c>
@@ -30960,16 +31478,19 @@
         <v>228</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="F117" s="10"/>
       <c r="G117" s="22" t="s">
-        <v>864</v>
+        <v>1006</v>
+      </c>
+      <c r="H117" s="46" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="50" customHeight="1">
-      <c r="A118" s="39"/>
-      <c r="B118" s="45"/>
+    <row r="118" spans="1:8" ht="50" customHeight="1">
+      <c r="A118" s="53"/>
+      <c r="B118" s="59"/>
       <c r="C118" s="8" t="s">
         <v>229</v>
       </c>
@@ -30977,16 +31498,19 @@
         <v>230</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="22" t="s">
-        <v>864</v>
+        <v>1006</v>
+      </c>
+      <c r="H118" s="46" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="50" customHeight="1">
-      <c r="A119" s="39"/>
-      <c r="B119" s="45"/>
+    <row r="119" spans="1:8" ht="50" customHeight="1">
+      <c r="A119" s="53"/>
+      <c r="B119" s="59"/>
       <c r="C119" s="8" t="s">
         <v>231</v>
       </c>
@@ -30994,16 +31518,19 @@
         <v>232</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="22" t="s">
-        <v>864</v>
+        <v>1006</v>
+      </c>
+      <c r="H119" s="46" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="50" customHeight="1">
-      <c r="A120" s="39"/>
-      <c r="B120" s="45"/>
+    <row r="120" spans="1:8" ht="50" customHeight="1">
+      <c r="A120" s="53"/>
+      <c r="B120" s="59"/>
       <c r="C120" s="8" t="s">
         <v>233</v>
       </c>
@@ -31011,16 +31538,19 @@
         <v>234</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="22" t="s">
-        <v>864</v>
+        <v>1006</v>
+      </c>
+      <c r="H120" s="46" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="50" customHeight="1">
-      <c r="A121" s="39"/>
-      <c r="B121" s="45"/>
+    <row r="121" spans="1:8" ht="50" customHeight="1">
+      <c r="A121" s="53"/>
+      <c r="B121" s="59"/>
       <c r="C121" s="8" t="s">
         <v>235</v>
       </c>
@@ -31028,34 +31558,40 @@
         <v>236</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="22" t="s">
-        <v>864</v>
+        <v>1006</v>
+      </c>
+      <c r="H121" s="46" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="50" customHeight="1">
+    <row r="122" spans="1:8" ht="50" customHeight="1">
       <c r="A122" s="17"/>
-      <c r="B122" s="45"/>
+      <c r="B122" s="59"/>
       <c r="C122" s="35" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="D122" s="36" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
       <c r="G122" s="22" t="s">
-        <v>864</v>
+        <v>1006</v>
+      </c>
+      <c r="H122" s="46" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="50" customHeight="1">
-      <c r="A123" s="39" t="s">
-        <v>865</v>
-      </c>
-      <c r="B123" s="39" t="s">
-        <v>866</v>
+    <row r="123" spans="1:8" ht="50" customHeight="1">
+      <c r="A123" s="53" t="s">
+        <v>857</v>
+      </c>
+      <c r="B123" s="53" t="s">
+        <v>858</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>237</v>
@@ -31064,16 +31600,19 @@
         <v>238</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>983</v>
+        <v>970</v>
       </c>
       <c r="F123" s="10"/>
       <c r="G123" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H123" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="50" customHeight="1">
-      <c r="A124" s="39"/>
-      <c r="B124" s="39"/>
+    <row r="124" spans="1:8" ht="50" customHeight="1">
+      <c r="A124" s="53"/>
+      <c r="B124" s="53"/>
       <c r="C124" s="8" t="s">
         <v>239</v>
       </c>
@@ -31081,16 +31620,19 @@
         <v>240</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>950</v>
+        <v>937</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H124" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="50" customHeight="1">
-      <c r="A125" s="39"/>
-      <c r="B125" s="39"/>
+    <row r="125" spans="1:8" ht="50" customHeight="1">
+      <c r="A125" s="53"/>
+      <c r="B125" s="53"/>
       <c r="C125" s="8" t="s">
         <v>241</v>
       </c>
@@ -31100,12 +31642,15 @@
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
       <c r="G125" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H125" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="50" customHeight="1">
-      <c r="A126" s="39"/>
-      <c r="B126" s="39"/>
+    <row r="126" spans="1:8" ht="50" customHeight="1">
+      <c r="A126" s="53"/>
+      <c r="B126" s="53"/>
       <c r="C126" s="8" t="s">
         <v>243</v>
       </c>
@@ -31113,16 +31658,19 @@
         <v>244</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>983</v>
+        <v>970</v>
       </c>
       <c r="F126" s="10"/>
       <c r="G126" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H126" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="50" customHeight="1">
-      <c r="A127" s="39"/>
-      <c r="B127" s="39"/>
+    <row r="127" spans="1:8" ht="50" customHeight="1">
+      <c r="A127" s="53"/>
+      <c r="B127" s="53"/>
       <c r="C127" s="8" t="s">
         <v>245</v>
       </c>
@@ -31130,16 +31678,19 @@
         <v>246</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>983</v>
+        <v>970</v>
       </c>
       <c r="F127" s="10"/>
       <c r="G127" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H127" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="50" customHeight="1">
-      <c r="A128" s="39"/>
-      <c r="B128" s="39"/>
+    <row r="128" spans="1:8" ht="50" customHeight="1">
+      <c r="A128" s="53"/>
+      <c r="B128" s="53"/>
       <c r="C128" s="8" t="s">
         <v>247</v>
       </c>
@@ -31149,12 +31700,15 @@
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
       <c r="G128" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H128" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="50" customHeight="1">
-      <c r="A129" s="39"/>
-      <c r="B129" s="39"/>
+    <row r="129" spans="1:8" ht="50" customHeight="1">
+      <c r="A129" s="53"/>
+      <c r="B129" s="53"/>
       <c r="C129" s="8" t="s">
         <v>249</v>
       </c>
@@ -31164,12 +31718,15 @@
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
       <c r="G129" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H129" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="50" customHeight="1">
-      <c r="A130" s="39"/>
-      <c r="B130" s="39"/>
+    <row r="130" spans="1:8" ht="50" customHeight="1">
+      <c r="A130" s="53"/>
+      <c r="B130" s="53"/>
       <c r="C130" s="8" t="s">
         <v>251</v>
       </c>
@@ -31177,16 +31734,19 @@
         <v>252</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="F130" s="10"/>
       <c r="G130" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H130" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="50" customHeight="1">
-      <c r="A131" s="39"/>
-      <c r="B131" s="39"/>
+    <row r="131" spans="1:8" ht="50" customHeight="1">
+      <c r="A131" s="53"/>
+      <c r="B131" s="53"/>
       <c r="C131" s="8" t="s">
         <v>253</v>
       </c>
@@ -31196,12 +31756,15 @@
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
       <c r="G131" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H131" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="50" customHeight="1">
-      <c r="A132" s="39"/>
-      <c r="B132" s="39"/>
+    <row r="132" spans="1:8" ht="50" customHeight="1">
+      <c r="A132" s="53"/>
+      <c r="B132" s="53"/>
       <c r="C132" s="8" t="s">
         <v>255</v>
       </c>
@@ -31211,12 +31774,15 @@
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
       <c r="G132" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H132" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="50" customHeight="1">
-      <c r="A133" s="39"/>
-      <c r="B133" s="39"/>
+    <row r="133" spans="1:8" ht="50" customHeight="1">
+      <c r="A133" s="53"/>
+      <c r="B133" s="53"/>
       <c r="C133" s="8" t="s">
         <v>257</v>
       </c>
@@ -31226,12 +31792,15 @@
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
       <c r="G133" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H133" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="50" customHeight="1">
-      <c r="A134" s="39"/>
-      <c r="B134" s="39"/>
+    <row r="134" spans="1:8" ht="50" customHeight="1">
+      <c r="A134" s="53"/>
+      <c r="B134" s="53"/>
       <c r="C134" s="8" t="s">
         <v>259</v>
       </c>
@@ -31239,16 +31808,19 @@
         <v>260</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H134" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="50" customHeight="1">
-      <c r="A135" s="39"/>
-      <c r="B135" s="39"/>
+    <row r="135" spans="1:8" ht="50" customHeight="1">
+      <c r="A135" s="53"/>
+      <c r="B135" s="53"/>
       <c r="C135" s="8" t="s">
         <v>261</v>
       </c>
@@ -31258,12 +31830,15 @@
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
       <c r="G135" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H135" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="50" customHeight="1">
-      <c r="A136" s="39"/>
-      <c r="B136" s="39"/>
+    <row r="136" spans="1:8" ht="50" customHeight="1">
+      <c r="A136" s="53"/>
+      <c r="B136" s="53"/>
       <c r="C136" s="8" t="s">
         <v>263</v>
       </c>
@@ -31273,12 +31848,15 @@
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
       <c r="G136" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H136" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="50" customHeight="1">
-      <c r="A137" s="39"/>
-      <c r="B137" s="40"/>
+    <row r="137" spans="1:8" ht="50" customHeight="1">
+      <c r="A137" s="53"/>
+      <c r="B137" s="54"/>
       <c r="C137" s="8" t="s">
         <v>265</v>
       </c>
@@ -31288,13 +31866,16 @@
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
       <c r="G137" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H137" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="50" customHeight="1">
-      <c r="A138" s="39"/>
-      <c r="B138" s="38" t="s">
-        <v>867</v>
+    <row r="138" spans="1:8" ht="50" customHeight="1">
+      <c r="A138" s="53"/>
+      <c r="B138" s="52" t="s">
+        <v>859</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>267</v>
@@ -31303,16 +31884,19 @@
         <v>268</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="F138" s="10"/>
       <c r="G138" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H138" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="50" customHeight="1">
-      <c r="A139" s="39"/>
-      <c r="B139" s="39"/>
+    <row r="139" spans="1:8" ht="50" customHeight="1">
+      <c r="A139" s="53"/>
+      <c r="B139" s="53"/>
       <c r="C139" s="8" t="s">
         <v>269</v>
       </c>
@@ -31320,16 +31904,19 @@
         <v>270</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="F139" s="10"/>
       <c r="G139" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H139" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="50" customHeight="1">
-      <c r="A140" s="39"/>
-      <c r="B140" s="39"/>
+    <row r="140" spans="1:8" ht="50" customHeight="1">
+      <c r="A140" s="53"/>
+      <c r="B140" s="53"/>
       <c r="C140" s="8" t="s">
         <v>271</v>
       </c>
@@ -31337,16 +31924,19 @@
         <v>272</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H140" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="50" customHeight="1">
-      <c r="A141" s="39"/>
-      <c r="B141" s="39"/>
+    <row r="141" spans="1:8" ht="50" customHeight="1">
+      <c r="A141" s="53"/>
+      <c r="B141" s="53"/>
       <c r="C141" s="8" t="s">
         <v>273</v>
       </c>
@@ -31356,12 +31946,15 @@
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
       <c r="G141" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H141" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="50" customHeight="1">
-      <c r="A142" s="39"/>
-      <c r="B142" s="39"/>
+    <row r="142" spans="1:8" ht="50" customHeight="1">
+      <c r="A142" s="53"/>
+      <c r="B142" s="53"/>
       <c r="C142" s="8" t="s">
         <v>275</v>
       </c>
@@ -31371,12 +31964,15 @@
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
       <c r="G142" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H142" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="50" customHeight="1">
-      <c r="A143" s="39"/>
-      <c r="B143" s="39"/>
+    <row r="143" spans="1:8" ht="50" customHeight="1">
+      <c r="A143" s="53"/>
+      <c r="B143" s="53"/>
       <c r="C143" s="8" t="s">
         <v>277</v>
       </c>
@@ -31386,12 +31982,15 @@
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
       <c r="G143" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H143" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="50" customHeight="1">
-      <c r="A144" s="39"/>
-      <c r="B144" s="39"/>
+    <row r="144" spans="1:8" ht="50" customHeight="1">
+      <c r="A144" s="53"/>
+      <c r="B144" s="53"/>
       <c r="C144" s="8" t="s">
         <v>279</v>
       </c>
@@ -31399,16 +31998,19 @@
         <v>280</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>951</v>
+        <v>938</v>
       </c>
       <c r="F144" s="10"/>
       <c r="G144" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H144" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="50" customHeight="1">
-      <c r="A145" s="39"/>
-      <c r="B145" s="39"/>
+    <row r="145" spans="1:8" ht="50" customHeight="1">
+      <c r="A145" s="53"/>
+      <c r="B145" s="53"/>
       <c r="C145" s="8" t="s">
         <v>281</v>
       </c>
@@ -31416,16 +32018,19 @@
         <v>282</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H145" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="50" customHeight="1">
-      <c r="A146" s="40"/>
-      <c r="B146" s="40"/>
+    <row r="146" spans="1:8" ht="50" customHeight="1">
+      <c r="A146" s="54"/>
+      <c r="B146" s="54"/>
       <c r="C146" s="8" t="s">
         <v>283</v>
       </c>
@@ -31434,15 +32039,18 @@
       </c>
       <c r="E146" s="10"/>
       <c r="G146" s="23" t="s">
-        <v>869</v>
+        <v>1008</v>
+      </c>
+      <c r="H146" s="47" t="s">
+        <v>1009</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="50" customHeight="1">
-      <c r="A147" s="38" t="s">
+    <row r="147" spans="1:8" ht="50" customHeight="1">
+      <c r="A147" s="52" t="s">
+        <v>860</v>
+      </c>
+      <c r="B147" s="14" t="s">
         <v>868</v>
-      </c>
-      <c r="B147" s="14" t="s">
-        <v>879</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>285</v>
@@ -31451,17 +32059,20 @@
         <v>286</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="F147" s="10"/>
       <c r="G147" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H147" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="50" customHeight="1">
-      <c r="A148" s="39"/>
+    <row r="148" spans="1:8" ht="50" customHeight="1">
+      <c r="A148" s="53"/>
       <c r="B148" s="14" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>287</v>
@@ -31470,17 +32081,20 @@
         <v>288</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="F148" s="10"/>
       <c r="G148" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H148" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="50" customHeight="1">
-      <c r="A149" s="39"/>
+    <row r="149" spans="1:8" ht="50" customHeight="1">
+      <c r="A149" s="53"/>
       <c r="B149" s="14" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>289</v>
@@ -31489,17 +32103,20 @@
         <v>290</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="F149" s="10"/>
       <c r="G149" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H149" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="50" customHeight="1">
-      <c r="A150" s="39"/>
-      <c r="B150" s="41" t="s">
-        <v>882</v>
+    <row r="150" spans="1:8" ht="50" customHeight="1">
+      <c r="A150" s="53"/>
+      <c r="B150" s="55" t="s">
+        <v>871</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>291</v>
@@ -31510,12 +32127,15 @@
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
       <c r="G150" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H150" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="50" customHeight="1">
-      <c r="A151" s="39"/>
-      <c r="B151" s="42"/>
+    <row r="151" spans="1:8" ht="50" customHeight="1">
+      <c r="A151" s="53"/>
+      <c r="B151" s="56"/>
       <c r="C151" s="8" t="s">
         <v>293</v>
       </c>
@@ -31523,16 +32143,19 @@
         <v>294</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="F151" s="10"/>
       <c r="G151" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H151" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="50" customHeight="1">
-      <c r="A152" s="39"/>
-      <c r="B152" s="42"/>
+    <row r="152" spans="1:8" ht="50" customHeight="1">
+      <c r="A152" s="53"/>
+      <c r="B152" s="56"/>
       <c r="C152" s="8" t="s">
         <v>295</v>
       </c>
@@ -31542,12 +32165,15 @@
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
       <c r="G152" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H152" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="50" customHeight="1">
-      <c r="A153" s="39"/>
-      <c r="B153" s="42"/>
+    <row r="153" spans="1:8" ht="50" customHeight="1">
+      <c r="A153" s="53"/>
+      <c r="B153" s="56"/>
       <c r="C153" s="8" t="s">
         <v>297</v>
       </c>
@@ -31557,12 +32183,15 @@
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
       <c r="G153" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H153" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="50" customHeight="1">
-      <c r="A154" s="39"/>
-      <c r="B154" s="42"/>
+    <row r="154" spans="1:8" ht="50" customHeight="1">
+      <c r="A154" s="53"/>
+      <c r="B154" s="56"/>
       <c r="C154" s="8" t="s">
         <v>299</v>
       </c>
@@ -31572,12 +32201,15 @@
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
       <c r="G154" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H154" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="50" customHeight="1">
-      <c r="A155" s="39"/>
-      <c r="B155" s="42"/>
+    <row r="155" spans="1:8" ht="50" customHeight="1">
+      <c r="A155" s="53"/>
+      <c r="B155" s="56"/>
       <c r="C155" s="8" t="s">
         <v>301</v>
       </c>
@@ -31587,27 +32219,33 @@
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
       <c r="G155" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H155" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="50" customHeight="1">
-      <c r="A156" s="39"/>
-      <c r="B156" s="42"/>
+    <row r="156" spans="1:8" ht="50" customHeight="1">
+      <c r="A156" s="53"/>
+      <c r="B156" s="56"/>
       <c r="C156" s="35" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
       <c r="D156" s="36" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
       <c r="G156" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H156" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="50" customHeight="1">
-      <c r="A157" s="39"/>
-      <c r="B157" s="42"/>
+    <row r="157" spans="1:8" ht="50" customHeight="1">
+      <c r="A157" s="53"/>
+      <c r="B157" s="56"/>
       <c r="C157" s="8" t="s">
         <v>303</v>
       </c>
@@ -31617,12 +32255,15 @@
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
       <c r="G157" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H157" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="50" customHeight="1">
-      <c r="A158" s="39"/>
-      <c r="B158" s="43"/>
+    <row r="158" spans="1:8" ht="50" customHeight="1">
+      <c r="A158" s="53"/>
+      <c r="B158" s="57"/>
       <c r="C158" s="8" t="s">
         <v>305</v>
       </c>
@@ -31630,17 +32271,20 @@
         <v>306</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H158" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="50" customHeight="1">
-      <c r="A159" s="39"/>
-      <c r="B159" s="38" t="s">
-        <v>883</v>
+    <row r="159" spans="1:8" ht="50" customHeight="1">
+      <c r="A159" s="53"/>
+      <c r="B159" s="52" t="s">
+        <v>872</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>307</v>
@@ -31649,16 +32293,19 @@
         <v>308</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="F159" s="10"/>
       <c r="G159" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H159" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="50" customHeight="1">
-      <c r="A160" s="39"/>
-      <c r="B160" s="39"/>
+    <row r="160" spans="1:8" ht="50" customHeight="1">
+      <c r="A160" s="53"/>
+      <c r="B160" s="53"/>
       <c r="C160" s="8" t="s">
         <v>309</v>
       </c>
@@ -31666,16 +32313,19 @@
         <v>310</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="F160" s="10"/>
       <c r="G160" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H160" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="50" customHeight="1">
-      <c r="A161" s="39"/>
-      <c r="B161" s="40"/>
+    <row r="161" spans="1:8" ht="50" customHeight="1">
+      <c r="A161" s="53"/>
+      <c r="B161" s="54"/>
       <c r="C161" s="8" t="s">
         <v>311</v>
       </c>
@@ -31683,17 +32333,20 @@
         <v>312</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="F161" s="10"/>
       <c r="G161" s="30" t="s">
-        <v>890</v>
+        <v>1012</v>
+      </c>
+      <c r="H161" s="49" t="s">
+        <v>1013</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="50" customHeight="1">
-      <c r="A162" s="39"/>
-      <c r="B162" s="38" t="s">
-        <v>884</v>
+    <row r="162" spans="1:8" ht="50" customHeight="1">
+      <c r="A162" s="53"/>
+      <c r="B162" s="52" t="s">
+        <v>873</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>313</v>
@@ -31704,12 +32357,15 @@
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
       <c r="G162" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H162" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="50" customHeight="1">
-      <c r="A163" s="39"/>
-      <c r="B163" s="39"/>
+    <row r="163" spans="1:8" ht="50" customHeight="1">
+      <c r="A163" s="53"/>
+      <c r="B163" s="53"/>
       <c r="C163" s="8" t="s">
         <v>315</v>
       </c>
@@ -31719,12 +32375,15 @@
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
       <c r="G163" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H163" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="50" customHeight="1">
-      <c r="A164" s="39"/>
-      <c r="B164" s="39"/>
+    <row r="164" spans="1:8" ht="50" customHeight="1">
+      <c r="A164" s="53"/>
+      <c r="B164" s="53"/>
       <c r="C164" s="8" t="s">
         <v>317</v>
       </c>
@@ -31734,12 +32393,15 @@
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
       <c r="G164" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H164" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="50" customHeight="1">
-      <c r="A165" s="39"/>
-      <c r="B165" s="39"/>
+    <row r="165" spans="1:8" ht="50" customHeight="1">
+      <c r="A165" s="53"/>
+      <c r="B165" s="53"/>
       <c r="C165" s="8" t="s">
         <v>319</v>
       </c>
@@ -31749,12 +32411,15 @@
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
       <c r="G165" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H165" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="50" customHeight="1">
-      <c r="A166" s="39"/>
-      <c r="B166" s="40"/>
+    <row r="166" spans="1:8" ht="50" customHeight="1">
+      <c r="A166" s="53"/>
+      <c r="B166" s="54"/>
       <c r="C166" s="13" t="s">
         <v>321</v>
       </c>
@@ -31762,13 +32427,16 @@
         <v>322</v>
       </c>
       <c r="G166" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H166" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="50" customHeight="1">
-      <c r="A167" s="39"/>
-      <c r="B167" s="38" t="s">
-        <v>885</v>
+    <row r="167" spans="1:8" ht="50" customHeight="1">
+      <c r="A167" s="53"/>
+      <c r="B167" s="52" t="s">
+        <v>874</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>323</v>
@@ -31779,27 +32447,33 @@
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
       <c r="G167" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H167" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="50" customHeight="1">
-      <c r="A168" s="39"/>
-      <c r="B168" s="39"/>
+    <row r="168" spans="1:8" ht="50" customHeight="1">
+      <c r="A168" s="53"/>
+      <c r="B168" s="53"/>
       <c r="C168" s="8" t="s">
         <v>325</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
       <c r="G168" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H168" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="50" customHeight="1">
-      <c r="A169" s="39"/>
-      <c r="B169" s="39"/>
+    <row r="169" spans="1:8" ht="50" customHeight="1">
+      <c r="A169" s="53"/>
+      <c r="B169" s="53"/>
       <c r="C169" s="8" t="s">
         <v>326</v>
       </c>
@@ -31809,12 +32483,15 @@
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
       <c r="G169" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H169" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="50" customHeight="1">
-      <c r="A170" s="39"/>
-      <c r="B170" s="39"/>
+    <row r="170" spans="1:8" ht="50" customHeight="1">
+      <c r="A170" s="53"/>
+      <c r="B170" s="53"/>
       <c r="C170" s="8" t="s">
         <v>328</v>
       </c>
@@ -31824,12 +32501,15 @@
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
       <c r="G170" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H170" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="50" customHeight="1">
-      <c r="A171" s="39"/>
-      <c r="B171" s="39"/>
+    <row r="171" spans="1:8" ht="50" customHeight="1">
+      <c r="A171" s="53"/>
+      <c r="B171" s="53"/>
       <c r="C171" s="8" t="s">
         <v>330</v>
       </c>
@@ -31839,12 +32519,15 @@
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
       <c r="G171" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H171" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="50" customHeight="1">
-      <c r="A172" s="39"/>
-      <c r="B172" s="39"/>
+    <row r="172" spans="1:8" ht="50" customHeight="1">
+      <c r="A172" s="53"/>
+      <c r="B172" s="53"/>
       <c r="C172" s="8" t="s">
         <v>332</v>
       </c>
@@ -31854,12 +32537,15 @@
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
       <c r="G172" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H172" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="50" customHeight="1">
-      <c r="A173" s="39"/>
-      <c r="B173" s="39"/>
+    <row r="173" spans="1:8" ht="50" customHeight="1">
+      <c r="A173" s="53"/>
+      <c r="B173" s="53"/>
       <c r="C173" s="8" t="s">
         <v>334</v>
       </c>
@@ -31869,12 +32555,15 @@
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
       <c r="G173" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H173" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="50" customHeight="1">
-      <c r="A174" s="39"/>
-      <c r="B174" s="39"/>
+    <row r="174" spans="1:8" ht="50" customHeight="1">
+      <c r="A174" s="53"/>
+      <c r="B174" s="53"/>
       <c r="C174" s="8" t="s">
         <v>336</v>
       </c>
@@ -31884,12 +32573,15 @@
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
       <c r="G174" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H174" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="50" customHeight="1">
-      <c r="A175" s="39"/>
-      <c r="B175" s="39"/>
+    <row r="175" spans="1:8" ht="50" customHeight="1">
+      <c r="A175" s="53"/>
+      <c r="B175" s="53"/>
       <c r="C175" s="8" t="s">
         <v>338</v>
       </c>
@@ -31899,12 +32591,15 @@
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
       <c r="G175" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H175" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="50" customHeight="1">
-      <c r="A176" s="39"/>
-      <c r="B176" s="39"/>
+    <row r="176" spans="1:8" ht="50" customHeight="1">
+      <c r="A176" s="53"/>
+      <c r="B176" s="53"/>
       <c r="C176" s="8" t="s">
         <v>340</v>
       </c>
@@ -31914,12 +32609,15 @@
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
       <c r="G176" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H176" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="50" customHeight="1">
-      <c r="A177" s="39"/>
-      <c r="B177" s="40"/>
+    <row r="177" spans="1:8" ht="50" customHeight="1">
+      <c r="A177" s="53"/>
+      <c r="B177" s="54"/>
       <c r="C177" s="8" t="s">
         <v>342</v>
       </c>
@@ -31929,13 +32627,16 @@
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
       <c r="G177" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H177" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="50" customHeight="1">
-      <c r="A178" s="39"/>
-      <c r="B178" s="38" t="s">
-        <v>886</v>
+    <row r="178" spans="1:8" ht="50" customHeight="1">
+      <c r="A178" s="53"/>
+      <c r="B178" s="52" t="s">
+        <v>875</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>344</v>
@@ -31944,16 +32645,19 @@
         <v>345</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
       <c r="F178" s="10"/>
       <c r="G178" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H178" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="50" customHeight="1">
-      <c r="A179" s="39"/>
-      <c r="B179" s="40"/>
+    <row r="179" spans="1:8" ht="50" customHeight="1">
+      <c r="A179" s="53"/>
+      <c r="B179" s="54"/>
       <c r="C179" s="8" t="s">
         <v>346</v>
       </c>
@@ -31961,17 +32665,20 @@
         <v>347</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
       <c r="F179" s="10"/>
       <c r="G179" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H179" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="50" customHeight="1">
-      <c r="A180" s="39"/>
-      <c r="B180" s="38" t="s">
-        <v>887</v>
+    <row r="180" spans="1:8" ht="50" customHeight="1">
+      <c r="A180" s="53"/>
+      <c r="B180" s="52" t="s">
+        <v>876</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>348</v>
@@ -31982,12 +32689,15 @@
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
       <c r="G180" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H180" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="50" customHeight="1">
-      <c r="A181" s="39"/>
-      <c r="B181" s="39"/>
+    <row r="181" spans="1:8" ht="50" customHeight="1">
+      <c r="A181" s="53"/>
+      <c r="B181" s="53"/>
       <c r="C181" s="8" t="s">
         <v>350</v>
       </c>
@@ -31997,12 +32707,15 @@
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
       <c r="G181" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H181" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="50" customHeight="1">
-      <c r="A182" s="39"/>
-      <c r="B182" s="39"/>
+    <row r="182" spans="1:8" ht="50" customHeight="1">
+      <c r="A182" s="53"/>
+      <c r="B182" s="53"/>
       <c r="C182" s="8" t="s">
         <v>352</v>
       </c>
@@ -32012,12 +32725,15 @@
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
       <c r="G182" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H182" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="50" customHeight="1">
-      <c r="A183" s="39"/>
-      <c r="B183" s="39"/>
+    <row r="183" spans="1:8" ht="50" customHeight="1">
+      <c r="A183" s="53"/>
+      <c r="B183" s="53"/>
       <c r="C183" s="8" t="s">
         <v>354</v>
       </c>
@@ -32027,12 +32743,15 @@
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
       <c r="G183" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H183" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="50" customHeight="1">
-      <c r="A184" s="39"/>
-      <c r="B184" s="39"/>
+    <row r="184" spans="1:8" ht="50" customHeight="1">
+      <c r="A184" s="53"/>
+      <c r="B184" s="53"/>
       <c r="C184" s="8" t="s">
         <v>356</v>
       </c>
@@ -32042,12 +32761,15 @@
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
       <c r="G184" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H184" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="50" customHeight="1">
-      <c r="A185" s="39"/>
-      <c r="B185" s="40"/>
+    <row r="185" spans="1:8" ht="50" customHeight="1">
+      <c r="A185" s="53"/>
+      <c r="B185" s="54"/>
       <c r="C185" s="8" t="s">
         <v>358</v>
       </c>
@@ -32057,13 +32779,16 @@
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
       <c r="G185" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H185" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="50" customHeight="1">
-      <c r="A186" s="39"/>
-      <c r="B186" s="38" t="s">
-        <v>888</v>
+    <row r="186" spans="1:8" ht="50" customHeight="1">
+      <c r="A186" s="53"/>
+      <c r="B186" s="52" t="s">
+        <v>877</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>360</v>
@@ -32072,16 +32797,19 @@
         <v>361</v>
       </c>
       <c r="E186" s="32" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="F186" s="33"/>
       <c r="G186" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H186" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="50" customHeight="1">
-      <c r="A187" s="39"/>
-      <c r="B187" s="39"/>
+    <row r="187" spans="1:8" ht="50" customHeight="1">
+      <c r="A187" s="53"/>
+      <c r="B187" s="53"/>
       <c r="C187" s="8" t="s">
         <v>362</v>
       </c>
@@ -32091,12 +32819,15 @@
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
       <c r="G187" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H187" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="50" customHeight="1">
-      <c r="A188" s="39"/>
-      <c r="B188" s="39"/>
+    <row r="188" spans="1:8" ht="50" customHeight="1">
+      <c r="A188" s="53"/>
+      <c r="B188" s="53"/>
       <c r="C188" s="8" t="s">
         <v>364</v>
       </c>
@@ -32104,16 +32835,19 @@
         <v>365</v>
       </c>
       <c r="E188" s="32" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H188" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="50" customHeight="1">
-      <c r="A189" s="39"/>
-      <c r="B189" s="39"/>
+    <row r="189" spans="1:8" ht="50" customHeight="1">
+      <c r="A189" s="53"/>
+      <c r="B189" s="53"/>
       <c r="C189" s="8" t="s">
         <v>366</v>
       </c>
@@ -32121,16 +32855,19 @@
         <v>367</v>
       </c>
       <c r="E189" s="32" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H189" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="50" customHeight="1">
-      <c r="A190" s="39"/>
-      <c r="B190" s="39"/>
+    <row r="190" spans="1:8" ht="50" customHeight="1">
+      <c r="A190" s="53"/>
+      <c r="B190" s="53"/>
       <c r="C190" s="8" t="s">
         <v>368</v>
       </c>
@@ -32140,12 +32877,15 @@
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
       <c r="G190" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H190" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="50" customHeight="1">
-      <c r="A191" s="39"/>
-      <c r="B191" s="39"/>
+    <row r="191" spans="1:8" ht="50" customHeight="1">
+      <c r="A191" s="53"/>
+      <c r="B191" s="53"/>
       <c r="C191" s="8" t="s">
         <v>370</v>
       </c>
@@ -32153,16 +32893,19 @@
         <v>371</v>
       </c>
       <c r="E191" s="32" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="F191" s="33"/>
       <c r="G191" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H191" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="50" customHeight="1">
-      <c r="A192" s="39"/>
-      <c r="B192" s="39"/>
+    <row r="192" spans="1:8" ht="50" customHeight="1">
+      <c r="A192" s="53"/>
+      <c r="B192" s="53"/>
       <c r="C192" s="8" t="s">
         <v>372</v>
       </c>
@@ -32170,16 +32913,19 @@
         <v>373</v>
       </c>
       <c r="E192" s="32" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H192" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="193" spans="1:16384" ht="50" customHeight="1">
-      <c r="A193" s="39"/>
-      <c r="B193" s="39"/>
+      <c r="A193" s="53"/>
+      <c r="B193" s="53"/>
       <c r="C193" s="8" t="s">
         <v>374</v>
       </c>
@@ -32187,16 +32933,19 @@
         <v>375</v>
       </c>
       <c r="E193" s="32" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="F193" s="33"/>
       <c r="G193" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H193" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="194" spans="1:16384" ht="50" customHeight="1">
-      <c r="A194" s="39"/>
-      <c r="B194" s="39"/>
+      <c r="A194" s="53"/>
+      <c r="B194" s="53"/>
       <c r="C194" s="8" t="s">
         <v>376</v>
       </c>
@@ -32206,12 +32955,15 @@
       <c r="E194" s="10"/>
       <c r="F194" s="10"/>
       <c r="G194" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H194" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="195" spans="1:16384" ht="50" customHeight="1">
-      <c r="A195" s="39"/>
-      <c r="B195" s="39"/>
+      <c r="A195" s="53"/>
+      <c r="B195" s="53"/>
       <c r="C195" s="8" t="s">
         <v>378</v>
       </c>
@@ -32219,16 +32971,19 @@
         <v>379</v>
       </c>
       <c r="E195" s="32" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="F195" s="33"/>
       <c r="G195" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H195" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="196" spans="1:16384" ht="50" customHeight="1">
-      <c r="A196" s="39"/>
-      <c r="B196" s="39"/>
+      <c r="A196" s="53"/>
+      <c r="B196" s="53"/>
       <c r="C196" s="8" t="s">
         <v>380</v>
       </c>
@@ -32238,12 +32993,15 @@
       <c r="E196" s="10"/>
       <c r="F196" s="10"/>
       <c r="G196" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H196" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="197" spans="1:16384" ht="50" customHeight="1">
-      <c r="A197" s="39"/>
-      <c r="B197" s="39"/>
+      <c r="A197" s="53"/>
+      <c r="B197" s="53"/>
       <c r="C197" s="8" t="s">
         <v>382</v>
       </c>
@@ -32253,12 +33011,15 @@
       <c r="E197" s="10"/>
       <c r="F197" s="10"/>
       <c r="G197" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H197" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="198" spans="1:16384" ht="50" customHeight="1">
-      <c r="A198" s="39"/>
-      <c r="B198" s="39"/>
+      <c r="A198" s="53"/>
+      <c r="B198" s="53"/>
       <c r="C198" s="8" t="s">
         <v>384</v>
       </c>
@@ -32268,39 +33029,47 @@
       <c r="E198" s="10"/>
       <c r="F198" s="10"/>
       <c r="G198" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H198" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="199" spans="1:16384" ht="50" customHeight="1">
-      <c r="A199" s="39"/>
-      <c r="B199" s="39"/>
+      <c r="A199" s="53"/>
+      <c r="B199" s="53"/>
       <c r="C199" s="35" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="D199" s="36" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="E199" s="37"/>
       <c r="F199" s="37"/>
       <c r="G199" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H199" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="200" spans="1:16384" ht="50" customHeight="1">
-      <c r="A200" s="39"/>
-      <c r="B200" s="39"/>
+      <c r="A200" s="53"/>
+      <c r="B200" s="53"/>
       <c r="C200" s="35" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="D200" s="36" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="E200" s="35"/>
       <c r="F200" s="35"/>
       <c r="G200" s="29" t="s">
-        <v>878</v>
-      </c>
-      <c r="H200" s="35"/>
+        <v>1010</v>
+      </c>
+      <c r="H200" s="48" t="s">
+        <v>1011</v>
+      </c>
       <c r="I200" s="35"/>
       <c r="J200" s="35"/>
       <c r="K200" s="35"/>
@@ -48679,8 +49448,8 @@
       <c r="XFD200" s="35"/>
     </row>
     <row r="201" spans="1:16384" ht="50" customHeight="1">
-      <c r="A201" s="39"/>
-      <c r="B201" s="39"/>
+      <c r="A201" s="53"/>
+      <c r="B201" s="53"/>
       <c r="C201" s="8" t="s">
         <v>386</v>
       </c>
@@ -48690,12 +49459,15 @@
       <c r="E201" s="10"/>
       <c r="F201" s="10"/>
       <c r="G201" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H201" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="202" spans="1:16384" ht="50" customHeight="1">
-      <c r="A202" s="39"/>
-      <c r="B202" s="39"/>
+      <c r="A202" s="53"/>
+      <c r="B202" s="53"/>
       <c r="C202" s="8" t="s">
         <v>388</v>
       </c>
@@ -48703,16 +49475,19 @@
         <v>389</v>
       </c>
       <c r="E202" s="32" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="F202" s="33"/>
       <c r="G202" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H202" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="203" spans="1:16384" ht="50" customHeight="1">
-      <c r="A203" s="39"/>
-      <c r="B203" s="39"/>
+      <c r="A203" s="53"/>
+      <c r="B203" s="53"/>
       <c r="C203" s="8" t="s">
         <v>390</v>
       </c>
@@ -48722,12 +49497,15 @@
       <c r="E203" s="10"/>
       <c r="F203" s="10"/>
       <c r="G203" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H203" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="204" spans="1:16384" ht="50" customHeight="1">
-      <c r="A204" s="39"/>
-      <c r="B204" s="39"/>
+      <c r="A204" s="53"/>
+      <c r="B204" s="53"/>
       <c r="C204" s="8" t="s">
         <v>392</v>
       </c>
@@ -48735,16 +49513,19 @@
         <v>393</v>
       </c>
       <c r="E204" s="32" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="F204" s="33"/>
       <c r="G204" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H204" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="205" spans="1:16384" ht="50" customHeight="1">
-      <c r="A205" s="39"/>
-      <c r="B205" s="39"/>
+      <c r="A205" s="53"/>
+      <c r="B205" s="53"/>
       <c r="C205" s="8" t="s">
         <v>394</v>
       </c>
@@ -48754,12 +49535,15 @@
       <c r="E205" s="10"/>
       <c r="F205" s="10"/>
       <c r="G205" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H205" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="206" spans="1:16384" ht="50" customHeight="1">
-      <c r="A206" s="39"/>
-      <c r="B206" s="39"/>
+      <c r="A206" s="53"/>
+      <c r="B206" s="53"/>
       <c r="C206" s="8" t="s">
         <v>396</v>
       </c>
@@ -48769,12 +49553,15 @@
       <c r="E206" s="10"/>
       <c r="F206" s="10"/>
       <c r="G206" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H206" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="207" spans="1:16384" ht="50" customHeight="1">
-      <c r="A207" s="39"/>
-      <c r="B207" s="39"/>
+      <c r="A207" s="53"/>
+      <c r="B207" s="53"/>
       <c r="C207" s="8" t="s">
         <v>398</v>
       </c>
@@ -48784,12 +49571,15 @@
       <c r="E207" s="10"/>
       <c r="F207" s="10"/>
       <c r="G207" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H207" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="208" spans="1:16384" ht="50" customHeight="1">
-      <c r="A208" s="39"/>
-      <c r="B208" s="39"/>
+      <c r="A208" s="53"/>
+      <c r="B208" s="53"/>
       <c r="C208" s="8" t="s">
         <v>400</v>
       </c>
@@ -48799,12 +49589,15 @@
       <c r="E208" s="10"/>
       <c r="F208" s="10"/>
       <c r="G208" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H208" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="50" customHeight="1">
-      <c r="A209" s="39"/>
-      <c r="B209" s="39"/>
+    <row r="209" spans="1:8" ht="50" customHeight="1">
+      <c r="A209" s="53"/>
+      <c r="B209" s="53"/>
       <c r="C209" s="8" t="s">
         <v>402</v>
       </c>
@@ -48814,12 +49607,15 @@
       <c r="E209" s="10"/>
       <c r="F209" s="10"/>
       <c r="G209" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H209" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="50" customHeight="1">
-      <c r="A210" s="39"/>
-      <c r="B210" s="39"/>
+    <row r="210" spans="1:8" ht="50" customHeight="1">
+      <c r="A210" s="53"/>
+      <c r="B210" s="53"/>
       <c r="C210" s="8" t="s">
         <v>404</v>
       </c>
@@ -48829,12 +49625,15 @@
       <c r="E210" s="10"/>
       <c r="F210" s="10"/>
       <c r="G210" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H210" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="50" customHeight="1">
-      <c r="A211" s="39"/>
-      <c r="B211" s="39"/>
+    <row r="211" spans="1:8" ht="50" customHeight="1">
+      <c r="A211" s="53"/>
+      <c r="B211" s="53"/>
       <c r="C211" s="8" t="s">
         <v>406</v>
       </c>
@@ -48844,12 +49643,15 @@
       <c r="E211" s="10"/>
       <c r="F211" s="10"/>
       <c r="G211" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H211" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="50" customHeight="1">
-      <c r="A212" s="39"/>
-      <c r="B212" s="39"/>
+    <row r="212" spans="1:8" ht="50" customHeight="1">
+      <c r="A212" s="53"/>
+      <c r="B212" s="53"/>
       <c r="C212" s="8" t="s">
         <v>408</v>
       </c>
@@ -48859,12 +49661,15 @@
       <c r="E212" s="10"/>
       <c r="F212" s="10"/>
       <c r="G212" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H212" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="50" customHeight="1">
-      <c r="A213" s="39"/>
-      <c r="B213" s="39"/>
+    <row r="213" spans="1:8" ht="50" customHeight="1">
+      <c r="A213" s="53"/>
+      <c r="B213" s="53"/>
       <c r="C213" s="8" t="s">
         <v>410</v>
       </c>
@@ -48874,12 +49679,15 @@
       <c r="E213" s="10"/>
       <c r="F213" s="10"/>
       <c r="G213" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H213" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="50" customHeight="1">
-      <c r="A214" s="39"/>
-      <c r="B214" s="39"/>
+    <row r="214" spans="1:8" ht="50" customHeight="1">
+      <c r="A214" s="53"/>
+      <c r="B214" s="53"/>
       <c r="C214" s="8" t="s">
         <v>412</v>
       </c>
@@ -48889,12 +49697,15 @@
       <c r="E214" s="10"/>
       <c r="F214" s="10"/>
       <c r="G214" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H214" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="50" customHeight="1">
-      <c r="A215" s="39"/>
-      <c r="B215" s="39"/>
+    <row r="215" spans="1:8" ht="50" customHeight="1">
+      <c r="A215" s="53"/>
+      <c r="B215" s="53"/>
       <c r="C215" s="8" t="s">
         <v>414</v>
       </c>
@@ -48904,12 +49715,15 @@
       <c r="E215" s="10"/>
       <c r="F215" s="10"/>
       <c r="G215" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H215" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="50" customHeight="1">
-      <c r="A216" s="39"/>
-      <c r="B216" s="39"/>
+    <row r="216" spans="1:8" ht="50" customHeight="1">
+      <c r="A216" s="53"/>
+      <c r="B216" s="53"/>
       <c r="C216" s="8" t="s">
         <v>416</v>
       </c>
@@ -48919,12 +49733,15 @@
       <c r="E216" s="10"/>
       <c r="F216" s="10"/>
       <c r="G216" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H216" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="50" customHeight="1">
-      <c r="A217" s="39"/>
-      <c r="B217" s="39"/>
+    <row r="217" spans="1:8" ht="50" customHeight="1">
+      <c r="A217" s="53"/>
+      <c r="B217" s="53"/>
       <c r="C217" s="8" t="s">
         <v>418</v>
       </c>
@@ -48934,12 +49751,15 @@
       <c r="E217" s="10"/>
       <c r="F217" s="10"/>
       <c r="G217" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H217" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="50" customHeight="1">
-      <c r="A218" s="39"/>
-      <c r="B218" s="39"/>
+    <row r="218" spans="1:8" ht="50" customHeight="1">
+      <c r="A218" s="53"/>
+      <c r="B218" s="53"/>
       <c r="C218" s="8" t="s">
         <v>420</v>
       </c>
@@ -48949,12 +49769,15 @@
       <c r="E218" s="10"/>
       <c r="F218" s="10"/>
       <c r="G218" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H218" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="50" customHeight="1">
-      <c r="A219" s="39"/>
-      <c r="B219" s="39"/>
+    <row r="219" spans="1:8" ht="50" customHeight="1">
+      <c r="A219" s="53"/>
+      <c r="B219" s="53"/>
       <c r="C219" s="8" t="s">
         <v>422</v>
       </c>
@@ -48964,12 +49787,15 @@
       <c r="E219" s="10"/>
       <c r="F219" s="10"/>
       <c r="G219" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H219" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="50" customHeight="1">
-      <c r="A220" s="39"/>
-      <c r="B220" s="39"/>
+    <row r="220" spans="1:8" ht="50" customHeight="1">
+      <c r="A220" s="53"/>
+      <c r="B220" s="53"/>
       <c r="C220" s="8" t="s">
         <v>424</v>
       </c>
@@ -48979,12 +49805,15 @@
       <c r="E220" s="10"/>
       <c r="F220" s="10"/>
       <c r="G220" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H220" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="50" customHeight="1">
-      <c r="A221" s="39"/>
-      <c r="B221" s="39"/>
+    <row r="221" spans="1:8" ht="50" customHeight="1">
+      <c r="A221" s="53"/>
+      <c r="B221" s="53"/>
       <c r="C221" s="8" t="s">
         <v>426</v>
       </c>
@@ -48994,12 +49823,15 @@
       <c r="E221" s="10"/>
       <c r="F221" s="10"/>
       <c r="G221" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H221" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="50" customHeight="1">
-      <c r="A222" s="39"/>
-      <c r="B222" s="40"/>
+    <row r="222" spans="1:8" ht="50" customHeight="1">
+      <c r="A222" s="53"/>
+      <c r="B222" s="54"/>
       <c r="C222" s="8" t="s">
         <v>428</v>
       </c>
@@ -49009,13 +49841,16 @@
       <c r="E222" s="10"/>
       <c r="F222" s="10"/>
       <c r="G222" s="29" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H222" s="48" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="50" customHeight="1">
+      <c r="A223" s="53"/>
+      <c r="B223" s="52" t="s">
         <v>878</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="50" customHeight="1">
-      <c r="A223" s="39"/>
-      <c r="B223" s="38" t="s">
-        <v>889</v>
       </c>
       <c r="C223" s="13" t="s">
         <v>430</v>
@@ -49024,12 +49859,15 @@
         <v>431</v>
       </c>
       <c r="G223" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H223" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="50" customHeight="1">
-      <c r="A224" s="39"/>
-      <c r="B224" s="39"/>
+    <row r="224" spans="1:8" ht="50" customHeight="1">
+      <c r="A224" s="53"/>
+      <c r="B224" s="53"/>
       <c r="C224" s="13" t="s">
         <v>432</v>
       </c>
@@ -49040,12 +49878,15 @@
         <v>824</v>
       </c>
       <c r="G224" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H224" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="50" customHeight="1">
-      <c r="A225" s="39"/>
-      <c r="B225" s="39"/>
+    <row r="225" spans="1:8" ht="50" customHeight="1">
+      <c r="A225" s="53"/>
+      <c r="B225" s="53"/>
       <c r="C225" s="13" t="s">
         <v>434</v>
       </c>
@@ -49053,12 +49894,15 @@
         <v>435</v>
       </c>
       <c r="G225" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H225" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="50" customHeight="1">
-      <c r="A226" s="40"/>
-      <c r="B226" s="40"/>
+    <row r="226" spans="1:8" ht="50" customHeight="1">
+      <c r="A226" s="54"/>
+      <c r="B226" s="54"/>
       <c r="C226" s="13" t="s">
         <v>436</v>
       </c>
@@ -49066,15 +49910,18 @@
         <v>437</v>
       </c>
       <c r="G226" s="29" t="s">
-        <v>878</v>
+        <v>1010</v>
+      </c>
+      <c r="H226" s="48" t="s">
+        <v>1011</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="50" customHeight="1">
-      <c r="A227" s="38" t="s">
-        <v>870</v>
+    <row r="227" spans="1:8" ht="50" customHeight="1">
+      <c r="A227" s="52" t="s">
+        <v>861</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>438</v>
@@ -49083,17 +49930,20 @@
         <v>439</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>938</v>
+        <v>925</v>
       </c>
       <c r="F227" s="10"/>
       <c r="G227" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H227" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="50" customHeight="1">
-      <c r="A228" s="39"/>
+    <row r="228" spans="1:8" ht="50" customHeight="1">
+      <c r="A228" s="53"/>
       <c r="B228" s="14" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="C228" s="8" t="s">
         <v>440</v>
@@ -49102,17 +49952,20 @@
         <v>441</v>
       </c>
       <c r="E228" s="10" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
       <c r="F228" s="10"/>
       <c r="G228" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H228" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="50" customHeight="1">
-      <c r="A229" s="39"/>
-      <c r="B229" s="38" t="s">
-        <v>893</v>
+    <row r="229" spans="1:8" ht="50" customHeight="1">
+      <c r="A229" s="53"/>
+      <c r="B229" s="52" t="s">
+        <v>881</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>442</v>
@@ -49121,16 +49974,19 @@
         <v>443</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>938</v>
+        <v>925</v>
       </c>
       <c r="F229" s="10"/>
       <c r="G229" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H229" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="50" customHeight="1">
-      <c r="A230" s="39"/>
-      <c r="B230" s="40"/>
+    <row r="230" spans="1:8" ht="50" customHeight="1">
+      <c r="A230" s="53"/>
+      <c r="B230" s="54"/>
       <c r="C230" s="8" t="s">
         <v>444</v>
       </c>
@@ -49138,17 +49994,20 @@
         <v>445</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
       <c r="F230" s="10"/>
       <c r="G230" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H230" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="50" customHeight="1">
-      <c r="A231" s="39"/>
-      <c r="B231" s="38" t="s">
-        <v>894</v>
+    <row r="231" spans="1:8" ht="50" customHeight="1">
+      <c r="A231" s="53"/>
+      <c r="B231" s="52" t="s">
+        <v>882</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>446</v>
@@ -49159,12 +50018,15 @@
       <c r="E231" s="10"/>
       <c r="F231" s="10"/>
       <c r="G231" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H231" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="50" customHeight="1">
-      <c r="A232" s="39"/>
-      <c r="B232" s="40"/>
+    <row r="232" spans="1:8" ht="50" customHeight="1">
+      <c r="A232" s="53"/>
+      <c r="B232" s="54"/>
       <c r="C232" s="8" t="s">
         <v>448</v>
       </c>
@@ -49174,13 +50036,16 @@
       <c r="E232" s="10"/>
       <c r="F232" s="10"/>
       <c r="G232" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H232" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="50" customHeight="1">
-      <c r="A233" s="39"/>
-      <c r="B233" s="38" t="s">
-        <v>895</v>
+    <row r="233" spans="1:8" ht="50" customHeight="1">
+      <c r="A233" s="53"/>
+      <c r="B233" s="52" t="s">
+        <v>883</v>
       </c>
       <c r="C233" s="8" t="s">
         <v>450</v>
@@ -49191,12 +50056,15 @@
       <c r="E233" s="10"/>
       <c r="F233" s="10"/>
       <c r="G233" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H233" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="50" customHeight="1">
-      <c r="A234" s="39"/>
-      <c r="B234" s="39"/>
+    <row r="234" spans="1:8" ht="50" customHeight="1">
+      <c r="A234" s="53"/>
+      <c r="B234" s="53"/>
       <c r="C234" s="8" t="s">
         <v>452</v>
       </c>
@@ -49206,12 +50074,15 @@
       <c r="E234" s="10"/>
       <c r="F234" s="10"/>
       <c r="G234" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H234" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="50" customHeight="1">
-      <c r="A235" s="39"/>
-      <c r="B235" s="39"/>
+    <row r="235" spans="1:8" ht="50" customHeight="1">
+      <c r="A235" s="53"/>
+      <c r="B235" s="53"/>
       <c r="C235" s="8" t="s">
         <v>454</v>
       </c>
@@ -49221,12 +50092,15 @@
       <c r="E235" s="10"/>
       <c r="F235" s="10"/>
       <c r="G235" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H235" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="50" customHeight="1">
-      <c r="A236" s="39"/>
-      <c r="B236" s="39"/>
+    <row r="236" spans="1:8" ht="50" customHeight="1">
+      <c r="A236" s="53"/>
+      <c r="B236" s="53"/>
       <c r="C236" s="8" t="s">
         <v>456</v>
       </c>
@@ -49236,12 +50110,15 @@
       <c r="E236" s="10"/>
       <c r="F236" s="10"/>
       <c r="G236" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H236" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="50" customHeight="1">
-      <c r="A237" s="39"/>
-      <c r="B237" s="39"/>
+    <row r="237" spans="1:8" ht="50" customHeight="1">
+      <c r="A237" s="53"/>
+      <c r="B237" s="53"/>
       <c r="C237" s="8" t="s">
         <v>458</v>
       </c>
@@ -49251,12 +50128,15 @@
       <c r="E237" s="10"/>
       <c r="F237" s="10"/>
       <c r="G237" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H237" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="50" customHeight="1">
-      <c r="A238" s="39"/>
-      <c r="B238" s="39"/>
+    <row r="238" spans="1:8" ht="50" customHeight="1">
+      <c r="A238" s="53"/>
+      <c r="B238" s="53"/>
       <c r="C238" s="8" t="s">
         <v>460</v>
       </c>
@@ -49266,12 +50146,15 @@
       <c r="E238" s="10"/>
       <c r="F238" s="10"/>
       <c r="G238" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H238" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="50" customHeight="1">
-      <c r="A239" s="39"/>
-      <c r="B239" s="39"/>
+    <row r="239" spans="1:8" ht="50" customHeight="1">
+      <c r="A239" s="53"/>
+      <c r="B239" s="53"/>
       <c r="C239" s="8" t="s">
         <v>462</v>
       </c>
@@ -49281,12 +50164,15 @@
       <c r="E239" s="10"/>
       <c r="F239" s="10"/>
       <c r="G239" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H239" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="50" customHeight="1">
-      <c r="A240" s="39"/>
-      <c r="B240" s="39"/>
+    <row r="240" spans="1:8" ht="50" customHeight="1">
+      <c r="A240" s="53"/>
+      <c r="B240" s="53"/>
       <c r="C240" s="8" t="s">
         <v>464</v>
       </c>
@@ -49296,12 +50182,15 @@
       <c r="E240" s="10"/>
       <c r="F240" s="10"/>
       <c r="G240" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H240" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="50" customHeight="1">
-      <c r="A241" s="39"/>
-      <c r="B241" s="39"/>
+    <row r="241" spans="1:8" ht="50" customHeight="1">
+      <c r="A241" s="53"/>
+      <c r="B241" s="53"/>
       <c r="C241" s="8" t="s">
         <v>466</v>
       </c>
@@ -49311,12 +50200,15 @@
       <c r="E241" s="10"/>
       <c r="F241" s="10"/>
       <c r="G241" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H241" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="50" customHeight="1">
-      <c r="A242" s="39"/>
-      <c r="B242" s="39"/>
+    <row r="242" spans="1:8" ht="50" customHeight="1">
+      <c r="A242" s="53"/>
+      <c r="B242" s="53"/>
       <c r="C242" s="8" t="s">
         <v>468</v>
       </c>
@@ -49326,12 +50218,15 @@
       <c r="E242" s="10"/>
       <c r="F242" s="10"/>
       <c r="G242" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H242" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="50" customHeight="1">
-      <c r="A243" s="39"/>
-      <c r="B243" s="39"/>
+    <row r="243" spans="1:8" ht="50" customHeight="1">
+      <c r="A243" s="53"/>
+      <c r="B243" s="53"/>
       <c r="C243" s="8" t="s">
         <v>470</v>
       </c>
@@ -49341,12 +50236,15 @@
       <c r="E243" s="10"/>
       <c r="F243" s="10"/>
       <c r="G243" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H243" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="50" customHeight="1">
-      <c r="A244" s="39"/>
-      <c r="B244" s="39"/>
+    <row r="244" spans="1:8" ht="50" customHeight="1">
+      <c r="A244" s="53"/>
+      <c r="B244" s="53"/>
       <c r="C244" s="8" t="s">
         <v>472</v>
       </c>
@@ -49356,12 +50254,15 @@
       <c r="E244" s="10"/>
       <c r="F244" s="10"/>
       <c r="G244" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H244" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="50" customHeight="1">
-      <c r="A245" s="39"/>
-      <c r="B245" s="39"/>
+    <row r="245" spans="1:8" ht="50" customHeight="1">
+      <c r="A245" s="53"/>
+      <c r="B245" s="53"/>
       <c r="C245" s="8" t="s">
         <v>474</v>
       </c>
@@ -49371,12 +50272,15 @@
       <c r="E245" s="10"/>
       <c r="F245" s="10"/>
       <c r="G245" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H245" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="50" customHeight="1">
-      <c r="A246" s="39"/>
-      <c r="B246" s="39"/>
+    <row r="246" spans="1:8" ht="50" customHeight="1">
+      <c r="A246" s="53"/>
+      <c r="B246" s="53"/>
       <c r="C246" s="8" t="s">
         <v>476</v>
       </c>
@@ -49386,12 +50290,15 @@
       <c r="E246" s="10"/>
       <c r="F246" s="10"/>
       <c r="G246" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H246" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="50" customHeight="1">
-      <c r="A247" s="39"/>
-      <c r="B247" s="39"/>
+    <row r="247" spans="1:8" ht="50" customHeight="1">
+      <c r="A247" s="53"/>
+      <c r="B247" s="53"/>
       <c r="C247" s="8" t="s">
         <v>478</v>
       </c>
@@ -49401,12 +50308,15 @@
       <c r="E247" s="10"/>
       <c r="F247" s="10"/>
       <c r="G247" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H247" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="50" customHeight="1">
-      <c r="A248" s="39"/>
-      <c r="B248" s="39"/>
+    <row r="248" spans="1:8" ht="50" customHeight="1">
+      <c r="A248" s="53"/>
+      <c r="B248" s="53"/>
       <c r="C248" s="8" t="s">
         <v>480</v>
       </c>
@@ -49416,12 +50326,15 @@
       <c r="E248" s="10"/>
       <c r="F248" s="10"/>
       <c r="G248" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H248" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="50" customHeight="1">
-      <c r="A249" s="39"/>
-      <c r="B249" s="39"/>
+    <row r="249" spans="1:8" ht="50" customHeight="1">
+      <c r="A249" s="53"/>
+      <c r="B249" s="53"/>
       <c r="C249" s="8" t="s">
         <v>482</v>
       </c>
@@ -49431,12 +50344,15 @@
       <c r="E249" s="10"/>
       <c r="F249" s="10"/>
       <c r="G249" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H249" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="50" customHeight="1">
-      <c r="A250" s="39"/>
-      <c r="B250" s="39"/>
+    <row r="250" spans="1:8" ht="50" customHeight="1">
+      <c r="A250" s="53"/>
+      <c r="B250" s="53"/>
       <c r="C250" s="8" t="s">
         <v>484</v>
       </c>
@@ -49446,12 +50362,15 @@
       <c r="E250" s="10"/>
       <c r="F250" s="10"/>
       <c r="G250" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H250" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="50" customHeight="1">
-      <c r="A251" s="39"/>
-      <c r="B251" s="39"/>
+    <row r="251" spans="1:8" ht="50" customHeight="1">
+      <c r="A251" s="53"/>
+      <c r="B251" s="53"/>
       <c r="C251" s="8" t="s">
         <v>486</v>
       </c>
@@ -49461,12 +50380,15 @@
       <c r="E251" s="10"/>
       <c r="F251" s="10"/>
       <c r="G251" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H251" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="50" customHeight="1">
-      <c r="A252" s="39"/>
-      <c r="B252" s="39"/>
+    <row r="252" spans="1:8" ht="50" customHeight="1">
+      <c r="A252" s="53"/>
+      <c r="B252" s="53"/>
       <c r="C252" s="8" t="s">
         <v>488</v>
       </c>
@@ -49476,12 +50398,15 @@
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
       <c r="G252" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H252" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="50" customHeight="1">
-      <c r="A253" s="39"/>
-      <c r="B253" s="39"/>
+    <row r="253" spans="1:8" ht="50" customHeight="1">
+      <c r="A253" s="53"/>
+      <c r="B253" s="53"/>
       <c r="C253" s="8" t="s">
         <v>490</v>
       </c>
@@ -49491,12 +50416,15 @@
       <c r="E253" s="10"/>
       <c r="F253" s="10"/>
       <c r="G253" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H253" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="50" customHeight="1">
-      <c r="A254" s="39"/>
-      <c r="B254" s="39"/>
+    <row r="254" spans="1:8" ht="50" customHeight="1">
+      <c r="A254" s="53"/>
+      <c r="B254" s="53"/>
       <c r="C254" s="8" t="s">
         <v>492</v>
       </c>
@@ -49506,12 +50434,15 @@
       <c r="E254" s="10"/>
       <c r="F254" s="10"/>
       <c r="G254" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H254" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="50" customHeight="1">
-      <c r="A255" s="39"/>
-      <c r="B255" s="39"/>
+    <row r="255" spans="1:8" ht="50" customHeight="1">
+      <c r="A255" s="53"/>
+      <c r="B255" s="53"/>
       <c r="C255" s="8" t="s">
         <v>494</v>
       </c>
@@ -49521,12 +50452,15 @@
       <c r="E255" s="10"/>
       <c r="F255" s="10"/>
       <c r="G255" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H255" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="50" customHeight="1">
-      <c r="A256" s="39"/>
-      <c r="B256" s="39"/>
+    <row r="256" spans="1:8" ht="50" customHeight="1">
+      <c r="A256" s="53"/>
+      <c r="B256" s="53"/>
       <c r="C256" s="8" t="s">
         <v>496</v>
       </c>
@@ -49536,12 +50470,15 @@
       <c r="E256" s="10"/>
       <c r="F256" s="10"/>
       <c r="G256" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H256" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="50" customHeight="1">
-      <c r="A257" s="39"/>
-      <c r="B257" s="39"/>
+    <row r="257" spans="1:8" ht="50" customHeight="1">
+      <c r="A257" s="53"/>
+      <c r="B257" s="53"/>
       <c r="C257" s="8" t="s">
         <v>498</v>
       </c>
@@ -49551,12 +50488,15 @@
       <c r="E257" s="10"/>
       <c r="F257" s="10"/>
       <c r="G257" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H257" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="50" customHeight="1">
-      <c r="A258" s="39"/>
-      <c r="B258" s="39"/>
+    <row r="258" spans="1:8" ht="50" customHeight="1">
+      <c r="A258" s="53"/>
+      <c r="B258" s="53"/>
       <c r="C258" s="8" t="s">
         <v>500</v>
       </c>
@@ -49566,12 +50506,15 @@
       <c r="E258" s="10"/>
       <c r="F258" s="10"/>
       <c r="G258" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H258" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="50" customHeight="1">
-      <c r="A259" s="39"/>
-      <c r="B259" s="39"/>
+    <row r="259" spans="1:8" ht="50" customHeight="1">
+      <c r="A259" s="53"/>
+      <c r="B259" s="53"/>
       <c r="C259" s="8" t="s">
         <v>502</v>
       </c>
@@ -49581,12 +50524,15 @@
       <c r="E259" s="10"/>
       <c r="F259" s="10"/>
       <c r="G259" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H259" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="50" customHeight="1">
-      <c r="A260" s="39"/>
-      <c r="B260" s="39"/>
+    <row r="260" spans="1:8" ht="50" customHeight="1">
+      <c r="A260" s="53"/>
+      <c r="B260" s="53"/>
       <c r="C260" s="8" t="s">
         <v>504</v>
       </c>
@@ -49596,12 +50542,15 @@
       <c r="E260" s="10"/>
       <c r="F260" s="10"/>
       <c r="G260" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H260" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="50" customHeight="1">
-      <c r="A261" s="39"/>
-      <c r="B261" s="39"/>
+    <row r="261" spans="1:8" ht="50" customHeight="1">
+      <c r="A261" s="53"/>
+      <c r="B261" s="53"/>
       <c r="C261" s="8" t="s">
         <v>506</v>
       </c>
@@ -49611,12 +50560,15 @@
       <c r="E261" s="10"/>
       <c r="F261" s="10"/>
       <c r="G261" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H261" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="50" customHeight="1">
-      <c r="A262" s="39"/>
-      <c r="B262" s="39"/>
+    <row r="262" spans="1:8" ht="50" customHeight="1">
+      <c r="A262" s="53"/>
+      <c r="B262" s="53"/>
       <c r="C262" s="8" t="s">
         <v>508</v>
       </c>
@@ -49626,12 +50578,15 @@
       <c r="E262" s="10"/>
       <c r="F262" s="10"/>
       <c r="G262" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H262" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="50" customHeight="1">
-      <c r="A263" s="39"/>
-      <c r="B263" s="39"/>
+    <row r="263" spans="1:8" ht="50" customHeight="1">
+      <c r="A263" s="53"/>
+      <c r="B263" s="53"/>
       <c r="C263" s="8" t="s">
         <v>510</v>
       </c>
@@ -49641,12 +50596,15 @@
       <c r="E263" s="10"/>
       <c r="F263" s="10"/>
       <c r="G263" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H263" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="50" customHeight="1">
-      <c r="A264" s="39"/>
-      <c r="B264" s="39"/>
+    <row r="264" spans="1:8" ht="50" customHeight="1">
+      <c r="A264" s="53"/>
+      <c r="B264" s="53"/>
       <c r="C264" s="8" t="s">
         <v>512</v>
       </c>
@@ -49656,12 +50614,15 @@
       <c r="E264" s="10"/>
       <c r="F264" s="10"/>
       <c r="G264" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H264" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="50" customHeight="1">
-      <c r="A265" s="39"/>
-      <c r="B265" s="39"/>
+    <row r="265" spans="1:8" ht="50" customHeight="1">
+      <c r="A265" s="53"/>
+      <c r="B265" s="53"/>
       <c r="C265" s="8" t="s">
         <v>514</v>
       </c>
@@ -49671,12 +50632,15 @@
       <c r="E265" s="10"/>
       <c r="F265" s="10"/>
       <c r="G265" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H265" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="50" customHeight="1">
-      <c r="A266" s="39"/>
-      <c r="B266" s="39"/>
+    <row r="266" spans="1:8" ht="50" customHeight="1">
+      <c r="A266" s="53"/>
+      <c r="B266" s="53"/>
       <c r="C266" s="8" t="s">
         <v>516</v>
       </c>
@@ -49686,12 +50650,15 @@
       <c r="E266" s="10"/>
       <c r="F266" s="10"/>
       <c r="G266" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H266" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="50" customHeight="1">
-      <c r="A267" s="39"/>
-      <c r="B267" s="40"/>
+    <row r="267" spans="1:8" ht="50" customHeight="1">
+      <c r="A267" s="53"/>
+      <c r="B267" s="54"/>
       <c r="C267" s="8" t="s">
         <v>518</v>
       </c>
@@ -49701,13 +50668,16 @@
       <c r="E267" s="10"/>
       <c r="F267" s="10"/>
       <c r="G267" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H267" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="50" customHeight="1">
-      <c r="A268" s="39"/>
+    <row r="268" spans="1:8" ht="50" customHeight="1">
+      <c r="A268" s="53"/>
       <c r="B268" s="14" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="C268" s="8" t="s">
         <v>520</v>
@@ -49718,29 +50688,35 @@
       <c r="E268" s="10"/>
       <c r="F268" s="10"/>
       <c r="G268" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H268" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="50" customHeight="1">
-      <c r="A269" s="39"/>
-      <c r="B269" s="38" t="s">
-        <v>897</v>
+    <row r="269" spans="1:8" ht="50" customHeight="1">
+      <c r="A269" s="53"/>
+      <c r="B269" s="52" t="s">
+        <v>885</v>
       </c>
       <c r="C269" s="35" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="D269" s="36" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
       <c r="E269" s="10"/>
       <c r="F269" s="10"/>
       <c r="G269" s="30" t="s">
-        <v>890</v>
+        <v>1012</v>
+      </c>
+      <c r="H269" s="49" t="s">
+        <v>1013</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="50" customHeight="1">
-      <c r="A270" s="39"/>
-      <c r="B270" s="39"/>
+    <row r="270" spans="1:8" ht="50" customHeight="1">
+      <c r="A270" s="53"/>
+      <c r="B270" s="53"/>
       <c r="C270" s="8" t="s">
         <v>522</v>
       </c>
@@ -49748,16 +50724,19 @@
         <v>523</v>
       </c>
       <c r="E270" s="10" t="s">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="F270" s="10"/>
       <c r="G270" s="30" t="s">
-        <v>890</v>
+        <v>1012</v>
+      </c>
+      <c r="H270" s="49" t="s">
+        <v>1013</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="50" customHeight="1">
-      <c r="A271" s="39"/>
-      <c r="B271" s="39"/>
+    <row r="271" spans="1:8" ht="50" customHeight="1">
+      <c r="A271" s="53"/>
+      <c r="B271" s="53"/>
       <c r="C271" s="8" t="s">
         <v>524</v>
       </c>
@@ -49767,12 +50746,15 @@
       <c r="E271" s="10"/>
       <c r="F271" s="10"/>
       <c r="G271" s="30" t="s">
-        <v>890</v>
+        <v>1012</v>
+      </c>
+      <c r="H271" s="49" t="s">
+        <v>1013</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="50" customHeight="1">
-      <c r="A272" s="39"/>
-      <c r="B272" s="39"/>
+    <row r="272" spans="1:8" ht="50" customHeight="1">
+      <c r="A272" s="53"/>
+      <c r="B272" s="53"/>
       <c r="C272" s="8" t="s">
         <v>526</v>
       </c>
@@ -49782,12 +50764,15 @@
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
       <c r="G272" s="30" t="s">
-        <v>890</v>
+        <v>1012</v>
+      </c>
+      <c r="H272" s="49" t="s">
+        <v>1013</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="50" customHeight="1">
-      <c r="A273" s="39"/>
-      <c r="B273" s="40"/>
+    <row r="273" spans="1:8" ht="50" customHeight="1">
+      <c r="A273" s="53"/>
+      <c r="B273" s="54"/>
       <c r="C273" s="8" t="s">
         <v>528</v>
       </c>
@@ -49797,13 +50782,16 @@
       <c r="E273" s="10"/>
       <c r="F273" s="10"/>
       <c r="G273" s="30" t="s">
-        <v>890</v>
+        <v>1012</v>
+      </c>
+      <c r="H273" s="49" t="s">
+        <v>1013</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="50" customHeight="1">
-      <c r="A274" s="39"/>
-      <c r="B274" s="38" t="s">
-        <v>898</v>
+    <row r="274" spans="1:8" ht="50" customHeight="1">
+      <c r="A274" s="53"/>
+      <c r="B274" s="52" t="s">
+        <v>886</v>
       </c>
       <c r="C274" s="8" t="s">
         <v>530</v>
@@ -49814,12 +50802,15 @@
       <c r="E274" s="10"/>
       <c r="F274" s="10"/>
       <c r="G274" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H274" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="50" customHeight="1">
-      <c r="A275" s="39"/>
-      <c r="B275" s="39"/>
+    <row r="275" spans="1:8" ht="50" customHeight="1">
+      <c r="A275" s="53"/>
+      <c r="B275" s="53"/>
       <c r="C275" s="8" t="s">
         <v>532</v>
       </c>
@@ -49827,16 +50818,19 @@
         <v>533</v>
       </c>
       <c r="E275" s="10" t="s">
-        <v>929</v>
+        <v>916</v>
       </c>
       <c r="F275" s="10"/>
       <c r="G275" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H275" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="50" customHeight="1">
-      <c r="A276" s="39"/>
-      <c r="B276" s="39"/>
+    <row r="276" spans="1:8" ht="50" customHeight="1">
+      <c r="A276" s="53"/>
+      <c r="B276" s="53"/>
       <c r="C276" s="8" t="s">
         <v>534</v>
       </c>
@@ -49844,16 +50838,19 @@
         <v>535</v>
       </c>
       <c r="E276" s="10" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="F276" s="10"/>
       <c r="G276" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H276" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="50" customHeight="1">
-      <c r="A277" s="39"/>
-      <c r="B277" s="39"/>
+    <row r="277" spans="1:8" ht="50" customHeight="1">
+      <c r="A277" s="53"/>
+      <c r="B277" s="53"/>
       <c r="C277" s="8" t="s">
         <v>536</v>
       </c>
@@ -49863,12 +50860,15 @@
       <c r="E277" s="10"/>
       <c r="F277" s="10"/>
       <c r="G277" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H277" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="50" customHeight="1">
-      <c r="A278" s="39"/>
-      <c r="B278" s="39"/>
+    <row r="278" spans="1:8" ht="50" customHeight="1">
+      <c r="A278" s="53"/>
+      <c r="B278" s="53"/>
       <c r="C278" s="8" t="s">
         <v>538</v>
       </c>
@@ -49878,12 +50878,15 @@
       <c r="E278" s="10"/>
       <c r="F278" s="10"/>
       <c r="G278" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H278" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="50" customHeight="1">
-      <c r="A279" s="39"/>
-      <c r="B279" s="39"/>
+    <row r="279" spans="1:8" ht="50" customHeight="1">
+      <c r="A279" s="53"/>
+      <c r="B279" s="53"/>
       <c r="C279" s="8" t="s">
         <v>540</v>
       </c>
@@ -49891,16 +50894,19 @@
         <v>541</v>
       </c>
       <c r="E279" s="10" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="F279" s="10"/>
       <c r="G279" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H279" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="50" customHeight="1">
-      <c r="A280" s="39"/>
-      <c r="B280" s="39"/>
+    <row r="280" spans="1:8" ht="50" customHeight="1">
+      <c r="A280" s="53"/>
+      <c r="B280" s="53"/>
       <c r="C280" s="8" t="s">
         <v>542</v>
       </c>
@@ -49910,12 +50916,15 @@
       <c r="E280" s="10"/>
       <c r="F280" s="10"/>
       <c r="G280" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H280" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="50" customHeight="1">
-      <c r="A281" s="39"/>
-      <c r="B281" s="39"/>
+    <row r="281" spans="1:8" ht="50" customHeight="1">
+      <c r="A281" s="53"/>
+      <c r="B281" s="53"/>
       <c r="C281" s="8" t="s">
         <v>544</v>
       </c>
@@ -49925,12 +50934,15 @@
       <c r="E281" s="10"/>
       <c r="F281" s="10"/>
       <c r="G281" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H281" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="50" customHeight="1">
-      <c r="A282" s="39"/>
-      <c r="B282" s="39"/>
+    <row r="282" spans="1:8" ht="50" customHeight="1">
+      <c r="A282" s="53"/>
+      <c r="B282" s="53"/>
       <c r="C282" s="8" t="s">
         <v>546</v>
       </c>
@@ -49940,12 +50952,15 @@
       <c r="E282" s="10"/>
       <c r="F282" s="10"/>
       <c r="G282" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H282" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="50" customHeight="1">
-      <c r="A283" s="39"/>
-      <c r="B283" s="39"/>
+    <row r="283" spans="1:8" ht="50" customHeight="1">
+      <c r="A283" s="53"/>
+      <c r="B283" s="53"/>
       <c r="C283" s="8" t="s">
         <v>548</v>
       </c>
@@ -49955,12 +50970,15 @@
       <c r="E283" s="10"/>
       <c r="F283" s="10"/>
       <c r="G283" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H283" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="50" customHeight="1">
-      <c r="A284" s="39"/>
-      <c r="B284" s="39"/>
+    <row r="284" spans="1:8" ht="50" customHeight="1">
+      <c r="A284" s="53"/>
+      <c r="B284" s="53"/>
       <c r="C284" s="8" t="s">
         <v>550</v>
       </c>
@@ -49970,12 +50988,15 @@
       <c r="E284" s="10"/>
       <c r="F284" s="10"/>
       <c r="G284" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H284" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="50" customHeight="1">
-      <c r="A285" s="39"/>
-      <c r="B285" s="39"/>
+    <row r="285" spans="1:8" ht="50" customHeight="1">
+      <c r="A285" s="53"/>
+      <c r="B285" s="53"/>
       <c r="C285" s="8" t="s">
         <v>552</v>
       </c>
@@ -49985,12 +51006,15 @@
       <c r="E285" s="10"/>
       <c r="F285" s="10"/>
       <c r="G285" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H285" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="50" customHeight="1">
-      <c r="A286" s="39"/>
-      <c r="B286" s="39"/>
+    <row r="286" spans="1:8" ht="50" customHeight="1">
+      <c r="A286" s="53"/>
+      <c r="B286" s="53"/>
       <c r="C286" s="8" t="s">
         <v>554</v>
       </c>
@@ -50000,12 +51024,15 @@
       <c r="E286" s="10"/>
       <c r="F286" s="10"/>
       <c r="G286" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H286" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="50" customHeight="1">
-      <c r="A287" s="39"/>
-      <c r="B287" s="39"/>
+    <row r="287" spans="1:8" ht="50" customHeight="1">
+      <c r="A287" s="53"/>
+      <c r="B287" s="53"/>
       <c r="C287" s="8" t="s">
         <v>556</v>
       </c>
@@ -50015,12 +51042,15 @@
       <c r="E287" s="10"/>
       <c r="F287" s="10"/>
       <c r="G287" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H287" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="50" customHeight="1">
-      <c r="A288" s="39"/>
-      <c r="B288" s="39"/>
+    <row r="288" spans="1:8" ht="50" customHeight="1">
+      <c r="A288" s="53"/>
+      <c r="B288" s="53"/>
       <c r="C288" s="8" t="s">
         <v>558</v>
       </c>
@@ -50030,12 +51060,15 @@
       <c r="E288" s="10"/>
       <c r="F288" s="10"/>
       <c r="G288" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H288" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="50" customHeight="1">
-      <c r="A289" s="39"/>
-      <c r="B289" s="39"/>
+    <row r="289" spans="1:8" ht="50" customHeight="1">
+      <c r="A289" s="53"/>
+      <c r="B289" s="53"/>
       <c r="C289" s="8" t="s">
         <v>560</v>
       </c>
@@ -50045,12 +51078,15 @@
       <c r="E289" s="10"/>
       <c r="F289" s="10"/>
       <c r="G289" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H289" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="50" customHeight="1">
-      <c r="A290" s="39"/>
-      <c r="B290" s="39"/>
+    <row r="290" spans="1:8" ht="50" customHeight="1">
+      <c r="A290" s="53"/>
+      <c r="B290" s="53"/>
       <c r="C290" s="8" t="s">
         <v>562</v>
       </c>
@@ -50060,12 +51096,15 @@
       <c r="E290" s="10"/>
       <c r="F290" s="10"/>
       <c r="G290" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H290" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="50" customHeight="1">
-      <c r="A291" s="39"/>
-      <c r="B291" s="39"/>
+    <row r="291" spans="1:8" ht="50" customHeight="1">
+      <c r="A291" s="53"/>
+      <c r="B291" s="53"/>
       <c r="C291" s="8" t="s">
         <v>564</v>
       </c>
@@ -50075,12 +51114,15 @@
       <c r="E291" s="10"/>
       <c r="F291" s="10"/>
       <c r="G291" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H291" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="50" customHeight="1">
-      <c r="A292" s="39"/>
-      <c r="B292" s="39"/>
+    <row r="292" spans="1:8" ht="50" customHeight="1">
+      <c r="A292" s="53"/>
+      <c r="B292" s="53"/>
       <c r="C292" s="8" t="s">
         <v>566</v>
       </c>
@@ -50090,12 +51132,15 @@
       <c r="E292" s="10"/>
       <c r="F292" s="10"/>
       <c r="G292" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H292" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="50" customHeight="1">
-      <c r="A293" s="39"/>
-      <c r="B293" s="39"/>
+    <row r="293" spans="1:8" ht="50" customHeight="1">
+      <c r="A293" s="53"/>
+      <c r="B293" s="53"/>
       <c r="C293" s="8" t="s">
         <v>568</v>
       </c>
@@ -50105,12 +51150,15 @@
       <c r="E293" s="10"/>
       <c r="F293" s="10"/>
       <c r="G293" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H293" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="50" customHeight="1">
-      <c r="A294" s="39"/>
-      <c r="B294" s="39"/>
+    <row r="294" spans="1:8" ht="50" customHeight="1">
+      <c r="A294" s="53"/>
+      <c r="B294" s="53"/>
       <c r="C294" s="8" t="s">
         <v>570</v>
       </c>
@@ -50120,12 +51168,15 @@
       <c r="E294" s="10"/>
       <c r="F294" s="10"/>
       <c r="G294" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H294" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="50" customHeight="1">
-      <c r="A295" s="39"/>
-      <c r="B295" s="39"/>
+    <row r="295" spans="1:8" ht="50" customHeight="1">
+      <c r="A295" s="53"/>
+      <c r="B295" s="53"/>
       <c r="C295" s="8" t="s">
         <v>572</v>
       </c>
@@ -50135,12 +51186,15 @@
       <c r="E295" s="10"/>
       <c r="F295" s="10"/>
       <c r="G295" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H295" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="50" customHeight="1">
-      <c r="A296" s="39"/>
-      <c r="B296" s="39"/>
+    <row r="296" spans="1:8" ht="50" customHeight="1">
+      <c r="A296" s="53"/>
+      <c r="B296" s="53"/>
       <c r="C296" s="8" t="s">
         <v>574</v>
       </c>
@@ -50150,12 +51204,15 @@
       <c r="E296" s="10"/>
       <c r="F296" s="10"/>
       <c r="G296" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H296" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="50" customHeight="1">
-      <c r="A297" s="39"/>
-      <c r="B297" s="39"/>
+    <row r="297" spans="1:8" ht="50" customHeight="1">
+      <c r="A297" s="53"/>
+      <c r="B297" s="53"/>
       <c r="C297" s="8" t="s">
         <v>576</v>
       </c>
@@ -50165,12 +51222,15 @@
       <c r="E297" s="10"/>
       <c r="F297" s="10"/>
       <c r="G297" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H297" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="50" customHeight="1">
-      <c r="A298" s="39"/>
-      <c r="B298" s="39"/>
+    <row r="298" spans="1:8" ht="50" customHeight="1">
+      <c r="A298" s="53"/>
+      <c r="B298" s="53"/>
       <c r="C298" s="8" t="s">
         <v>578</v>
       </c>
@@ -50180,12 +51240,15 @@
       <c r="E298" s="10"/>
       <c r="F298" s="10"/>
       <c r="G298" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H298" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="50" customHeight="1">
-      <c r="A299" s="39"/>
-      <c r="B299" s="39"/>
+    <row r="299" spans="1:8" ht="50" customHeight="1">
+      <c r="A299" s="53"/>
+      <c r="B299" s="53"/>
       <c r="C299" s="8" t="s">
         <v>580</v>
       </c>
@@ -50195,12 +51258,15 @@
       <c r="E299" s="10"/>
       <c r="F299" s="10"/>
       <c r="G299" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H299" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="50" customHeight="1">
-      <c r="A300" s="39"/>
-      <c r="B300" s="39"/>
+    <row r="300" spans="1:8" ht="50" customHeight="1">
+      <c r="A300" s="53"/>
+      <c r="B300" s="53"/>
       <c r="C300" s="8" t="s">
         <v>582</v>
       </c>
@@ -50210,12 +51276,15 @@
       <c r="E300" s="10"/>
       <c r="F300" s="10"/>
       <c r="G300" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H300" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="50" customHeight="1">
-      <c r="A301" s="39"/>
-      <c r="B301" s="39"/>
+    <row r="301" spans="1:8" ht="50" customHeight="1">
+      <c r="A301" s="53"/>
+      <c r="B301" s="53"/>
       <c r="C301" s="8" t="s">
         <v>584</v>
       </c>
@@ -50225,12 +51294,15 @@
       <c r="E301" s="10"/>
       <c r="F301" s="10"/>
       <c r="G301" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H301" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="50" customHeight="1">
-      <c r="A302" s="39"/>
-      <c r="B302" s="39"/>
+    <row r="302" spans="1:8" ht="50" customHeight="1">
+      <c r="A302" s="53"/>
+      <c r="B302" s="53"/>
       <c r="C302" s="8" t="s">
         <v>586</v>
       </c>
@@ -50240,12 +51312,15 @@
       <c r="E302" s="10"/>
       <c r="F302" s="10"/>
       <c r="G302" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H302" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="50" customHeight="1">
-      <c r="A303" s="39"/>
-      <c r="B303" s="39"/>
+    <row r="303" spans="1:8" ht="50" customHeight="1">
+      <c r="A303" s="53"/>
+      <c r="B303" s="53"/>
       <c r="C303" s="8" t="s">
         <v>588</v>
       </c>
@@ -50255,12 +51330,15 @@
       <c r="E303" s="10"/>
       <c r="F303" s="10"/>
       <c r="G303" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H303" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="50" customHeight="1">
-      <c r="A304" s="39"/>
-      <c r="B304" s="39"/>
+    <row r="304" spans="1:8" ht="50" customHeight="1">
+      <c r="A304" s="53"/>
+      <c r="B304" s="53"/>
       <c r="C304" s="8" t="s">
         <v>590</v>
       </c>
@@ -50270,12 +51348,15 @@
       <c r="E304" s="10"/>
       <c r="F304" s="10"/>
       <c r="G304" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H304" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="50" customHeight="1">
-      <c r="A305" s="39"/>
-      <c r="B305" s="39"/>
+    <row r="305" spans="1:8" ht="50" customHeight="1">
+      <c r="A305" s="53"/>
+      <c r="B305" s="53"/>
       <c r="C305" s="8" t="s">
         <v>592</v>
       </c>
@@ -50285,12 +51366,15 @@
       <c r="E305" s="10"/>
       <c r="F305" s="10"/>
       <c r="G305" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H305" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="50" customHeight="1">
-      <c r="A306" s="39"/>
-      <c r="B306" s="40"/>
+    <row r="306" spans="1:8" ht="50" customHeight="1">
+      <c r="A306" s="53"/>
+      <c r="B306" s="54"/>
       <c r="C306" s="8" t="s">
         <v>594</v>
       </c>
@@ -50300,13 +51384,16 @@
       <c r="E306" s="10"/>
       <c r="F306" s="10"/>
       <c r="G306" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H306" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="50" customHeight="1">
-      <c r="A307" s="39"/>
+    <row r="307" spans="1:8" ht="50" customHeight="1">
+      <c r="A307" s="53"/>
       <c r="B307" s="14" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="C307" s="8" t="s">
         <v>596</v>
@@ -50315,17 +51402,20 @@
         <v>597</v>
       </c>
       <c r="E307" s="10" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
       <c r="F307" s="10"/>
       <c r="G307" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H307" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="50" customHeight="1">
-      <c r="A308" s="39"/>
+    <row r="308" spans="1:8" ht="50" customHeight="1">
+      <c r="A308" s="53"/>
       <c r="B308" s="14" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="C308" s="8" t="s">
         <v>598</v>
@@ -50334,17 +51424,20 @@
         <v>599</v>
       </c>
       <c r="E308" s="10" t="s">
-        <v>986</v>
+        <v>973</v>
       </c>
       <c r="F308" s="10"/>
       <c r="G308" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H308" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="50" customHeight="1">
-      <c r="A309" s="39"/>
-      <c r="B309" s="38" t="s">
-        <v>901</v>
+    <row r="309" spans="1:8" ht="50" customHeight="1">
+      <c r="A309" s="53"/>
+      <c r="B309" s="52" t="s">
+        <v>889</v>
       </c>
       <c r="C309" s="8" t="s">
         <v>600</v>
@@ -50353,16 +51446,19 @@
         <v>601</v>
       </c>
       <c r="E309" s="10" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="F309" s="10"/>
       <c r="G309" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H309" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="50" customHeight="1">
-      <c r="A310" s="39"/>
-      <c r="B310" s="39"/>
+    <row r="310" spans="1:8" ht="50" customHeight="1">
+      <c r="A310" s="53"/>
+      <c r="B310" s="53"/>
       <c r="C310" s="8" t="s">
         <v>602</v>
       </c>
@@ -50370,16 +51466,19 @@
         <v>603</v>
       </c>
       <c r="E310" s="10" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="F310" s="10"/>
       <c r="G310" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H310" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="50" customHeight="1">
-      <c r="A311" s="39"/>
-      <c r="B311" s="39"/>
+    <row r="311" spans="1:8" ht="50" customHeight="1">
+      <c r="A311" s="53"/>
+      <c r="B311" s="53"/>
       <c r="C311" s="8" t="s">
         <v>604</v>
       </c>
@@ -50387,47 +51486,56 @@
         <v>605</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="F311" s="10"/>
       <c r="G311" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H311" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="50" customHeight="1">
-      <c r="A312" s="39"/>
-      <c r="B312" s="39"/>
+    <row r="312" spans="1:8" ht="50" customHeight="1">
+      <c r="A312" s="53"/>
+      <c r="B312" s="53"/>
       <c r="C312" s="35" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="D312" s="36" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="E312" s="10"/>
       <c r="F312" s="10"/>
       <c r="G312" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H312" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="50" customHeight="1">
-      <c r="A313" s="39"/>
-      <c r="B313" s="40"/>
+    <row r="313" spans="1:8" ht="50" customHeight="1">
+      <c r="A313" s="53"/>
+      <c r="B313" s="54"/>
       <c r="C313" s="35" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="D313" s="36" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="E313" s="10"/>
       <c r="F313" s="10"/>
       <c r="G313" s="21" t="s">
-        <v>863</v>
+        <v>1002</v>
+      </c>
+      <c r="H313" s="44" t="s">
+        <v>1003</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="50" customHeight="1">
-      <c r="A314" s="39"/>
-      <c r="B314" s="38" t="s">
-        <v>902</v>
+    <row r="314" spans="1:8" ht="50" customHeight="1">
+      <c r="A314" s="53"/>
+      <c r="B314" s="52" t="s">
+        <v>890</v>
       </c>
       <c r="C314" s="8" t="s">
         <v>606</v>
@@ -50436,16 +51544,19 @@
         <v>607</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="F314" s="16"/>
       <c r="G314" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H314" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="50" customHeight="1">
-      <c r="A315" s="39"/>
-      <c r="B315" s="39"/>
+    <row r="315" spans="1:8" ht="50" customHeight="1">
+      <c r="A315" s="53"/>
+      <c r="B315" s="53"/>
       <c r="C315" s="8" t="s">
         <v>608</v>
       </c>
@@ -50453,16 +51564,19 @@
         <v>609</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="F315" s="16"/>
       <c r="G315" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H315" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="50" customHeight="1">
-      <c r="A316" s="39"/>
-      <c r="B316" s="40"/>
+    <row r="316" spans="1:8" ht="50" customHeight="1">
+      <c r="A316" s="53"/>
+      <c r="B316" s="54"/>
       <c r="C316" s="8" t="s">
         <v>610</v>
       </c>
@@ -50472,13 +51586,16 @@
       <c r="E316" s="10"/>
       <c r="F316" s="10"/>
       <c r="G316" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H316" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="50" customHeight="1">
-      <c r="A317" s="39"/>
-      <c r="B317" s="38" t="s">
-        <v>903</v>
+    <row r="317" spans="1:8" ht="50" customHeight="1">
+      <c r="A317" s="53"/>
+      <c r="B317" s="52" t="s">
+        <v>891</v>
       </c>
       <c r="C317" s="8" t="s">
         <v>612</v>
@@ -50487,16 +51604,19 @@
         <v>613</v>
       </c>
       <c r="E317" s="10" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="F317" s="10"/>
       <c r="G317" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H317" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="50" customHeight="1">
-      <c r="A318" s="39"/>
-      <c r="B318" s="39"/>
+    <row r="318" spans="1:8" ht="50" customHeight="1">
+      <c r="A318" s="53"/>
+      <c r="B318" s="53"/>
       <c r="C318" s="8" t="s">
         <v>614</v>
       </c>
@@ -50504,16 +51624,19 @@
         <v>615</v>
       </c>
       <c r="E318" s="10" t="s">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="F318" s="10"/>
       <c r="G318" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H318" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="50" customHeight="1">
-      <c r="A319" s="39"/>
-      <c r="B319" s="39"/>
+    <row r="319" spans="1:8" ht="50" customHeight="1">
+      <c r="A319" s="53"/>
+      <c r="B319" s="53"/>
       <c r="C319" s="8" t="s">
         <v>616</v>
       </c>
@@ -50521,16 +51644,19 @@
         <v>617</v>
       </c>
       <c r="E319" s="10" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="F319" s="10"/>
       <c r="G319" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H319" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="50" customHeight="1">
-      <c r="A320" s="39"/>
-      <c r="B320" s="39"/>
+    <row r="320" spans="1:8" ht="50" customHeight="1">
+      <c r="A320" s="53"/>
+      <c r="B320" s="53"/>
       <c r="C320" s="8" t="s">
         <v>618</v>
       </c>
@@ -50540,12 +51666,15 @@
       <c r="E320" s="10"/>
       <c r="F320" s="10"/>
       <c r="G320" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H320" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="50" customHeight="1">
-      <c r="A321" s="39"/>
-      <c r="B321" s="39"/>
+    <row r="321" spans="1:8" ht="50" customHeight="1">
+      <c r="A321" s="53"/>
+      <c r="B321" s="53"/>
       <c r="C321" s="8" t="s">
         <v>620</v>
       </c>
@@ -50555,12 +51684,15 @@
       <c r="E321" s="10"/>
       <c r="F321" s="10"/>
       <c r="G321" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H321" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="50" customHeight="1">
-      <c r="A322" s="39"/>
-      <c r="B322" s="39"/>
+    <row r="322" spans="1:8" ht="50" customHeight="1">
+      <c r="A322" s="53"/>
+      <c r="B322" s="53"/>
       <c r="C322" s="8" t="s">
         <v>622</v>
       </c>
@@ -50570,12 +51702,15 @@
       <c r="E322" s="10"/>
       <c r="F322" s="10"/>
       <c r="G322" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H322" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="50" customHeight="1">
-      <c r="A323" s="39"/>
-      <c r="B323" s="39"/>
+    <row r="323" spans="1:8" ht="50" customHeight="1">
+      <c r="A323" s="53"/>
+      <c r="B323" s="53"/>
       <c r="C323" s="8" t="s">
         <v>624</v>
       </c>
@@ -50585,12 +51720,15 @@
       <c r="E323" s="10"/>
       <c r="F323" s="10"/>
       <c r="G323" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H323" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="50" customHeight="1">
-      <c r="A324" s="39"/>
-      <c r="B324" s="39"/>
+    <row r="324" spans="1:8" ht="50" customHeight="1">
+      <c r="A324" s="53"/>
+      <c r="B324" s="53"/>
       <c r="C324" s="8" t="s">
         <v>626</v>
       </c>
@@ -50600,12 +51738,15 @@
       <c r="E324" s="10"/>
       <c r="F324" s="10"/>
       <c r="G324" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H324" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="50" customHeight="1">
-      <c r="A325" s="39"/>
-      <c r="B325" s="39"/>
+    <row r="325" spans="1:8" ht="50" customHeight="1">
+      <c r="A325" s="53"/>
+      <c r="B325" s="53"/>
       <c r="C325" s="8" t="s">
         <v>628</v>
       </c>
@@ -50615,12 +51756,15 @@
       <c r="E325" s="10"/>
       <c r="F325" s="10"/>
       <c r="G325" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H325" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="50" customHeight="1">
-      <c r="A326" s="39"/>
-      <c r="B326" s="40"/>
+    <row r="326" spans="1:8" ht="50" customHeight="1">
+      <c r="A326" s="53"/>
+      <c r="B326" s="54"/>
       <c r="C326" s="8" t="s">
         <v>630</v>
       </c>
@@ -50630,13 +51774,16 @@
       <c r="E326" s="10"/>
       <c r="F326" s="10"/>
       <c r="G326" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H326" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="50" customHeight="1">
-      <c r="A327" s="39"/>
+    <row r="327" spans="1:8" ht="50" customHeight="1">
+      <c r="A327" s="53"/>
       <c r="B327" s="14" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="C327" s="8" t="s">
         <v>632</v>
@@ -50645,17 +51792,20 @@
         <v>633</v>
       </c>
       <c r="E327" s="10" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="F327" s="10"/>
       <c r="G327" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H327" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="50" customHeight="1">
-      <c r="A328" s="39"/>
-      <c r="B328" s="38" t="s">
-        <v>905</v>
+    <row r="328" spans="1:8" ht="50" customHeight="1">
+      <c r="A328" s="53"/>
+      <c r="B328" s="52" t="s">
+        <v>893</v>
       </c>
       <c r="C328" s="8" t="s">
         <v>634</v>
@@ -50666,12 +51816,15 @@
       <c r="E328" s="16"/>
       <c r="F328" s="16"/>
       <c r="G328" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H328" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="50" customHeight="1">
-      <c r="A329" s="39"/>
-      <c r="B329" s="39"/>
+    <row r="329" spans="1:8" ht="50" customHeight="1">
+      <c r="A329" s="53"/>
+      <c r="B329" s="53"/>
       <c r="C329" s="8" t="s">
         <v>636</v>
       </c>
@@ -50681,12 +51834,15 @@
       <c r="E329" s="16"/>
       <c r="F329" s="16"/>
       <c r="G329" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H329" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="50" customHeight="1">
-      <c r="A330" s="39"/>
-      <c r="B330" s="39"/>
+    <row r="330" spans="1:8" ht="50" customHeight="1">
+      <c r="A330" s="53"/>
+      <c r="B330" s="53"/>
       <c r="C330" s="8" t="s">
         <v>638</v>
       </c>
@@ -50696,12 +51852,15 @@
       <c r="E330" s="16"/>
       <c r="F330" s="16"/>
       <c r="G330" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H330" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="50" customHeight="1">
-      <c r="A331" s="39"/>
-      <c r="B331" s="39"/>
+    <row r="331" spans="1:8" ht="50" customHeight="1">
+      <c r="A331" s="53"/>
+      <c r="B331" s="53"/>
       <c r="C331" s="8" t="s">
         <v>640</v>
       </c>
@@ -50711,12 +51870,15 @@
       <c r="E331" s="16"/>
       <c r="F331" s="16"/>
       <c r="G331" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H331" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="50" customHeight="1">
-      <c r="A332" s="40"/>
-      <c r="B332" s="40"/>
+    <row r="332" spans="1:8" ht="50" customHeight="1">
+      <c r="A332" s="54"/>
+      <c r="B332" s="54"/>
       <c r="C332" s="8" t="s">
         <v>642</v>
       </c>
@@ -50726,12 +51888,15 @@
       <c r="E332" s="16"/>
       <c r="F332" s="16"/>
       <c r="G332" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H332" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="50" customHeight="1">
-      <c r="A333" s="38" t="s">
-        <v>871</v>
+    <row r="333" spans="1:8" ht="50" customHeight="1">
+      <c r="A333" s="52" t="s">
+        <v>862</v>
       </c>
       <c r="C333" s="8" t="s">
         <v>644</v>
@@ -50740,15 +51905,18 @@
         <v>645</v>
       </c>
       <c r="E333" s="10" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
       <c r="F333" s="10"/>
       <c r="G333" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H333" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="50" customHeight="1">
-      <c r="A334" s="39"/>
+    <row r="334" spans="1:8" ht="50" customHeight="1">
+      <c r="A334" s="53"/>
       <c r="C334" s="8" t="s">
         <v>646</v>
       </c>
@@ -50758,11 +51926,14 @@
       <c r="E334" s="16"/>
       <c r="F334" s="16"/>
       <c r="G334" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H334" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="50" customHeight="1">
-      <c r="A335" s="39"/>
+    <row r="335" spans="1:8" ht="50" customHeight="1">
+      <c r="A335" s="53"/>
       <c r="C335" s="8" t="s">
         <v>648</v>
       </c>
@@ -50772,11 +51943,14 @@
       <c r="E335" s="10"/>
       <c r="F335" s="10"/>
       <c r="G335" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H335" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="50" customHeight="1">
-      <c r="A336" s="39"/>
+    <row r="336" spans="1:8" ht="50" customHeight="1">
+      <c r="A336" s="53"/>
       <c r="C336" s="8" t="s">
         <v>650</v>
       </c>
@@ -50786,11 +51960,14 @@
       <c r="E336" s="10"/>
       <c r="F336" s="10"/>
       <c r="G336" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H336" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="50" customHeight="1">
-      <c r="A337" s="39"/>
+    <row r="337" spans="1:8" ht="50" customHeight="1">
+      <c r="A337" s="53"/>
       <c r="C337" s="8" t="s">
         <v>652</v>
       </c>
@@ -50800,11 +51977,14 @@
       <c r="E337" s="10"/>
       <c r="F337" s="10"/>
       <c r="G337" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H337" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="50" customHeight="1">
-      <c r="A338" s="39"/>
+    <row r="338" spans="1:8" ht="50" customHeight="1">
+      <c r="A338" s="53"/>
       <c r="C338" s="8" t="s">
         <v>654</v>
       </c>
@@ -50814,11 +51994,14 @@
       <c r="E338" s="10"/>
       <c r="F338" s="10"/>
       <c r="G338" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H338" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="50" customHeight="1">
-      <c r="A339" s="39"/>
+    <row r="339" spans="1:8" ht="50" customHeight="1">
+      <c r="A339" s="53"/>
       <c r="C339" s="8" t="s">
         <v>656</v>
       </c>
@@ -50826,15 +52009,18 @@
         <v>657</v>
       </c>
       <c r="E339" s="10" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
       <c r="F339" s="10"/>
       <c r="G339" s="30" t="s">
-        <v>890</v>
+        <v>1012</v>
+      </c>
+      <c r="H339" s="49" t="s">
+        <v>1013</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="50" customHeight="1">
-      <c r="A340" s="39"/>
+    <row r="340" spans="1:8" ht="50" customHeight="1">
+      <c r="A340" s="53"/>
       <c r="C340" s="8" t="s">
         <v>658</v>
       </c>
@@ -50844,11 +52030,14 @@
       <c r="E340" s="10"/>
       <c r="F340" s="10"/>
       <c r="G340" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H340" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="50" customHeight="1">
-      <c r="A341" s="39"/>
+    <row r="341" spans="1:8" ht="50" customHeight="1">
+      <c r="A341" s="53"/>
       <c r="C341" s="8" t="s">
         <v>660</v>
       </c>
@@ -50858,11 +52047,14 @@
       <c r="E341" s="10"/>
       <c r="F341" s="10"/>
       <c r="G341" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H341" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="50" customHeight="1">
-      <c r="A342" s="39"/>
+    <row r="342" spans="1:8" ht="50" customHeight="1">
+      <c r="A342" s="53"/>
       <c r="C342" s="8" t="s">
         <v>662</v>
       </c>
@@ -50870,15 +52062,18 @@
         <v>663</v>
       </c>
       <c r="E342" s="10" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="F342" s="10"/>
       <c r="G342" s="30" t="s">
-        <v>890</v>
+        <v>1012</v>
+      </c>
+      <c r="H342" s="49" t="s">
+        <v>1013</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="50" customHeight="1">
-      <c r="A343" s="39"/>
+    <row r="343" spans="1:8" ht="50" customHeight="1">
+      <c r="A343" s="53"/>
       <c r="C343" s="8" t="s">
         <v>664</v>
       </c>
@@ -50888,11 +52083,14 @@
       <c r="E343" s="10"/>
       <c r="F343" s="10"/>
       <c r="G343" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H343" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="50" customHeight="1">
-      <c r="A344" s="39"/>
+    <row r="344" spans="1:8" ht="50" customHeight="1">
+      <c r="A344" s="53"/>
       <c r="C344" s="8" t="s">
         <v>666</v>
       </c>
@@ -50902,11 +52100,14 @@
       <c r="E344" s="10"/>
       <c r="F344" s="10"/>
       <c r="G344" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H344" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="50" customHeight="1">
-      <c r="A345" s="39"/>
+    <row r="345" spans="1:8" ht="50" customHeight="1">
+      <c r="A345" s="53"/>
       <c r="C345" s="8" t="s">
         <v>668</v>
       </c>
@@ -50916,25 +52117,31 @@
       <c r="E345" s="10"/>
       <c r="F345" s="10"/>
       <c r="G345" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H345" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="50" customHeight="1">
-      <c r="A346" s="39"/>
+    <row r="346" spans="1:8" ht="50" customHeight="1">
+      <c r="A346" s="53"/>
       <c r="C346" s="35" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="D346" s="36" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="E346" s="10"/>
       <c r="F346" s="10"/>
       <c r="G346" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H346" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="50" customHeight="1">
-      <c r="A347" s="39"/>
+    <row r="347" spans="1:8" ht="50" customHeight="1">
+      <c r="A347" s="53"/>
       <c r="C347" s="8" t="s">
         <v>670</v>
       </c>
@@ -50942,15 +52149,18 @@
         <v>671</v>
       </c>
       <c r="E347" s="10" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
       <c r="F347" s="10"/>
       <c r="G347" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H347" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="50" customHeight="1">
-      <c r="A348" s="39"/>
+    <row r="348" spans="1:8" ht="50" customHeight="1">
+      <c r="A348" s="53"/>
       <c r="C348" s="8" t="s">
         <v>672</v>
       </c>
@@ -50958,15 +52168,18 @@
         <v>673</v>
       </c>
       <c r="E348" s="10" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
       <c r="F348" s="10"/>
       <c r="G348" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H348" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="50" customHeight="1">
-      <c r="A349" s="39"/>
+    <row r="349" spans="1:8" ht="50" customHeight="1">
+      <c r="A349" s="53"/>
       <c r="C349" s="8" t="s">
         <v>674</v>
       </c>
@@ -50976,11 +52189,14 @@
       <c r="E349" s="10"/>
       <c r="F349" s="10"/>
       <c r="G349" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H349" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="50" customHeight="1">
-      <c r="A350" s="39"/>
+    <row r="350" spans="1:8" ht="50" customHeight="1">
+      <c r="A350" s="53"/>
       <c r="C350" s="8" t="s">
         <v>676</v>
       </c>
@@ -50990,11 +52206,14 @@
       <c r="E350" s="10"/>
       <c r="F350" s="10"/>
       <c r="G350" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H350" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="50" customHeight="1">
-      <c r="A351" s="39"/>
+    <row r="351" spans="1:8" ht="50" customHeight="1">
+      <c r="A351" s="53"/>
       <c r="C351" s="8" t="s">
         <v>678</v>
       </c>
@@ -51002,15 +52221,18 @@
         <v>679</v>
       </c>
       <c r="E351" s="10" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
       <c r="F351" s="10"/>
       <c r="G351" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H351" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="50" customHeight="1">
-      <c r="A352" s="39"/>
+    <row r="352" spans="1:8" ht="50" customHeight="1">
+      <c r="A352" s="53"/>
       <c r="C352" s="8" t="s">
         <v>680</v>
       </c>
@@ -51020,11 +52242,14 @@
       <c r="E352" s="10"/>
       <c r="F352" s="10"/>
       <c r="G352" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H352" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="50" customHeight="1">
-      <c r="A353" s="39"/>
+    <row r="353" spans="1:8" ht="50" customHeight="1">
+      <c r="A353" s="53"/>
       <c r="C353" s="8" t="s">
         <v>682</v>
       </c>
@@ -51032,15 +52257,18 @@
         <v>683</v>
       </c>
       <c r="E353" s="10" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
       <c r="F353" s="10"/>
       <c r="G353" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H353" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="50" customHeight="1">
-      <c r="A354" s="39"/>
+    <row r="354" spans="1:8" ht="50" customHeight="1">
+      <c r="A354" s="53"/>
       <c r="C354" s="8" t="s">
         <v>684</v>
       </c>
@@ -51050,11 +52278,14 @@
       <c r="E354" s="10"/>
       <c r="F354" s="10"/>
       <c r="G354" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H354" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="50" customHeight="1">
-      <c r="A355" s="39"/>
+    <row r="355" spans="1:8" ht="50" customHeight="1">
+      <c r="A355" s="53"/>
       <c r="C355" s="8" t="s">
         <v>686</v>
       </c>
@@ -51062,15 +52293,18 @@
         <v>687</v>
       </c>
       <c r="E355" s="10" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
       <c r="F355" s="10"/>
       <c r="G355" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H355" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="50" customHeight="1">
-      <c r="A356" s="39"/>
+    <row r="356" spans="1:8" ht="50" customHeight="1">
+      <c r="A356" s="53"/>
       <c r="C356" s="8" t="s">
         <v>688</v>
       </c>
@@ -51078,15 +52312,18 @@
         <v>689</v>
       </c>
       <c r="E356" s="10" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
       <c r="F356" s="10"/>
       <c r="G356" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H356" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="50" customHeight="1">
-      <c r="A357" s="39"/>
+    <row r="357" spans="1:8" ht="50" customHeight="1">
+      <c r="A357" s="53"/>
       <c r="C357" s="8" t="s">
         <v>690</v>
       </c>
@@ -51094,15 +52331,18 @@
         <v>691</v>
       </c>
       <c r="E357" s="10" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
       <c r="F357" s="10"/>
       <c r="G357" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H357" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="50" customHeight="1">
-      <c r="A358" s="39"/>
+    <row r="358" spans="1:8" ht="50" customHeight="1">
+      <c r="A358" s="53"/>
       <c r="C358" s="8" t="s">
         <v>692</v>
       </c>
@@ -51110,15 +52350,18 @@
         <v>693</v>
       </c>
       <c r="E358" s="10" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
       <c r="F358" s="10"/>
       <c r="G358" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H358" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="50" customHeight="1">
-      <c r="A359" s="39"/>
+    <row r="359" spans="1:8" ht="50" customHeight="1">
+      <c r="A359" s="53"/>
       <c r="C359" s="8" t="s">
         <v>694</v>
       </c>
@@ -51128,11 +52371,14 @@
       <c r="E359" s="10"/>
       <c r="F359" s="10"/>
       <c r="G359" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H359" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="50" customHeight="1">
-      <c r="A360" s="39"/>
+    <row r="360" spans="1:8" ht="50" customHeight="1">
+      <c r="A360" s="53"/>
       <c r="C360" s="8" t="s">
         <v>696</v>
       </c>
@@ -51142,11 +52388,14 @@
       <c r="E360" s="10"/>
       <c r="F360" s="10"/>
       <c r="G360" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H360" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="50" customHeight="1">
-      <c r="A361" s="39"/>
+    <row r="361" spans="1:8" ht="50" customHeight="1">
+      <c r="A361" s="53"/>
       <c r="C361" s="8" t="s">
         <v>698</v>
       </c>
@@ -51156,11 +52405,14 @@
       <c r="E361" s="10"/>
       <c r="F361" s="10"/>
       <c r="G361" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H361" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="50" customHeight="1">
-      <c r="A362" s="39"/>
+    <row r="362" spans="1:8" ht="50" customHeight="1">
+      <c r="A362" s="53"/>
       <c r="C362" s="8" t="s">
         <v>700</v>
       </c>
@@ -51170,11 +52422,14 @@
       <c r="E362" s="10"/>
       <c r="F362" s="10"/>
       <c r="G362" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H362" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="50" customHeight="1">
-      <c r="A363" s="39"/>
+    <row r="363" spans="1:8" ht="50" customHeight="1">
+      <c r="A363" s="53"/>
       <c r="C363" s="8" t="s">
         <v>702</v>
       </c>
@@ -51184,11 +52439,14 @@
       <c r="E363" s="10"/>
       <c r="F363" s="10"/>
       <c r="G363" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H363" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="50" customHeight="1">
-      <c r="A364" s="39"/>
+    <row r="364" spans="1:8" ht="50" customHeight="1">
+      <c r="A364" s="53"/>
       <c r="C364" s="8" t="s">
         <v>704</v>
       </c>
@@ -51196,15 +52454,18 @@
         <v>705</v>
       </c>
       <c r="E364" s="10" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="F364" s="10"/>
       <c r="G364" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H364" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="50" customHeight="1">
-      <c r="A365" s="39"/>
+    <row r="365" spans="1:8" ht="50" customHeight="1">
+      <c r="A365" s="53"/>
       <c r="C365" s="8" t="s">
         <v>706</v>
       </c>
@@ -51212,15 +52473,18 @@
         <v>707</v>
       </c>
       <c r="E365" s="10" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
       <c r="F365" s="10"/>
       <c r="G365" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H365" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="50" customHeight="1">
-      <c r="A366" s="39"/>
+    <row r="366" spans="1:8" ht="50" customHeight="1">
+      <c r="A366" s="53"/>
       <c r="C366" s="8" t="s">
         <v>708</v>
       </c>
@@ -51230,11 +52494,14 @@
       <c r="E366" s="10"/>
       <c r="F366" s="10"/>
       <c r="G366" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H366" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="50" customHeight="1">
-      <c r="A367" s="39"/>
+    <row r="367" spans="1:8" ht="50" customHeight="1">
+      <c r="A367" s="53"/>
       <c r="C367" s="8" t="s">
         <v>710</v>
       </c>
@@ -51242,15 +52509,18 @@
         <v>711</v>
       </c>
       <c r="E367" s="10" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
       <c r="F367" s="10"/>
       <c r="G367" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H367" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="50" customHeight="1">
-      <c r="A368" s="39"/>
+    <row r="368" spans="1:8" ht="50" customHeight="1">
+      <c r="A368" s="53"/>
       <c r="C368" s="8" t="s">
         <v>712</v>
       </c>
@@ -51258,15 +52528,18 @@
         <v>713</v>
       </c>
       <c r="E368" s="10" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="F368" s="10"/>
-      <c r="G368" s="31" t="s">
-        <v>906</v>
+      <c r="G368" s="20" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H368" s="45" t="s">
+        <v>1005</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="50" customHeight="1">
-      <c r="A369" s="39"/>
+    <row r="369" spans="1:8" ht="50" customHeight="1">
+      <c r="A369" s="53"/>
       <c r="C369" s="8" t="s">
         <v>714</v>
       </c>
@@ -51274,15 +52547,18 @@
         <v>715</v>
       </c>
       <c r="E369" s="10" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="F369" s="10"/>
-      <c r="G369" s="31" t="s">
-        <v>906</v>
+      <c r="G369" s="20" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H369" s="45" t="s">
+        <v>1005</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="50" customHeight="1">
-      <c r="A370" s="39"/>
+    <row r="370" spans="1:8" ht="50" customHeight="1">
+      <c r="A370" s="53"/>
       <c r="C370" s="8" t="s">
         <v>716</v>
       </c>
@@ -51290,15 +52566,18 @@
         <v>717</v>
       </c>
       <c r="E370" s="10" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="F370" s="10"/>
-      <c r="G370" s="31" t="s">
-        <v>906</v>
+      <c r="G370" s="20" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H370" s="45" t="s">
+        <v>1005</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="50" customHeight="1">
-      <c r="A371" s="39"/>
+    <row r="371" spans="1:8" ht="50" customHeight="1">
+      <c r="A371" s="53"/>
       <c r="C371" s="8" t="s">
         <v>718</v>
       </c>
@@ -51306,15 +52585,18 @@
         <v>719</v>
       </c>
       <c r="E371" s="10" t="s">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="F371" s="10"/>
-      <c r="G371" s="31" t="s">
-        <v>906</v>
+      <c r="G371" s="20" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H371" s="45" t="s">
+        <v>1005</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="50" customHeight="1">
-      <c r="A372" s="39"/>
+    <row r="372" spans="1:8" ht="50" customHeight="1">
+      <c r="A372" s="53"/>
       <c r="C372" s="8" t="s">
         <v>720</v>
       </c>
@@ -51322,15 +52604,18 @@
         <v>721</v>
       </c>
       <c r="E372" s="10" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="F372" s="10"/>
-      <c r="G372" s="31" t="s">
-        <v>906</v>
+      <c r="G372" s="20" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H372" s="45" t="s">
+        <v>1005</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="50" customHeight="1">
-      <c r="A373" s="39"/>
+    <row r="373" spans="1:8" ht="50" customHeight="1">
+      <c r="A373" s="53"/>
       <c r="C373" s="8" t="s">
         <v>722</v>
       </c>
@@ -51338,15 +52623,18 @@
         <v>723</v>
       </c>
       <c r="E373" s="10" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="F373" s="10"/>
       <c r="G373" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H373" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="50" customHeight="1">
-      <c r="A374" s="39"/>
+    <row r="374" spans="1:8" ht="50" customHeight="1">
+      <c r="A374" s="53"/>
       <c r="C374" s="8" t="s">
         <v>724</v>
       </c>
@@ -51354,15 +52642,18 @@
         <v>725</v>
       </c>
       <c r="E374" s="10" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="F374" s="10"/>
       <c r="G374" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H374" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="50" customHeight="1">
-      <c r="A375" s="39"/>
+    <row r="375" spans="1:8" ht="50" customHeight="1">
+      <c r="A375" s="53"/>
       <c r="C375" s="8" t="s">
         <v>726</v>
       </c>
@@ -51370,15 +52661,18 @@
         <v>727</v>
       </c>
       <c r="E375" s="10" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="F375" s="10"/>
       <c r="G375" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H375" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="50" customHeight="1">
-      <c r="A376" s="39"/>
+    <row r="376" spans="1:8" ht="50" customHeight="1">
+      <c r="A376" s="53"/>
       <c r="C376" s="8" t="s">
         <v>728</v>
       </c>
@@ -51386,15 +52680,18 @@
         <v>729</v>
       </c>
       <c r="E376" s="10" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="F376" s="10"/>
       <c r="G376" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H376" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="50" customHeight="1">
-      <c r="A377" s="39"/>
+    <row r="377" spans="1:8" ht="50" customHeight="1">
+      <c r="A377" s="53"/>
       <c r="C377" s="8" t="s">
         <v>730</v>
       </c>
@@ -51404,11 +52701,14 @@
       <c r="E377" s="10"/>
       <c r="F377" s="10"/>
       <c r="G377" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H377" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="50" customHeight="1">
-      <c r="A378" s="39"/>
+    <row r="378" spans="1:8" ht="50" customHeight="1">
+      <c r="A378" s="53"/>
       <c r="C378" s="8" t="s">
         <v>732</v>
       </c>
@@ -51416,15 +52716,18 @@
         <v>733</v>
       </c>
       <c r="E378" s="10" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="F378" s="10"/>
       <c r="G378" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H378" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="50" customHeight="1">
-      <c r="A379" s="39"/>
+    <row r="379" spans="1:8" ht="50" customHeight="1">
+      <c r="A379" s="53"/>
       <c r="C379" s="8" t="s">
         <v>734</v>
       </c>
@@ -51434,11 +52737,14 @@
       <c r="E379" s="10"/>
       <c r="F379" s="10"/>
       <c r="G379" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H379" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="50" customHeight="1">
-      <c r="A380" s="39"/>
+    <row r="380" spans="1:8" ht="50" customHeight="1">
+      <c r="A380" s="53"/>
       <c r="C380" s="8" t="s">
         <v>736</v>
       </c>
@@ -51448,11 +52754,14 @@
       <c r="E380" s="10"/>
       <c r="F380" s="10"/>
       <c r="G380" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H380" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="50" customHeight="1">
-      <c r="A381" s="39"/>
+    <row r="381" spans="1:8" ht="50" customHeight="1">
+      <c r="A381" s="53"/>
       <c r="C381" s="8" t="s">
         <v>738</v>
       </c>
@@ -51462,11 +52771,14 @@
       <c r="E381" s="10"/>
       <c r="F381" s="10"/>
       <c r="G381" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H381" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="50" customHeight="1">
-      <c r="A382" s="39"/>
+    <row r="382" spans="1:8" ht="50" customHeight="1">
+      <c r="A382" s="53"/>
       <c r="C382" s="8" t="s">
         <v>740</v>
       </c>
@@ -51476,11 +52788,14 @@
       <c r="E382" s="10"/>
       <c r="F382" s="10"/>
       <c r="G382" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H382" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="50" customHeight="1">
-      <c r="A383" s="39"/>
+    <row r="383" spans="1:8" ht="50" customHeight="1">
+      <c r="A383" s="53"/>
       <c r="C383" s="8" t="s">
         <v>742</v>
       </c>
@@ -51490,11 +52805,14 @@
       <c r="E383" s="10"/>
       <c r="F383" s="10"/>
       <c r="G383" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H383" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="50" customHeight="1">
-      <c r="A384" s="39"/>
+    <row r="384" spans="1:8" ht="50" customHeight="1">
+      <c r="A384" s="53"/>
       <c r="C384" s="8" t="s">
         <v>744</v>
       </c>
@@ -51504,11 +52822,14 @@
       <c r="E384" s="10"/>
       <c r="F384" s="10"/>
       <c r="G384" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H384" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="50" customHeight="1">
-      <c r="A385" s="39"/>
+    <row r="385" spans="1:8" ht="50" customHeight="1">
+      <c r="A385" s="53"/>
       <c r="C385" s="8" t="s">
         <v>746</v>
       </c>
@@ -51516,15 +52837,18 @@
         <v>747</v>
       </c>
       <c r="E385" s="10" t="s">
-        <v>962</v>
+        <v>949</v>
       </c>
       <c r="F385" s="10"/>
       <c r="G385" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H385" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="386" spans="1:7" ht="50" customHeight="1">
-      <c r="A386" s="39"/>
+    <row r="386" spans="1:8" ht="50" customHeight="1">
+      <c r="A386" s="53"/>
       <c r="C386" s="8" t="s">
         <v>748</v>
       </c>
@@ -51534,11 +52858,14 @@
       <c r="E386" s="10"/>
       <c r="F386" s="10"/>
       <c r="G386" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H386" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="50" customHeight="1">
-      <c r="A387" s="39"/>
+    <row r="387" spans="1:8" ht="50" customHeight="1">
+      <c r="A387" s="53"/>
       <c r="C387" s="8" t="s">
         <v>750</v>
       </c>
@@ -51546,15 +52873,18 @@
         <v>751</v>
       </c>
       <c r="E387" s="10" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="F387" s="10"/>
       <c r="G387" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H387" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="50" customHeight="1">
-      <c r="A388" s="39"/>
+    <row r="388" spans="1:8" ht="50" customHeight="1">
+      <c r="A388" s="53"/>
       <c r="C388" s="8" t="s">
         <v>752</v>
       </c>
@@ -51564,11 +52894,14 @@
       <c r="E388" s="10"/>
       <c r="F388" s="10"/>
       <c r="G388" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H388" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="50" customHeight="1">
-      <c r="A389" s="39"/>
+    <row r="389" spans="1:8" ht="50" customHeight="1">
+      <c r="A389" s="53"/>
       <c r="C389" s="8" t="s">
         <v>754</v>
       </c>
@@ -51578,11 +52911,14 @@
       <c r="E389" s="10"/>
       <c r="F389" s="10"/>
       <c r="G389" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H389" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="50" customHeight="1">
-      <c r="A390" s="39"/>
+    <row r="390" spans="1:8" ht="50" customHeight="1">
+      <c r="A390" s="53"/>
       <c r="C390" s="8" t="s">
         <v>756</v>
       </c>
@@ -51592,11 +52928,14 @@
       <c r="E390" s="10"/>
       <c r="F390" s="10"/>
       <c r="G390" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H390" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="50" customHeight="1">
-      <c r="A391" s="39"/>
+    <row r="391" spans="1:8" ht="50" customHeight="1">
+      <c r="A391" s="53"/>
       <c r="C391" s="8" t="s">
         <v>758</v>
       </c>
@@ -51606,11 +52945,14 @@
       <c r="E391" s="10"/>
       <c r="F391" s="10"/>
       <c r="G391" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H391" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="50" customHeight="1">
-      <c r="A392" s="39"/>
+    <row r="392" spans="1:8" ht="50" customHeight="1">
+      <c r="A392" s="53"/>
       <c r="C392" s="8" t="s">
         <v>760</v>
       </c>
@@ -51620,11 +52962,14 @@
       <c r="E392" s="10"/>
       <c r="F392" s="10"/>
       <c r="G392" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H392" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="50" customHeight="1">
-      <c r="A393" s="39"/>
+    <row r="393" spans="1:8" ht="50" customHeight="1">
+      <c r="A393" s="53"/>
       <c r="C393" s="8" t="s">
         <v>762</v>
       </c>
@@ -51634,11 +52979,14 @@
       <c r="E393" s="10"/>
       <c r="F393" s="10"/>
       <c r="G393" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H393" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="50" customHeight="1">
-      <c r="A394" s="39"/>
+    <row r="394" spans="1:8" ht="50" customHeight="1">
+      <c r="A394" s="53"/>
       <c r="C394" s="8" t="s">
         <v>764</v>
       </c>
@@ -51648,11 +52996,14 @@
       <c r="E394" s="10"/>
       <c r="F394" s="10"/>
       <c r="G394" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H394" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="50" customHeight="1">
-      <c r="A395" s="39"/>
+    <row r="395" spans="1:8" ht="50" customHeight="1">
+      <c r="A395" s="53"/>
       <c r="C395" s="8" t="s">
         <v>766</v>
       </c>
@@ -51662,11 +53013,14 @@
       <c r="E395" s="10"/>
       <c r="F395" s="10"/>
       <c r="G395" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H395" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="50" customHeight="1">
-      <c r="A396" s="39"/>
+    <row r="396" spans="1:8" ht="50" customHeight="1">
+      <c r="A396" s="53"/>
       <c r="C396" s="8" t="s">
         <v>768</v>
       </c>
@@ -51674,15 +53028,18 @@
         <v>769</v>
       </c>
       <c r="E396" s="10" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="F396" s="10"/>
       <c r="G396" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H396" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="50" customHeight="1">
-      <c r="A397" s="39"/>
+    <row r="397" spans="1:8" ht="50" customHeight="1">
+      <c r="A397" s="53"/>
       <c r="C397" s="8" t="s">
         <v>770</v>
       </c>
@@ -51692,11 +53049,14 @@
       <c r="E397" s="10"/>
       <c r="F397" s="10"/>
       <c r="G397" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H397" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="398" spans="1:7" ht="50" customHeight="1">
-      <c r="A398" s="39"/>
+    <row r="398" spans="1:8" ht="50" customHeight="1">
+      <c r="A398" s="53"/>
       <c r="C398" s="8" t="s">
         <v>772</v>
       </c>
@@ -51706,11 +53066,14 @@
       <c r="E398" s="10"/>
       <c r="F398" s="10"/>
       <c r="G398" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H398" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="50" customHeight="1">
-      <c r="A399" s="39"/>
+    <row r="399" spans="1:8" ht="50" customHeight="1">
+      <c r="A399" s="53"/>
       <c r="C399" s="8" t="s">
         <v>774</v>
       </c>
@@ -51720,11 +53083,14 @@
       <c r="E399" s="10"/>
       <c r="F399" s="10"/>
       <c r="G399" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H399" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="50" customHeight="1">
-      <c r="A400" s="39"/>
+    <row r="400" spans="1:8" ht="50" customHeight="1">
+      <c r="A400" s="53"/>
       <c r="C400" s="8" t="s">
         <v>776</v>
       </c>
@@ -51732,15 +53098,18 @@
         <v>777</v>
       </c>
       <c r="E400" s="10" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
       <c r="F400" s="10"/>
       <c r="G400" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H400" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="50" customHeight="1">
-      <c r="A401" s="39"/>
+    <row r="401" spans="1:8" ht="50" customHeight="1">
+      <c r="A401" s="53"/>
       <c r="C401" s="8" t="s">
         <v>778</v>
       </c>
@@ -51750,11 +53119,14 @@
       <c r="E401" s="10"/>
       <c r="F401" s="10"/>
       <c r="G401" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H401" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="50" customHeight="1">
-      <c r="A402" s="39"/>
+    <row r="402" spans="1:8" ht="50" customHeight="1">
+      <c r="A402" s="53"/>
       <c r="C402" s="8" t="s">
         <v>780</v>
       </c>
@@ -51762,15 +53134,18 @@
         <v>781</v>
       </c>
       <c r="E402" s="10" t="s">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="F402" s="10"/>
       <c r="G402" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H402" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="50" customHeight="1">
-      <c r="A403" s="39"/>
+    <row r="403" spans="1:8" ht="50" customHeight="1">
+      <c r="A403" s="53"/>
       <c r="C403" s="8" t="s">
         <v>782</v>
       </c>
@@ -51780,11 +53155,14 @@
       <c r="E403" s="10"/>
       <c r="F403" s="10"/>
       <c r="G403" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H403" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="50" customHeight="1">
-      <c r="A404" s="40"/>
+    <row r="404" spans="1:8" ht="50" customHeight="1">
+      <c r="A404" s="54"/>
       <c r="C404" s="8" t="s">
         <v>784</v>
       </c>
@@ -51794,15 +53172,18 @@
       <c r="E404" s="10"/>
       <c r="F404" s="10"/>
       <c r="G404" s="31" t="s">
-        <v>906</v>
+        <v>1016</v>
+      </c>
+      <c r="H404" s="51" t="s">
+        <v>1017</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="50" customHeight="1">
-      <c r="A405" s="38" t="s">
-        <v>872</v>
-      </c>
-      <c r="B405" s="38" t="s">
-        <v>873</v>
+    <row r="405" spans="1:8" ht="50" customHeight="1">
+      <c r="A405" s="52" t="s">
+        <v>863</v>
+      </c>
+      <c r="B405" s="52" t="s">
+        <v>864</v>
       </c>
       <c r="C405" s="26" t="s">
         <v>786</v>
@@ -51811,15 +53192,18 @@
         <v>787</v>
       </c>
       <c r="E405" s="13" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="G405" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H405" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="50" customHeight="1">
-      <c r="A406" s="39"/>
-      <c r="B406" s="39"/>
+    <row r="406" spans="1:8" ht="50" customHeight="1">
+      <c r="A406" s="53"/>
+      <c r="B406" s="53"/>
       <c r="C406" s="27" t="s">
         <v>788</v>
       </c>
@@ -51829,12 +53213,15 @@
       <c r="E406" s="10"/>
       <c r="F406" s="10"/>
       <c r="G406" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H406" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="50" customHeight="1">
-      <c r="A407" s="39"/>
-      <c r="B407" s="39"/>
+    <row r="407" spans="1:8" ht="50" customHeight="1">
+      <c r="A407" s="53"/>
+      <c r="B407" s="53"/>
       <c r="C407" s="27" t="s">
         <v>790</v>
       </c>
@@ -51844,12 +53231,15 @@
       <c r="E407" s="10"/>
       <c r="F407" s="10"/>
       <c r="G407" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H407" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="50" customHeight="1">
-      <c r="A408" s="39"/>
-      <c r="B408" s="40"/>
+    <row r="408" spans="1:8" ht="50" customHeight="1">
+      <c r="A408" s="53"/>
+      <c r="B408" s="54"/>
       <c r="C408" s="27" t="s">
         <v>792</v>
       </c>
@@ -51859,13 +53249,16 @@
       <c r="E408" s="10"/>
       <c r="F408" s="10"/>
       <c r="G408" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H408" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="50" customHeight="1">
-      <c r="A409" s="39"/>
-      <c r="B409" s="38" t="s">
-        <v>874</v>
+    <row r="409" spans="1:8" ht="50" customHeight="1">
+      <c r="A409" s="53"/>
+      <c r="B409" s="52" t="s">
+        <v>865</v>
       </c>
       <c r="C409" s="27" t="s">
         <v>794</v>
@@ -51876,12 +53269,15 @@
       <c r="E409" s="10"/>
       <c r="F409" s="10"/>
       <c r="G409" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H409" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="50" customHeight="1">
-      <c r="A410" s="39"/>
-      <c r="B410" s="39"/>
+    <row r="410" spans="1:8" ht="50" customHeight="1">
+      <c r="A410" s="53"/>
+      <c r="B410" s="53"/>
       <c r="C410" s="27" t="s">
         <v>796</v>
       </c>
@@ -51891,12 +53287,15 @@
       <c r="E410" s="10"/>
       <c r="F410" s="10"/>
       <c r="G410" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H410" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="50" customHeight="1">
-      <c r="A411" s="39"/>
-      <c r="B411" s="39"/>
+    <row r="411" spans="1:8" ht="50" customHeight="1">
+      <c r="A411" s="53"/>
+      <c r="B411" s="53"/>
       <c r="C411" s="27" t="s">
         <v>798</v>
       </c>
@@ -51904,16 +53303,19 @@
         <v>799</v>
       </c>
       <c r="E411" s="25" t="s">
-        <v>946</v>
+        <v>933</v>
       </c>
       <c r="F411" s="25"/>
       <c r="G411" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H411" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="50" customHeight="1">
-      <c r="A412" s="39"/>
-      <c r="B412" s="39"/>
+    <row r="412" spans="1:8" ht="50" customHeight="1">
+      <c r="A412" s="53"/>
+      <c r="B412" s="53"/>
       <c r="C412" s="27" t="s">
         <v>800</v>
       </c>
@@ -51923,12 +53325,15 @@
       <c r="E412" s="10"/>
       <c r="F412" s="10"/>
       <c r="G412" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H412" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="50" customHeight="1">
-      <c r="A413" s="39"/>
-      <c r="B413" s="39"/>
+    <row r="413" spans="1:8" ht="50" customHeight="1">
+      <c r="A413" s="53"/>
+      <c r="B413" s="53"/>
       <c r="C413" s="27" t="s">
         <v>802</v>
       </c>
@@ -51938,12 +53343,15 @@
       <c r="E413" s="10"/>
       <c r="F413" s="10"/>
       <c r="G413" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H413" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="414" spans="1:7" ht="50" customHeight="1">
-      <c r="A414" s="39"/>
-      <c r="B414" s="39"/>
+    <row r="414" spans="1:8" ht="50" customHeight="1">
+      <c r="A414" s="53"/>
+      <c r="B414" s="53"/>
       <c r="C414" s="27" t="s">
         <v>804</v>
       </c>
@@ -51953,12 +53361,15 @@
       <c r="E414" s="10"/>
       <c r="F414" s="10"/>
       <c r="G414" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H414" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="415" spans="1:7" ht="50" customHeight="1">
-      <c r="A415" s="39"/>
-      <c r="B415" s="40"/>
+    <row r="415" spans="1:8" ht="50" customHeight="1">
+      <c r="A415" s="53"/>
+      <c r="B415" s="54"/>
       <c r="C415" s="27" t="s">
         <v>806</v>
       </c>
@@ -51968,13 +53379,16 @@
       <c r="E415" s="10"/>
       <c r="F415" s="10"/>
       <c r="G415" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H415" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="50" customHeight="1">
-      <c r="A416" s="39"/>
-      <c r="B416" s="38" t="s">
-        <v>875</v>
+    <row r="416" spans="1:8" ht="50" customHeight="1">
+      <c r="A416" s="53"/>
+      <c r="B416" s="52" t="s">
+        <v>866</v>
       </c>
       <c r="C416" s="26" t="s">
         <v>808</v>
@@ -51983,15 +53397,18 @@
         <v>809</v>
       </c>
       <c r="E416" s="13" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="G416" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H416" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="417" spans="1:7" ht="50" customHeight="1">
-      <c r="A417" s="39"/>
-      <c r="B417" s="40"/>
+    <row r="417" spans="1:8" ht="50" customHeight="1">
+      <c r="A417" s="53"/>
+      <c r="B417" s="54"/>
       <c r="C417" s="27" t="s">
         <v>810</v>
       </c>
@@ -51999,16 +53416,19 @@
         <v>811</v>
       </c>
       <c r="E417" s="13" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="G417" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H417" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="418" spans="1:7" ht="50" customHeight="1">
-      <c r="A418" s="39"/>
-      <c r="B418" s="38" t="s">
-        <v>876</v>
+    <row r="418" spans="1:8" ht="50" customHeight="1">
+      <c r="A418" s="53"/>
+      <c r="B418" s="52" t="s">
+        <v>867</v>
       </c>
       <c r="C418" s="26" t="s">
         <v>812</v>
@@ -52017,12 +53437,15 @@
         <v>813</v>
       </c>
       <c r="G418" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H418" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="419" spans="1:7" ht="50" customHeight="1">
-      <c r="A419" s="39"/>
-      <c r="B419" s="39"/>
+    <row r="419" spans="1:8" ht="50" customHeight="1">
+      <c r="A419" s="53"/>
+      <c r="B419" s="53"/>
       <c r="C419" s="26" t="s">
         <v>814</v>
       </c>
@@ -52030,12 +53453,15 @@
         <v>815</v>
       </c>
       <c r="G419" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H419" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="50" customHeight="1">
-      <c r="A420" s="39"/>
-      <c r="B420" s="39"/>
+    <row r="420" spans="1:8" ht="50" customHeight="1">
+      <c r="A420" s="53"/>
+      <c r="B420" s="53"/>
       <c r="C420" s="26" t="s">
         <v>816</v>
       </c>
@@ -52043,12 +53469,15 @@
         <v>817</v>
       </c>
       <c r="G420" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H420" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="421" spans="1:7" ht="50" customHeight="1">
-      <c r="A421" s="39"/>
-      <c r="B421" s="39"/>
+    <row r="421" spans="1:8" ht="50" customHeight="1">
+      <c r="A421" s="53"/>
+      <c r="B421" s="53"/>
       <c r="C421" s="26" t="s">
         <v>818</v>
       </c>
@@ -52056,12 +53485,15 @@
         <v>819</v>
       </c>
       <c r="G421" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H421" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="50" customHeight="1">
-      <c r="A422" s="40"/>
-      <c r="B422" s="40"/>
+    <row r="422" spans="1:8" ht="50" customHeight="1">
+      <c r="A422" s="54"/>
+      <c r="B422" s="54"/>
       <c r="C422" s="26" t="s">
         <v>820</v>
       </c>
@@ -52069,7 +53501,10 @@
         <v>821</v>
       </c>
       <c r="G422" s="28" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="H422" s="50" t="s">
+        <v>1015</v>
       </c>
     </row>
   </sheetData>
